--- a/description.xlsx
+++ b/description.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="новые" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="217">
   <si>
     <t>SET_ORI(W,P,R)</t>
   </si>
@@ -634,6 +634,51 @@
   </si>
   <si>
     <t>R[2] - step</t>
+  </si>
+  <si>
+    <t>Matrix_lib. MUL_MX(A, B : ARRAY[*,*] OF REAL): ARRAY[*,*] OF REAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Matrix_lib. SCAL_MX(A : ARRAY[*,*] OF REAL; c: REAL): ARRAY[*,*] OF REAL</t>
+  </si>
+  <si>
+    <t>Matrix_lib.  ADD_MX(A, B : ARRAY[*,*] OF REAL): ARRAY[*,*] OF REAL</t>
+  </si>
+  <si>
+    <t>Matrix_lib. sub_MX(A, B : ARRAY[*,*] OF REAL): ARRAY[*,*] OF REAL</t>
+  </si>
+  <si>
+    <t>Matrix_lib. det_MX(A : ARRAY[*,*] OF REAL):  REAL</t>
+  </si>
+  <si>
+    <t>Matrix_lib. fill_MX(A11, A12, A13, A21, A22, A23, A31, A32, A33 :  REAL)  : ARRAY[*,*] OF REAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Matrix_lib. kramer(A, D: ARRAY [*,*] OF REAL)  : ARRAY[*,*] OF REAL</t>
+  </si>
+  <si>
+    <t>умнеожение матриц 3х3</t>
+  </si>
+  <si>
+    <t>умножение матрицы на коснтанту</t>
+  </si>
+  <si>
+    <t>сложение матриц 3х3</t>
+  </si>
+  <si>
+    <t>вычитание матриц 3х3</t>
+  </si>
+  <si>
+    <t>определитель матрицы 3х3</t>
+  </si>
+  <si>
+    <t>заполнение матрицы 3х3</t>
+  </si>
+  <si>
+    <t>решение системы линейных уравнений методом крамера, где 
+A матрица постоянных коэф. 
+D матрица где в первом столбце указаны правый части уравнений системы
+результат матрица где в первом стобце находятся решения матрицы</t>
   </si>
 </sst>
 </file>
@@ -716,7 +761,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1086,11 +1131,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1158,35 +1234,206 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1197,30 +1444,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1230,158 +1459,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1389,18 +1474,93 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1410,89 +1570,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1793,11 +1896,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I160"/>
+  <dimension ref="A1:I186"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46:A53"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C182" sqref="C182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1833,53 +1936,53 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="92"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="21" customHeight="1">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="48" t="s">
         <v>165</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="12"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="51" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1">
-      <c r="A4" s="94"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="8"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="97"/>
+      <c r="F4" s="52"/>
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1">
-      <c r="A5" s="94"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="8"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="97"/>
+      <c r="F5" s="52"/>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" thickBot="1">
-      <c r="A6" s="95"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="9"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="98"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="37" t="s">
         <v>164</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1894,12 +1997,12 @@
       <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="44" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1">
-      <c r="A8" s="89"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="1" t="s">
         <v>95</v>
       </c>
@@ -1910,10 +2013,10 @@
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="43"/>
+      <c r="F8" s="44"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1">
-      <c r="A9" s="89"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="9" t="s">
@@ -1922,10 +2025,10 @@
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="43"/>
+      <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1">
-      <c r="A10" s="89"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="8" t="s">
@@ -1934,10 +2037,10 @@
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="43"/>
+      <c r="F10" s="44"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="89"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="8" t="s">
@@ -1946,10 +2049,10 @@
       <c r="E11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="43"/>
+      <c r="F11" s="44"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="89"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="8" t="s">
@@ -1958,10 +2061,10 @@
       <c r="E12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="43"/>
+      <c r="F12" s="44"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="90"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="13" t="s">
@@ -1970,10 +2073,10 @@
       <c r="E13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="44"/>
+      <c r="F13" s="45"/>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="54" t="s">
         <v>195</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1988,12 +2091,12 @@
       <c r="E14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="43" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1">
-      <c r="A15" s="100"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="1" t="s">
         <v>95</v>
       </c>
@@ -2004,10 +2107,10 @@
       <c r="E15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="43"/>
+      <c r="F15" s="44"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1">
-      <c r="A16" s="100"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="2" t="s">
         <v>196</v>
       </c>
@@ -2018,10 +2121,10 @@
       <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="43"/>
+      <c r="F16" s="44"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1">
-      <c r="A17" s="100"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="8" t="s">
@@ -2030,10 +2133,10 @@
       <c r="E17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="43"/>
+      <c r="F17" s="44"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
-      <c r="A18" s="100"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="8" t="s">
@@ -2042,10 +2145,10 @@
       <c r="E18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="43"/>
+      <c r="F18" s="44"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1">
-      <c r="A19" s="100"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="8" t="s">
@@ -2054,10 +2157,10 @@
       <c r="E19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="43"/>
+      <c r="F19" s="44"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A20" s="101"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="13" t="s">
@@ -2066,10 +2169,10 @@
       <c r="E20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="44"/>
+      <c r="F20" s="45"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1">
-      <c r="A21" s="102" t="s">
+      <c r="A21" s="57" t="s">
         <v>166</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2081,15 +2184,15 @@
       <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="105" t="s">
+      <c r="F21" s="60" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1">
-      <c r="A22" s="103"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="1" t="s">
         <v>156</v>
       </c>
@@ -2099,75 +2202,75 @@
       <c r="D22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="106"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="61"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1">
-      <c r="A23" s="103"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="108" t="s">
+      <c r="C23" s="63" t="s">
         <v>158</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="106"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="61"/>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1">
-      <c r="A24" s="103"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="109"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="106"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="61"/>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1">
-      <c r="A25" s="103"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="108" t="s">
+      <c r="C25" s="63" t="s">
         <v>157</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="106"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="61"/>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1">
-      <c r="A26" s="103"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="110"/>
+      <c r="C26" s="65"/>
       <c r="D26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="106"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="61"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="104"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C27" s="111"/>
+      <c r="C27" s="66"/>
       <c r="D27" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="107"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="62"/>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="37" t="s">
         <v>161</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2179,15 +2282,15 @@
       <c r="D28" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="42" t="s">
+      <c r="F28" s="43" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1">
-      <c r="A29" s="89"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="1" t="s">
         <v>22</v>
       </c>
@@ -2197,11 +2300,11 @@
       <c r="D29" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="43"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="44"/>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1">
-      <c r="A30" s="89"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="1" t="s">
         <v>20</v>
       </c>
@@ -2211,11 +2314,11 @@
       <c r="D30" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="43"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="44"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1">
-      <c r="A31" s="89"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="1" t="s">
         <v>21</v>
       </c>
@@ -2223,11 +2326,11 @@
       <c r="D31" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="43"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="44"/>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1">
-      <c r="A32" s="89"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="1" t="s">
         <v>23</v>
       </c>
@@ -2235,11 +2338,11 @@
       <c r="D32" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="43"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="44"/>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1">
-      <c r="A33" s="89"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="1" t="s">
         <v>24</v>
       </c>
@@ -2247,11 +2350,11 @@
       <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="43"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="44"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="90"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="4" t="s">
         <v>159</v>
       </c>
@@ -2259,11 +2362,11 @@
       <c r="D34" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="41"/>
-      <c r="F34" s="44"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="45"/>
     </row>
     <row r="35" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A35" s="78" t="s">
+      <c r="A35" s="73" t="s">
         <v>182</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -2275,15 +2378,15 @@
       <c r="D35" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="39" t="s">
+      <c r="E35" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="42" t="s">
+      <c r="F35" s="43" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A36" s="79"/>
+      <c r="A36" s="74"/>
       <c r="B36" s="1" t="s">
         <v>70</v>
       </c>
@@ -2291,11 +2394,11 @@
       <c r="D36" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="40"/>
-      <c r="F36" s="43"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="44"/>
     </row>
     <row r="37" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A37" s="79"/>
+      <c r="A37" s="74"/>
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -2303,51 +2406,51 @@
       <c r="D37" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="43"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="44"/>
     </row>
     <row r="38" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A38" s="79"/>
+      <c r="A38" s="74"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="43"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="44"/>
     </row>
     <row r="39" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A39" s="79"/>
+      <c r="A39" s="74"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="40"/>
-      <c r="F39" s="43"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="44"/>
     </row>
     <row r="40" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A40" s="79"/>
+      <c r="A40" s="74"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="43"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="44"/>
     </row>
     <row r="41" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A41" s="80"/>
+      <c r="A41" s="75"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="41"/>
-      <c r="F41" s="44"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="45"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="76" t="s">
         <v>183</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -2357,24 +2460,24 @@
       <c r="D42" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="E42" s="39"/>
-      <c r="F42" s="42" t="s">
+      <c r="E42" s="40"/>
+      <c r="F42" s="43" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="46"/>
+      <c r="A43" s="77"/>
       <c r="B43" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="E43" s="40"/>
-      <c r="F43" s="43"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="44"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="46"/>
+      <c r="A44" s="77"/>
       <c r="B44" s="1" t="s">
         <v>130</v>
       </c>
@@ -2382,11 +2485,11 @@
       <c r="D44" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="E44" s="40"/>
-      <c r="F44" s="43"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="44"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A45" s="46"/>
+      <c r="A45" s="77"/>
       <c r="B45" s="1" t="s">
         <v>129</v>
       </c>
@@ -2394,43 +2497,43 @@
       <c r="D45" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="E45" s="40"/>
-      <c r="F45" s="43"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="44"/>
     </row>
     <row r="46" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="76" t="s">
         <v>150</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="82" t="s">
+      <c r="C46" s="79" t="s">
         <v>45</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="84" t="s">
+      <c r="E46" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="50" t="s">
+      <c r="F46" s="84" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1">
-      <c r="A47" s="46"/>
+      <c r="A47" s="77"/>
       <c r="B47" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="83"/>
+      <c r="C47" s="80"/>
       <c r="D47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="85"/>
-      <c r="F47" s="51"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="85"/>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1">
-      <c r="A48" s="46"/>
+      <c r="A48" s="77"/>
       <c r="B48" s="5" t="s">
         <v>29</v>
       </c>
@@ -2440,11 +2543,11 @@
       <c r="D48" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="85"/>
-      <c r="F48" s="51"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="85"/>
     </row>
     <row r="49" spans="1:6" ht="30" customHeight="1">
-      <c r="A49" s="46"/>
+      <c r="A49" s="77"/>
       <c r="B49" s="24" t="s">
         <v>30</v>
       </c>
@@ -2454,11 +2557,11 @@
       <c r="D49" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="85"/>
-      <c r="F49" s="51"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="85"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1">
-      <c r="A50" s="46"/>
+      <c r="A50" s="77"/>
       <c r="B50" s="24" t="s">
         <v>31</v>
       </c>
@@ -2468,11 +2571,11 @@
       <c r="D50" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="85"/>
-      <c r="F50" s="51"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="85"/>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1">
-      <c r="A51" s="46"/>
+      <c r="A51" s="77"/>
       <c r="B51" s="24" t="s">
         <v>32</v>
       </c>
@@ -2480,11 +2583,11 @@
       <c r="D51" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="85"/>
-      <c r="F51" s="51"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="85"/>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1">
-      <c r="A52" s="46"/>
+      <c r="A52" s="77"/>
       <c r="B52" s="24" t="s">
         <v>33</v>
       </c>
@@ -2492,16 +2595,16 @@
       <c r="D52" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="85"/>
-      <c r="F52" s="51"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="85"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A53" s="81"/>
+      <c r="A53" s="78"/>
       <c r="B53" s="25"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="52"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="86"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A54" s="87" t="s">
@@ -2514,7 +2617,7 @@
       <c r="F54" s="87"/>
     </row>
     <row r="55" spans="1:6" ht="30" customHeight="1">
-      <c r="A55" s="61" t="s">
+      <c r="A55" s="67" t="s">
         <v>62</v>
       </c>
       <c r="B55" s="12" t="s">
@@ -2525,10 +2628,10 @@
         <v>34</v>
       </c>
       <c r="E55" s="3"/>
-      <c r="F55" s="55"/>
+      <c r="F55" s="70"/>
     </row>
     <row r="56" spans="1:6" ht="30" customHeight="1">
-      <c r="A56" s="74"/>
+      <c r="A56" s="68"/>
       <c r="B56" s="8" t="s">
         <v>15</v>
       </c>
@@ -2537,10 +2640,10 @@
         <v>15</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="56"/>
+      <c r="F56" s="71"/>
     </row>
     <row r="57" spans="1:6" ht="45" customHeight="1">
-      <c r="A57" s="74"/>
+      <c r="A57" s="68"/>
       <c r="B57" s="9" t="s">
         <v>10</v>
       </c>
@@ -2549,26 +2652,26 @@
         <v>10</v>
       </c>
       <c r="E57" s="2"/>
-      <c r="F57" s="56"/>
+      <c r="F57" s="71"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="74"/>
+      <c r="A58" s="68"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="56"/>
+      <c r="F58" s="71"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A59" s="62"/>
+      <c r="A59" s="69"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="57"/>
+      <c r="F59" s="72"/>
     </row>
     <row r="60" spans="1:6" ht="30" customHeight="1">
-      <c r="A60" s="65" t="s">
+      <c r="A60" s="88" t="s">
         <v>12</v>
       </c>
       <c r="B60" s="3"/>
@@ -2579,26 +2682,26 @@
         <v>13</v>
       </c>
       <c r="E60" s="3"/>
-      <c r="F60" s="55"/>
+      <c r="F60" s="70"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="66"/>
+      <c r="A61" s="89"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="56"/>
+      <c r="F61" s="71"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A62" s="67"/>
+      <c r="A62" s="90"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="57"/>
+      <c r="F62" s="72"/>
     </row>
     <row r="63" spans="1:6" ht="30" customHeight="1">
-      <c r="A63" s="61" t="s">
+      <c r="A63" s="67" t="s">
         <v>0</v>
       </c>
       <c r="B63" s="8" t="s">
@@ -2609,10 +2712,10 @@
         <v>7</v>
       </c>
       <c r="E63" s="3"/>
-      <c r="F63" s="55"/>
+      <c r="F63" s="70"/>
     </row>
     <row r="64" spans="1:6" ht="30" customHeight="1">
-      <c r="A64" s="74"/>
+      <c r="A64" s="68"/>
       <c r="B64" s="8" t="s">
         <v>8</v>
       </c>
@@ -2621,10 +2724,10 @@
         <v>8</v>
       </c>
       <c r="E64" s="1"/>
-      <c r="F64" s="56"/>
+      <c r="F64" s="71"/>
     </row>
     <row r="65" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A65" s="62"/>
+      <c r="A65" s="69"/>
       <c r="B65" s="13" t="s">
         <v>9</v>
       </c>
@@ -2633,10 +2736,10 @@
         <v>9</v>
       </c>
       <c r="E65" s="4"/>
-      <c r="F65" s="57"/>
+      <c r="F65" s="72"/>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1">
-      <c r="A66" s="61" t="s">
+      <c r="A66" s="67" t="s">
         <v>42</v>
       </c>
       <c r="B66" s="9" t="s">
@@ -2647,10 +2750,10 @@
         <v>39</v>
       </c>
       <c r="E66" s="3"/>
-      <c r="F66" s="55"/>
+      <c r="F66" s="70"/>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1">
-      <c r="A67" s="74"/>
+      <c r="A67" s="68"/>
       <c r="B67" s="9" t="s">
         <v>40</v>
       </c>
@@ -2659,10 +2762,10 @@
         <v>40</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="56"/>
+      <c r="F67" s="71"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A68" s="62"/>
+      <c r="A68" s="69"/>
       <c r="B68" s="9" t="s">
         <v>41</v>
       </c>
@@ -2671,10 +2774,10 @@
         <v>41</v>
       </c>
       <c r="E68" s="4"/>
-      <c r="F68" s="57"/>
+      <c r="F68" s="72"/>
     </row>
     <row r="69" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A69" s="68" t="s">
+      <c r="A69" s="91" t="s">
         <v>170</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -2689,12 +2792,12 @@
       <c r="E69" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F69" s="55" t="s">
+      <c r="F69" s="70" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A70" s="69"/>
+      <c r="A70" s="92"/>
       <c r="B70" s="1" t="s">
         <v>17</v>
       </c>
@@ -2707,10 +2810,10 @@
       <c r="E70" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F70" s="56"/>
+      <c r="F70" s="71"/>
     </row>
     <row r="71" spans="1:6" ht="30" customHeight="1">
-      <c r="A71" s="69"/>
+      <c r="A71" s="92"/>
       <c r="B71" s="1" t="s">
         <v>18</v>
       </c>
@@ -2723,10 +2826,10 @@
       <c r="E71" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F71" s="56"/>
+      <c r="F71" s="71"/>
     </row>
     <row r="72" spans="1:6" ht="30" customHeight="1">
-      <c r="A72" s="69"/>
+      <c r="A72" s="92"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="8" t="s">
@@ -2735,10 +2838,10 @@
       <c r="E72" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="56"/>
+      <c r="F72" s="71"/>
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1">
-      <c r="A73" s="69"/>
+      <c r="A73" s="92"/>
       <c r="B73" s="7"/>
       <c r="C73" s="1"/>
       <c r="D73" s="8" t="s">
@@ -2747,10 +2850,10 @@
       <c r="E73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F73" s="56"/>
+      <c r="F73" s="71"/>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1">
-      <c r="A74" s="69"/>
+      <c r="A74" s="92"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="8" t="s">
@@ -2759,10 +2862,10 @@
       <c r="E74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F74" s="56"/>
+      <c r="F74" s="71"/>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A75" s="70"/>
+      <c r="A75" s="93"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="29" t="s">
@@ -2771,10 +2874,10 @@
       <c r="E75" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F75" s="57"/>
+      <c r="F75" s="72"/>
     </row>
     <row r="76" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A76" s="68" t="s">
+      <c r="A76" s="91" t="s">
         <v>58</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -2789,12 +2892,12 @@
       <c r="E76" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F76" s="55" t="s">
+      <c r="F76" s="70" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A77" s="69"/>
+      <c r="A77" s="92"/>
       <c r="B77" s="1" t="s">
         <v>17</v>
       </c>
@@ -2807,10 +2910,10 @@
       <c r="E77" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F77" s="56"/>
+      <c r="F77" s="71"/>
     </row>
     <row r="78" spans="1:6" ht="30" customHeight="1">
-      <c r="A78" s="69"/>
+      <c r="A78" s="92"/>
       <c r="B78" s="1" t="s">
         <v>18</v>
       </c>
@@ -2821,10 +2924,10 @@
       <c r="E78" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F78" s="56"/>
+      <c r="F78" s="71"/>
     </row>
     <row r="79" spans="1:6" ht="30" customHeight="1">
-      <c r="A79" s="69"/>
+      <c r="A79" s="92"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="8" t="s">
@@ -2833,10 +2936,10 @@
       <c r="E79" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F79" s="56"/>
+      <c r="F79" s="71"/>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1">
-      <c r="A80" s="69"/>
+      <c r="A80" s="92"/>
       <c r="B80" s="7"/>
       <c r="C80" s="1"/>
       <c r="D80" s="8" t="s">
@@ -2845,10 +2948,10 @@
       <c r="E80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F80" s="56"/>
+      <c r="F80" s="71"/>
     </row>
     <row r="81" spans="1:6" ht="15" customHeight="1">
-      <c r="A81" s="69"/>
+      <c r="A81" s="92"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="8" t="s">
@@ -2857,10 +2960,10 @@
       <c r="E81" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F81" s="56"/>
+      <c r="F81" s="71"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A82" s="70"/>
+      <c r="A82" s="93"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="29" t="s">
@@ -2869,10 +2972,10 @@
       <c r="E82" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F82" s="57"/>
+      <c r="F82" s="72"/>
     </row>
     <row r="83" spans="1:6" ht="15" customHeight="1">
-      <c r="A83" s="61" t="s">
+      <c r="A83" s="67" t="s">
         <v>66</v>
       </c>
       <c r="B83" s="26" t="s">
@@ -2887,30 +2990,30 @@
       <c r="E83" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F83" s="75" t="s">
+      <c r="F83" s="94" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="74"/>
+      <c r="A84" s="68"/>
       <c r="B84" s="30"/>
       <c r="C84" s="22"/>
       <c r="D84" s="21"/>
       <c r="E84" s="31"/>
-      <c r="F84" s="76"/>
+      <c r="F84" s="95"/>
     </row>
     <row r="85" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A85" s="62"/>
+      <c r="A85" s="69"/>
       <c r="B85" s="25"/>
       <c r="C85" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D85" s="16"/>
       <c r="E85" s="17"/>
-      <c r="F85" s="77"/>
+      <c r="F85" s="96"/>
     </row>
     <row r="86" spans="1:6" ht="15" customHeight="1">
-      <c r="A86" s="61" t="s">
+      <c r="A86" s="67" t="s">
         <v>112</v>
       </c>
       <c r="B86" s="27" t="s">
@@ -2925,22 +3028,22 @@
       <c r="E86" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F86" s="55" t="s">
+      <c r="F86" s="70" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A87" s="62"/>
+      <c r="A87" s="69"/>
       <c r="B87" s="28"/>
       <c r="C87" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="19"/>
-      <c r="F87" s="57"/>
+      <c r="F87" s="72"/>
     </row>
     <row r="88" spans="1:6" ht="15" customHeight="1">
-      <c r="A88" s="61" t="s">
+      <c r="A88" s="67" t="s">
         <v>65</v>
       </c>
       <c r="B88" s="27" t="s">
@@ -2955,20 +3058,20 @@
       <c r="E88" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F88" s="63"/>
+      <c r="F88" s="101"/>
     </row>
     <row r="89" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A89" s="62"/>
+      <c r="A89" s="69"/>
       <c r="B89" s="28"/>
       <c r="C89" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="19"/>
-      <c r="F89" s="64"/>
+      <c r="F89" s="103"/>
     </row>
     <row r="90" spans="1:6" ht="45" customHeight="1">
-      <c r="A90" s="65" t="s">
+      <c r="A90" s="88" t="s">
         <v>169</v>
       </c>
       <c r="B90" s="15" t="s">
@@ -2979,12 +3082,12 @@
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="55" t="s">
+      <c r="F90" s="70" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A91" s="66"/>
+      <c r="A91" s="89"/>
       <c r="B91" s="9" t="s">
         <v>175</v>
       </c>
@@ -2993,20 +3096,20 @@
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="56"/>
+      <c r="F91" s="71"/>
     </row>
     <row r="92" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A92" s="67"/>
+      <c r="A92" s="90"/>
       <c r="B92" s="25"/>
       <c r="C92" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
-      <c r="F92" s="57"/>
+      <c r="F92" s="72"/>
     </row>
     <row r="93" spans="1:6" ht="30" customHeight="1">
-      <c r="A93" s="65" t="s">
+      <c r="A93" s="88" t="s">
         <v>180</v>
       </c>
       <c r="B93" s="15" t="s">
@@ -3017,32 +3120,32 @@
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
-      <c r="F93" s="55" t="s">
+      <c r="F93" s="70" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="30" customHeight="1">
-      <c r="A94" s="66"/>
+      <c r="A94" s="89"/>
       <c r="B94" s="9" t="s">
         <v>181</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="56"/>
+      <c r="F94" s="71"/>
     </row>
     <row r="95" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A95" s="67"/>
+      <c r="A95" s="90"/>
       <c r="B95" s="25"/>
       <c r="C95" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="57"/>
+      <c r="F95" s="72"/>
     </row>
     <row r="96" spans="1:6" ht="30" customHeight="1">
-      <c r="A96" s="68" t="s">
+      <c r="A96" s="91" t="s">
         <v>168</v>
       </c>
       <c r="B96" s="3"/>
@@ -3051,62 +3154,62 @@
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
-      <c r="F96" s="55" t="s">
+      <c r="F96" s="70" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="69"/>
+      <c r="A97" s="92"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="56"/>
+      <c r="F97" s="71"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="69"/>
+      <c r="A98" s="92"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="56"/>
+      <c r="F98" s="71"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="69"/>
+      <c r="A99" s="92"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="56"/>
+      <c r="F99" s="71"/>
     </row>
     <row r="100" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A100" s="70"/>
+      <c r="A100" s="93"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
-      <c r="F100" s="57"/>
+      <c r="F100" s="72"/>
     </row>
     <row r="101" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A101" s="71" t="s">
+      <c r="A101" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="B101" s="71"/>
-      <c r="C101" s="71"/>
-      <c r="D101" s="71"/>
-      <c r="E101" s="71"/>
-      <c r="F101" s="71"/>
+      <c r="B101" s="97"/>
+      <c r="C101" s="97"/>
+      <c r="D101" s="97"/>
+      <c r="E101" s="97"/>
+      <c r="F101" s="97"/>
     </row>
     <row r="102" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A102" s="37" t="s">
+      <c r="A102" s="98" t="s">
         <v>50</v>
       </c>
       <c r="B102" s="3"/>
@@ -3117,12 +3220,12 @@
       <c r="E102" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F102" s="63" t="s">
+      <c r="F102" s="101" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A103" s="38"/>
+      <c r="A103" s="99"/>
       <c r="B103" s="1"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8" t="s">
@@ -3131,10 +3234,10 @@
       <c r="E103" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F103" s="73"/>
+      <c r="F103" s="102"/>
     </row>
     <row r="104" spans="1:6" ht="30" customHeight="1">
-      <c r="A104" s="38"/>
+      <c r="A104" s="99"/>
       <c r="B104" s="1"/>
       <c r="C104" s="8"/>
       <c r="D104" s="9" t="s">
@@ -3143,10 +3246,10 @@
       <c r="E104" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F104" s="73"/>
+      <c r="F104" s="102"/>
     </row>
     <row r="105" spans="1:6" ht="30" customHeight="1">
-      <c r="A105" s="38"/>
+      <c r="A105" s="99"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="8" t="s">
@@ -3155,10 +3258,10 @@
       <c r="E105" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F105" s="73"/>
+      <c r="F105" s="102"/>
     </row>
     <row r="106" spans="1:6" ht="15" customHeight="1">
-      <c r="A106" s="38"/>
+      <c r="A106" s="99"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="8" t="s">
@@ -3167,10 +3270,10 @@
       <c r="E106" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F106" s="73"/>
+      <c r="F106" s="102"/>
     </row>
     <row r="107" spans="1:6" ht="15" customHeight="1">
-      <c r="A107" s="38"/>
+      <c r="A107" s="99"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="8" t="s">
@@ -3179,10 +3282,10 @@
       <c r="E107" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F107" s="73"/>
+      <c r="F107" s="102"/>
     </row>
     <row r="108" spans="1:6" ht="15" customHeight="1">
-      <c r="A108" s="38"/>
+      <c r="A108" s="99"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="8" t="s">
@@ -3191,10 +3294,10 @@
       <c r="E108" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F108" s="73"/>
+      <c r="F108" s="102"/>
     </row>
     <row r="109" spans="1:6" ht="15" customHeight="1">
-      <c r="A109" s="38"/>
+      <c r="A109" s="99"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="9" t="s">
@@ -3203,10 +3306,10 @@
       <c r="E109" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F109" s="73"/>
+      <c r="F109" s="102"/>
     </row>
     <row r="110" spans="1:6" ht="15" customHeight="1">
-      <c r="A110" s="38"/>
+      <c r="A110" s="99"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="9" t="s">
@@ -3215,10 +3318,10 @@
       <c r="E110" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F110" s="73"/>
+      <c r="F110" s="102"/>
     </row>
     <row r="111" spans="1:6" ht="15" customHeight="1">
-      <c r="A111" s="38"/>
+      <c r="A111" s="99"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="9" t="s">
@@ -3227,58 +3330,58 @@
       <c r="E111" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F111" s="73"/>
+      <c r="F111" s="102"/>
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1">
-      <c r="A112" s="38"/>
+      <c r="A112" s="99"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="18" t="s">
         <v>189</v>
       </c>
       <c r="E112" s="19"/>
-      <c r="F112" s="73"/>
+      <c r="F112" s="102"/>
     </row>
     <row r="113" spans="1:6" ht="15" customHeight="1">
-      <c r="A113" s="38"/>
+      <c r="A113" s="99"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="18" t="s">
         <v>188</v>
       </c>
       <c r="E113" s="19"/>
-      <c r="F113" s="73"/>
+      <c r="F113" s="102"/>
     </row>
     <row r="114" spans="1:6" ht="15" customHeight="1">
-      <c r="A114" s="38"/>
+      <c r="A114" s="99"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="18" t="s">
         <v>187</v>
       </c>
       <c r="E114" s="19"/>
-      <c r="F114" s="73"/>
+      <c r="F114" s="102"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="38"/>
+      <c r="A115" s="99"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="18" t="s">
         <v>186</v>
       </c>
       <c r="E115" s="19"/>
-      <c r="F115" s="73"/>
+      <c r="F115" s="102"/>
     </row>
     <row r="116" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A116" s="72"/>
+      <c r="A116" s="100"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="18"/>
       <c r="E116" s="19"/>
-      <c r="F116" s="64"/>
+      <c r="F116" s="103"/>
     </row>
     <row r="117" spans="1:6" ht="30" customHeight="1">
-      <c r="A117" s="37" t="s">
+      <c r="A117" s="98" t="s">
         <v>193</v>
       </c>
       <c r="B117" s="3" t="s">
@@ -3290,15 +3393,15 @@
       <c r="D117" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E117" s="39" t="s">
+      <c r="E117" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="F117" s="42" t="s">
+      <c r="F117" s="43" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="30" customHeight="1">
-      <c r="A118" s="38"/>
+      <c r="A118" s="99"/>
       <c r="B118" s="1" t="s">
         <v>22</v>
       </c>
@@ -3308,11 +3411,11 @@
       <c r="D118" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E118" s="40"/>
-      <c r="F118" s="43"/>
+      <c r="E118" s="41"/>
+      <c r="F118" s="44"/>
     </row>
     <row r="119" spans="1:6" ht="30" customHeight="1">
-      <c r="A119" s="38"/>
+      <c r="A119" s="99"/>
       <c r="B119" s="1" t="s">
         <v>20</v>
       </c>
@@ -3322,11 +3425,11 @@
       <c r="D119" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E119" s="40"/>
-      <c r="F119" s="43"/>
+      <c r="E119" s="41"/>
+      <c r="F119" s="44"/>
     </row>
     <row r="120" spans="1:6" ht="30" customHeight="1">
-      <c r="A120" s="38"/>
+      <c r="A120" s="99"/>
       <c r="B120" s="1" t="s">
         <v>21</v>
       </c>
@@ -3334,11 +3437,11 @@
       <c r="D120" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E120" s="40"/>
-      <c r="F120" s="43"/>
+      <c r="E120" s="41"/>
+      <c r="F120" s="44"/>
     </row>
     <row r="121" spans="1:6" ht="15" customHeight="1">
-      <c r="A121" s="38"/>
+      <c r="A121" s="99"/>
       <c r="B121" s="1" t="s">
         <v>23</v>
       </c>
@@ -3346,11 +3449,11 @@
       <c r="D121" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E121" s="40"/>
-      <c r="F121" s="43"/>
+      <c r="E121" s="41"/>
+      <c r="F121" s="44"/>
     </row>
     <row r="122" spans="1:6" ht="15" customHeight="1">
-      <c r="A122" s="38"/>
+      <c r="A122" s="99"/>
       <c r="B122" s="1" t="s">
         <v>24</v>
       </c>
@@ -3358,21 +3461,21 @@
       <c r="D122" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E122" s="40"/>
-      <c r="F122" s="43"/>
+      <c r="E122" s="41"/>
+      <c r="F122" s="44"/>
     </row>
     <row r="123" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A123" s="38"/>
+      <c r="A123" s="99"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E123" s="41"/>
-      <c r="F123" s="44"/>
+      <c r="E123" s="42"/>
+      <c r="F123" s="45"/>
     </row>
     <row r="124" spans="1:6" ht="30" customHeight="1">
-      <c r="A124" s="37" t="s">
+      <c r="A124" s="98" t="s">
         <v>194</v>
       </c>
       <c r="B124" s="3" t="s">
@@ -3384,15 +3487,15 @@
       <c r="D124" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E124" s="39" t="s">
+      <c r="E124" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="F124" s="42" t="s">
+      <c r="F124" s="43" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="30" customHeight="1">
-      <c r="A125" s="38"/>
+      <c r="A125" s="99"/>
       <c r="B125" s="1" t="s">
         <v>22</v>
       </c>
@@ -3402,11 +3505,11 @@
       <c r="D125" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E125" s="40"/>
-      <c r="F125" s="43"/>
+      <c r="E125" s="41"/>
+      <c r="F125" s="44"/>
     </row>
     <row r="126" spans="1:6" ht="30" customHeight="1">
-      <c r="A126" s="38"/>
+      <c r="A126" s="99"/>
       <c r="B126" s="1" t="s">
         <v>20</v>
       </c>
@@ -3416,11 +3519,11 @@
       <c r="D126" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E126" s="40"/>
-      <c r="F126" s="43"/>
+      <c r="E126" s="41"/>
+      <c r="F126" s="44"/>
     </row>
     <row r="127" spans="1:6" ht="30" customHeight="1">
-      <c r="A127" s="38"/>
+      <c r="A127" s="99"/>
       <c r="B127" s="1" t="s">
         <v>21</v>
       </c>
@@ -3428,11 +3531,11 @@
       <c r="D127" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E127" s="40"/>
-      <c r="F127" s="43"/>
+      <c r="E127" s="41"/>
+      <c r="F127" s="44"/>
     </row>
     <row r="128" spans="1:6" ht="15" customHeight="1">
-      <c r="A128" s="38"/>
+      <c r="A128" s="99"/>
       <c r="B128" s="1" t="s">
         <v>23</v>
       </c>
@@ -3440,11 +3543,11 @@
       <c r="D128" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E128" s="40"/>
-      <c r="F128" s="43"/>
+      <c r="E128" s="41"/>
+      <c r="F128" s="44"/>
     </row>
     <row r="129" spans="1:9" ht="15" customHeight="1">
-      <c r="A129" s="38"/>
+      <c r="A129" s="99"/>
       <c r="B129" s="1" t="s">
         <v>24</v>
       </c>
@@ -3452,21 +3555,21 @@
       <c r="D129" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E129" s="40"/>
-      <c r="F129" s="43"/>
+      <c r="E129" s="41"/>
+      <c r="F129" s="44"/>
     </row>
     <row r="130" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A130" s="38"/>
+      <c r="A130" s="99"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E130" s="41"/>
-      <c r="F130" s="44"/>
+      <c r="E130" s="42"/>
+      <c r="F130" s="45"/>
     </row>
     <row r="131" spans="1:9" ht="15" customHeight="1">
-      <c r="A131" s="58" t="s">
+      <c r="A131" s="109" t="s">
         <v>190</v>
       </c>
       <c r="B131" s="3" t="s">
@@ -3478,13 +3581,13 @@
       <c r="D131" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="E131" s="39"/>
-      <c r="F131" s="42" t="s">
+      <c r="E131" s="40"/>
+      <c r="F131" s="43" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="59"/>
+      <c r="A132" s="110"/>
       <c r="B132" s="1" t="s">
         <v>23</v>
       </c>
@@ -3494,11 +3597,11 @@
       <c r="D132" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="E132" s="40"/>
-      <c r="F132" s="43"/>
+      <c r="E132" s="41"/>
+      <c r="F132" s="44"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="59"/>
+      <c r="A133" s="110"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1" t="s">
         <v>139</v>
@@ -3506,11 +3609,11 @@
       <c r="D133" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="E133" s="40"/>
-      <c r="F133" s="43"/>
+      <c r="E133" s="41"/>
+      <c r="F133" s="44"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="59"/>
+      <c r="A134" s="110"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1" t="s">
         <v>140</v>
@@ -3518,96 +3621,96 @@
       <c r="D134" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="E134" s="40"/>
-      <c r="F134" s="43"/>
+      <c r="E134" s="41"/>
+      <c r="F134" s="44"/>
     </row>
     <row r="135" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A135" s="59"/>
+      <c r="A135" s="110"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D135" s="8"/>
-      <c r="E135" s="40"/>
-      <c r="F135" s="43"/>
+      <c r="E135" s="41"/>
+      <c r="F135" s="44"/>
     </row>
     <row r="136" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A136" s="59"/>
+      <c r="A136" s="110"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D136" s="8"/>
-      <c r="E136" s="40"/>
-      <c r="F136" s="43"/>
+      <c r="E136" s="41"/>
+      <c r="F136" s="44"/>
     </row>
     <row r="137" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A137" s="59"/>
+      <c r="A137" s="110"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D137" s="8"/>
-      <c r="E137" s="40"/>
-      <c r="F137" s="43"/>
+      <c r="E137" s="41"/>
+      <c r="F137" s="44"/>
       <c r="I137" s="36"/>
     </row>
     <row r="138" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A138" s="59"/>
+      <c r="A138" s="110"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D138" s="8"/>
-      <c r="E138" s="40"/>
-      <c r="F138" s="43"/>
+      <c r="E138" s="41"/>
+      <c r="F138" s="44"/>
       <c r="I138" s="36"/>
     </row>
     <row r="139" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A139" s="59"/>
+      <c r="A139" s="110"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D139" s="8"/>
-      <c r="E139" s="40"/>
-      <c r="F139" s="43"/>
+      <c r="E139" s="41"/>
+      <c r="F139" s="44"/>
       <c r="I139" s="36"/>
     </row>
     <row r="140" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A140" s="59"/>
+      <c r="A140" s="110"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D140" s="8"/>
-      <c r="E140" s="40"/>
-      <c r="F140" s="43"/>
+      <c r="E140" s="41"/>
+      <c r="F140" s="44"/>
       <c r="I140" s="36"/>
     </row>
     <row r="141" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A141" s="59"/>
+      <c r="A141" s="110"/>
       <c r="B141" s="2"/>
       <c r="C141" s="5" t="s">
         <v>197</v>
       </c>
       <c r="D141" s="13"/>
-      <c r="E141" s="40"/>
-      <c r="F141" s="43"/>
+      <c r="E141" s="41"/>
+      <c r="F141" s="44"/>
       <c r="I141" s="36"/>
     </row>
     <row r="142" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A142" s="60"/>
+      <c r="A142" s="111"/>
       <c r="B142" s="4"/>
       <c r="C142" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D142" s="29"/>
-      <c r="E142" s="41"/>
-      <c r="F142" s="44"/>
+      <c r="E142" s="42"/>
+      <c r="F142" s="45"/>
     </row>
     <row r="143" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A143" s="53" t="s">
+      <c r="A143" s="107" t="s">
         <v>51</v>
       </c>
       <c r="B143" s="23" t="s">
@@ -3616,20 +3719,20 @@
       <c r="C143" s="22"/>
       <c r="D143" s="22"/>
       <c r="E143" s="22"/>
-      <c r="F143" s="50" t="s">
+      <c r="F143" s="84" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A144" s="54"/>
+      <c r="A144" s="108"/>
       <c r="B144" s="16"/>
       <c r="C144" s="17"/>
       <c r="D144" s="17"/>
       <c r="E144" s="17"/>
-      <c r="F144" s="52"/>
+      <c r="F144" s="86"/>
     </row>
     <row r="145" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A145" s="47" t="s">
+      <c r="A145" s="104" t="s">
         <v>52</v>
       </c>
       <c r="B145" s="15" t="s">
@@ -3638,32 +3741,32 @@
       <c r="C145" s="14"/>
       <c r="D145" s="14"/>
       <c r="E145" s="14"/>
-      <c r="F145" s="50" t="s">
+      <c r="F145" s="84" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A146" s="48"/>
+      <c r="A146" s="105"/>
       <c r="B146" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C146" s="31"/>
       <c r="D146" s="31"/>
       <c r="E146" s="31"/>
-      <c r="F146" s="51"/>
+      <c r="F146" s="85"/>
     </row>
     <row r="147" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A147" s="49"/>
+      <c r="A147" s="106"/>
       <c r="B147" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C147" s="19"/>
       <c r="D147" s="19"/>
       <c r="E147" s="19"/>
-      <c r="F147" s="52"/>
+      <c r="F147" s="86"/>
     </row>
     <row r="148" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A148" s="47" t="s">
+      <c r="A148" s="104" t="s">
         <v>152</v>
       </c>
       <c r="B148" s="15" t="s">
@@ -3672,36 +3775,36 @@
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
-      <c r="F148" s="55" t="s">
+      <c r="F148" s="70" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A149" s="48"/>
+      <c r="A149" s="105"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
-      <c r="F149" s="56"/>
+      <c r="F149" s="71"/>
     </row>
     <row r="150" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A150" s="48"/>
+      <c r="A150" s="105"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
-      <c r="F150" s="56"/>
+      <c r="F150" s="71"/>
     </row>
     <row r="151" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A151" s="49"/>
+      <c r="A151" s="106"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
-      <c r="F151" s="57"/>
+      <c r="F151" s="72"/>
     </row>
     <row r="152" spans="1:6" ht="15" customHeight="1">
-      <c r="A152" s="47" t="s">
+      <c r="A152" s="104" t="s">
         <v>86</v>
       </c>
       <c r="B152" s="15" t="s">
@@ -3710,142 +3813,342 @@
       <c r="C152" s="14"/>
       <c r="D152" s="14"/>
       <c r="E152" s="14"/>
-      <c r="F152" s="50" t="s">
+      <c r="F152" s="84" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="15" customHeight="1">
-      <c r="A153" s="48"/>
+      <c r="A153" s="105"/>
       <c r="B153" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C153" s="31"/>
       <c r="D153" s="31"/>
       <c r="E153" s="31"/>
-      <c r="F153" s="51"/>
+      <c r="F153" s="85"/>
     </row>
     <row r="154" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A154" s="49"/>
+      <c r="A154" s="106"/>
       <c r="B154" s="16" t="s">
         <v>84</v>
       </c>
       <c r="C154" s="17"/>
       <c r="D154" s="17"/>
       <c r="E154" s="17"/>
-      <c r="F154" s="52"/>
+      <c r="F154" s="86"/>
     </row>
     <row r="155" spans="1:6" ht="15" customHeight="1">
-      <c r="A155" s="47" t="s">
+      <c r="A155" s="104" t="s">
         <v>176</v>
       </c>
       <c r="B155" s="15"/>
       <c r="C155" s="14"/>
       <c r="D155" s="14"/>
       <c r="E155" s="14"/>
-      <c r="F155" s="50" t="s">
+      <c r="F155" s="84" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="15" customHeight="1">
-      <c r="A156" s="48"/>
+      <c r="A156" s="105"/>
       <c r="B156" s="21"/>
       <c r="C156" s="31"/>
       <c r="D156" s="31"/>
       <c r="E156" s="31"/>
-      <c r="F156" s="51"/>
+      <c r="F156" s="85"/>
     </row>
     <row r="157" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A157" s="49"/>
+      <c r="A157" s="106"/>
       <c r="B157" s="16"/>
       <c r="C157" s="17"/>
       <c r="D157" s="17"/>
       <c r="E157" s="17"/>
-      <c r="F157" s="52"/>
+      <c r="F157" s="86"/>
     </row>
     <row r="158" spans="1:6" ht="15" customHeight="1">
-      <c r="A158" s="47" t="s">
+      <c r="A158" s="104" t="s">
         <v>179</v>
       </c>
       <c r="B158" s="15"/>
       <c r="C158" s="14"/>
       <c r="D158" s="14"/>
       <c r="E158" s="14"/>
-      <c r="F158" s="50" t="s">
+      <c r="F158" s="84" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="15" customHeight="1">
-      <c r="A159" s="48"/>
+      <c r="A159" s="105"/>
       <c r="B159" s="21"/>
       <c r="C159" s="31"/>
       <c r="D159" s="31"/>
       <c r="E159" s="31"/>
-      <c r="F159" s="51"/>
+      <c r="F159" s="85"/>
     </row>
     <row r="160" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A160" s="49"/>
+      <c r="A160" s="106"/>
       <c r="B160" s="16"/>
       <c r="C160" s="17"/>
       <c r="D160" s="17"/>
       <c r="E160" s="17"/>
-      <c r="F160" s="52"/>
+      <c r="F160" s="86"/>
+    </row>
+    <row r="161" spans="1:6" ht="15" customHeight="1">
+      <c r="A161" s="151" t="s">
+        <v>203</v>
+      </c>
+      <c r="B161" s="155"/>
+      <c r="C161" s="152"/>
+      <c r="D161" s="158"/>
+      <c r="E161" s="152"/>
+      <c r="F161" s="84" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="149"/>
+      <c r="B162" s="156"/>
+      <c r="C162" s="153"/>
+      <c r="D162" s="159"/>
+      <c r="E162" s="153"/>
+      <c r="F162" s="85"/>
+    </row>
+    <row r="163" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A163" s="150"/>
+      <c r="B163" s="157"/>
+      <c r="C163" s="154"/>
+      <c r="D163" s="160"/>
+      <c r="E163" s="154"/>
+      <c r="F163" s="86"/>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="151" t="s">
+        <v>204</v>
+      </c>
+      <c r="B164" s="155"/>
+      <c r="C164" s="152"/>
+      <c r="D164" s="158"/>
+      <c r="E164" s="152"/>
+      <c r="F164" s="84" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="149"/>
+      <c r="B165" s="156"/>
+      <c r="C165" s="153"/>
+      <c r="D165" s="159"/>
+      <c r="E165" s="153"/>
+      <c r="F165" s="85"/>
+    </row>
+    <row r="166" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A166" s="150"/>
+      <c r="B166" s="157"/>
+      <c r="C166" s="154"/>
+      <c r="D166" s="160"/>
+      <c r="E166" s="154"/>
+      <c r="F166" s="86"/>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="149" t="s">
+        <v>205</v>
+      </c>
+      <c r="B167" s="156"/>
+      <c r="C167" s="153"/>
+      <c r="D167" s="159"/>
+      <c r="E167" s="153"/>
+      <c r="F167" s="84" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="149"/>
+      <c r="B168" s="156"/>
+      <c r="C168" s="153"/>
+      <c r="D168" s="159"/>
+      <c r="E168" s="153"/>
+      <c r="F168" s="85"/>
+    </row>
+    <row r="169" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A169" s="149"/>
+      <c r="B169" s="156"/>
+      <c r="C169" s="153"/>
+      <c r="D169" s="159"/>
+      <c r="E169" s="153"/>
+      <c r="F169" s="86"/>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="151" t="s">
+        <v>206</v>
+      </c>
+      <c r="B170" s="155"/>
+      <c r="C170" s="152"/>
+      <c r="D170" s="158"/>
+      <c r="E170" s="152"/>
+      <c r="F170" s="84" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="149"/>
+      <c r="B171" s="156"/>
+      <c r="C171" s="153"/>
+      <c r="D171" s="159"/>
+      <c r="E171" s="153"/>
+      <c r="F171" s="85"/>
+    </row>
+    <row r="172" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A172" s="150"/>
+      <c r="B172" s="157"/>
+      <c r="C172" s="154"/>
+      <c r="D172" s="160"/>
+      <c r="E172" s="154"/>
+      <c r="F172" s="86"/>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="149" t="s">
+        <v>207</v>
+      </c>
+      <c r="B173" s="156"/>
+      <c r="C173" s="153"/>
+      <c r="D173" s="159"/>
+      <c r="E173" s="153"/>
+      <c r="F173" s="84" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="149"/>
+      <c r="B174" s="156"/>
+      <c r="C174" s="153"/>
+      <c r="D174" s="159"/>
+      <c r="E174" s="153"/>
+      <c r="F174" s="85"/>
+    </row>
+    <row r="175" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A175" s="149"/>
+      <c r="B175" s="156"/>
+      <c r="C175" s="153"/>
+      <c r="D175" s="159"/>
+      <c r="E175" s="153"/>
+      <c r="F175" s="86"/>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="151" t="s">
+        <v>208</v>
+      </c>
+      <c r="B176" s="155"/>
+      <c r="C176" s="152"/>
+      <c r="D176" s="158"/>
+      <c r="E176" s="152"/>
+      <c r="F176" s="84" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="149"/>
+      <c r="B177" s="156"/>
+      <c r="C177" s="153"/>
+      <c r="D177" s="159"/>
+      <c r="E177" s="153"/>
+      <c r="F177" s="85"/>
+    </row>
+    <row r="178" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A178" s="150"/>
+      <c r="B178" s="157"/>
+      <c r="C178" s="154"/>
+      <c r="D178" s="160"/>
+      <c r="E178" s="154"/>
+      <c r="F178" s="86"/>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="149" t="s">
+        <v>209</v>
+      </c>
+      <c r="B179" s="156"/>
+      <c r="C179" s="153"/>
+      <c r="D179" s="159"/>
+      <c r="E179" s="153"/>
+      <c r="F179" s="161" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="149"/>
+      <c r="B180" s="156"/>
+      <c r="C180" s="153"/>
+      <c r="D180" s="159"/>
+      <c r="E180" s="153"/>
+      <c r="F180" s="162"/>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="149"/>
+      <c r="B181" s="156"/>
+      <c r="C181" s="153"/>
+      <c r="D181" s="159"/>
+      <c r="E181" s="153"/>
+      <c r="F181" s="162"/>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="149"/>
+      <c r="B182" s="156"/>
+      <c r="C182" s="153"/>
+      <c r="D182" s="159"/>
+      <c r="E182" s="153"/>
+      <c r="F182" s="162"/>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="149"/>
+      <c r="B183" s="156"/>
+      <c r="C183" s="153"/>
+      <c r="D183" s="159"/>
+      <c r="E183" s="153"/>
+      <c r="F183" s="162"/>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="149"/>
+      <c r="B184" s="156"/>
+      <c r="C184" s="153"/>
+      <c r="D184" s="159"/>
+      <c r="E184" s="153"/>
+      <c r="F184" s="162"/>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="149"/>
+      <c r="B185" s="156"/>
+      <c r="C185" s="153"/>
+      <c r="D185" s="159"/>
+      <c r="E185" s="153"/>
+      <c r="F185" s="162"/>
+    </row>
+    <row r="186" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A186" s="150"/>
+      <c r="B186" s="157"/>
+      <c r="C186" s="154"/>
+      <c r="D186" s="160"/>
+      <c r="E186" s="154"/>
+      <c r="F186" s="163"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="E28:E34"/>
-    <mergeCell ref="F28:F34"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="F7:F13"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="F14:F20"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="F21:F27"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="E35:E41"/>
-    <mergeCell ref="F35:F41"/>
-    <mergeCell ref="A46:A53"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="E46:E53"/>
-    <mergeCell ref="F46:F53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="F55:F59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="F76:F82"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="F69:F75"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="F96:F100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="A102:A116"/>
-    <mergeCell ref="F102:F116"/>
-    <mergeCell ref="A158:A160"/>
-    <mergeCell ref="F158:F160"/>
-    <mergeCell ref="A152:A154"/>
-    <mergeCell ref="F152:F154"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="A145:A147"/>
-    <mergeCell ref="F145:F147"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="F148:F151"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
+  <mergeCells count="88">
+    <mergeCell ref="A179:A186"/>
+    <mergeCell ref="F161:F163"/>
+    <mergeCell ref="F164:F166"/>
+    <mergeCell ref="F167:F169"/>
+    <mergeCell ref="F170:F172"/>
+    <mergeCell ref="F173:F175"/>
+    <mergeCell ref="F176:F178"/>
+    <mergeCell ref="F179:F186"/>
+    <mergeCell ref="A164:A166"/>
+    <mergeCell ref="A167:A169"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="F124:F130"/>
+    <mergeCell ref="A117:A123"/>
+    <mergeCell ref="E117:E123"/>
+    <mergeCell ref="F117:F123"/>
+    <mergeCell ref="A161:A163"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A155:A157"/>
     <mergeCell ref="F155:F157"/>
@@ -3862,10 +4165,60 @@
     <mergeCell ref="F90:F92"/>
     <mergeCell ref="A124:A130"/>
     <mergeCell ref="E124:E130"/>
-    <mergeCell ref="F124:F130"/>
-    <mergeCell ref="A117:A123"/>
-    <mergeCell ref="E117:E123"/>
-    <mergeCell ref="F117:F123"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="F158:F160"/>
+    <mergeCell ref="A152:A154"/>
+    <mergeCell ref="F152:F154"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="A145:A147"/>
+    <mergeCell ref="F145:F147"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="F148:F151"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="F96:F100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="A102:A116"/>
+    <mergeCell ref="F102:F116"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="F76:F82"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="F69:F75"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="E35:E41"/>
+    <mergeCell ref="F35:F41"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="E46:E53"/>
+    <mergeCell ref="F46:F53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="F55:F59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="E28:E34"/>
+    <mergeCell ref="F28:F34"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="F7:F13"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="F14:F20"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="F21:F27"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3915,17 +4268,17 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="115" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3940,12 +4293,12 @@
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="43" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A4" s="113"/>
+      <c r="A4" s="116"/>
       <c r="B4" s="1" t="s">
         <v>95</v>
       </c>
@@ -3956,7 +4309,7 @@
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="43"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:6" ht="33.75" customHeight="1">
       <c r="A5" s="117"/>
@@ -3968,7 +4321,7 @@
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="43"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="1:6" ht="33.75" customHeight="1">
       <c r="A6" s="117"/>
@@ -3980,7 +4333,7 @@
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="43"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="7" spans="1:6" ht="33.75" customHeight="1">
       <c r="A7" s="117"/>
@@ -3992,7 +4345,7 @@
       <c r="E7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="43"/>
+      <c r="F7" s="44"/>
     </row>
     <row r="8" spans="1:6" ht="33.75" customHeight="1">
       <c r="A8" s="117"/>
@@ -4004,7 +4357,7 @@
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="43"/>
+      <c r="F8" s="44"/>
     </row>
     <row r="9" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
       <c r="A9" s="117"/>
@@ -4016,10 +4369,10 @@
       <c r="E9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="43"/>
+      <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="115" t="s">
         <v>96</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -4034,12 +4387,12 @@
       <c r="E10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="43" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A11" s="113"/>
+      <c r="A11" s="116"/>
       <c r="B11" s="1" t="s">
         <v>95</v>
       </c>
@@ -4050,7 +4403,7 @@
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="43"/>
+      <c r="F11" s="44"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="117"/>
@@ -4062,7 +4415,7 @@
       <c r="E12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="43"/>
+      <c r="F12" s="44"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="117"/>
@@ -4074,7 +4427,7 @@
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="44"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="117"/>
@@ -4086,7 +4439,7 @@
       <c r="E14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="43"/>
+      <c r="F14" s="44"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="117"/>
@@ -4098,7 +4451,7 @@
       <c r="E15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="43"/>
+      <c r="F15" s="44"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
       <c r="A16" s="117"/>
@@ -4110,10 +4463,10 @@
       <c r="E16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="43"/>
+      <c r="F16" s="44"/>
     </row>
     <row r="17" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A17" s="112" t="s">
+      <c r="A17" s="115" t="s">
         <v>99</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -4128,12 +4481,12 @@
       <c r="E17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="42" t="s">
+      <c r="F17" s="43" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A18" s="113"/>
+      <c r="A18" s="116"/>
       <c r="B18" s="1" t="s">
         <v>95</v>
       </c>
@@ -4144,7 +4497,7 @@
       <c r="E18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="43"/>
+      <c r="F18" s="44"/>
     </row>
     <row r="19" spans="1:8" ht="33.75" customHeight="1">
       <c r="A19" s="117"/>
@@ -4156,7 +4509,7 @@
       <c r="E19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="43"/>
+      <c r="F19" s="44"/>
     </row>
     <row r="20" spans="1:8" ht="33.75" customHeight="1">
       <c r="A20" s="117"/>
@@ -4168,7 +4521,7 @@
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="43"/>
+      <c r="F20" s="44"/>
     </row>
     <row r="21" spans="1:8" ht="33.75" customHeight="1">
       <c r="A21" s="117"/>
@@ -4180,7 +4533,7 @@
       <c r="E21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="43"/>
+      <c r="F21" s="44"/>
     </row>
     <row r="22" spans="1:8" ht="33.75" customHeight="1">
       <c r="A22" s="117"/>
@@ -4192,7 +4545,7 @@
       <c r="E22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="43"/>
+      <c r="F22" s="44"/>
     </row>
     <row r="23" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
       <c r="A23" s="117"/>
@@ -4204,10 +4557,10 @@
       <c r="E23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F23" s="43"/>
+      <c r="F23" s="44"/>
     </row>
     <row r="24" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A24" s="112" t="s">
+      <c r="A24" s="115" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -4219,15 +4572,15 @@
       <c r="D24" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="43" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A25" s="113"/>
+      <c r="A25" s="116"/>
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
@@ -4237,11 +4590,11 @@
       <c r="D25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="43"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="44"/>
     </row>
     <row r="26" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A26" s="113"/>
+      <c r="A26" s="116"/>
       <c r="B26" s="1" t="s">
         <v>20</v>
       </c>
@@ -4251,11 +4604,11 @@
       <c r="D26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="43"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="44"/>
     </row>
     <row r="27" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A27" s="113"/>
+      <c r="A27" s="116"/>
       <c r="B27" s="1" t="s">
         <v>21</v>
       </c>
@@ -4263,11 +4616,11 @@
       <c r="D27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="43"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="44"/>
     </row>
     <row r="28" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A28" s="113"/>
+      <c r="A28" s="116"/>
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
@@ -4275,11 +4628,11 @@
       <c r="D28" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="43"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="44"/>
     </row>
     <row r="29" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A29" s="113"/>
+      <c r="A29" s="116"/>
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
@@ -4287,21 +4640,21 @@
       <c r="D29" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="43"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="44"/>
     </row>
     <row r="30" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A30" s="114"/>
+      <c r="A30" s="118"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="44"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="45"/>
     </row>
     <row r="31" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A31" s="112" t="s">
+      <c r="A31" s="115" t="s">
         <v>147</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -4313,10 +4666,10 @@
       <c r="D31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="42" t="s">
+      <c r="F31" s="43" t="s">
         <v>134</v>
       </c>
       <c r="G31" t="s">
@@ -4327,7 +4680,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A32" s="113"/>
+      <c r="A32" s="116"/>
       <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
@@ -4337,14 +4690,14 @@
       <c r="D32" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="43"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="44"/>
       <c r="G32" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A33" s="113"/>
+      <c r="A33" s="116"/>
       <c r="B33" s="1" t="s">
         <v>20</v>
       </c>
@@ -4354,8 +4707,8 @@
       <c r="D33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="43"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="44"/>
       <c r="G33" t="s">
         <v>117</v>
       </c>
@@ -4364,7 +4717,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A34" s="113"/>
+      <c r="A34" s="116"/>
       <c r="B34" s="1" t="s">
         <v>21</v>
       </c>
@@ -4372,8 +4725,8 @@
       <c r="D34" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="43"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="44"/>
       <c r="G34" t="s">
         <v>118</v>
       </c>
@@ -4382,7 +4735,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A35" s="113"/>
+      <c r="A35" s="116"/>
       <c r="B35" s="1" t="s">
         <v>23</v>
       </c>
@@ -4390,8 +4743,8 @@
       <c r="D35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="40"/>
-      <c r="F35" s="43"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="44"/>
       <c r="G35" t="s">
         <v>119</v>
       </c>
@@ -4400,7 +4753,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A36" s="113"/>
+      <c r="A36" s="116"/>
       <c r="B36" s="1" t="s">
         <v>24</v>
       </c>
@@ -4408,8 +4761,8 @@
       <c r="D36" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="40"/>
-      <c r="F36" s="43"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="44"/>
       <c r="G36" t="s">
         <v>120</v>
       </c>
@@ -4424,8 +4777,8 @@
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="43"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="44"/>
       <c r="G37" t="s">
         <v>121</v>
       </c>
@@ -4443,8 +4796,8 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="43"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="44"/>
       <c r="G38" t="s">
         <v>122</v>
       </c>
@@ -4462,8 +4815,8 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="43"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="44"/>
       <c r="G39" t="s">
         <v>123</v>
       </c>
@@ -4475,7 +4828,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A40" s="114"/>
+      <c r="A40" s="118"/>
       <c r="B40" s="4" t="s">
         <v>129</v>
       </c>
@@ -4483,14 +4836,14 @@
       <c r="D40" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="41"/>
-      <c r="F40" s="44"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="45"/>
       <c r="G40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A41" s="118" t="s">
+      <c r="A41" s="146" t="s">
         <v>69</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -4502,15 +4855,15 @@
       <c r="D41" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E41" s="39" t="s">
+      <c r="E41" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="43" t="s">
+      <c r="F41" s="44" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A42" s="119"/>
+      <c r="A42" s="147"/>
       <c r="B42" s="1" t="s">
         <v>70</v>
       </c>
@@ -4518,11 +4871,11 @@
       <c r="D42" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="40"/>
-      <c r="F42" s="43"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="44"/>
     </row>
     <row r="43" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A43" s="119"/>
+      <c r="A43" s="147"/>
       <c r="B43" s="1" t="s">
         <v>49</v>
       </c>
@@ -4530,83 +4883,83 @@
       <c r="D43" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="40"/>
-      <c r="F43" s="43"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="44"/>
     </row>
     <row r="44" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A44" s="119"/>
+      <c r="A44" s="147"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="40"/>
-      <c r="F44" s="43"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="44"/>
     </row>
     <row r="45" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A45" s="119"/>
+      <c r="A45" s="147"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="40"/>
-      <c r="F45" s="43"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="44"/>
     </row>
     <row r="46" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A46" s="119"/>
+      <c r="A46" s="147"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="40"/>
-      <c r="F46" s="43"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="44"/>
     </row>
     <row r="47" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A47" s="120"/>
+      <c r="A47" s="148"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="41"/>
-      <c r="F47" s="44"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="45"/>
     </row>
     <row r="48" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A48" s="112" t="s">
+      <c r="A48" s="115" t="s">
         <v>150</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="115" t="s">
+      <c r="C48" s="144" t="s">
         <v>45</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="84" t="s">
+      <c r="E48" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="F48" s="50" t="s">
+      <c r="F48" s="84" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A49" s="113"/>
+      <c r="A49" s="116"/>
       <c r="B49" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="116"/>
+      <c r="C49" s="145"/>
       <c r="D49" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="85"/>
-      <c r="F49" s="51"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="85"/>
     </row>
     <row r="50" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A50" s="113"/>
+      <c r="A50" s="116"/>
       <c r="B50" s="5" t="s">
         <v>29</v>
       </c>
@@ -4616,11 +4969,11 @@
       <c r="D50" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="85"/>
-      <c r="F50" s="51"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="85"/>
     </row>
     <row r="51" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A51" s="113"/>
+      <c r="A51" s="116"/>
       <c r="B51" s="24" t="s">
         <v>30</v>
       </c>
@@ -4630,11 +4983,11 @@
       <c r="D51" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="85"/>
-      <c r="F51" s="51"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="85"/>
     </row>
     <row r="52" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A52" s="113"/>
+      <c r="A52" s="116"/>
       <c r="B52" s="24" t="s">
         <v>31</v>
       </c>
@@ -4644,11 +4997,11 @@
       <c r="D52" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="85"/>
-      <c r="F52" s="51"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="85"/>
     </row>
     <row r="53" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A53" s="113"/>
+      <c r="A53" s="116"/>
       <c r="B53" s="24" t="s">
         <v>32</v>
       </c>
@@ -4656,11 +5009,11 @@
       <c r="D53" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="85"/>
-      <c r="F53" s="51"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="85"/>
     </row>
     <row r="54" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A54" s="113"/>
+      <c r="A54" s="116"/>
       <c r="B54" s="24" t="s">
         <v>33</v>
       </c>
@@ -4668,16 +5021,16 @@
       <c r="D54" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="85"/>
-      <c r="F54" s="51"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="85"/>
     </row>
     <row r="55" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A55" s="114"/>
+      <c r="A55" s="118"/>
       <c r="B55" s="25"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="52"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="86"/>
     </row>
     <row r="56" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
       <c r="A56" s="87" t="s">
@@ -4690,7 +5043,7 @@
       <c r="F56" s="87"/>
     </row>
     <row r="57" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A57" s="123" t="s">
+      <c r="A57" s="112" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="12" t="s">
@@ -4701,10 +5054,10 @@
         <v>34</v>
       </c>
       <c r="E57" s="3"/>
-      <c r="F57" s="55"/>
+      <c r="F57" s="70"/>
     </row>
     <row r="58" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A58" s="124"/>
+      <c r="A58" s="113"/>
       <c r="B58" s="8" t="s">
         <v>15</v>
       </c>
@@ -4713,10 +5066,10 @@
         <v>15</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="56"/>
+      <c r="F58" s="71"/>
     </row>
     <row r="59" spans="1:6" ht="45.75" customHeight="1">
-      <c r="A59" s="132"/>
+      <c r="A59" s="119"/>
       <c r="B59" s="9" t="s">
         <v>10</v>
       </c>
@@ -4725,26 +5078,26 @@
         <v>10</v>
       </c>
       <c r="E59" s="2"/>
-      <c r="F59" s="56"/>
+      <c r="F59" s="71"/>
     </row>
     <row r="60" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A60" s="132"/>
+      <c r="A60" s="119"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="56"/>
+      <c r="F60" s="71"/>
     </row>
     <row r="61" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A61" s="125"/>
+      <c r="A61" s="114"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="57"/>
+      <c r="F61" s="72"/>
     </row>
     <row r="62" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A62" s="123" t="s">
+      <c r="A62" s="112" t="s">
         <v>12</v>
       </c>
       <c r="B62" s="3"/>
@@ -4755,26 +5108,26 @@
         <v>13</v>
       </c>
       <c r="E62" s="3"/>
-      <c r="F62" s="55"/>
+      <c r="F62" s="70"/>
     </row>
     <row r="63" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A63" s="124"/>
+      <c r="A63" s="113"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="56"/>
+      <c r="F63" s="71"/>
     </row>
     <row r="64" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A64" s="125"/>
+      <c r="A64" s="114"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="57"/>
+      <c r="F64" s="72"/>
     </row>
     <row r="65" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A65" s="123" t="s">
+      <c r="A65" s="112" t="s">
         <v>0</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -4785,10 +5138,10 @@
         <v>7</v>
       </c>
       <c r="E65" s="3"/>
-      <c r="F65" s="55"/>
+      <c r="F65" s="70"/>
     </row>
     <row r="66" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A66" s="124"/>
+      <c r="A66" s="113"/>
       <c r="B66" s="8" t="s">
         <v>8</v>
       </c>
@@ -4797,10 +5150,10 @@
         <v>8</v>
       </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="56"/>
+      <c r="F66" s="71"/>
     </row>
     <row r="67" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A67" s="125"/>
+      <c r="A67" s="114"/>
       <c r="B67" s="13" t="s">
         <v>9</v>
       </c>
@@ -4809,10 +5162,10 @@
         <v>9</v>
       </c>
       <c r="E67" s="4"/>
-      <c r="F67" s="57"/>
+      <c r="F67" s="72"/>
     </row>
     <row r="68" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A68" s="123" t="s">
+      <c r="A68" s="112" t="s">
         <v>42</v>
       </c>
       <c r="B68" s="9" t="s">
@@ -4823,10 +5176,10 @@
         <v>39</v>
       </c>
       <c r="E68" s="3"/>
-      <c r="F68" s="55"/>
+      <c r="F68" s="70"/>
     </row>
     <row r="69" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A69" s="124"/>
+      <c r="A69" s="113"/>
       <c r="B69" s="9" t="s">
         <v>40</v>
       </c>
@@ -4835,10 +5188,10 @@
         <v>40</v>
       </c>
       <c r="E69" s="1"/>
-      <c r="F69" s="56"/>
+      <c r="F69" s="71"/>
     </row>
     <row r="70" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A70" s="125"/>
+      <c r="A70" s="114"/>
       <c r="B70" s="9" t="s">
         <v>41</v>
       </c>
@@ -4847,10 +5200,10 @@
         <v>41</v>
       </c>
       <c r="E70" s="4"/>
-      <c r="F70" s="57"/>
+      <c r="F70" s="72"/>
     </row>
     <row r="71" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A71" s="68" t="s">
+      <c r="A71" s="91" t="s">
         <v>58</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -4865,12 +5218,12 @@
       <c r="E71" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F71" s="55" t="s">
+      <c r="F71" s="70" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A72" s="69"/>
+      <c r="A72" s="92"/>
       <c r="B72" s="1" t="s">
         <v>17</v>
       </c>
@@ -4883,10 +5236,10 @@
       <c r="E72" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F72" s="56"/>
+      <c r="F72" s="71"/>
     </row>
     <row r="73" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A73" s="69"/>
+      <c r="A73" s="92"/>
       <c r="B73" s="1" t="s">
         <v>18</v>
       </c>
@@ -4897,10 +5250,10 @@
       <c r="E73" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F73" s="56"/>
+      <c r="F73" s="71"/>
     </row>
     <row r="74" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A74" s="69"/>
+      <c r="A74" s="92"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="8" t="s">
@@ -4909,10 +5262,10 @@
       <c r="E74" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F74" s="56"/>
+      <c r="F74" s="71"/>
     </row>
     <row r="75" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A75" s="69"/>
+      <c r="A75" s="92"/>
       <c r="B75" s="7"/>
       <c r="C75" s="1"/>
       <c r="D75" s="8" t="s">
@@ -4921,10 +5274,10 @@
       <c r="E75" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F75" s="56"/>
+      <c r="F75" s="71"/>
     </row>
     <row r="76" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A76" s="69"/>
+      <c r="A76" s="92"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="8" t="s">
@@ -4933,10 +5286,10 @@
       <c r="E76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F76" s="56"/>
+      <c r="F76" s="71"/>
     </row>
     <row r="77" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A77" s="70"/>
+      <c r="A77" s="93"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="29" t="s">
@@ -4945,10 +5298,10 @@
       <c r="E77" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F77" s="57"/>
+      <c r="F77" s="72"/>
     </row>
     <row r="78" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A78" s="148" t="s">
+      <c r="A78" s="135" t="s">
         <v>66</v>
       </c>
       <c r="B78" s="26" t="s">
@@ -4963,30 +5316,30 @@
       <c r="E78" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="75" t="s">
+      <c r="F78" s="94" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A79" s="74"/>
+      <c r="A79" s="68"/>
       <c r="B79" s="30"/>
       <c r="C79" s="22"/>
       <c r="D79" s="21"/>
       <c r="E79" s="31"/>
-      <c r="F79" s="76"/>
+      <c r="F79" s="95"/>
     </row>
     <row r="80" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A80" s="125"/>
+      <c r="A80" s="114"/>
       <c r="B80" s="25"/>
       <c r="C80" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="17"/>
-      <c r="F80" s="77"/>
+      <c r="F80" s="96"/>
     </row>
     <row r="81" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A81" s="123" t="s">
+      <c r="A81" s="112" t="s">
         <v>112</v>
       </c>
       <c r="B81" s="27" t="s">
@@ -5001,22 +5354,22 @@
       <c r="E81" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F81" s="55" t="s">
+      <c r="F81" s="70" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A82" s="132"/>
+      <c r="A82" s="119"/>
       <c r="B82" s="28"/>
       <c r="C82" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="19"/>
-      <c r="F82" s="57"/>
+      <c r="F82" s="72"/>
     </row>
     <row r="83" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A83" s="123" t="s">
+      <c r="A83" s="112" t="s">
         <v>65</v>
       </c>
       <c r="B83" s="27" t="s">
@@ -5031,20 +5384,20 @@
       <c r="E83" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F83" s="129"/>
+      <c r="F83" s="136"/>
     </row>
     <row r="84" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A84" s="132"/>
+      <c r="A84" s="119"/>
       <c r="B84" s="28"/>
       <c r="C84" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="19"/>
-      <c r="F84" s="131"/>
+      <c r="F84" s="137"/>
     </row>
     <row r="85" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A85" s="61" t="s">
+      <c r="A85" s="67" t="s">
         <v>92</v>
       </c>
       <c r="B85" s="15" t="s">
@@ -5060,7 +5413,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A86" s="74"/>
+      <c r="A86" s="68"/>
       <c r="B86" s="9" t="s">
         <v>80</v>
       </c>
@@ -5070,7 +5423,7 @@
       <c r="F86" s="34"/>
     </row>
     <row r="87" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A87" s="62"/>
+      <c r="A87" s="69"/>
       <c r="B87" s="25" t="s">
         <v>91</v>
       </c>
@@ -5082,7 +5435,7 @@
       <c r="F87" s="35"/>
     </row>
     <row r="88" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A88" s="61" t="s">
+      <c r="A88" s="67" t="s">
         <v>107</v>
       </c>
       <c r="B88" s="15" t="s">
@@ -5093,32 +5446,32 @@
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="55" t="s">
+      <c r="F88" s="70" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A89" s="74"/>
+      <c r="A89" s="68"/>
       <c r="B89" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="56"/>
+      <c r="F89" s="71"/>
     </row>
     <row r="90" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A90" s="62"/>
+      <c r="A90" s="69"/>
       <c r="B90" s="25"/>
       <c r="C90" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
-      <c r="F90" s="57"/>
+      <c r="F90" s="72"/>
     </row>
     <row r="91" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A91" s="145" t="s">
+      <c r="A91" s="132" t="s">
         <v>71</v>
       </c>
       <c r="B91" s="3"/>
@@ -5127,62 +5480,62 @@
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="55" t="s">
+      <c r="F91" s="70" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A92" s="146"/>
+      <c r="A92" s="133"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="56"/>
+      <c r="F92" s="71"/>
     </row>
     <row r="93" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A93" s="146"/>
+      <c r="A93" s="133"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="56"/>
+      <c r="F93" s="71"/>
     </row>
     <row r="94" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A94" s="146"/>
+      <c r="A94" s="133"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="56"/>
+      <c r="F94" s="71"/>
     </row>
     <row r="95" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A95" s="147"/>
+      <c r="A95" s="134"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="57"/>
+      <c r="F95" s="72"/>
     </row>
     <row r="96" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A96" s="71" t="s">
+      <c r="A96" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="B96" s="71"/>
-      <c r="C96" s="71"/>
-      <c r="D96" s="71"/>
-      <c r="E96" s="71"/>
-      <c r="F96" s="71"/>
+      <c r="B96" s="97"/>
+      <c r="C96" s="97"/>
+      <c r="D96" s="97"/>
+      <c r="E96" s="97"/>
+      <c r="F96" s="97"/>
     </row>
     <row r="97" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A97" s="126" t="s">
+      <c r="A97" s="140" t="s">
         <v>50</v>
       </c>
       <c r="B97" s="3"/>
@@ -5193,12 +5546,12 @@
       <c r="E97" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F97" s="129" t="s">
+      <c r="F97" s="136" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A98" s="127"/>
+      <c r="A98" s="141"/>
       <c r="B98" s="1"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8" t="s">
@@ -5207,10 +5560,10 @@
       <c r="E98" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F98" s="130"/>
+      <c r="F98" s="143"/>
     </row>
     <row r="99" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A99" s="127"/>
+      <c r="A99" s="141"/>
       <c r="B99" s="1"/>
       <c r="C99" s="8"/>
       <c r="D99" s="9" t="s">
@@ -5219,10 +5572,10 @@
       <c r="E99" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F99" s="130"/>
+      <c r="F99" s="143"/>
     </row>
     <row r="100" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A100" s="127"/>
+      <c r="A100" s="141"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="8" t="s">
@@ -5231,10 +5584,10 @@
       <c r="E100" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="130"/>
+      <c r="F100" s="143"/>
     </row>
     <row r="101" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A101" s="127"/>
+      <c r="A101" s="141"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="8" t="s">
@@ -5243,10 +5596,10 @@
       <c r="E101" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F101" s="130"/>
+      <c r="F101" s="143"/>
     </row>
     <row r="102" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A102" s="127"/>
+      <c r="A102" s="141"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="8" t="s">
@@ -5255,10 +5608,10 @@
       <c r="E102" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F102" s="130"/>
+      <c r="F102" s="143"/>
     </row>
     <row r="103" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A103" s="127"/>
+      <c r="A103" s="141"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="8" t="s">
@@ -5267,10 +5620,10 @@
       <c r="E103" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F103" s="130"/>
+      <c r="F103" s="143"/>
     </row>
     <row r="104" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A104" s="127"/>
+      <c r="A104" s="141"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="9" t="s">
@@ -5279,10 +5632,10 @@
       <c r="E104" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F104" s="130"/>
+      <c r="F104" s="143"/>
     </row>
     <row r="105" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A105" s="127"/>
+      <c r="A105" s="141"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="9" t="s">
@@ -5291,10 +5644,10 @@
       <c r="E105" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F105" s="130"/>
+      <c r="F105" s="143"/>
     </row>
     <row r="106" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A106" s="127"/>
+      <c r="A106" s="141"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="9" t="s">
@@ -5303,26 +5656,26 @@
       <c r="E106" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F106" s="130"/>
+      <c r="F106" s="143"/>
     </row>
     <row r="107" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A107" s="128"/>
+      <c r="A107" s="142"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="18"/>
       <c r="E107" s="19"/>
-      <c r="F107" s="131"/>
+      <c r="F107" s="137"/>
     </row>
     <row r="108" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A108" s="128"/>
+      <c r="A108" s="142"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="18"/>
       <c r="E108" s="19"/>
-      <c r="F108" s="131"/>
+      <c r="F108" s="137"/>
     </row>
     <row r="109" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A109" s="136" t="s">
+      <c r="A109" s="123" t="s">
         <v>138</v>
       </c>
       <c r="B109" s="3" t="s">
@@ -5332,13 +5685,13 @@
         <v>26</v>
       </c>
       <c r="D109" s="12"/>
-      <c r="E109" s="139"/>
-      <c r="F109" s="142" t="s">
+      <c r="E109" s="126"/>
+      <c r="F109" s="129" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A110" s="137"/>
+      <c r="A110" s="124"/>
       <c r="B110" s="1" t="s">
         <v>131</v>
       </c>
@@ -5346,11 +5699,11 @@
         <v>148</v>
       </c>
       <c r="D110" s="8"/>
-      <c r="E110" s="140"/>
-      <c r="F110" s="143"/>
+      <c r="E110" s="127"/>
+      <c r="F110" s="130"/>
     </row>
     <row r="111" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A111" s="137"/>
+      <c r="A111" s="124"/>
       <c r="B111" s="1" t="s">
         <v>130</v>
       </c>
@@ -5358,11 +5711,11 @@
         <v>139</v>
       </c>
       <c r="D111" s="9"/>
-      <c r="E111" s="140"/>
-      <c r="F111" s="143"/>
+      <c r="E111" s="127"/>
+      <c r="F111" s="130"/>
     </row>
     <row r="112" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A112" s="137"/>
+      <c r="A112" s="124"/>
       <c r="B112" s="1" t="s">
         <v>129</v>
       </c>
@@ -5370,11 +5723,11 @@
         <v>140</v>
       </c>
       <c r="D112" s="8"/>
-      <c r="E112" s="140"/>
-      <c r="F112" s="143"/>
+      <c r="E112" s="127"/>
+      <c r="F112" s="130"/>
     </row>
     <row r="113" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A113" s="137"/>
+      <c r="A113" s="124"/>
       <c r="B113" s="1" t="s">
         <v>22</v>
       </c>
@@ -5382,11 +5735,11 @@
         <v>141</v>
       </c>
       <c r="D113" s="8"/>
-      <c r="E113" s="140"/>
-      <c r="F113" s="143"/>
+      <c r="E113" s="127"/>
+      <c r="F113" s="130"/>
     </row>
     <row r="114" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A114" s="137"/>
+      <c r="A114" s="124"/>
       <c r="B114" s="1" t="s">
         <v>23</v>
       </c>
@@ -5394,63 +5747,63 @@
         <v>142</v>
       </c>
       <c r="D114" s="8"/>
-      <c r="E114" s="140"/>
-      <c r="F114" s="143"/>
+      <c r="E114" s="127"/>
+      <c r="F114" s="130"/>
     </row>
     <row r="115" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A115" s="137"/>
+      <c r="A115" s="124"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D115" s="8"/>
-      <c r="E115" s="140"/>
-      <c r="F115" s="143"/>
+      <c r="E115" s="127"/>
+      <c r="F115" s="130"/>
       <c r="I115" s="36"/>
     </row>
     <row r="116" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A116" s="137"/>
+      <c r="A116" s="124"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D116" s="8"/>
-      <c r="E116" s="140"/>
-      <c r="F116" s="143"/>
+      <c r="E116" s="127"/>
+      <c r="F116" s="130"/>
       <c r="I116" s="36"/>
     </row>
     <row r="117" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A117" s="137"/>
+      <c r="A117" s="124"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D117" s="8"/>
-      <c r="E117" s="140"/>
-      <c r="F117" s="143"/>
+      <c r="E117" s="127"/>
+      <c r="F117" s="130"/>
       <c r="I117" s="36"/>
     </row>
     <row r="118" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A118" s="137"/>
+      <c r="A118" s="124"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D118" s="8"/>
-      <c r="E118" s="140"/>
-      <c r="F118" s="143"/>
+      <c r="E118" s="127"/>
+      <c r="F118" s="130"/>
       <c r="I118" s="36"/>
     </row>
     <row r="119" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A119" s="138"/>
+      <c r="A119" s="125"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="29"/>
-      <c r="E119" s="141"/>
-      <c r="F119" s="144"/>
+      <c r="E119" s="128"/>
+      <c r="F119" s="131"/>
     </row>
     <row r="120" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A120" s="121" t="s">
+      <c r="A120" s="138" t="s">
         <v>51</v>
       </c>
       <c r="B120" s="23" t="s">
@@ -5459,20 +5812,20 @@
       <c r="C120" s="22"/>
       <c r="D120" s="22"/>
       <c r="E120" s="22"/>
-      <c r="F120" s="51" t="s">
+      <c r="F120" s="85" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A121" s="122"/>
+      <c r="A121" s="139"/>
       <c r="B121" s="16"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17"/>
       <c r="E121" s="17"/>
-      <c r="F121" s="52"/>
+      <c r="F121" s="86"/>
     </row>
     <row r="122" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A122" s="47" t="s">
+      <c r="A122" s="104" t="s">
         <v>52</v>
       </c>
       <c r="B122" s="15" t="s">
@@ -5481,32 +5834,32 @@
       <c r="C122" s="14"/>
       <c r="D122" s="14"/>
       <c r="E122" s="14"/>
-      <c r="F122" s="50" t="s">
+      <c r="F122" s="84" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A123" s="48"/>
+      <c r="A123" s="105"/>
       <c r="B123" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C123" s="31"/>
       <c r="D123" s="31"/>
       <c r="E123" s="31"/>
-      <c r="F123" s="51"/>
+      <c r="F123" s="85"/>
     </row>
     <row r="124" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A124" s="48"/>
+      <c r="A124" s="105"/>
       <c r="B124" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C124" s="19"/>
       <c r="D124" s="19"/>
       <c r="E124" s="19"/>
-      <c r="F124" s="51"/>
+      <c r="F124" s="85"/>
     </row>
     <row r="125" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A125" s="133" t="s">
+      <c r="A125" s="120" t="s">
         <v>81</v>
       </c>
       <c r="B125" s="15" t="s">
@@ -5515,36 +5868,36 @@
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
-      <c r="F125" s="55" t="s">
+      <c r="F125" s="70" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A126" s="134"/>
+      <c r="A126" s="121"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="56"/>
+      <c r="F126" s="71"/>
     </row>
     <row r="127" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A127" s="134"/>
+      <c r="A127" s="121"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="56"/>
+      <c r="F127" s="71"/>
     </row>
     <row r="128" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A128" s="135"/>
+      <c r="A128" s="122"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
-      <c r="F128" s="57"/>
+      <c r="F128" s="72"/>
     </row>
     <row r="129" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A129" s="47" t="s">
+      <c r="A129" s="104" t="s">
         <v>86</v>
       </c>
       <c r="B129" s="15" t="s">
@@ -5553,43 +5906,61 @@
       <c r="C129" s="14"/>
       <c r="D129" s="14"/>
       <c r="E129" s="14"/>
-      <c r="F129" s="50" t="s">
+      <c r="F129" s="84" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A130" s="48"/>
+      <c r="A130" s="105"/>
       <c r="B130" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C130" s="31"/>
       <c r="D130" s="31"/>
       <c r="E130" s="31"/>
-      <c r="F130" s="51"/>
+      <c r="F130" s="85"/>
     </row>
     <row r="131" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A131" s="49"/>
+      <c r="A131" s="106"/>
       <c r="B131" s="16" t="s">
         <v>84</v>
       </c>
       <c r="C131" s="17"/>
       <c r="D131" s="17"/>
       <c r="E131" s="17"/>
-      <c r="F131" s="52"/>
+      <c r="F131" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="F17:F23"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="E24:E30"/>
-    <mergeCell ref="F24:F30"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="E31:E40"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="E48:E55"/>
-    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="F57:F61"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="F31:F40"/>
+    <mergeCell ref="A48:A55"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="F10:F16"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="F3:F9"/>
+    <mergeCell ref="F48:F55"/>
+    <mergeCell ref="A31:A40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="F41:F47"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A124"/>
+    <mergeCell ref="F122:F124"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="A97:A108"/>
+    <mergeCell ref="F97:F108"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F71:F77"/>
+    <mergeCell ref="A71:A77"/>
     <mergeCell ref="A129:A131"/>
     <mergeCell ref="F129:F131"/>
     <mergeCell ref="A56:F56"/>
@@ -5606,35 +5977,17 @@
     <mergeCell ref="A83:A84"/>
     <mergeCell ref="F83:F84"/>
     <mergeCell ref="A88:A90"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A122:A124"/>
-    <mergeCell ref="F122:F124"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="A97:A108"/>
-    <mergeCell ref="F97:F108"/>
-    <mergeCell ref="F88:F90"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="F71:F77"/>
-    <mergeCell ref="A71:A77"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="F31:F40"/>
-    <mergeCell ref="A48:A55"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="F10:F16"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="F3:F9"/>
-    <mergeCell ref="F48:F55"/>
-    <mergeCell ref="A31:A40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="F41:F47"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="F17:F23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="E24:E30"/>
+    <mergeCell ref="F24:F30"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="E31:E40"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="E48:E55"/>
+    <mergeCell ref="A62:A64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5688,7 +6041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>

--- a/description.xlsx
+++ b/description.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="221">
   <si>
     <t>SET_ORI(W,P,R)</t>
   </si>
@@ -679,6 +679,20 @@
 A матрица постоянных коэф. 
 D матрица где в первом столбце указаны правый части уравнений системы
 результат матрица где в первом стобце находятся решения матрицы</t>
+  </si>
+  <si>
+    <t>MATH_LIB. Cross_PNT (Line_frame, Plate_frame: XYZWPR): XYZWPR</t>
+  </si>
+  <si>
+    <t>вычисляет точку пересения Z оcи LINE_frame c XY плоскостью Plate_frame</t>
+  </si>
+  <si>
+    <t>MATH_LIB. Cross_Line (Plate1, Plate2: XYZWPR): XYZWPR</t>
+  </si>
+  <si>
+    <t>вычисляет фрейм X ось которого совпадает с прямой  пересения XY плоскости Plate1 и  XY плоскости Plate2. 
+Плоскость XY нового фрейма совпадает с плоскостью XY Plate1. 
+Начало отсчета новой системы находится на проекции начала Plate1 на прямую пересечения плоскостей</t>
   </si>
 </sst>
 </file>
@@ -1896,11 +1910,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I186"/>
+  <dimension ref="A1:I192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C182" sqref="C182"/>
+      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D166" sqref="D166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3893,72 +3907,72 @@
       <c r="E160" s="17"/>
       <c r="F160" s="86"/>
     </row>
-    <row r="161" spans="1:6" ht="15" customHeight="1">
-      <c r="A161" s="151" t="s">
+    <row r="161" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A161" s="104" t="s">
+        <v>217</v>
+      </c>
+      <c r="B161" s="15"/>
+      <c r="C161" s="14"/>
+      <c r="D161" s="14"/>
+      <c r="E161" s="14"/>
+      <c r="F161" s="84" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A162" s="105"/>
+      <c r="B162" s="21"/>
+      <c r="C162" s="31"/>
+      <c r="D162" s="31"/>
+      <c r="E162" s="31"/>
+      <c r="F162" s="85"/>
+    </row>
+    <row r="163" spans="1:6" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A163" s="106"/>
+      <c r="B163" s="16"/>
+      <c r="C163" s="17"/>
+      <c r="D163" s="17"/>
+      <c r="E163" s="17"/>
+      <c r="F163" s="86"/>
+    </row>
+    <row r="164" spans="1:6" ht="60" customHeight="1">
+      <c r="A164" s="104" t="s">
+        <v>219</v>
+      </c>
+      <c r="B164" s="15"/>
+      <c r="C164" s="14"/>
+      <c r="D164" s="14"/>
+      <c r="E164" s="14"/>
+      <c r="F164" s="161" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="60" customHeight="1">
+      <c r="A165" s="105"/>
+      <c r="B165" s="21"/>
+      <c r="C165" s="31"/>
+      <c r="D165" s="31"/>
+      <c r="E165" s="31"/>
+      <c r="F165" s="162"/>
+    </row>
+    <row r="166" spans="1:6" ht="60" customHeight="1" thickBot="1">
+      <c r="A166" s="106"/>
+      <c r="B166" s="16"/>
+      <c r="C166" s="17"/>
+      <c r="D166" s="17"/>
+      <c r="E166" s="17"/>
+      <c r="F166" s="163"/>
+    </row>
+    <row r="167" spans="1:6" ht="15" customHeight="1">
+      <c r="A167" s="151" t="s">
         <v>203</v>
       </c>
-      <c r="B161" s="155"/>
-      <c r="C161" s="152"/>
-      <c r="D161" s="158"/>
-      <c r="E161" s="152"/>
-      <c r="F161" s="84" t="s">
+      <c r="B167" s="155"/>
+      <c r="C167" s="152"/>
+      <c r="D167" s="158"/>
+      <c r="E167" s="152"/>
+      <c r="F167" s="84" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162" s="149"/>
-      <c r="B162" s="156"/>
-      <c r="C162" s="153"/>
-      <c r="D162" s="159"/>
-      <c r="E162" s="153"/>
-      <c r="F162" s="85"/>
-    </row>
-    <row r="163" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A163" s="150"/>
-      <c r="B163" s="157"/>
-      <c r="C163" s="154"/>
-      <c r="D163" s="160"/>
-      <c r="E163" s="154"/>
-      <c r="F163" s="86"/>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164" s="151" t="s">
-        <v>204</v>
-      </c>
-      <c r="B164" s="155"/>
-      <c r="C164" s="152"/>
-      <c r="D164" s="158"/>
-      <c r="E164" s="152"/>
-      <c r="F164" s="84" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165" s="149"/>
-      <c r="B165" s="156"/>
-      <c r="C165" s="153"/>
-      <c r="D165" s="159"/>
-      <c r="E165" s="153"/>
-      <c r="F165" s="85"/>
-    </row>
-    <row r="166" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A166" s="150"/>
-      <c r="B166" s="157"/>
-      <c r="C166" s="154"/>
-      <c r="D166" s="160"/>
-      <c r="E166" s="154"/>
-      <c r="F166" s="86"/>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167" s="149" t="s">
-        <v>205</v>
-      </c>
-      <c r="B167" s="156"/>
-      <c r="C167" s="153"/>
-      <c r="D167" s="159"/>
-      <c r="E167" s="153"/>
-      <c r="F167" s="84" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3970,23 +3984,23 @@
       <c r="F168" s="85"/>
     </row>
     <row r="169" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A169" s="149"/>
-      <c r="B169" s="156"/>
-      <c r="C169" s="153"/>
-      <c r="D169" s="159"/>
-      <c r="E169" s="153"/>
+      <c r="A169" s="150"/>
+      <c r="B169" s="157"/>
+      <c r="C169" s="154"/>
+      <c r="D169" s="160"/>
+      <c r="E169" s="154"/>
       <c r="F169" s="86"/>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="151" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B170" s="155"/>
       <c r="C170" s="152"/>
       <c r="D170" s="158"/>
       <c r="E170" s="152"/>
       <c r="F170" s="84" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4007,14 +4021,14 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="149" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B173" s="156"/>
       <c r="C173" s="153"/>
       <c r="D173" s="159"/>
       <c r="E173" s="153"/>
       <c r="F173" s="84" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4035,14 +4049,14 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="151" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B176" s="155"/>
       <c r="C176" s="152"/>
       <c r="D176" s="158"/>
       <c r="E176" s="152"/>
       <c r="F176" s="84" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4063,14 +4077,14 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="149" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B179" s="156"/>
       <c r="C179" s="153"/>
       <c r="D179" s="159"/>
       <c r="E179" s="153"/>
-      <c r="F179" s="161" t="s">
-        <v>216</v>
+      <c r="F179" s="84" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4079,23 +4093,27 @@
       <c r="C180" s="153"/>
       <c r="D180" s="159"/>
       <c r="E180" s="153"/>
-      <c r="F180" s="162"/>
-    </row>
-    <row r="181" spans="1:6">
+      <c r="F180" s="85"/>
+    </row>
+    <row r="181" spans="1:6" ht="15.75" thickBot="1">
       <c r="A181" s="149"/>
       <c r="B181" s="156"/>
       <c r="C181" s="153"/>
       <c r="D181" s="159"/>
       <c r="E181" s="153"/>
-      <c r="F181" s="162"/>
+      <c r="F181" s="86"/>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="149"/>
-      <c r="B182" s="156"/>
-      <c r="C182" s="153"/>
-      <c r="D182" s="159"/>
-      <c r="E182" s="153"/>
-      <c r="F182" s="162"/>
+      <c r="A182" s="151" t="s">
+        <v>208</v>
+      </c>
+      <c r="B182" s="155"/>
+      <c r="C182" s="152"/>
+      <c r="D182" s="158"/>
+      <c r="E182" s="152"/>
+      <c r="F182" s="84" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="149"/>
@@ -4103,52 +4121,108 @@
       <c r="C183" s="153"/>
       <c r="D183" s="159"/>
       <c r="E183" s="153"/>
-      <c r="F183" s="162"/>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184" s="149"/>
-      <c r="B184" s="156"/>
-      <c r="C184" s="153"/>
-      <c r="D184" s="159"/>
-      <c r="E184" s="153"/>
-      <c r="F184" s="162"/>
+      <c r="F183" s="85"/>
+    </row>
+    <row r="184" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A184" s="150"/>
+      <c r="B184" s="157"/>
+      <c r="C184" s="154"/>
+      <c r="D184" s="160"/>
+      <c r="E184" s="154"/>
+      <c r="F184" s="86"/>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="149"/>
+      <c r="A185" s="149" t="s">
+        <v>209</v>
+      </c>
       <c r="B185" s="156"/>
       <c r="C185" s="153"/>
       <c r="D185" s="159"/>
       <c r="E185" s="153"/>
-      <c r="F185" s="162"/>
-    </row>
-    <row r="186" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A186" s="150"/>
-      <c r="B186" s="157"/>
-      <c r="C186" s="154"/>
-      <c r="D186" s="160"/>
-      <c r="E186" s="154"/>
-      <c r="F186" s="163"/>
+      <c r="F185" s="161" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="149"/>
+      <c r="B186" s="156"/>
+      <c r="C186" s="153"/>
+      <c r="D186" s="159"/>
+      <c r="E186" s="153"/>
+      <c r="F186" s="162"/>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="149"/>
+      <c r="B187" s="156"/>
+      <c r="C187" s="153"/>
+      <c r="D187" s="159"/>
+      <c r="E187" s="153"/>
+      <c r="F187" s="162"/>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="149"/>
+      <c r="B188" s="156"/>
+      <c r="C188" s="153"/>
+      <c r="D188" s="159"/>
+      <c r="E188" s="153"/>
+      <c r="F188" s="162"/>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="149"/>
+      <c r="B189" s="156"/>
+      <c r="C189" s="153"/>
+      <c r="D189" s="159"/>
+      <c r="E189" s="153"/>
+      <c r="F189" s="162"/>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="149"/>
+      <c r="B190" s="156"/>
+      <c r="C190" s="153"/>
+      <c r="D190" s="159"/>
+      <c r="E190" s="153"/>
+      <c r="F190" s="162"/>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="149"/>
+      <c r="B191" s="156"/>
+      <c r="C191" s="153"/>
+      <c r="D191" s="159"/>
+      <c r="E191" s="153"/>
+      <c r="F191" s="162"/>
+    </row>
+    <row r="192" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A192" s="150"/>
+      <c r="B192" s="157"/>
+      <c r="C192" s="154"/>
+      <c r="D192" s="160"/>
+      <c r="E192" s="154"/>
+      <c r="F192" s="163"/>
     </row>
   </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="A179:A186"/>
+  <mergeCells count="92">
+    <mergeCell ref="A164:A166"/>
+    <mergeCell ref="F164:F166"/>
+    <mergeCell ref="A161:A163"/>
     <mergeCell ref="F161:F163"/>
-    <mergeCell ref="F164:F166"/>
+    <mergeCell ref="A185:A192"/>
     <mergeCell ref="F167:F169"/>
     <mergeCell ref="F170:F172"/>
     <mergeCell ref="F173:F175"/>
     <mergeCell ref="F176:F178"/>
-    <mergeCell ref="F179:F186"/>
-    <mergeCell ref="A164:A166"/>
-    <mergeCell ref="A167:A169"/>
+    <mergeCell ref="F179:F181"/>
+    <mergeCell ref="F182:F184"/>
+    <mergeCell ref="F185:F192"/>
     <mergeCell ref="A170:A172"/>
     <mergeCell ref="A173:A175"/>
     <mergeCell ref="A176:A178"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="A182:A184"/>
     <mergeCell ref="F124:F130"/>
     <mergeCell ref="A117:A123"/>
     <mergeCell ref="E117:E123"/>
     <mergeCell ref="F117:F123"/>
-    <mergeCell ref="A161:A163"/>
+    <mergeCell ref="A167:A169"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A155:A157"/>
     <mergeCell ref="F155:F157"/>

--- a/description.xlsx
+++ b/description.xlsx
@@ -692,7 +692,8 @@
   <si>
     <t>вычисляет фрейм X ось которого совпадает с прямой  пересения XY плоскости Plate1 и  XY плоскости Plate2. 
 Плоскость XY нового фрейма совпадает с плоскостью XY Plate1. 
-Начало отсчета новой системы находится на проекции начала Plate1 на прямую пересечения плоскостей</t>
+Начало отсчета новой системы находится на проекции начала Plate1 на прямую пересечения плоскостей. Направление Z совпадает с направлением Z plate1
+ось X в направлении увеличения X исходной системы ( той относительно которой заданы все координаты)</t>
   </si>
 </sst>
 </file>
@@ -1913,8 +1914,8 @@
   <dimension ref="A1:I192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D166" sqref="D166"/>
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/description.xlsx
+++ b/description.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="222">
   <si>
     <t>SET_ORI(W,P,R)</t>
   </si>
@@ -694,6 +694,9 @@
 Плоскость XY нового фрейма совпадает с плоскостью XY Plate1. 
 Начало отсчета новой системы находится на проекции начала Plate1 на прямую пересечения плоскостей. Направление Z совпадает с направлением Z plate1
 ось X в направлении увеличения X исходной системы ( той относительно которой заданы все координаты)</t>
+  </si>
+  <si>
+    <t>S_elps(Z, D, a1, a2, end, turn)</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1249,351 +1252,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
@@ -1603,6 +1261,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1611,6 +1278,357 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1911,11 +1929,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I192"/>
+  <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D145" sqref="D145"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1951,53 +1969,53 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="107"/>
     </row>
     <row r="3" spans="1:6" ht="21" customHeight="1">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="108" t="s">
         <v>165</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="12"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="111" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1">
-      <c r="A4" s="49"/>
+      <c r="A4" s="109"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="8"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="52"/>
+      <c r="F4" s="112"/>
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1">
-      <c r="A5" s="49"/>
+      <c r="A5" s="109"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="8"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="52"/>
+      <c r="F5" s="112"/>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" thickBot="1">
-      <c r="A6" s="50"/>
+      <c r="A6" s="110"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="9"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="53"/>
+      <c r="F6" s="113"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="114" t="s">
         <v>164</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2012,12 +2030,12 @@
       <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="59" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1">
-      <c r="A8" s="38"/>
+      <c r="A8" s="115"/>
       <c r="B8" s="1" t="s">
         <v>95</v>
       </c>
@@ -2028,10 +2046,10 @@
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="44"/>
+      <c r="F8" s="59"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1">
-      <c r="A9" s="38"/>
+      <c r="A9" s="115"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="9" t="s">
@@ -2040,10 +2058,10 @@
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="44"/>
+      <c r="F9" s="59"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1">
-      <c r="A10" s="38"/>
+      <c r="A10" s="115"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="8" t="s">
@@ -2052,10 +2070,10 @@
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="44"/>
+      <c r="F10" s="59"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="38"/>
+      <c r="A11" s="115"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="8" t="s">
@@ -2064,10 +2082,10 @@
       <c r="E11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="59"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="38"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="8" t="s">
@@ -2076,10 +2094,10 @@
       <c r="E12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="44"/>
+      <c r="F12" s="59"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="39"/>
+      <c r="A13" s="116"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="13" t="s">
@@ -2088,10 +2106,10 @@
       <c r="E13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="45"/>
+      <c r="F13" s="60"/>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="114" t="s">
         <v>195</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2106,12 +2124,12 @@
       <c r="E14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="58" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1">
-      <c r="A15" s="55"/>
+      <c r="A15" s="115"/>
       <c r="B15" s="1" t="s">
         <v>95</v>
       </c>
@@ -2122,10 +2140,10 @@
       <c r="E15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="44"/>
+      <c r="F15" s="59"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1">
-      <c r="A16" s="55"/>
+      <c r="A16" s="115"/>
       <c r="B16" s="2" t="s">
         <v>196</v>
       </c>
@@ -2136,10 +2154,10 @@
       <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="44"/>
+      <c r="F16" s="59"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1">
-      <c r="A17" s="55"/>
+      <c r="A17" s="115"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="8" t="s">
@@ -2148,10 +2166,10 @@
       <c r="E17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="44"/>
+      <c r="F17" s="59"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
-      <c r="A18" s="55"/>
+      <c r="A18" s="115"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="8" t="s">
@@ -2160,10 +2178,10 @@
       <c r="E18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="44"/>
+      <c r="F18" s="59"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1">
-      <c r="A19" s="55"/>
+      <c r="A19" s="115"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="8" t="s">
@@ -2172,10 +2190,10 @@
       <c r="E19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="44"/>
+      <c r="F19" s="59"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A20" s="56"/>
+      <c r="A20" s="116"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="13" t="s">
@@ -2184,10 +2202,10 @@
       <c r="E20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="45"/>
+      <c r="F20" s="60"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="117" t="s">
         <v>166</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2199,15 +2217,15 @@
       <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="120" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1">
-      <c r="A22" s="58"/>
+      <c r="A22" s="118"/>
       <c r="B22" s="1" t="s">
         <v>156</v>
       </c>
@@ -2217,75 +2235,75 @@
       <c r="D22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="61"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="121"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1">
-      <c r="A23" s="58"/>
+      <c r="A23" s="118"/>
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="123" t="s">
         <v>158</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="61"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="121"/>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1">
-      <c r="A24" s="58"/>
+      <c r="A24" s="118"/>
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="64"/>
+      <c r="C24" s="124"/>
       <c r="D24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="61"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="121"/>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1">
-      <c r="A25" s="58"/>
+      <c r="A25" s="118"/>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="123" t="s">
         <v>157</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="61"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="121"/>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1">
-      <c r="A26" s="58"/>
+      <c r="A26" s="118"/>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="65"/>
+      <c r="C26" s="125"/>
       <c r="D26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="61"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="121"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="59"/>
+      <c r="A27" s="119"/>
       <c r="B27" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C27" s="66"/>
+      <c r="C27" s="126"/>
       <c r="D27" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="62"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="122"/>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="103" t="s">
         <v>161</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2297,15 +2315,15 @@
       <c r="D28" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="43" t="s">
+      <c r="F28" s="58" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1">
-      <c r="A29" s="38"/>
+      <c r="A29" s="104"/>
       <c r="B29" s="1" t="s">
         <v>22</v>
       </c>
@@ -2315,11 +2333,11 @@
       <c r="D29" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="44"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="59"/>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1">
-      <c r="A30" s="38"/>
+      <c r="A30" s="104"/>
       <c r="B30" s="1" t="s">
         <v>20</v>
       </c>
@@ -2329,11 +2347,11 @@
       <c r="D30" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="44"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="59"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1">
-      <c r="A31" s="38"/>
+      <c r="A31" s="104"/>
       <c r="B31" s="1" t="s">
         <v>21</v>
       </c>
@@ -2341,11 +2359,11 @@
       <c r="D31" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="44"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="59"/>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1">
-      <c r="A32" s="38"/>
+      <c r="A32" s="104"/>
       <c r="B32" s="1" t="s">
         <v>23</v>
       </c>
@@ -2353,11 +2371,11 @@
       <c r="D32" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="44"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="59"/>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1">
-      <c r="A33" s="38"/>
+      <c r="A33" s="104"/>
       <c r="B33" s="1" t="s">
         <v>24</v>
       </c>
@@ -2365,11 +2383,11 @@
       <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="44"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="59"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="39"/>
+      <c r="A34" s="105"/>
       <c r="B34" s="4" t="s">
         <v>159</v>
       </c>
@@ -2377,11 +2395,11 @@
       <c r="D34" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="42"/>
-      <c r="F34" s="45"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="60"/>
     </row>
     <row r="35" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A35" s="73" t="s">
+      <c r="A35" s="93" t="s">
         <v>182</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -2393,15 +2411,15 @@
       <c r="D35" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="43" t="s">
+      <c r="F35" s="58" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A36" s="74"/>
+      <c r="A36" s="94"/>
       <c r="B36" s="1" t="s">
         <v>70</v>
       </c>
@@ -2409,11 +2427,11 @@
       <c r="D36" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="44"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="59"/>
     </row>
     <row r="37" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A37" s="74"/>
+      <c r="A37" s="94"/>
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -2421,51 +2439,51 @@
       <c r="D37" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="44"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="59"/>
     </row>
     <row r="38" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A38" s="74"/>
+      <c r="A38" s="94"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="41"/>
-      <c r="F38" s="44"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="59"/>
     </row>
     <row r="39" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A39" s="74"/>
+      <c r="A39" s="94"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="41"/>
-      <c r="F39" s="44"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="59"/>
     </row>
     <row r="40" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A40" s="74"/>
+      <c r="A40" s="94"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="41"/>
-      <c r="F40" s="44"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="59"/>
     </row>
     <row r="41" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A41" s="75"/>
+      <c r="A41" s="95"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="42"/>
-      <c r="F41" s="45"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="60"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1">
-      <c r="A42" s="76" t="s">
+      <c r="A42" s="66" t="s">
         <v>183</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -2475,24 +2493,24 @@
       <c r="D42" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="E42" s="40"/>
-      <c r="F42" s="43" t="s">
+      <c r="E42" s="63"/>
+      <c r="F42" s="58" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="77"/>
+      <c r="A43" s="67"/>
       <c r="B43" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="E43" s="41"/>
-      <c r="F43" s="44"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="59"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="77"/>
+      <c r="A44" s="67"/>
       <c r="B44" s="1" t="s">
         <v>130</v>
       </c>
@@ -2500,11 +2518,11 @@
       <c r="D44" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="E44" s="41"/>
-      <c r="F44" s="44"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="59"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A45" s="77"/>
+      <c r="A45" s="67"/>
       <c r="B45" s="1" t="s">
         <v>129</v>
       </c>
@@ -2512,43 +2530,43 @@
       <c r="D45" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="E45" s="41"/>
-      <c r="F45" s="44"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="59"/>
     </row>
     <row r="46" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A46" s="76" t="s">
+      <c r="A46" s="66" t="s">
         <v>150</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="79" t="s">
+      <c r="C46" s="97" t="s">
         <v>45</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="81" t="s">
+      <c r="E46" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="84" t="s">
+      <c r="F46" s="52" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1">
-      <c r="A47" s="77"/>
+      <c r="A47" s="67"/>
       <c r="B47" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="80"/>
+      <c r="C47" s="98"/>
       <c r="D47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="82"/>
-      <c r="F47" s="85"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="53"/>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1">
-      <c r="A48" s="77"/>
+      <c r="A48" s="67"/>
       <c r="B48" s="5" t="s">
         <v>29</v>
       </c>
@@ -2558,11 +2576,11 @@
       <c r="D48" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="82"/>
-      <c r="F48" s="85"/>
+      <c r="E48" s="100"/>
+      <c r="F48" s="53"/>
     </row>
     <row r="49" spans="1:6" ht="30" customHeight="1">
-      <c r="A49" s="77"/>
+      <c r="A49" s="67"/>
       <c r="B49" s="24" t="s">
         <v>30</v>
       </c>
@@ -2572,11 +2590,11 @@
       <c r="D49" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="82"/>
-      <c r="F49" s="85"/>
+      <c r="E49" s="100"/>
+      <c r="F49" s="53"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1">
-      <c r="A50" s="77"/>
+      <c r="A50" s="67"/>
       <c r="B50" s="24" t="s">
         <v>31</v>
       </c>
@@ -2586,11 +2604,11 @@
       <c r="D50" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="82"/>
-      <c r="F50" s="85"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="53"/>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1">
-      <c r="A51" s="77"/>
+      <c r="A51" s="67"/>
       <c r="B51" s="24" t="s">
         <v>32</v>
       </c>
@@ -2598,11 +2616,11 @@
       <c r="D51" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="82"/>
-      <c r="F51" s="85"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="53"/>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1">
-      <c r="A52" s="77"/>
+      <c r="A52" s="67"/>
       <c r="B52" s="24" t="s">
         <v>33</v>
       </c>
@@ -2610,29 +2628,29 @@
       <c r="D52" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="82"/>
-      <c r="F52" s="85"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="53"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A53" s="78"/>
+      <c r="A53" s="96"/>
       <c r="B53" s="25"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="86"/>
+      <c r="E53" s="101"/>
+      <c r="F53" s="54"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A54" s="87" t="s">
+      <c r="A54" s="102" t="s">
         <v>88</v>
       </c>
-      <c r="B54" s="87"/>
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="102"/>
+      <c r="E54" s="102"/>
+      <c r="F54" s="102"/>
     </row>
     <row r="55" spans="1:6" ht="30" customHeight="1">
-      <c r="A55" s="67" t="s">
+      <c r="A55" s="71" t="s">
         <v>62</v>
       </c>
       <c r="B55" s="12" t="s">
@@ -2643,10 +2661,10 @@
         <v>34</v>
       </c>
       <c r="E55" s="3"/>
-      <c r="F55" s="70"/>
+      <c r="F55" s="73"/>
     </row>
     <row r="56" spans="1:6" ht="30" customHeight="1">
-      <c r="A56" s="68"/>
+      <c r="A56" s="89"/>
       <c r="B56" s="8" t="s">
         <v>15</v>
       </c>
@@ -2655,10 +2673,10 @@
         <v>15</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="71"/>
+      <c r="F56" s="80"/>
     </row>
     <row r="57" spans="1:6" ht="45" customHeight="1">
-      <c r="A57" s="68"/>
+      <c r="A57" s="89"/>
       <c r="B57" s="9" t="s">
         <v>10</v>
       </c>
@@ -2667,26 +2685,26 @@
         <v>10</v>
       </c>
       <c r="E57" s="2"/>
-      <c r="F57" s="71"/>
+      <c r="F57" s="80"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="68"/>
+      <c r="A58" s="89"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="71"/>
+      <c r="F58" s="80"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A59" s="69"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="72"/>
+      <c r="F59" s="74"/>
     </row>
     <row r="60" spans="1:6" ht="30" customHeight="1">
-      <c r="A60" s="88" t="s">
+      <c r="A60" s="77" t="s">
         <v>12</v>
       </c>
       <c r="B60" s="3"/>
@@ -2697,26 +2715,26 @@
         <v>13</v>
       </c>
       <c r="E60" s="3"/>
-      <c r="F60" s="70"/>
+      <c r="F60" s="73"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="89"/>
+      <c r="A61" s="78"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="71"/>
+      <c r="F61" s="80"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A62" s="90"/>
+      <c r="A62" s="79"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="72"/>
+      <c r="F62" s="74"/>
     </row>
     <row r="63" spans="1:6" ht="30" customHeight="1">
-      <c r="A63" s="67" t="s">
+      <c r="A63" s="71" t="s">
         <v>0</v>
       </c>
       <c r="B63" s="8" t="s">
@@ -2727,10 +2745,10 @@
         <v>7</v>
       </c>
       <c r="E63" s="3"/>
-      <c r="F63" s="70"/>
+      <c r="F63" s="73"/>
     </row>
     <row r="64" spans="1:6" ht="30" customHeight="1">
-      <c r="A64" s="68"/>
+      <c r="A64" s="89"/>
       <c r="B64" s="8" t="s">
         <v>8</v>
       </c>
@@ -2739,10 +2757,10 @@
         <v>8</v>
       </c>
       <c r="E64" s="1"/>
-      <c r="F64" s="71"/>
+      <c r="F64" s="80"/>
     </row>
     <row r="65" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A65" s="69"/>
+      <c r="A65" s="72"/>
       <c r="B65" s="13" t="s">
         <v>9</v>
       </c>
@@ -2751,10 +2769,10 @@
         <v>9</v>
       </c>
       <c r="E65" s="4"/>
-      <c r="F65" s="72"/>
+      <c r="F65" s="74"/>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1">
-      <c r="A66" s="67" t="s">
+      <c r="A66" s="71" t="s">
         <v>42</v>
       </c>
       <c r="B66" s="9" t="s">
@@ -2765,10 +2783,10 @@
         <v>39</v>
       </c>
       <c r="E66" s="3"/>
-      <c r="F66" s="70"/>
+      <c r="F66" s="73"/>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1">
-      <c r="A67" s="68"/>
+      <c r="A67" s="89"/>
       <c r="B67" s="9" t="s">
         <v>40</v>
       </c>
@@ -2777,10 +2795,10 @@
         <v>40</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="71"/>
+      <c r="F67" s="80"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A68" s="69"/>
+      <c r="A68" s="72"/>
       <c r="B68" s="9" t="s">
         <v>41</v>
       </c>
@@ -2789,10 +2807,10 @@
         <v>41</v>
       </c>
       <c r="E68" s="4"/>
-      <c r="F68" s="72"/>
+      <c r="F68" s="74"/>
     </row>
     <row r="69" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A69" s="91" t="s">
+      <c r="A69" s="166" t="s">
         <v>170</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -2807,12 +2825,12 @@
       <c r="E69" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F69" s="70" t="s">
+      <c r="F69" s="73" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A70" s="92"/>
+      <c r="A70" s="167"/>
       <c r="B70" s="1" t="s">
         <v>17</v>
       </c>
@@ -2825,10 +2843,10 @@
       <c r="E70" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F70" s="71"/>
+      <c r="F70" s="80"/>
     </row>
     <row r="71" spans="1:6" ht="30" customHeight="1">
-      <c r="A71" s="92"/>
+      <c r="A71" s="167"/>
       <c r="B71" s="1" t="s">
         <v>18</v>
       </c>
@@ -2841,10 +2859,10 @@
       <c r="E71" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F71" s="71"/>
+      <c r="F71" s="80"/>
     </row>
     <row r="72" spans="1:6" ht="30" customHeight="1">
-      <c r="A72" s="92"/>
+      <c r="A72" s="167"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="8" t="s">
@@ -2853,10 +2871,10 @@
       <c r="E72" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="71"/>
+      <c r="F72" s="80"/>
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1">
-      <c r="A73" s="92"/>
+      <c r="A73" s="167"/>
       <c r="B73" s="7"/>
       <c r="C73" s="1"/>
       <c r="D73" s="8" t="s">
@@ -2865,10 +2883,10 @@
       <c r="E73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F73" s="71"/>
+      <c r="F73" s="80"/>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1">
-      <c r="A74" s="92"/>
+      <c r="A74" s="167"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="8" t="s">
@@ -2877,10 +2895,10 @@
       <c r="E74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F74" s="71"/>
+      <c r="F74" s="80"/>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A75" s="93"/>
+      <c r="A75" s="168"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="29" t="s">
@@ -2889,10 +2907,10 @@
       <c r="E75" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F75" s="72"/>
+      <c r="F75" s="74"/>
     </row>
     <row r="76" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A76" s="91" t="s">
+      <c r="A76" s="83" t="s">
         <v>58</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -2907,12 +2925,12 @@
       <c r="E76" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F76" s="70" t="s">
+      <c r="F76" s="73" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A77" s="92"/>
+      <c r="A77" s="84"/>
       <c r="B77" s="1" t="s">
         <v>17</v>
       </c>
@@ -2925,10 +2943,10 @@
       <c r="E77" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F77" s="71"/>
+      <c r="F77" s="80"/>
     </row>
     <row r="78" spans="1:6" ht="30" customHeight="1">
-      <c r="A78" s="92"/>
+      <c r="A78" s="84"/>
       <c r="B78" s="1" t="s">
         <v>18</v>
       </c>
@@ -2939,10 +2957,10 @@
       <c r="E78" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F78" s="71"/>
+      <c r="F78" s="80"/>
     </row>
     <row r="79" spans="1:6" ht="30" customHeight="1">
-      <c r="A79" s="92"/>
+      <c r="A79" s="84"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="8" t="s">
@@ -2951,10 +2969,10 @@
       <c r="E79" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F79" s="71"/>
+      <c r="F79" s="80"/>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1">
-      <c r="A80" s="92"/>
+      <c r="A80" s="84"/>
       <c r="B80" s="7"/>
       <c r="C80" s="1"/>
       <c r="D80" s="8" t="s">
@@ -2963,10 +2981,10 @@
       <c r="E80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F80" s="71"/>
+      <c r="F80" s="80"/>
     </row>
     <row r="81" spans="1:6" ht="15" customHeight="1">
-      <c r="A81" s="92"/>
+      <c r="A81" s="84"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="8" t="s">
@@ -2975,10 +2993,10 @@
       <c r="E81" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F81" s="71"/>
+      <c r="F81" s="80"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A82" s="93"/>
+      <c r="A82" s="85"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="29" t="s">
@@ -2987,10 +3005,10 @@
       <c r="E82" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F82" s="72"/>
+      <c r="F82" s="74"/>
     </row>
     <row r="83" spans="1:6" ht="15" customHeight="1">
-      <c r="A83" s="67" t="s">
+      <c r="A83" s="71" t="s">
         <v>66</v>
       </c>
       <c r="B83" s="26" t="s">
@@ -3005,30 +3023,30 @@
       <c r="E83" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F83" s="94" t="s">
+      <c r="F83" s="90" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="68"/>
+      <c r="A84" s="89"/>
       <c r="B84" s="30"/>
       <c r="C84" s="22"/>
       <c r="D84" s="21"/>
       <c r="E84" s="31"/>
-      <c r="F84" s="95"/>
+      <c r="F84" s="91"/>
     </row>
     <row r="85" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A85" s="69"/>
+      <c r="A85" s="72"/>
       <c r="B85" s="25"/>
       <c r="C85" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D85" s="16"/>
       <c r="E85" s="17"/>
-      <c r="F85" s="96"/>
+      <c r="F85" s="92"/>
     </row>
     <row r="86" spans="1:6" ht="15" customHeight="1">
-      <c r="A86" s="67" t="s">
+      <c r="A86" s="71" t="s">
         <v>112</v>
       </c>
       <c r="B86" s="27" t="s">
@@ -3043,22 +3061,22 @@
       <c r="E86" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F86" s="70" t="s">
+      <c r="F86" s="73" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A87" s="69"/>
+      <c r="A87" s="72"/>
       <c r="B87" s="28"/>
       <c r="C87" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="19"/>
-      <c r="F87" s="72"/>
+      <c r="F87" s="74"/>
     </row>
     <row r="88" spans="1:6" ht="15" customHeight="1">
-      <c r="A88" s="67" t="s">
+      <c r="A88" s="71" t="s">
         <v>65</v>
       </c>
       <c r="B88" s="27" t="s">
@@ -3073,20 +3091,20 @@
       <c r="E88" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F88" s="101"/>
+      <c r="F88" s="75"/>
     </row>
     <row r="89" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A89" s="69"/>
+      <c r="A89" s="72"/>
       <c r="B89" s="28"/>
       <c r="C89" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="19"/>
-      <c r="F89" s="103"/>
+      <c r="F89" s="76"/>
     </row>
     <row r="90" spans="1:6" ht="45" customHeight="1">
-      <c r="A90" s="88" t="s">
+      <c r="A90" s="77" t="s">
         <v>169</v>
       </c>
       <c r="B90" s="15" t="s">
@@ -3097,12 +3115,12 @@
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="70" t="s">
+      <c r="F90" s="73" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A91" s="89"/>
+      <c r="A91" s="78"/>
       <c r="B91" s="9" t="s">
         <v>175</v>
       </c>
@@ -3111,20 +3129,20 @@
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="71"/>
+      <c r="F91" s="80"/>
     </row>
     <row r="92" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A92" s="90"/>
+      <c r="A92" s="79"/>
       <c r="B92" s="25"/>
       <c r="C92" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
-      <c r="F92" s="72"/>
+      <c r="F92" s="74"/>
     </row>
     <row r="93" spans="1:6" ht="30" customHeight="1">
-      <c r="A93" s="88" t="s">
+      <c r="A93" s="77" t="s">
         <v>180</v>
       </c>
       <c r="B93" s="15" t="s">
@@ -3135,32 +3153,32 @@
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
-      <c r="F93" s="70" t="s">
+      <c r="F93" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="30" customHeight="1">
-      <c r="A94" s="89"/>
+      <c r="A94" s="78"/>
       <c r="B94" s="9" t="s">
         <v>181</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="71"/>
+      <c r="F94" s="80"/>
     </row>
     <row r="95" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A95" s="90"/>
+      <c r="A95" s="79"/>
       <c r="B95" s="25"/>
       <c r="C95" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="72"/>
+      <c r="F95" s="74"/>
     </row>
     <row r="96" spans="1:6" ht="30" customHeight="1">
-      <c r="A96" s="91" t="s">
+      <c r="A96" s="83" t="s">
         <v>168</v>
       </c>
       <c r="B96" s="3"/>
@@ -3169,62 +3187,62 @@
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
-      <c r="F96" s="70" t="s">
+      <c r="F96" s="73" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="92"/>
+      <c r="A97" s="84"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="71"/>
+      <c r="F97" s="80"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="92"/>
+      <c r="A98" s="84"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="71"/>
+      <c r="F98" s="80"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="92"/>
+      <c r="A99" s="84"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="71"/>
+      <c r="F99" s="80"/>
     </row>
     <row r="100" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A100" s="93"/>
+      <c r="A100" s="85"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
-      <c r="F100" s="72"/>
+      <c r="F100" s="74"/>
     </row>
     <row r="101" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A101" s="97" t="s">
+      <c r="A101" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="B101" s="97"/>
-      <c r="C101" s="97"/>
-      <c r="D101" s="97"/>
-      <c r="E101" s="97"/>
-      <c r="F101" s="97"/>
+      <c r="B101" s="86"/>
+      <c r="C101" s="86"/>
+      <c r="D101" s="86"/>
+      <c r="E101" s="86"/>
+      <c r="F101" s="86"/>
     </row>
     <row r="102" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A102" s="98" t="s">
+      <c r="A102" s="61" t="s">
         <v>50</v>
       </c>
       <c r="B102" s="3"/>
@@ -3235,12 +3253,12 @@
       <c r="E102" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F102" s="101" t="s">
+      <c r="F102" s="75" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A103" s="99"/>
+      <c r="A103" s="62"/>
       <c r="B103" s="1"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8" t="s">
@@ -3249,10 +3267,10 @@
       <c r="E103" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F103" s="102"/>
+      <c r="F103" s="88"/>
     </row>
     <row r="104" spans="1:6" ht="30" customHeight="1">
-      <c r="A104" s="99"/>
+      <c r="A104" s="62"/>
       <c r="B104" s="1"/>
       <c r="C104" s="8"/>
       <c r="D104" s="9" t="s">
@@ -3261,10 +3279,10 @@
       <c r="E104" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F104" s="102"/>
+      <c r="F104" s="88"/>
     </row>
     <row r="105" spans="1:6" ht="30" customHeight="1">
-      <c r="A105" s="99"/>
+      <c r="A105" s="62"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="8" t="s">
@@ -3273,10 +3291,10 @@
       <c r="E105" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F105" s="102"/>
+      <c r="F105" s="88"/>
     </row>
     <row r="106" spans="1:6" ht="15" customHeight="1">
-      <c r="A106" s="99"/>
+      <c r="A106" s="62"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="8" t="s">
@@ -3285,10 +3303,10 @@
       <c r="E106" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F106" s="102"/>
+      <c r="F106" s="88"/>
     </row>
     <row r="107" spans="1:6" ht="15" customHeight="1">
-      <c r="A107" s="99"/>
+      <c r="A107" s="62"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="8" t="s">
@@ -3297,10 +3315,10 @@
       <c r="E107" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F107" s="102"/>
+      <c r="F107" s="88"/>
     </row>
     <row r="108" spans="1:6" ht="15" customHeight="1">
-      <c r="A108" s="99"/>
+      <c r="A108" s="62"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="8" t="s">
@@ -3309,10 +3327,10 @@
       <c r="E108" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F108" s="102"/>
+      <c r="F108" s="88"/>
     </row>
     <row r="109" spans="1:6" ht="15" customHeight="1">
-      <c r="A109" s="99"/>
+      <c r="A109" s="62"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="9" t="s">
@@ -3321,10 +3339,10 @@
       <c r="E109" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F109" s="102"/>
+      <c r="F109" s="88"/>
     </row>
     <row r="110" spans="1:6" ht="15" customHeight="1">
-      <c r="A110" s="99"/>
+      <c r="A110" s="62"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="9" t="s">
@@ -3333,10 +3351,10 @@
       <c r="E110" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F110" s="102"/>
+      <c r="F110" s="88"/>
     </row>
     <row r="111" spans="1:6" ht="15" customHeight="1">
-      <c r="A111" s="99"/>
+      <c r="A111" s="62"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="9" t="s">
@@ -3345,59 +3363,59 @@
       <c r="E111" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F111" s="102"/>
+      <c r="F111" s="88"/>
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1">
-      <c r="A112" s="99"/>
+      <c r="A112" s="62"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="18" t="s">
         <v>189</v>
       </c>
       <c r="E112" s="19"/>
-      <c r="F112" s="102"/>
+      <c r="F112" s="88"/>
     </row>
     <row r="113" spans="1:6" ht="15" customHeight="1">
-      <c r="A113" s="99"/>
+      <c r="A113" s="62"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="18" t="s">
         <v>188</v>
       </c>
       <c r="E113" s="19"/>
-      <c r="F113" s="102"/>
+      <c r="F113" s="88"/>
     </row>
     <row r="114" spans="1:6" ht="15" customHeight="1">
-      <c r="A114" s="99"/>
+      <c r="A114" s="62"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="18" t="s">
         <v>187</v>
       </c>
       <c r="E114" s="19"/>
-      <c r="F114" s="102"/>
+      <c r="F114" s="88"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="99"/>
+      <c r="A115" s="62"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="18" t="s">
         <v>186</v>
       </c>
       <c r="E115" s="19"/>
-      <c r="F115" s="102"/>
+      <c r="F115" s="88"/>
     </row>
     <row r="116" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A116" s="100"/>
+      <c r="A116" s="87"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="18"/>
       <c r="E116" s="19"/>
-      <c r="F116" s="103"/>
+      <c r="F116" s="76"/>
     </row>
     <row r="117" spans="1:6" ht="30" customHeight="1">
-      <c r="A117" s="98" t="s">
-        <v>193</v>
+      <c r="A117" s="164" t="s">
+        <v>221</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>19</v>
@@ -3408,15 +3426,15 @@
       <c r="D117" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E117" s="40" t="s">
+      <c r="E117" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="F117" s="43" t="s">
+      <c r="F117" s="58" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="30" customHeight="1">
-      <c r="A118" s="99"/>
+      <c r="A118" s="165"/>
       <c r="B118" s="1" t="s">
         <v>22</v>
       </c>
@@ -3426,11 +3444,11 @@
       <c r="D118" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E118" s="41"/>
-      <c r="F118" s="44"/>
+      <c r="E118" s="64"/>
+      <c r="F118" s="59"/>
     </row>
     <row r="119" spans="1:6" ht="30" customHeight="1">
-      <c r="A119" s="99"/>
+      <c r="A119" s="165"/>
       <c r="B119" s="1" t="s">
         <v>20</v>
       </c>
@@ -3440,11 +3458,11 @@
       <c r="D119" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E119" s="41"/>
-      <c r="F119" s="44"/>
+      <c r="E119" s="64"/>
+      <c r="F119" s="59"/>
     </row>
     <row r="120" spans="1:6" ht="30" customHeight="1">
-      <c r="A120" s="99"/>
+      <c r="A120" s="165"/>
       <c r="B120" s="1" t="s">
         <v>21</v>
       </c>
@@ -3452,11 +3470,11 @@
       <c r="D120" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E120" s="41"/>
-      <c r="F120" s="44"/>
+      <c r="E120" s="64"/>
+      <c r="F120" s="59"/>
     </row>
     <row r="121" spans="1:6" ht="15" customHeight="1">
-      <c r="A121" s="99"/>
+      <c r="A121" s="165"/>
       <c r="B121" s="1" t="s">
         <v>23</v>
       </c>
@@ -3464,11 +3482,11 @@
       <c r="D121" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E121" s="41"/>
-      <c r="F121" s="44"/>
+      <c r="E121" s="64"/>
+      <c r="F121" s="59"/>
     </row>
     <row r="122" spans="1:6" ht="15" customHeight="1">
-      <c r="A122" s="99"/>
+      <c r="A122" s="165"/>
       <c r="B122" s="1" t="s">
         <v>24</v>
       </c>
@@ -3476,22 +3494,22 @@
       <c r="D122" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E122" s="41"/>
-      <c r="F122" s="44"/>
+      <c r="E122" s="64"/>
+      <c r="F122" s="59"/>
     </row>
     <row r="123" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A123" s="99"/>
+      <c r="A123" s="165"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E123" s="42"/>
-      <c r="F123" s="45"/>
+      <c r="E123" s="65"/>
+      <c r="F123" s="60"/>
     </row>
     <row r="124" spans="1:6" ht="30" customHeight="1">
-      <c r="A124" s="98" t="s">
-        <v>194</v>
+      <c r="A124" s="61" t="s">
+        <v>193</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>19</v>
@@ -3502,15 +3520,15 @@
       <c r="D124" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E124" s="40" t="s">
+      <c r="E124" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="F124" s="43" t="s">
+      <c r="F124" s="58" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="30" customHeight="1">
-      <c r="A125" s="99"/>
+      <c r="A125" s="62"/>
       <c r="B125" s="1" t="s">
         <v>22</v>
       </c>
@@ -3520,11 +3538,11 @@
       <c r="D125" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E125" s="41"/>
-      <c r="F125" s="44"/>
+      <c r="E125" s="64"/>
+      <c r="F125" s="59"/>
     </row>
     <row r="126" spans="1:6" ht="30" customHeight="1">
-      <c r="A126" s="99"/>
+      <c r="A126" s="62"/>
       <c r="B126" s="1" t="s">
         <v>20</v>
       </c>
@@ -3534,11 +3552,11 @@
       <c r="D126" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E126" s="41"/>
-      <c r="F126" s="44"/>
+      <c r="E126" s="64"/>
+      <c r="F126" s="59"/>
     </row>
     <row r="127" spans="1:6" ht="30" customHeight="1">
-      <c r="A127" s="99"/>
+      <c r="A127" s="62"/>
       <c r="B127" s="1" t="s">
         <v>21</v>
       </c>
@@ -3546,11 +3564,11 @@
       <c r="D127" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E127" s="41"/>
-      <c r="F127" s="44"/>
+      <c r="E127" s="64"/>
+      <c r="F127" s="59"/>
     </row>
     <row r="128" spans="1:6" ht="15" customHeight="1">
-      <c r="A128" s="99"/>
+      <c r="A128" s="62"/>
       <c r="B128" s="1" t="s">
         <v>23</v>
       </c>
@@ -3558,11 +3576,11 @@
       <c r="D128" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E128" s="41"/>
-      <c r="F128" s="44"/>
+      <c r="E128" s="64"/>
+      <c r="F128" s="59"/>
     </row>
     <row r="129" spans="1:9" ht="15" customHeight="1">
-      <c r="A129" s="99"/>
+      <c r="A129" s="62"/>
       <c r="B129" s="1" t="s">
         <v>24</v>
       </c>
@@ -3570,257 +3588,279 @@
       <c r="D129" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E129" s="41"/>
-      <c r="F129" s="44"/>
+      <c r="E129" s="64"/>
+      <c r="F129" s="59"/>
     </row>
     <row r="130" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A130" s="99"/>
+      <c r="A130" s="62"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E130" s="42"/>
-      <c r="F130" s="45"/>
-    </row>
-    <row r="131" spans="1:9" ht="15" customHeight="1">
-      <c r="A131" s="109" t="s">
+      <c r="E130" s="65"/>
+      <c r="F130" s="60"/>
+    </row>
+    <row r="131" spans="1:9" ht="30" customHeight="1">
+      <c r="A131" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D131" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E131" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="F131" s="58" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="30" customHeight="1">
+      <c r="A132" s="62"/>
+      <c r="B132" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" s="64"/>
+      <c r="F132" s="59"/>
+    </row>
+    <row r="133" spans="1:9" ht="30" customHeight="1">
+      <c r="A133" s="62"/>
+      <c r="B133" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133" s="64"/>
+      <c r="F133" s="59"/>
+    </row>
+    <row r="134" spans="1:9" ht="30" customHeight="1">
+      <c r="A134" s="62"/>
+      <c r="B134" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C134" s="1"/>
+      <c r="D134" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" s="64"/>
+      <c r="F134" s="59"/>
+    </row>
+    <row r="135" spans="1:9" ht="15" customHeight="1">
+      <c r="A135" s="62"/>
+      <c r="B135" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135" s="1"/>
+      <c r="D135" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" s="64"/>
+      <c r="F135" s="59"/>
+    </row>
+    <row r="136" spans="1:9" ht="15" customHeight="1">
+      <c r="A136" s="62"/>
+      <c r="B136" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C136" s="1"/>
+      <c r="D136" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" s="64"/>
+      <c r="F136" s="59"/>
+    </row>
+    <row r="137" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A137" s="62"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" s="65"/>
+      <c r="F137" s="60"/>
+    </row>
+    <row r="138" spans="1:9" ht="15" customHeight="1">
+      <c r="A138" s="68" t="s">
         <v>190</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B138" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C138" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D131" s="18" t="s">
+      <c r="D138" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="E131" s="40"/>
-      <c r="F131" s="43" t="s">
+      <c r="E138" s="63"/>
+      <c r="F138" s="58" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
-      <c r="A132" s="110"/>
-      <c r="B132" s="1" t="s">
+    <row r="139" spans="1:9">
+      <c r="A139" s="69"/>
+      <c r="B139" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C139" t="s">
         <v>148</v>
       </c>
-      <c r="D132" s="18" t="s">
+      <c r="D139" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="E132" s="41"/>
-      <c r="F132" s="44"/>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="110"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D133" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="E133" s="41"/>
-      <c r="F133" s="44"/>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="110"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D134" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="E134" s="41"/>
-      <c r="F134" s="44"/>
-    </row>
-    <row r="135" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A135" s="110"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D135" s="8"/>
-      <c r="E135" s="41"/>
-      <c r="F135" s="44"/>
-    </row>
-    <row r="136" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A136" s="110"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D136" s="8"/>
-      <c r="E136" s="41"/>
-      <c r="F136" s="44"/>
-    </row>
-    <row r="137" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A137" s="110"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D137" s="8"/>
-      <c r="E137" s="41"/>
-      <c r="F137" s="44"/>
-      <c r="I137" s="36"/>
-    </row>
-    <row r="138" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A138" s="110"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D138" s="8"/>
-      <c r="E138" s="41"/>
-      <c r="F138" s="44"/>
-      <c r="I138" s="36"/>
-    </row>
-    <row r="139" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A139" s="110"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D139" s="8"/>
-      <c r="E139" s="41"/>
-      <c r="F139" s="44"/>
-      <c r="I139" s="36"/>
-    </row>
-    <row r="140" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A140" s="110"/>
+      <c r="E139" s="64"/>
+      <c r="F139" s="59"/>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="69"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D140" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="E140" s="64"/>
+      <c r="F140" s="59"/>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="69"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D141" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="E141" s="64"/>
+      <c r="F141" s="59"/>
+    </row>
+    <row r="142" spans="1:9" ht="33.75" customHeight="1">
+      <c r="A142" s="69"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="64"/>
+      <c r="F142" s="59"/>
+    </row>
+    <row r="143" spans="1:9" ht="33.75" customHeight="1">
+      <c r="A143" s="69"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D143" s="8"/>
+      <c r="E143" s="64"/>
+      <c r="F143" s="59"/>
+    </row>
+    <row r="144" spans="1:9" ht="33.75" customHeight="1">
+      <c r="A144" s="69"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D144" s="8"/>
+      <c r="E144" s="64"/>
+      <c r="F144" s="59"/>
+      <c r="I144" s="36"/>
+    </row>
+    <row r="145" spans="1:9" ht="33.75" customHeight="1">
+      <c r="A145" s="69"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D145" s="8"/>
+      <c r="E145" s="64"/>
+      <c r="F145" s="59"/>
+      <c r="I145" s="36"/>
+    </row>
+    <row r="146" spans="1:9" ht="33.75" customHeight="1">
+      <c r="A146" s="69"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D146" s="8"/>
+      <c r="E146" s="64"/>
+      <c r="F146" s="59"/>
+      <c r="I146" s="36"/>
+    </row>
+    <row r="147" spans="1:9" ht="33.75" customHeight="1">
+      <c r="A147" s="69"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D140" s="8"/>
-      <c r="E140" s="41"/>
-      <c r="F140" s="44"/>
-      <c r="I140" s="36"/>
-    </row>
-    <row r="141" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A141" s="110"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="5" t="s">
+      <c r="D147" s="8"/>
+      <c r="E147" s="64"/>
+      <c r="F147" s="59"/>
+      <c r="I147" s="36"/>
+    </row>
+    <row r="148" spans="1:9" ht="33.75" customHeight="1">
+      <c r="A148" s="69"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D141" s="13"/>
-      <c r="E141" s="41"/>
-      <c r="F141" s="44"/>
-      <c r="I141" s="36"/>
-    </row>
-    <row r="142" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A142" s="111"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="5" t="s">
+      <c r="D148" s="13"/>
+      <c r="E148" s="64"/>
+      <c r="F148" s="59"/>
+      <c r="I148" s="36"/>
+    </row>
+    <row r="149" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A149" s="70"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D142" s="29"/>
-      <c r="E142" s="42"/>
-      <c r="F142" s="45"/>
-    </row>
-    <row r="143" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A143" s="107" t="s">
+      <c r="D149" s="29"/>
+      <c r="E149" s="65"/>
+      <c r="F149" s="60"/>
+    </row>
+    <row r="150" spans="1:9" ht="33.75" customHeight="1">
+      <c r="A150" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="B143" s="23" t="s">
+      <c r="B150" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C143" s="22"/>
-      <c r="D143" s="22"/>
-      <c r="E143" s="22"/>
-      <c r="F143" s="84" t="s">
+      <c r="C150" s="22"/>
+      <c r="D150" s="22"/>
+      <c r="E150" s="22"/>
+      <c r="F150" s="52" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A144" s="108"/>
-      <c r="B144" s="16"/>
-      <c r="C144" s="17"/>
-      <c r="D144" s="17"/>
-      <c r="E144" s="17"/>
-      <c r="F144" s="86"/>
-    </row>
-    <row r="145" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A145" s="104" t="s">
+    <row r="151" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A151" s="82"/>
+      <c r="B151" s="16"/>
+      <c r="C151" s="17"/>
+      <c r="D151" s="17"/>
+      <c r="E151" s="17"/>
+      <c r="F151" s="54"/>
+    </row>
+    <row r="152" spans="1:9" ht="33.75" customHeight="1">
+      <c r="A152" s="46" t="s">
         <v>52</v>
-      </c>
-      <c r="B145" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C145" s="14"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="84" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A146" s="105"/>
-      <c r="B146" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C146" s="31"/>
-      <c r="D146" s="31"/>
-      <c r="E146" s="31"/>
-      <c r="F146" s="85"/>
-    </row>
-    <row r="147" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A147" s="106"/>
-      <c r="B147" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C147" s="19"/>
-      <c r="D147" s="19"/>
-      <c r="E147" s="19"/>
-      <c r="F147" s="86"/>
-    </row>
-    <row r="148" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A148" s="104" t="s">
-        <v>152</v>
-      </c>
-      <c r="B148" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A149" s="105"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="71"/>
-    </row>
-    <row r="150" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A150" s="105"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="71"/>
-    </row>
-    <row r="151" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A151" s="106"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="72"/>
-    </row>
-    <row r="152" spans="1:6" ht="15" customHeight="1">
-      <c r="A152" s="104" t="s">
-        <v>86</v>
       </c>
       <c r="B152" s="15" t="s">
         <v>54</v>
@@ -3828,441 +3868,470 @@
       <c r="C152" s="14"/>
       <c r="D152" s="14"/>
       <c r="E152" s="14"/>
-      <c r="F152" s="84" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="15" customHeight="1">
-      <c r="A153" s="105"/>
+      <c r="F152" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="33.75" customHeight="1">
+      <c r="A153" s="47"/>
       <c r="B153" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C153" s="31"/>
       <c r="D153" s="31"/>
       <c r="E153" s="31"/>
-      <c r="F153" s="85"/>
-    </row>
-    <row r="154" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A154" s="106"/>
-      <c r="B154" s="16" t="s">
+      <c r="F153" s="53"/>
+    </row>
+    <row r="154" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A154" s="48"/>
+      <c r="B154" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C154" s="17"/>
-      <c r="D154" s="17"/>
-      <c r="E154" s="17"/>
-      <c r="F154" s="86"/>
-    </row>
-    <row r="155" spans="1:6" ht="15" customHeight="1">
-      <c r="A155" s="104" t="s">
+      <c r="C154" s="19"/>
+      <c r="D154" s="19"/>
+      <c r="E154" s="19"/>
+      <c r="F154" s="54"/>
+    </row>
+    <row r="155" spans="1:9" ht="33.75" customHeight="1">
+      <c r="A155" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="B155" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="33.75" customHeight="1">
+      <c r="A156" s="47"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="80"/>
+    </row>
+    <row r="157" spans="1:9" ht="33.75" customHeight="1">
+      <c r="A157" s="47"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="80"/>
+    </row>
+    <row r="158" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A158" s="48"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="74"/>
+    </row>
+    <row r="159" spans="1:9" ht="15" customHeight="1">
+      <c r="A159" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B159" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C159" s="14"/>
+      <c r="D159" s="14"/>
+      <c r="E159" s="14"/>
+      <c r="F159" s="52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="15" customHeight="1">
+      <c r="A160" s="47"/>
+      <c r="B160" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C160" s="31"/>
+      <c r="D160" s="31"/>
+      <c r="E160" s="31"/>
+      <c r="F160" s="53"/>
+    </row>
+    <row r="161" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A161" s="48"/>
+      <c r="B161" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C161" s="17"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="17"/>
+      <c r="F161" s="54"/>
+    </row>
+    <row r="162" spans="1:6" ht="15" customHeight="1">
+      <c r="A162" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="B155" s="15"/>
-      <c r="C155" s="14"/>
-      <c r="D155" s="14"/>
-      <c r="E155" s="14"/>
-      <c r="F155" s="84" t="s">
+      <c r="B162" s="15"/>
+      <c r="C162" s="14"/>
+      <c r="D162" s="14"/>
+      <c r="E162" s="14"/>
+      <c r="F162" s="52" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="15" customHeight="1">
-      <c r="A156" s="105"/>
-      <c r="B156" s="21"/>
-      <c r="C156" s="31"/>
-      <c r="D156" s="31"/>
-      <c r="E156" s="31"/>
-      <c r="F156" s="85"/>
-    </row>
-    <row r="157" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A157" s="106"/>
-      <c r="B157" s="16"/>
-      <c r="C157" s="17"/>
-      <c r="D157" s="17"/>
-      <c r="E157" s="17"/>
-      <c r="F157" s="86"/>
-    </row>
-    <row r="158" spans="1:6" ht="15" customHeight="1">
-      <c r="A158" s="104" t="s">
+    <row r="163" spans="1:6" ht="15" customHeight="1">
+      <c r="A163" s="47"/>
+      <c r="B163" s="21"/>
+      <c r="C163" s="31"/>
+      <c r="D163" s="31"/>
+      <c r="E163" s="31"/>
+      <c r="F163" s="53"/>
+    </row>
+    <row r="164" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A164" s="48"/>
+      <c r="B164" s="16"/>
+      <c r="C164" s="17"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="17"/>
+      <c r="F164" s="54"/>
+    </row>
+    <row r="165" spans="1:6" ht="15" customHeight="1">
+      <c r="A165" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="B158" s="15"/>
-      <c r="C158" s="14"/>
-      <c r="D158" s="14"/>
-      <c r="E158" s="14"/>
-      <c r="F158" s="84" t="s">
+      <c r="B165" s="15"/>
+      <c r="C165" s="14"/>
+      <c r="D165" s="14"/>
+      <c r="E165" s="14"/>
+      <c r="F165" s="52" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15" customHeight="1">
-      <c r="A159" s="105"/>
-      <c r="B159" s="21"/>
-      <c r="C159" s="31"/>
-      <c r="D159" s="31"/>
-      <c r="E159" s="31"/>
-      <c r="F159" s="85"/>
-    </row>
-    <row r="160" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A160" s="106"/>
-      <c r="B160" s="16"/>
-      <c r="C160" s="17"/>
-      <c r="D160" s="17"/>
-      <c r="E160" s="17"/>
-      <c r="F160" s="86"/>
-    </row>
-    <row r="161" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A161" s="104" t="s">
+    <row r="166" spans="1:6" ht="15" customHeight="1">
+      <c r="A166" s="47"/>
+      <c r="B166" s="21"/>
+      <c r="C166" s="31"/>
+      <c r="D166" s="31"/>
+      <c r="E166" s="31"/>
+      <c r="F166" s="53"/>
+    </row>
+    <row r="167" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A167" s="48"/>
+      <c r="B167" s="16"/>
+      <c r="C167" s="17"/>
+      <c r="D167" s="17"/>
+      <c r="E167" s="17"/>
+      <c r="F167" s="54"/>
+    </row>
+    <row r="168" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A168" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="B161" s="15"/>
-      <c r="C161" s="14"/>
-      <c r="D161" s="14"/>
-      <c r="E161" s="14"/>
-      <c r="F161" s="84" t="s">
+      <c r="B168" s="15"/>
+      <c r="C168" s="14"/>
+      <c r="D168" s="14"/>
+      <c r="E168" s="14"/>
+      <c r="F168" s="52" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A162" s="105"/>
-      <c r="B162" s="21"/>
-      <c r="C162" s="31"/>
-      <c r="D162" s="31"/>
-      <c r="E162" s="31"/>
-      <c r="F162" s="85"/>
-    </row>
-    <row r="163" spans="1:6" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A163" s="106"/>
-      <c r="B163" s="16"/>
-      <c r="C163" s="17"/>
-      <c r="D163" s="17"/>
-      <c r="E163" s="17"/>
-      <c r="F163" s="86"/>
-    </row>
-    <row r="164" spans="1:6" ht="60" customHeight="1">
-      <c r="A164" s="104" t="s">
+    <row r="169" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A169" s="47"/>
+      <c r="B169" s="21"/>
+      <c r="C169" s="31"/>
+      <c r="D169" s="31"/>
+      <c r="E169" s="31"/>
+      <c r="F169" s="53"/>
+    </row>
+    <row r="170" spans="1:6" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A170" s="48"/>
+      <c r="B170" s="16"/>
+      <c r="C170" s="17"/>
+      <c r="D170" s="17"/>
+      <c r="E170" s="17"/>
+      <c r="F170" s="54"/>
+    </row>
+    <row r="171" spans="1:6" ht="60" customHeight="1">
+      <c r="A171" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="B164" s="15"/>
-      <c r="C164" s="14"/>
-      <c r="D164" s="14"/>
-      <c r="E164" s="14"/>
-      <c r="F164" s="161" t="s">
+      <c r="B171" s="15"/>
+      <c r="C171" s="14"/>
+      <c r="D171" s="14"/>
+      <c r="E171" s="14"/>
+      <c r="F171" s="49" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="60" customHeight="1">
-      <c r="A165" s="105"/>
-      <c r="B165" s="21"/>
-      <c r="C165" s="31"/>
-      <c r="D165" s="31"/>
-      <c r="E165" s="31"/>
-      <c r="F165" s="162"/>
-    </row>
-    <row r="166" spans="1:6" ht="60" customHeight="1" thickBot="1">
-      <c r="A166" s="106"/>
-      <c r="B166" s="16"/>
-      <c r="C166" s="17"/>
-      <c r="D166" s="17"/>
-      <c r="E166" s="17"/>
-      <c r="F166" s="163"/>
-    </row>
-    <row r="167" spans="1:6" ht="15" customHeight="1">
-      <c r="A167" s="151" t="s">
+    <row r="172" spans="1:6" ht="60" customHeight="1">
+      <c r="A172" s="47"/>
+      <c r="B172" s="21"/>
+      <c r="C172" s="31"/>
+      <c r="D172" s="31"/>
+      <c r="E172" s="31"/>
+      <c r="F172" s="50"/>
+    </row>
+    <row r="173" spans="1:6" ht="60" customHeight="1" thickBot="1">
+      <c r="A173" s="48"/>
+      <c r="B173" s="16"/>
+      <c r="C173" s="17"/>
+      <c r="D173" s="17"/>
+      <c r="E173" s="17"/>
+      <c r="F173" s="51"/>
+    </row>
+    <row r="174" spans="1:6" ht="15" customHeight="1">
+      <c r="A174" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="B167" s="155"/>
-      <c r="C167" s="152"/>
-      <c r="D167" s="158"/>
-      <c r="E167" s="152"/>
-      <c r="F167" s="84" t="s">
+      <c r="B174" s="40"/>
+      <c r="C174" s="37"/>
+      <c r="D174" s="43"/>
+      <c r="E174" s="37"/>
+      <c r="F174" s="52" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
-      <c r="A168" s="149"/>
-      <c r="B168" s="156"/>
-      <c r="C168" s="153"/>
-      <c r="D168" s="159"/>
-      <c r="E168" s="153"/>
-      <c r="F168" s="85"/>
-    </row>
-    <row r="169" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A169" s="150"/>
-      <c r="B169" s="157"/>
-      <c r="C169" s="154"/>
-      <c r="D169" s="160"/>
-      <c r="E169" s="154"/>
-      <c r="F169" s="86"/>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170" s="151" t="s">
+    <row r="175" spans="1:6">
+      <c r="A175" s="55"/>
+      <c r="B175" s="41"/>
+      <c r="C175" s="38"/>
+      <c r="D175" s="44"/>
+      <c r="E175" s="38"/>
+      <c r="F175" s="53"/>
+    </row>
+    <row r="176" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A176" s="56"/>
+      <c r="B176" s="42"/>
+      <c r="C176" s="39"/>
+      <c r="D176" s="45"/>
+      <c r="E176" s="39"/>
+      <c r="F176" s="54"/>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="B170" s="155"/>
-      <c r="C170" s="152"/>
-      <c r="D170" s="158"/>
-      <c r="E170" s="152"/>
-      <c r="F170" s="84" t="s">
+      <c r="B177" s="40"/>
+      <c r="C177" s="37"/>
+      <c r="D177" s="43"/>
+      <c r="E177" s="37"/>
+      <c r="F177" s="52" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
-      <c r="A171" s="149"/>
-      <c r="B171" s="156"/>
-      <c r="C171" s="153"/>
-      <c r="D171" s="159"/>
-      <c r="E171" s="153"/>
-      <c r="F171" s="85"/>
-    </row>
-    <row r="172" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A172" s="150"/>
-      <c r="B172" s="157"/>
-      <c r="C172" s="154"/>
-      <c r="D172" s="160"/>
-      <c r="E172" s="154"/>
-      <c r="F172" s="86"/>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173" s="149" t="s">
+    <row r="178" spans="1:6">
+      <c r="A178" s="55"/>
+      <c r="B178" s="41"/>
+      <c r="C178" s="38"/>
+      <c r="D178" s="44"/>
+      <c r="E178" s="38"/>
+      <c r="F178" s="53"/>
+    </row>
+    <row r="179" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A179" s="56"/>
+      <c r="B179" s="42"/>
+      <c r="C179" s="39"/>
+      <c r="D179" s="45"/>
+      <c r="E179" s="39"/>
+      <c r="F179" s="54"/>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="B173" s="156"/>
-      <c r="C173" s="153"/>
-      <c r="D173" s="159"/>
-      <c r="E173" s="153"/>
-      <c r="F173" s="84" t="s">
+      <c r="B180" s="41"/>
+      <c r="C180" s="38"/>
+      <c r="D180" s="44"/>
+      <c r="E180" s="38"/>
+      <c r="F180" s="52" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
-      <c r="A174" s="149"/>
-      <c r="B174" s="156"/>
-      <c r="C174" s="153"/>
-      <c r="D174" s="159"/>
-      <c r="E174" s="153"/>
-      <c r="F174" s="85"/>
-    </row>
-    <row r="175" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A175" s="149"/>
-      <c r="B175" s="156"/>
-      <c r="C175" s="153"/>
-      <c r="D175" s="159"/>
-      <c r="E175" s="153"/>
-      <c r="F175" s="86"/>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176" s="151" t="s">
+    <row r="181" spans="1:6">
+      <c r="A181" s="55"/>
+      <c r="B181" s="41"/>
+      <c r="C181" s="38"/>
+      <c r="D181" s="44"/>
+      <c r="E181" s="38"/>
+      <c r="F181" s="53"/>
+    </row>
+    <row r="182" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A182" s="55"/>
+      <c r="B182" s="41"/>
+      <c r="C182" s="38"/>
+      <c r="D182" s="44"/>
+      <c r="E182" s="38"/>
+      <c r="F182" s="54"/>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="B176" s="155"/>
-      <c r="C176" s="152"/>
-      <c r="D176" s="158"/>
-      <c r="E176" s="152"/>
-      <c r="F176" s="84" t="s">
+      <c r="B183" s="40"/>
+      <c r="C183" s="37"/>
+      <c r="D183" s="43"/>
+      <c r="E183" s="37"/>
+      <c r="F183" s="52" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
-      <c r="A177" s="149"/>
-      <c r="B177" s="156"/>
-      <c r="C177" s="153"/>
-      <c r="D177" s="159"/>
-      <c r="E177" s="153"/>
-      <c r="F177" s="85"/>
-    </row>
-    <row r="178" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A178" s="150"/>
-      <c r="B178" s="157"/>
-      <c r="C178" s="154"/>
-      <c r="D178" s="160"/>
-      <c r="E178" s="154"/>
-      <c r="F178" s="86"/>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179" s="149" t="s">
+    <row r="184" spans="1:6">
+      <c r="A184" s="55"/>
+      <c r="B184" s="41"/>
+      <c r="C184" s="38"/>
+      <c r="D184" s="44"/>
+      <c r="E184" s="38"/>
+      <c r="F184" s="53"/>
+    </row>
+    <row r="185" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A185" s="56"/>
+      <c r="B185" s="42"/>
+      <c r="C185" s="39"/>
+      <c r="D185" s="45"/>
+      <c r="E185" s="39"/>
+      <c r="F185" s="54"/>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="B179" s="156"/>
-      <c r="C179" s="153"/>
-      <c r="D179" s="159"/>
-      <c r="E179" s="153"/>
-      <c r="F179" s="84" t="s">
+      <c r="B186" s="41"/>
+      <c r="C186" s="38"/>
+      <c r="D186" s="44"/>
+      <c r="E186" s="38"/>
+      <c r="F186" s="52" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
-      <c r="A180" s="149"/>
-      <c r="B180" s="156"/>
-      <c r="C180" s="153"/>
-      <c r="D180" s="159"/>
-      <c r="E180" s="153"/>
-      <c r="F180" s="85"/>
-    </row>
-    <row r="181" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A181" s="149"/>
-      <c r="B181" s="156"/>
-      <c r="C181" s="153"/>
-      <c r="D181" s="159"/>
-      <c r="E181" s="153"/>
-      <c r="F181" s="86"/>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182" s="151" t="s">
+    <row r="187" spans="1:6">
+      <c r="A187" s="55"/>
+      <c r="B187" s="41"/>
+      <c r="C187" s="38"/>
+      <c r="D187" s="44"/>
+      <c r="E187" s="38"/>
+      <c r="F187" s="53"/>
+    </row>
+    <row r="188" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A188" s="55"/>
+      <c r="B188" s="41"/>
+      <c r="C188" s="38"/>
+      <c r="D188" s="44"/>
+      <c r="E188" s="38"/>
+      <c r="F188" s="54"/>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="B182" s="155"/>
-      <c r="C182" s="152"/>
-      <c r="D182" s="158"/>
-      <c r="E182" s="152"/>
-      <c r="F182" s="84" t="s">
+      <c r="B189" s="40"/>
+      <c r="C189" s="37"/>
+      <c r="D189" s="43"/>
+      <c r="E189" s="37"/>
+      <c r="F189" s="52" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
-      <c r="A183" s="149"/>
-      <c r="B183" s="156"/>
-      <c r="C183" s="153"/>
-      <c r="D183" s="159"/>
-      <c r="E183" s="153"/>
-      <c r="F183" s="85"/>
-    </row>
-    <row r="184" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A184" s="150"/>
-      <c r="B184" s="157"/>
-      <c r="C184" s="154"/>
-      <c r="D184" s="160"/>
-      <c r="E184" s="154"/>
-      <c r="F184" s="86"/>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185" s="149" t="s">
+    <row r="190" spans="1:6">
+      <c r="A190" s="55"/>
+      <c r="B190" s="41"/>
+      <c r="C190" s="38"/>
+      <c r="D190" s="44"/>
+      <c r="E190" s="38"/>
+      <c r="F190" s="53"/>
+    </row>
+    <row r="191" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A191" s="56"/>
+      <c r="B191" s="42"/>
+      <c r="C191" s="39"/>
+      <c r="D191" s="45"/>
+      <c r="E191" s="39"/>
+      <c r="F191" s="54"/>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="B185" s="156"/>
-      <c r="C185" s="153"/>
-      <c r="D185" s="159"/>
-      <c r="E185" s="153"/>
-      <c r="F185" s="161" t="s">
+      <c r="B192" s="41"/>
+      <c r="C192" s="38"/>
+      <c r="D192" s="44"/>
+      <c r="E192" s="38"/>
+      <c r="F192" s="49" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
-      <c r="A186" s="149"/>
-      <c r="B186" s="156"/>
-      <c r="C186" s="153"/>
-      <c r="D186" s="159"/>
-      <c r="E186" s="153"/>
-      <c r="F186" s="162"/>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187" s="149"/>
-      <c r="B187" s="156"/>
-      <c r="C187" s="153"/>
-      <c r="D187" s="159"/>
-      <c r="E187" s="153"/>
-      <c r="F187" s="162"/>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188" s="149"/>
-      <c r="B188" s="156"/>
-      <c r="C188" s="153"/>
-      <c r="D188" s="159"/>
-      <c r="E188" s="153"/>
-      <c r="F188" s="162"/>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189" s="149"/>
-      <c r="B189" s="156"/>
-      <c r="C189" s="153"/>
-      <c r="D189" s="159"/>
-      <c r="E189" s="153"/>
-      <c r="F189" s="162"/>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190" s="149"/>
-      <c r="B190" s="156"/>
-      <c r="C190" s="153"/>
-      <c r="D190" s="159"/>
-      <c r="E190" s="153"/>
-      <c r="F190" s="162"/>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191" s="149"/>
-      <c r="B191" s="156"/>
-      <c r="C191" s="153"/>
-      <c r="D191" s="159"/>
-      <c r="E191" s="153"/>
-      <c r="F191" s="162"/>
-    </row>
-    <row r="192" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A192" s="150"/>
-      <c r="B192" s="157"/>
-      <c r="C192" s="154"/>
-      <c r="D192" s="160"/>
-      <c r="E192" s="154"/>
-      <c r="F192" s="163"/>
+    <row r="193" spans="1:6">
+      <c r="A193" s="55"/>
+      <c r="B193" s="41"/>
+      <c r="C193" s="38"/>
+      <c r="D193" s="44"/>
+      <c r="E193" s="38"/>
+      <c r="F193" s="50"/>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="55"/>
+      <c r="B194" s="41"/>
+      <c r="C194" s="38"/>
+      <c r="D194" s="44"/>
+      <c r="E194" s="38"/>
+      <c r="F194" s="50"/>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="55"/>
+      <c r="B195" s="41"/>
+      <c r="C195" s="38"/>
+      <c r="D195" s="44"/>
+      <c r="E195" s="38"/>
+      <c r="F195" s="50"/>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="55"/>
+      <c r="B196" s="41"/>
+      <c r="C196" s="38"/>
+      <c r="D196" s="44"/>
+      <c r="E196" s="38"/>
+      <c r="F196" s="50"/>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="55"/>
+      <c r="B197" s="41"/>
+      <c r="C197" s="38"/>
+      <c r="D197" s="44"/>
+      <c r="E197" s="38"/>
+      <c r="F197" s="50"/>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="55"/>
+      <c r="B198" s="41"/>
+      <c r="C198" s="38"/>
+      <c r="D198" s="44"/>
+      <c r="E198" s="38"/>
+      <c r="F198" s="50"/>
+    </row>
+    <row r="199" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A199" s="56"/>
+      <c r="B199" s="42"/>
+      <c r="C199" s="39"/>
+      <c r="D199" s="45"/>
+      <c r="E199" s="39"/>
+      <c r="F199" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
-    <mergeCell ref="A164:A166"/>
-    <mergeCell ref="F164:F166"/>
-    <mergeCell ref="A161:A163"/>
-    <mergeCell ref="F161:F163"/>
-    <mergeCell ref="A185:A192"/>
-    <mergeCell ref="F167:F169"/>
-    <mergeCell ref="F170:F172"/>
-    <mergeCell ref="F173:F175"/>
-    <mergeCell ref="F176:F178"/>
-    <mergeCell ref="F179:F181"/>
-    <mergeCell ref="F182:F184"/>
-    <mergeCell ref="F185:F192"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="A176:A178"/>
-    <mergeCell ref="A179:A181"/>
-    <mergeCell ref="A182:A184"/>
-    <mergeCell ref="F124:F130"/>
+  <mergeCells count="95">
     <mergeCell ref="A117:A123"/>
     <mergeCell ref="E117:E123"/>
     <mergeCell ref="F117:F123"/>
-    <mergeCell ref="A167:A169"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A155:A157"/>
-    <mergeCell ref="F155:F157"/>
-    <mergeCell ref="A131:A142"/>
-    <mergeCell ref="E131:E142"/>
-    <mergeCell ref="F131:F142"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="F93:F95"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="A124:A130"/>
-    <mergeCell ref="E124:E130"/>
-    <mergeCell ref="A158:A160"/>
-    <mergeCell ref="F158:F160"/>
-    <mergeCell ref="A152:A154"/>
-    <mergeCell ref="F152:F154"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="A145:A147"/>
-    <mergeCell ref="F145:F147"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="F148:F151"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="F96:F100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="A102:A116"/>
-    <mergeCell ref="F102:F116"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="F76:F82"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="F69:F75"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="E28:E34"/>
+    <mergeCell ref="F28:F34"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="F7:F13"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="F14:F20"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="F21:F27"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C27"/>
     <mergeCell ref="A63:A65"/>
     <mergeCell ref="F63:F65"/>
     <mergeCell ref="A35:A41"/>
@@ -4279,21 +4348,67 @@
     <mergeCell ref="F60:F62"/>
     <mergeCell ref="E42:E45"/>
     <mergeCell ref="F42:F45"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="E28:E34"/>
-    <mergeCell ref="F28:F34"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="F7:F13"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="F14:F20"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="F21:F27"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="F76:F82"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="F69:F75"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="F96:F100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="A102:A116"/>
+    <mergeCell ref="F102:F116"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="F162:F164"/>
+    <mergeCell ref="A138:A149"/>
+    <mergeCell ref="E138:E149"/>
+    <mergeCell ref="F138:F149"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="A131:A137"/>
+    <mergeCell ref="E131:E137"/>
+    <mergeCell ref="A189:A191"/>
+    <mergeCell ref="F131:F137"/>
+    <mergeCell ref="A124:A130"/>
+    <mergeCell ref="E124:E130"/>
+    <mergeCell ref="F124:F130"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="A165:A167"/>
+    <mergeCell ref="F165:F167"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="F159:F161"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="A152:A154"/>
+    <mergeCell ref="F152:F154"/>
+    <mergeCell ref="A155:A158"/>
+    <mergeCell ref="F155:F158"/>
+    <mergeCell ref="A171:A173"/>
+    <mergeCell ref="F171:F173"/>
+    <mergeCell ref="A168:A170"/>
+    <mergeCell ref="F168:F170"/>
+    <mergeCell ref="A192:A199"/>
+    <mergeCell ref="F174:F176"/>
+    <mergeCell ref="F177:F179"/>
+    <mergeCell ref="F180:F182"/>
+    <mergeCell ref="F183:F185"/>
+    <mergeCell ref="F186:F188"/>
+    <mergeCell ref="F189:F191"/>
+    <mergeCell ref="F192:F199"/>
+    <mergeCell ref="A177:A179"/>
+    <mergeCell ref="A180:A182"/>
+    <mergeCell ref="A183:A185"/>
+    <mergeCell ref="A186:A188"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4343,17 +4458,17 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="127" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4368,12 +4483,12 @@
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="58" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A4" s="116"/>
+      <c r="A4" s="128"/>
       <c r="B4" s="1" t="s">
         <v>95</v>
       </c>
@@ -4384,10 +4499,10 @@
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="44"/>
+      <c r="F4" s="59"/>
     </row>
     <row r="5" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A5" s="117"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="9" t="s">
@@ -4396,10 +4511,10 @@
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="44"/>
+      <c r="F5" s="59"/>
     </row>
     <row r="6" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A6" s="117"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="8" t="s">
@@ -4408,10 +4523,10 @@
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="44"/>
+      <c r="F6" s="59"/>
     </row>
     <row r="7" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A7" s="117"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="8" t="s">
@@ -4420,10 +4535,10 @@
       <c r="E7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="44"/>
+      <c r="F7" s="59"/>
     </row>
     <row r="8" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A8" s="117"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8" t="s">
@@ -4432,10 +4547,10 @@
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="44"/>
+      <c r="F8" s="59"/>
     </row>
     <row r="9" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A9" s="117"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="13" t="s">
@@ -4444,10 +4559,10 @@
       <c r="E9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="44"/>
+      <c r="F9" s="59"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="127" t="s">
         <v>96</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -4462,12 +4577,12 @@
       <c r="E10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="58" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A11" s="116"/>
+      <c r="A11" s="128"/>
       <c r="B11" s="1" t="s">
         <v>95</v>
       </c>
@@ -4478,10 +4593,10 @@
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="59"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A12" s="117"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="9" t="s">
@@ -4490,10 +4605,10 @@
       <c r="E12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="44"/>
+      <c r="F12" s="59"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A13" s="117"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="8" t="s">
@@ -4502,10 +4617,10 @@
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="44"/>
+      <c r="F13" s="59"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A14" s="117"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="8" t="s">
@@ -4514,10 +4629,10 @@
       <c r="E14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="44"/>
+      <c r="F14" s="59"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A15" s="117"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="8" t="s">
@@ -4526,10 +4641,10 @@
       <c r="E15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="44"/>
+      <c r="F15" s="59"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A16" s="117"/>
+      <c r="A16" s="132"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="13" t="s">
@@ -4538,10 +4653,10 @@
       <c r="E16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="44"/>
+      <c r="F16" s="59"/>
     </row>
     <row r="17" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A17" s="115" t="s">
+      <c r="A17" s="127" t="s">
         <v>99</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -4556,12 +4671,12 @@
       <c r="E17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="58" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A18" s="116"/>
+      <c r="A18" s="128"/>
       <c r="B18" s="1" t="s">
         <v>95</v>
       </c>
@@ -4572,10 +4687,10 @@
       <c r="E18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="44"/>
+      <c r="F18" s="59"/>
     </row>
     <row r="19" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A19" s="117"/>
+      <c r="A19" s="132"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="9" t="s">
@@ -4584,10 +4699,10 @@
       <c r="E19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="44"/>
+      <c r="F19" s="59"/>
     </row>
     <row r="20" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A20" s="117"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="8" t="s">
@@ -4596,10 +4711,10 @@
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="44"/>
+      <c r="F20" s="59"/>
     </row>
     <row r="21" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A21" s="117"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="8" t="s">
@@ -4608,10 +4723,10 @@
       <c r="E21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="44"/>
+      <c r="F21" s="59"/>
     </row>
     <row r="22" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A22" s="117"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="8" t="s">
@@ -4620,10 +4735,10 @@
       <c r="E22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="44"/>
+      <c r="F22" s="59"/>
     </row>
     <row r="23" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A23" s="117"/>
+      <c r="A23" s="132"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="13" t="s">
@@ -4632,10 +4747,10 @@
       <c r="E23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F23" s="44"/>
+      <c r="F23" s="59"/>
     </row>
     <row r="24" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A24" s="115" t="s">
+      <c r="A24" s="127" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -4647,15 +4762,15 @@
       <c r="D24" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="43" t="s">
+      <c r="F24" s="58" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A25" s="116"/>
+      <c r="A25" s="128"/>
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
@@ -4665,11 +4780,11 @@
       <c r="D25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="44"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="59"/>
     </row>
     <row r="26" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A26" s="116"/>
+      <c r="A26" s="128"/>
       <c r="B26" s="1" t="s">
         <v>20</v>
       </c>
@@ -4679,11 +4794,11 @@
       <c r="D26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="44"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="59"/>
     </row>
     <row r="27" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A27" s="116"/>
+      <c r="A27" s="128"/>
       <c r="B27" s="1" t="s">
         <v>21</v>
       </c>
@@ -4691,11 +4806,11 @@
       <c r="D27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="44"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="59"/>
     </row>
     <row r="28" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A28" s="116"/>
+      <c r="A28" s="128"/>
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
@@ -4703,11 +4818,11 @@
       <c r="D28" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="44"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="59"/>
     </row>
     <row r="29" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A29" s="116"/>
+      <c r="A29" s="128"/>
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
@@ -4715,21 +4830,21 @@
       <c r="D29" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="44"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="59"/>
     </row>
     <row r="30" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A30" s="118"/>
+      <c r="A30" s="129"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="42"/>
-      <c r="F30" s="45"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A31" s="115" t="s">
+      <c r="A31" s="127" t="s">
         <v>147</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -4741,10 +4856,10 @@
       <c r="D31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="40" t="s">
+      <c r="E31" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="43" t="s">
+      <c r="F31" s="58" t="s">
         <v>134</v>
       </c>
       <c r="G31" t="s">
@@ -4755,7 +4870,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A32" s="116"/>
+      <c r="A32" s="128"/>
       <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
@@ -4765,14 +4880,14 @@
       <c r="D32" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="44"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="59"/>
       <c r="G32" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A33" s="116"/>
+      <c r="A33" s="128"/>
       <c r="B33" s="1" t="s">
         <v>20</v>
       </c>
@@ -4782,8 +4897,8 @@
       <c r="D33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="44"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="59"/>
       <c r="G33" t="s">
         <v>117</v>
       </c>
@@ -4792,7 +4907,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A34" s="116"/>
+      <c r="A34" s="128"/>
       <c r="B34" s="1" t="s">
         <v>21</v>
       </c>
@@ -4800,8 +4915,8 @@
       <c r="D34" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="41"/>
-      <c r="F34" s="44"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="59"/>
       <c r="G34" t="s">
         <v>118</v>
       </c>
@@ -4810,7 +4925,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A35" s="116"/>
+      <c r="A35" s="128"/>
       <c r="B35" s="1" t="s">
         <v>23</v>
       </c>
@@ -4818,8 +4933,8 @@
       <c r="D35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="41"/>
-      <c r="F35" s="44"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="59"/>
       <c r="G35" t="s">
         <v>119</v>
       </c>
@@ -4828,7 +4943,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A36" s="116"/>
+      <c r="A36" s="128"/>
       <c r="B36" s="1" t="s">
         <v>24</v>
       </c>
@@ -4836,8 +4951,8 @@
       <c r="D36" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="44"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="59"/>
       <c r="G36" t="s">
         <v>120</v>
       </c>
@@ -4846,14 +4961,14 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A37" s="117"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="44"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="59"/>
       <c r="G37" t="s">
         <v>121</v>
       </c>
@@ -4865,14 +4980,14 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A38" s="117"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="44"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="59"/>
       <c r="G38" t="s">
         <v>122</v>
       </c>
@@ -4884,14 +4999,14 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A39" s="117"/>
+      <c r="A39" s="132"/>
       <c r="B39" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="44"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="59"/>
       <c r="G39" t="s">
         <v>123</v>
       </c>
@@ -4903,7 +5018,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A40" s="118"/>
+      <c r="A40" s="129"/>
       <c r="B40" s="4" t="s">
         <v>129</v>
       </c>
@@ -4911,14 +5026,14 @@
       <c r="D40" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="42"/>
-      <c r="F40" s="45"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="60"/>
       <c r="G40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A41" s="146" t="s">
+      <c r="A41" s="133" t="s">
         <v>69</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -4930,15 +5045,15 @@
       <c r="D41" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E41" s="40" t="s">
+      <c r="E41" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="44" t="s">
+      <c r="F41" s="59" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A42" s="147"/>
+      <c r="A42" s="134"/>
       <c r="B42" s="1" t="s">
         <v>70</v>
       </c>
@@ -4946,11 +5061,11 @@
       <c r="D42" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="41"/>
-      <c r="F42" s="44"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="59"/>
     </row>
     <row r="43" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A43" s="147"/>
+      <c r="A43" s="134"/>
       <c r="B43" s="1" t="s">
         <v>49</v>
       </c>
@@ -4958,83 +5073,83 @@
       <c r="D43" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="41"/>
-      <c r="F43" s="44"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="59"/>
     </row>
     <row r="44" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A44" s="147"/>
+      <c r="A44" s="134"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="41"/>
-      <c r="F44" s="44"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="59"/>
     </row>
     <row r="45" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A45" s="147"/>
+      <c r="A45" s="134"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="41"/>
-      <c r="F45" s="44"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="59"/>
     </row>
     <row r="46" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A46" s="147"/>
+      <c r="A46" s="134"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="41"/>
-      <c r="F46" s="44"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="59"/>
     </row>
     <row r="47" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A47" s="148"/>
+      <c r="A47" s="135"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="42"/>
-      <c r="F47" s="45"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="60"/>
     </row>
     <row r="48" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A48" s="115" t="s">
+      <c r="A48" s="127" t="s">
         <v>150</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="144" t="s">
+      <c r="C48" s="130" t="s">
         <v>45</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="81" t="s">
+      <c r="E48" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="F48" s="84" t="s">
+      <c r="F48" s="52" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A49" s="116"/>
+      <c r="A49" s="128"/>
       <c r="B49" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="145"/>
+      <c r="C49" s="131"/>
       <c r="D49" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="82"/>
-      <c r="F49" s="85"/>
+      <c r="E49" s="100"/>
+      <c r="F49" s="53"/>
     </row>
     <row r="50" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A50" s="116"/>
+      <c r="A50" s="128"/>
       <c r="B50" s="5" t="s">
         <v>29</v>
       </c>
@@ -5044,11 +5159,11 @@
       <c r="D50" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="82"/>
-      <c r="F50" s="85"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="53"/>
     </row>
     <row r="51" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A51" s="116"/>
+      <c r="A51" s="128"/>
       <c r="B51" s="24" t="s">
         <v>30</v>
       </c>
@@ -5058,11 +5173,11 @@
       <c r="D51" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="82"/>
-      <c r="F51" s="85"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="53"/>
     </row>
     <row r="52" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A52" s="116"/>
+      <c r="A52" s="128"/>
       <c r="B52" s="24" t="s">
         <v>31</v>
       </c>
@@ -5072,11 +5187,11 @@
       <c r="D52" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="82"/>
-      <c r="F52" s="85"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="53"/>
     </row>
     <row r="53" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A53" s="116"/>
+      <c r="A53" s="128"/>
       <c r="B53" s="24" t="s">
         <v>32</v>
       </c>
@@ -5084,11 +5199,11 @@
       <c r="D53" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="82"/>
-      <c r="F53" s="85"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="53"/>
     </row>
     <row r="54" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A54" s="116"/>
+      <c r="A54" s="128"/>
       <c r="B54" s="24" t="s">
         <v>33</v>
       </c>
@@ -5096,29 +5211,29 @@
       <c r="D54" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="82"/>
-      <c r="F54" s="85"/>
+      <c r="E54" s="100"/>
+      <c r="F54" s="53"/>
     </row>
     <row r="55" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A55" s="118"/>
+      <c r="A55" s="129"/>
       <c r="B55" s="25"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="86"/>
+      <c r="E55" s="101"/>
+      <c r="F55" s="54"/>
     </row>
     <row r="56" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A56" s="87" t="s">
+      <c r="A56" s="102" t="s">
         <v>88</v>
       </c>
-      <c r="B56" s="87"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="87"/>
+      <c r="B56" s="102"/>
+      <c r="C56" s="102"/>
+      <c r="D56" s="102"/>
+      <c r="E56" s="102"/>
+      <c r="F56" s="102"/>
     </row>
     <row r="57" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A57" s="112" t="s">
+      <c r="A57" s="138" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="12" t="s">
@@ -5129,10 +5244,10 @@
         <v>34</v>
       </c>
       <c r="E57" s="3"/>
-      <c r="F57" s="70"/>
+      <c r="F57" s="73"/>
     </row>
     <row r="58" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A58" s="113"/>
+      <c r="A58" s="139"/>
       <c r="B58" s="8" t="s">
         <v>15</v>
       </c>
@@ -5141,10 +5256,10 @@
         <v>15</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="71"/>
+      <c r="F58" s="80"/>
     </row>
     <row r="59" spans="1:6" ht="45.75" customHeight="1">
-      <c r="A59" s="119"/>
+      <c r="A59" s="147"/>
       <c r="B59" s="9" t="s">
         <v>10</v>
       </c>
@@ -5153,26 +5268,26 @@
         <v>10</v>
       </c>
       <c r="E59" s="2"/>
-      <c r="F59" s="71"/>
+      <c r="F59" s="80"/>
     </row>
     <row r="60" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A60" s="119"/>
+      <c r="A60" s="147"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="71"/>
+      <c r="F60" s="80"/>
     </row>
     <row r="61" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A61" s="114"/>
+      <c r="A61" s="140"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="72"/>
+      <c r="F61" s="74"/>
     </row>
     <row r="62" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A62" s="112" t="s">
+      <c r="A62" s="138" t="s">
         <v>12</v>
       </c>
       <c r="B62" s="3"/>
@@ -5183,26 +5298,26 @@
         <v>13</v>
       </c>
       <c r="E62" s="3"/>
-      <c r="F62" s="70"/>
+      <c r="F62" s="73"/>
     </row>
     <row r="63" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A63" s="113"/>
+      <c r="A63" s="139"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="71"/>
+      <c r="F63" s="80"/>
     </row>
     <row r="64" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A64" s="114"/>
+      <c r="A64" s="140"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="72"/>
+      <c r="F64" s="74"/>
     </row>
     <row r="65" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A65" s="112" t="s">
+      <c r="A65" s="138" t="s">
         <v>0</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -5213,10 +5328,10 @@
         <v>7</v>
       </c>
       <c r="E65" s="3"/>
-      <c r="F65" s="70"/>
+      <c r="F65" s="73"/>
     </row>
     <row r="66" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A66" s="113"/>
+      <c r="A66" s="139"/>
       <c r="B66" s="8" t="s">
         <v>8</v>
       </c>
@@ -5225,10 +5340,10 @@
         <v>8</v>
       </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="71"/>
+      <c r="F66" s="80"/>
     </row>
     <row r="67" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A67" s="114"/>
+      <c r="A67" s="140"/>
       <c r="B67" s="13" t="s">
         <v>9</v>
       </c>
@@ -5237,10 +5352,10 @@
         <v>9</v>
       </c>
       <c r="E67" s="4"/>
-      <c r="F67" s="72"/>
+      <c r="F67" s="74"/>
     </row>
     <row r="68" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A68" s="112" t="s">
+      <c r="A68" s="138" t="s">
         <v>42</v>
       </c>
       <c r="B68" s="9" t="s">
@@ -5251,10 +5366,10 @@
         <v>39</v>
       </c>
       <c r="E68" s="3"/>
-      <c r="F68" s="70"/>
+      <c r="F68" s="73"/>
     </row>
     <row r="69" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A69" s="113"/>
+      <c r="A69" s="139"/>
       <c r="B69" s="9" t="s">
         <v>40</v>
       </c>
@@ -5263,10 +5378,10 @@
         <v>40</v>
       </c>
       <c r="E69" s="1"/>
-      <c r="F69" s="71"/>
+      <c r="F69" s="80"/>
     </row>
     <row r="70" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A70" s="114"/>
+      <c r="A70" s="140"/>
       <c r="B70" s="9" t="s">
         <v>41</v>
       </c>
@@ -5275,10 +5390,10 @@
         <v>41</v>
       </c>
       <c r="E70" s="4"/>
-      <c r="F70" s="72"/>
+      <c r="F70" s="74"/>
     </row>
     <row r="71" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A71" s="91" t="s">
+      <c r="A71" s="83" t="s">
         <v>58</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -5293,12 +5408,12 @@
       <c r="E71" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F71" s="70" t="s">
+      <c r="F71" s="73" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A72" s="92"/>
+      <c r="A72" s="84"/>
       <c r="B72" s="1" t="s">
         <v>17</v>
       </c>
@@ -5311,10 +5426,10 @@
       <c r="E72" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F72" s="71"/>
+      <c r="F72" s="80"/>
     </row>
     <row r="73" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A73" s="92"/>
+      <c r="A73" s="84"/>
       <c r="B73" s="1" t="s">
         <v>18</v>
       </c>
@@ -5325,10 +5440,10 @@
       <c r="E73" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F73" s="71"/>
+      <c r="F73" s="80"/>
     </row>
     <row r="74" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A74" s="92"/>
+      <c r="A74" s="84"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="8" t="s">
@@ -5337,10 +5452,10 @@
       <c r="E74" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F74" s="71"/>
+      <c r="F74" s="80"/>
     </row>
     <row r="75" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A75" s="92"/>
+      <c r="A75" s="84"/>
       <c r="B75" s="7"/>
       <c r="C75" s="1"/>
       <c r="D75" s="8" t="s">
@@ -5349,10 +5464,10 @@
       <c r="E75" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F75" s="71"/>
+      <c r="F75" s="80"/>
     </row>
     <row r="76" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A76" s="92"/>
+      <c r="A76" s="84"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="8" t="s">
@@ -5361,10 +5476,10 @@
       <c r="E76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F76" s="71"/>
+      <c r="F76" s="80"/>
     </row>
     <row r="77" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A77" s="93"/>
+      <c r="A77" s="85"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="29" t="s">
@@ -5373,10 +5488,10 @@
       <c r="E77" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F77" s="72"/>
+      <c r="F77" s="74"/>
     </row>
     <row r="78" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A78" s="135" t="s">
+      <c r="A78" s="163" t="s">
         <v>66</v>
       </c>
       <c r="B78" s="26" t="s">
@@ -5391,30 +5506,30 @@
       <c r="E78" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="94" t="s">
+      <c r="F78" s="90" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A79" s="68"/>
+      <c r="A79" s="89"/>
       <c r="B79" s="30"/>
       <c r="C79" s="22"/>
       <c r="D79" s="21"/>
       <c r="E79" s="31"/>
-      <c r="F79" s="95"/>
+      <c r="F79" s="91"/>
     </row>
     <row r="80" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A80" s="114"/>
+      <c r="A80" s="140"/>
       <c r="B80" s="25"/>
       <c r="C80" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="17"/>
-      <c r="F80" s="96"/>
+      <c r="F80" s="92"/>
     </row>
     <row r="81" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A81" s="112" t="s">
+      <c r="A81" s="138" t="s">
         <v>112</v>
       </c>
       <c r="B81" s="27" t="s">
@@ -5429,22 +5544,22 @@
       <c r="E81" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F81" s="70" t="s">
+      <c r="F81" s="73" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A82" s="119"/>
+      <c r="A82" s="147"/>
       <c r="B82" s="28"/>
       <c r="C82" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="19"/>
-      <c r="F82" s="72"/>
+      <c r="F82" s="74"/>
     </row>
     <row r="83" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A83" s="112" t="s">
+      <c r="A83" s="138" t="s">
         <v>65</v>
       </c>
       <c r="B83" s="27" t="s">
@@ -5459,20 +5574,20 @@
       <c r="E83" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F83" s="136"/>
+      <c r="F83" s="144"/>
     </row>
     <row r="84" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A84" s="119"/>
+      <c r="A84" s="147"/>
       <c r="B84" s="28"/>
       <c r="C84" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="19"/>
-      <c r="F84" s="137"/>
+      <c r="F84" s="146"/>
     </row>
     <row r="85" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A85" s="67" t="s">
+      <c r="A85" s="71" t="s">
         <v>92</v>
       </c>
       <c r="B85" s="15" t="s">
@@ -5488,7 +5603,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A86" s="68"/>
+      <c r="A86" s="89"/>
       <c r="B86" s="9" t="s">
         <v>80</v>
       </c>
@@ -5498,7 +5613,7 @@
       <c r="F86" s="34"/>
     </row>
     <row r="87" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A87" s="69"/>
+      <c r="A87" s="72"/>
       <c r="B87" s="25" t="s">
         <v>91</v>
       </c>
@@ -5510,7 +5625,7 @@
       <c r="F87" s="35"/>
     </row>
     <row r="88" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A88" s="67" t="s">
+      <c r="A88" s="71" t="s">
         <v>107</v>
       </c>
       <c r="B88" s="15" t="s">
@@ -5521,32 +5636,32 @@
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="70" t="s">
+      <c r="F88" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A89" s="68"/>
+      <c r="A89" s="89"/>
       <c r="B89" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="71"/>
+      <c r="F89" s="80"/>
     </row>
     <row r="90" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A90" s="69"/>
+      <c r="A90" s="72"/>
       <c r="B90" s="25"/>
       <c r="C90" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
-      <c r="F90" s="72"/>
+      <c r="F90" s="74"/>
     </row>
     <row r="91" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A91" s="132" t="s">
+      <c r="A91" s="160" t="s">
         <v>71</v>
       </c>
       <c r="B91" s="3"/>
@@ -5555,62 +5670,62 @@
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="70" t="s">
+      <c r="F91" s="73" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A92" s="133"/>
+      <c r="A92" s="161"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="71"/>
+      <c r="F92" s="80"/>
     </row>
     <row r="93" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A93" s="133"/>
+      <c r="A93" s="161"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="71"/>
+      <c r="F93" s="80"/>
     </row>
     <row r="94" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A94" s="133"/>
+      <c r="A94" s="161"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="71"/>
+      <c r="F94" s="80"/>
     </row>
     <row r="95" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A95" s="134"/>
+      <c r="A95" s="162"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="72"/>
+      <c r="F95" s="74"/>
     </row>
     <row r="96" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A96" s="97" t="s">
+      <c r="A96" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="B96" s="97"/>
-      <c r="C96" s="97"/>
-      <c r="D96" s="97"/>
-      <c r="E96" s="97"/>
-      <c r="F96" s="97"/>
+      <c r="B96" s="86"/>
+      <c r="C96" s="86"/>
+      <c r="D96" s="86"/>
+      <c r="E96" s="86"/>
+      <c r="F96" s="86"/>
     </row>
     <row r="97" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A97" s="140" t="s">
+      <c r="A97" s="141" t="s">
         <v>50</v>
       </c>
       <c r="B97" s="3"/>
@@ -5621,12 +5736,12 @@
       <c r="E97" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F97" s="136" t="s">
+      <c r="F97" s="144" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A98" s="141"/>
+      <c r="A98" s="142"/>
       <c r="B98" s="1"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8" t="s">
@@ -5635,10 +5750,10 @@
       <c r="E98" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F98" s="143"/>
+      <c r="F98" s="145"/>
     </row>
     <row r="99" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A99" s="141"/>
+      <c r="A99" s="142"/>
       <c r="B99" s="1"/>
       <c r="C99" s="8"/>
       <c r="D99" s="9" t="s">
@@ -5647,10 +5762,10 @@
       <c r="E99" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F99" s="143"/>
+      <c r="F99" s="145"/>
     </row>
     <row r="100" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A100" s="141"/>
+      <c r="A100" s="142"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="8" t="s">
@@ -5659,10 +5774,10 @@
       <c r="E100" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="143"/>
+      <c r="F100" s="145"/>
     </row>
     <row r="101" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A101" s="141"/>
+      <c r="A101" s="142"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="8" t="s">
@@ -5671,10 +5786,10 @@
       <c r="E101" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F101" s="143"/>
+      <c r="F101" s="145"/>
     </row>
     <row r="102" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A102" s="141"/>
+      <c r="A102" s="142"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="8" t="s">
@@ -5683,10 +5798,10 @@
       <c r="E102" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F102" s="143"/>
+      <c r="F102" s="145"/>
     </row>
     <row r="103" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A103" s="141"/>
+      <c r="A103" s="142"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="8" t="s">
@@ -5695,10 +5810,10 @@
       <c r="E103" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F103" s="143"/>
+      <c r="F103" s="145"/>
     </row>
     <row r="104" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A104" s="141"/>
+      <c r="A104" s="142"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="9" t="s">
@@ -5707,10 +5822,10 @@
       <c r="E104" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F104" s="143"/>
+      <c r="F104" s="145"/>
     </row>
     <row r="105" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A105" s="141"/>
+      <c r="A105" s="142"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="9" t="s">
@@ -5719,10 +5834,10 @@
       <c r="E105" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F105" s="143"/>
+      <c r="F105" s="145"/>
     </row>
     <row r="106" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A106" s="141"/>
+      <c r="A106" s="142"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="9" t="s">
@@ -5731,26 +5846,26 @@
       <c r="E106" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F106" s="143"/>
+      <c r="F106" s="145"/>
     </row>
     <row r="107" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A107" s="142"/>
+      <c r="A107" s="143"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="18"/>
       <c r="E107" s="19"/>
-      <c r="F107" s="137"/>
+      <c r="F107" s="146"/>
     </row>
     <row r="108" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A108" s="142"/>
+      <c r="A108" s="143"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="18"/>
       <c r="E108" s="19"/>
-      <c r="F108" s="137"/>
+      <c r="F108" s="146"/>
     </row>
     <row r="109" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A109" s="123" t="s">
+      <c r="A109" s="151" t="s">
         <v>138</v>
       </c>
       <c r="B109" s="3" t="s">
@@ -5760,13 +5875,13 @@
         <v>26</v>
       </c>
       <c r="D109" s="12"/>
-      <c r="E109" s="126"/>
-      <c r="F109" s="129" t="s">
+      <c r="E109" s="154"/>
+      <c r="F109" s="157" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A110" s="124"/>
+      <c r="A110" s="152"/>
       <c r="B110" s="1" t="s">
         <v>131</v>
       </c>
@@ -5774,11 +5889,11 @@
         <v>148</v>
       </c>
       <c r="D110" s="8"/>
-      <c r="E110" s="127"/>
-      <c r="F110" s="130"/>
+      <c r="E110" s="155"/>
+      <c r="F110" s="158"/>
     </row>
     <row r="111" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A111" s="124"/>
+      <c r="A111" s="152"/>
       <c r="B111" s="1" t="s">
         <v>130</v>
       </c>
@@ -5786,11 +5901,11 @@
         <v>139</v>
       </c>
       <c r="D111" s="9"/>
-      <c r="E111" s="127"/>
-      <c r="F111" s="130"/>
+      <c r="E111" s="155"/>
+      <c r="F111" s="158"/>
     </row>
     <row r="112" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A112" s="124"/>
+      <c r="A112" s="152"/>
       <c r="B112" s="1" t="s">
         <v>129</v>
       </c>
@@ -5798,11 +5913,11 @@
         <v>140</v>
       </c>
       <c r="D112" s="8"/>
-      <c r="E112" s="127"/>
-      <c r="F112" s="130"/>
+      <c r="E112" s="155"/>
+      <c r="F112" s="158"/>
     </row>
     <row r="113" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A113" s="124"/>
+      <c r="A113" s="152"/>
       <c r="B113" s="1" t="s">
         <v>22</v>
       </c>
@@ -5810,11 +5925,11 @@
         <v>141</v>
       </c>
       <c r="D113" s="8"/>
-      <c r="E113" s="127"/>
-      <c r="F113" s="130"/>
+      <c r="E113" s="155"/>
+      <c r="F113" s="158"/>
     </row>
     <row r="114" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A114" s="124"/>
+      <c r="A114" s="152"/>
       <c r="B114" s="1" t="s">
         <v>23</v>
       </c>
@@ -5822,63 +5937,63 @@
         <v>142</v>
       </c>
       <c r="D114" s="8"/>
-      <c r="E114" s="127"/>
-      <c r="F114" s="130"/>
+      <c r="E114" s="155"/>
+      <c r="F114" s="158"/>
     </row>
     <row r="115" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A115" s="124"/>
+      <c r="A115" s="152"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D115" s="8"/>
-      <c r="E115" s="127"/>
-      <c r="F115" s="130"/>
+      <c r="E115" s="155"/>
+      <c r="F115" s="158"/>
       <c r="I115" s="36"/>
     </row>
     <row r="116" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A116" s="124"/>
+      <c r="A116" s="152"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D116" s="8"/>
-      <c r="E116" s="127"/>
-      <c r="F116" s="130"/>
+      <c r="E116" s="155"/>
+      <c r="F116" s="158"/>
       <c r="I116" s="36"/>
     </row>
     <row r="117" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A117" s="124"/>
+      <c r="A117" s="152"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D117" s="8"/>
-      <c r="E117" s="127"/>
-      <c r="F117" s="130"/>
+      <c r="E117" s="155"/>
+      <c r="F117" s="158"/>
       <c r="I117" s="36"/>
     </row>
     <row r="118" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A118" s="124"/>
+      <c r="A118" s="152"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D118" s="8"/>
-      <c r="E118" s="127"/>
-      <c r="F118" s="130"/>
+      <c r="E118" s="155"/>
+      <c r="F118" s="158"/>
       <c r="I118" s="36"/>
     </row>
     <row r="119" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A119" s="125"/>
+      <c r="A119" s="153"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="29"/>
-      <c r="E119" s="128"/>
-      <c r="F119" s="131"/>
+      <c r="E119" s="156"/>
+      <c r="F119" s="159"/>
     </row>
     <row r="120" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A120" s="138" t="s">
+      <c r="A120" s="136" t="s">
         <v>51</v>
       </c>
       <c r="B120" s="23" t="s">
@@ -5887,20 +6002,20 @@
       <c r="C120" s="22"/>
       <c r="D120" s="22"/>
       <c r="E120" s="22"/>
-      <c r="F120" s="85" t="s">
+      <c r="F120" s="53" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A121" s="139"/>
+      <c r="A121" s="137"/>
       <c r="B121" s="16"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17"/>
       <c r="E121" s="17"/>
-      <c r="F121" s="86"/>
+      <c r="F121" s="54"/>
     </row>
     <row r="122" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A122" s="104" t="s">
+      <c r="A122" s="46" t="s">
         <v>52</v>
       </c>
       <c r="B122" s="15" t="s">
@@ -5909,32 +6024,32 @@
       <c r="C122" s="14"/>
       <c r="D122" s="14"/>
       <c r="E122" s="14"/>
-      <c r="F122" s="84" t="s">
+      <c r="F122" s="52" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A123" s="105"/>
+      <c r="A123" s="47"/>
       <c r="B123" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C123" s="31"/>
       <c r="D123" s="31"/>
       <c r="E123" s="31"/>
-      <c r="F123" s="85"/>
+      <c r="F123" s="53"/>
     </row>
     <row r="124" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A124" s="105"/>
+      <c r="A124" s="47"/>
       <c r="B124" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C124" s="19"/>
       <c r="D124" s="19"/>
       <c r="E124" s="19"/>
-      <c r="F124" s="85"/>
+      <c r="F124" s="53"/>
     </row>
     <row r="125" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A125" s="120" t="s">
+      <c r="A125" s="148" t="s">
         <v>81</v>
       </c>
       <c r="B125" s="15" t="s">
@@ -5943,36 +6058,36 @@
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
-      <c r="F125" s="70" t="s">
+      <c r="F125" s="73" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A126" s="121"/>
+      <c r="A126" s="149"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="71"/>
+      <c r="F126" s="80"/>
     </row>
     <row r="127" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A127" s="121"/>
+      <c r="A127" s="149"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="71"/>
+      <c r="F127" s="80"/>
     </row>
     <row r="128" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A128" s="122"/>
+      <c r="A128" s="150"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
-      <c r="F128" s="72"/>
+      <c r="F128" s="74"/>
     </row>
     <row r="129" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A129" s="104" t="s">
+      <c r="A129" s="46" t="s">
         <v>86</v>
       </c>
       <c r="B129" s="15" t="s">
@@ -5981,32 +6096,72 @@
       <c r="C129" s="14"/>
       <c r="D129" s="14"/>
       <c r="E129" s="14"/>
-      <c r="F129" s="84" t="s">
+      <c r="F129" s="52" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A130" s="105"/>
+      <c r="A130" s="47"/>
       <c r="B130" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C130" s="31"/>
       <c r="D130" s="31"/>
       <c r="E130" s="31"/>
-      <c r="F130" s="85"/>
+      <c r="F130" s="53"/>
     </row>
     <row r="131" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A131" s="106"/>
+      <c r="A131" s="48"/>
       <c r="B131" s="16" t="s">
         <v>84</v>
       </c>
       <c r="C131" s="17"/>
       <c r="D131" s="17"/>
       <c r="E131" s="17"/>
-      <c r="F131" s="86"/>
+      <c r="F131" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="F17:F23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="E24:E30"/>
+    <mergeCell ref="F24:F30"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="E31:E40"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="E48:E55"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="F129:F131"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A125:A128"/>
+    <mergeCell ref="F125:F128"/>
+    <mergeCell ref="A109:A119"/>
+    <mergeCell ref="E109:E119"/>
+    <mergeCell ref="F109:F119"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="F91:F95"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A124"/>
+    <mergeCell ref="F122:F124"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="A97:A108"/>
+    <mergeCell ref="F97:F108"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F71:F77"/>
+    <mergeCell ref="A71:A77"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A96:F96"/>
     <mergeCell ref="F57:F61"/>
@@ -6023,46 +6178,6 @@
     <mergeCell ref="A31:A40"/>
     <mergeCell ref="A41:A47"/>
     <mergeCell ref="F41:F47"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A122:A124"/>
-    <mergeCell ref="F122:F124"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="A97:A108"/>
-    <mergeCell ref="F97:F108"/>
-    <mergeCell ref="F88:F90"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="F71:F77"/>
-    <mergeCell ref="A71:A77"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="F129:F131"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A125:A128"/>
-    <mergeCell ref="F125:F128"/>
-    <mergeCell ref="A109:A119"/>
-    <mergeCell ref="E109:E119"/>
-    <mergeCell ref="F109:F119"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="F91:F95"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="F17:F23"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="E24:E30"/>
-    <mergeCell ref="F24:F30"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="E31:E40"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="E48:E55"/>
-    <mergeCell ref="A62:A64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/description.xlsx
+++ b/description.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="222">
   <si>
     <t>SET_ORI(W,P,R)</t>
   </si>
@@ -518,9 +518,6 @@
 wave=1 -с колебаниями согласно последних заданных</t>
   </si>
   <si>
-    <t>SET_IN_ST(fase, till).MR</t>
-  </si>
-  <si>
     <t>MSED( mem, start,end,dynamic).MR</t>
   </si>
   <si>
@@ -610,9 +607,6 @@
   </si>
   <si>
     <t>W_wld(Z, D, a1, a2, end, turn)</t>
-  </si>
-  <si>
-    <t>SET_EDG_ST(fase, till, rot).MR</t>
   </si>
   <si>
     <t>rot - поворот вокруг оси инструмента отнсительно PR[10]</t>
@@ -697,6 +691,12 @@
   </si>
   <si>
     <t>S_elps(Z, D, a1, a2, end, turn)</t>
+  </si>
+  <si>
+    <t>SET_EDG_ST(till, rot).MR</t>
+  </si>
+  <si>
+    <t>SET_IN_ST(till, rot).MR</t>
   </si>
 </sst>
 </file>
@@ -1261,6 +1261,222 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1270,6 +1486,30 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1279,230 +1519,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1510,18 +1534,93 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1529,105 +1628,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1932,8 +1932,8 @@
   <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21:A27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1969,58 +1969,56 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58"/>
     </row>
     <row r="3" spans="1:6" ht="21" customHeight="1">
-      <c r="A3" s="108" t="s">
-        <v>165</v>
+      <c r="A3" s="62" t="s">
+        <v>164</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="12"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="111" t="s">
+      <c r="F3" s="65" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1">
-      <c r="A4" s="109"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="8"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="112"/>
+      <c r="F4" s="66"/>
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1">
-      <c r="A5" s="109"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="8"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="112"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" thickBot="1">
-      <c r="A6" s="110"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="9"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="113"/>
+      <c r="F6" s="67"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1">
-      <c r="A7" s="114" t="s">
-        <v>164</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="A7" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
         <v>59</v>
       </c>
@@ -2030,12 +2028,12 @@
       <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="52" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1">
-      <c r="A8" s="115"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="1" t="s">
         <v>95</v>
       </c>
@@ -2046,11 +2044,13 @@
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="59"/>
+      <c r="F8" s="52"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1">
-      <c r="A9" s="115"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="9" t="s">
         <v>10</v>
@@ -2058,10 +2058,10 @@
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="59"/>
+      <c r="F9" s="52"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1">
-      <c r="A10" s="115"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="8" t="s">
@@ -2070,10 +2070,10 @@
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="59"/>
+      <c r="F10" s="52"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="115"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="8" t="s">
@@ -2082,10 +2082,10 @@
       <c r="E11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="59"/>
+      <c r="F11" s="52"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="115"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="8" t="s">
@@ -2094,10 +2094,10 @@
       <c r="E12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="59"/>
+      <c r="F12" s="52"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="116"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="13" t="s">
@@ -2106,15 +2106,13 @@
       <c r="E13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="60"/>
+      <c r="F13" s="53"/>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1">
-      <c r="A14" s="114" t="s">
-        <v>195</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="A14" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>59</v>
       </c>
@@ -2124,12 +2122,12 @@
       <c r="E14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="51" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1">
-      <c r="A15" s="115"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="1" t="s">
         <v>95</v>
       </c>
@@ -2140,12 +2138,12 @@
       <c r="E15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="59"/>
+      <c r="F15" s="52"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1">
-      <c r="A16" s="115"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="9" t="s">
@@ -2154,10 +2152,10 @@
       <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="59"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1">
-      <c r="A17" s="115"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="8" t="s">
@@ -2166,10 +2164,10 @@
       <c r="E17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="59"/>
+      <c r="F17" s="52"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
-      <c r="A18" s="115"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="8" t="s">
@@ -2178,10 +2176,10 @@
       <c r="E18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="59"/>
+      <c r="F18" s="52"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1">
-      <c r="A19" s="115"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="8" t="s">
@@ -2190,10 +2188,10 @@
       <c r="E19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="59"/>
+      <c r="F19" s="52"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A20" s="116"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="13" t="s">
@@ -2202,11 +2200,11 @@
       <c r="E20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="60"/>
+      <c r="F20" s="53"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1">
-      <c r="A21" s="117" t="s">
-        <v>166</v>
+      <c r="A21" s="68" t="s">
+        <v>165</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>155</v>
@@ -2217,15 +2215,15 @@
       <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="63" t="s">
+      <c r="E21" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="120" t="s">
+      <c r="F21" s="71" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1">
-      <c r="A22" s="118"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="1" t="s">
         <v>156</v>
       </c>
@@ -2235,75 +2233,75 @@
       <c r="D22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="64"/>
-      <c r="F22" s="121"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="72"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1">
-      <c r="A23" s="118"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="123" t="s">
+      <c r="C23" s="74" t="s">
         <v>158</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="121"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="72"/>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1">
-      <c r="A24" s="118"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="124"/>
+      <c r="C24" s="75"/>
       <c r="D24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="64"/>
-      <c r="F24" s="121"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="72"/>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1">
-      <c r="A25" s="118"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="123" t="s">
+      <c r="C25" s="74" t="s">
         <v>157</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="64"/>
-      <c r="F25" s="121"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="72"/>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1">
-      <c r="A26" s="118"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="125"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="64"/>
-      <c r="F26" s="121"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="72"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="119"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C27" s="126"/>
+      <c r="C27" s="77"/>
       <c r="D27" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="122"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="73"/>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1">
-      <c r="A28" s="103" t="s">
+      <c r="A28" s="54" t="s">
         <v>161</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2315,15 +2313,15 @@
       <c r="D28" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="63" t="s">
+      <c r="E28" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="58" t="s">
+      <c r="F28" s="51" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1">
-      <c r="A29" s="104"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="1" t="s">
         <v>22</v>
       </c>
@@ -2333,11 +2331,11 @@
       <c r="D29" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="64"/>
-      <c r="F29" s="59"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="52"/>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1">
-      <c r="A30" s="104"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="1" t="s">
         <v>20</v>
       </c>
@@ -2347,11 +2345,11 @@
       <c r="D30" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="64"/>
-      <c r="F30" s="59"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="52"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1">
-      <c r="A31" s="104"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="1" t="s">
         <v>21</v>
       </c>
@@ -2359,11 +2357,11 @@
       <c r="D31" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="64"/>
-      <c r="F31" s="59"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="52"/>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1">
-      <c r="A32" s="104"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="1" t="s">
         <v>23</v>
       </c>
@@ -2371,11 +2369,11 @@
       <c r="D32" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="64"/>
-      <c r="F32" s="59"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="52"/>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1">
-      <c r="A33" s="104"/>
+      <c r="A33" s="55"/>
       <c r="B33" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,11 +2381,11 @@
       <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="64"/>
-      <c r="F33" s="59"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="52"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="105"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="4" t="s">
         <v>159</v>
       </c>
@@ -2395,12 +2393,12 @@
       <c r="D34" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="65"/>
-      <c r="F34" s="60"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="53"/>
     </row>
     <row r="35" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A35" s="93" t="s">
-        <v>182</v>
+      <c r="A35" s="84" t="s">
+        <v>181</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>48</v>
@@ -2411,15 +2409,15 @@
       <c r="D35" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="E35" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="58" t="s">
+      <c r="F35" s="51" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A36" s="94"/>
+      <c r="A36" s="85"/>
       <c r="B36" s="1" t="s">
         <v>70</v>
       </c>
@@ -2427,11 +2425,11 @@
       <c r="D36" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="64"/>
-      <c r="F36" s="59"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="52"/>
     </row>
     <row r="37" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A37" s="94"/>
+      <c r="A37" s="85"/>
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -2439,134 +2437,134 @@
       <c r="D37" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="64"/>
-      <c r="F37" s="59"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="52"/>
     </row>
     <row r="38" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A38" s="94"/>
+      <c r="A38" s="85"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="64"/>
-      <c r="F38" s="59"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="52"/>
     </row>
     <row r="39" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A39" s="94"/>
+      <c r="A39" s="85"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="64"/>
-      <c r="F39" s="59"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="52"/>
     </row>
     <row r="40" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A40" s="94"/>
+      <c r="A40" s="85"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="64"/>
-      <c r="F40" s="59"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="52"/>
     </row>
     <row r="41" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A41" s="95"/>
+      <c r="A41" s="86"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="65"/>
-      <c r="F41" s="60"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="53"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1">
-      <c r="A42" s="66" t="s">
-        <v>183</v>
+      <c r="A42" s="87" t="s">
+        <v>182</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="E42" s="63"/>
-      <c r="F42" s="58" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="E42" s="48"/>
+      <c r="F42" s="51" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="67"/>
+      <c r="A43" s="88"/>
       <c r="B43" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="E43" s="64"/>
-      <c r="F43" s="59"/>
+        <v>187</v>
+      </c>
+      <c r="E43" s="49"/>
+      <c r="F43" s="52"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="67"/>
+      <c r="A44" s="88"/>
       <c r="B44" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="E44" s="64"/>
-      <c r="F44" s="59"/>
+        <v>186</v>
+      </c>
+      <c r="E44" s="49"/>
+      <c r="F44" s="52"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A45" s="67"/>
+      <c r="A45" s="88"/>
       <c r="B45" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="E45" s="64"/>
-      <c r="F45" s="59"/>
+        <v>185</v>
+      </c>
+      <c r="E45" s="49"/>
+      <c r="F45" s="52"/>
     </row>
     <row r="46" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A46" s="66" t="s">
+      <c r="A46" s="87" t="s">
         <v>150</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="97" t="s">
+      <c r="C46" s="90" t="s">
         <v>45</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="99" t="s">
+      <c r="E46" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="52" t="s">
+      <c r="F46" s="95" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1">
-      <c r="A47" s="67"/>
+      <c r="A47" s="88"/>
       <c r="B47" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="98"/>
+      <c r="C47" s="91"/>
       <c r="D47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="100"/>
-      <c r="F47" s="53"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="96"/>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1">
-      <c r="A48" s="67"/>
+      <c r="A48" s="88"/>
       <c r="B48" s="5" t="s">
         <v>29</v>
       </c>
@@ -2576,11 +2574,11 @@
       <c r="D48" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="100"/>
-      <c r="F48" s="53"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="96"/>
     </row>
     <row r="49" spans="1:6" ht="30" customHeight="1">
-      <c r="A49" s="67"/>
+      <c r="A49" s="88"/>
       <c r="B49" s="24" t="s">
         <v>30</v>
       </c>
@@ -2590,11 +2588,11 @@
       <c r="D49" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="100"/>
-      <c r="F49" s="53"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="96"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1">
-      <c r="A50" s="67"/>
+      <c r="A50" s="88"/>
       <c r="B50" s="24" t="s">
         <v>31</v>
       </c>
@@ -2604,11 +2602,11 @@
       <c r="D50" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="100"/>
-      <c r="F50" s="53"/>
+      <c r="E50" s="93"/>
+      <c r="F50" s="96"/>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1">
-      <c r="A51" s="67"/>
+      <c r="A51" s="88"/>
       <c r="B51" s="24" t="s">
         <v>32</v>
       </c>
@@ -2616,11 +2614,11 @@
       <c r="D51" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="100"/>
-      <c r="F51" s="53"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="96"/>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1">
-      <c r="A52" s="67"/>
+      <c r="A52" s="88"/>
       <c r="B52" s="24" t="s">
         <v>33</v>
       </c>
@@ -2628,29 +2626,29 @@
       <c r="D52" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="100"/>
-      <c r="F52" s="53"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="96"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A53" s="96"/>
+      <c r="A53" s="89"/>
       <c r="B53" s="25"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
-      <c r="E53" s="101"/>
-      <c r="F53" s="54"/>
+      <c r="E53" s="94"/>
+      <c r="F53" s="97"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A54" s="102" t="s">
+      <c r="A54" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="B54" s="102"/>
-      <c r="C54" s="102"/>
-      <c r="D54" s="102"/>
-      <c r="E54" s="102"/>
-      <c r="F54" s="102"/>
+      <c r="B54" s="98"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="98"/>
+      <c r="E54" s="98"/>
+      <c r="F54" s="98"/>
     </row>
     <row r="55" spans="1:6" ht="30" customHeight="1">
-      <c r="A55" s="71" t="s">
+      <c r="A55" s="78" t="s">
         <v>62</v>
       </c>
       <c r="B55" s="12" t="s">
@@ -2661,10 +2659,10 @@
         <v>34</v>
       </c>
       <c r="E55" s="3"/>
-      <c r="F55" s="73"/>
+      <c r="F55" s="81"/>
     </row>
     <row r="56" spans="1:6" ht="30" customHeight="1">
-      <c r="A56" s="89"/>
+      <c r="A56" s="79"/>
       <c r="B56" s="8" t="s">
         <v>15</v>
       </c>
@@ -2673,10 +2671,10 @@
         <v>15</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="80"/>
+      <c r="F56" s="82"/>
     </row>
     <row r="57" spans="1:6" ht="45" customHeight="1">
-      <c r="A57" s="89"/>
+      <c r="A57" s="79"/>
       <c r="B57" s="9" t="s">
         <v>10</v>
       </c>
@@ -2685,26 +2683,26 @@
         <v>10</v>
       </c>
       <c r="E57" s="2"/>
-      <c r="F57" s="80"/>
+      <c r="F57" s="82"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="89"/>
+      <c r="A58" s="79"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="80"/>
+      <c r="F58" s="82"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A59" s="72"/>
+      <c r="A59" s="80"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="74"/>
+      <c r="F59" s="83"/>
     </row>
     <row r="60" spans="1:6" ht="30" customHeight="1">
-      <c r="A60" s="77" t="s">
+      <c r="A60" s="99" t="s">
         <v>12</v>
       </c>
       <c r="B60" s="3"/>
@@ -2715,26 +2713,26 @@
         <v>13</v>
       </c>
       <c r="E60" s="3"/>
-      <c r="F60" s="73"/>
+      <c r="F60" s="81"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="78"/>
+      <c r="A61" s="100"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="80"/>
+      <c r="F61" s="82"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A62" s="79"/>
+      <c r="A62" s="101"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="74"/>
+      <c r="F62" s="83"/>
     </row>
     <row r="63" spans="1:6" ht="30" customHeight="1">
-      <c r="A63" s="71" t="s">
+      <c r="A63" s="78" t="s">
         <v>0</v>
       </c>
       <c r="B63" s="8" t="s">
@@ -2745,10 +2743,10 @@
         <v>7</v>
       </c>
       <c r="E63" s="3"/>
-      <c r="F63" s="73"/>
+      <c r="F63" s="81"/>
     </row>
     <row r="64" spans="1:6" ht="30" customHeight="1">
-      <c r="A64" s="89"/>
+      <c r="A64" s="79"/>
       <c r="B64" s="8" t="s">
         <v>8</v>
       </c>
@@ -2757,10 +2755,10 @@
         <v>8</v>
       </c>
       <c r="E64" s="1"/>
-      <c r="F64" s="80"/>
+      <c r="F64" s="82"/>
     </row>
     <row r="65" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A65" s="72"/>
+      <c r="A65" s="80"/>
       <c r="B65" s="13" t="s">
         <v>9</v>
       </c>
@@ -2769,10 +2767,10 @@
         <v>9</v>
       </c>
       <c r="E65" s="4"/>
-      <c r="F65" s="74"/>
+      <c r="F65" s="83"/>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1">
-      <c r="A66" s="71" t="s">
+      <c r="A66" s="78" t="s">
         <v>42</v>
       </c>
       <c r="B66" s="9" t="s">
@@ -2783,10 +2781,10 @@
         <v>39</v>
       </c>
       <c r="E66" s="3"/>
-      <c r="F66" s="73"/>
+      <c r="F66" s="81"/>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1">
-      <c r="A67" s="89"/>
+      <c r="A67" s="79"/>
       <c r="B67" s="9" t="s">
         <v>40</v>
       </c>
@@ -2795,10 +2793,10 @@
         <v>40</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="80"/>
+      <c r="F67" s="82"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A68" s="72"/>
+      <c r="A68" s="80"/>
       <c r="B68" s="9" t="s">
         <v>41</v>
       </c>
@@ -2807,17 +2805,17 @@
         <v>41</v>
       </c>
       <c r="E68" s="4"/>
-      <c r="F68" s="74"/>
+      <c r="F68" s="83"/>
     </row>
     <row r="69" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A69" s="166" t="s">
-        <v>170</v>
+      <c r="A69" s="108" t="s">
+        <v>169</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>34</v>
@@ -2825,12 +2823,12 @@
       <c r="E69" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F69" s="73" t="s">
+      <c r="F69" s="81" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A70" s="167"/>
+      <c r="A70" s="109"/>
       <c r="B70" s="1" t="s">
         <v>17</v>
       </c>
@@ -2843,15 +2841,15 @@
       <c r="E70" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F70" s="80"/>
+      <c r="F70" s="82"/>
     </row>
     <row r="71" spans="1:6" ht="30" customHeight="1">
-      <c r="A71" s="167"/>
+      <c r="A71" s="109"/>
       <c r="B71" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>10</v>
@@ -2859,10 +2857,10 @@
       <c r="E71" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F71" s="80"/>
+      <c r="F71" s="82"/>
     </row>
     <row r="72" spans="1:6" ht="30" customHeight="1">
-      <c r="A72" s="167"/>
+      <c r="A72" s="109"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="8" t="s">
@@ -2871,10 +2869,10 @@
       <c r="E72" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="80"/>
+      <c r="F72" s="82"/>
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1">
-      <c r="A73" s="167"/>
+      <c r="A73" s="109"/>
       <c r="B73" s="7"/>
       <c r="C73" s="1"/>
       <c r="D73" s="8" t="s">
@@ -2883,10 +2881,10 @@
       <c r="E73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F73" s="80"/>
+      <c r="F73" s="82"/>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1">
-      <c r="A74" s="167"/>
+      <c r="A74" s="109"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="8" t="s">
@@ -2895,10 +2893,10 @@
       <c r="E74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F74" s="80"/>
+      <c r="F74" s="82"/>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A75" s="168"/>
+      <c r="A75" s="110"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="29" t="s">
@@ -2907,10 +2905,10 @@
       <c r="E75" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F75" s="74"/>
+      <c r="F75" s="83"/>
     </row>
     <row r="76" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A76" s="83" t="s">
+      <c r="A76" s="102" t="s">
         <v>58</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -2925,12 +2923,12 @@
       <c r="E76" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F76" s="73" t="s">
+      <c r="F76" s="81" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A77" s="84"/>
+      <c r="A77" s="103"/>
       <c r="B77" s="1" t="s">
         <v>17</v>
       </c>
@@ -2943,10 +2941,10 @@
       <c r="E77" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F77" s="80"/>
+      <c r="F77" s="82"/>
     </row>
     <row r="78" spans="1:6" ht="30" customHeight="1">
-      <c r="A78" s="84"/>
+      <c r="A78" s="103"/>
       <c r="B78" s="1" t="s">
         <v>18</v>
       </c>
@@ -2957,10 +2955,10 @@
       <c r="E78" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F78" s="80"/>
+      <c r="F78" s="82"/>
     </row>
     <row r="79" spans="1:6" ht="30" customHeight="1">
-      <c r="A79" s="84"/>
+      <c r="A79" s="103"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="8" t="s">
@@ -2969,10 +2967,10 @@
       <c r="E79" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F79" s="80"/>
+      <c r="F79" s="82"/>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1">
-      <c r="A80" s="84"/>
+      <c r="A80" s="103"/>
       <c r="B80" s="7"/>
       <c r="C80" s="1"/>
       <c r="D80" s="8" t="s">
@@ -2981,10 +2979,10 @@
       <c r="E80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F80" s="80"/>
+      <c r="F80" s="82"/>
     </row>
     <row r="81" spans="1:6" ht="15" customHeight="1">
-      <c r="A81" s="84"/>
+      <c r="A81" s="103"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="8" t="s">
@@ -2993,10 +2991,10 @@
       <c r="E81" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F81" s="80"/>
+      <c r="F81" s="82"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A82" s="85"/>
+      <c r="A82" s="104"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="29" t="s">
@@ -3005,10 +3003,10 @@
       <c r="E82" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F82" s="74"/>
+      <c r="F82" s="83"/>
     </row>
     <row r="83" spans="1:6" ht="15" customHeight="1">
-      <c r="A83" s="71" t="s">
+      <c r="A83" s="78" t="s">
         <v>66</v>
       </c>
       <c r="B83" s="26" t="s">
@@ -3023,30 +3021,30 @@
       <c r="E83" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F83" s="90" t="s">
+      <c r="F83" s="105" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="89"/>
+      <c r="A84" s="79"/>
       <c r="B84" s="30"/>
       <c r="C84" s="22"/>
       <c r="D84" s="21"/>
       <c r="E84" s="31"/>
-      <c r="F84" s="91"/>
+      <c r="F84" s="106"/>
     </row>
     <row r="85" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A85" s="72"/>
+      <c r="A85" s="80"/>
       <c r="B85" s="25"/>
       <c r="C85" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D85" s="16"/>
       <c r="E85" s="17"/>
-      <c r="F85" s="92"/>
+      <c r="F85" s="107"/>
     </row>
     <row r="86" spans="1:6" ht="15" customHeight="1">
-      <c r="A86" s="71" t="s">
+      <c r="A86" s="78" t="s">
         <v>112</v>
       </c>
       <c r="B86" s="27" t="s">
@@ -3061,22 +3059,22 @@
       <c r="E86" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F86" s="73" t="s">
+      <c r="F86" s="81" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A87" s="72"/>
+      <c r="A87" s="80"/>
       <c r="B87" s="28"/>
       <c r="C87" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="19"/>
-      <c r="F87" s="74"/>
+      <c r="F87" s="83"/>
     </row>
     <row r="88" spans="1:6" ht="15" customHeight="1">
-      <c r="A88" s="71" t="s">
+      <c r="A88" s="78" t="s">
         <v>65</v>
       </c>
       <c r="B88" s="27" t="s">
@@ -3091,59 +3089,59 @@
       <c r="E88" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F88" s="75"/>
+      <c r="F88" s="115"/>
     </row>
     <row r="89" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A89" s="72"/>
+      <c r="A89" s="80"/>
       <c r="B89" s="28"/>
       <c r="C89" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="19"/>
-      <c r="F89" s="76"/>
+      <c r="F89" s="117"/>
     </row>
     <row r="90" spans="1:6" ht="45" customHeight="1">
-      <c r="A90" s="77" t="s">
-        <v>169</v>
+      <c r="A90" s="99" t="s">
+        <v>168</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="73" t="s">
-        <v>173</v>
+      <c r="F90" s="81" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A91" s="78"/>
+      <c r="A91" s="100"/>
       <c r="B91" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="80"/>
+      <c r="F91" s="82"/>
     </row>
     <row r="92" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A92" s="79"/>
+      <c r="A92" s="101"/>
       <c r="B92" s="25"/>
       <c r="C92" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
-      <c r="F92" s="74"/>
+      <c r="F92" s="83"/>
     </row>
     <row r="93" spans="1:6" ht="30" customHeight="1">
-      <c r="A93" s="77" t="s">
-        <v>180</v>
+      <c r="A93" s="99" t="s">
+        <v>179</v>
       </c>
       <c r="B93" s="15" t="s">
         <v>108</v>
@@ -3153,33 +3151,33 @@
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
-      <c r="F93" s="73" t="s">
+      <c r="F93" s="81" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="30" customHeight="1">
-      <c r="A94" s="78"/>
+      <c r="A94" s="100"/>
       <c r="B94" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="80"/>
+      <c r="F94" s="82"/>
     </row>
     <row r="95" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A95" s="79"/>
+      <c r="A95" s="101"/>
       <c r="B95" s="25"/>
       <c r="C95" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="74"/>
+      <c r="F95" s="83"/>
     </row>
     <row r="96" spans="1:6" ht="30" customHeight="1">
-      <c r="A96" s="83" t="s">
-        <v>168</v>
+      <c r="A96" s="102" t="s">
+        <v>167</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="12" t="s">
@@ -3187,62 +3185,62 @@
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
-      <c r="F96" s="73" t="s">
+      <c r="F96" s="81" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="84"/>
+      <c r="A97" s="103"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="80"/>
+      <c r="F97" s="82"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="84"/>
+      <c r="A98" s="103"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="80"/>
+      <c r="F98" s="82"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="84"/>
+      <c r="A99" s="103"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="80"/>
+      <c r="F99" s="82"/>
     </row>
     <row r="100" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A100" s="85"/>
+      <c r="A100" s="104"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
-      <c r="F100" s="74"/>
+      <c r="F100" s="83"/>
     </row>
     <row r="101" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A101" s="86" t="s">
+      <c r="A101" s="111" t="s">
         <v>89</v>
       </c>
-      <c r="B101" s="86"/>
-      <c r="C101" s="86"/>
-      <c r="D101" s="86"/>
-      <c r="E101" s="86"/>
-      <c r="F101" s="86"/>
+      <c r="B101" s="111"/>
+      <c r="C101" s="111"/>
+      <c r="D101" s="111"/>
+      <c r="E101" s="111"/>
+      <c r="F101" s="111"/>
     </row>
     <row r="102" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A102" s="61" t="s">
+      <c r="A102" s="112" t="s">
         <v>50</v>
       </c>
       <c r="B102" s="3"/>
@@ -3253,12 +3251,12 @@
       <c r="E102" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F102" s="75" t="s">
+      <c r="F102" s="115" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A103" s="62"/>
+      <c r="A103" s="113"/>
       <c r="B103" s="1"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8" t="s">
@@ -3267,10 +3265,10 @@
       <c r="E103" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F103" s="88"/>
+      <c r="F103" s="116"/>
     </row>
     <row r="104" spans="1:6" ht="30" customHeight="1">
-      <c r="A104" s="62"/>
+      <c r="A104" s="113"/>
       <c r="B104" s="1"/>
       <c r="C104" s="8"/>
       <c r="D104" s="9" t="s">
@@ -3279,10 +3277,10 @@
       <c r="E104" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F104" s="88"/>
+      <c r="F104" s="116"/>
     </row>
     <row r="105" spans="1:6" ht="30" customHeight="1">
-      <c r="A105" s="62"/>
+      <c r="A105" s="113"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="8" t="s">
@@ -3291,10 +3289,10 @@
       <c r="E105" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F105" s="88"/>
+      <c r="F105" s="116"/>
     </row>
     <row r="106" spans="1:6" ht="15" customHeight="1">
-      <c r="A106" s="62"/>
+      <c r="A106" s="113"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="8" t="s">
@@ -3303,10 +3301,10 @@
       <c r="E106" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F106" s="88"/>
+      <c r="F106" s="116"/>
     </row>
     <row r="107" spans="1:6" ht="15" customHeight="1">
-      <c r="A107" s="62"/>
+      <c r="A107" s="113"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="8" t="s">
@@ -3315,10 +3313,10 @@
       <c r="E107" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F107" s="88"/>
+      <c r="F107" s="116"/>
     </row>
     <row r="108" spans="1:6" ht="15" customHeight="1">
-      <c r="A108" s="62"/>
+      <c r="A108" s="113"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="8" t="s">
@@ -3327,10 +3325,10 @@
       <c r="E108" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F108" s="88"/>
+      <c r="F108" s="116"/>
     </row>
     <row r="109" spans="1:6" ht="15" customHeight="1">
-      <c r="A109" s="62"/>
+      <c r="A109" s="113"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="9" t="s">
@@ -3339,10 +3337,10 @@
       <c r="E109" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F109" s="88"/>
+      <c r="F109" s="116"/>
     </row>
     <row r="110" spans="1:6" ht="15" customHeight="1">
-      <c r="A110" s="62"/>
+      <c r="A110" s="113"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="9" t="s">
@@ -3351,10 +3349,10 @@
       <c r="E110" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F110" s="88"/>
+      <c r="F110" s="116"/>
     </row>
     <row r="111" spans="1:6" ht="15" customHeight="1">
-      <c r="A111" s="62"/>
+      <c r="A111" s="113"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="9" t="s">
@@ -3363,59 +3361,59 @@
       <c r="E111" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F111" s="88"/>
+      <c r="F111" s="116"/>
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1">
-      <c r="A112" s="62"/>
+      <c r="A112" s="113"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E112" s="19"/>
-      <c r="F112" s="88"/>
+      <c r="F112" s="116"/>
     </row>
     <row r="113" spans="1:6" ht="15" customHeight="1">
-      <c r="A113" s="62"/>
+      <c r="A113" s="113"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E113" s="19"/>
-      <c r="F113" s="88"/>
+      <c r="F113" s="116"/>
     </row>
     <row r="114" spans="1:6" ht="15" customHeight="1">
-      <c r="A114" s="62"/>
+      <c r="A114" s="113"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E114" s="19"/>
-      <c r="F114" s="88"/>
+      <c r="F114" s="116"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="62"/>
+      <c r="A115" s="113"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E115" s="19"/>
-      <c r="F115" s="88"/>
+      <c r="F115" s="116"/>
     </row>
     <row r="116" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A116" s="87"/>
+      <c r="A116" s="114"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="18"/>
       <c r="E116" s="19"/>
-      <c r="F116" s="76"/>
+      <c r="F116" s="117"/>
     </row>
     <row r="117" spans="1:6" ht="30" customHeight="1">
-      <c r="A117" s="164" t="s">
-        <v>221</v>
+      <c r="A117" s="46" t="s">
+        <v>219</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>19</v>
@@ -3426,15 +3424,15 @@
       <c r="D117" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E117" s="63" t="s">
+      <c r="E117" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="F117" s="58" t="s">
+      <c r="F117" s="51" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="30" customHeight="1">
-      <c r="A118" s="165"/>
+      <c r="A118" s="47"/>
       <c r="B118" s="1" t="s">
         <v>22</v>
       </c>
@@ -3444,11 +3442,11 @@
       <c r="D118" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E118" s="64"/>
-      <c r="F118" s="59"/>
+      <c r="E118" s="49"/>
+      <c r="F118" s="52"/>
     </row>
     <row r="119" spans="1:6" ht="30" customHeight="1">
-      <c r="A119" s="165"/>
+      <c r="A119" s="47"/>
       <c r="B119" s="1" t="s">
         <v>20</v>
       </c>
@@ -3458,11 +3456,11 @@
       <c r="D119" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E119" s="64"/>
-      <c r="F119" s="59"/>
+      <c r="E119" s="49"/>
+      <c r="F119" s="52"/>
     </row>
     <row r="120" spans="1:6" ht="30" customHeight="1">
-      <c r="A120" s="165"/>
+      <c r="A120" s="47"/>
       <c r="B120" s="1" t="s">
         <v>21</v>
       </c>
@@ -3470,11 +3468,11 @@
       <c r="D120" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E120" s="64"/>
-      <c r="F120" s="59"/>
+      <c r="E120" s="49"/>
+      <c r="F120" s="52"/>
     </row>
     <row r="121" spans="1:6" ht="15" customHeight="1">
-      <c r="A121" s="165"/>
+      <c r="A121" s="47"/>
       <c r="B121" s="1" t="s">
         <v>23</v>
       </c>
@@ -3482,11 +3480,11 @@
       <c r="D121" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E121" s="64"/>
-      <c r="F121" s="59"/>
+      <c r="E121" s="49"/>
+      <c r="F121" s="52"/>
     </row>
     <row r="122" spans="1:6" ht="15" customHeight="1">
-      <c r="A122" s="165"/>
+      <c r="A122" s="47"/>
       <c r="B122" s="1" t="s">
         <v>24</v>
       </c>
@@ -3494,22 +3492,22 @@
       <c r="D122" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E122" s="64"/>
-      <c r="F122" s="59"/>
+      <c r="E122" s="49"/>
+      <c r="F122" s="52"/>
     </row>
     <row r="123" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A123" s="165"/>
+      <c r="A123" s="47"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E123" s="65"/>
-      <c r="F123" s="60"/>
+      <c r="E123" s="50"/>
+      <c r="F123" s="53"/>
     </row>
     <row r="124" spans="1:6" ht="30" customHeight="1">
-      <c r="A124" s="61" t="s">
-        <v>193</v>
+      <c r="A124" s="112" t="s">
+        <v>192</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>19</v>
@@ -3520,15 +3518,15 @@
       <c r="D124" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E124" s="63" t="s">
+      <c r="E124" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="F124" s="58" t="s">
+      <c r="F124" s="51" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="30" customHeight="1">
-      <c r="A125" s="62"/>
+      <c r="A125" s="113"/>
       <c r="B125" s="1" t="s">
         <v>22</v>
       </c>
@@ -3538,11 +3536,11 @@
       <c r="D125" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E125" s="64"/>
-      <c r="F125" s="59"/>
+      <c r="E125" s="49"/>
+      <c r="F125" s="52"/>
     </row>
     <row r="126" spans="1:6" ht="30" customHeight="1">
-      <c r="A126" s="62"/>
+      <c r="A126" s="113"/>
       <c r="B126" s="1" t="s">
         <v>20</v>
       </c>
@@ -3552,11 +3550,11 @@
       <c r="D126" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E126" s="64"/>
-      <c r="F126" s="59"/>
+      <c r="E126" s="49"/>
+      <c r="F126" s="52"/>
     </row>
     <row r="127" spans="1:6" ht="30" customHeight="1">
-      <c r="A127" s="62"/>
+      <c r="A127" s="113"/>
       <c r="B127" s="1" t="s">
         <v>21</v>
       </c>
@@ -3564,11 +3562,11 @@
       <c r="D127" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E127" s="64"/>
-      <c r="F127" s="59"/>
+      <c r="E127" s="49"/>
+      <c r="F127" s="52"/>
     </row>
     <row r="128" spans="1:6" ht="15" customHeight="1">
-      <c r="A128" s="62"/>
+      <c r="A128" s="113"/>
       <c r="B128" s="1" t="s">
         <v>23</v>
       </c>
@@ -3576,11 +3574,11 @@
       <c r="D128" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E128" s="64"/>
-      <c r="F128" s="59"/>
+      <c r="E128" s="49"/>
+      <c r="F128" s="52"/>
     </row>
     <row r="129" spans="1:9" ht="15" customHeight="1">
-      <c r="A129" s="62"/>
+      <c r="A129" s="113"/>
       <c r="B129" s="1" t="s">
         <v>24</v>
       </c>
@@ -3588,22 +3586,22 @@
       <c r="D129" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E129" s="64"/>
-      <c r="F129" s="59"/>
+      <c r="E129" s="49"/>
+      <c r="F129" s="52"/>
     </row>
     <row r="130" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A130" s="62"/>
+      <c r="A130" s="113"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E130" s="65"/>
-      <c r="F130" s="60"/>
+      <c r="E130" s="50"/>
+      <c r="F130" s="53"/>
     </row>
     <row r="131" spans="1:9" ht="30" customHeight="1">
-      <c r="A131" s="61" t="s">
-        <v>194</v>
+      <c r="A131" s="112" t="s">
+        <v>193</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>19</v>
@@ -3614,15 +3612,15 @@
       <c r="D131" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E131" s="63" t="s">
+      <c r="E131" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="F131" s="58" t="s">
+      <c r="F131" s="51" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="30" customHeight="1">
-      <c r="A132" s="62"/>
+      <c r="A132" s="113"/>
       <c r="B132" s="1" t="s">
         <v>22</v>
       </c>
@@ -3632,11 +3630,11 @@
       <c r="D132" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E132" s="64"/>
-      <c r="F132" s="59"/>
+      <c r="E132" s="49"/>
+      <c r="F132" s="52"/>
     </row>
     <row r="133" spans="1:9" ht="30" customHeight="1">
-      <c r="A133" s="62"/>
+      <c r="A133" s="113"/>
       <c r="B133" s="1" t="s">
         <v>20</v>
       </c>
@@ -3646,11 +3644,11 @@
       <c r="D133" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E133" s="64"/>
-      <c r="F133" s="59"/>
+      <c r="E133" s="49"/>
+      <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9" ht="30" customHeight="1">
-      <c r="A134" s="62"/>
+      <c r="A134" s="113"/>
       <c r="B134" s="1" t="s">
         <v>21</v>
       </c>
@@ -3658,11 +3656,11 @@
       <c r="D134" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E134" s="64"/>
-      <c r="F134" s="59"/>
+      <c r="E134" s="49"/>
+      <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9" ht="15" customHeight="1">
-      <c r="A135" s="62"/>
+      <c r="A135" s="113"/>
       <c r="B135" s="1" t="s">
         <v>23</v>
       </c>
@@ -3670,11 +3668,11 @@
       <c r="D135" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E135" s="64"/>
-      <c r="F135" s="59"/>
+      <c r="E135" s="49"/>
+      <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9" ht="15" customHeight="1">
-      <c r="A136" s="62"/>
+      <c r="A136" s="113"/>
       <c r="B136" s="1" t="s">
         <v>24</v>
       </c>
@@ -3682,39 +3680,39 @@
       <c r="D136" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E136" s="64"/>
-      <c r="F136" s="59"/>
+      <c r="E136" s="49"/>
+      <c r="F136" s="52"/>
     </row>
     <row r="137" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A137" s="62"/>
+      <c r="A137" s="113"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E137" s="65"/>
-      <c r="F137" s="60"/>
+      <c r="E137" s="50"/>
+      <c r="F137" s="53"/>
     </row>
     <row r="138" spans="1:9" ht="15" customHeight="1">
-      <c r="A138" s="68" t="s">
+      <c r="A138" s="121" t="s">
+        <v>189</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="E138" s="63"/>
-      <c r="F138" s="58" t="s">
-        <v>185</v>
+        <v>188</v>
+      </c>
+      <c r="E138" s="48"/>
+      <c r="F138" s="51" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="69"/>
+      <c r="A139" s="122"/>
       <c r="B139" s="1" t="s">
         <v>23</v>
       </c>
@@ -3722,122 +3720,122 @@
         <v>148</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="E139" s="64"/>
-      <c r="F139" s="59"/>
+        <v>187</v>
+      </c>
+      <c r="E139" s="49"/>
+      <c r="F139" s="52"/>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="69"/>
+      <c r="A140" s="122"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D140" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="E140" s="64"/>
-      <c r="F140" s="59"/>
+        <v>186</v>
+      </c>
+      <c r="E140" s="49"/>
+      <c r="F140" s="52"/>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="69"/>
+      <c r="A141" s="122"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D141" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="E141" s="64"/>
-      <c r="F141" s="59"/>
+        <v>185</v>
+      </c>
+      <c r="E141" s="49"/>
+      <c r="F141" s="52"/>
     </row>
     <row r="142" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A142" s="69"/>
+      <c r="A142" s="122"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D142" s="8"/>
-      <c r="E142" s="64"/>
-      <c r="F142" s="59"/>
+      <c r="E142" s="49"/>
+      <c r="F142" s="52"/>
     </row>
     <row r="143" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A143" s="69"/>
+      <c r="A143" s="122"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D143" s="8"/>
-      <c r="E143" s="64"/>
-      <c r="F143" s="59"/>
+      <c r="E143" s="49"/>
+      <c r="F143" s="52"/>
     </row>
     <row r="144" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A144" s="69"/>
+      <c r="A144" s="122"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D144" s="8"/>
-      <c r="E144" s="64"/>
-      <c r="F144" s="59"/>
+      <c r="E144" s="49"/>
+      <c r="F144" s="52"/>
       <c r="I144" s="36"/>
     </row>
     <row r="145" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A145" s="69"/>
+      <c r="A145" s="122"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D145" s="8"/>
-      <c r="E145" s="64"/>
-      <c r="F145" s="59"/>
+      <c r="E145" s="49"/>
+      <c r="F145" s="52"/>
       <c r="I145" s="36"/>
     </row>
     <row r="146" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A146" s="69"/>
+      <c r="A146" s="122"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D146" s="8"/>
-      <c r="E146" s="64"/>
-      <c r="F146" s="59"/>
+      <c r="E146" s="49"/>
+      <c r="F146" s="52"/>
       <c r="I146" s="36"/>
     </row>
     <row r="147" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A147" s="69"/>
+      <c r="A147" s="122"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D147" s="8"/>
-      <c r="E147" s="64"/>
-      <c r="F147" s="59"/>
+      <c r="E147" s="49"/>
+      <c r="F147" s="52"/>
       <c r="I147" s="36"/>
     </row>
     <row r="148" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A148" s="69"/>
+      <c r="A148" s="122"/>
       <c r="B148" s="2"/>
       <c r="C148" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D148" s="13"/>
-      <c r="E148" s="64"/>
-      <c r="F148" s="59"/>
+      <c r="E148" s="49"/>
+      <c r="F148" s="52"/>
       <c r="I148" s="36"/>
     </row>
     <row r="149" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A149" s="70"/>
+      <c r="A149" s="123"/>
       <c r="B149" s="4"/>
       <c r="C149" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D149" s="29"/>
-      <c r="E149" s="65"/>
-      <c r="F149" s="60"/>
+      <c r="E149" s="50"/>
+      <c r="F149" s="53"/>
     </row>
     <row r="150" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A150" s="81" t="s">
+      <c r="A150" s="127" t="s">
         <v>51</v>
       </c>
       <c r="B150" s="23" t="s">
@@ -3846,20 +3844,20 @@
       <c r="C150" s="22"/>
       <c r="D150" s="22"/>
       <c r="E150" s="22"/>
-      <c r="F150" s="52" t="s">
+      <c r="F150" s="95" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A151" s="82"/>
+      <c r="A151" s="128"/>
       <c r="B151" s="16"/>
       <c r="C151" s="17"/>
       <c r="D151" s="17"/>
       <c r="E151" s="17"/>
-      <c r="F151" s="54"/>
+      <c r="F151" s="97"/>
     </row>
     <row r="152" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A152" s="46" t="s">
+      <c r="A152" s="118" t="s">
         <v>52</v>
       </c>
       <c r="B152" s="15" t="s">
@@ -3868,32 +3866,32 @@
       <c r="C152" s="14"/>
       <c r="D152" s="14"/>
       <c r="E152" s="14"/>
-      <c r="F152" s="52" t="s">
+      <c r="F152" s="95" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A153" s="47"/>
+      <c r="A153" s="119"/>
       <c r="B153" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C153" s="31"/>
       <c r="D153" s="31"/>
       <c r="E153" s="31"/>
-      <c r="F153" s="53"/>
+      <c r="F153" s="96"/>
     </row>
     <row r="154" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A154" s="48"/>
+      <c r="A154" s="120"/>
       <c r="B154" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C154" s="19"/>
       <c r="D154" s="19"/>
       <c r="E154" s="19"/>
-      <c r="F154" s="54"/>
+      <c r="F154" s="97"/>
     </row>
     <row r="155" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A155" s="46" t="s">
+      <c r="A155" s="118" t="s">
         <v>152</v>
       </c>
       <c r="B155" s="15" t="s">
@@ -3902,36 +3900,36 @@
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
-      <c r="F155" s="73" t="s">
+      <c r="F155" s="81" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A156" s="47"/>
+      <c r="A156" s="119"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
-      <c r="F156" s="80"/>
+      <c r="F156" s="82"/>
     </row>
     <row r="157" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A157" s="47"/>
+      <c r="A157" s="119"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
-      <c r="F157" s="80"/>
+      <c r="F157" s="82"/>
     </row>
     <row r="158" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A158" s="48"/>
+      <c r="A158" s="120"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
-      <c r="F158" s="74"/>
+      <c r="F158" s="83"/>
     </row>
     <row r="159" spans="1:9" ht="15" customHeight="1">
-      <c r="A159" s="46" t="s">
+      <c r="A159" s="118" t="s">
         <v>86</v>
       </c>
       <c r="B159" s="15" t="s">
@@ -3940,443 +3938,396 @@
       <c r="C159" s="14"/>
       <c r="D159" s="14"/>
       <c r="E159" s="14"/>
-      <c r="F159" s="52" t="s">
+      <c r="F159" s="95" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15" customHeight="1">
-      <c r="A160" s="47"/>
+      <c r="A160" s="119"/>
       <c r="B160" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C160" s="31"/>
       <c r="D160" s="31"/>
       <c r="E160" s="31"/>
-      <c r="F160" s="53"/>
+      <c r="F160" s="96"/>
     </row>
     <row r="161" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A161" s="48"/>
+      <c r="A161" s="120"/>
       <c r="B161" s="16" t="s">
         <v>84</v>
       </c>
       <c r="C161" s="17"/>
       <c r="D161" s="17"/>
       <c r="E161" s="17"/>
-      <c r="F161" s="54"/>
+      <c r="F161" s="97"/>
     </row>
     <row r="162" spans="1:6" ht="15" customHeight="1">
-      <c r="A162" s="46" t="s">
-        <v>176</v>
+      <c r="A162" s="118" t="s">
+        <v>175</v>
       </c>
       <c r="B162" s="15"/>
       <c r="C162" s="14"/>
       <c r="D162" s="14"/>
       <c r="E162" s="14"/>
-      <c r="F162" s="52" t="s">
-        <v>177</v>
+      <c r="F162" s="95" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="15" customHeight="1">
-      <c r="A163" s="47"/>
+      <c r="A163" s="119"/>
       <c r="B163" s="21"/>
       <c r="C163" s="31"/>
       <c r="D163" s="31"/>
       <c r="E163" s="31"/>
-      <c r="F163" s="53"/>
+      <c r="F163" s="96"/>
     </row>
     <row r="164" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A164" s="48"/>
+      <c r="A164" s="120"/>
       <c r="B164" s="16"/>
       <c r="C164" s="17"/>
       <c r="D164" s="17"/>
       <c r="E164" s="17"/>
-      <c r="F164" s="54"/>
+      <c r="F164" s="97"/>
     </row>
     <row r="165" spans="1:6" ht="15" customHeight="1">
-      <c r="A165" s="46" t="s">
-        <v>179</v>
+      <c r="A165" s="118" t="s">
+        <v>178</v>
       </c>
       <c r="B165" s="15"/>
       <c r="C165" s="14"/>
       <c r="D165" s="14"/>
       <c r="E165" s="14"/>
-      <c r="F165" s="52" t="s">
-        <v>178</v>
+      <c r="F165" s="95" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="15" customHeight="1">
-      <c r="A166" s="47"/>
+      <c r="A166" s="119"/>
       <c r="B166" s="21"/>
       <c r="C166" s="31"/>
       <c r="D166" s="31"/>
       <c r="E166" s="31"/>
-      <c r="F166" s="53"/>
+      <c r="F166" s="96"/>
     </row>
     <row r="167" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A167" s="48"/>
+      <c r="A167" s="120"/>
       <c r="B167" s="16"/>
       <c r="C167" s="17"/>
       <c r="D167" s="17"/>
       <c r="E167" s="17"/>
-      <c r="F167" s="54"/>
+      <c r="F167" s="97"/>
     </row>
     <row r="168" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A168" s="46" t="s">
-        <v>217</v>
+      <c r="A168" s="118" t="s">
+        <v>215</v>
       </c>
       <c r="B168" s="15"/>
       <c r="C168" s="14"/>
       <c r="D168" s="14"/>
       <c r="E168" s="14"/>
-      <c r="F168" s="52" t="s">
-        <v>218</v>
+      <c r="F168" s="95" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A169" s="47"/>
+      <c r="A169" s="119"/>
       <c r="B169" s="21"/>
       <c r="C169" s="31"/>
       <c r="D169" s="31"/>
       <c r="E169" s="31"/>
-      <c r="F169" s="53"/>
+      <c r="F169" s="96"/>
     </row>
     <row r="170" spans="1:6" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A170" s="48"/>
+      <c r="A170" s="120"/>
       <c r="B170" s="16"/>
       <c r="C170" s="17"/>
       <c r="D170" s="17"/>
       <c r="E170" s="17"/>
-      <c r="F170" s="54"/>
+      <c r="F170" s="97"/>
     </row>
     <row r="171" spans="1:6" ht="60" customHeight="1">
-      <c r="A171" s="46" t="s">
-        <v>219</v>
+      <c r="A171" s="118" t="s">
+        <v>217</v>
       </c>
       <c r="B171" s="15"/>
       <c r="C171" s="14"/>
       <c r="D171" s="14"/>
       <c r="E171" s="14"/>
-      <c r="F171" s="49" t="s">
-        <v>220</v>
+      <c r="F171" s="129" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="60" customHeight="1">
-      <c r="A172" s="47"/>
+      <c r="A172" s="119"/>
       <c r="B172" s="21"/>
       <c r="C172" s="31"/>
       <c r="D172" s="31"/>
       <c r="E172" s="31"/>
-      <c r="F172" s="50"/>
+      <c r="F172" s="130"/>
     </row>
     <row r="173" spans="1:6" ht="60" customHeight="1" thickBot="1">
-      <c r="A173" s="48"/>
+      <c r="A173" s="120"/>
       <c r="B173" s="16"/>
       <c r="C173" s="17"/>
       <c r="D173" s="17"/>
       <c r="E173" s="17"/>
-      <c r="F173" s="51"/>
+      <c r="F173" s="131"/>
     </row>
     <row r="174" spans="1:6" ht="15" customHeight="1">
-      <c r="A174" s="57" t="s">
-        <v>203</v>
+      <c r="A174" s="124" t="s">
+        <v>201</v>
       </c>
       <c r="B174" s="40"/>
       <c r="C174" s="37"/>
       <c r="D174" s="43"/>
       <c r="E174" s="37"/>
-      <c r="F174" s="52" t="s">
-        <v>210</v>
+      <c r="F174" s="95" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="55"/>
+      <c r="A175" s="125"/>
       <c r="B175" s="41"/>
       <c r="C175" s="38"/>
       <c r="D175" s="44"/>
       <c r="E175" s="38"/>
-      <c r="F175" s="53"/>
+      <c r="F175" s="96"/>
     </row>
     <row r="176" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A176" s="56"/>
+      <c r="A176" s="126"/>
       <c r="B176" s="42"/>
       <c r="C176" s="39"/>
       <c r="D176" s="45"/>
       <c r="E176" s="39"/>
-      <c r="F176" s="54"/>
+      <c r="F176" s="97"/>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="57" t="s">
-        <v>204</v>
+      <c r="A177" s="124" t="s">
+        <v>202</v>
       </c>
       <c r="B177" s="40"/>
       <c r="C177" s="37"/>
       <c r="D177" s="43"/>
       <c r="E177" s="37"/>
-      <c r="F177" s="52" t="s">
-        <v>211</v>
+      <c r="F177" s="95" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="55"/>
+      <c r="A178" s="125"/>
       <c r="B178" s="41"/>
       <c r="C178" s="38"/>
       <c r="D178" s="44"/>
       <c r="E178" s="38"/>
-      <c r="F178" s="53"/>
+      <c r="F178" s="96"/>
     </row>
     <row r="179" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A179" s="56"/>
+      <c r="A179" s="126"/>
       <c r="B179" s="42"/>
       <c r="C179" s="39"/>
       <c r="D179" s="45"/>
       <c r="E179" s="39"/>
-      <c r="F179" s="54"/>
+      <c r="F179" s="97"/>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="55" t="s">
-        <v>205</v>
+      <c r="A180" s="125" t="s">
+        <v>203</v>
       </c>
       <c r="B180" s="41"/>
       <c r="C180" s="38"/>
       <c r="D180" s="44"/>
       <c r="E180" s="38"/>
-      <c r="F180" s="52" t="s">
-        <v>212</v>
+      <c r="F180" s="95" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="55"/>
+      <c r="A181" s="125"/>
       <c r="B181" s="41"/>
       <c r="C181" s="38"/>
       <c r="D181" s="44"/>
       <c r="E181" s="38"/>
-      <c r="F181" s="53"/>
+      <c r="F181" s="96"/>
     </row>
     <row r="182" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A182" s="55"/>
+      <c r="A182" s="125"/>
       <c r="B182" s="41"/>
       <c r="C182" s="38"/>
       <c r="D182" s="44"/>
       <c r="E182" s="38"/>
-      <c r="F182" s="54"/>
+      <c r="F182" s="97"/>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="57" t="s">
-        <v>206</v>
+      <c r="A183" s="124" t="s">
+        <v>204</v>
       </c>
       <c r="B183" s="40"/>
       <c r="C183" s="37"/>
       <c r="D183" s="43"/>
       <c r="E183" s="37"/>
-      <c r="F183" s="52" t="s">
-        <v>213</v>
+      <c r="F183" s="95" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="55"/>
+      <c r="A184" s="125"/>
       <c r="B184" s="41"/>
       <c r="C184" s="38"/>
       <c r="D184" s="44"/>
       <c r="E184" s="38"/>
-      <c r="F184" s="53"/>
+      <c r="F184" s="96"/>
     </row>
     <row r="185" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A185" s="56"/>
+      <c r="A185" s="126"/>
       <c r="B185" s="42"/>
       <c r="C185" s="39"/>
       <c r="D185" s="45"/>
       <c r="E185" s="39"/>
-      <c r="F185" s="54"/>
+      <c r="F185" s="97"/>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="55" t="s">
-        <v>207</v>
+      <c r="A186" s="125" t="s">
+        <v>205</v>
       </c>
       <c r="B186" s="41"/>
       <c r="C186" s="38"/>
       <c r="D186" s="44"/>
       <c r="E186" s="38"/>
-      <c r="F186" s="52" t="s">
-        <v>214</v>
+      <c r="F186" s="95" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="55"/>
+      <c r="A187" s="125"/>
       <c r="B187" s="41"/>
       <c r="C187" s="38"/>
       <c r="D187" s="44"/>
       <c r="E187" s="38"/>
-      <c r="F187" s="53"/>
+      <c r="F187" s="96"/>
     </row>
     <row r="188" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A188" s="55"/>
+      <c r="A188" s="125"/>
       <c r="B188" s="41"/>
       <c r="C188" s="38"/>
       <c r="D188" s="44"/>
       <c r="E188" s="38"/>
-      <c r="F188" s="54"/>
+      <c r="F188" s="97"/>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="57" t="s">
-        <v>208</v>
+      <c r="A189" s="124" t="s">
+        <v>206</v>
       </c>
       <c r="B189" s="40"/>
       <c r="C189" s="37"/>
       <c r="D189" s="43"/>
       <c r="E189" s="37"/>
-      <c r="F189" s="52" t="s">
-        <v>215</v>
+      <c r="F189" s="95" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="55"/>
+      <c r="A190" s="125"/>
       <c r="B190" s="41"/>
       <c r="C190" s="38"/>
       <c r="D190" s="44"/>
       <c r="E190" s="38"/>
-      <c r="F190" s="53"/>
+      <c r="F190" s="96"/>
     </row>
     <row r="191" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A191" s="56"/>
+      <c r="A191" s="126"/>
       <c r="B191" s="42"/>
       <c r="C191" s="39"/>
       <c r="D191" s="45"/>
       <c r="E191" s="39"/>
-      <c r="F191" s="54"/>
+      <c r="F191" s="97"/>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="55" t="s">
-        <v>209</v>
+      <c r="A192" s="125" t="s">
+        <v>207</v>
       </c>
       <c r="B192" s="41"/>
       <c r="C192" s="38"/>
       <c r="D192" s="44"/>
       <c r="E192" s="38"/>
-      <c r="F192" s="49" t="s">
-        <v>216</v>
+      <c r="F192" s="129" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="55"/>
+      <c r="A193" s="125"/>
       <c r="B193" s="41"/>
       <c r="C193" s="38"/>
       <c r="D193" s="44"/>
       <c r="E193" s="38"/>
-      <c r="F193" s="50"/>
+      <c r="F193" s="130"/>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="55"/>
+      <c r="A194" s="125"/>
       <c r="B194" s="41"/>
       <c r="C194" s="38"/>
       <c r="D194" s="44"/>
       <c r="E194" s="38"/>
-      <c r="F194" s="50"/>
+      <c r="F194" s="130"/>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="55"/>
+      <c r="A195" s="125"/>
       <c r="B195" s="41"/>
       <c r="C195" s="38"/>
       <c r="D195" s="44"/>
       <c r="E195" s="38"/>
-      <c r="F195" s="50"/>
+      <c r="F195" s="130"/>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="55"/>
+      <c r="A196" s="125"/>
       <c r="B196" s="41"/>
       <c r="C196" s="38"/>
       <c r="D196" s="44"/>
       <c r="E196" s="38"/>
-      <c r="F196" s="50"/>
+      <c r="F196" s="130"/>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="55"/>
+      <c r="A197" s="125"/>
       <c r="B197" s="41"/>
       <c r="C197" s="38"/>
       <c r="D197" s="44"/>
       <c r="E197" s="38"/>
-      <c r="F197" s="50"/>
+      <c r="F197" s="130"/>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="55"/>
+      <c r="A198" s="125"/>
       <c r="B198" s="41"/>
       <c r="C198" s="38"/>
       <c r="D198" s="44"/>
       <c r="E198" s="38"/>
-      <c r="F198" s="50"/>
+      <c r="F198" s="130"/>
     </row>
     <row r="199" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A199" s="56"/>
+      <c r="A199" s="126"/>
       <c r="B199" s="42"/>
       <c r="C199" s="39"/>
       <c r="D199" s="45"/>
       <c r="E199" s="39"/>
-      <c r="F199" s="51"/>
+      <c r="F199" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="A117:A123"/>
-    <mergeCell ref="E117:E123"/>
-    <mergeCell ref="F117:F123"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="E28:E34"/>
-    <mergeCell ref="F28:F34"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="F7:F13"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="F14:F20"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="F21:F27"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="E35:E41"/>
-    <mergeCell ref="F35:F41"/>
-    <mergeCell ref="A46:A53"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="E46:E53"/>
-    <mergeCell ref="F46:F53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="F55:F59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="F76:F82"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="F69:F75"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="F96:F100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="A102:A116"/>
-    <mergeCell ref="F102:F116"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="F162:F164"/>
-    <mergeCell ref="A138:A149"/>
-    <mergeCell ref="E138:E149"/>
-    <mergeCell ref="F138:F149"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="F93:F95"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="A131:A137"/>
-    <mergeCell ref="E131:E137"/>
+    <mergeCell ref="A171:A173"/>
+    <mergeCell ref="F171:F173"/>
+    <mergeCell ref="A168:A170"/>
+    <mergeCell ref="F168:F170"/>
+    <mergeCell ref="A192:A199"/>
+    <mergeCell ref="F174:F176"/>
+    <mergeCell ref="F177:F179"/>
+    <mergeCell ref="F180:F182"/>
+    <mergeCell ref="F183:F185"/>
+    <mergeCell ref="F186:F188"/>
+    <mergeCell ref="F189:F191"/>
+    <mergeCell ref="F192:F199"/>
+    <mergeCell ref="A177:A179"/>
+    <mergeCell ref="A180:A182"/>
+    <mergeCell ref="A183:A185"/>
+    <mergeCell ref="A186:A188"/>
     <mergeCell ref="A189:A191"/>
     <mergeCell ref="F131:F137"/>
     <mergeCell ref="A124:A130"/>
@@ -4393,22 +4344,69 @@
     <mergeCell ref="F152:F154"/>
     <mergeCell ref="A155:A158"/>
     <mergeCell ref="F155:F158"/>
-    <mergeCell ref="A171:A173"/>
-    <mergeCell ref="F171:F173"/>
-    <mergeCell ref="A168:A170"/>
-    <mergeCell ref="F168:F170"/>
-    <mergeCell ref="A192:A199"/>
-    <mergeCell ref="F174:F176"/>
-    <mergeCell ref="F177:F179"/>
-    <mergeCell ref="F180:F182"/>
-    <mergeCell ref="F183:F185"/>
-    <mergeCell ref="F186:F188"/>
-    <mergeCell ref="F189:F191"/>
-    <mergeCell ref="F192:F199"/>
-    <mergeCell ref="A177:A179"/>
-    <mergeCell ref="A180:A182"/>
-    <mergeCell ref="A183:A185"/>
-    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="A131:A137"/>
+    <mergeCell ref="E131:E137"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="F162:F164"/>
+    <mergeCell ref="A138:A149"/>
+    <mergeCell ref="E138:E149"/>
+    <mergeCell ref="F138:F149"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="F96:F100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="A102:A116"/>
+    <mergeCell ref="F102:F116"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="F76:F82"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="F69:F75"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="F55:F59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="F14:F20"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="F21:F27"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="F7:F13"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="A117:A123"/>
+    <mergeCell ref="E117:E123"/>
+    <mergeCell ref="F117:F123"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="E28:E34"/>
+    <mergeCell ref="F28:F34"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="E35:E41"/>
+    <mergeCell ref="F35:F41"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="E46:E53"/>
+    <mergeCell ref="F46:F53"/>
+    <mergeCell ref="A54:F54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4458,17 +4456,17 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="135" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4483,12 +4481,12 @@
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="51" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A4" s="128"/>
+      <c r="A4" s="136"/>
       <c r="B4" s="1" t="s">
         <v>95</v>
       </c>
@@ -4499,10 +4497,10 @@
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="59"/>
+      <c r="F4" s="52"/>
     </row>
     <row r="5" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A5" s="132"/>
+      <c r="A5" s="137"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="9" t="s">
@@ -4511,10 +4509,10 @@
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="59"/>
+      <c r="F5" s="52"/>
     </row>
     <row r="6" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A6" s="132"/>
+      <c r="A6" s="137"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="8" t="s">
@@ -4523,10 +4521,10 @@
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="59"/>
+      <c r="F6" s="52"/>
     </row>
     <row r="7" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A7" s="132"/>
+      <c r="A7" s="137"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="8" t="s">
@@ -4535,10 +4533,10 @@
       <c r="E7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="59"/>
+      <c r="F7" s="52"/>
     </row>
     <row r="8" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A8" s="132"/>
+      <c r="A8" s="137"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8" t="s">
@@ -4547,10 +4545,10 @@
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="59"/>
+      <c r="F8" s="52"/>
     </row>
     <row r="9" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A9" s="132"/>
+      <c r="A9" s="137"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="13" t="s">
@@ -4559,10 +4557,10 @@
       <c r="E9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="59"/>
+      <c r="F9" s="52"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A10" s="127" t="s">
+      <c r="A10" s="135" t="s">
         <v>96</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -4577,12 +4575,12 @@
       <c r="E10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="51" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A11" s="128"/>
+      <c r="A11" s="136"/>
       <c r="B11" s="1" t="s">
         <v>95</v>
       </c>
@@ -4593,10 +4591,10 @@
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="59"/>
+      <c r="F11" s="52"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A12" s="132"/>
+      <c r="A12" s="137"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="9" t="s">
@@ -4605,10 +4603,10 @@
       <c r="E12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="59"/>
+      <c r="F12" s="52"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A13" s="132"/>
+      <c r="A13" s="137"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="8" t="s">
@@ -4617,10 +4615,10 @@
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="59"/>
+      <c r="F13" s="52"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A14" s="132"/>
+      <c r="A14" s="137"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="8" t="s">
@@ -4629,10 +4627,10 @@
       <c r="E14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="59"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A15" s="132"/>
+      <c r="A15" s="137"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="8" t="s">
@@ -4641,10 +4639,10 @@
       <c r="E15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="59"/>
+      <c r="F15" s="52"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A16" s="132"/>
+      <c r="A16" s="137"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="13" t="s">
@@ -4653,10 +4651,10 @@
       <c r="E16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="59"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A17" s="127" t="s">
+      <c r="A17" s="135" t="s">
         <v>99</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -4671,12 +4669,12 @@
       <c r="E17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="51" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A18" s="128"/>
+      <c r="A18" s="136"/>
       <c r="B18" s="1" t="s">
         <v>95</v>
       </c>
@@ -4687,10 +4685,10 @@
       <c r="E18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="59"/>
+      <c r="F18" s="52"/>
     </row>
     <row r="19" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A19" s="132"/>
+      <c r="A19" s="137"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="9" t="s">
@@ -4699,10 +4697,10 @@
       <c r="E19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="59"/>
+      <c r="F19" s="52"/>
     </row>
     <row r="20" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A20" s="132"/>
+      <c r="A20" s="137"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="8" t="s">
@@ -4711,10 +4709,10 @@
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="59"/>
+      <c r="F20" s="52"/>
     </row>
     <row r="21" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A21" s="132"/>
+      <c r="A21" s="137"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="8" t="s">
@@ -4723,10 +4721,10 @@
       <c r="E21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="59"/>
+      <c r="F21" s="52"/>
     </row>
     <row r="22" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A22" s="132"/>
+      <c r="A22" s="137"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="8" t="s">
@@ -4735,10 +4733,10 @@
       <c r="E22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="59"/>
+      <c r="F22" s="52"/>
     </row>
     <row r="23" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A23" s="132"/>
+      <c r="A23" s="137"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="13" t="s">
@@ -4747,10 +4745,10 @@
       <c r="E23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F23" s="59"/>
+      <c r="F23" s="52"/>
     </row>
     <row r="24" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A24" s="127" t="s">
+      <c r="A24" s="135" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -4762,15 +4760,15 @@
       <c r="D24" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="63" t="s">
+      <c r="E24" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="58" t="s">
+      <c r="F24" s="51" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A25" s="128"/>
+      <c r="A25" s="136"/>
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
@@ -4780,11 +4778,11 @@
       <c r="D25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="64"/>
-      <c r="F25" s="59"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="52"/>
     </row>
     <row r="26" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A26" s="128"/>
+      <c r="A26" s="136"/>
       <c r="B26" s="1" t="s">
         <v>20</v>
       </c>
@@ -4794,11 +4792,11 @@
       <c r="D26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="64"/>
-      <c r="F26" s="59"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="52"/>
     </row>
     <row r="27" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A27" s="128"/>
+      <c r="A27" s="136"/>
       <c r="B27" s="1" t="s">
         <v>21</v>
       </c>
@@ -4806,11 +4804,11 @@
       <c r="D27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="64"/>
-      <c r="F27" s="59"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="52"/>
     </row>
     <row r="28" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A28" s="128"/>
+      <c r="A28" s="136"/>
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
@@ -4818,11 +4816,11 @@
       <c r="D28" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="64"/>
-      <c r="F28" s="59"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="52"/>
     </row>
     <row r="29" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A29" s="128"/>
+      <c r="A29" s="136"/>
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
@@ -4830,21 +4828,21 @@
       <c r="D29" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="64"/>
-      <c r="F29" s="59"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="52"/>
     </row>
     <row r="30" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A30" s="129"/>
+      <c r="A30" s="138"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="60"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="53"/>
     </row>
     <row r="31" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A31" s="127" t="s">
+      <c r="A31" s="135" t="s">
         <v>147</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -4856,10 +4854,10 @@
       <c r="D31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="63" t="s">
+      <c r="E31" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="58" t="s">
+      <c r="F31" s="51" t="s">
         <v>134</v>
       </c>
       <c r="G31" t="s">
@@ -4870,7 +4868,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A32" s="128"/>
+      <c r="A32" s="136"/>
       <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
@@ -4880,14 +4878,14 @@
       <c r="D32" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="64"/>
-      <c r="F32" s="59"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="52"/>
       <c r="G32" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A33" s="128"/>
+      <c r="A33" s="136"/>
       <c r="B33" s="1" t="s">
         <v>20</v>
       </c>
@@ -4897,8 +4895,8 @@
       <c r="D33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="64"/>
-      <c r="F33" s="59"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="52"/>
       <c r="G33" t="s">
         <v>117</v>
       </c>
@@ -4907,7 +4905,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A34" s="128"/>
+      <c r="A34" s="136"/>
       <c r="B34" s="1" t="s">
         <v>21</v>
       </c>
@@ -4915,8 +4913,8 @@
       <c r="D34" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="64"/>
-      <c r="F34" s="59"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="52"/>
       <c r="G34" t="s">
         <v>118</v>
       </c>
@@ -4925,7 +4923,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A35" s="128"/>
+      <c r="A35" s="136"/>
       <c r="B35" s="1" t="s">
         <v>23</v>
       </c>
@@ -4933,8 +4931,8 @@
       <c r="D35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="64"/>
-      <c r="F35" s="59"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="52"/>
       <c r="G35" t="s">
         <v>119</v>
       </c>
@@ -4943,7 +4941,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A36" s="128"/>
+      <c r="A36" s="136"/>
       <c r="B36" s="1" t="s">
         <v>24</v>
       </c>
@@ -4951,8 +4949,8 @@
       <c r="D36" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="64"/>
-      <c r="F36" s="59"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="52"/>
       <c r="G36" t="s">
         <v>120</v>
       </c>
@@ -4961,14 +4959,14 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A37" s="132"/>
+      <c r="A37" s="137"/>
       <c r="B37" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="59"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="52"/>
       <c r="G37" t="s">
         <v>121</v>
       </c>
@@ -4980,14 +4978,14 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A38" s="132"/>
+      <c r="A38" s="137"/>
       <c r="B38" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="59"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="52"/>
       <c r="G38" t="s">
         <v>122</v>
       </c>
@@ -4999,14 +4997,14 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A39" s="132"/>
+      <c r="A39" s="137"/>
       <c r="B39" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="59"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="52"/>
       <c r="G39" t="s">
         <v>123</v>
       </c>
@@ -5018,7 +5016,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A40" s="129"/>
+      <c r="A40" s="138"/>
       <c r="B40" s="4" t="s">
         <v>129</v>
       </c>
@@ -5026,14 +5024,14 @@
       <c r="D40" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="65"/>
-      <c r="F40" s="60"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="53"/>
       <c r="G40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A41" s="133" t="s">
+      <c r="A41" s="166" t="s">
         <v>69</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -5045,15 +5043,15 @@
       <c r="D41" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E41" s="63" t="s">
+      <c r="E41" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="59" t="s">
+      <c r="F41" s="52" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A42" s="134"/>
+      <c r="A42" s="167"/>
       <c r="B42" s="1" t="s">
         <v>70</v>
       </c>
@@ -5061,11 +5059,11 @@
       <c r="D42" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="64"/>
-      <c r="F42" s="59"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="52"/>
     </row>
     <row r="43" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A43" s="134"/>
+      <c r="A43" s="167"/>
       <c r="B43" s="1" t="s">
         <v>49</v>
       </c>
@@ -5073,83 +5071,83 @@
       <c r="D43" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="64"/>
-      <c r="F43" s="59"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="52"/>
     </row>
     <row r="44" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A44" s="134"/>
+      <c r="A44" s="167"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="64"/>
-      <c r="F44" s="59"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="52"/>
     </row>
     <row r="45" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A45" s="134"/>
+      <c r="A45" s="167"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="64"/>
-      <c r="F45" s="59"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="52"/>
     </row>
     <row r="46" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A46" s="134"/>
+      <c r="A46" s="167"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="64"/>
-      <c r="F46" s="59"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="52"/>
     </row>
     <row r="47" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A47" s="135"/>
+      <c r="A47" s="168"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="65"/>
-      <c r="F47" s="60"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="53"/>
     </row>
     <row r="48" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A48" s="127" t="s">
+      <c r="A48" s="135" t="s">
         <v>150</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="130" t="s">
+      <c r="C48" s="164" t="s">
         <v>45</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="99" t="s">
+      <c r="E48" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="F48" s="52" t="s">
+      <c r="F48" s="95" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A49" s="128"/>
+      <c r="A49" s="136"/>
       <c r="B49" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="131"/>
+      <c r="C49" s="165"/>
       <c r="D49" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="100"/>
-      <c r="F49" s="53"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="96"/>
     </row>
     <row r="50" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A50" s="128"/>
+      <c r="A50" s="136"/>
       <c r="B50" s="5" t="s">
         <v>29</v>
       </c>
@@ -5159,11 +5157,11 @@
       <c r="D50" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="100"/>
-      <c r="F50" s="53"/>
+      <c r="E50" s="93"/>
+      <c r="F50" s="96"/>
     </row>
     <row r="51" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A51" s="128"/>
+      <c r="A51" s="136"/>
       <c r="B51" s="24" t="s">
         <v>30</v>
       </c>
@@ -5173,11 +5171,11 @@
       <c r="D51" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="100"/>
-      <c r="F51" s="53"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="96"/>
     </row>
     <row r="52" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A52" s="128"/>
+      <c r="A52" s="136"/>
       <c r="B52" s="24" t="s">
         <v>31</v>
       </c>
@@ -5187,11 +5185,11 @@
       <c r="D52" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="100"/>
-      <c r="F52" s="53"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="96"/>
     </row>
     <row r="53" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A53" s="128"/>
+      <c r="A53" s="136"/>
       <c r="B53" s="24" t="s">
         <v>32</v>
       </c>
@@ -5199,11 +5197,11 @@
       <c r="D53" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="100"/>
-      <c r="F53" s="53"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="96"/>
     </row>
     <row r="54" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A54" s="128"/>
+      <c r="A54" s="136"/>
       <c r="B54" s="24" t="s">
         <v>33</v>
       </c>
@@ -5211,29 +5209,29 @@
       <c r="D54" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="100"/>
-      <c r="F54" s="53"/>
+      <c r="E54" s="93"/>
+      <c r="F54" s="96"/>
     </row>
     <row r="55" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A55" s="129"/>
+      <c r="A55" s="138"/>
       <c r="B55" s="25"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
-      <c r="E55" s="101"/>
-      <c r="F55" s="54"/>
+      <c r="E55" s="94"/>
+      <c r="F55" s="97"/>
     </row>
     <row r="56" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A56" s="102" t="s">
+      <c r="A56" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="B56" s="102"/>
-      <c r="C56" s="102"/>
-      <c r="D56" s="102"/>
-      <c r="E56" s="102"/>
-      <c r="F56" s="102"/>
+      <c r="B56" s="98"/>
+      <c r="C56" s="98"/>
+      <c r="D56" s="98"/>
+      <c r="E56" s="98"/>
+      <c r="F56" s="98"/>
     </row>
     <row r="57" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A57" s="138" t="s">
+      <c r="A57" s="132" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="12" t="s">
@@ -5244,10 +5242,10 @@
         <v>34</v>
       </c>
       <c r="E57" s="3"/>
-      <c r="F57" s="73"/>
+      <c r="F57" s="81"/>
     </row>
     <row r="58" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A58" s="139"/>
+      <c r="A58" s="133"/>
       <c r="B58" s="8" t="s">
         <v>15</v>
       </c>
@@ -5256,10 +5254,10 @@
         <v>15</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="80"/>
+      <c r="F58" s="82"/>
     </row>
     <row r="59" spans="1:6" ht="45.75" customHeight="1">
-      <c r="A59" s="147"/>
+      <c r="A59" s="139"/>
       <c r="B59" s="9" t="s">
         <v>10</v>
       </c>
@@ -5268,26 +5266,26 @@
         <v>10</v>
       </c>
       <c r="E59" s="2"/>
-      <c r="F59" s="80"/>
+      <c r="F59" s="82"/>
     </row>
     <row r="60" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A60" s="147"/>
+      <c r="A60" s="139"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="80"/>
+      <c r="F60" s="82"/>
     </row>
     <row r="61" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A61" s="140"/>
+      <c r="A61" s="134"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="74"/>
+      <c r="F61" s="83"/>
     </row>
     <row r="62" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A62" s="138" t="s">
+      <c r="A62" s="132" t="s">
         <v>12</v>
       </c>
       <c r="B62" s="3"/>
@@ -5298,26 +5296,26 @@
         <v>13</v>
       </c>
       <c r="E62" s="3"/>
-      <c r="F62" s="73"/>
+      <c r="F62" s="81"/>
     </row>
     <row r="63" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A63" s="139"/>
+      <c r="A63" s="133"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="80"/>
+      <c r="F63" s="82"/>
     </row>
     <row r="64" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A64" s="140"/>
+      <c r="A64" s="134"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="74"/>
+      <c r="F64" s="83"/>
     </row>
     <row r="65" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A65" s="138" t="s">
+      <c r="A65" s="132" t="s">
         <v>0</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -5328,10 +5326,10 @@
         <v>7</v>
       </c>
       <c r="E65" s="3"/>
-      <c r="F65" s="73"/>
+      <c r="F65" s="81"/>
     </row>
     <row r="66" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A66" s="139"/>
+      <c r="A66" s="133"/>
       <c r="B66" s="8" t="s">
         <v>8</v>
       </c>
@@ -5340,10 +5338,10 @@
         <v>8</v>
       </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="80"/>
+      <c r="F66" s="82"/>
     </row>
     <row r="67" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A67" s="140"/>
+      <c r="A67" s="134"/>
       <c r="B67" s="13" t="s">
         <v>9</v>
       </c>
@@ -5352,10 +5350,10 @@
         <v>9</v>
       </c>
       <c r="E67" s="4"/>
-      <c r="F67" s="74"/>
+      <c r="F67" s="83"/>
     </row>
     <row r="68" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A68" s="138" t="s">
+      <c r="A68" s="132" t="s">
         <v>42</v>
       </c>
       <c r="B68" s="9" t="s">
@@ -5366,10 +5364,10 @@
         <v>39</v>
       </c>
       <c r="E68" s="3"/>
-      <c r="F68" s="73"/>
+      <c r="F68" s="81"/>
     </row>
     <row r="69" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A69" s="139"/>
+      <c r="A69" s="133"/>
       <c r="B69" s="9" t="s">
         <v>40</v>
       </c>
@@ -5378,10 +5376,10 @@
         <v>40</v>
       </c>
       <c r="E69" s="1"/>
-      <c r="F69" s="80"/>
+      <c r="F69" s="82"/>
     </row>
     <row r="70" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A70" s="140"/>
+      <c r="A70" s="134"/>
       <c r="B70" s="9" t="s">
         <v>41</v>
       </c>
@@ -5390,10 +5388,10 @@
         <v>41</v>
       </c>
       <c r="E70" s="4"/>
-      <c r="F70" s="74"/>
+      <c r="F70" s="83"/>
     </row>
     <row r="71" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A71" s="83" t="s">
+      <c r="A71" s="102" t="s">
         <v>58</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -5408,12 +5406,12 @@
       <c r="E71" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F71" s="73" t="s">
+      <c r="F71" s="81" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A72" s="84"/>
+      <c r="A72" s="103"/>
       <c r="B72" s="1" t="s">
         <v>17</v>
       </c>
@@ -5426,10 +5424,10 @@
       <c r="E72" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F72" s="80"/>
+      <c r="F72" s="82"/>
     </row>
     <row r="73" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A73" s="84"/>
+      <c r="A73" s="103"/>
       <c r="B73" s="1" t="s">
         <v>18</v>
       </c>
@@ -5440,10 +5438,10 @@
       <c r="E73" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F73" s="80"/>
+      <c r="F73" s="82"/>
     </row>
     <row r="74" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A74" s="84"/>
+      <c r="A74" s="103"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="8" t="s">
@@ -5452,10 +5450,10 @@
       <c r="E74" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F74" s="80"/>
+      <c r="F74" s="82"/>
     </row>
     <row r="75" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A75" s="84"/>
+      <c r="A75" s="103"/>
       <c r="B75" s="7"/>
       <c r="C75" s="1"/>
       <c r="D75" s="8" t="s">
@@ -5464,10 +5462,10 @@
       <c r="E75" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F75" s="80"/>
+      <c r="F75" s="82"/>
     </row>
     <row r="76" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A76" s="84"/>
+      <c r="A76" s="103"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="8" t="s">
@@ -5476,10 +5474,10 @@
       <c r="E76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F76" s="80"/>
+      <c r="F76" s="82"/>
     </row>
     <row r="77" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A77" s="85"/>
+      <c r="A77" s="104"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="29" t="s">
@@ -5488,10 +5486,10 @@
       <c r="E77" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F77" s="74"/>
+      <c r="F77" s="83"/>
     </row>
     <row r="78" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A78" s="163" t="s">
+      <c r="A78" s="155" t="s">
         <v>66</v>
       </c>
       <c r="B78" s="26" t="s">
@@ -5506,30 +5504,30 @@
       <c r="E78" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="90" t="s">
+      <c r="F78" s="105" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A79" s="89"/>
+      <c r="A79" s="79"/>
       <c r="B79" s="30"/>
       <c r="C79" s="22"/>
       <c r="D79" s="21"/>
       <c r="E79" s="31"/>
-      <c r="F79" s="91"/>
+      <c r="F79" s="106"/>
     </row>
     <row r="80" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A80" s="140"/>
+      <c r="A80" s="134"/>
       <c r="B80" s="25"/>
       <c r="C80" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="17"/>
-      <c r="F80" s="92"/>
+      <c r="F80" s="107"/>
     </row>
     <row r="81" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A81" s="138" t="s">
+      <c r="A81" s="132" t="s">
         <v>112</v>
       </c>
       <c r="B81" s="27" t="s">
@@ -5544,22 +5542,22 @@
       <c r="E81" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F81" s="73" t="s">
+      <c r="F81" s="81" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A82" s="147"/>
+      <c r="A82" s="139"/>
       <c r="B82" s="28"/>
       <c r="C82" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="19"/>
-      <c r="F82" s="74"/>
+      <c r="F82" s="83"/>
     </row>
     <row r="83" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A83" s="138" t="s">
+      <c r="A83" s="132" t="s">
         <v>65</v>
       </c>
       <c r="B83" s="27" t="s">
@@ -5574,20 +5572,20 @@
       <c r="E83" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F83" s="144"/>
+      <c r="F83" s="156"/>
     </row>
     <row r="84" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A84" s="147"/>
+      <c r="A84" s="139"/>
       <c r="B84" s="28"/>
       <c r="C84" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="19"/>
-      <c r="F84" s="146"/>
+      <c r="F84" s="157"/>
     </row>
     <row r="85" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A85" s="71" t="s">
+      <c r="A85" s="78" t="s">
         <v>92</v>
       </c>
       <c r="B85" s="15" t="s">
@@ -5603,7 +5601,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A86" s="89"/>
+      <c r="A86" s="79"/>
       <c r="B86" s="9" t="s">
         <v>80</v>
       </c>
@@ -5613,7 +5611,7 @@
       <c r="F86" s="34"/>
     </row>
     <row r="87" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A87" s="72"/>
+      <c r="A87" s="80"/>
       <c r="B87" s="25" t="s">
         <v>91</v>
       </c>
@@ -5625,7 +5623,7 @@
       <c r="F87" s="35"/>
     </row>
     <row r="88" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A88" s="71" t="s">
+      <c r="A88" s="78" t="s">
         <v>107</v>
       </c>
       <c r="B88" s="15" t="s">
@@ -5636,32 +5634,32 @@
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="73" t="s">
+      <c r="F88" s="81" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A89" s="89"/>
+      <c r="A89" s="79"/>
       <c r="B89" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="80"/>
+      <c r="F89" s="82"/>
     </row>
     <row r="90" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A90" s="72"/>
+      <c r="A90" s="80"/>
       <c r="B90" s="25"/>
       <c r="C90" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
-      <c r="F90" s="74"/>
+      <c r="F90" s="83"/>
     </row>
     <row r="91" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A91" s="160" t="s">
+      <c r="A91" s="152" t="s">
         <v>71</v>
       </c>
       <c r="B91" s="3"/>
@@ -5670,62 +5668,62 @@
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="73" t="s">
+      <c r="F91" s="81" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A92" s="161"/>
+      <c r="A92" s="153"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="80"/>
+      <c r="F92" s="82"/>
     </row>
     <row r="93" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A93" s="161"/>
+      <c r="A93" s="153"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="80"/>
+      <c r="F93" s="82"/>
     </row>
     <row r="94" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A94" s="161"/>
+      <c r="A94" s="153"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="80"/>
+      <c r="F94" s="82"/>
     </row>
     <row r="95" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A95" s="162"/>
+      <c r="A95" s="154"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="74"/>
+      <c r="F95" s="83"/>
     </row>
     <row r="96" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A96" s="86" t="s">
+      <c r="A96" s="111" t="s">
         <v>89</v>
       </c>
-      <c r="B96" s="86"/>
-      <c r="C96" s="86"/>
-      <c r="D96" s="86"/>
-      <c r="E96" s="86"/>
-      <c r="F96" s="86"/>
+      <c r="B96" s="111"/>
+      <c r="C96" s="111"/>
+      <c r="D96" s="111"/>
+      <c r="E96" s="111"/>
+      <c r="F96" s="111"/>
     </row>
     <row r="97" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A97" s="141" t="s">
+      <c r="A97" s="160" t="s">
         <v>50</v>
       </c>
       <c r="B97" s="3"/>
@@ -5736,12 +5734,12 @@
       <c r="E97" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F97" s="144" t="s">
+      <c r="F97" s="156" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A98" s="142"/>
+      <c r="A98" s="161"/>
       <c r="B98" s="1"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8" t="s">
@@ -5750,10 +5748,10 @@
       <c r="E98" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F98" s="145"/>
+      <c r="F98" s="163"/>
     </row>
     <row r="99" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A99" s="142"/>
+      <c r="A99" s="161"/>
       <c r="B99" s="1"/>
       <c r="C99" s="8"/>
       <c r="D99" s="9" t="s">
@@ -5762,10 +5760,10 @@
       <c r="E99" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F99" s="145"/>
+      <c r="F99" s="163"/>
     </row>
     <row r="100" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A100" s="142"/>
+      <c r="A100" s="161"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="8" t="s">
@@ -5774,10 +5772,10 @@
       <c r="E100" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="145"/>
+      <c r="F100" s="163"/>
     </row>
     <row r="101" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A101" s="142"/>
+      <c r="A101" s="161"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="8" t="s">
@@ -5786,10 +5784,10 @@
       <c r="E101" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F101" s="145"/>
+      <c r="F101" s="163"/>
     </row>
     <row r="102" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A102" s="142"/>
+      <c r="A102" s="161"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="8" t="s">
@@ -5798,10 +5796,10 @@
       <c r="E102" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F102" s="145"/>
+      <c r="F102" s="163"/>
     </row>
     <row r="103" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A103" s="142"/>
+      <c r="A103" s="161"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="8" t="s">
@@ -5810,10 +5808,10 @@
       <c r="E103" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F103" s="145"/>
+      <c r="F103" s="163"/>
     </row>
     <row r="104" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A104" s="142"/>
+      <c r="A104" s="161"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="9" t="s">
@@ -5822,10 +5820,10 @@
       <c r="E104" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F104" s="145"/>
+      <c r="F104" s="163"/>
     </row>
     <row r="105" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A105" s="142"/>
+      <c r="A105" s="161"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="9" t="s">
@@ -5834,10 +5832,10 @@
       <c r="E105" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F105" s="145"/>
+      <c r="F105" s="163"/>
     </row>
     <row r="106" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A106" s="142"/>
+      <c r="A106" s="161"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="9" t="s">
@@ -5846,26 +5844,26 @@
       <c r="E106" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F106" s="145"/>
+      <c r="F106" s="163"/>
     </row>
     <row r="107" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A107" s="143"/>
+      <c r="A107" s="162"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="18"/>
       <c r="E107" s="19"/>
-      <c r="F107" s="146"/>
+      <c r="F107" s="157"/>
     </row>
     <row r="108" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A108" s="143"/>
+      <c r="A108" s="162"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="18"/>
       <c r="E108" s="19"/>
-      <c r="F108" s="146"/>
+      <c r="F108" s="157"/>
     </row>
     <row r="109" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A109" s="151" t="s">
+      <c r="A109" s="143" t="s">
         <v>138</v>
       </c>
       <c r="B109" s="3" t="s">
@@ -5875,13 +5873,13 @@
         <v>26</v>
       </c>
       <c r="D109" s="12"/>
-      <c r="E109" s="154"/>
-      <c r="F109" s="157" t="s">
+      <c r="E109" s="146"/>
+      <c r="F109" s="149" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A110" s="152"/>
+      <c r="A110" s="144"/>
       <c r="B110" s="1" t="s">
         <v>131</v>
       </c>
@@ -5889,11 +5887,11 @@
         <v>148</v>
       </c>
       <c r="D110" s="8"/>
-      <c r="E110" s="155"/>
-      <c r="F110" s="158"/>
+      <c r="E110" s="147"/>
+      <c r="F110" s="150"/>
     </row>
     <row r="111" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A111" s="152"/>
+      <c r="A111" s="144"/>
       <c r="B111" s="1" t="s">
         <v>130</v>
       </c>
@@ -5901,11 +5899,11 @@
         <v>139</v>
       </c>
       <c r="D111" s="9"/>
-      <c r="E111" s="155"/>
-      <c r="F111" s="158"/>
+      <c r="E111" s="147"/>
+      <c r="F111" s="150"/>
     </row>
     <row r="112" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A112" s="152"/>
+      <c r="A112" s="144"/>
       <c r="B112" s="1" t="s">
         <v>129</v>
       </c>
@@ -5913,11 +5911,11 @@
         <v>140</v>
       </c>
       <c r="D112" s="8"/>
-      <c r="E112" s="155"/>
-      <c r="F112" s="158"/>
+      <c r="E112" s="147"/>
+      <c r="F112" s="150"/>
     </row>
     <row r="113" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A113" s="152"/>
+      <c r="A113" s="144"/>
       <c r="B113" s="1" t="s">
         <v>22</v>
       </c>
@@ -5925,11 +5923,11 @@
         <v>141</v>
       </c>
       <c r="D113" s="8"/>
-      <c r="E113" s="155"/>
-      <c r="F113" s="158"/>
+      <c r="E113" s="147"/>
+      <c r="F113" s="150"/>
     </row>
     <row r="114" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A114" s="152"/>
+      <c r="A114" s="144"/>
       <c r="B114" s="1" t="s">
         <v>23</v>
       </c>
@@ -5937,63 +5935,63 @@
         <v>142</v>
       </c>
       <c r="D114" s="8"/>
-      <c r="E114" s="155"/>
-      <c r="F114" s="158"/>
+      <c r="E114" s="147"/>
+      <c r="F114" s="150"/>
     </row>
     <row r="115" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A115" s="152"/>
+      <c r="A115" s="144"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D115" s="8"/>
-      <c r="E115" s="155"/>
-      <c r="F115" s="158"/>
+      <c r="E115" s="147"/>
+      <c r="F115" s="150"/>
       <c r="I115" s="36"/>
     </row>
     <row r="116" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A116" s="152"/>
+      <c r="A116" s="144"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D116" s="8"/>
-      <c r="E116" s="155"/>
-      <c r="F116" s="158"/>
+      <c r="E116" s="147"/>
+      <c r="F116" s="150"/>
       <c r="I116" s="36"/>
     </row>
     <row r="117" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A117" s="152"/>
+      <c r="A117" s="144"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D117" s="8"/>
-      <c r="E117" s="155"/>
-      <c r="F117" s="158"/>
+      <c r="E117" s="147"/>
+      <c r="F117" s="150"/>
       <c r="I117" s="36"/>
     </row>
     <row r="118" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A118" s="152"/>
+      <c r="A118" s="144"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D118" s="8"/>
-      <c r="E118" s="155"/>
-      <c r="F118" s="158"/>
+      <c r="E118" s="147"/>
+      <c r="F118" s="150"/>
       <c r="I118" s="36"/>
     </row>
     <row r="119" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A119" s="153"/>
+      <c r="A119" s="145"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="29"/>
-      <c r="E119" s="156"/>
-      <c r="F119" s="159"/>
+      <c r="E119" s="148"/>
+      <c r="F119" s="151"/>
     </row>
     <row r="120" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A120" s="136" t="s">
+      <c r="A120" s="158" t="s">
         <v>51</v>
       </c>
       <c r="B120" s="23" t="s">
@@ -6002,20 +6000,20 @@
       <c r="C120" s="22"/>
       <c r="D120" s="22"/>
       <c r="E120" s="22"/>
-      <c r="F120" s="53" t="s">
+      <c r="F120" s="96" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A121" s="137"/>
+      <c r="A121" s="159"/>
       <c r="B121" s="16"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17"/>
       <c r="E121" s="17"/>
-      <c r="F121" s="54"/>
+      <c r="F121" s="97"/>
     </row>
     <row r="122" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A122" s="46" t="s">
+      <c r="A122" s="118" t="s">
         <v>52</v>
       </c>
       <c r="B122" s="15" t="s">
@@ -6024,32 +6022,32 @@
       <c r="C122" s="14"/>
       <c r="D122" s="14"/>
       <c r="E122" s="14"/>
-      <c r="F122" s="52" t="s">
+      <c r="F122" s="95" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A123" s="47"/>
+      <c r="A123" s="119"/>
       <c r="B123" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C123" s="31"/>
       <c r="D123" s="31"/>
       <c r="E123" s="31"/>
-      <c r="F123" s="53"/>
+      <c r="F123" s="96"/>
     </row>
     <row r="124" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A124" s="47"/>
+      <c r="A124" s="119"/>
       <c r="B124" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C124" s="19"/>
       <c r="D124" s="19"/>
       <c r="E124" s="19"/>
-      <c r="F124" s="53"/>
+      <c r="F124" s="96"/>
     </row>
     <row r="125" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A125" s="148" t="s">
+      <c r="A125" s="140" t="s">
         <v>81</v>
       </c>
       <c r="B125" s="15" t="s">
@@ -6058,36 +6056,36 @@
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
-      <c r="F125" s="73" t="s">
+      <c r="F125" s="81" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A126" s="149"/>
+      <c r="A126" s="141"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="80"/>
+      <c r="F126" s="82"/>
     </row>
     <row r="127" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A127" s="149"/>
+      <c r="A127" s="141"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="80"/>
+      <c r="F127" s="82"/>
     </row>
     <row r="128" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A128" s="150"/>
+      <c r="A128" s="142"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
-      <c r="F128" s="74"/>
+      <c r="F128" s="83"/>
     </row>
     <row r="129" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A129" s="46" t="s">
+      <c r="A129" s="118" t="s">
         <v>86</v>
       </c>
       <c r="B129" s="15" t="s">
@@ -6096,43 +6094,61 @@
       <c r="C129" s="14"/>
       <c r="D129" s="14"/>
       <c r="E129" s="14"/>
-      <c r="F129" s="52" t="s">
+      <c r="F129" s="95" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A130" s="47"/>
+      <c r="A130" s="119"/>
       <c r="B130" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C130" s="31"/>
       <c r="D130" s="31"/>
       <c r="E130" s="31"/>
-      <c r="F130" s="53"/>
+      <c r="F130" s="96"/>
     </row>
     <row r="131" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A131" s="48"/>
+      <c r="A131" s="120"/>
       <c r="B131" s="16" t="s">
         <v>84</v>
       </c>
       <c r="C131" s="17"/>
       <c r="D131" s="17"/>
       <c r="E131" s="17"/>
-      <c r="F131" s="54"/>
+      <c r="F131" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="F17:F23"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="E24:E30"/>
-    <mergeCell ref="F24:F30"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="E31:E40"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="E48:E55"/>
-    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="F57:F61"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="F31:F40"/>
+    <mergeCell ref="A48:A55"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="F10:F16"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="F3:F9"/>
+    <mergeCell ref="F48:F55"/>
+    <mergeCell ref="A31:A40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="F41:F47"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A124"/>
+    <mergeCell ref="F122:F124"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="A97:A108"/>
+    <mergeCell ref="F97:F108"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F71:F77"/>
+    <mergeCell ref="A71:A77"/>
     <mergeCell ref="A129:A131"/>
     <mergeCell ref="F129:F131"/>
     <mergeCell ref="A56:F56"/>
@@ -6149,35 +6165,17 @@
     <mergeCell ref="A83:A84"/>
     <mergeCell ref="F83:F84"/>
     <mergeCell ref="A88:A90"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A122:A124"/>
-    <mergeCell ref="F122:F124"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="A97:A108"/>
-    <mergeCell ref="F97:F108"/>
-    <mergeCell ref="F88:F90"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="F71:F77"/>
-    <mergeCell ref="A71:A77"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="F31:F40"/>
-    <mergeCell ref="A48:A55"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="F10:F16"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="F3:F9"/>
-    <mergeCell ref="F48:F55"/>
-    <mergeCell ref="A31:A40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="F41:F47"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="F17:F23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="E24:E30"/>
+    <mergeCell ref="F24:F30"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="E31:E40"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="E48:E55"/>
+    <mergeCell ref="A62:A64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6232,7 +6230,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6252,20 +6250,20 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="31" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6273,7 +6271,7 @@
         <v>148</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6281,7 +6279,7 @@
         <v>139</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6289,7 +6287,7 @@
         <v>140</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6297,7 +6295,7 @@
         <v>141</v>
       </c>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6305,7 +6303,7 @@
         <v>142</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6313,7 +6311,7 @@
         <v>143</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6321,7 +6319,7 @@
         <v>144</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6329,7 +6327,7 @@
         <v>145</v>
       </c>
       <c r="B14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -6337,23 +6335,23 @@
         <v>149</v>
       </c>
       <c r="B15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1"/>

--- a/description.xlsx
+++ b/description.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="223">
   <si>
     <t>SET_ORI(W,P,R)</t>
   </si>
@@ -542,10 +542,6 @@
     <t>PR[9] - фрейм плоскости наплавки относительно WORLD</t>
   </si>
   <si>
-    <t xml:space="preserve">центр каждого сечения определяется как центр масс из центров 4 окружностей, ось Z направлена от 1 го сечения ко 2му,
-оси выровнены по PR[10] </t>
-  </si>
-  <si>
     <t>n1..n4 - номера PR с измерениями нижнего сечения</t>
   </si>
   <si>
@@ -697,6 +693,39 @@
   </si>
   <si>
     <t>SET_IN_ST(till, rot).MR</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">центр каждого сечения определяется как центр масс из центров 4 окружностей, ось Z направлена от 1 го сечения ко 2му,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">оси выровнены по PR[10] </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>центр каждого сечения определяется как центр масс из центров 4 окружностей, плоскость XY определяется по 3м точка то</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>рца, оси паралельны Pr[10]</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -732,15 +761,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1184,7 +1212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1261,120 +1289,207 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1384,12 +1499,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1408,116 +1517,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1528,17 +1562,23 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1591,43 +1631,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1932,8 +1951,8 @@
   <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1969,54 +1988,54 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="104"/>
     </row>
     <row r="3" spans="1:6" ht="21" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="105" t="s">
         <v>164</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="12"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="108" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1">
-      <c r="A4" s="63"/>
+      <c r="A4" s="106"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="8"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="66"/>
+      <c r="F4" s="109"/>
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1">
-      <c r="A5" s="63"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="8"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="66"/>
+      <c r="F5" s="109"/>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" thickBot="1">
-      <c r="A6" s="64"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="9"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="67"/>
+      <c r="F6" s="110"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1">
-      <c r="A7" s="59" t="s">
-        <v>221</v>
+      <c r="A7" s="93" t="s">
+        <v>220</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
@@ -2028,12 +2047,12 @@
       <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="59" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1">
-      <c r="A8" s="60"/>
+      <c r="A8" s="94"/>
       <c r="B8" s="1" t="s">
         <v>95</v>
       </c>
@@ -2044,12 +2063,12 @@
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="52"/>
+      <c r="F8" s="59"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1">
-      <c r="A9" s="60"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="9" t="s">
@@ -2058,10 +2077,10 @@
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="59"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1">
-      <c r="A10" s="60"/>
+      <c r="A10" s="94"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="8" t="s">
@@ -2070,10 +2089,10 @@
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="52"/>
+      <c r="F10" s="59"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="60"/>
+      <c r="A11" s="94"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="8" t="s">
@@ -2082,10 +2101,10 @@
       <c r="E11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="52"/>
+      <c r="F11" s="59"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="60"/>
+      <c r="A12" s="94"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="8" t="s">
@@ -2094,10 +2113,10 @@
       <c r="E12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="52"/>
+      <c r="F12" s="59"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="61"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="13" t="s">
@@ -2106,11 +2125,11 @@
       <c r="E13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="53"/>
+      <c r="F13" s="60"/>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1">
-      <c r="A14" s="59" t="s">
-        <v>220</v>
+      <c r="A14" s="93" t="s">
+        <v>219</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
@@ -2122,12 +2141,12 @@
       <c r="E14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="58" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1">
-      <c r="A15" s="60"/>
+      <c r="A15" s="94"/>
       <c r="B15" s="1" t="s">
         <v>95</v>
       </c>
@@ -2138,12 +2157,12 @@
       <c r="E15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="52"/>
+      <c r="F15" s="59"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1">
-      <c r="A16" s="60"/>
+      <c r="A16" s="94"/>
       <c r="B16" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="9" t="s">
@@ -2152,10 +2171,10 @@
       <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="52"/>
+      <c r="F16" s="59"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1">
-      <c r="A17" s="60"/>
+      <c r="A17" s="94"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="8" t="s">
@@ -2164,10 +2183,10 @@
       <c r="E17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="52"/>
+      <c r="F17" s="59"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
-      <c r="A18" s="60"/>
+      <c r="A18" s="94"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="8" t="s">
@@ -2176,10 +2195,10 @@
       <c r="E18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="52"/>
+      <c r="F18" s="59"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1">
-      <c r="A19" s="60"/>
+      <c r="A19" s="94"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="8" t="s">
@@ -2188,10 +2207,10 @@
       <c r="E19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="52"/>
+      <c r="F19" s="59"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A20" s="61"/>
+      <c r="A20" s="95"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="13" t="s">
@@ -2200,10 +2219,10 @@
       <c r="E20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="53"/>
+      <c r="F20" s="60"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="93" t="s">
         <v>165</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2215,15 +2234,15 @@
       <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="71" t="s">
+      <c r="F21" s="96" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1">
-      <c r="A22" s="69"/>
+      <c r="A22" s="94"/>
       <c r="B22" s="1" t="s">
         <v>156</v>
       </c>
@@ -2233,75 +2252,75 @@
       <c r="D22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="72"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="97"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1">
-      <c r="A23" s="69"/>
+      <c r="A23" s="94"/>
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="99" t="s">
         <v>158</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="72"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="97"/>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1">
-      <c r="A24" s="69"/>
+      <c r="A24" s="94"/>
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="75"/>
+      <c r="C24" s="100"/>
       <c r="D24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="49"/>
-      <c r="F24" s="72"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="97"/>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1">
-      <c r="A25" s="69"/>
+      <c r="A25" s="94"/>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="74" t="s">
+      <c r="C25" s="99" t="s">
         <v>157</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="72"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="97"/>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1">
-      <c r="A26" s="69"/>
+      <c r="A26" s="94"/>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="76"/>
+      <c r="C26" s="101"/>
       <c r="D26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="72"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="97"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="70"/>
+      <c r="A27" s="95"/>
       <c r="B27" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C27" s="77"/>
+      <c r="C27" s="102"/>
       <c r="D27" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="73"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="98"/>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="93" t="s">
         <v>161</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2313,15 +2332,15 @@
       <c r="D28" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="48" t="s">
+      <c r="E28" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="51" t="s">
+      <c r="F28" s="58" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1">
-      <c r="A29" s="55"/>
+      <c r="A29" s="94"/>
       <c r="B29" s="1" t="s">
         <v>22</v>
       </c>
@@ -2331,11 +2350,11 @@
       <c r="D29" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="49"/>
-      <c r="F29" s="52"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="59"/>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1">
-      <c r="A30" s="55"/>
+      <c r="A30" s="94"/>
       <c r="B30" s="1" t="s">
         <v>20</v>
       </c>
@@ -2345,11 +2364,11 @@
       <c r="D30" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="49"/>
-      <c r="F30" s="52"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="59"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1">
-      <c r="A31" s="55"/>
+      <c r="A31" s="94"/>
       <c r="B31" s="1" t="s">
         <v>21</v>
       </c>
@@ -2357,11 +2376,11 @@
       <c r="D31" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="49"/>
-      <c r="F31" s="52"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="59"/>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1">
-      <c r="A32" s="55"/>
+      <c r="A32" s="94"/>
       <c r="B32" s="1" t="s">
         <v>23</v>
       </c>
@@ -2369,11 +2388,11 @@
       <c r="D32" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="49"/>
-      <c r="F32" s="52"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="59"/>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1">
-      <c r="A33" s="55"/>
+      <c r="A33" s="94"/>
       <c r="B33" s="1" t="s">
         <v>24</v>
       </c>
@@ -2381,11 +2400,11 @@
       <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="49"/>
-      <c r="F33" s="52"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="59"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="56"/>
+      <c r="A34" s="95"/>
       <c r="B34" s="4" t="s">
         <v>159</v>
       </c>
@@ -2393,12 +2412,12 @@
       <c r="D34" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="50"/>
-      <c r="F34" s="53"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="60"/>
     </row>
     <row r="35" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A35" s="84" t="s">
-        <v>181</v>
+      <c r="A35" s="113" t="s">
+        <v>180</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>48</v>
@@ -2409,15 +2428,15 @@
       <c r="D35" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="48" t="s">
+      <c r="E35" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="51" t="s">
+      <c r="F35" s="58" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A36" s="85"/>
+      <c r="A36" s="114"/>
       <c r="B36" s="1" t="s">
         <v>70</v>
       </c>
@@ -2425,11 +2444,11 @@
       <c r="D36" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="49"/>
-      <c r="F36" s="52"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="59"/>
     </row>
     <row r="37" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A37" s="85"/>
+      <c r="A37" s="114"/>
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -2437,134 +2456,134 @@
       <c r="D37" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="49"/>
-      <c r="F37" s="52"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="59"/>
     </row>
     <row r="38" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A38" s="85"/>
+      <c r="A38" s="114"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="49"/>
-      <c r="F38" s="52"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="59"/>
     </row>
     <row r="39" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A39" s="85"/>
+      <c r="A39" s="114"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="49"/>
-      <c r="F39" s="52"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="59"/>
     </row>
     <row r="40" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A40" s="85"/>
+      <c r="A40" s="114"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="49"/>
-      <c r="F40" s="52"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="59"/>
     </row>
     <row r="41" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A41" s="86"/>
+      <c r="A41" s="115"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="50"/>
-      <c r="F41" s="53"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="60"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1">
-      <c r="A42" s="87" t="s">
-        <v>182</v>
+      <c r="A42" s="91" t="s">
+        <v>181</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="E42" s="48"/>
-      <c r="F42" s="51" t="s">
-        <v>183</v>
+        <v>187</v>
+      </c>
+      <c r="E42" s="63"/>
+      <c r="F42" s="58" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="88"/>
+      <c r="A43" s="92"/>
       <c r="B43" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="E43" s="49"/>
-      <c r="F43" s="52"/>
+        <v>186</v>
+      </c>
+      <c r="E43" s="64"/>
+      <c r="F43" s="59"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="88"/>
+      <c r="A44" s="92"/>
       <c r="B44" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="E44" s="49"/>
-      <c r="F44" s="52"/>
+        <v>185</v>
+      </c>
+      <c r="E44" s="64"/>
+      <c r="F44" s="59"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A45" s="88"/>
+      <c r="A45" s="92"/>
       <c r="B45" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="E45" s="49"/>
-      <c r="F45" s="52"/>
+        <v>184</v>
+      </c>
+      <c r="E45" s="64"/>
+      <c r="F45" s="59"/>
     </row>
     <row r="46" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A46" s="87" t="s">
+      <c r="A46" s="91" t="s">
         <v>150</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="90" t="s">
+      <c r="C46" s="117" t="s">
         <v>45</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="92" t="s">
+      <c r="E46" s="119" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="95" t="s">
+      <c r="F46" s="52" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1">
-      <c r="A47" s="88"/>
+      <c r="A47" s="92"/>
       <c r="B47" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="91"/>
+      <c r="C47" s="118"/>
       <c r="D47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="93"/>
-      <c r="F47" s="96"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="53"/>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1">
-      <c r="A48" s="88"/>
+      <c r="A48" s="92"/>
       <c r="B48" s="5" t="s">
         <v>29</v>
       </c>
@@ -2574,11 +2593,11 @@
       <c r="D48" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="93"/>
-      <c r="F48" s="96"/>
+      <c r="E48" s="120"/>
+      <c r="F48" s="53"/>
     </row>
     <row r="49" spans="1:6" ht="30" customHeight="1">
-      <c r="A49" s="88"/>
+      <c r="A49" s="92"/>
       <c r="B49" s="24" t="s">
         <v>30</v>
       </c>
@@ -2588,11 +2607,11 @@
       <c r="D49" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="93"/>
-      <c r="F49" s="96"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="53"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1">
-      <c r="A50" s="88"/>
+      <c r="A50" s="92"/>
       <c r="B50" s="24" t="s">
         <v>31</v>
       </c>
@@ -2602,11 +2621,11 @@
       <c r="D50" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="93"/>
-      <c r="F50" s="96"/>
+      <c r="E50" s="120"/>
+      <c r="F50" s="53"/>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1">
-      <c r="A51" s="88"/>
+      <c r="A51" s="92"/>
       <c r="B51" s="24" t="s">
         <v>32</v>
       </c>
@@ -2614,11 +2633,11 @@
       <c r="D51" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="93"/>
-      <c r="F51" s="96"/>
+      <c r="E51" s="120"/>
+      <c r="F51" s="53"/>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1">
-      <c r="A52" s="88"/>
+      <c r="A52" s="92"/>
       <c r="B52" s="24" t="s">
         <v>33</v>
       </c>
@@ -2626,29 +2645,29 @@
       <c r="D52" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="93"/>
-      <c r="F52" s="96"/>
+      <c r="E52" s="120"/>
+      <c r="F52" s="53"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A53" s="89"/>
+      <c r="A53" s="116"/>
       <c r="B53" s="25"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
-      <c r="E53" s="94"/>
-      <c r="F53" s="97"/>
+      <c r="E53" s="121"/>
+      <c r="F53" s="54"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A54" s="98" t="s">
+      <c r="A54" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="B54" s="98"/>
-      <c r="C54" s="98"/>
-      <c r="D54" s="98"/>
-      <c r="E54" s="98"/>
-      <c r="F54" s="98"/>
+      <c r="B54" s="122"/>
+      <c r="C54" s="122"/>
+      <c r="D54" s="122"/>
+      <c r="E54" s="122"/>
+      <c r="F54" s="122"/>
     </row>
     <row r="55" spans="1:6" ht="30" customHeight="1">
-      <c r="A55" s="78" t="s">
+      <c r="A55" s="74" t="s">
         <v>62</v>
       </c>
       <c r="B55" s="12" t="s">
@@ -2659,10 +2678,10 @@
         <v>34</v>
       </c>
       <c r="E55" s="3"/>
-      <c r="F55" s="81"/>
+      <c r="F55" s="68"/>
     </row>
     <row r="56" spans="1:6" ht="30" customHeight="1">
-      <c r="A56" s="79"/>
+      <c r="A56" s="87"/>
       <c r="B56" s="8" t="s">
         <v>15</v>
       </c>
@@ -2671,10 +2690,10 @@
         <v>15</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="82"/>
+      <c r="F56" s="69"/>
     </row>
     <row r="57" spans="1:6" ht="45" customHeight="1">
-      <c r="A57" s="79"/>
+      <c r="A57" s="87"/>
       <c r="B57" s="9" t="s">
         <v>10</v>
       </c>
@@ -2683,26 +2702,26 @@
         <v>10</v>
       </c>
       <c r="E57" s="2"/>
-      <c r="F57" s="82"/>
+      <c r="F57" s="69"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="79"/>
+      <c r="A58" s="87"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="82"/>
+      <c r="F58" s="69"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A59" s="80"/>
+      <c r="A59" s="75"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="83"/>
+      <c r="F59" s="70"/>
     </row>
     <row r="60" spans="1:6" ht="30" customHeight="1">
-      <c r="A60" s="99" t="s">
+      <c r="A60" s="160" t="s">
         <v>12</v>
       </c>
       <c r="B60" s="3"/>
@@ -2713,26 +2732,26 @@
         <v>13</v>
       </c>
       <c r="E60" s="3"/>
-      <c r="F60" s="81"/>
+      <c r="F60" s="68"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="100"/>
+      <c r="A61" s="161"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="82"/>
+      <c r="F61" s="69"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A62" s="101"/>
+      <c r="A62" s="162"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="83"/>
+      <c r="F62" s="70"/>
     </row>
     <row r="63" spans="1:6" ht="30" customHeight="1">
-      <c r="A63" s="78" t="s">
+      <c r="A63" s="74" t="s">
         <v>0</v>
       </c>
       <c r="B63" s="8" t="s">
@@ -2743,10 +2762,10 @@
         <v>7</v>
       </c>
       <c r="E63" s="3"/>
-      <c r="F63" s="81"/>
+      <c r="F63" s="68"/>
     </row>
     <row r="64" spans="1:6" ht="30" customHeight="1">
-      <c r="A64" s="79"/>
+      <c r="A64" s="87"/>
       <c r="B64" s="8" t="s">
         <v>8</v>
       </c>
@@ -2755,10 +2774,10 @@
         <v>8</v>
       </c>
       <c r="E64" s="1"/>
-      <c r="F64" s="82"/>
+      <c r="F64" s="69"/>
     </row>
     <row r="65" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A65" s="80"/>
+      <c r="A65" s="75"/>
       <c r="B65" s="13" t="s">
         <v>9</v>
       </c>
@@ -2767,10 +2786,10 @@
         <v>9</v>
       </c>
       <c r="E65" s="4"/>
-      <c r="F65" s="83"/>
+      <c r="F65" s="70"/>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1">
-      <c r="A66" s="78" t="s">
+      <c r="A66" s="74" t="s">
         <v>42</v>
       </c>
       <c r="B66" s="9" t="s">
@@ -2781,10 +2800,10 @@
         <v>39</v>
       </c>
       <c r="E66" s="3"/>
-      <c r="F66" s="81"/>
+      <c r="F66" s="68"/>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1">
-      <c r="A67" s="79"/>
+      <c r="A67" s="87"/>
       <c r="B67" s="9" t="s">
         <v>40</v>
       </c>
@@ -2793,10 +2812,10 @@
         <v>40</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="82"/>
+      <c r="F67" s="69"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A68" s="80"/>
+      <c r="A68" s="75"/>
       <c r="B68" s="9" t="s">
         <v>41</v>
       </c>
@@ -2805,10 +2824,10 @@
         <v>41</v>
       </c>
       <c r="E68" s="4"/>
-      <c r="F68" s="83"/>
+      <c r="F68" s="70"/>
     </row>
     <row r="69" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A69" s="108" t="s">
+      <c r="A69" s="163" t="s">
         <v>169</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -2823,12 +2842,12 @@
       <c r="E69" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F69" s="81" t="s">
+      <c r="F69" s="68" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A70" s="109"/>
+      <c r="A70" s="164"/>
       <c r="B70" s="1" t="s">
         <v>17</v>
       </c>
@@ -2841,10 +2860,10 @@
       <c r="E70" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F70" s="82"/>
+      <c r="F70" s="69"/>
     </row>
     <row r="71" spans="1:6" ht="30" customHeight="1">
-      <c r="A71" s="109"/>
+      <c r="A71" s="164"/>
       <c r="B71" s="1" t="s">
         <v>18</v>
       </c>
@@ -2857,10 +2876,10 @@
       <c r="E71" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F71" s="82"/>
+      <c r="F71" s="69"/>
     </row>
     <row r="72" spans="1:6" ht="30" customHeight="1">
-      <c r="A72" s="109"/>
+      <c r="A72" s="164"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="8" t="s">
@@ -2869,10 +2888,10 @@
       <c r="E72" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="82"/>
+      <c r="F72" s="69"/>
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1">
-      <c r="A73" s="109"/>
+      <c r="A73" s="164"/>
       <c r="B73" s="7"/>
       <c r="C73" s="1"/>
       <c r="D73" s="8" t="s">
@@ -2881,10 +2900,10 @@
       <c r="E73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F73" s="82"/>
+      <c r="F73" s="69"/>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1">
-      <c r="A74" s="109"/>
+      <c r="A74" s="164"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="8" t="s">
@@ -2893,10 +2912,10 @@
       <c r="E74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F74" s="82"/>
+      <c r="F74" s="69"/>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A75" s="110"/>
+      <c r="A75" s="165"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="29" t="s">
@@ -2905,10 +2924,10 @@
       <c r="E75" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F75" s="83"/>
+      <c r="F75" s="70"/>
     </row>
     <row r="76" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A76" s="102" t="s">
+      <c r="A76" s="81" t="s">
         <v>58</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -2923,12 +2942,12 @@
       <c r="E76" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F76" s="81" t="s">
+      <c r="F76" s="68" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A77" s="103"/>
+      <c r="A77" s="82"/>
       <c r="B77" s="1" t="s">
         <v>17</v>
       </c>
@@ -2941,10 +2960,10 @@
       <c r="E77" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F77" s="82"/>
+      <c r="F77" s="69"/>
     </row>
     <row r="78" spans="1:6" ht="30" customHeight="1">
-      <c r="A78" s="103"/>
+      <c r="A78" s="82"/>
       <c r="B78" s="1" t="s">
         <v>18</v>
       </c>
@@ -2955,10 +2974,10 @@
       <c r="E78" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F78" s="82"/>
+      <c r="F78" s="69"/>
     </row>
     <row r="79" spans="1:6" ht="30" customHeight="1">
-      <c r="A79" s="103"/>
+      <c r="A79" s="82"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="8" t="s">
@@ -2967,10 +2986,10 @@
       <c r="E79" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F79" s="82"/>
+      <c r="F79" s="69"/>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1">
-      <c r="A80" s="103"/>
+      <c r="A80" s="82"/>
       <c r="B80" s="7"/>
       <c r="C80" s="1"/>
       <c r="D80" s="8" t="s">
@@ -2979,10 +2998,10 @@
       <c r="E80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F80" s="82"/>
+      <c r="F80" s="69"/>
     </row>
     <row r="81" spans="1:6" ht="15" customHeight="1">
-      <c r="A81" s="103"/>
+      <c r="A81" s="82"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="8" t="s">
@@ -2991,10 +3010,10 @@
       <c r="E81" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F81" s="82"/>
+      <c r="F81" s="69"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A82" s="104"/>
+      <c r="A82" s="83"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="29" t="s">
@@ -3003,10 +3022,10 @@
       <c r="E82" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F82" s="83"/>
+      <c r="F82" s="70"/>
     </row>
     <row r="83" spans="1:6" ht="15" customHeight="1">
-      <c r="A83" s="78" t="s">
+      <c r="A83" s="74" t="s">
         <v>66</v>
       </c>
       <c r="B83" s="26" t="s">
@@ -3021,30 +3040,30 @@
       <c r="E83" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F83" s="105" t="s">
+      <c r="F83" s="88" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="79"/>
+      <c r="A84" s="87"/>
       <c r="B84" s="30"/>
       <c r="C84" s="22"/>
       <c r="D84" s="21"/>
       <c r="E84" s="31"/>
-      <c r="F84" s="106"/>
+      <c r="F84" s="89"/>
     </row>
     <row r="85" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A85" s="80"/>
+      <c r="A85" s="75"/>
       <c r="B85" s="25"/>
       <c r="C85" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D85" s="16"/>
       <c r="E85" s="17"/>
-      <c r="F85" s="107"/>
+      <c r="F85" s="90"/>
     </row>
     <row r="86" spans="1:6" ht="15" customHeight="1">
-      <c r="A86" s="78" t="s">
+      <c r="A86" s="74" t="s">
         <v>112</v>
       </c>
       <c r="B86" s="27" t="s">
@@ -3059,22 +3078,22 @@
       <c r="E86" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F86" s="81" t="s">
+      <c r="F86" s="68" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A87" s="80"/>
+      <c r="A87" s="75"/>
       <c r="B87" s="28"/>
       <c r="C87" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="19"/>
-      <c r="F87" s="83"/>
+      <c r="F87" s="70"/>
     </row>
     <row r="88" spans="1:6" ht="15" customHeight="1">
-      <c r="A88" s="78" t="s">
+      <c r="A88" s="74" t="s">
         <v>65</v>
       </c>
       <c r="B88" s="27" t="s">
@@ -3089,59 +3108,59 @@
       <c r="E88" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F88" s="115"/>
+      <c r="F88" s="76"/>
     </row>
     <row r="89" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A89" s="80"/>
+      <c r="A89" s="75"/>
       <c r="B89" s="28"/>
       <c r="C89" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="19"/>
-      <c r="F89" s="117"/>
+      <c r="F89" s="77"/>
     </row>
     <row r="90" spans="1:6" ht="45" customHeight="1">
-      <c r="A90" s="99" t="s">
+      <c r="A90" s="71" t="s">
         <v>168</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="81" t="s">
-        <v>172</v>
+      <c r="F90" s="68" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A91" s="100"/>
+      <c r="A91" s="72"/>
       <c r="B91" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C91" s="17" t="s">
         <v>166</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="82"/>
+      <c r="F91" s="69"/>
     </row>
     <row r="92" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A92" s="101"/>
+      <c r="A92" s="73"/>
       <c r="B92" s="25"/>
       <c r="C92" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
-      <c r="F92" s="83"/>
+      <c r="F92" s="70"/>
     </row>
     <row r="93" spans="1:6" ht="30" customHeight="1">
-      <c r="A93" s="99" t="s">
-        <v>179</v>
+      <c r="A93" s="71" t="s">
+        <v>178</v>
       </c>
       <c r="B93" s="15" t="s">
         <v>108</v>
@@ -3151,32 +3170,32 @@
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
-      <c r="F93" s="81" t="s">
-        <v>111</v>
+      <c r="F93" s="68" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="30" customHeight="1">
-      <c r="A94" s="100"/>
+      <c r="A94" s="72"/>
       <c r="B94" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="82"/>
+      <c r="F94" s="69"/>
     </row>
     <row r="95" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A95" s="101"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="25"/>
       <c r="C95" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="83"/>
+      <c r="F95" s="70"/>
     </row>
     <row r="96" spans="1:6" ht="30" customHeight="1">
-      <c r="A96" s="102" t="s">
+      <c r="A96" s="81" t="s">
         <v>167</v>
       </c>
       <c r="B96" s="3"/>
@@ -3185,62 +3204,62 @@
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
-      <c r="F96" s="81" t="s">
+      <c r="F96" s="68" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="103"/>
+      <c r="A97" s="82"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="82"/>
+      <c r="F97" s="69"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="103"/>
+      <c r="A98" s="82"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="82"/>
+      <c r="F98" s="69"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="103"/>
+      <c r="A99" s="82"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="82"/>
+      <c r="F99" s="69"/>
     </row>
     <row r="100" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A100" s="104"/>
+      <c r="A100" s="83"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
-      <c r="F100" s="83"/>
+      <c r="F100" s="70"/>
     </row>
     <row r="101" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A101" s="111" t="s">
+      <c r="A101" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="B101" s="111"/>
-      <c r="C101" s="111"/>
-      <c r="D101" s="111"/>
-      <c r="E101" s="111"/>
-      <c r="F101" s="111"/>
+      <c r="B101" s="84"/>
+      <c r="C101" s="84"/>
+      <c r="D101" s="84"/>
+      <c r="E101" s="84"/>
+      <c r="F101" s="84"/>
     </row>
     <row r="102" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A102" s="112" t="s">
+      <c r="A102" s="61" t="s">
         <v>50</v>
       </c>
       <c r="B102" s="3"/>
@@ -3251,12 +3270,12 @@
       <c r="E102" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F102" s="115" t="s">
+      <c r="F102" s="76" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A103" s="113"/>
+      <c r="A103" s="62"/>
       <c r="B103" s="1"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8" t="s">
@@ -3265,10 +3284,10 @@
       <c r="E103" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F103" s="116"/>
+      <c r="F103" s="86"/>
     </row>
     <row r="104" spans="1:6" ht="30" customHeight="1">
-      <c r="A104" s="113"/>
+      <c r="A104" s="62"/>
       <c r="B104" s="1"/>
       <c r="C104" s="8"/>
       <c r="D104" s="9" t="s">
@@ -3277,10 +3296,10 @@
       <c r="E104" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F104" s="116"/>
+      <c r="F104" s="86"/>
     </row>
     <row r="105" spans="1:6" ht="30" customHeight="1">
-      <c r="A105" s="113"/>
+      <c r="A105" s="62"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="8" t="s">
@@ -3289,10 +3308,10 @@
       <c r="E105" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F105" s="116"/>
+      <c r="F105" s="86"/>
     </row>
     <row r="106" spans="1:6" ht="15" customHeight="1">
-      <c r="A106" s="113"/>
+      <c r="A106" s="62"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="8" t="s">
@@ -3301,10 +3320,10 @@
       <c r="E106" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F106" s="116"/>
+      <c r="F106" s="86"/>
     </row>
     <row r="107" spans="1:6" ht="15" customHeight="1">
-      <c r="A107" s="113"/>
+      <c r="A107" s="62"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="8" t="s">
@@ -3313,10 +3332,10 @@
       <c r="E107" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F107" s="116"/>
+      <c r="F107" s="86"/>
     </row>
     <row r="108" spans="1:6" ht="15" customHeight="1">
-      <c r="A108" s="113"/>
+      <c r="A108" s="62"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="8" t="s">
@@ -3325,10 +3344,10 @@
       <c r="E108" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F108" s="116"/>
+      <c r="F108" s="86"/>
     </row>
     <row r="109" spans="1:6" ht="15" customHeight="1">
-      <c r="A109" s="113"/>
+      <c r="A109" s="62"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="9" t="s">
@@ -3337,10 +3356,10 @@
       <c r="E109" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F109" s="116"/>
+      <c r="F109" s="86"/>
     </row>
     <row r="110" spans="1:6" ht="15" customHeight="1">
-      <c r="A110" s="113"/>
+      <c r="A110" s="62"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="9" t="s">
@@ -3349,10 +3368,10 @@
       <c r="E110" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F110" s="116"/>
+      <c r="F110" s="86"/>
     </row>
     <row r="111" spans="1:6" ht="15" customHeight="1">
-      <c r="A111" s="113"/>
+      <c r="A111" s="62"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="9" t="s">
@@ -3361,59 +3380,59 @@
       <c r="E111" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F111" s="116"/>
+      <c r="F111" s="86"/>
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1">
-      <c r="A112" s="113"/>
+      <c r="A112" s="62"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E112" s="19"/>
-      <c r="F112" s="116"/>
+      <c r="F112" s="86"/>
     </row>
     <row r="113" spans="1:6" ht="15" customHeight="1">
-      <c r="A113" s="113"/>
+      <c r="A113" s="62"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E113" s="19"/>
-      <c r="F113" s="116"/>
+      <c r="F113" s="86"/>
     </row>
     <row r="114" spans="1:6" ht="15" customHeight="1">
-      <c r="A114" s="113"/>
+      <c r="A114" s="62"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E114" s="19"/>
-      <c r="F114" s="116"/>
+      <c r="F114" s="86"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="113"/>
+      <c r="A115" s="62"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E115" s="19"/>
-      <c r="F115" s="116"/>
+      <c r="F115" s="86"/>
     </row>
     <row r="116" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A116" s="114"/>
+      <c r="A116" s="85"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="18"/>
       <c r="E116" s="19"/>
-      <c r="F116" s="117"/>
+      <c r="F116" s="77"/>
     </row>
     <row r="117" spans="1:6" ht="30" customHeight="1">
-      <c r="A117" s="46" t="s">
-        <v>219</v>
+      <c r="A117" s="111" t="s">
+        <v>218</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>19</v>
@@ -3424,15 +3443,15 @@
       <c r="D117" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E117" s="48" t="s">
+      <c r="E117" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="F117" s="51" t="s">
+      <c r="F117" s="58" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="30" customHeight="1">
-      <c r="A118" s="47"/>
+      <c r="A118" s="112"/>
       <c r="B118" s="1" t="s">
         <v>22</v>
       </c>
@@ -3442,11 +3461,11 @@
       <c r="D118" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E118" s="49"/>
-      <c r="F118" s="52"/>
+      <c r="E118" s="64"/>
+      <c r="F118" s="59"/>
     </row>
     <row r="119" spans="1:6" ht="30" customHeight="1">
-      <c r="A119" s="47"/>
+      <c r="A119" s="112"/>
       <c r="B119" s="1" t="s">
         <v>20</v>
       </c>
@@ -3456,11 +3475,11 @@
       <c r="D119" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E119" s="49"/>
-      <c r="F119" s="52"/>
+      <c r="E119" s="64"/>
+      <c r="F119" s="59"/>
     </row>
     <row r="120" spans="1:6" ht="30" customHeight="1">
-      <c r="A120" s="47"/>
+      <c r="A120" s="112"/>
       <c r="B120" s="1" t="s">
         <v>21</v>
       </c>
@@ -3468,11 +3487,11 @@
       <c r="D120" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E120" s="49"/>
-      <c r="F120" s="52"/>
+      <c r="E120" s="64"/>
+      <c r="F120" s="59"/>
     </row>
     <row r="121" spans="1:6" ht="15" customHeight="1">
-      <c r="A121" s="47"/>
+      <c r="A121" s="112"/>
       <c r="B121" s="1" t="s">
         <v>23</v>
       </c>
@@ -3480,11 +3499,11 @@
       <c r="D121" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E121" s="49"/>
-      <c r="F121" s="52"/>
+      <c r="E121" s="64"/>
+      <c r="F121" s="59"/>
     </row>
     <row r="122" spans="1:6" ht="15" customHeight="1">
-      <c r="A122" s="47"/>
+      <c r="A122" s="112"/>
       <c r="B122" s="1" t="s">
         <v>24</v>
       </c>
@@ -3492,22 +3511,22 @@
       <c r="D122" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E122" s="49"/>
-      <c r="F122" s="52"/>
+      <c r="E122" s="64"/>
+      <c r="F122" s="59"/>
     </row>
     <row r="123" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A123" s="47"/>
+      <c r="A123" s="112"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E123" s="50"/>
-      <c r="F123" s="53"/>
+      <c r="E123" s="65"/>
+      <c r="F123" s="60"/>
     </row>
     <row r="124" spans="1:6" ht="30" customHeight="1">
-      <c r="A124" s="112" t="s">
-        <v>192</v>
+      <c r="A124" s="61" t="s">
+        <v>191</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>19</v>
@@ -3518,15 +3537,15 @@
       <c r="D124" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E124" s="48" t="s">
+      <c r="E124" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="F124" s="51" t="s">
+      <c r="F124" s="58" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="30" customHeight="1">
-      <c r="A125" s="113"/>
+      <c r="A125" s="62"/>
       <c r="B125" s="1" t="s">
         <v>22</v>
       </c>
@@ -3536,11 +3555,11 @@
       <c r="D125" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E125" s="49"/>
-      <c r="F125" s="52"/>
+      <c r="E125" s="64"/>
+      <c r="F125" s="59"/>
     </row>
     <row r="126" spans="1:6" ht="30" customHeight="1">
-      <c r="A126" s="113"/>
+      <c r="A126" s="62"/>
       <c r="B126" s="1" t="s">
         <v>20</v>
       </c>
@@ -3550,11 +3569,11 @@
       <c r="D126" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E126" s="49"/>
-      <c r="F126" s="52"/>
+      <c r="E126" s="64"/>
+      <c r="F126" s="59"/>
     </row>
     <row r="127" spans="1:6" ht="30" customHeight="1">
-      <c r="A127" s="113"/>
+      <c r="A127" s="62"/>
       <c r="B127" s="1" t="s">
         <v>21</v>
       </c>
@@ -3562,11 +3581,11 @@
       <c r="D127" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E127" s="49"/>
-      <c r="F127" s="52"/>
+      <c r="E127" s="64"/>
+      <c r="F127" s="59"/>
     </row>
     <row r="128" spans="1:6" ht="15" customHeight="1">
-      <c r="A128" s="113"/>
+      <c r="A128" s="62"/>
       <c r="B128" s="1" t="s">
         <v>23</v>
       </c>
@@ -3574,11 +3593,11 @@
       <c r="D128" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E128" s="49"/>
-      <c r="F128" s="52"/>
+      <c r="E128" s="64"/>
+      <c r="F128" s="59"/>
     </row>
     <row r="129" spans="1:9" ht="15" customHeight="1">
-      <c r="A129" s="113"/>
+      <c r="A129" s="62"/>
       <c r="B129" s="1" t="s">
         <v>24</v>
       </c>
@@ -3586,22 +3605,22 @@
       <c r="D129" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E129" s="49"/>
-      <c r="F129" s="52"/>
+      <c r="E129" s="64"/>
+      <c r="F129" s="59"/>
     </row>
     <row r="130" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A130" s="113"/>
+      <c r="A130" s="62"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E130" s="50"/>
-      <c r="F130" s="53"/>
+      <c r="E130" s="65"/>
+      <c r="F130" s="60"/>
     </row>
     <row r="131" spans="1:9" ht="30" customHeight="1">
-      <c r="A131" s="112" t="s">
-        <v>193</v>
+      <c r="A131" s="61" t="s">
+        <v>192</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>19</v>
@@ -3612,15 +3631,15 @@
       <c r="D131" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E131" s="48" t="s">
+      <c r="E131" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="F131" s="51" t="s">
+      <c r="F131" s="58" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="30" customHeight="1">
-      <c r="A132" s="113"/>
+      <c r="A132" s="62"/>
       <c r="B132" s="1" t="s">
         <v>22</v>
       </c>
@@ -3630,11 +3649,11 @@
       <c r="D132" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E132" s="49"/>
-      <c r="F132" s="52"/>
+      <c r="E132" s="64"/>
+      <c r="F132" s="59"/>
     </row>
     <row r="133" spans="1:9" ht="30" customHeight="1">
-      <c r="A133" s="113"/>
+      <c r="A133" s="62"/>
       <c r="B133" s="1" t="s">
         <v>20</v>
       </c>
@@ -3644,11 +3663,11 @@
       <c r="D133" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E133" s="49"/>
-      <c r="F133" s="52"/>
+      <c r="E133" s="64"/>
+      <c r="F133" s="59"/>
     </row>
     <row r="134" spans="1:9" ht="30" customHeight="1">
-      <c r="A134" s="113"/>
+      <c r="A134" s="62"/>
       <c r="B134" s="1" t="s">
         <v>21</v>
       </c>
@@ -3656,11 +3675,11 @@
       <c r="D134" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E134" s="49"/>
-      <c r="F134" s="52"/>
+      <c r="E134" s="64"/>
+      <c r="F134" s="59"/>
     </row>
     <row r="135" spans="1:9" ht="15" customHeight="1">
-      <c r="A135" s="113"/>
+      <c r="A135" s="62"/>
       <c r="B135" s="1" t="s">
         <v>23</v>
       </c>
@@ -3668,11 +3687,11 @@
       <c r="D135" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E135" s="49"/>
-      <c r="F135" s="52"/>
+      <c r="E135" s="64"/>
+      <c r="F135" s="59"/>
     </row>
     <row r="136" spans="1:9" ht="15" customHeight="1">
-      <c r="A136" s="113"/>
+      <c r="A136" s="62"/>
       <c r="B136" s="1" t="s">
         <v>24</v>
       </c>
@@ -3680,39 +3699,39 @@
       <c r="D136" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E136" s="49"/>
-      <c r="F136" s="52"/>
+      <c r="E136" s="64"/>
+      <c r="F136" s="59"/>
     </row>
     <row r="137" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A137" s="113"/>
+      <c r="A137" s="62"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E137" s="50"/>
-      <c r="F137" s="53"/>
+      <c r="E137" s="65"/>
+      <c r="F137" s="60"/>
     </row>
     <row r="138" spans="1:9" ht="15" customHeight="1">
-      <c r="A138" s="121" t="s">
+      <c r="A138" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="E138" s="48"/>
-      <c r="F138" s="51" t="s">
-        <v>184</v>
+        <v>187</v>
+      </c>
+      <c r="E138" s="63"/>
+      <c r="F138" s="58" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="122"/>
+      <c r="A139" s="79"/>
       <c r="B139" s="1" t="s">
         <v>23</v>
       </c>
@@ -3720,122 +3739,122 @@
         <v>148</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="E139" s="49"/>
-      <c r="F139" s="52"/>
+        <v>186</v>
+      </c>
+      <c r="E139" s="64"/>
+      <c r="F139" s="59"/>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="122"/>
+      <c r="A140" s="79"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D140" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="E140" s="49"/>
-      <c r="F140" s="52"/>
+        <v>185</v>
+      </c>
+      <c r="E140" s="64"/>
+      <c r="F140" s="59"/>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="122"/>
+      <c r="A141" s="79"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D141" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="E141" s="49"/>
-      <c r="F141" s="52"/>
+        <v>184</v>
+      </c>
+      <c r="E141" s="64"/>
+      <c r="F141" s="59"/>
     </row>
     <row r="142" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A142" s="122"/>
+      <c r="A142" s="79"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D142" s="8"/>
-      <c r="E142" s="49"/>
-      <c r="F142" s="52"/>
+      <c r="E142" s="64"/>
+      <c r="F142" s="59"/>
     </row>
     <row r="143" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A143" s="122"/>
+      <c r="A143" s="79"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D143" s="8"/>
-      <c r="E143" s="49"/>
-      <c r="F143" s="52"/>
+      <c r="E143" s="64"/>
+      <c r="F143" s="59"/>
     </row>
     <row r="144" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A144" s="122"/>
+      <c r="A144" s="79"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D144" s="8"/>
-      <c r="E144" s="49"/>
-      <c r="F144" s="52"/>
+      <c r="E144" s="64"/>
+      <c r="F144" s="59"/>
       <c r="I144" s="36"/>
     </row>
     <row r="145" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A145" s="122"/>
+      <c r="A145" s="79"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D145" s="8"/>
-      <c r="E145" s="49"/>
-      <c r="F145" s="52"/>
+      <c r="E145" s="64"/>
+      <c r="F145" s="59"/>
       <c r="I145" s="36"/>
     </row>
     <row r="146" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A146" s="122"/>
+      <c r="A146" s="79"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D146" s="8"/>
-      <c r="E146" s="49"/>
-      <c r="F146" s="52"/>
+      <c r="E146" s="64"/>
+      <c r="F146" s="59"/>
       <c r="I146" s="36"/>
     </row>
     <row r="147" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A147" s="122"/>
+      <c r="A147" s="79"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D147" s="8"/>
-      <c r="E147" s="49"/>
-      <c r="F147" s="52"/>
+      <c r="E147" s="64"/>
+      <c r="F147" s="59"/>
       <c r="I147" s="36"/>
     </row>
     <row r="148" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A148" s="122"/>
+      <c r="A148" s="79"/>
       <c r="B148" s="2"/>
       <c r="C148" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D148" s="13"/>
-      <c r="E148" s="49"/>
-      <c r="F148" s="52"/>
+      <c r="E148" s="64"/>
+      <c r="F148" s="59"/>
       <c r="I148" s="36"/>
     </row>
     <row r="149" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A149" s="123"/>
+      <c r="A149" s="80"/>
       <c r="B149" s="4"/>
       <c r="C149" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D149" s="29"/>
-      <c r="E149" s="50"/>
-      <c r="F149" s="53"/>
+      <c r="E149" s="65"/>
+      <c r="F149" s="60"/>
     </row>
     <row r="150" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A150" s="127" t="s">
+      <c r="A150" s="66" t="s">
         <v>51</v>
       </c>
       <c r="B150" s="23" t="s">
@@ -3844,20 +3863,20 @@
       <c r="C150" s="22"/>
       <c r="D150" s="22"/>
       <c r="E150" s="22"/>
-      <c r="F150" s="95" t="s">
+      <c r="F150" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A151" s="128"/>
+      <c r="A151" s="67"/>
       <c r="B151" s="16"/>
       <c r="C151" s="17"/>
       <c r="D151" s="17"/>
       <c r="E151" s="17"/>
-      <c r="F151" s="97"/>
+      <c r="F151" s="54"/>
     </row>
     <row r="152" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A152" s="118" t="s">
+      <c r="A152" s="46" t="s">
         <v>52</v>
       </c>
       <c r="B152" s="15" t="s">
@@ -3866,32 +3885,32 @@
       <c r="C152" s="14"/>
       <c r="D152" s="14"/>
       <c r="E152" s="14"/>
-      <c r="F152" s="95" t="s">
+      <c r="F152" s="52" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A153" s="119"/>
+      <c r="A153" s="47"/>
       <c r="B153" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C153" s="31"/>
       <c r="D153" s="31"/>
       <c r="E153" s="31"/>
-      <c r="F153" s="96"/>
+      <c r="F153" s="53"/>
     </row>
     <row r="154" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A154" s="120"/>
+      <c r="A154" s="48"/>
       <c r="B154" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C154" s="19"/>
       <c r="D154" s="19"/>
       <c r="E154" s="19"/>
-      <c r="F154" s="97"/>
+      <c r="F154" s="54"/>
     </row>
     <row r="155" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A155" s="118" t="s">
+      <c r="A155" s="46" t="s">
         <v>152</v>
       </c>
       <c r="B155" s="15" t="s">
@@ -3900,36 +3919,36 @@
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
-      <c r="F155" s="81" t="s">
+      <c r="F155" s="68" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A156" s="119"/>
+      <c r="A156" s="47"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
-      <c r="F156" s="82"/>
+      <c r="F156" s="69"/>
     </row>
     <row r="157" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A157" s="119"/>
+      <c r="A157" s="47"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
-      <c r="F157" s="82"/>
+      <c r="F157" s="69"/>
     </row>
     <row r="158" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A158" s="120"/>
+      <c r="A158" s="48"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
-      <c r="F158" s="83"/>
+      <c r="F158" s="70"/>
     </row>
     <row r="159" spans="1:9" ht="15" customHeight="1">
-      <c r="A159" s="118" t="s">
+      <c r="A159" s="46" t="s">
         <v>86</v>
       </c>
       <c r="B159" s="15" t="s">
@@ -3938,380 +3957,459 @@
       <c r="C159" s="14"/>
       <c r="D159" s="14"/>
       <c r="E159" s="14"/>
-      <c r="F159" s="95" t="s">
+      <c r="F159" s="52" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15" customHeight="1">
-      <c r="A160" s="119"/>
+      <c r="A160" s="47"/>
       <c r="B160" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C160" s="31"/>
       <c r="D160" s="31"/>
       <c r="E160" s="31"/>
-      <c r="F160" s="96"/>
+      <c r="F160" s="53"/>
     </row>
     <row r="161" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A161" s="120"/>
+      <c r="A161" s="48"/>
       <c r="B161" s="16" t="s">
         <v>84</v>
       </c>
       <c r="C161" s="17"/>
       <c r="D161" s="17"/>
       <c r="E161" s="17"/>
-      <c r="F161" s="97"/>
+      <c r="F161" s="54"/>
     </row>
     <row r="162" spans="1:6" ht="15" customHeight="1">
-      <c r="A162" s="118" t="s">
-        <v>175</v>
+      <c r="A162" s="46" t="s">
+        <v>174</v>
       </c>
       <c r="B162" s="15"/>
       <c r="C162" s="14"/>
       <c r="D162" s="14"/>
       <c r="E162" s="14"/>
-      <c r="F162" s="95" t="s">
-        <v>176</v>
+      <c r="F162" s="52" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="15" customHeight="1">
-      <c r="A163" s="119"/>
+      <c r="A163" s="47"/>
       <c r="B163" s="21"/>
       <c r="C163" s="31"/>
       <c r="D163" s="31"/>
       <c r="E163" s="31"/>
-      <c r="F163" s="96"/>
+      <c r="F163" s="53"/>
     </row>
     <row r="164" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A164" s="120"/>
+      <c r="A164" s="48"/>
       <c r="B164" s="16"/>
       <c r="C164" s="17"/>
       <c r="D164" s="17"/>
       <c r="E164" s="17"/>
-      <c r="F164" s="97"/>
+      <c r="F164" s="54"/>
     </row>
     <row r="165" spans="1:6" ht="15" customHeight="1">
-      <c r="A165" s="118" t="s">
-        <v>178</v>
+      <c r="A165" s="46" t="s">
+        <v>177</v>
       </c>
       <c r="B165" s="15"/>
       <c r="C165" s="14"/>
       <c r="D165" s="14"/>
       <c r="E165" s="14"/>
-      <c r="F165" s="95" t="s">
-        <v>177</v>
+      <c r="F165" s="52" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="15" customHeight="1">
-      <c r="A166" s="119"/>
+      <c r="A166" s="47"/>
       <c r="B166" s="21"/>
       <c r="C166" s="31"/>
       <c r="D166" s="31"/>
       <c r="E166" s="31"/>
-      <c r="F166" s="96"/>
+      <c r="F166" s="53"/>
     </row>
     <row r="167" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A167" s="120"/>
+      <c r="A167" s="48"/>
       <c r="B167" s="16"/>
       <c r="C167" s="17"/>
       <c r="D167" s="17"/>
       <c r="E167" s="17"/>
-      <c r="F167" s="97"/>
+      <c r="F167" s="54"/>
     </row>
     <row r="168" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A168" s="118" t="s">
-        <v>215</v>
+      <c r="A168" s="46" t="s">
+        <v>214</v>
       </c>
       <c r="B168" s="15"/>
       <c r="C168" s="14"/>
       <c r="D168" s="14"/>
       <c r="E168" s="14"/>
-      <c r="F168" s="95" t="s">
-        <v>216</v>
+      <c r="F168" s="52" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A169" s="119"/>
+      <c r="A169" s="47"/>
       <c r="B169" s="21"/>
       <c r="C169" s="31"/>
       <c r="D169" s="31"/>
       <c r="E169" s="31"/>
-      <c r="F169" s="96"/>
+      <c r="F169" s="53"/>
     </row>
     <row r="170" spans="1:6" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A170" s="120"/>
+      <c r="A170" s="48"/>
       <c r="B170" s="16"/>
       <c r="C170" s="17"/>
       <c r="D170" s="17"/>
       <c r="E170" s="17"/>
-      <c r="F170" s="97"/>
+      <c r="F170" s="54"/>
     </row>
     <row r="171" spans="1:6" ht="60" customHeight="1">
-      <c r="A171" s="118" t="s">
-        <v>217</v>
+      <c r="A171" s="46" t="s">
+        <v>216</v>
       </c>
       <c r="B171" s="15"/>
       <c r="C171" s="14"/>
       <c r="D171" s="14"/>
       <c r="E171" s="14"/>
-      <c r="F171" s="129" t="s">
-        <v>218</v>
+      <c r="F171" s="49" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="60" customHeight="1">
-      <c r="A172" s="119"/>
+      <c r="A172" s="47"/>
       <c r="B172" s="21"/>
       <c r="C172" s="31"/>
       <c r="D172" s="31"/>
       <c r="E172" s="31"/>
-      <c r="F172" s="130"/>
+      <c r="F172" s="50"/>
     </row>
     <row r="173" spans="1:6" ht="60" customHeight="1" thickBot="1">
-      <c r="A173" s="120"/>
+      <c r="A173" s="48"/>
       <c r="B173" s="16"/>
       <c r="C173" s="17"/>
       <c r="D173" s="17"/>
       <c r="E173" s="17"/>
-      <c r="F173" s="131"/>
+      <c r="F173" s="51"/>
     </row>
     <row r="174" spans="1:6" ht="15" customHeight="1">
-      <c r="A174" s="124" t="s">
-        <v>201</v>
+      <c r="A174" s="57" t="s">
+        <v>200</v>
       </c>
       <c r="B174" s="40"/>
       <c r="C174" s="37"/>
       <c r="D174" s="43"/>
       <c r="E174" s="37"/>
-      <c r="F174" s="95" t="s">
-        <v>208</v>
+      <c r="F174" s="52" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="125"/>
+      <c r="A175" s="55"/>
       <c r="B175" s="41"/>
       <c r="C175" s="38"/>
       <c r="D175" s="44"/>
       <c r="E175" s="38"/>
-      <c r="F175" s="96"/>
+      <c r="F175" s="53"/>
     </row>
     <row r="176" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A176" s="126"/>
+      <c r="A176" s="56"/>
       <c r="B176" s="42"/>
       <c r="C176" s="39"/>
       <c r="D176" s="45"/>
       <c r="E176" s="39"/>
-      <c r="F176" s="97"/>
+      <c r="F176" s="54"/>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="124" t="s">
-        <v>202</v>
+      <c r="A177" s="57" t="s">
+        <v>201</v>
       </c>
       <c r="B177" s="40"/>
       <c r="C177" s="37"/>
       <c r="D177" s="43"/>
       <c r="E177" s="37"/>
-      <c r="F177" s="95" t="s">
-        <v>209</v>
+      <c r="F177" s="52" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="125"/>
+      <c r="A178" s="55"/>
       <c r="B178" s="41"/>
       <c r="C178" s="38"/>
       <c r="D178" s="44"/>
       <c r="E178" s="38"/>
-      <c r="F178" s="96"/>
+      <c r="F178" s="53"/>
     </row>
     <row r="179" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A179" s="126"/>
+      <c r="A179" s="56"/>
       <c r="B179" s="42"/>
       <c r="C179" s="39"/>
       <c r="D179" s="45"/>
       <c r="E179" s="39"/>
-      <c r="F179" s="97"/>
+      <c r="F179" s="54"/>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="125" t="s">
-        <v>203</v>
+      <c r="A180" s="55" t="s">
+        <v>202</v>
       </c>
       <c r="B180" s="41"/>
       <c r="C180" s="38"/>
       <c r="D180" s="44"/>
       <c r="E180" s="38"/>
-      <c r="F180" s="95" t="s">
-        <v>210</v>
+      <c r="F180" s="52" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="125"/>
+      <c r="A181" s="55"/>
       <c r="B181" s="41"/>
       <c r="C181" s="38"/>
       <c r="D181" s="44"/>
       <c r="E181" s="38"/>
-      <c r="F181" s="96"/>
+      <c r="F181" s="53"/>
     </row>
     <row r="182" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A182" s="125"/>
+      <c r="A182" s="55"/>
       <c r="B182" s="41"/>
       <c r="C182" s="38"/>
       <c r="D182" s="44"/>
       <c r="E182" s="38"/>
-      <c r="F182" s="97"/>
+      <c r="F182" s="54"/>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="124" t="s">
-        <v>204</v>
+      <c r="A183" s="57" t="s">
+        <v>203</v>
       </c>
       <c r="B183" s="40"/>
       <c r="C183" s="37"/>
       <c r="D183" s="43"/>
       <c r="E183" s="37"/>
-      <c r="F183" s="95" t="s">
-        <v>211</v>
+      <c r="F183" s="52" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="125"/>
+      <c r="A184" s="55"/>
       <c r="B184" s="41"/>
       <c r="C184" s="38"/>
       <c r="D184" s="44"/>
       <c r="E184" s="38"/>
-      <c r="F184" s="96"/>
+      <c r="F184" s="53"/>
     </row>
     <row r="185" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A185" s="126"/>
+      <c r="A185" s="56"/>
       <c r="B185" s="42"/>
       <c r="C185" s="39"/>
       <c r="D185" s="45"/>
       <c r="E185" s="39"/>
-      <c r="F185" s="97"/>
+      <c r="F185" s="54"/>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="125" t="s">
-        <v>205</v>
+      <c r="A186" s="55" t="s">
+        <v>204</v>
       </c>
       <c r="B186" s="41"/>
       <c r="C186" s="38"/>
       <c r="D186" s="44"/>
       <c r="E186" s="38"/>
-      <c r="F186" s="95" t="s">
-        <v>212</v>
+      <c r="F186" s="52" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="125"/>
+      <c r="A187" s="55"/>
       <c r="B187" s="41"/>
       <c r="C187" s="38"/>
       <c r="D187" s="44"/>
       <c r="E187" s="38"/>
-      <c r="F187" s="96"/>
+      <c r="F187" s="53"/>
     </row>
     <row r="188" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A188" s="125"/>
+      <c r="A188" s="55"/>
       <c r="B188" s="41"/>
       <c r="C188" s="38"/>
       <c r="D188" s="44"/>
       <c r="E188" s="38"/>
-      <c r="F188" s="97"/>
+      <c r="F188" s="54"/>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="124" t="s">
-        <v>206</v>
+      <c r="A189" s="57" t="s">
+        <v>205</v>
       </c>
       <c r="B189" s="40"/>
       <c r="C189" s="37"/>
       <c r="D189" s="43"/>
       <c r="E189" s="37"/>
-      <c r="F189" s="95" t="s">
-        <v>213</v>
+      <c r="F189" s="52" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="125"/>
+      <c r="A190" s="55"/>
       <c r="B190" s="41"/>
       <c r="C190" s="38"/>
       <c r="D190" s="44"/>
       <c r="E190" s="38"/>
-      <c r="F190" s="96"/>
+      <c r="F190" s="53"/>
     </row>
     <row r="191" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A191" s="126"/>
+      <c r="A191" s="56"/>
       <c r="B191" s="42"/>
       <c r="C191" s="39"/>
       <c r="D191" s="45"/>
       <c r="E191" s="39"/>
-      <c r="F191" s="97"/>
+      <c r="F191" s="54"/>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="125" t="s">
-        <v>207</v>
+      <c r="A192" s="55" t="s">
+        <v>206</v>
       </c>
       <c r="B192" s="41"/>
       <c r="C192" s="38"/>
       <c r="D192" s="44"/>
       <c r="E192" s="38"/>
-      <c r="F192" s="129" t="s">
-        <v>214</v>
+      <c r="F192" s="49" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="125"/>
+      <c r="A193" s="55"/>
       <c r="B193" s="41"/>
       <c r="C193" s="38"/>
       <c r="D193" s="44"/>
       <c r="E193" s="38"/>
-      <c r="F193" s="130"/>
+      <c r="F193" s="50"/>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="125"/>
+      <c r="A194" s="55"/>
       <c r="B194" s="41"/>
       <c r="C194" s="38"/>
       <c r="D194" s="44"/>
       <c r="E194" s="38"/>
-      <c r="F194" s="130"/>
+      <c r="F194" s="50"/>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="125"/>
+      <c r="A195" s="55"/>
       <c r="B195" s="41"/>
       <c r="C195" s="38"/>
       <c r="D195" s="44"/>
       <c r="E195" s="38"/>
-      <c r="F195" s="130"/>
+      <c r="F195" s="50"/>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="125"/>
+      <c r="A196" s="55"/>
       <c r="B196" s="41"/>
       <c r="C196" s="38"/>
       <c r="D196" s="44"/>
       <c r="E196" s="38"/>
-      <c r="F196" s="130"/>
+      <c r="F196" s="50"/>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="125"/>
+      <c r="A197" s="55"/>
       <c r="B197" s="41"/>
       <c r="C197" s="38"/>
       <c r="D197" s="44"/>
       <c r="E197" s="38"/>
-      <c r="F197" s="130"/>
+      <c r="F197" s="50"/>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="125"/>
+      <c r="A198" s="55"/>
       <c r="B198" s="41"/>
       <c r="C198" s="38"/>
       <c r="D198" s="44"/>
       <c r="E198" s="38"/>
-      <c r="F198" s="130"/>
+      <c r="F198" s="50"/>
     </row>
     <row r="199" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A199" s="126"/>
+      <c r="A199" s="56"/>
       <c r="B199" s="42"/>
       <c r="C199" s="39"/>
       <c r="D199" s="45"/>
       <c r="E199" s="39"/>
-      <c r="F199" s="131"/>
+      <c r="F199" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="95">
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="E28:E34"/>
+    <mergeCell ref="F28:F34"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="E35:E41"/>
+    <mergeCell ref="F35:F41"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="E46:E53"/>
+    <mergeCell ref="F46:F53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="F7:F13"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="F14:F20"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="F21:F27"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="F55:F59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="F76:F82"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="F69:F75"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="F162:F164"/>
+    <mergeCell ref="A138:A149"/>
+    <mergeCell ref="E138:E149"/>
+    <mergeCell ref="F138:F149"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="A131:A137"/>
+    <mergeCell ref="E131:E137"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="F96:F100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="A102:A116"/>
+    <mergeCell ref="F102:F116"/>
+    <mergeCell ref="A117:A123"/>
+    <mergeCell ref="E117:E123"/>
+    <mergeCell ref="F117:F123"/>
+    <mergeCell ref="A189:A191"/>
+    <mergeCell ref="F131:F137"/>
+    <mergeCell ref="A124:A130"/>
+    <mergeCell ref="E124:E130"/>
+    <mergeCell ref="F124:F130"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="A165:A167"/>
+    <mergeCell ref="F165:F167"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="F159:F161"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="A152:A154"/>
+    <mergeCell ref="F152:F154"/>
+    <mergeCell ref="A155:A158"/>
+    <mergeCell ref="F155:F158"/>
     <mergeCell ref="A171:A173"/>
     <mergeCell ref="F171:F173"/>
     <mergeCell ref="A168:A170"/>
@@ -4328,85 +4426,6 @@
     <mergeCell ref="A180:A182"/>
     <mergeCell ref="A183:A185"/>
     <mergeCell ref="A186:A188"/>
-    <mergeCell ref="A189:A191"/>
-    <mergeCell ref="F131:F137"/>
-    <mergeCell ref="A124:A130"/>
-    <mergeCell ref="E124:E130"/>
-    <mergeCell ref="F124:F130"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="A165:A167"/>
-    <mergeCell ref="F165:F167"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="F159:F161"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="A152:A154"/>
-    <mergeCell ref="F152:F154"/>
-    <mergeCell ref="A155:A158"/>
-    <mergeCell ref="F155:F158"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="F93:F95"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="A131:A137"/>
-    <mergeCell ref="E131:E137"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="F162:F164"/>
-    <mergeCell ref="A138:A149"/>
-    <mergeCell ref="E138:E149"/>
-    <mergeCell ref="F138:F149"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="F96:F100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="A102:A116"/>
-    <mergeCell ref="F102:F116"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="F76:F82"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="F69:F75"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="F55:F59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="F14:F20"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="F21:F27"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="F7:F13"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="A117:A123"/>
-    <mergeCell ref="E117:E123"/>
-    <mergeCell ref="F117:F123"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="E28:E34"/>
-    <mergeCell ref="F28:F34"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="E35:E41"/>
-    <mergeCell ref="F35:F41"/>
-    <mergeCell ref="A46:A53"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="E46:E53"/>
-    <mergeCell ref="F46:F53"/>
-    <mergeCell ref="A54:F54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4456,17 +4475,17 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="123" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4481,12 +4500,12 @@
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="58" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A4" s="136"/>
+      <c r="A4" s="124"/>
       <c r="B4" s="1" t="s">
         <v>95</v>
       </c>
@@ -4497,10 +4516,10 @@
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="52"/>
+      <c r="F4" s="59"/>
     </row>
     <row r="5" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A5" s="137"/>
+      <c r="A5" s="128"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="9" t="s">
@@ -4509,10 +4528,10 @@
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="52"/>
+      <c r="F5" s="59"/>
     </row>
     <row r="6" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A6" s="137"/>
+      <c r="A6" s="128"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="8" t="s">
@@ -4521,10 +4540,10 @@
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="52"/>
+      <c r="F6" s="59"/>
     </row>
     <row r="7" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A7" s="137"/>
+      <c r="A7" s="128"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="8" t="s">
@@ -4533,10 +4552,10 @@
       <c r="E7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="52"/>
+      <c r="F7" s="59"/>
     </row>
     <row r="8" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A8" s="137"/>
+      <c r="A8" s="128"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8" t="s">
@@ -4545,10 +4564,10 @@
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="52"/>
+      <c r="F8" s="59"/>
     </row>
     <row r="9" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A9" s="137"/>
+      <c r="A9" s="128"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="13" t="s">
@@ -4557,10 +4576,10 @@
       <c r="E9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="59"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="123" t="s">
         <v>96</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -4575,12 +4594,12 @@
       <c r="E10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="F10" s="58" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A11" s="136"/>
+      <c r="A11" s="124"/>
       <c r="B11" s="1" t="s">
         <v>95</v>
       </c>
@@ -4591,10 +4610,10 @@
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="52"/>
+      <c r="F11" s="59"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A12" s="137"/>
+      <c r="A12" s="128"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="9" t="s">
@@ -4603,10 +4622,10 @@
       <c r="E12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="52"/>
+      <c r="F12" s="59"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A13" s="137"/>
+      <c r="A13" s="128"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="8" t="s">
@@ -4615,10 +4634,10 @@
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="52"/>
+      <c r="F13" s="59"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A14" s="137"/>
+      <c r="A14" s="128"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="8" t="s">
@@ -4627,10 +4646,10 @@
       <c r="E14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="52"/>
+      <c r="F14" s="59"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A15" s="137"/>
+      <c r="A15" s="128"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="8" t="s">
@@ -4639,10 +4658,10 @@
       <c r="E15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="52"/>
+      <c r="F15" s="59"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A16" s="137"/>
+      <c r="A16" s="128"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="13" t="s">
@@ -4651,10 +4670,10 @@
       <c r="E16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="52"/>
+      <c r="F16" s="59"/>
     </row>
     <row r="17" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A17" s="135" t="s">
+      <c r="A17" s="123" t="s">
         <v>99</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -4669,12 +4688,12 @@
       <c r="E17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="58" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A18" s="136"/>
+      <c r="A18" s="124"/>
       <c r="B18" s="1" t="s">
         <v>95</v>
       </c>
@@ -4685,10 +4704,10 @@
       <c r="E18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="52"/>
+      <c r="F18" s="59"/>
     </row>
     <row r="19" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A19" s="137"/>
+      <c r="A19" s="128"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="9" t="s">
@@ -4697,10 +4716,10 @@
       <c r="E19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="52"/>
+      <c r="F19" s="59"/>
     </row>
     <row r="20" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A20" s="137"/>
+      <c r="A20" s="128"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="8" t="s">
@@ -4709,10 +4728,10 @@
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="52"/>
+      <c r="F20" s="59"/>
     </row>
     <row r="21" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A21" s="137"/>
+      <c r="A21" s="128"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="8" t="s">
@@ -4721,10 +4740,10 @@
       <c r="E21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="52"/>
+      <c r="F21" s="59"/>
     </row>
     <row r="22" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A22" s="137"/>
+      <c r="A22" s="128"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="8" t="s">
@@ -4733,10 +4752,10 @@
       <c r="E22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="52"/>
+      <c r="F22" s="59"/>
     </row>
     <row r="23" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A23" s="137"/>
+      <c r="A23" s="128"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="13" t="s">
@@ -4745,10 +4764,10 @@
       <c r="E23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F23" s="52"/>
+      <c r="F23" s="59"/>
     </row>
     <row r="24" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A24" s="135" t="s">
+      <c r="A24" s="123" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -4760,15 +4779,15 @@
       <c r="D24" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="51" t="s">
+      <c r="F24" s="58" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A25" s="136"/>
+      <c r="A25" s="124"/>
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
@@ -4778,11 +4797,11 @@
       <c r="D25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="52"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="59"/>
     </row>
     <row r="26" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A26" s="136"/>
+      <c r="A26" s="124"/>
       <c r="B26" s="1" t="s">
         <v>20</v>
       </c>
@@ -4792,11 +4811,11 @@
       <c r="D26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="52"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="59"/>
     </row>
     <row r="27" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A27" s="136"/>
+      <c r="A27" s="124"/>
       <c r="B27" s="1" t="s">
         <v>21</v>
       </c>
@@ -4804,11 +4823,11 @@
       <c r="D27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="49"/>
-      <c r="F27" s="52"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="59"/>
     </row>
     <row r="28" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A28" s="136"/>
+      <c r="A28" s="124"/>
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
@@ -4816,11 +4835,11 @@
       <c r="D28" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="49"/>
-      <c r="F28" s="52"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="59"/>
     </row>
     <row r="29" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A29" s="136"/>
+      <c r="A29" s="124"/>
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
@@ -4828,21 +4847,21 @@
       <c r="D29" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="49"/>
-      <c r="F29" s="52"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="59"/>
     </row>
     <row r="30" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A30" s="138"/>
+      <c r="A30" s="125"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="53"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A31" s="135" t="s">
+      <c r="A31" s="123" t="s">
         <v>147</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -4854,10 +4873,10 @@
       <c r="D31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="48" t="s">
+      <c r="E31" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="51" t="s">
+      <c r="F31" s="58" t="s">
         <v>134</v>
       </c>
       <c r="G31" t="s">
@@ -4868,7 +4887,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A32" s="136"/>
+      <c r="A32" s="124"/>
       <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
@@ -4878,14 +4897,14 @@
       <c r="D32" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="49"/>
-      <c r="F32" s="52"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="59"/>
       <c r="G32" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A33" s="136"/>
+      <c r="A33" s="124"/>
       <c r="B33" s="1" t="s">
         <v>20</v>
       </c>
@@ -4895,8 +4914,8 @@
       <c r="D33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="49"/>
-      <c r="F33" s="52"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="59"/>
       <c r="G33" t="s">
         <v>117</v>
       </c>
@@ -4905,7 +4924,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A34" s="136"/>
+      <c r="A34" s="124"/>
       <c r="B34" s="1" t="s">
         <v>21</v>
       </c>
@@ -4913,8 +4932,8 @@
       <c r="D34" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="49"/>
-      <c r="F34" s="52"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="59"/>
       <c r="G34" t="s">
         <v>118</v>
       </c>
@@ -4923,7 +4942,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A35" s="136"/>
+      <c r="A35" s="124"/>
       <c r="B35" s="1" t="s">
         <v>23</v>
       </c>
@@ -4931,8 +4950,8 @@
       <c r="D35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="49"/>
-      <c r="F35" s="52"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="59"/>
       <c r="G35" t="s">
         <v>119</v>
       </c>
@@ -4941,7 +4960,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A36" s="136"/>
+      <c r="A36" s="124"/>
       <c r="B36" s="1" t="s">
         <v>24</v>
       </c>
@@ -4949,8 +4968,8 @@
       <c r="D36" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="49"/>
-      <c r="F36" s="52"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="59"/>
       <c r="G36" t="s">
         <v>120</v>
       </c>
@@ -4959,14 +4978,14 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A37" s="137"/>
+      <c r="A37" s="128"/>
       <c r="B37" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="52"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="59"/>
       <c r="G37" t="s">
         <v>121</v>
       </c>
@@ -4978,14 +4997,14 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A38" s="137"/>
+      <c r="A38" s="128"/>
       <c r="B38" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="52"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="59"/>
       <c r="G38" t="s">
         <v>122</v>
       </c>
@@ -4997,14 +5016,14 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A39" s="137"/>
+      <c r="A39" s="128"/>
       <c r="B39" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="52"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="59"/>
       <c r="G39" t="s">
         <v>123</v>
       </c>
@@ -5016,7 +5035,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A40" s="138"/>
+      <c r="A40" s="125"/>
       <c r="B40" s="4" t="s">
         <v>129</v>
       </c>
@@ -5024,14 +5043,14 @@
       <c r="D40" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="53"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="60"/>
       <c r="G40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A41" s="166" t="s">
+      <c r="A41" s="129" t="s">
         <v>69</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -5043,15 +5062,15 @@
       <c r="D41" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E41" s="48" t="s">
+      <c r="E41" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="52" t="s">
+      <c r="F41" s="59" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A42" s="167"/>
+      <c r="A42" s="130"/>
       <c r="B42" s="1" t="s">
         <v>70</v>
       </c>
@@ -5059,11 +5078,11 @@
       <c r="D42" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="49"/>
-      <c r="F42" s="52"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="59"/>
     </row>
     <row r="43" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A43" s="167"/>
+      <c r="A43" s="130"/>
       <c r="B43" s="1" t="s">
         <v>49</v>
       </c>
@@ -5071,83 +5090,83 @@
       <c r="D43" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="49"/>
-      <c r="F43" s="52"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="59"/>
     </row>
     <row r="44" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A44" s="167"/>
+      <c r="A44" s="130"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="49"/>
-      <c r="F44" s="52"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="59"/>
     </row>
     <row r="45" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A45" s="167"/>
+      <c r="A45" s="130"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="49"/>
-      <c r="F45" s="52"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="59"/>
     </row>
     <row r="46" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A46" s="167"/>
+      <c r="A46" s="130"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="49"/>
-      <c r="F46" s="52"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="59"/>
     </row>
     <row r="47" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A47" s="168"/>
+      <c r="A47" s="131"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="50"/>
-      <c r="F47" s="53"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="60"/>
     </row>
     <row r="48" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A48" s="135" t="s">
+      <c r="A48" s="123" t="s">
         <v>150</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="164" t="s">
+      <c r="C48" s="126" t="s">
         <v>45</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="92" t="s">
+      <c r="E48" s="119" t="s">
         <v>97</v>
       </c>
-      <c r="F48" s="95" t="s">
+      <c r="F48" s="52" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A49" s="136"/>
+      <c r="A49" s="124"/>
       <c r="B49" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="165"/>
+      <c r="C49" s="127"/>
       <c r="D49" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="93"/>
-      <c r="F49" s="96"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="53"/>
     </row>
     <row r="50" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A50" s="136"/>
+      <c r="A50" s="124"/>
       <c r="B50" s="5" t="s">
         <v>29</v>
       </c>
@@ -5157,11 +5176,11 @@
       <c r="D50" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="93"/>
-      <c r="F50" s="96"/>
+      <c r="E50" s="120"/>
+      <c r="F50" s="53"/>
     </row>
     <row r="51" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A51" s="136"/>
+      <c r="A51" s="124"/>
       <c r="B51" s="24" t="s">
         <v>30</v>
       </c>
@@ -5171,11 +5190,11 @@
       <c r="D51" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="93"/>
-      <c r="F51" s="96"/>
+      <c r="E51" s="120"/>
+      <c r="F51" s="53"/>
     </row>
     <row r="52" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A52" s="136"/>
+      <c r="A52" s="124"/>
       <c r="B52" s="24" t="s">
         <v>31</v>
       </c>
@@ -5185,11 +5204,11 @@
       <c r="D52" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="93"/>
-      <c r="F52" s="96"/>
+      <c r="E52" s="120"/>
+      <c r="F52" s="53"/>
     </row>
     <row r="53" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A53" s="136"/>
+      <c r="A53" s="124"/>
       <c r="B53" s="24" t="s">
         <v>32</v>
       </c>
@@ -5197,11 +5216,11 @@
       <c r="D53" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="93"/>
-      <c r="F53" s="96"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="53"/>
     </row>
     <row r="54" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A54" s="136"/>
+      <c r="A54" s="124"/>
       <c r="B54" s="24" t="s">
         <v>33</v>
       </c>
@@ -5209,29 +5228,29 @@
       <c r="D54" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="93"/>
-      <c r="F54" s="96"/>
+      <c r="E54" s="120"/>
+      <c r="F54" s="53"/>
     </row>
     <row r="55" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A55" s="138"/>
+      <c r="A55" s="125"/>
       <c r="B55" s="25"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
-      <c r="E55" s="94"/>
-      <c r="F55" s="97"/>
+      <c r="E55" s="121"/>
+      <c r="F55" s="54"/>
     </row>
     <row r="56" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A56" s="98" t="s">
+      <c r="A56" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="B56" s="98"/>
-      <c r="C56" s="98"/>
-      <c r="D56" s="98"/>
-      <c r="E56" s="98"/>
-      <c r="F56" s="98"/>
+      <c r="B56" s="122"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="122"/>
+      <c r="E56" s="122"/>
+      <c r="F56" s="122"/>
     </row>
     <row r="57" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A57" s="132" t="s">
+      <c r="A57" s="134" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="12" t="s">
@@ -5242,10 +5261,10 @@
         <v>34</v>
       </c>
       <c r="E57" s="3"/>
-      <c r="F57" s="81"/>
+      <c r="F57" s="68"/>
     </row>
     <row r="58" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A58" s="133"/>
+      <c r="A58" s="135"/>
       <c r="B58" s="8" t="s">
         <v>15</v>
       </c>
@@ -5254,10 +5273,10 @@
         <v>15</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="82"/>
+      <c r="F58" s="69"/>
     </row>
     <row r="59" spans="1:6" ht="45.75" customHeight="1">
-      <c r="A59" s="139"/>
+      <c r="A59" s="143"/>
       <c r="B59" s="9" t="s">
         <v>10</v>
       </c>
@@ -5266,26 +5285,26 @@
         <v>10</v>
       </c>
       <c r="E59" s="2"/>
-      <c r="F59" s="82"/>
+      <c r="F59" s="69"/>
     </row>
     <row r="60" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A60" s="139"/>
+      <c r="A60" s="143"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="82"/>
+      <c r="F60" s="69"/>
     </row>
     <row r="61" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A61" s="134"/>
+      <c r="A61" s="136"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="83"/>
+      <c r="F61" s="70"/>
     </row>
     <row r="62" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A62" s="132" t="s">
+      <c r="A62" s="134" t="s">
         <v>12</v>
       </c>
       <c r="B62" s="3"/>
@@ -5296,26 +5315,26 @@
         <v>13</v>
       </c>
       <c r="E62" s="3"/>
-      <c r="F62" s="81"/>
+      <c r="F62" s="68"/>
     </row>
     <row r="63" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A63" s="133"/>
+      <c r="A63" s="135"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="82"/>
+      <c r="F63" s="69"/>
     </row>
     <row r="64" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A64" s="134"/>
+      <c r="A64" s="136"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="83"/>
+      <c r="F64" s="70"/>
     </row>
     <row r="65" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A65" s="132" t="s">
+      <c r="A65" s="134" t="s">
         <v>0</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -5326,10 +5345,10 @@
         <v>7</v>
       </c>
       <c r="E65" s="3"/>
-      <c r="F65" s="81"/>
+      <c r="F65" s="68"/>
     </row>
     <row r="66" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A66" s="133"/>
+      <c r="A66" s="135"/>
       <c r="B66" s="8" t="s">
         <v>8</v>
       </c>
@@ -5338,10 +5357,10 @@
         <v>8</v>
       </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="82"/>
+      <c r="F66" s="69"/>
     </row>
     <row r="67" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A67" s="134"/>
+      <c r="A67" s="136"/>
       <c r="B67" s="13" t="s">
         <v>9</v>
       </c>
@@ -5350,10 +5369,10 @@
         <v>9</v>
       </c>
       <c r="E67" s="4"/>
-      <c r="F67" s="83"/>
+      <c r="F67" s="70"/>
     </row>
     <row r="68" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A68" s="132" t="s">
+      <c r="A68" s="134" t="s">
         <v>42</v>
       </c>
       <c r="B68" s="9" t="s">
@@ -5364,10 +5383,10 @@
         <v>39</v>
       </c>
       <c r="E68" s="3"/>
-      <c r="F68" s="81"/>
+      <c r="F68" s="68"/>
     </row>
     <row r="69" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A69" s="133"/>
+      <c r="A69" s="135"/>
       <c r="B69" s="9" t="s">
         <v>40</v>
       </c>
@@ -5376,10 +5395,10 @@
         <v>40</v>
       </c>
       <c r="E69" s="1"/>
-      <c r="F69" s="82"/>
+      <c r="F69" s="69"/>
     </row>
     <row r="70" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A70" s="134"/>
+      <c r="A70" s="136"/>
       <c r="B70" s="9" t="s">
         <v>41</v>
       </c>
@@ -5388,10 +5407,10 @@
         <v>41</v>
       </c>
       <c r="E70" s="4"/>
-      <c r="F70" s="83"/>
+      <c r="F70" s="70"/>
     </row>
     <row r="71" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A71" s="102" t="s">
+      <c r="A71" s="81" t="s">
         <v>58</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -5406,12 +5425,12 @@
       <c r="E71" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F71" s="81" t="s">
+      <c r="F71" s="68" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A72" s="103"/>
+      <c r="A72" s="82"/>
       <c r="B72" s="1" t="s">
         <v>17</v>
       </c>
@@ -5424,10 +5443,10 @@
       <c r="E72" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F72" s="82"/>
+      <c r="F72" s="69"/>
     </row>
     <row r="73" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A73" s="103"/>
+      <c r="A73" s="82"/>
       <c r="B73" s="1" t="s">
         <v>18</v>
       </c>
@@ -5438,10 +5457,10 @@
       <c r="E73" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F73" s="82"/>
+      <c r="F73" s="69"/>
     </row>
     <row r="74" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A74" s="103"/>
+      <c r="A74" s="82"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="8" t="s">
@@ -5450,10 +5469,10 @@
       <c r="E74" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F74" s="82"/>
+      <c r="F74" s="69"/>
     </row>
     <row r="75" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A75" s="103"/>
+      <c r="A75" s="82"/>
       <c r="B75" s="7"/>
       <c r="C75" s="1"/>
       <c r="D75" s="8" t="s">
@@ -5462,10 +5481,10 @@
       <c r="E75" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F75" s="82"/>
+      <c r="F75" s="69"/>
     </row>
     <row r="76" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A76" s="103"/>
+      <c r="A76" s="82"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="8" t="s">
@@ -5474,10 +5493,10 @@
       <c r="E76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F76" s="82"/>
+      <c r="F76" s="69"/>
     </row>
     <row r="77" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A77" s="104"/>
+      <c r="A77" s="83"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="29" t="s">
@@ -5486,10 +5505,10 @@
       <c r="E77" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F77" s="83"/>
+      <c r="F77" s="70"/>
     </row>
     <row r="78" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A78" s="155" t="s">
+      <c r="A78" s="159" t="s">
         <v>66</v>
       </c>
       <c r="B78" s="26" t="s">
@@ -5504,30 +5523,30 @@
       <c r="E78" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="105" t="s">
+      <c r="F78" s="88" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A79" s="79"/>
+      <c r="A79" s="87"/>
       <c r="B79" s="30"/>
       <c r="C79" s="22"/>
       <c r="D79" s="21"/>
       <c r="E79" s="31"/>
-      <c r="F79" s="106"/>
+      <c r="F79" s="89"/>
     </row>
     <row r="80" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A80" s="134"/>
+      <c r="A80" s="136"/>
       <c r="B80" s="25"/>
       <c r="C80" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="17"/>
-      <c r="F80" s="107"/>
+      <c r="F80" s="90"/>
     </row>
     <row r="81" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A81" s="132" t="s">
+      <c r="A81" s="134" t="s">
         <v>112</v>
       </c>
       <c r="B81" s="27" t="s">
@@ -5542,22 +5561,22 @@
       <c r="E81" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F81" s="81" t="s">
+      <c r="F81" s="68" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A82" s="139"/>
+      <c r="A82" s="143"/>
       <c r="B82" s="28"/>
       <c r="C82" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="19"/>
-      <c r="F82" s="83"/>
+      <c r="F82" s="70"/>
     </row>
     <row r="83" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A83" s="132" t="s">
+      <c r="A83" s="134" t="s">
         <v>65</v>
       </c>
       <c r="B83" s="27" t="s">
@@ -5572,20 +5591,20 @@
       <c r="E83" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F83" s="156"/>
+      <c r="F83" s="140"/>
     </row>
     <row r="84" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A84" s="139"/>
+      <c r="A84" s="143"/>
       <c r="B84" s="28"/>
       <c r="C84" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="19"/>
-      <c r="F84" s="157"/>
+      <c r="F84" s="142"/>
     </row>
     <row r="85" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A85" s="78" t="s">
+      <c r="A85" s="74" t="s">
         <v>92</v>
       </c>
       <c r="B85" s="15" t="s">
@@ -5601,7 +5620,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A86" s="79"/>
+      <c r="A86" s="87"/>
       <c r="B86" s="9" t="s">
         <v>80</v>
       </c>
@@ -5611,7 +5630,7 @@
       <c r="F86" s="34"/>
     </row>
     <row r="87" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A87" s="80"/>
+      <c r="A87" s="75"/>
       <c r="B87" s="25" t="s">
         <v>91</v>
       </c>
@@ -5623,7 +5642,7 @@
       <c r="F87" s="35"/>
     </row>
     <row r="88" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A88" s="78" t="s">
+      <c r="A88" s="74" t="s">
         <v>107</v>
       </c>
       <c r="B88" s="15" t="s">
@@ -5634,32 +5653,32 @@
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="81" t="s">
+      <c r="F88" s="68" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A89" s="79"/>
+      <c r="A89" s="87"/>
       <c r="B89" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="82"/>
+      <c r="F89" s="69"/>
     </row>
     <row r="90" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A90" s="80"/>
+      <c r="A90" s="75"/>
       <c r="B90" s="25"/>
       <c r="C90" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
-      <c r="F90" s="83"/>
+      <c r="F90" s="70"/>
     </row>
     <row r="91" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A91" s="152" t="s">
+      <c r="A91" s="156" t="s">
         <v>71</v>
       </c>
       <c r="B91" s="3"/>
@@ -5668,62 +5687,62 @@
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="81" t="s">
+      <c r="F91" s="68" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A92" s="153"/>
+      <c r="A92" s="157"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="82"/>
+      <c r="F92" s="69"/>
     </row>
     <row r="93" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A93" s="153"/>
+      <c r="A93" s="157"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="82"/>
+      <c r="F93" s="69"/>
     </row>
     <row r="94" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A94" s="153"/>
+      <c r="A94" s="157"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="82"/>
+      <c r="F94" s="69"/>
     </row>
     <row r="95" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A95" s="154"/>
+      <c r="A95" s="158"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="83"/>
+      <c r="F95" s="70"/>
     </row>
     <row r="96" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A96" s="111" t="s">
+      <c r="A96" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="B96" s="111"/>
-      <c r="C96" s="111"/>
-      <c r="D96" s="111"/>
-      <c r="E96" s="111"/>
-      <c r="F96" s="111"/>
+      <c r="B96" s="84"/>
+      <c r="C96" s="84"/>
+      <c r="D96" s="84"/>
+      <c r="E96" s="84"/>
+      <c r="F96" s="84"/>
     </row>
     <row r="97" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A97" s="160" t="s">
+      <c r="A97" s="137" t="s">
         <v>50</v>
       </c>
       <c r="B97" s="3"/>
@@ -5734,12 +5753,12 @@
       <c r="E97" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F97" s="156" t="s">
+      <c r="F97" s="140" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A98" s="161"/>
+      <c r="A98" s="138"/>
       <c r="B98" s="1"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8" t="s">
@@ -5748,10 +5767,10 @@
       <c r="E98" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F98" s="163"/>
+      <c r="F98" s="141"/>
     </row>
     <row r="99" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A99" s="161"/>
+      <c r="A99" s="138"/>
       <c r="B99" s="1"/>
       <c r="C99" s="8"/>
       <c r="D99" s="9" t="s">
@@ -5760,10 +5779,10 @@
       <c r="E99" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F99" s="163"/>
+      <c r="F99" s="141"/>
     </row>
     <row r="100" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A100" s="161"/>
+      <c r="A100" s="138"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="8" t="s">
@@ -5772,10 +5791,10 @@
       <c r="E100" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="163"/>
+      <c r="F100" s="141"/>
     </row>
     <row r="101" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A101" s="161"/>
+      <c r="A101" s="138"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="8" t="s">
@@ -5784,10 +5803,10 @@
       <c r="E101" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F101" s="163"/>
+      <c r="F101" s="141"/>
     </row>
     <row r="102" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A102" s="161"/>
+      <c r="A102" s="138"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="8" t="s">
@@ -5796,10 +5815,10 @@
       <c r="E102" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F102" s="163"/>
+      <c r="F102" s="141"/>
     </row>
     <row r="103" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A103" s="161"/>
+      <c r="A103" s="138"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="8" t="s">
@@ -5808,10 +5827,10 @@
       <c r="E103" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F103" s="163"/>
+      <c r="F103" s="141"/>
     </row>
     <row r="104" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A104" s="161"/>
+      <c r="A104" s="138"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="9" t="s">
@@ -5820,10 +5839,10 @@
       <c r="E104" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F104" s="163"/>
+      <c r="F104" s="141"/>
     </row>
     <row r="105" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A105" s="161"/>
+      <c r="A105" s="138"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="9" t="s">
@@ -5832,10 +5851,10 @@
       <c r="E105" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F105" s="163"/>
+      <c r="F105" s="141"/>
     </row>
     <row r="106" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A106" s="161"/>
+      <c r="A106" s="138"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="9" t="s">
@@ -5844,26 +5863,26 @@
       <c r="E106" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F106" s="163"/>
+      <c r="F106" s="141"/>
     </row>
     <row r="107" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A107" s="162"/>
+      <c r="A107" s="139"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="18"/>
       <c r="E107" s="19"/>
-      <c r="F107" s="157"/>
+      <c r="F107" s="142"/>
     </row>
     <row r="108" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A108" s="162"/>
+      <c r="A108" s="139"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="18"/>
       <c r="E108" s="19"/>
-      <c r="F108" s="157"/>
+      <c r="F108" s="142"/>
     </row>
     <row r="109" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A109" s="143" t="s">
+      <c r="A109" s="147" t="s">
         <v>138</v>
       </c>
       <c r="B109" s="3" t="s">
@@ -5873,13 +5892,13 @@
         <v>26</v>
       </c>
       <c r="D109" s="12"/>
-      <c r="E109" s="146"/>
-      <c r="F109" s="149" t="s">
+      <c r="E109" s="150"/>
+      <c r="F109" s="153" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A110" s="144"/>
+      <c r="A110" s="148"/>
       <c r="B110" s="1" t="s">
         <v>131</v>
       </c>
@@ -5887,11 +5906,11 @@
         <v>148</v>
       </c>
       <c r="D110" s="8"/>
-      <c r="E110" s="147"/>
-      <c r="F110" s="150"/>
+      <c r="E110" s="151"/>
+      <c r="F110" s="154"/>
     </row>
     <row r="111" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A111" s="144"/>
+      <c r="A111" s="148"/>
       <c r="B111" s="1" t="s">
         <v>130</v>
       </c>
@@ -5899,11 +5918,11 @@
         <v>139</v>
       </c>
       <c r="D111" s="9"/>
-      <c r="E111" s="147"/>
-      <c r="F111" s="150"/>
+      <c r="E111" s="151"/>
+      <c r="F111" s="154"/>
     </row>
     <row r="112" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A112" s="144"/>
+      <c r="A112" s="148"/>
       <c r="B112" s="1" t="s">
         <v>129</v>
       </c>
@@ -5911,11 +5930,11 @@
         <v>140</v>
       </c>
       <c r="D112" s="8"/>
-      <c r="E112" s="147"/>
-      <c r="F112" s="150"/>
+      <c r="E112" s="151"/>
+      <c r="F112" s="154"/>
     </row>
     <row r="113" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A113" s="144"/>
+      <c r="A113" s="148"/>
       <c r="B113" s="1" t="s">
         <v>22</v>
       </c>
@@ -5923,11 +5942,11 @@
         <v>141</v>
       </c>
       <c r="D113" s="8"/>
-      <c r="E113" s="147"/>
-      <c r="F113" s="150"/>
+      <c r="E113" s="151"/>
+      <c r="F113" s="154"/>
     </row>
     <row r="114" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A114" s="144"/>
+      <c r="A114" s="148"/>
       <c r="B114" s="1" t="s">
         <v>23</v>
       </c>
@@ -5935,63 +5954,63 @@
         <v>142</v>
       </c>
       <c r="D114" s="8"/>
-      <c r="E114" s="147"/>
-      <c r="F114" s="150"/>
+      <c r="E114" s="151"/>
+      <c r="F114" s="154"/>
     </row>
     <row r="115" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A115" s="144"/>
+      <c r="A115" s="148"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D115" s="8"/>
-      <c r="E115" s="147"/>
-      <c r="F115" s="150"/>
+      <c r="E115" s="151"/>
+      <c r="F115" s="154"/>
       <c r="I115" s="36"/>
     </row>
     <row r="116" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A116" s="144"/>
+      <c r="A116" s="148"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D116" s="8"/>
-      <c r="E116" s="147"/>
-      <c r="F116" s="150"/>
+      <c r="E116" s="151"/>
+      <c r="F116" s="154"/>
       <c r="I116" s="36"/>
     </row>
     <row r="117" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A117" s="144"/>
+      <c r="A117" s="148"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D117" s="8"/>
-      <c r="E117" s="147"/>
-      <c r="F117" s="150"/>
+      <c r="E117" s="151"/>
+      <c r="F117" s="154"/>
       <c r="I117" s="36"/>
     </row>
     <row r="118" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A118" s="144"/>
+      <c r="A118" s="148"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D118" s="8"/>
-      <c r="E118" s="147"/>
-      <c r="F118" s="150"/>
+      <c r="E118" s="151"/>
+      <c r="F118" s="154"/>
       <c r="I118" s="36"/>
     </row>
     <row r="119" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A119" s="145"/>
+      <c r="A119" s="149"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="29"/>
-      <c r="E119" s="148"/>
-      <c r="F119" s="151"/>
+      <c r="E119" s="152"/>
+      <c r="F119" s="155"/>
     </row>
     <row r="120" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A120" s="158" t="s">
+      <c r="A120" s="132" t="s">
         <v>51</v>
       </c>
       <c r="B120" s="23" t="s">
@@ -6000,20 +6019,20 @@
       <c r="C120" s="22"/>
       <c r="D120" s="22"/>
       <c r="E120" s="22"/>
-      <c r="F120" s="96" t="s">
+      <c r="F120" s="53" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A121" s="159"/>
+      <c r="A121" s="133"/>
       <c r="B121" s="16"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17"/>
       <c r="E121" s="17"/>
-      <c r="F121" s="97"/>
+      <c r="F121" s="54"/>
     </row>
     <row r="122" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A122" s="118" t="s">
+      <c r="A122" s="46" t="s">
         <v>52</v>
       </c>
       <c r="B122" s="15" t="s">
@@ -6022,32 +6041,32 @@
       <c r="C122" s="14"/>
       <c r="D122" s="14"/>
       <c r="E122" s="14"/>
-      <c r="F122" s="95" t="s">
+      <c r="F122" s="52" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A123" s="119"/>
+      <c r="A123" s="47"/>
       <c r="B123" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C123" s="31"/>
       <c r="D123" s="31"/>
       <c r="E123" s="31"/>
-      <c r="F123" s="96"/>
+      <c r="F123" s="53"/>
     </row>
     <row r="124" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A124" s="119"/>
+      <c r="A124" s="47"/>
       <c r="B124" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C124" s="19"/>
       <c r="D124" s="19"/>
       <c r="E124" s="19"/>
-      <c r="F124" s="96"/>
+      <c r="F124" s="53"/>
     </row>
     <row r="125" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A125" s="140" t="s">
+      <c r="A125" s="144" t="s">
         <v>81</v>
       </c>
       <c r="B125" s="15" t="s">
@@ -6056,36 +6075,36 @@
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
-      <c r="F125" s="81" t="s">
+      <c r="F125" s="68" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A126" s="141"/>
+      <c r="A126" s="145"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="82"/>
+      <c r="F126" s="69"/>
     </row>
     <row r="127" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A127" s="141"/>
+      <c r="A127" s="145"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="82"/>
+      <c r="F127" s="69"/>
     </row>
     <row r="128" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A128" s="142"/>
+      <c r="A128" s="146"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
-      <c r="F128" s="83"/>
+      <c r="F128" s="70"/>
     </row>
     <row r="129" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A129" s="118" t="s">
+      <c r="A129" s="46" t="s">
         <v>86</v>
       </c>
       <c r="B129" s="15" t="s">
@@ -6094,32 +6113,72 @@
       <c r="C129" s="14"/>
       <c r="D129" s="14"/>
       <c r="E129" s="14"/>
-      <c r="F129" s="95" t="s">
+      <c r="F129" s="52" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A130" s="119"/>
+      <c r="A130" s="47"/>
       <c r="B130" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C130" s="31"/>
       <c r="D130" s="31"/>
       <c r="E130" s="31"/>
-      <c r="F130" s="96"/>
+      <c r="F130" s="53"/>
     </row>
     <row r="131" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A131" s="120"/>
+      <c r="A131" s="48"/>
       <c r="B131" s="16" t="s">
         <v>84</v>
       </c>
       <c r="C131" s="17"/>
       <c r="D131" s="17"/>
       <c r="E131" s="17"/>
-      <c r="F131" s="97"/>
+      <c r="F131" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="F17:F23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="E24:E30"/>
+    <mergeCell ref="F24:F30"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="E31:E40"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="E48:E55"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="F129:F131"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A125:A128"/>
+    <mergeCell ref="F125:F128"/>
+    <mergeCell ref="A109:A119"/>
+    <mergeCell ref="E109:E119"/>
+    <mergeCell ref="F109:F119"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="F91:F95"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A124"/>
+    <mergeCell ref="F122:F124"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="A97:A108"/>
+    <mergeCell ref="F97:F108"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F71:F77"/>
+    <mergeCell ref="A71:A77"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A96:F96"/>
     <mergeCell ref="F57:F61"/>
@@ -6136,46 +6195,6 @@
     <mergeCell ref="A31:A40"/>
     <mergeCell ref="A41:A47"/>
     <mergeCell ref="F41:F47"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A122:A124"/>
-    <mergeCell ref="F122:F124"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="A97:A108"/>
-    <mergeCell ref="F97:F108"/>
-    <mergeCell ref="F88:F90"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="F71:F77"/>
-    <mergeCell ref="A71:A77"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="F129:F131"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A125:A128"/>
-    <mergeCell ref="F125:F128"/>
-    <mergeCell ref="A109:A119"/>
-    <mergeCell ref="E109:E119"/>
-    <mergeCell ref="F109:F119"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="F91:F95"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="F17:F23"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="E24:E30"/>
-    <mergeCell ref="F24:F30"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="E31:E40"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="E48:E55"/>
-    <mergeCell ref="A62:A64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6250,20 +6269,20 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" t="s">
         <v>197</v>
-      </c>
-      <c r="B3" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6271,7 +6290,7 @@
         <v>148</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6279,7 +6298,7 @@
         <v>139</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6287,7 +6306,7 @@
         <v>140</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6295,7 +6314,7 @@
         <v>141</v>
       </c>
       <c r="B10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6303,7 +6322,7 @@
         <v>142</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6311,7 +6330,7 @@
         <v>143</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6319,7 +6338,7 @@
         <v>144</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6327,7 +6346,7 @@
         <v>145</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -6335,23 +6354,23 @@
         <v>149</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1"/>

--- a/description.xlsx
+++ b/description.xlsx
@@ -671,12 +671,6 @@
 результат матрица где в первом стобце находятся решения матрицы</t>
   </si>
   <si>
-    <t>MATH_LIB. Cross_PNT (Line_frame, Plate_frame: XYZWPR): XYZWPR</t>
-  </si>
-  <si>
-    <t>вычисляет точку пересения Z оcи LINE_frame c XY плоскостью Plate_frame</t>
-  </si>
-  <si>
     <t>MATH_LIB. Cross_Line (Plate1, Plate2: XYZWPR): XYZWPR</t>
   </si>
   <si>
@@ -726,6 +720,13 @@
       </rPr>
       <t>рца, оси паралельны Pr[10]</t>
     </r>
+  </si>
+  <si>
+    <t>вычисляет точку пересения Z оcи LINE_frame c XY плоскостью Plate_frame
+НЕОБХОДИМО ЗАПРОГРАММИРОВАТЬ ПРОВЕРКУ КОРРЕКТНОГО РЕШЕНИЯ МАТРИЦЫ, НА СЛУЧАЙ ГЛАВНОГО ОПРЕДЕЛИТЕЛЯ 0 или если одна из поскостей проходит через начало координат</t>
+  </si>
+  <si>
+    <t>MATH_LIB. Cross_PNT (Line_frame, Plane_frame: XYZWPR): XYZWPR</t>
   </si>
 </sst>
 </file>
@@ -1289,6 +1290,177 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1298,6 +1470,66 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1307,217 +1539,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1526,18 +1554,93 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1545,108 +1648,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1951,8 +1952,8 @@
   <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F168" sqref="F168:F170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1988,54 +1989,54 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
     </row>
     <row r="3" spans="1:6" ht="21" customHeight="1">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="78" t="s">
         <v>164</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="12"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="108" t="s">
+      <c r="F3" s="81" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1">
-      <c r="A4" s="106"/>
+      <c r="A4" s="79"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="8"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="109"/>
+      <c r="F4" s="82"/>
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1">
-      <c r="A5" s="106"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="8"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="109"/>
+      <c r="F5" s="82"/>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" thickBot="1">
-      <c r="A6" s="107"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="9"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="110"/>
+      <c r="F6" s="83"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1">
-      <c r="A7" s="93" t="s">
-        <v>220</v>
+      <c r="A7" s="46" t="s">
+        <v>218</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
@@ -2047,12 +2048,12 @@
       <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="53" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1">
-      <c r="A8" s="94"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="1" t="s">
         <v>95</v>
       </c>
@@ -2063,10 +2064,10 @@
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="59"/>
+      <c r="F8" s="53"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1">
-      <c r="A9" s="94"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="2" t="s">
         <v>193</v>
       </c>
@@ -2077,10 +2078,10 @@
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="59"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1">
-      <c r="A10" s="94"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="8" t="s">
@@ -2089,10 +2090,10 @@
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="59"/>
+      <c r="F10" s="53"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="94"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="8" t="s">
@@ -2101,10 +2102,10 @@
       <c r="E11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="59"/>
+      <c r="F11" s="53"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="94"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="8" t="s">
@@ -2113,10 +2114,10 @@
       <c r="E12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="59"/>
+      <c r="F12" s="53"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="95"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="13" t="s">
@@ -2125,11 +2126,11 @@
       <c r="E13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="60"/>
+      <c r="F13" s="54"/>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1">
-      <c r="A14" s="93" t="s">
-        <v>219</v>
+      <c r="A14" s="46" t="s">
+        <v>217</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
@@ -2141,12 +2142,12 @@
       <c r="E14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="52" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1">
-      <c r="A15" s="94"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="1" t="s">
         <v>95</v>
       </c>
@@ -2157,10 +2158,10 @@
       <c r="E15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="59"/>
+      <c r="F15" s="53"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1">
-      <c r="A16" s="94"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="2" t="s">
         <v>193</v>
       </c>
@@ -2171,10 +2172,10 @@
       <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="59"/>
+      <c r="F16" s="53"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1">
-      <c r="A17" s="94"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="8" t="s">
@@ -2183,10 +2184,10 @@
       <c r="E17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="59"/>
+      <c r="F17" s="53"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
-      <c r="A18" s="94"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="8" t="s">
@@ -2195,10 +2196,10 @@
       <c r="E18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="59"/>
+      <c r="F18" s="53"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1">
-      <c r="A19" s="94"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="8" t="s">
@@ -2207,10 +2208,10 @@
       <c r="E19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="59"/>
+      <c r="F19" s="53"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A20" s="95"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="13" t="s">
@@ -2219,10 +2220,10 @@
       <c r="E20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="60"/>
+      <c r="F20" s="54"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="46" t="s">
         <v>165</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2234,15 +2235,15 @@
       <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="63" t="s">
+      <c r="E21" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="96" t="s">
+      <c r="F21" s="84" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1">
-      <c r="A22" s="94"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="1" t="s">
         <v>156</v>
       </c>
@@ -2252,75 +2253,75 @@
       <c r="D22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="64"/>
-      <c r="F22" s="97"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="85"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1">
-      <c r="A23" s="94"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="99" t="s">
+      <c r="C23" s="87" t="s">
         <v>158</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="97"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="85"/>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1">
-      <c r="A24" s="94"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="100"/>
+      <c r="C24" s="88"/>
       <c r="D24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="64"/>
-      <c r="F24" s="97"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="85"/>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1">
-      <c r="A25" s="94"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="99" t="s">
+      <c r="C25" s="87" t="s">
         <v>157</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="64"/>
-      <c r="F25" s="97"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="85"/>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1">
-      <c r="A26" s="94"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="101"/>
+      <c r="C26" s="89"/>
       <c r="D26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="64"/>
-      <c r="F26" s="97"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="85"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="95"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C27" s="102"/>
+      <c r="C27" s="90"/>
       <c r="D27" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="98"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="86"/>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1">
-      <c r="A28" s="93" t="s">
+      <c r="A28" s="46" t="s">
         <v>161</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2332,15 +2333,15 @@
       <c r="D28" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="63" t="s">
+      <c r="E28" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="58" t="s">
+      <c r="F28" s="52" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1">
-      <c r="A29" s="94"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="1" t="s">
         <v>22</v>
       </c>
@@ -2350,11 +2351,11 @@
       <c r="D29" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="64"/>
-      <c r="F29" s="59"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="53"/>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1">
-      <c r="A30" s="94"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="1" t="s">
         <v>20</v>
       </c>
@@ -2364,11 +2365,11 @@
       <c r="D30" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="64"/>
-      <c r="F30" s="59"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="53"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1">
-      <c r="A31" s="94"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="1" t="s">
         <v>21</v>
       </c>
@@ -2376,11 +2377,11 @@
       <c r="D31" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="64"/>
-      <c r="F31" s="59"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="53"/>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1">
-      <c r="A32" s="94"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="1" t="s">
         <v>23</v>
       </c>
@@ -2388,11 +2389,11 @@
       <c r="D32" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="64"/>
-      <c r="F32" s="59"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="53"/>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1">
-      <c r="A33" s="94"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="1" t="s">
         <v>24</v>
       </c>
@@ -2400,11 +2401,11 @@
       <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="64"/>
-      <c r="F33" s="59"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="53"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="95"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="4" t="s">
         <v>159</v>
       </c>
@@ -2412,11 +2413,11 @@
       <c r="D34" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="65"/>
-      <c r="F34" s="60"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="54"/>
     </row>
     <row r="35" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A35" s="113" t="s">
+      <c r="A35" s="61" t="s">
         <v>180</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -2428,15 +2429,15 @@
       <c r="D35" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="E35" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="58" t="s">
+      <c r="F35" s="52" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A36" s="114"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="1" t="s">
         <v>70</v>
       </c>
@@ -2444,11 +2445,11 @@
       <c r="D36" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="64"/>
-      <c r="F36" s="59"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="53"/>
     </row>
     <row r="37" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A37" s="114"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -2456,51 +2457,51 @@
       <c r="D37" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="64"/>
-      <c r="F37" s="59"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="53"/>
     </row>
     <row r="38" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A38" s="114"/>
+      <c r="A38" s="62"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="64"/>
-      <c r="F38" s="59"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="53"/>
     </row>
     <row r="39" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A39" s="114"/>
+      <c r="A39" s="62"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="64"/>
-      <c r="F39" s="59"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="53"/>
     </row>
     <row r="40" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A40" s="114"/>
+      <c r="A40" s="62"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="64"/>
-      <c r="F40" s="59"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="53"/>
     </row>
     <row r="41" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A41" s="115"/>
+      <c r="A41" s="63"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="65"/>
-      <c r="F41" s="60"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="54"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1">
-      <c r="A42" s="91" t="s">
+      <c r="A42" s="64" t="s">
         <v>181</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -2510,24 +2511,24 @@
       <c r="D42" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="E42" s="63"/>
-      <c r="F42" s="58" t="s">
+      <c r="E42" s="49"/>
+      <c r="F42" s="52" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="92"/>
+      <c r="A43" s="65"/>
       <c r="B43" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="E43" s="64"/>
-      <c r="F43" s="59"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="53"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="92"/>
+      <c r="A44" s="65"/>
       <c r="B44" s="1" t="s">
         <v>130</v>
       </c>
@@ -2535,11 +2536,11 @@
       <c r="D44" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="E44" s="64"/>
-      <c r="F44" s="59"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="53"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A45" s="92"/>
+      <c r="A45" s="65"/>
       <c r="B45" s="1" t="s">
         <v>129</v>
       </c>
@@ -2547,43 +2548,43 @@
       <c r="D45" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="E45" s="64"/>
-      <c r="F45" s="59"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="53"/>
     </row>
     <row r="46" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A46" s="91" t="s">
+      <c r="A46" s="64" t="s">
         <v>150</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="117" t="s">
+      <c r="C46" s="67" t="s">
         <v>45</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="119" t="s">
+      <c r="E46" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="52" t="s">
+      <c r="F46" s="72" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1">
-      <c r="A47" s="92"/>
+      <c r="A47" s="65"/>
       <c r="B47" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="118"/>
+      <c r="C47" s="68"/>
       <c r="D47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="120"/>
-      <c r="F47" s="53"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="73"/>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1">
-      <c r="A48" s="92"/>
+      <c r="A48" s="65"/>
       <c r="B48" s="5" t="s">
         <v>29</v>
       </c>
@@ -2593,11 +2594,11 @@
       <c r="D48" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="120"/>
-      <c r="F48" s="53"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="73"/>
     </row>
     <row r="49" spans="1:6" ht="30" customHeight="1">
-      <c r="A49" s="92"/>
+      <c r="A49" s="65"/>
       <c r="B49" s="24" t="s">
         <v>30</v>
       </c>
@@ -2607,11 +2608,11 @@
       <c r="D49" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="120"/>
-      <c r="F49" s="53"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="73"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1">
-      <c r="A50" s="92"/>
+      <c r="A50" s="65"/>
       <c r="B50" s="24" t="s">
         <v>31</v>
       </c>
@@ -2621,11 +2622,11 @@
       <c r="D50" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="120"/>
-      <c r="F50" s="53"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="73"/>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1">
-      <c r="A51" s="92"/>
+      <c r="A51" s="65"/>
       <c r="B51" s="24" t="s">
         <v>32</v>
       </c>
@@ -2633,11 +2634,11 @@
       <c r="D51" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="120"/>
-      <c r="F51" s="53"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="73"/>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1">
-      <c r="A52" s="92"/>
+      <c r="A52" s="65"/>
       <c r="B52" s="24" t="s">
         <v>33</v>
       </c>
@@ -2645,29 +2646,29 @@
       <c r="D52" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="120"/>
-      <c r="F52" s="53"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="73"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A53" s="116"/>
+      <c r="A53" s="66"/>
       <c r="B53" s="25"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
-      <c r="E53" s="121"/>
-      <c r="F53" s="54"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="74"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A54" s="122" t="s">
+      <c r="A54" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="B54" s="122"/>
-      <c r="C54" s="122"/>
-      <c r="D54" s="122"/>
-      <c r="E54" s="122"/>
-      <c r="F54" s="122"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="75"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
     </row>
     <row r="55" spans="1:6" ht="30" customHeight="1">
-      <c r="A55" s="74" t="s">
+      <c r="A55" s="55" t="s">
         <v>62</v>
       </c>
       <c r="B55" s="12" t="s">
@@ -2678,10 +2679,10 @@
         <v>34</v>
       </c>
       <c r="E55" s="3"/>
-      <c r="F55" s="68"/>
+      <c r="F55" s="58"/>
     </row>
     <row r="56" spans="1:6" ht="30" customHeight="1">
-      <c r="A56" s="87"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="8" t="s">
         <v>15</v>
       </c>
@@ -2690,10 +2691,10 @@
         <v>15</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="69"/>
+      <c r="F56" s="59"/>
     </row>
     <row r="57" spans="1:6" ht="45" customHeight="1">
-      <c r="A57" s="87"/>
+      <c r="A57" s="56"/>
       <c r="B57" s="9" t="s">
         <v>10</v>
       </c>
@@ -2702,26 +2703,26 @@
         <v>10</v>
       </c>
       <c r="E57" s="2"/>
-      <c r="F57" s="69"/>
+      <c r="F57" s="59"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="87"/>
+      <c r="A58" s="56"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="69"/>
+      <c r="F58" s="59"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A59" s="75"/>
+      <c r="A59" s="57"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="70"/>
+      <c r="F59" s="60"/>
     </row>
     <row r="60" spans="1:6" ht="30" customHeight="1">
-      <c r="A60" s="160" t="s">
+      <c r="A60" s="91" t="s">
         <v>12</v>
       </c>
       <c r="B60" s="3"/>
@@ -2732,26 +2733,26 @@
         <v>13</v>
       </c>
       <c r="E60" s="3"/>
-      <c r="F60" s="68"/>
+      <c r="F60" s="58"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="161"/>
+      <c r="A61" s="92"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="69"/>
+      <c r="F61" s="59"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A62" s="162"/>
+      <c r="A62" s="93"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="70"/>
+      <c r="F62" s="60"/>
     </row>
     <row r="63" spans="1:6" ht="30" customHeight="1">
-      <c r="A63" s="74" t="s">
+      <c r="A63" s="55" t="s">
         <v>0</v>
       </c>
       <c r="B63" s="8" t="s">
@@ -2762,10 +2763,10 @@
         <v>7</v>
       </c>
       <c r="E63" s="3"/>
-      <c r="F63" s="68"/>
+      <c r="F63" s="58"/>
     </row>
     <row r="64" spans="1:6" ht="30" customHeight="1">
-      <c r="A64" s="87"/>
+      <c r="A64" s="56"/>
       <c r="B64" s="8" t="s">
         <v>8</v>
       </c>
@@ -2774,10 +2775,10 @@
         <v>8</v>
       </c>
       <c r="E64" s="1"/>
-      <c r="F64" s="69"/>
+      <c r="F64" s="59"/>
     </row>
     <row r="65" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A65" s="75"/>
+      <c r="A65" s="57"/>
       <c r="B65" s="13" t="s">
         <v>9</v>
       </c>
@@ -2786,10 +2787,10 @@
         <v>9</v>
       </c>
       <c r="E65" s="4"/>
-      <c r="F65" s="70"/>
+      <c r="F65" s="60"/>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1">
-      <c r="A66" s="74" t="s">
+      <c r="A66" s="55" t="s">
         <v>42</v>
       </c>
       <c r="B66" s="9" t="s">
@@ -2800,10 +2801,10 @@
         <v>39</v>
       </c>
       <c r="E66" s="3"/>
-      <c r="F66" s="68"/>
+      <c r="F66" s="58"/>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1">
-      <c r="A67" s="87"/>
+      <c r="A67" s="56"/>
       <c r="B67" s="9" t="s">
         <v>40</v>
       </c>
@@ -2812,10 +2813,10 @@
         <v>40</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="69"/>
+      <c r="F67" s="59"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A68" s="75"/>
+      <c r="A68" s="57"/>
       <c r="B68" s="9" t="s">
         <v>41</v>
       </c>
@@ -2824,10 +2825,10 @@
         <v>41</v>
       </c>
       <c r="E68" s="4"/>
-      <c r="F68" s="70"/>
+      <c r="F68" s="60"/>
     </row>
     <row r="69" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A69" s="163" t="s">
+      <c r="A69" s="100" t="s">
         <v>169</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -2842,12 +2843,12 @@
       <c r="E69" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F69" s="68" t="s">
+      <c r="F69" s="58" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A70" s="164"/>
+      <c r="A70" s="101"/>
       <c r="B70" s="1" t="s">
         <v>17</v>
       </c>
@@ -2860,10 +2861,10 @@
       <c r="E70" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F70" s="69"/>
+      <c r="F70" s="59"/>
     </row>
     <row r="71" spans="1:6" ht="30" customHeight="1">
-      <c r="A71" s="164"/>
+      <c r="A71" s="101"/>
       <c r="B71" s="1" t="s">
         <v>18</v>
       </c>
@@ -2876,10 +2877,10 @@
       <c r="E71" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F71" s="69"/>
+      <c r="F71" s="59"/>
     </row>
     <row r="72" spans="1:6" ht="30" customHeight="1">
-      <c r="A72" s="164"/>
+      <c r="A72" s="101"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="8" t="s">
@@ -2888,10 +2889,10 @@
       <c r="E72" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="69"/>
+      <c r="F72" s="59"/>
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1">
-      <c r="A73" s="164"/>
+      <c r="A73" s="101"/>
       <c r="B73" s="7"/>
       <c r="C73" s="1"/>
       <c r="D73" s="8" t="s">
@@ -2900,10 +2901,10 @@
       <c r="E73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F73" s="69"/>
+      <c r="F73" s="59"/>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1">
-      <c r="A74" s="164"/>
+      <c r="A74" s="101"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="8" t="s">
@@ -2912,10 +2913,10 @@
       <c r="E74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F74" s="69"/>
+      <c r="F74" s="59"/>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A75" s="165"/>
+      <c r="A75" s="102"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="29" t="s">
@@ -2924,10 +2925,10 @@
       <c r="E75" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F75" s="70"/>
+      <c r="F75" s="60"/>
     </row>
     <row r="76" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A76" s="81" t="s">
+      <c r="A76" s="94" t="s">
         <v>58</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -2942,12 +2943,12 @@
       <c r="E76" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F76" s="68" t="s">
+      <c r="F76" s="58" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A77" s="82"/>
+      <c r="A77" s="95"/>
       <c r="B77" s="1" t="s">
         <v>17</v>
       </c>
@@ -2960,10 +2961,10 @@
       <c r="E77" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F77" s="69"/>
+      <c r="F77" s="59"/>
     </row>
     <row r="78" spans="1:6" ht="30" customHeight="1">
-      <c r="A78" s="82"/>
+      <c r="A78" s="95"/>
       <c r="B78" s="1" t="s">
         <v>18</v>
       </c>
@@ -2974,10 +2975,10 @@
       <c r="E78" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F78" s="69"/>
+      <c r="F78" s="59"/>
     </row>
     <row r="79" spans="1:6" ht="30" customHeight="1">
-      <c r="A79" s="82"/>
+      <c r="A79" s="95"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="8" t="s">
@@ -2986,10 +2987,10 @@
       <c r="E79" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F79" s="69"/>
+      <c r="F79" s="59"/>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1">
-      <c r="A80" s="82"/>
+      <c r="A80" s="95"/>
       <c r="B80" s="7"/>
       <c r="C80" s="1"/>
       <c r="D80" s="8" t="s">
@@ -2998,10 +2999,10 @@
       <c r="E80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F80" s="69"/>
+      <c r="F80" s="59"/>
     </row>
     <row r="81" spans="1:6" ht="15" customHeight="1">
-      <c r="A81" s="82"/>
+      <c r="A81" s="95"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="8" t="s">
@@ -3010,10 +3011,10 @@
       <c r="E81" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F81" s="69"/>
+      <c r="F81" s="59"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A82" s="83"/>
+      <c r="A82" s="96"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="29" t="s">
@@ -3022,10 +3023,10 @@
       <c r="E82" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F82" s="70"/>
+      <c r="F82" s="60"/>
     </row>
     <row r="83" spans="1:6" ht="15" customHeight="1">
-      <c r="A83" s="74" t="s">
+      <c r="A83" s="55" t="s">
         <v>66</v>
       </c>
       <c r="B83" s="26" t="s">
@@ -3040,30 +3041,30 @@
       <c r="E83" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F83" s="88" t="s">
+      <c r="F83" s="97" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="87"/>
+      <c r="A84" s="56"/>
       <c r="B84" s="30"/>
       <c r="C84" s="22"/>
       <c r="D84" s="21"/>
       <c r="E84" s="31"/>
-      <c r="F84" s="89"/>
+      <c r="F84" s="98"/>
     </row>
     <row r="85" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A85" s="75"/>
+      <c r="A85" s="57"/>
       <c r="B85" s="25"/>
       <c r="C85" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D85" s="16"/>
       <c r="E85" s="17"/>
-      <c r="F85" s="90"/>
+      <c r="F85" s="99"/>
     </row>
     <row r="86" spans="1:6" ht="15" customHeight="1">
-      <c r="A86" s="74" t="s">
+      <c r="A86" s="55" t="s">
         <v>112</v>
       </c>
       <c r="B86" s="27" t="s">
@@ -3078,22 +3079,22 @@
       <c r="E86" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F86" s="68" t="s">
+      <c r="F86" s="58" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A87" s="75"/>
+      <c r="A87" s="57"/>
       <c r="B87" s="28"/>
       <c r="C87" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="19"/>
-      <c r="F87" s="70"/>
+      <c r="F87" s="60"/>
     </row>
     <row r="88" spans="1:6" ht="15" customHeight="1">
-      <c r="A88" s="74" t="s">
+      <c r="A88" s="55" t="s">
         <v>65</v>
       </c>
       <c r="B88" s="27" t="s">
@@ -3108,20 +3109,20 @@
       <c r="E88" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F88" s="76"/>
+      <c r="F88" s="109"/>
     </row>
     <row r="89" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A89" s="75"/>
+      <c r="A89" s="57"/>
       <c r="B89" s="28"/>
       <c r="C89" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="19"/>
-      <c r="F89" s="77"/>
+      <c r="F89" s="110"/>
     </row>
     <row r="90" spans="1:6" ht="45" customHeight="1">
-      <c r="A90" s="71" t="s">
+      <c r="A90" s="111" t="s">
         <v>168</v>
       </c>
       <c r="B90" s="15" t="s">
@@ -3132,12 +3133,12 @@
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="68" t="s">
-        <v>221</v>
+      <c r="F90" s="58" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A91" s="72"/>
+      <c r="A91" s="112"/>
       <c r="B91" s="9" t="s">
         <v>173</v>
       </c>
@@ -3146,20 +3147,20 @@
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="69"/>
+      <c r="F91" s="59"/>
     </row>
     <row r="92" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A92" s="73"/>
+      <c r="A92" s="113"/>
       <c r="B92" s="25"/>
       <c r="C92" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
-      <c r="F92" s="70"/>
+      <c r="F92" s="60"/>
     </row>
     <row r="93" spans="1:6" ht="30" customHeight="1">
-      <c r="A93" s="71" t="s">
+      <c r="A93" s="111" t="s">
         <v>178</v>
       </c>
       <c r="B93" s="15" t="s">
@@ -3170,32 +3171,32 @@
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
-      <c r="F93" s="68" t="s">
-        <v>222</v>
+      <c r="F93" s="58" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="30" customHeight="1">
-      <c r="A94" s="72"/>
+      <c r="A94" s="112"/>
       <c r="B94" s="9" t="s">
         <v>179</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="69"/>
+      <c r="F94" s="59"/>
     </row>
     <row r="95" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A95" s="73"/>
+      <c r="A95" s="113"/>
       <c r="B95" s="25"/>
       <c r="C95" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="70"/>
+      <c r="F95" s="60"/>
     </row>
     <row r="96" spans="1:6" ht="30" customHeight="1">
-      <c r="A96" s="81" t="s">
+      <c r="A96" s="94" t="s">
         <v>167</v>
       </c>
       <c r="B96" s="3"/>
@@ -3204,62 +3205,62 @@
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
-      <c r="F96" s="68" t="s">
+      <c r="F96" s="58" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="82"/>
+      <c r="A97" s="95"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="69"/>
+      <c r="F97" s="59"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="82"/>
+      <c r="A98" s="95"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="69"/>
+      <c r="F98" s="59"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="82"/>
+      <c r="A99" s="95"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="69"/>
+      <c r="F99" s="59"/>
     </row>
     <row r="100" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A100" s="83"/>
+      <c r="A100" s="96"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
-      <c r="F100" s="70"/>
+      <c r="F100" s="60"/>
     </row>
     <row r="101" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A101" s="84" t="s">
+      <c r="A101" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="B101" s="84"/>
-      <c r="C101" s="84"/>
-      <c r="D101" s="84"/>
-      <c r="E101" s="84"/>
-      <c r="F101" s="84"/>
+      <c r="B101" s="116"/>
+      <c r="C101" s="116"/>
+      <c r="D101" s="116"/>
+      <c r="E101" s="116"/>
+      <c r="F101" s="116"/>
     </row>
     <row r="102" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A102" s="61" t="s">
+      <c r="A102" s="114" t="s">
         <v>50</v>
       </c>
       <c r="B102" s="3"/>
@@ -3270,12 +3271,12 @@
       <c r="E102" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F102" s="76" t="s">
+      <c r="F102" s="109" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A103" s="62"/>
+      <c r="A103" s="115"/>
       <c r="B103" s="1"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8" t="s">
@@ -3284,10 +3285,10 @@
       <c r="E103" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F103" s="86"/>
+      <c r="F103" s="118"/>
     </row>
     <row r="104" spans="1:6" ht="30" customHeight="1">
-      <c r="A104" s="62"/>
+      <c r="A104" s="115"/>
       <c r="B104" s="1"/>
       <c r="C104" s="8"/>
       <c r="D104" s="9" t="s">
@@ -3296,10 +3297,10 @@
       <c r="E104" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F104" s="86"/>
+      <c r="F104" s="118"/>
     </row>
     <row r="105" spans="1:6" ht="30" customHeight="1">
-      <c r="A105" s="62"/>
+      <c r="A105" s="115"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="8" t="s">
@@ -3308,10 +3309,10 @@
       <c r="E105" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F105" s="86"/>
+      <c r="F105" s="118"/>
     </row>
     <row r="106" spans="1:6" ht="15" customHeight="1">
-      <c r="A106" s="62"/>
+      <c r="A106" s="115"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="8" t="s">
@@ -3320,10 +3321,10 @@
       <c r="E106" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F106" s="86"/>
+      <c r="F106" s="118"/>
     </row>
     <row r="107" spans="1:6" ht="15" customHeight="1">
-      <c r="A107" s="62"/>
+      <c r="A107" s="115"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="8" t="s">
@@ -3332,10 +3333,10 @@
       <c r="E107" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F107" s="86"/>
+      <c r="F107" s="118"/>
     </row>
     <row r="108" spans="1:6" ht="15" customHeight="1">
-      <c r="A108" s="62"/>
+      <c r="A108" s="115"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="8" t="s">
@@ -3344,10 +3345,10 @@
       <c r="E108" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F108" s="86"/>
+      <c r="F108" s="118"/>
     </row>
     <row r="109" spans="1:6" ht="15" customHeight="1">
-      <c r="A109" s="62"/>
+      <c r="A109" s="115"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="9" t="s">
@@ -3356,10 +3357,10 @@
       <c r="E109" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F109" s="86"/>
+      <c r="F109" s="118"/>
     </row>
     <row r="110" spans="1:6" ht="15" customHeight="1">
-      <c r="A110" s="62"/>
+      <c r="A110" s="115"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="9" t="s">
@@ -3368,10 +3369,10 @@
       <c r="E110" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F110" s="86"/>
+      <c r="F110" s="118"/>
     </row>
     <row r="111" spans="1:6" ht="15" customHeight="1">
-      <c r="A111" s="62"/>
+      <c r="A111" s="115"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="9" t="s">
@@ -3380,59 +3381,59 @@
       <c r="E111" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F111" s="86"/>
+      <c r="F111" s="118"/>
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1">
-      <c r="A112" s="62"/>
+      <c r="A112" s="115"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="18" t="s">
         <v>187</v>
       </c>
       <c r="E112" s="19"/>
-      <c r="F112" s="86"/>
+      <c r="F112" s="118"/>
     </row>
     <row r="113" spans="1:6" ht="15" customHeight="1">
-      <c r="A113" s="62"/>
+      <c r="A113" s="115"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="18" t="s">
         <v>186</v>
       </c>
       <c r="E113" s="19"/>
-      <c r="F113" s="86"/>
+      <c r="F113" s="118"/>
     </row>
     <row r="114" spans="1:6" ht="15" customHeight="1">
-      <c r="A114" s="62"/>
+      <c r="A114" s="115"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="18" t="s">
         <v>185</v>
       </c>
       <c r="E114" s="19"/>
-      <c r="F114" s="86"/>
+      <c r="F114" s="118"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="62"/>
+      <c r="A115" s="115"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="18" t="s">
         <v>184</v>
       </c>
       <c r="E115" s="19"/>
-      <c r="F115" s="86"/>
+      <c r="F115" s="118"/>
     </row>
     <row r="116" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A116" s="85"/>
+      <c r="A116" s="117"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="18"/>
       <c r="E116" s="19"/>
-      <c r="F116" s="77"/>
+      <c r="F116" s="110"/>
     </row>
     <row r="117" spans="1:6" ht="30" customHeight="1">
-      <c r="A117" s="111" t="s">
-        <v>218</v>
+      <c r="A117" s="119" t="s">
+        <v>216</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>19</v>
@@ -3443,15 +3444,15 @@
       <c r="D117" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E117" s="63" t="s">
+      <c r="E117" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="F117" s="58" t="s">
+      <c r="F117" s="52" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="30" customHeight="1">
-      <c r="A118" s="112"/>
+      <c r="A118" s="120"/>
       <c r="B118" s="1" t="s">
         <v>22</v>
       </c>
@@ -3461,11 +3462,11 @@
       <c r="D118" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E118" s="64"/>
-      <c r="F118" s="59"/>
+      <c r="E118" s="50"/>
+      <c r="F118" s="53"/>
     </row>
     <row r="119" spans="1:6" ht="30" customHeight="1">
-      <c r="A119" s="112"/>
+      <c r="A119" s="120"/>
       <c r="B119" s="1" t="s">
         <v>20</v>
       </c>
@@ -3475,11 +3476,11 @@
       <c r="D119" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E119" s="64"/>
-      <c r="F119" s="59"/>
+      <c r="E119" s="50"/>
+      <c r="F119" s="53"/>
     </row>
     <row r="120" spans="1:6" ht="30" customHeight="1">
-      <c r="A120" s="112"/>
+      <c r="A120" s="120"/>
       <c r="B120" s="1" t="s">
         <v>21</v>
       </c>
@@ -3487,11 +3488,11 @@
       <c r="D120" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E120" s="64"/>
-      <c r="F120" s="59"/>
+      <c r="E120" s="50"/>
+      <c r="F120" s="53"/>
     </row>
     <row r="121" spans="1:6" ht="15" customHeight="1">
-      <c r="A121" s="112"/>
+      <c r="A121" s="120"/>
       <c r="B121" s="1" t="s">
         <v>23</v>
       </c>
@@ -3499,11 +3500,11 @@
       <c r="D121" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E121" s="64"/>
-      <c r="F121" s="59"/>
+      <c r="E121" s="50"/>
+      <c r="F121" s="53"/>
     </row>
     <row r="122" spans="1:6" ht="15" customHeight="1">
-      <c r="A122" s="112"/>
+      <c r="A122" s="120"/>
       <c r="B122" s="1" t="s">
         <v>24</v>
       </c>
@@ -3511,21 +3512,21 @@
       <c r="D122" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E122" s="64"/>
-      <c r="F122" s="59"/>
+      <c r="E122" s="50"/>
+      <c r="F122" s="53"/>
     </row>
     <row r="123" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A123" s="112"/>
+      <c r="A123" s="120"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E123" s="65"/>
-      <c r="F123" s="60"/>
+      <c r="E123" s="51"/>
+      <c r="F123" s="54"/>
     </row>
     <row r="124" spans="1:6" ht="30" customHeight="1">
-      <c r="A124" s="61" t="s">
+      <c r="A124" s="114" t="s">
         <v>191</v>
       </c>
       <c r="B124" s="3" t="s">
@@ -3537,15 +3538,15 @@
       <c r="D124" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E124" s="63" t="s">
+      <c r="E124" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="F124" s="58" t="s">
+      <c r="F124" s="52" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="30" customHeight="1">
-      <c r="A125" s="62"/>
+      <c r="A125" s="115"/>
       <c r="B125" s="1" t="s">
         <v>22</v>
       </c>
@@ -3555,11 +3556,11 @@
       <c r="D125" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E125" s="64"/>
-      <c r="F125" s="59"/>
+      <c r="E125" s="50"/>
+      <c r="F125" s="53"/>
     </row>
     <row r="126" spans="1:6" ht="30" customHeight="1">
-      <c r="A126" s="62"/>
+      <c r="A126" s="115"/>
       <c r="B126" s="1" t="s">
         <v>20</v>
       </c>
@@ -3569,11 +3570,11 @@
       <c r="D126" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E126" s="64"/>
-      <c r="F126" s="59"/>
+      <c r="E126" s="50"/>
+      <c r="F126" s="53"/>
     </row>
     <row r="127" spans="1:6" ht="30" customHeight="1">
-      <c r="A127" s="62"/>
+      <c r="A127" s="115"/>
       <c r="B127" s="1" t="s">
         <v>21</v>
       </c>
@@ -3581,11 +3582,11 @@
       <c r="D127" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E127" s="64"/>
-      <c r="F127" s="59"/>
+      <c r="E127" s="50"/>
+      <c r="F127" s="53"/>
     </row>
     <row r="128" spans="1:6" ht="15" customHeight="1">
-      <c r="A128" s="62"/>
+      <c r="A128" s="115"/>
       <c r="B128" s="1" t="s">
         <v>23</v>
       </c>
@@ -3593,11 +3594,11 @@
       <c r="D128" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E128" s="64"/>
-      <c r="F128" s="59"/>
+      <c r="E128" s="50"/>
+      <c r="F128" s="53"/>
     </row>
     <row r="129" spans="1:9" ht="15" customHeight="1">
-      <c r="A129" s="62"/>
+      <c r="A129" s="115"/>
       <c r="B129" s="1" t="s">
         <v>24</v>
       </c>
@@ -3605,21 +3606,21 @@
       <c r="D129" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E129" s="64"/>
-      <c r="F129" s="59"/>
+      <c r="E129" s="50"/>
+      <c r="F129" s="53"/>
     </row>
     <row r="130" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A130" s="62"/>
+      <c r="A130" s="115"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E130" s="65"/>
-      <c r="F130" s="60"/>
+      <c r="E130" s="51"/>
+      <c r="F130" s="54"/>
     </row>
     <row r="131" spans="1:9" ht="30" customHeight="1">
-      <c r="A131" s="61" t="s">
+      <c r="A131" s="114" t="s">
         <v>192</v>
       </c>
       <c r="B131" s="3" t="s">
@@ -3631,15 +3632,15 @@
       <c r="D131" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E131" s="63" t="s">
+      <c r="E131" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="F131" s="58" t="s">
+      <c r="F131" s="52" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="30" customHeight="1">
-      <c r="A132" s="62"/>
+      <c r="A132" s="115"/>
       <c r="B132" s="1" t="s">
         <v>22</v>
       </c>
@@ -3649,11 +3650,11 @@
       <c r="D132" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E132" s="64"/>
-      <c r="F132" s="59"/>
+      <c r="E132" s="50"/>
+      <c r="F132" s="53"/>
     </row>
     <row r="133" spans="1:9" ht="30" customHeight="1">
-      <c r="A133" s="62"/>
+      <c r="A133" s="115"/>
       <c r="B133" s="1" t="s">
         <v>20</v>
       </c>
@@ -3663,11 +3664,11 @@
       <c r="D133" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E133" s="64"/>
-      <c r="F133" s="59"/>
+      <c r="E133" s="50"/>
+      <c r="F133" s="53"/>
     </row>
     <row r="134" spans="1:9" ht="30" customHeight="1">
-      <c r="A134" s="62"/>
+      <c r="A134" s="115"/>
       <c r="B134" s="1" t="s">
         <v>21</v>
       </c>
@@ -3675,11 +3676,11 @@
       <c r="D134" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E134" s="64"/>
-      <c r="F134" s="59"/>
+      <c r="E134" s="50"/>
+      <c r="F134" s="53"/>
     </row>
     <row r="135" spans="1:9" ht="15" customHeight="1">
-      <c r="A135" s="62"/>
+      <c r="A135" s="115"/>
       <c r="B135" s="1" t="s">
         <v>23</v>
       </c>
@@ -3687,11 +3688,11 @@
       <c r="D135" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E135" s="64"/>
-      <c r="F135" s="59"/>
+      <c r="E135" s="50"/>
+      <c r="F135" s="53"/>
     </row>
     <row r="136" spans="1:9" ht="15" customHeight="1">
-      <c r="A136" s="62"/>
+      <c r="A136" s="115"/>
       <c r="B136" s="1" t="s">
         <v>24</v>
       </c>
@@ -3699,21 +3700,21 @@
       <c r="D136" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E136" s="64"/>
-      <c r="F136" s="59"/>
+      <c r="E136" s="50"/>
+      <c r="F136" s="53"/>
     </row>
     <row r="137" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A137" s="62"/>
+      <c r="A137" s="115"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E137" s="65"/>
-      <c r="F137" s="60"/>
+      <c r="E137" s="51"/>
+      <c r="F137" s="54"/>
     </row>
     <row r="138" spans="1:9" ht="15" customHeight="1">
-      <c r="A138" s="78" t="s">
+      <c r="A138" s="106" t="s">
         <v>188</v>
       </c>
       <c r="B138" s="3" t="s">
@@ -3725,13 +3726,13 @@
       <c r="D138" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="E138" s="63"/>
-      <c r="F138" s="58" t="s">
+      <c r="E138" s="49"/>
+      <c r="F138" s="52" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="79"/>
+      <c r="A139" s="107"/>
       <c r="B139" s="1" t="s">
         <v>23</v>
       </c>
@@ -3741,11 +3742,11 @@
       <c r="D139" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="E139" s="64"/>
-      <c r="F139" s="59"/>
+      <c r="E139" s="50"/>
+      <c r="F139" s="53"/>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="79"/>
+      <c r="A140" s="107"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1" t="s">
         <v>139</v>
@@ -3753,11 +3754,11 @@
       <c r="D140" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="E140" s="64"/>
-      <c r="F140" s="59"/>
+      <c r="E140" s="50"/>
+      <c r="F140" s="53"/>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="79"/>
+      <c r="A141" s="107"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1" t="s">
         <v>140</v>
@@ -3765,96 +3766,96 @@
       <c r="D141" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="E141" s="64"/>
-      <c r="F141" s="59"/>
+      <c r="E141" s="50"/>
+      <c r="F141" s="53"/>
     </row>
     <row r="142" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A142" s="79"/>
+      <c r="A142" s="107"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D142" s="8"/>
-      <c r="E142" s="64"/>
-      <c r="F142" s="59"/>
+      <c r="E142" s="50"/>
+      <c r="F142" s="53"/>
     </row>
     <row r="143" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A143" s="79"/>
+      <c r="A143" s="107"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D143" s="8"/>
-      <c r="E143" s="64"/>
-      <c r="F143" s="59"/>
+      <c r="E143" s="50"/>
+      <c r="F143" s="53"/>
     </row>
     <row r="144" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A144" s="79"/>
+      <c r="A144" s="107"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D144" s="8"/>
-      <c r="E144" s="64"/>
-      <c r="F144" s="59"/>
+      <c r="E144" s="50"/>
+      <c r="F144" s="53"/>
       <c r="I144" s="36"/>
     </row>
     <row r="145" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A145" s="79"/>
+      <c r="A145" s="107"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D145" s="8"/>
-      <c r="E145" s="64"/>
-      <c r="F145" s="59"/>
+      <c r="E145" s="50"/>
+      <c r="F145" s="53"/>
       <c r="I145" s="36"/>
     </row>
     <row r="146" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A146" s="79"/>
+      <c r="A146" s="107"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D146" s="8"/>
-      <c r="E146" s="64"/>
-      <c r="F146" s="59"/>
+      <c r="E146" s="50"/>
+      <c r="F146" s="53"/>
       <c r="I146" s="36"/>
     </row>
     <row r="147" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A147" s="79"/>
+      <c r="A147" s="107"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D147" s="8"/>
-      <c r="E147" s="64"/>
-      <c r="F147" s="59"/>
+      <c r="E147" s="50"/>
+      <c r="F147" s="53"/>
       <c r="I147" s="36"/>
     </row>
     <row r="148" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A148" s="79"/>
+      <c r="A148" s="107"/>
       <c r="B148" s="2"/>
       <c r="C148" s="5" t="s">
         <v>194</v>
       </c>
       <c r="D148" s="13"/>
-      <c r="E148" s="64"/>
-      <c r="F148" s="59"/>
+      <c r="E148" s="50"/>
+      <c r="F148" s="53"/>
       <c r="I148" s="36"/>
     </row>
     <row r="149" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A149" s="80"/>
+      <c r="A149" s="108"/>
       <c r="B149" s="4"/>
       <c r="C149" s="5" t="s">
         <v>195</v>
       </c>
       <c r="D149" s="29"/>
-      <c r="E149" s="65"/>
-      <c r="F149" s="60"/>
+      <c r="E149" s="51"/>
+      <c r="F149" s="54"/>
     </row>
     <row r="150" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A150" s="66" t="s">
+      <c r="A150" s="124" t="s">
         <v>51</v>
       </c>
       <c r="B150" s="23" t="s">
@@ -3863,20 +3864,20 @@
       <c r="C150" s="22"/>
       <c r="D150" s="22"/>
       <c r="E150" s="22"/>
-      <c r="F150" s="52" t="s">
+      <c r="F150" s="72" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A151" s="67"/>
+      <c r="A151" s="125"/>
       <c r="B151" s="16"/>
       <c r="C151" s="17"/>
       <c r="D151" s="17"/>
       <c r="E151" s="17"/>
-      <c r="F151" s="54"/>
+      <c r="F151" s="74"/>
     </row>
     <row r="152" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A152" s="46" t="s">
+      <c r="A152" s="103" t="s">
         <v>52</v>
       </c>
       <c r="B152" s="15" t="s">
@@ -3885,32 +3886,32 @@
       <c r="C152" s="14"/>
       <c r="D152" s="14"/>
       <c r="E152" s="14"/>
-      <c r="F152" s="52" t="s">
+      <c r="F152" s="72" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A153" s="47"/>
+      <c r="A153" s="104"/>
       <c r="B153" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C153" s="31"/>
       <c r="D153" s="31"/>
       <c r="E153" s="31"/>
-      <c r="F153" s="53"/>
+      <c r="F153" s="73"/>
     </row>
     <row r="154" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A154" s="48"/>
+      <c r="A154" s="105"/>
       <c r="B154" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C154" s="19"/>
       <c r="D154" s="19"/>
       <c r="E154" s="19"/>
-      <c r="F154" s="54"/>
+      <c r="F154" s="74"/>
     </row>
     <row r="155" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A155" s="46" t="s">
+      <c r="A155" s="103" t="s">
         <v>152</v>
       </c>
       <c r="B155" s="15" t="s">
@@ -3919,36 +3920,36 @@
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
-      <c r="F155" s="68" t="s">
+      <c r="F155" s="58" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A156" s="47"/>
+      <c r="A156" s="104"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
-      <c r="F156" s="69"/>
+      <c r="F156" s="59"/>
     </row>
     <row r="157" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A157" s="47"/>
+      <c r="A157" s="104"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
-      <c r="F157" s="69"/>
+      <c r="F157" s="59"/>
     </row>
     <row r="158" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A158" s="48"/>
+      <c r="A158" s="105"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
-      <c r="F158" s="70"/>
+      <c r="F158" s="60"/>
     </row>
     <row r="159" spans="1:9" ht="15" customHeight="1">
-      <c r="A159" s="46" t="s">
+      <c r="A159" s="103" t="s">
         <v>86</v>
       </c>
       <c r="B159" s="15" t="s">
@@ -3957,443 +3958,396 @@
       <c r="C159" s="14"/>
       <c r="D159" s="14"/>
       <c r="E159" s="14"/>
-      <c r="F159" s="52" t="s">
+      <c r="F159" s="72" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15" customHeight="1">
-      <c r="A160" s="47"/>
+      <c r="A160" s="104"/>
       <c r="B160" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C160" s="31"/>
       <c r="D160" s="31"/>
       <c r="E160" s="31"/>
-      <c r="F160" s="53"/>
+      <c r="F160" s="73"/>
     </row>
     <row r="161" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A161" s="48"/>
+      <c r="A161" s="105"/>
       <c r="B161" s="16" t="s">
         <v>84</v>
       </c>
       <c r="C161" s="17"/>
       <c r="D161" s="17"/>
       <c r="E161" s="17"/>
-      <c r="F161" s="54"/>
+      <c r="F161" s="74"/>
     </row>
     <row r="162" spans="1:6" ht="15" customHeight="1">
-      <c r="A162" s="46" t="s">
+      <c r="A162" s="103" t="s">
         <v>174</v>
       </c>
       <c r="B162" s="15"/>
       <c r="C162" s="14"/>
       <c r="D162" s="14"/>
       <c r="E162" s="14"/>
-      <c r="F162" s="52" t="s">
+      <c r="F162" s="72" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="15" customHeight="1">
-      <c r="A163" s="47"/>
+      <c r="A163" s="104"/>
       <c r="B163" s="21"/>
       <c r="C163" s="31"/>
       <c r="D163" s="31"/>
       <c r="E163" s="31"/>
-      <c r="F163" s="53"/>
+      <c r="F163" s="73"/>
     </row>
     <row r="164" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A164" s="48"/>
+      <c r="A164" s="105"/>
       <c r="B164" s="16"/>
       <c r="C164" s="17"/>
       <c r="D164" s="17"/>
       <c r="E164" s="17"/>
-      <c r="F164" s="54"/>
+      <c r="F164" s="74"/>
     </row>
     <row r="165" spans="1:6" ht="15" customHeight="1">
-      <c r="A165" s="46" t="s">
+      <c r="A165" s="103" t="s">
         <v>177</v>
       </c>
       <c r="B165" s="15"/>
       <c r="C165" s="14"/>
       <c r="D165" s="14"/>
       <c r="E165" s="14"/>
-      <c r="F165" s="52" t="s">
+      <c r="F165" s="72" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="15" customHeight="1">
-      <c r="A166" s="47"/>
+      <c r="A166" s="104"/>
       <c r="B166" s="21"/>
       <c r="C166" s="31"/>
       <c r="D166" s="31"/>
       <c r="E166" s="31"/>
-      <c r="F166" s="53"/>
+      <c r="F166" s="73"/>
     </row>
     <row r="167" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A167" s="48"/>
+      <c r="A167" s="105"/>
       <c r="B167" s="16"/>
       <c r="C167" s="17"/>
       <c r="D167" s="17"/>
       <c r="E167" s="17"/>
-      <c r="F167" s="54"/>
-    </row>
-    <row r="168" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A168" s="46" t="s">
-        <v>214</v>
+      <c r="F167" s="74"/>
+    </row>
+    <row r="168" spans="1:6" ht="63.75" customHeight="1">
+      <c r="A168" s="103" t="s">
+        <v>222</v>
       </c>
       <c r="B168" s="15"/>
       <c r="C168" s="14"/>
       <c r="D168" s="14"/>
       <c r="E168" s="14"/>
-      <c r="F168" s="52" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A169" s="47"/>
+      <c r="F168" s="72" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="63.75" customHeight="1">
+      <c r="A169" s="104"/>
       <c r="B169" s="21"/>
       <c r="C169" s="31"/>
       <c r="D169" s="31"/>
       <c r="E169" s="31"/>
-      <c r="F169" s="53"/>
-    </row>
-    <row r="170" spans="1:6" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A170" s="48"/>
+      <c r="F169" s="73"/>
+    </row>
+    <row r="170" spans="1:6" ht="63.75" customHeight="1" thickBot="1">
+      <c r="A170" s="105"/>
       <c r="B170" s="16"/>
       <c r="C170" s="17"/>
       <c r="D170" s="17"/>
       <c r="E170" s="17"/>
-      <c r="F170" s="54"/>
+      <c r="F170" s="74"/>
     </row>
     <row r="171" spans="1:6" ht="60" customHeight="1">
-      <c r="A171" s="46" t="s">
-        <v>216</v>
+      <c r="A171" s="103" t="s">
+        <v>214</v>
       </c>
       <c r="B171" s="15"/>
       <c r="C171" s="14"/>
       <c r="D171" s="14"/>
       <c r="E171" s="14"/>
-      <c r="F171" s="49" t="s">
-        <v>217</v>
+      <c r="F171" s="126" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="60" customHeight="1">
-      <c r="A172" s="47"/>
+      <c r="A172" s="104"/>
       <c r="B172" s="21"/>
       <c r="C172" s="31"/>
       <c r="D172" s="31"/>
       <c r="E172" s="31"/>
-      <c r="F172" s="50"/>
+      <c r="F172" s="127"/>
     </row>
     <row r="173" spans="1:6" ht="60" customHeight="1" thickBot="1">
-      <c r="A173" s="48"/>
+      <c r="A173" s="105"/>
       <c r="B173" s="16"/>
       <c r="C173" s="17"/>
       <c r="D173" s="17"/>
       <c r="E173" s="17"/>
-      <c r="F173" s="51"/>
+      <c r="F173" s="128"/>
     </row>
     <row r="174" spans="1:6" ht="15" customHeight="1">
-      <c r="A174" s="57" t="s">
+      <c r="A174" s="121" t="s">
         <v>200</v>
       </c>
       <c r="B174" s="40"/>
       <c r="C174" s="37"/>
       <c r="D174" s="43"/>
       <c r="E174" s="37"/>
-      <c r="F174" s="52" t="s">
+      <c r="F174" s="72" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="55"/>
+      <c r="A175" s="122"/>
       <c r="B175" s="41"/>
       <c r="C175" s="38"/>
       <c r="D175" s="44"/>
       <c r="E175" s="38"/>
-      <c r="F175" s="53"/>
+      <c r="F175" s="73"/>
     </row>
     <row r="176" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A176" s="56"/>
+      <c r="A176" s="123"/>
       <c r="B176" s="42"/>
       <c r="C176" s="39"/>
       <c r="D176" s="45"/>
       <c r="E176" s="39"/>
-      <c r="F176" s="54"/>
+      <c r="F176" s="74"/>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="57" t="s">
+      <c r="A177" s="121" t="s">
         <v>201</v>
       </c>
       <c r="B177" s="40"/>
       <c r="C177" s="37"/>
       <c r="D177" s="43"/>
       <c r="E177" s="37"/>
-      <c r="F177" s="52" t="s">
+      <c r="F177" s="72" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="55"/>
+      <c r="A178" s="122"/>
       <c r="B178" s="41"/>
       <c r="C178" s="38"/>
       <c r="D178" s="44"/>
       <c r="E178" s="38"/>
-      <c r="F178" s="53"/>
+      <c r="F178" s="73"/>
     </row>
     <row r="179" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A179" s="56"/>
+      <c r="A179" s="123"/>
       <c r="B179" s="42"/>
       <c r="C179" s="39"/>
       <c r="D179" s="45"/>
       <c r="E179" s="39"/>
-      <c r="F179" s="54"/>
+      <c r="F179" s="74"/>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="55" t="s">
+      <c r="A180" s="122" t="s">
         <v>202</v>
       </c>
       <c r="B180" s="41"/>
       <c r="C180" s="38"/>
       <c r="D180" s="44"/>
       <c r="E180" s="38"/>
-      <c r="F180" s="52" t="s">
+      <c r="F180" s="72" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="55"/>
+      <c r="A181" s="122"/>
       <c r="B181" s="41"/>
       <c r="C181" s="38"/>
       <c r="D181" s="44"/>
       <c r="E181" s="38"/>
-      <c r="F181" s="53"/>
+      <c r="F181" s="73"/>
     </row>
     <row r="182" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A182" s="55"/>
+      <c r="A182" s="122"/>
       <c r="B182" s="41"/>
       <c r="C182" s="38"/>
       <c r="D182" s="44"/>
       <c r="E182" s="38"/>
-      <c r="F182" s="54"/>
+      <c r="F182" s="74"/>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="57" t="s">
+      <c r="A183" s="121" t="s">
         <v>203</v>
       </c>
       <c r="B183" s="40"/>
       <c r="C183" s="37"/>
       <c r="D183" s="43"/>
       <c r="E183" s="37"/>
-      <c r="F183" s="52" t="s">
+      <c r="F183" s="72" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="55"/>
+      <c r="A184" s="122"/>
       <c r="B184" s="41"/>
       <c r="C184" s="38"/>
       <c r="D184" s="44"/>
       <c r="E184" s="38"/>
-      <c r="F184" s="53"/>
+      <c r="F184" s="73"/>
     </row>
     <row r="185" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A185" s="56"/>
+      <c r="A185" s="123"/>
       <c r="B185" s="42"/>
       <c r="C185" s="39"/>
       <c r="D185" s="45"/>
       <c r="E185" s="39"/>
-      <c r="F185" s="54"/>
+      <c r="F185" s="74"/>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="55" t="s">
+      <c r="A186" s="122" t="s">
         <v>204</v>
       </c>
       <c r="B186" s="41"/>
       <c r="C186" s="38"/>
       <c r="D186" s="44"/>
       <c r="E186" s="38"/>
-      <c r="F186" s="52" t="s">
+      <c r="F186" s="72" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="55"/>
+      <c r="A187" s="122"/>
       <c r="B187" s="41"/>
       <c r="C187" s="38"/>
       <c r="D187" s="44"/>
       <c r="E187" s="38"/>
-      <c r="F187" s="53"/>
+      <c r="F187" s="73"/>
     </row>
     <row r="188" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A188" s="55"/>
+      <c r="A188" s="122"/>
       <c r="B188" s="41"/>
       <c r="C188" s="38"/>
       <c r="D188" s="44"/>
       <c r="E188" s="38"/>
-      <c r="F188" s="54"/>
+      <c r="F188" s="74"/>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="57" t="s">
+      <c r="A189" s="121" t="s">
         <v>205</v>
       </c>
       <c r="B189" s="40"/>
       <c r="C189" s="37"/>
       <c r="D189" s="43"/>
       <c r="E189" s="37"/>
-      <c r="F189" s="52" t="s">
+      <c r="F189" s="72" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="55"/>
+      <c r="A190" s="122"/>
       <c r="B190" s="41"/>
       <c r="C190" s="38"/>
       <c r="D190" s="44"/>
       <c r="E190" s="38"/>
-      <c r="F190" s="53"/>
+      <c r="F190" s="73"/>
     </row>
     <row r="191" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A191" s="56"/>
+      <c r="A191" s="123"/>
       <c r="B191" s="42"/>
       <c r="C191" s="39"/>
       <c r="D191" s="45"/>
       <c r="E191" s="39"/>
-      <c r="F191" s="54"/>
+      <c r="F191" s="74"/>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="55" t="s">
+      <c r="A192" s="122" t="s">
         <v>206</v>
       </c>
       <c r="B192" s="41"/>
       <c r="C192" s="38"/>
       <c r="D192" s="44"/>
       <c r="E192" s="38"/>
-      <c r="F192" s="49" t="s">
+      <c r="F192" s="126" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="55"/>
+      <c r="A193" s="122"/>
       <c r="B193" s="41"/>
       <c r="C193" s="38"/>
       <c r="D193" s="44"/>
       <c r="E193" s="38"/>
-      <c r="F193" s="50"/>
+      <c r="F193" s="127"/>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="55"/>
+      <c r="A194" s="122"/>
       <c r="B194" s="41"/>
       <c r="C194" s="38"/>
       <c r="D194" s="44"/>
       <c r="E194" s="38"/>
-      <c r="F194" s="50"/>
+      <c r="F194" s="127"/>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="55"/>
+      <c r="A195" s="122"/>
       <c r="B195" s="41"/>
       <c r="C195" s="38"/>
       <c r="D195" s="44"/>
       <c r="E195" s="38"/>
-      <c r="F195" s="50"/>
+      <c r="F195" s="127"/>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="55"/>
+      <c r="A196" s="122"/>
       <c r="B196" s="41"/>
       <c r="C196" s="38"/>
       <c r="D196" s="44"/>
       <c r="E196" s="38"/>
-      <c r="F196" s="50"/>
+      <c r="F196" s="127"/>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="55"/>
+      <c r="A197" s="122"/>
       <c r="B197" s="41"/>
       <c r="C197" s="38"/>
       <c r="D197" s="44"/>
       <c r="E197" s="38"/>
-      <c r="F197" s="50"/>
+      <c r="F197" s="127"/>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="55"/>
+      <c r="A198" s="122"/>
       <c r="B198" s="41"/>
       <c r="C198" s="38"/>
       <c r="D198" s="44"/>
       <c r="E198" s="38"/>
-      <c r="F198" s="50"/>
+      <c r="F198" s="127"/>
     </row>
     <row r="199" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A199" s="56"/>
+      <c r="A199" s="123"/>
       <c r="B199" s="42"/>
       <c r="C199" s="39"/>
       <c r="D199" s="45"/>
       <c r="E199" s="39"/>
-      <c r="F199" s="51"/>
+      <c r="F199" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="E28:E34"/>
-    <mergeCell ref="F28:F34"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="E35:E41"/>
-    <mergeCell ref="F35:F41"/>
-    <mergeCell ref="A46:A53"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="E46:E53"/>
-    <mergeCell ref="F46:F53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="F7:F13"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="F14:F20"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="F21:F27"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="F55:F59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="F76:F82"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="F69:F75"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="F162:F164"/>
-    <mergeCell ref="A138:A149"/>
-    <mergeCell ref="E138:E149"/>
-    <mergeCell ref="F138:F149"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="F93:F95"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="A131:A137"/>
-    <mergeCell ref="E131:E137"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="F96:F100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="A102:A116"/>
-    <mergeCell ref="F102:F116"/>
-    <mergeCell ref="A117:A123"/>
-    <mergeCell ref="E117:E123"/>
-    <mergeCell ref="F117:F123"/>
+    <mergeCell ref="A171:A173"/>
+    <mergeCell ref="F171:F173"/>
+    <mergeCell ref="A168:A170"/>
+    <mergeCell ref="F168:F170"/>
+    <mergeCell ref="A192:A199"/>
+    <mergeCell ref="F174:F176"/>
+    <mergeCell ref="F177:F179"/>
+    <mergeCell ref="F180:F182"/>
+    <mergeCell ref="F183:F185"/>
+    <mergeCell ref="F186:F188"/>
+    <mergeCell ref="F189:F191"/>
+    <mergeCell ref="F192:F199"/>
+    <mergeCell ref="A177:A179"/>
+    <mergeCell ref="A180:A182"/>
+    <mergeCell ref="A183:A185"/>
+    <mergeCell ref="A186:A188"/>
     <mergeCell ref="A189:A191"/>
     <mergeCell ref="F131:F137"/>
     <mergeCell ref="A124:A130"/>
@@ -4410,22 +4364,69 @@
     <mergeCell ref="F152:F154"/>
     <mergeCell ref="A155:A158"/>
     <mergeCell ref="F155:F158"/>
-    <mergeCell ref="A171:A173"/>
-    <mergeCell ref="F171:F173"/>
-    <mergeCell ref="A168:A170"/>
-    <mergeCell ref="F168:F170"/>
-    <mergeCell ref="A192:A199"/>
-    <mergeCell ref="F174:F176"/>
-    <mergeCell ref="F177:F179"/>
-    <mergeCell ref="F180:F182"/>
-    <mergeCell ref="F183:F185"/>
-    <mergeCell ref="F186:F188"/>
-    <mergeCell ref="F189:F191"/>
-    <mergeCell ref="F192:F199"/>
-    <mergeCell ref="A177:A179"/>
-    <mergeCell ref="A180:A182"/>
-    <mergeCell ref="A183:A185"/>
-    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="A131:A137"/>
+    <mergeCell ref="E131:E137"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="F96:F100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="A102:A116"/>
+    <mergeCell ref="F102:F116"/>
+    <mergeCell ref="A117:A123"/>
+    <mergeCell ref="E117:E123"/>
+    <mergeCell ref="F117:F123"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="F162:F164"/>
+    <mergeCell ref="A138:A149"/>
+    <mergeCell ref="E138:E149"/>
+    <mergeCell ref="F138:F149"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="F76:F82"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="F69:F75"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="F14:F20"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="F21:F27"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="F7:F13"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="E28:E34"/>
+    <mergeCell ref="F28:F34"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="E35:E41"/>
+    <mergeCell ref="F35:F41"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="E46:E53"/>
+    <mergeCell ref="F46:F53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="F55:F59"/>
+    <mergeCell ref="A60:A62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4475,17 +4476,17 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="132" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4500,12 +4501,12 @@
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="52" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A4" s="124"/>
+      <c r="A4" s="133"/>
       <c r="B4" s="1" t="s">
         <v>95</v>
       </c>
@@ -4516,10 +4517,10 @@
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="59"/>
+      <c r="F4" s="53"/>
     </row>
     <row r="5" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A5" s="128"/>
+      <c r="A5" s="134"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="9" t="s">
@@ -4528,10 +4529,10 @@
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="59"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A6" s="128"/>
+      <c r="A6" s="134"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="8" t="s">
@@ -4540,10 +4541,10 @@
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="59"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A7" s="128"/>
+      <c r="A7" s="134"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="8" t="s">
@@ -4552,10 +4553,10 @@
       <c r="E7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="59"/>
+      <c r="F7" s="53"/>
     </row>
     <row r="8" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A8" s="128"/>
+      <c r="A8" s="134"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8" t="s">
@@ -4564,10 +4565,10 @@
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="59"/>
+      <c r="F8" s="53"/>
     </row>
     <row r="9" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A9" s="128"/>
+      <c r="A9" s="134"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="13" t="s">
@@ -4576,10 +4577,10 @@
       <c r="E9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="59"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="132" t="s">
         <v>96</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -4594,12 +4595,12 @@
       <c r="E10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="52" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A11" s="124"/>
+      <c r="A11" s="133"/>
       <c r="B11" s="1" t="s">
         <v>95</v>
       </c>
@@ -4610,10 +4611,10 @@
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="59"/>
+      <c r="F11" s="53"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A12" s="128"/>
+      <c r="A12" s="134"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="9" t="s">
@@ -4622,10 +4623,10 @@
       <c r="E12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="59"/>
+      <c r="F12" s="53"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A13" s="128"/>
+      <c r="A13" s="134"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="8" t="s">
@@ -4634,10 +4635,10 @@
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="59"/>
+      <c r="F13" s="53"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A14" s="128"/>
+      <c r="A14" s="134"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="8" t="s">
@@ -4646,10 +4647,10 @@
       <c r="E14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="59"/>
+      <c r="F14" s="53"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A15" s="128"/>
+      <c r="A15" s="134"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="8" t="s">
@@ -4658,10 +4659,10 @@
       <c r="E15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="59"/>
+      <c r="F15" s="53"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A16" s="128"/>
+      <c r="A16" s="134"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="13" t="s">
@@ -4670,10 +4671,10 @@
       <c r="E16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="59"/>
+      <c r="F16" s="53"/>
     </row>
     <row r="17" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A17" s="123" t="s">
+      <c r="A17" s="132" t="s">
         <v>99</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -4688,12 +4689,12 @@
       <c r="E17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="52" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A18" s="124"/>
+      <c r="A18" s="133"/>
       <c r="B18" s="1" t="s">
         <v>95</v>
       </c>
@@ -4704,10 +4705,10 @@
       <c r="E18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="59"/>
+      <c r="F18" s="53"/>
     </row>
     <row r="19" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A19" s="128"/>
+      <c r="A19" s="134"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="9" t="s">
@@ -4716,10 +4717,10 @@
       <c r="E19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="59"/>
+      <c r="F19" s="53"/>
     </row>
     <row r="20" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A20" s="128"/>
+      <c r="A20" s="134"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="8" t="s">
@@ -4728,10 +4729,10 @@
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="59"/>
+      <c r="F20" s="53"/>
     </row>
     <row r="21" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A21" s="128"/>
+      <c r="A21" s="134"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="8" t="s">
@@ -4740,10 +4741,10 @@
       <c r="E21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="59"/>
+      <c r="F21" s="53"/>
     </row>
     <row r="22" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A22" s="128"/>
+      <c r="A22" s="134"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="8" t="s">
@@ -4752,10 +4753,10 @@
       <c r="E22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="59"/>
+      <c r="F22" s="53"/>
     </row>
     <row r="23" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A23" s="128"/>
+      <c r="A23" s="134"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="13" t="s">
@@ -4764,10 +4765,10 @@
       <c r="E23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F23" s="59"/>
+      <c r="F23" s="53"/>
     </row>
     <row r="24" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A24" s="123" t="s">
+      <c r="A24" s="132" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -4779,15 +4780,15 @@
       <c r="D24" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="63" t="s">
+      <c r="E24" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="58" t="s">
+      <c r="F24" s="52" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A25" s="124"/>
+      <c r="A25" s="133"/>
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
@@ -4797,11 +4798,11 @@
       <c r="D25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="64"/>
-      <c r="F25" s="59"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="53"/>
     </row>
     <row r="26" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A26" s="124"/>
+      <c r="A26" s="133"/>
       <c r="B26" s="1" t="s">
         <v>20</v>
       </c>
@@ -4811,11 +4812,11 @@
       <c r="D26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="64"/>
-      <c r="F26" s="59"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="53"/>
     </row>
     <row r="27" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A27" s="124"/>
+      <c r="A27" s="133"/>
       <c r="B27" s="1" t="s">
         <v>21</v>
       </c>
@@ -4823,11 +4824,11 @@
       <c r="D27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="64"/>
-      <c r="F27" s="59"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="53"/>
     </row>
     <row r="28" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A28" s="124"/>
+      <c r="A28" s="133"/>
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
@@ -4835,11 +4836,11 @@
       <c r="D28" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="64"/>
-      <c r="F28" s="59"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="53"/>
     </row>
     <row r="29" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A29" s="124"/>
+      <c r="A29" s="133"/>
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
@@ -4847,21 +4848,21 @@
       <c r="D29" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="64"/>
-      <c r="F29" s="59"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="53"/>
     </row>
     <row r="30" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A30" s="125"/>
+      <c r="A30" s="135"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="60"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="54"/>
     </row>
     <row r="31" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A31" s="123" t="s">
+      <c r="A31" s="132" t="s">
         <v>147</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -4873,10 +4874,10 @@
       <c r="D31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="63" t="s">
+      <c r="E31" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="58" t="s">
+      <c r="F31" s="52" t="s">
         <v>134</v>
       </c>
       <c r="G31" t="s">
@@ -4887,7 +4888,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A32" s="124"/>
+      <c r="A32" s="133"/>
       <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
@@ -4897,14 +4898,14 @@
       <c r="D32" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="64"/>
-      <c r="F32" s="59"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="53"/>
       <c r="G32" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A33" s="124"/>
+      <c r="A33" s="133"/>
       <c r="B33" s="1" t="s">
         <v>20</v>
       </c>
@@ -4914,8 +4915,8 @@
       <c r="D33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="64"/>
-      <c r="F33" s="59"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="53"/>
       <c r="G33" t="s">
         <v>117</v>
       </c>
@@ -4924,7 +4925,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A34" s="124"/>
+      <c r="A34" s="133"/>
       <c r="B34" s="1" t="s">
         <v>21</v>
       </c>
@@ -4932,8 +4933,8 @@
       <c r="D34" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="64"/>
-      <c r="F34" s="59"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="53"/>
       <c r="G34" t="s">
         <v>118</v>
       </c>
@@ -4942,7 +4943,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A35" s="124"/>
+      <c r="A35" s="133"/>
       <c r="B35" s="1" t="s">
         <v>23</v>
       </c>
@@ -4950,8 +4951,8 @@
       <c r="D35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="64"/>
-      <c r="F35" s="59"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="53"/>
       <c r="G35" t="s">
         <v>119</v>
       </c>
@@ -4960,7 +4961,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A36" s="124"/>
+      <c r="A36" s="133"/>
       <c r="B36" s="1" t="s">
         <v>24</v>
       </c>
@@ -4968,8 +4969,8 @@
       <c r="D36" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="64"/>
-      <c r="F36" s="59"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="53"/>
       <c r="G36" t="s">
         <v>120</v>
       </c>
@@ -4978,14 +4979,14 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A37" s="128"/>
+      <c r="A37" s="134"/>
       <c r="B37" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="59"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="53"/>
       <c r="G37" t="s">
         <v>121</v>
       </c>
@@ -4997,14 +4998,14 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A38" s="128"/>
+      <c r="A38" s="134"/>
       <c r="B38" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="59"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="53"/>
       <c r="G38" t="s">
         <v>122</v>
       </c>
@@ -5016,14 +5017,14 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A39" s="128"/>
+      <c r="A39" s="134"/>
       <c r="B39" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="59"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="53"/>
       <c r="G39" t="s">
         <v>123</v>
       </c>
@@ -5035,7 +5036,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A40" s="125"/>
+      <c r="A40" s="135"/>
       <c r="B40" s="4" t="s">
         <v>129</v>
       </c>
@@ -5043,14 +5044,14 @@
       <c r="D40" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="65"/>
-      <c r="F40" s="60"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="54"/>
       <c r="G40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A41" s="129" t="s">
+      <c r="A41" s="163" t="s">
         <v>69</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -5062,15 +5063,15 @@
       <c r="D41" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E41" s="63" t="s">
+      <c r="E41" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="59" t="s">
+      <c r="F41" s="53" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A42" s="130"/>
+      <c r="A42" s="164"/>
       <c r="B42" s="1" t="s">
         <v>70</v>
       </c>
@@ -5078,11 +5079,11 @@
       <c r="D42" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="64"/>
-      <c r="F42" s="59"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="53"/>
     </row>
     <row r="43" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A43" s="130"/>
+      <c r="A43" s="164"/>
       <c r="B43" s="1" t="s">
         <v>49</v>
       </c>
@@ -5090,83 +5091,83 @@
       <c r="D43" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="64"/>
-      <c r="F43" s="59"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="53"/>
     </row>
     <row r="44" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A44" s="130"/>
+      <c r="A44" s="164"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="64"/>
-      <c r="F44" s="59"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="53"/>
     </row>
     <row r="45" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A45" s="130"/>
+      <c r="A45" s="164"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="64"/>
-      <c r="F45" s="59"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="53"/>
     </row>
     <row r="46" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A46" s="130"/>
+      <c r="A46" s="164"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="64"/>
-      <c r="F46" s="59"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="53"/>
     </row>
     <row r="47" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A47" s="131"/>
+      <c r="A47" s="165"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="65"/>
-      <c r="F47" s="60"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="54"/>
     </row>
     <row r="48" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A48" s="123" t="s">
+      <c r="A48" s="132" t="s">
         <v>150</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="126" t="s">
+      <c r="C48" s="161" t="s">
         <v>45</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="119" t="s">
+      <c r="E48" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="F48" s="52" t="s">
+      <c r="F48" s="72" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A49" s="124"/>
+      <c r="A49" s="133"/>
       <c r="B49" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="127"/>
+      <c r="C49" s="162"/>
       <c r="D49" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="120"/>
-      <c r="F49" s="53"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="73"/>
     </row>
     <row r="50" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A50" s="124"/>
+      <c r="A50" s="133"/>
       <c r="B50" s="5" t="s">
         <v>29</v>
       </c>
@@ -5176,11 +5177,11 @@
       <c r="D50" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="120"/>
-      <c r="F50" s="53"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="73"/>
     </row>
     <row r="51" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A51" s="124"/>
+      <c r="A51" s="133"/>
       <c r="B51" s="24" t="s">
         <v>30</v>
       </c>
@@ -5190,11 +5191,11 @@
       <c r="D51" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="120"/>
-      <c r="F51" s="53"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="73"/>
     </row>
     <row r="52" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A52" s="124"/>
+      <c r="A52" s="133"/>
       <c r="B52" s="24" t="s">
         <v>31</v>
       </c>
@@ -5204,11 +5205,11 @@
       <c r="D52" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="120"/>
-      <c r="F52" s="53"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="73"/>
     </row>
     <row r="53" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A53" s="124"/>
+      <c r="A53" s="133"/>
       <c r="B53" s="24" t="s">
         <v>32</v>
       </c>
@@ -5216,11 +5217,11 @@
       <c r="D53" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="120"/>
-      <c r="F53" s="53"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="73"/>
     </row>
     <row r="54" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A54" s="124"/>
+      <c r="A54" s="133"/>
       <c r="B54" s="24" t="s">
         <v>33</v>
       </c>
@@ -5228,29 +5229,29 @@
       <c r="D54" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="120"/>
-      <c r="F54" s="53"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="73"/>
     </row>
     <row r="55" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A55" s="125"/>
+      <c r="A55" s="135"/>
       <c r="B55" s="25"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
-      <c r="E55" s="121"/>
-      <c r="F55" s="54"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="74"/>
     </row>
     <row r="56" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A56" s="122" t="s">
+      <c r="A56" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="B56" s="122"/>
-      <c r="C56" s="122"/>
-      <c r="D56" s="122"/>
-      <c r="E56" s="122"/>
-      <c r="F56" s="122"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="75"/>
     </row>
     <row r="57" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A57" s="134" t="s">
+      <c r="A57" s="129" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="12" t="s">
@@ -5261,10 +5262,10 @@
         <v>34</v>
       </c>
       <c r="E57" s="3"/>
-      <c r="F57" s="68"/>
+      <c r="F57" s="58"/>
     </row>
     <row r="58" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A58" s="135"/>
+      <c r="A58" s="130"/>
       <c r="B58" s="8" t="s">
         <v>15</v>
       </c>
@@ -5273,10 +5274,10 @@
         <v>15</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="69"/>
+      <c r="F58" s="59"/>
     </row>
     <row r="59" spans="1:6" ht="45.75" customHeight="1">
-      <c r="A59" s="143"/>
+      <c r="A59" s="136"/>
       <c r="B59" s="9" t="s">
         <v>10</v>
       </c>
@@ -5285,26 +5286,26 @@
         <v>10</v>
       </c>
       <c r="E59" s="2"/>
-      <c r="F59" s="69"/>
+      <c r="F59" s="59"/>
     </row>
     <row r="60" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A60" s="143"/>
+      <c r="A60" s="136"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="69"/>
+      <c r="F60" s="59"/>
     </row>
     <row r="61" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A61" s="136"/>
+      <c r="A61" s="131"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="70"/>
+      <c r="F61" s="60"/>
     </row>
     <row r="62" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A62" s="134" t="s">
+      <c r="A62" s="129" t="s">
         <v>12</v>
       </c>
       <c r="B62" s="3"/>
@@ -5315,26 +5316,26 @@
         <v>13</v>
       </c>
       <c r="E62" s="3"/>
-      <c r="F62" s="68"/>
+      <c r="F62" s="58"/>
     </row>
     <row r="63" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A63" s="135"/>
+      <c r="A63" s="130"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="69"/>
+      <c r="F63" s="59"/>
     </row>
     <row r="64" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A64" s="136"/>
+      <c r="A64" s="131"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="70"/>
+      <c r="F64" s="60"/>
     </row>
     <row r="65" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A65" s="134" t="s">
+      <c r="A65" s="129" t="s">
         <v>0</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -5345,10 +5346,10 @@
         <v>7</v>
       </c>
       <c r="E65" s="3"/>
-      <c r="F65" s="68"/>
+      <c r="F65" s="58"/>
     </row>
     <row r="66" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A66" s="135"/>
+      <c r="A66" s="130"/>
       <c r="B66" s="8" t="s">
         <v>8</v>
       </c>
@@ -5357,10 +5358,10 @@
         <v>8</v>
       </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="69"/>
+      <c r="F66" s="59"/>
     </row>
     <row r="67" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A67" s="136"/>
+      <c r="A67" s="131"/>
       <c r="B67" s="13" t="s">
         <v>9</v>
       </c>
@@ -5369,10 +5370,10 @@
         <v>9</v>
       </c>
       <c r="E67" s="4"/>
-      <c r="F67" s="70"/>
+      <c r="F67" s="60"/>
     </row>
     <row r="68" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A68" s="134" t="s">
+      <c r="A68" s="129" t="s">
         <v>42</v>
       </c>
       <c r="B68" s="9" t="s">
@@ -5383,10 +5384,10 @@
         <v>39</v>
       </c>
       <c r="E68" s="3"/>
-      <c r="F68" s="68"/>
+      <c r="F68" s="58"/>
     </row>
     <row r="69" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A69" s="135"/>
+      <c r="A69" s="130"/>
       <c r="B69" s="9" t="s">
         <v>40</v>
       </c>
@@ -5395,10 +5396,10 @@
         <v>40</v>
       </c>
       <c r="E69" s="1"/>
-      <c r="F69" s="69"/>
+      <c r="F69" s="59"/>
     </row>
     <row r="70" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A70" s="136"/>
+      <c r="A70" s="131"/>
       <c r="B70" s="9" t="s">
         <v>41</v>
       </c>
@@ -5407,10 +5408,10 @@
         <v>41</v>
       </c>
       <c r="E70" s="4"/>
-      <c r="F70" s="70"/>
+      <c r="F70" s="60"/>
     </row>
     <row r="71" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A71" s="81" t="s">
+      <c r="A71" s="94" t="s">
         <v>58</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -5425,12 +5426,12 @@
       <c r="E71" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F71" s="68" t="s">
+      <c r="F71" s="58" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A72" s="82"/>
+      <c r="A72" s="95"/>
       <c r="B72" s="1" t="s">
         <v>17</v>
       </c>
@@ -5443,10 +5444,10 @@
       <c r="E72" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F72" s="69"/>
+      <c r="F72" s="59"/>
     </row>
     <row r="73" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A73" s="82"/>
+      <c r="A73" s="95"/>
       <c r="B73" s="1" t="s">
         <v>18</v>
       </c>
@@ -5457,10 +5458,10 @@
       <c r="E73" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F73" s="69"/>
+      <c r="F73" s="59"/>
     </row>
     <row r="74" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A74" s="82"/>
+      <c r="A74" s="95"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="8" t="s">
@@ -5469,10 +5470,10 @@
       <c r="E74" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F74" s="69"/>
+      <c r="F74" s="59"/>
     </row>
     <row r="75" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A75" s="82"/>
+      <c r="A75" s="95"/>
       <c r="B75" s="7"/>
       <c r="C75" s="1"/>
       <c r="D75" s="8" t="s">
@@ -5481,10 +5482,10 @@
       <c r="E75" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F75" s="69"/>
+      <c r="F75" s="59"/>
     </row>
     <row r="76" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A76" s="82"/>
+      <c r="A76" s="95"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="8" t="s">
@@ -5493,10 +5494,10 @@
       <c r="E76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F76" s="69"/>
+      <c r="F76" s="59"/>
     </row>
     <row r="77" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A77" s="83"/>
+      <c r="A77" s="96"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="29" t="s">
@@ -5505,10 +5506,10 @@
       <c r="E77" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F77" s="70"/>
+      <c r="F77" s="60"/>
     </row>
     <row r="78" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A78" s="159" t="s">
+      <c r="A78" s="152" t="s">
         <v>66</v>
       </c>
       <c r="B78" s="26" t="s">
@@ -5523,30 +5524,30 @@
       <c r="E78" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="88" t="s">
+      <c r="F78" s="97" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A79" s="87"/>
+      <c r="A79" s="56"/>
       <c r="B79" s="30"/>
       <c r="C79" s="22"/>
       <c r="D79" s="21"/>
       <c r="E79" s="31"/>
-      <c r="F79" s="89"/>
+      <c r="F79" s="98"/>
     </row>
     <row r="80" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A80" s="136"/>
+      <c r="A80" s="131"/>
       <c r="B80" s="25"/>
       <c r="C80" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="17"/>
-      <c r="F80" s="90"/>
+      <c r="F80" s="99"/>
     </row>
     <row r="81" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A81" s="134" t="s">
+      <c r="A81" s="129" t="s">
         <v>112</v>
       </c>
       <c r="B81" s="27" t="s">
@@ -5561,22 +5562,22 @@
       <c r="E81" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F81" s="68" t="s">
+      <c r="F81" s="58" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A82" s="143"/>
+      <c r="A82" s="136"/>
       <c r="B82" s="28"/>
       <c r="C82" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="19"/>
-      <c r="F82" s="70"/>
+      <c r="F82" s="60"/>
     </row>
     <row r="83" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A83" s="134" t="s">
+      <c r="A83" s="129" t="s">
         <v>65</v>
       </c>
       <c r="B83" s="27" t="s">
@@ -5591,20 +5592,20 @@
       <c r="E83" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F83" s="140"/>
+      <c r="F83" s="153"/>
     </row>
     <row r="84" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A84" s="143"/>
+      <c r="A84" s="136"/>
       <c r="B84" s="28"/>
       <c r="C84" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="19"/>
-      <c r="F84" s="142"/>
+      <c r="F84" s="154"/>
     </row>
     <row r="85" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A85" s="74" t="s">
+      <c r="A85" s="55" t="s">
         <v>92</v>
       </c>
       <c r="B85" s="15" t="s">
@@ -5620,7 +5621,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A86" s="87"/>
+      <c r="A86" s="56"/>
       <c r="B86" s="9" t="s">
         <v>80</v>
       </c>
@@ -5630,7 +5631,7 @@
       <c r="F86" s="34"/>
     </row>
     <row r="87" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A87" s="75"/>
+      <c r="A87" s="57"/>
       <c r="B87" s="25" t="s">
         <v>91</v>
       </c>
@@ -5642,7 +5643,7 @@
       <c r="F87" s="35"/>
     </row>
     <row r="88" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A88" s="74" t="s">
+      <c r="A88" s="55" t="s">
         <v>107</v>
       </c>
       <c r="B88" s="15" t="s">
@@ -5653,32 +5654,32 @@
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="68" t="s">
+      <c r="F88" s="58" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A89" s="87"/>
+      <c r="A89" s="56"/>
       <c r="B89" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="69"/>
+      <c r="F89" s="59"/>
     </row>
     <row r="90" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A90" s="75"/>
+      <c r="A90" s="57"/>
       <c r="B90" s="25"/>
       <c r="C90" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
-      <c r="F90" s="70"/>
+      <c r="F90" s="60"/>
     </row>
     <row r="91" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A91" s="156" t="s">
+      <c r="A91" s="149" t="s">
         <v>71</v>
       </c>
       <c r="B91" s="3"/>
@@ -5687,62 +5688,62 @@
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="68" t="s">
+      <c r="F91" s="58" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A92" s="157"/>
+      <c r="A92" s="150"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="69"/>
+      <c r="F92" s="59"/>
     </row>
     <row r="93" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A93" s="157"/>
+      <c r="A93" s="150"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="69"/>
+      <c r="F93" s="59"/>
     </row>
     <row r="94" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A94" s="157"/>
+      <c r="A94" s="150"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="69"/>
+      <c r="F94" s="59"/>
     </row>
     <row r="95" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A95" s="158"/>
+      <c r="A95" s="151"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="70"/>
+      <c r="F95" s="60"/>
     </row>
     <row r="96" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A96" s="84" t="s">
+      <c r="A96" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="B96" s="84"/>
-      <c r="C96" s="84"/>
-      <c r="D96" s="84"/>
-      <c r="E96" s="84"/>
-      <c r="F96" s="84"/>
+      <c r="B96" s="116"/>
+      <c r="C96" s="116"/>
+      <c r="D96" s="116"/>
+      <c r="E96" s="116"/>
+      <c r="F96" s="116"/>
     </row>
     <row r="97" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A97" s="137" t="s">
+      <c r="A97" s="157" t="s">
         <v>50</v>
       </c>
       <c r="B97" s="3"/>
@@ -5753,12 +5754,12 @@
       <c r="E97" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F97" s="140" t="s">
+      <c r="F97" s="153" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A98" s="138"/>
+      <c r="A98" s="158"/>
       <c r="B98" s="1"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8" t="s">
@@ -5767,10 +5768,10 @@
       <c r="E98" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F98" s="141"/>
+      <c r="F98" s="160"/>
     </row>
     <row r="99" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A99" s="138"/>
+      <c r="A99" s="158"/>
       <c r="B99" s="1"/>
       <c r="C99" s="8"/>
       <c r="D99" s="9" t="s">
@@ -5779,10 +5780,10 @@
       <c r="E99" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F99" s="141"/>
+      <c r="F99" s="160"/>
     </row>
     <row r="100" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A100" s="138"/>
+      <c r="A100" s="158"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="8" t="s">
@@ -5791,10 +5792,10 @@
       <c r="E100" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="141"/>
+      <c r="F100" s="160"/>
     </row>
     <row r="101" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A101" s="138"/>
+      <c r="A101" s="158"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="8" t="s">
@@ -5803,10 +5804,10 @@
       <c r="E101" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F101" s="141"/>
+      <c r="F101" s="160"/>
     </row>
     <row r="102" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A102" s="138"/>
+      <c r="A102" s="158"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="8" t="s">
@@ -5815,10 +5816,10 @@
       <c r="E102" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F102" s="141"/>
+      <c r="F102" s="160"/>
     </row>
     <row r="103" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A103" s="138"/>
+      <c r="A103" s="158"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="8" t="s">
@@ -5827,10 +5828,10 @@
       <c r="E103" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F103" s="141"/>
+      <c r="F103" s="160"/>
     </row>
     <row r="104" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A104" s="138"/>
+      <c r="A104" s="158"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="9" t="s">
@@ -5839,10 +5840,10 @@
       <c r="E104" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F104" s="141"/>
+      <c r="F104" s="160"/>
     </row>
     <row r="105" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A105" s="138"/>
+      <c r="A105" s="158"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="9" t="s">
@@ -5851,10 +5852,10 @@
       <c r="E105" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F105" s="141"/>
+      <c r="F105" s="160"/>
     </row>
     <row r="106" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A106" s="138"/>
+      <c r="A106" s="158"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="9" t="s">
@@ -5863,26 +5864,26 @@
       <c r="E106" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F106" s="141"/>
+      <c r="F106" s="160"/>
     </row>
     <row r="107" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A107" s="139"/>
+      <c r="A107" s="159"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="18"/>
       <c r="E107" s="19"/>
-      <c r="F107" s="142"/>
+      <c r="F107" s="154"/>
     </row>
     <row r="108" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A108" s="139"/>
+      <c r="A108" s="159"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="18"/>
       <c r="E108" s="19"/>
-      <c r="F108" s="142"/>
+      <c r="F108" s="154"/>
     </row>
     <row r="109" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A109" s="147" t="s">
+      <c r="A109" s="140" t="s">
         <v>138</v>
       </c>
       <c r="B109" s="3" t="s">
@@ -5892,13 +5893,13 @@
         <v>26</v>
       </c>
       <c r="D109" s="12"/>
-      <c r="E109" s="150"/>
-      <c r="F109" s="153" t="s">
+      <c r="E109" s="143"/>
+      <c r="F109" s="146" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A110" s="148"/>
+      <c r="A110" s="141"/>
       <c r="B110" s="1" t="s">
         <v>131</v>
       </c>
@@ -5906,11 +5907,11 @@
         <v>148</v>
       </c>
       <c r="D110" s="8"/>
-      <c r="E110" s="151"/>
-      <c r="F110" s="154"/>
+      <c r="E110" s="144"/>
+      <c r="F110" s="147"/>
     </row>
     <row r="111" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A111" s="148"/>
+      <c r="A111" s="141"/>
       <c r="B111" s="1" t="s">
         <v>130</v>
       </c>
@@ -5918,11 +5919,11 @@
         <v>139</v>
       </c>
       <c r="D111" s="9"/>
-      <c r="E111" s="151"/>
-      <c r="F111" s="154"/>
+      <c r="E111" s="144"/>
+      <c r="F111" s="147"/>
     </row>
     <row r="112" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A112" s="148"/>
+      <c r="A112" s="141"/>
       <c r="B112" s="1" t="s">
         <v>129</v>
       </c>
@@ -5930,11 +5931,11 @@
         <v>140</v>
       </c>
       <c r="D112" s="8"/>
-      <c r="E112" s="151"/>
-      <c r="F112" s="154"/>
+      <c r="E112" s="144"/>
+      <c r="F112" s="147"/>
     </row>
     <row r="113" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A113" s="148"/>
+      <c r="A113" s="141"/>
       <c r="B113" s="1" t="s">
         <v>22</v>
       </c>
@@ -5942,11 +5943,11 @@
         <v>141</v>
       </c>
       <c r="D113" s="8"/>
-      <c r="E113" s="151"/>
-      <c r="F113" s="154"/>
+      <c r="E113" s="144"/>
+      <c r="F113" s="147"/>
     </row>
     <row r="114" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A114" s="148"/>
+      <c r="A114" s="141"/>
       <c r="B114" s="1" t="s">
         <v>23</v>
       </c>
@@ -5954,63 +5955,63 @@
         <v>142</v>
       </c>
       <c r="D114" s="8"/>
-      <c r="E114" s="151"/>
-      <c r="F114" s="154"/>
+      <c r="E114" s="144"/>
+      <c r="F114" s="147"/>
     </row>
     <row r="115" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A115" s="148"/>
+      <c r="A115" s="141"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D115" s="8"/>
-      <c r="E115" s="151"/>
-      <c r="F115" s="154"/>
+      <c r="E115" s="144"/>
+      <c r="F115" s="147"/>
       <c r="I115" s="36"/>
     </row>
     <row r="116" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A116" s="148"/>
+      <c r="A116" s="141"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D116" s="8"/>
-      <c r="E116" s="151"/>
-      <c r="F116" s="154"/>
+      <c r="E116" s="144"/>
+      <c r="F116" s="147"/>
       <c r="I116" s="36"/>
     </row>
     <row r="117" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A117" s="148"/>
+      <c r="A117" s="141"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D117" s="8"/>
-      <c r="E117" s="151"/>
-      <c r="F117" s="154"/>
+      <c r="E117" s="144"/>
+      <c r="F117" s="147"/>
       <c r="I117" s="36"/>
     </row>
     <row r="118" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A118" s="148"/>
+      <c r="A118" s="141"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D118" s="8"/>
-      <c r="E118" s="151"/>
-      <c r="F118" s="154"/>
+      <c r="E118" s="144"/>
+      <c r="F118" s="147"/>
       <c r="I118" s="36"/>
     </row>
     <row r="119" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A119" s="149"/>
+      <c r="A119" s="142"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="29"/>
-      <c r="E119" s="152"/>
-      <c r="F119" s="155"/>
+      <c r="E119" s="145"/>
+      <c r="F119" s="148"/>
     </row>
     <row r="120" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A120" s="132" t="s">
+      <c r="A120" s="155" t="s">
         <v>51</v>
       </c>
       <c r="B120" s="23" t="s">
@@ -6019,20 +6020,20 @@
       <c r="C120" s="22"/>
       <c r="D120" s="22"/>
       <c r="E120" s="22"/>
-      <c r="F120" s="53" t="s">
+      <c r="F120" s="73" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A121" s="133"/>
+      <c r="A121" s="156"/>
       <c r="B121" s="16"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17"/>
       <c r="E121" s="17"/>
-      <c r="F121" s="54"/>
+      <c r="F121" s="74"/>
     </row>
     <row r="122" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A122" s="46" t="s">
+      <c r="A122" s="103" t="s">
         <v>52</v>
       </c>
       <c r="B122" s="15" t="s">
@@ -6041,32 +6042,32 @@
       <c r="C122" s="14"/>
       <c r="D122" s="14"/>
       <c r="E122" s="14"/>
-      <c r="F122" s="52" t="s">
+      <c r="F122" s="72" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A123" s="47"/>
+      <c r="A123" s="104"/>
       <c r="B123" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C123" s="31"/>
       <c r="D123" s="31"/>
       <c r="E123" s="31"/>
-      <c r="F123" s="53"/>
+      <c r="F123" s="73"/>
     </row>
     <row r="124" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A124" s="47"/>
+      <c r="A124" s="104"/>
       <c r="B124" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C124" s="19"/>
       <c r="D124" s="19"/>
       <c r="E124" s="19"/>
-      <c r="F124" s="53"/>
+      <c r="F124" s="73"/>
     </row>
     <row r="125" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A125" s="144" t="s">
+      <c r="A125" s="137" t="s">
         <v>81</v>
       </c>
       <c r="B125" s="15" t="s">
@@ -6075,36 +6076,36 @@
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
-      <c r="F125" s="68" t="s">
+      <c r="F125" s="58" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A126" s="145"/>
+      <c r="A126" s="138"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="69"/>
+      <c r="F126" s="59"/>
     </row>
     <row r="127" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A127" s="145"/>
+      <c r="A127" s="138"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="69"/>
+      <c r="F127" s="59"/>
     </row>
     <row r="128" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A128" s="146"/>
+      <c r="A128" s="139"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
-      <c r="F128" s="70"/>
+      <c r="F128" s="60"/>
     </row>
     <row r="129" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A129" s="46" t="s">
+      <c r="A129" s="103" t="s">
         <v>86</v>
       </c>
       <c r="B129" s="15" t="s">
@@ -6113,43 +6114,61 @@
       <c r="C129" s="14"/>
       <c r="D129" s="14"/>
       <c r="E129" s="14"/>
-      <c r="F129" s="52" t="s">
+      <c r="F129" s="72" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A130" s="47"/>
+      <c r="A130" s="104"/>
       <c r="B130" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C130" s="31"/>
       <c r="D130" s="31"/>
       <c r="E130" s="31"/>
-      <c r="F130" s="53"/>
+      <c r="F130" s="73"/>
     </row>
     <row r="131" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A131" s="48"/>
+      <c r="A131" s="105"/>
       <c r="B131" s="16" t="s">
         <v>84</v>
       </c>
       <c r="C131" s="17"/>
       <c r="D131" s="17"/>
       <c r="E131" s="17"/>
-      <c r="F131" s="54"/>
+      <c r="F131" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="F17:F23"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="E24:E30"/>
-    <mergeCell ref="F24:F30"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="E31:E40"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="E48:E55"/>
-    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="F57:F61"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="F31:F40"/>
+    <mergeCell ref="A48:A55"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="F10:F16"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="F3:F9"/>
+    <mergeCell ref="F48:F55"/>
+    <mergeCell ref="A31:A40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="F41:F47"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A124"/>
+    <mergeCell ref="F122:F124"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="A97:A108"/>
+    <mergeCell ref="F97:F108"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F71:F77"/>
+    <mergeCell ref="A71:A77"/>
     <mergeCell ref="A129:A131"/>
     <mergeCell ref="F129:F131"/>
     <mergeCell ref="A56:F56"/>
@@ -6166,35 +6185,17 @@
     <mergeCell ref="A83:A84"/>
     <mergeCell ref="F83:F84"/>
     <mergeCell ref="A88:A90"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A122:A124"/>
-    <mergeCell ref="F122:F124"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="A97:A108"/>
-    <mergeCell ref="F97:F108"/>
-    <mergeCell ref="F88:F90"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="F71:F77"/>
-    <mergeCell ref="A71:A77"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="F31:F40"/>
-    <mergeCell ref="A48:A55"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="F10:F16"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="F3:F9"/>
-    <mergeCell ref="F48:F55"/>
-    <mergeCell ref="A31:A40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="F41:F47"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="F17:F23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="E24:E30"/>
+    <mergeCell ref="F24:F30"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="E31:E40"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="E48:E55"/>
+    <mergeCell ref="A62:A64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/description.xlsx
+++ b/description.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="225">
   <si>
     <t>SET_ORI(W,P,R)</t>
   </si>
@@ -674,12 +674,6 @@
     <t>MATH_LIB. Cross_Line (Plate1, Plate2: XYZWPR): XYZWPR</t>
   </si>
   <si>
-    <t>вычисляет фрейм X ось которого совпадает с прямой  пересения XY плоскости Plate1 и  XY плоскости Plate2. 
-Плоскость XY нового фрейма совпадает с плоскостью XY Plate1. 
-Начало отсчета новой системы находится на проекции начала Plate1 на прямую пересечения плоскостей. Направление Z совпадает с направлением Z plate1
-ось X в направлении увеличения X исходной системы ( той относительно которой заданы все координаты)</t>
-  </si>
-  <si>
     <t>S_elps(Z, D, a1, a2, end, turn)</t>
   </si>
   <si>
@@ -689,8 +683,11 @@
     <t>SET_IN_ST(till, rot).MR</t>
   </si>
   <si>
+    <t>MATH_LIB. Cross_PNT (Line_frame, Plane_frame: XYZWPR): XYZWPR</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">центр каждого сечения определяется как центр масс из центров 4 окружностей, ось Z направлена от 1 го сечения ко 2му,
+      <t xml:space="preserve">вычисляет точку пересения Z оcи LINE_frame c XY плоскостью Plate_frame
 </t>
     </r>
     <r>
@@ -702,12 +699,16 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">оси выровнены по PR[10] </t>
+      <t>НЕОБХОДИМО ЗАПРОГРАММИРОВАТЬ ПРОВЕРКУ КОРРЕКТНОГО РЕШЕНИЯ МАТРИЦЫ, НА СЛУЧАЙ ГЛАВНОГО ОПРЕДЕЛИТЕЛЯ 0 или если одна из поскостей проходит через начало координат</t>
     </r>
   </si>
   <si>
     <r>
-      <t>центр каждого сечения определяется как центр масс из центров 4 окружностей, плоскость XY определяется по 3м точка то</t>
+      <t xml:space="preserve">вычисляет фрейм X ось которого совпадает с прямой  пересения XY плоскости Plate1 и  XY плоскости Plate2. 
+Плоскость XY нового фрейма совпадает с плоскостью XY Plate1. 
+Начало отсчета новой системы находится на проекции начала Plate1 на прямую пересечения плоскостей. Направление Z совпадает с направлением Z plate1
+ось X в направлении увеличения X исходной системы ( той относительно которой заданы все координаты)
+ </t>
     </r>
     <r>
       <rPr>
@@ -718,22 +719,40 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>рца, оси паралельны Pr[10]</t>
+      <t>НЕОБХОДИМО ЗАПРОГРАММИРОВАТЬ ПРОВЕРКУ КОРРЕКТНОГО РЕШЕНИЯ МАТРИЦЫ, НА СЛУЧАЙ ГЛАВНОГО ОПРЕДЕЛИТЕЛЯ 0 или если одна из поскостей проходит через начало координат - скорее всего одно и тоже</t>
     </r>
   </si>
   <si>
-    <t>вычисляет точку пересения Z оcи LINE_frame c XY плоскостью Plate_frame
-НЕОБХОДИМО ЗАПРОГРАММИРОВАТЬ ПРОВЕРКУ КОРРЕКТНОГО РЕШЕНИЯ МАТРИЦЫ, НА СЛУЧАЙ ГЛАВНОГО ОПРЕДЕЛИТЕЛЯ 0 или если одна из поскостей проходит через начало координат</t>
-  </si>
-  <si>
-    <t>MATH_LIB. Cross_PNT (Line_frame, Plane_frame: XYZWPR): XYZWPR</t>
+    <t>Pr[10] - опорный фрейм - относительно строится ряд измерений</t>
+  </si>
+  <si>
+    <t>Pr[11] - фрейм оси заготовки</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">центр каждого сечения определяется как центр масс из центров 4 окружностей, ось Z проходит через центры сечений и ложительное направление совпадает с положительным направлением оси Z PR[10],
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ось X  параллельна  плоскости XZ  PR[10] </t>
+    </r>
+  </si>
+  <si>
+    <t>Плоскость XY совпадает с плоскостью торца, центр системы координат определяется как центр масс центров 4 окружностей построенных на проекциях измерений на плоскость торца. Оси X и  Y параллельны и сонаправлены с плоскостями XZ и YZ pr[10] соответсвенно</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -770,6 +789,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1213,7 +1239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1485,15 +1511,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1650,6 +1667,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1952,8 +1970,8 @@
   <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F168" sqref="F168:F170"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F96" sqref="F96:F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2036,7 +2054,7 @@
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1">
       <c r="A7" s="46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
@@ -2130,7 +2148,7 @@
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1">
       <c r="A14" s="46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
@@ -3121,8 +3139,8 @@
       <c r="E89" s="19"/>
       <c r="F89" s="110"/>
     </row>
-    <row r="90" spans="1:6" ht="45" customHeight="1">
-      <c r="A90" s="111" t="s">
+    <row r="90" spans="1:6" ht="45.75" customHeight="1">
+      <c r="A90" s="91" t="s">
         <v>168</v>
       </c>
       <c r="B90" s="15" t="s">
@@ -3134,11 +3152,11 @@
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="58" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A91" s="112"/>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A91" s="92"/>
       <c r="B91" s="9" t="s">
         <v>173</v>
       </c>
@@ -3149,8 +3167,8 @@
       <c r="E91" s="1"/>
       <c r="F91" s="59"/>
     </row>
-    <row r="92" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A92" s="113"/>
+    <row r="92" spans="1:6" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A92" s="93"/>
       <c r="B92" s="25"/>
       <c r="C92" s="17" t="s">
         <v>47</v>
@@ -3159,8 +3177,8 @@
       <c r="E92" s="4"/>
       <c r="F92" s="60"/>
     </row>
-    <row r="93" spans="1:6" ht="30" customHeight="1">
-      <c r="A93" s="111" t="s">
+    <row r="93" spans="1:6" ht="58.5" customHeight="1">
+      <c r="A93" s="91" t="s">
         <v>178</v>
       </c>
       <c r="B93" s="15" t="s">
@@ -3172,11 +3190,11 @@
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="58" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="30" customHeight="1">
-      <c r="A94" s="112"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="58.5" customHeight="1">
+      <c r="A94" s="92"/>
       <c r="B94" s="9" t="s">
         <v>179</v>
       </c>
@@ -3185,8 +3203,8 @@
       <c r="E94" s="1"/>
       <c r="F94" s="59"/>
     </row>
-    <row r="95" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A95" s="113"/>
+    <row r="95" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
+      <c r="A95" s="93"/>
       <c r="B95" s="25"/>
       <c r="C95" s="17" t="s">
         <v>47</v>
@@ -3250,17 +3268,17 @@
       <c r="F100" s="60"/>
     </row>
     <row r="101" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A101" s="116" t="s">
+      <c r="A101" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="B101" s="116"/>
-      <c r="C101" s="116"/>
-      <c r="D101" s="116"/>
-      <c r="E101" s="116"/>
-      <c r="F101" s="116"/>
+      <c r="B101" s="113"/>
+      <c r="C101" s="113"/>
+      <c r="D101" s="113"/>
+      <c r="E101" s="113"/>
+      <c r="F101" s="113"/>
     </row>
     <row r="102" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A102" s="114" t="s">
+      <c r="A102" s="111" t="s">
         <v>50</v>
       </c>
       <c r="B102" s="3"/>
@@ -3276,7 +3294,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A103" s="115"/>
+      <c r="A103" s="112"/>
       <c r="B103" s="1"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8" t="s">
@@ -3285,10 +3303,10 @@
       <c r="E103" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F103" s="118"/>
+      <c r="F103" s="115"/>
     </row>
     <row r="104" spans="1:6" ht="30" customHeight="1">
-      <c r="A104" s="115"/>
+      <c r="A104" s="112"/>
       <c r="B104" s="1"/>
       <c r="C104" s="8"/>
       <c r="D104" s="9" t="s">
@@ -3297,10 +3315,10 @@
       <c r="E104" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F104" s="118"/>
+      <c r="F104" s="115"/>
     </row>
     <row r="105" spans="1:6" ht="30" customHeight="1">
-      <c r="A105" s="115"/>
+      <c r="A105" s="112"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="8" t="s">
@@ -3309,10 +3327,10 @@
       <c r="E105" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F105" s="118"/>
+      <c r="F105" s="115"/>
     </row>
     <row r="106" spans="1:6" ht="15" customHeight="1">
-      <c r="A106" s="115"/>
+      <c r="A106" s="112"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="8" t="s">
@@ -3321,10 +3339,10 @@
       <c r="E106" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F106" s="118"/>
+      <c r="F106" s="115"/>
     </row>
     <row r="107" spans="1:6" ht="15" customHeight="1">
-      <c r="A107" s="115"/>
+      <c r="A107" s="112"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="8" t="s">
@@ -3333,10 +3351,10 @@
       <c r="E107" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F107" s="118"/>
+      <c r="F107" s="115"/>
     </row>
     <row r="108" spans="1:6" ht="15" customHeight="1">
-      <c r="A108" s="115"/>
+      <c r="A108" s="112"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="8" t="s">
@@ -3345,10 +3363,10 @@
       <c r="E108" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F108" s="118"/>
+      <c r="F108" s="115"/>
     </row>
     <row r="109" spans="1:6" ht="15" customHeight="1">
-      <c r="A109" s="115"/>
+      <c r="A109" s="112"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="9" t="s">
@@ -3357,10 +3375,10 @@
       <c r="E109" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F109" s="118"/>
+      <c r="F109" s="115"/>
     </row>
     <row r="110" spans="1:6" ht="15" customHeight="1">
-      <c r="A110" s="115"/>
+      <c r="A110" s="112"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="9" t="s">
@@ -3369,10 +3387,10 @@
       <c r="E110" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F110" s="118"/>
+      <c r="F110" s="115"/>
     </row>
     <row r="111" spans="1:6" ht="15" customHeight="1">
-      <c r="A111" s="115"/>
+      <c r="A111" s="112"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="9" t="s">
@@ -3381,50 +3399,50 @@
       <c r="E111" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F111" s="118"/>
+      <c r="F111" s="115"/>
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1">
-      <c r="A112" s="115"/>
+      <c r="A112" s="112"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="18" t="s">
         <v>187</v>
       </c>
       <c r="E112" s="19"/>
-      <c r="F112" s="118"/>
+      <c r="F112" s="115"/>
     </row>
     <row r="113" spans="1:6" ht="15" customHeight="1">
-      <c r="A113" s="115"/>
+      <c r="A113" s="112"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="18" t="s">
         <v>186</v>
       </c>
       <c r="E113" s="19"/>
-      <c r="F113" s="118"/>
+      <c r="F113" s="115"/>
     </row>
     <row r="114" spans="1:6" ht="15" customHeight="1">
-      <c r="A114" s="115"/>
+      <c r="A114" s="112"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="18" t="s">
         <v>185</v>
       </c>
       <c r="E114" s="19"/>
-      <c r="F114" s="118"/>
+      <c r="F114" s="115"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="115"/>
+      <c r="A115" s="112"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="18" t="s">
         <v>184</v>
       </c>
       <c r="E115" s="19"/>
-      <c r="F115" s="118"/>
+      <c r="F115" s="115"/>
     </row>
     <row r="116" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A116" s="117"/>
+      <c r="A116" s="114"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="18"/>
@@ -3432,8 +3450,8 @@
       <c r="F116" s="110"/>
     </row>
     <row r="117" spans="1:6" ht="30" customHeight="1">
-      <c r="A117" s="119" t="s">
-        <v>216</v>
+      <c r="A117" s="116" t="s">
+        <v>215</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>19</v>
@@ -3452,7 +3470,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" ht="30" customHeight="1">
-      <c r="A118" s="120"/>
+      <c r="A118" s="117"/>
       <c r="B118" s="1" t="s">
         <v>22</v>
       </c>
@@ -3466,7 +3484,7 @@
       <c r="F118" s="53"/>
     </row>
     <row r="119" spans="1:6" ht="30" customHeight="1">
-      <c r="A119" s="120"/>
+      <c r="A119" s="117"/>
       <c r="B119" s="1" t="s">
         <v>20</v>
       </c>
@@ -3480,7 +3498,7 @@
       <c r="F119" s="53"/>
     </row>
     <row r="120" spans="1:6" ht="30" customHeight="1">
-      <c r="A120" s="120"/>
+      <c r="A120" s="117"/>
       <c r="B120" s="1" t="s">
         <v>21</v>
       </c>
@@ -3492,7 +3510,7 @@
       <c r="F120" s="53"/>
     </row>
     <row r="121" spans="1:6" ht="15" customHeight="1">
-      <c r="A121" s="120"/>
+      <c r="A121" s="117"/>
       <c r="B121" s="1" t="s">
         <v>23</v>
       </c>
@@ -3504,7 +3522,7 @@
       <c r="F121" s="53"/>
     </row>
     <row r="122" spans="1:6" ht="15" customHeight="1">
-      <c r="A122" s="120"/>
+      <c r="A122" s="117"/>
       <c r="B122" s="1" t="s">
         <v>24</v>
       </c>
@@ -3516,7 +3534,7 @@
       <c r="F122" s="53"/>
     </row>
     <row r="123" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A123" s="120"/>
+      <c r="A123" s="117"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="29" t="s">
@@ -3526,7 +3544,7 @@
       <c r="F123" s="54"/>
     </row>
     <row r="124" spans="1:6" ht="30" customHeight="1">
-      <c r="A124" s="114" t="s">
+      <c r="A124" s="111" t="s">
         <v>191</v>
       </c>
       <c r="B124" s="3" t="s">
@@ -3546,7 +3564,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" ht="30" customHeight="1">
-      <c r="A125" s="115"/>
+      <c r="A125" s="112"/>
       <c r="B125" s="1" t="s">
         <v>22</v>
       </c>
@@ -3560,7 +3578,7 @@
       <c r="F125" s="53"/>
     </row>
     <row r="126" spans="1:6" ht="30" customHeight="1">
-      <c r="A126" s="115"/>
+      <c r="A126" s="112"/>
       <c r="B126" s="1" t="s">
         <v>20</v>
       </c>
@@ -3574,7 +3592,7 @@
       <c r="F126" s="53"/>
     </row>
     <row r="127" spans="1:6" ht="30" customHeight="1">
-      <c r="A127" s="115"/>
+      <c r="A127" s="112"/>
       <c r="B127" s="1" t="s">
         <v>21</v>
       </c>
@@ -3586,7 +3604,7 @@
       <c r="F127" s="53"/>
     </row>
     <row r="128" spans="1:6" ht="15" customHeight="1">
-      <c r="A128" s="115"/>
+      <c r="A128" s="112"/>
       <c r="B128" s="1" t="s">
         <v>23</v>
       </c>
@@ -3598,7 +3616,7 @@
       <c r="F128" s="53"/>
     </row>
     <row r="129" spans="1:9" ht="15" customHeight="1">
-      <c r="A129" s="115"/>
+      <c r="A129" s="112"/>
       <c r="B129" s="1" t="s">
         <v>24</v>
       </c>
@@ -3610,7 +3628,7 @@
       <c r="F129" s="53"/>
     </row>
     <row r="130" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A130" s="115"/>
+      <c r="A130" s="112"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="29" t="s">
@@ -3620,7 +3638,7 @@
       <c r="F130" s="54"/>
     </row>
     <row r="131" spans="1:9" ht="30" customHeight="1">
-      <c r="A131" s="114" t="s">
+      <c r="A131" s="111" t="s">
         <v>192</v>
       </c>
       <c r="B131" s="3" t="s">
@@ -3640,7 +3658,7 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="30" customHeight="1">
-      <c r="A132" s="115"/>
+      <c r="A132" s="112"/>
       <c r="B132" s="1" t="s">
         <v>22</v>
       </c>
@@ -3654,7 +3672,7 @@
       <c r="F132" s="53"/>
     </row>
     <row r="133" spans="1:9" ht="30" customHeight="1">
-      <c r="A133" s="115"/>
+      <c r="A133" s="112"/>
       <c r="B133" s="1" t="s">
         <v>20</v>
       </c>
@@ -3668,7 +3686,7 @@
       <c r="F133" s="53"/>
     </row>
     <row r="134" spans="1:9" ht="30" customHeight="1">
-      <c r="A134" s="115"/>
+      <c r="A134" s="112"/>
       <c r="B134" s="1" t="s">
         <v>21</v>
       </c>
@@ -3680,7 +3698,7 @@
       <c r="F134" s="53"/>
     </row>
     <row r="135" spans="1:9" ht="15" customHeight="1">
-      <c r="A135" s="115"/>
+      <c r="A135" s="112"/>
       <c r="B135" s="1" t="s">
         <v>23</v>
       </c>
@@ -3692,7 +3710,7 @@
       <c r="F135" s="53"/>
     </row>
     <row r="136" spans="1:9" ht="15" customHeight="1">
-      <c r="A136" s="115"/>
+      <c r="A136" s="112"/>
       <c r="B136" s="1" t="s">
         <v>24</v>
       </c>
@@ -3704,7 +3722,7 @@
       <c r="F136" s="53"/>
     </row>
     <row r="137" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A137" s="115"/>
+      <c r="A137" s="112"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="29" t="s">
@@ -3855,7 +3873,7 @@
       <c r="F149" s="54"/>
     </row>
     <row r="150" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A150" s="124" t="s">
+      <c r="A150" s="121" t="s">
         <v>51</v>
       </c>
       <c r="B150" s="23" t="s">
@@ -3869,7 +3887,7 @@
       </c>
     </row>
     <row r="151" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A151" s="125"/>
+      <c r="A151" s="122"/>
       <c r="B151" s="16"/>
       <c r="C151" s="17"/>
       <c r="D151" s="17"/>
@@ -4040,14 +4058,14 @@
     </row>
     <row r="168" spans="1:6" ht="63.75" customHeight="1">
       <c r="A168" s="103" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B168" s="15"/>
       <c r="C168" s="14"/>
       <c r="D168" s="14"/>
       <c r="E168" s="14"/>
       <c r="F168" s="72" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="63.75" customHeight="1">
@@ -4066,7 +4084,7 @@
       <c r="E170" s="17"/>
       <c r="F170" s="74"/>
     </row>
-    <row r="171" spans="1:6" ht="60" customHeight="1">
+    <row r="171" spans="1:6" ht="94.5" customHeight="1">
       <c r="A171" s="103" t="s">
         <v>214</v>
       </c>
@@ -4074,28 +4092,28 @@
       <c r="C171" s="14"/>
       <c r="D171" s="14"/>
       <c r="E171" s="14"/>
-      <c r="F171" s="126" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="60" customHeight="1">
+      <c r="F171" s="123" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="94.5" customHeight="1">
       <c r="A172" s="104"/>
       <c r="B172" s="21"/>
       <c r="C172" s="31"/>
       <c r="D172" s="31"/>
       <c r="E172" s="31"/>
-      <c r="F172" s="127"/>
-    </row>
-    <row r="173" spans="1:6" ht="60" customHeight="1" thickBot="1">
+      <c r="F172" s="124"/>
+    </row>
+    <row r="173" spans="1:6" ht="94.5" customHeight="1" thickBot="1">
       <c r="A173" s="105"/>
       <c r="B173" s="16"/>
       <c r="C173" s="17"/>
       <c r="D173" s="17"/>
       <c r="E173" s="17"/>
-      <c r="F173" s="128"/>
+      <c r="F173" s="125"/>
     </row>
     <row r="174" spans="1:6" ht="15" customHeight="1">
-      <c r="A174" s="121" t="s">
+      <c r="A174" s="118" t="s">
         <v>200</v>
       </c>
       <c r="B174" s="40"/>
@@ -4107,7 +4125,7 @@
       </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="122"/>
+      <c r="A175" s="119"/>
       <c r="B175" s="41"/>
       <c r="C175" s="38"/>
       <c r="D175" s="44"/>
@@ -4115,7 +4133,7 @@
       <c r="F175" s="73"/>
     </row>
     <row r="176" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A176" s="123"/>
+      <c r="A176" s="120"/>
       <c r="B176" s="42"/>
       <c r="C176" s="39"/>
       <c r="D176" s="45"/>
@@ -4123,7 +4141,7 @@
       <c r="F176" s="74"/>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="121" t="s">
+      <c r="A177" s="118" t="s">
         <v>201</v>
       </c>
       <c r="B177" s="40"/>
@@ -4135,7 +4153,7 @@
       </c>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="122"/>
+      <c r="A178" s="119"/>
       <c r="B178" s="41"/>
       <c r="C178" s="38"/>
       <c r="D178" s="44"/>
@@ -4143,7 +4161,7 @@
       <c r="F178" s="73"/>
     </row>
     <row r="179" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A179" s="123"/>
+      <c r="A179" s="120"/>
       <c r="B179" s="42"/>
       <c r="C179" s="39"/>
       <c r="D179" s="45"/>
@@ -4151,7 +4169,7 @@
       <c r="F179" s="74"/>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="122" t="s">
+      <c r="A180" s="119" t="s">
         <v>202</v>
       </c>
       <c r="B180" s="41"/>
@@ -4163,7 +4181,7 @@
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="122"/>
+      <c r="A181" s="119"/>
       <c r="B181" s="41"/>
       <c r="C181" s="38"/>
       <c r="D181" s="44"/>
@@ -4171,7 +4189,7 @@
       <c r="F181" s="73"/>
     </row>
     <row r="182" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A182" s="122"/>
+      <c r="A182" s="119"/>
       <c r="B182" s="41"/>
       <c r="C182" s="38"/>
       <c r="D182" s="44"/>
@@ -4179,7 +4197,7 @@
       <c r="F182" s="74"/>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="121" t="s">
+      <c r="A183" s="118" t="s">
         <v>203</v>
       </c>
       <c r="B183" s="40"/>
@@ -4191,7 +4209,7 @@
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="122"/>
+      <c r="A184" s="119"/>
       <c r="B184" s="41"/>
       <c r="C184" s="38"/>
       <c r="D184" s="44"/>
@@ -4199,7 +4217,7 @@
       <c r="F184" s="73"/>
     </row>
     <row r="185" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A185" s="123"/>
+      <c r="A185" s="120"/>
       <c r="B185" s="42"/>
       <c r="C185" s="39"/>
       <c r="D185" s="45"/>
@@ -4207,7 +4225,7 @@
       <c r="F185" s="74"/>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="122" t="s">
+      <c r="A186" s="119" t="s">
         <v>204</v>
       </c>
       <c r="B186" s="41"/>
@@ -4219,7 +4237,7 @@
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="122"/>
+      <c r="A187" s="119"/>
       <c r="B187" s="41"/>
       <c r="C187" s="38"/>
       <c r="D187" s="44"/>
@@ -4227,7 +4245,7 @@
       <c r="F187" s="73"/>
     </row>
     <row r="188" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A188" s="122"/>
+      <c r="A188" s="119"/>
       <c r="B188" s="41"/>
       <c r="C188" s="38"/>
       <c r="D188" s="44"/>
@@ -4235,7 +4253,7 @@
       <c r="F188" s="74"/>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="121" t="s">
+      <c r="A189" s="118" t="s">
         <v>205</v>
       </c>
       <c r="B189" s="40"/>
@@ -4247,7 +4265,7 @@
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="122"/>
+      <c r="A190" s="119"/>
       <c r="B190" s="41"/>
       <c r="C190" s="38"/>
       <c r="D190" s="44"/>
@@ -4255,7 +4273,7 @@
       <c r="F190" s="73"/>
     </row>
     <row r="191" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A191" s="123"/>
+      <c r="A191" s="120"/>
       <c r="B191" s="42"/>
       <c r="C191" s="39"/>
       <c r="D191" s="45"/>
@@ -4263,72 +4281,72 @@
       <c r="F191" s="74"/>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="122" t="s">
+      <c r="A192" s="119" t="s">
         <v>206</v>
       </c>
       <c r="B192" s="41"/>
       <c r="C192" s="38"/>
       <c r="D192" s="44"/>
       <c r="E192" s="38"/>
-      <c r="F192" s="126" t="s">
+      <c r="F192" s="123" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="122"/>
+      <c r="A193" s="119"/>
       <c r="B193" s="41"/>
       <c r="C193" s="38"/>
       <c r="D193" s="44"/>
       <c r="E193" s="38"/>
-      <c r="F193" s="127"/>
+      <c r="F193" s="124"/>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="122"/>
+      <c r="A194" s="119"/>
       <c r="B194" s="41"/>
       <c r="C194" s="38"/>
       <c r="D194" s="44"/>
       <c r="E194" s="38"/>
-      <c r="F194" s="127"/>
+      <c r="F194" s="124"/>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="122"/>
+      <c r="A195" s="119"/>
       <c r="B195" s="41"/>
       <c r="C195" s="38"/>
       <c r="D195" s="44"/>
       <c r="E195" s="38"/>
-      <c r="F195" s="127"/>
+      <c r="F195" s="124"/>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="122"/>
+      <c r="A196" s="119"/>
       <c r="B196" s="41"/>
       <c r="C196" s="38"/>
       <c r="D196" s="44"/>
       <c r="E196" s="38"/>
-      <c r="F196" s="127"/>
+      <c r="F196" s="124"/>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="122"/>
+      <c r="A197" s="119"/>
       <c r="B197" s="41"/>
       <c r="C197" s="38"/>
       <c r="D197" s="44"/>
       <c r="E197" s="38"/>
-      <c r="F197" s="127"/>
+      <c r="F197" s="124"/>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="122"/>
+      <c r="A198" s="119"/>
       <c r="B198" s="41"/>
       <c r="C198" s="38"/>
       <c r="D198" s="44"/>
       <c r="E198" s="38"/>
-      <c r="F198" s="127"/>
+      <c r="F198" s="124"/>
     </row>
     <row r="199" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A199" s="123"/>
+      <c r="A199" s="120"/>
       <c r="B199" s="42"/>
       <c r="C199" s="39"/>
       <c r="D199" s="45"/>
       <c r="E199" s="39"/>
-      <c r="F199" s="128"/>
+      <c r="F199" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="95">
@@ -4486,7 +4504,7 @@
       <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="129" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4506,7 +4524,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A4" s="133"/>
+      <c r="A4" s="130"/>
       <c r="B4" s="1" t="s">
         <v>95</v>
       </c>
@@ -4520,7 +4538,7 @@
       <c r="F4" s="53"/>
     </row>
     <row r="5" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A5" s="134"/>
+      <c r="A5" s="131"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="9" t="s">
@@ -4532,7 +4550,7 @@
       <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A6" s="134"/>
+      <c r="A6" s="131"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="8" t="s">
@@ -4544,7 +4562,7 @@
       <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A7" s="134"/>
+      <c r="A7" s="131"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="8" t="s">
@@ -4556,7 +4574,7 @@
       <c r="F7" s="53"/>
     </row>
     <row r="8" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A8" s="134"/>
+      <c r="A8" s="131"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8" t="s">
@@ -4568,7 +4586,7 @@
       <c r="F8" s="53"/>
     </row>
     <row r="9" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A9" s="134"/>
+      <c r="A9" s="131"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="13" t="s">
@@ -4580,7 +4598,7 @@
       <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="129" t="s">
         <v>96</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -4600,7 +4618,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A11" s="133"/>
+      <c r="A11" s="130"/>
       <c r="B11" s="1" t="s">
         <v>95</v>
       </c>
@@ -4614,7 +4632,7 @@
       <c r="F11" s="53"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A12" s="134"/>
+      <c r="A12" s="131"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="9" t="s">
@@ -4626,7 +4644,7 @@
       <c r="F12" s="53"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A13" s="134"/>
+      <c r="A13" s="131"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="8" t="s">
@@ -4638,7 +4656,7 @@
       <c r="F13" s="53"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A14" s="134"/>
+      <c r="A14" s="131"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="8" t="s">
@@ -4650,7 +4668,7 @@
       <c r="F14" s="53"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A15" s="134"/>
+      <c r="A15" s="131"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="8" t="s">
@@ -4662,7 +4680,7 @@
       <c r="F15" s="53"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A16" s="134"/>
+      <c r="A16" s="131"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="13" t="s">
@@ -4674,7 +4692,7 @@
       <c r="F16" s="53"/>
     </row>
     <row r="17" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A17" s="132" t="s">
+      <c r="A17" s="129" t="s">
         <v>99</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -4694,7 +4712,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A18" s="133"/>
+      <c r="A18" s="130"/>
       <c r="B18" s="1" t="s">
         <v>95</v>
       </c>
@@ -4708,7 +4726,7 @@
       <c r="F18" s="53"/>
     </row>
     <row r="19" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A19" s="134"/>
+      <c r="A19" s="131"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="9" t="s">
@@ -4720,7 +4738,7 @@
       <c r="F19" s="53"/>
     </row>
     <row r="20" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A20" s="134"/>
+      <c r="A20" s="131"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="8" t="s">
@@ -4732,7 +4750,7 @@
       <c r="F20" s="53"/>
     </row>
     <row r="21" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A21" s="134"/>
+      <c r="A21" s="131"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="8" t="s">
@@ -4744,7 +4762,7 @@
       <c r="F21" s="53"/>
     </row>
     <row r="22" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A22" s="134"/>
+      <c r="A22" s="131"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="8" t="s">
@@ -4756,7 +4774,7 @@
       <c r="F22" s="53"/>
     </row>
     <row r="23" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A23" s="134"/>
+      <c r="A23" s="131"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="13" t="s">
@@ -4768,7 +4786,7 @@
       <c r="F23" s="53"/>
     </row>
     <row r="24" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A24" s="132" t="s">
+      <c r="A24" s="129" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -4788,7 +4806,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A25" s="133"/>
+      <c r="A25" s="130"/>
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
@@ -4802,7 +4820,7 @@
       <c r="F25" s="53"/>
     </row>
     <row r="26" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A26" s="133"/>
+      <c r="A26" s="130"/>
       <c r="B26" s="1" t="s">
         <v>20</v>
       </c>
@@ -4816,7 +4834,7 @@
       <c r="F26" s="53"/>
     </row>
     <row r="27" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A27" s="133"/>
+      <c r="A27" s="130"/>
       <c r="B27" s="1" t="s">
         <v>21</v>
       </c>
@@ -4828,7 +4846,7 @@
       <c r="F27" s="53"/>
     </row>
     <row r="28" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A28" s="133"/>
+      <c r="A28" s="130"/>
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
@@ -4840,7 +4858,7 @@
       <c r="F28" s="53"/>
     </row>
     <row r="29" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A29" s="133"/>
+      <c r="A29" s="130"/>
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
@@ -4852,7 +4870,7 @@
       <c r="F29" s="53"/>
     </row>
     <row r="30" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A30" s="135"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="29" t="s">
@@ -4862,7 +4880,7 @@
       <c r="F30" s="54"/>
     </row>
     <row r="31" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A31" s="132" t="s">
+      <c r="A31" s="129" t="s">
         <v>147</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -4888,7 +4906,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A32" s="133"/>
+      <c r="A32" s="130"/>
       <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
@@ -4905,7 +4923,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A33" s="133"/>
+      <c r="A33" s="130"/>
       <c r="B33" s="1" t="s">
         <v>20</v>
       </c>
@@ -4925,7 +4943,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A34" s="133"/>
+      <c r="A34" s="130"/>
       <c r="B34" s="1" t="s">
         <v>21</v>
       </c>
@@ -4943,7 +4961,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A35" s="133"/>
+      <c r="A35" s="130"/>
       <c r="B35" s="1" t="s">
         <v>23</v>
       </c>
@@ -4961,7 +4979,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A36" s="133"/>
+      <c r="A36" s="130"/>
       <c r="B36" s="1" t="s">
         <v>24</v>
       </c>
@@ -4979,7 +4997,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A37" s="134"/>
+      <c r="A37" s="131"/>
       <c r="B37" s="2" t="s">
         <v>132</v>
       </c>
@@ -4998,7 +5016,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A38" s="134"/>
+      <c r="A38" s="131"/>
       <c r="B38" s="2" t="s">
         <v>131</v>
       </c>
@@ -5017,7 +5035,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A39" s="134"/>
+      <c r="A39" s="131"/>
       <c r="B39" s="2" t="s">
         <v>130</v>
       </c>
@@ -5036,7 +5054,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A40" s="135"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="4" t="s">
         <v>129</v>
       </c>
@@ -5051,7 +5069,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A41" s="163" t="s">
+      <c r="A41" s="160" t="s">
         <v>69</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -5071,7 +5089,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A42" s="164"/>
+      <c r="A42" s="161"/>
       <c r="B42" s="1" t="s">
         <v>70</v>
       </c>
@@ -5083,7 +5101,7 @@
       <c r="F42" s="53"/>
     </row>
     <row r="43" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A43" s="164"/>
+      <c r="A43" s="161"/>
       <c r="B43" s="1" t="s">
         <v>49</v>
       </c>
@@ -5095,7 +5113,7 @@
       <c r="F43" s="53"/>
     </row>
     <row r="44" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A44" s="164"/>
+      <c r="A44" s="161"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="8" t="s">
@@ -5105,7 +5123,7 @@
       <c r="F44" s="53"/>
     </row>
     <row r="45" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A45" s="164"/>
+      <c r="A45" s="161"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="8" t="s">
@@ -5115,7 +5133,7 @@
       <c r="F45" s="53"/>
     </row>
     <row r="46" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A46" s="164"/>
+      <c r="A46" s="161"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="8" t="s">
@@ -5125,7 +5143,7 @@
       <c r="F46" s="53"/>
     </row>
     <row r="47" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A47" s="165"/>
+      <c r="A47" s="162"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="29" t="s">
@@ -5135,13 +5153,13 @@
       <c r="F47" s="54"/>
     </row>
     <row r="48" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A48" s="132" t="s">
+      <c r="A48" s="129" t="s">
         <v>150</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="161" t="s">
+      <c r="C48" s="158" t="s">
         <v>45</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -5155,11 +5173,11 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A49" s="133"/>
+      <c r="A49" s="130"/>
       <c r="B49" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="162"/>
+      <c r="C49" s="159"/>
       <c r="D49" s="9" t="s">
         <v>15</v>
       </c>
@@ -5167,7 +5185,7 @@
       <c r="F49" s="73"/>
     </row>
     <row r="50" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A50" s="133"/>
+      <c r="A50" s="130"/>
       <c r="B50" s="5" t="s">
         <v>29</v>
       </c>
@@ -5181,7 +5199,7 @@
       <c r="F50" s="73"/>
     </row>
     <row r="51" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A51" s="133"/>
+      <c r="A51" s="130"/>
       <c r="B51" s="24" t="s">
         <v>30</v>
       </c>
@@ -5195,7 +5213,7 @@
       <c r="F51" s="73"/>
     </row>
     <row r="52" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A52" s="133"/>
+      <c r="A52" s="130"/>
       <c r="B52" s="24" t="s">
         <v>31</v>
       </c>
@@ -5209,7 +5227,7 @@
       <c r="F52" s="73"/>
     </row>
     <row r="53" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A53" s="133"/>
+      <c r="A53" s="130"/>
       <c r="B53" s="24" t="s">
         <v>32</v>
       </c>
@@ -5221,7 +5239,7 @@
       <c r="F53" s="73"/>
     </row>
     <row r="54" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A54" s="133"/>
+      <c r="A54" s="130"/>
       <c r="B54" s="24" t="s">
         <v>33</v>
       </c>
@@ -5233,7 +5251,7 @@
       <c r="F54" s="73"/>
     </row>
     <row r="55" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A55" s="135"/>
+      <c r="A55" s="132"/>
       <c r="B55" s="25"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
@@ -5251,7 +5269,7 @@
       <c r="F56" s="75"/>
     </row>
     <row r="57" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A57" s="129" t="s">
+      <c r="A57" s="126" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="12" t="s">
@@ -5265,7 +5283,7 @@
       <c r="F57" s="58"/>
     </row>
     <row r="58" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A58" s="130"/>
+      <c r="A58" s="127"/>
       <c r="B58" s="8" t="s">
         <v>15</v>
       </c>
@@ -5277,7 +5295,7 @@
       <c r="F58" s="59"/>
     </row>
     <row r="59" spans="1:6" ht="45.75" customHeight="1">
-      <c r="A59" s="136"/>
+      <c r="A59" s="133"/>
       <c r="B59" s="9" t="s">
         <v>10</v>
       </c>
@@ -5289,7 +5307,7 @@
       <c r="F59" s="59"/>
     </row>
     <row r="60" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A60" s="136"/>
+      <c r="A60" s="133"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -5297,7 +5315,7 @@
       <c r="F60" s="59"/>
     </row>
     <row r="61" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A61" s="131"/>
+      <c r="A61" s="128"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -5305,7 +5323,7 @@
       <c r="F61" s="60"/>
     </row>
     <row r="62" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A62" s="129" t="s">
+      <c r="A62" s="126" t="s">
         <v>12</v>
       </c>
       <c r="B62" s="3"/>
@@ -5319,7 +5337,7 @@
       <c r="F62" s="58"/>
     </row>
     <row r="63" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A63" s="130"/>
+      <c r="A63" s="127"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -5327,7 +5345,7 @@
       <c r="F63" s="59"/>
     </row>
     <row r="64" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A64" s="131"/>
+      <c r="A64" s="128"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -5335,7 +5353,7 @@
       <c r="F64" s="60"/>
     </row>
     <row r="65" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A65" s="129" t="s">
+      <c r="A65" s="126" t="s">
         <v>0</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -5349,7 +5367,7 @@
       <c r="F65" s="58"/>
     </row>
     <row r="66" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A66" s="130"/>
+      <c r="A66" s="127"/>
       <c r="B66" s="8" t="s">
         <v>8</v>
       </c>
@@ -5361,7 +5379,7 @@
       <c r="F66" s="59"/>
     </row>
     <row r="67" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A67" s="131"/>
+      <c r="A67" s="128"/>
       <c r="B67" s="13" t="s">
         <v>9</v>
       </c>
@@ -5373,7 +5391,7 @@
       <c r="F67" s="60"/>
     </row>
     <row r="68" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A68" s="129" t="s">
+      <c r="A68" s="126" t="s">
         <v>42</v>
       </c>
       <c r="B68" s="9" t="s">
@@ -5387,7 +5405,7 @@
       <c r="F68" s="58"/>
     </row>
     <row r="69" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A69" s="130"/>
+      <c r="A69" s="127"/>
       <c r="B69" s="9" t="s">
         <v>40</v>
       </c>
@@ -5399,7 +5417,7 @@
       <c r="F69" s="59"/>
     </row>
     <row r="70" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A70" s="131"/>
+      <c r="A70" s="128"/>
       <c r="B70" s="9" t="s">
         <v>41</v>
       </c>
@@ -5509,7 +5527,7 @@
       <c r="F77" s="60"/>
     </row>
     <row r="78" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A78" s="152" t="s">
+      <c r="A78" s="149" t="s">
         <v>66</v>
       </c>
       <c r="B78" s="26" t="s">
@@ -5537,7 +5555,7 @@
       <c r="F79" s="98"/>
     </row>
     <row r="80" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A80" s="131"/>
+      <c r="A80" s="128"/>
       <c r="B80" s="25"/>
       <c r="C80" s="5" t="s">
         <v>67</v>
@@ -5547,7 +5565,7 @@
       <c r="F80" s="99"/>
     </row>
     <row r="81" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A81" s="129" t="s">
+      <c r="A81" s="126" t="s">
         <v>112</v>
       </c>
       <c r="B81" s="27" t="s">
@@ -5567,7 +5585,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A82" s="136"/>
+      <c r="A82" s="133"/>
       <c r="B82" s="28"/>
       <c r="C82" s="2" t="s">
         <v>67</v>
@@ -5577,7 +5595,7 @@
       <c r="F82" s="60"/>
     </row>
     <row r="83" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A83" s="129" t="s">
+      <c r="A83" s="126" t="s">
         <v>65</v>
       </c>
       <c r="B83" s="27" t="s">
@@ -5592,17 +5610,17 @@
       <c r="E83" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F83" s="153"/>
+      <c r="F83" s="150"/>
     </row>
     <row r="84" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A84" s="136"/>
+      <c r="A84" s="133"/>
       <c r="B84" s="28"/>
       <c r="C84" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="19"/>
-      <c r="F84" s="154"/>
+      <c r="F84" s="151"/>
     </row>
     <row r="85" spans="1:6" ht="33.75" customHeight="1">
       <c r="A85" s="55" t="s">
@@ -5679,7 +5697,7 @@
       <c r="F90" s="60"/>
     </row>
     <row r="91" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A91" s="149" t="s">
+      <c r="A91" s="146" t="s">
         <v>71</v>
       </c>
       <c r="B91" s="3"/>
@@ -5693,7 +5711,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A92" s="150"/>
+      <c r="A92" s="147"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
         <v>73</v>
@@ -5703,7 +5721,7 @@
       <c r="F92" s="59"/>
     </row>
     <row r="93" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A93" s="150"/>
+      <c r="A93" s="147"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
         <v>72</v>
@@ -5713,7 +5731,7 @@
       <c r="F93" s="59"/>
     </row>
     <row r="94" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A94" s="150"/>
+      <c r="A94" s="147"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
         <v>74</v>
@@ -5723,7 +5741,7 @@
       <c r="F94" s="59"/>
     </row>
     <row r="95" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A95" s="151"/>
+      <c r="A95" s="148"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4" t="s">
         <v>75</v>
@@ -5733,17 +5751,17 @@
       <c r="F95" s="60"/>
     </row>
     <row r="96" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A96" s="116" t="s">
+      <c r="A96" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="B96" s="116"/>
-      <c r="C96" s="116"/>
-      <c r="D96" s="116"/>
-      <c r="E96" s="116"/>
-      <c r="F96" s="116"/>
+      <c r="B96" s="113"/>
+      <c r="C96" s="113"/>
+      <c r="D96" s="113"/>
+      <c r="E96" s="113"/>
+      <c r="F96" s="113"/>
     </row>
     <row r="97" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A97" s="157" t="s">
+      <c r="A97" s="154" t="s">
         <v>50</v>
       </c>
       <c r="B97" s="3"/>
@@ -5754,12 +5772,12 @@
       <c r="E97" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F97" s="153" t="s">
+      <c r="F97" s="150" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A98" s="158"/>
+      <c r="A98" s="155"/>
       <c r="B98" s="1"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8" t="s">
@@ -5768,10 +5786,10 @@
       <c r="E98" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F98" s="160"/>
+      <c r="F98" s="157"/>
     </row>
     <row r="99" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A99" s="158"/>
+      <c r="A99" s="155"/>
       <c r="B99" s="1"/>
       <c r="C99" s="8"/>
       <c r="D99" s="9" t="s">
@@ -5780,10 +5798,10 @@
       <c r="E99" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F99" s="160"/>
+      <c r="F99" s="157"/>
     </row>
     <row r="100" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A100" s="158"/>
+      <c r="A100" s="155"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="8" t="s">
@@ -5792,10 +5810,10 @@
       <c r="E100" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="160"/>
+      <c r="F100" s="157"/>
     </row>
     <row r="101" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A101" s="158"/>
+      <c r="A101" s="155"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="8" t="s">
@@ -5804,10 +5822,10 @@
       <c r="E101" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F101" s="160"/>
+      <c r="F101" s="157"/>
     </row>
     <row r="102" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A102" s="158"/>
+      <c r="A102" s="155"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="8" t="s">
@@ -5816,10 +5834,10 @@
       <c r="E102" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F102" s="160"/>
+      <c r="F102" s="157"/>
     </row>
     <row r="103" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A103" s="158"/>
+      <c r="A103" s="155"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="8" t="s">
@@ -5828,10 +5846,10 @@
       <c r="E103" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F103" s="160"/>
+      <c r="F103" s="157"/>
     </row>
     <row r="104" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A104" s="158"/>
+      <c r="A104" s="155"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="9" t="s">
@@ -5840,10 +5858,10 @@
       <c r="E104" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F104" s="160"/>
+      <c r="F104" s="157"/>
     </row>
     <row r="105" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A105" s="158"/>
+      <c r="A105" s="155"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="9" t="s">
@@ -5852,10 +5870,10 @@
       <c r="E105" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F105" s="160"/>
+      <c r="F105" s="157"/>
     </row>
     <row r="106" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A106" s="158"/>
+      <c r="A106" s="155"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="9" t="s">
@@ -5864,26 +5882,26 @@
       <c r="E106" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F106" s="160"/>
+      <c r="F106" s="157"/>
     </row>
     <row r="107" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A107" s="159"/>
+      <c r="A107" s="156"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="18"/>
       <c r="E107" s="19"/>
-      <c r="F107" s="154"/>
+      <c r="F107" s="151"/>
     </row>
     <row r="108" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A108" s="159"/>
+      <c r="A108" s="156"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="18"/>
       <c r="E108" s="19"/>
-      <c r="F108" s="154"/>
+      <c r="F108" s="151"/>
     </row>
     <row r="109" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A109" s="140" t="s">
+      <c r="A109" s="137" t="s">
         <v>138</v>
       </c>
       <c r="B109" s="3" t="s">
@@ -5893,13 +5911,13 @@
         <v>26</v>
       </c>
       <c r="D109" s="12"/>
-      <c r="E109" s="143"/>
-      <c r="F109" s="146" t="s">
+      <c r="E109" s="140"/>
+      <c r="F109" s="143" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A110" s="141"/>
+      <c r="A110" s="138"/>
       <c r="B110" s="1" t="s">
         <v>131</v>
       </c>
@@ -5907,11 +5925,11 @@
         <v>148</v>
       </c>
       <c r="D110" s="8"/>
-      <c r="E110" s="144"/>
-      <c r="F110" s="147"/>
+      <c r="E110" s="141"/>
+      <c r="F110" s="144"/>
     </row>
     <row r="111" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A111" s="141"/>
+      <c r="A111" s="138"/>
       <c r="B111" s="1" t="s">
         <v>130</v>
       </c>
@@ -5919,11 +5937,11 @@
         <v>139</v>
       </c>
       <c r="D111" s="9"/>
-      <c r="E111" s="144"/>
-      <c r="F111" s="147"/>
+      <c r="E111" s="141"/>
+      <c r="F111" s="144"/>
     </row>
     <row r="112" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A112" s="141"/>
+      <c r="A112" s="138"/>
       <c r="B112" s="1" t="s">
         <v>129</v>
       </c>
@@ -5931,11 +5949,11 @@
         <v>140</v>
       </c>
       <c r="D112" s="8"/>
-      <c r="E112" s="144"/>
-      <c r="F112" s="147"/>
+      <c r="E112" s="141"/>
+      <c r="F112" s="144"/>
     </row>
     <row r="113" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A113" s="141"/>
+      <c r="A113" s="138"/>
       <c r="B113" s="1" t="s">
         <v>22</v>
       </c>
@@ -5943,11 +5961,11 @@
         <v>141</v>
       </c>
       <c r="D113" s="8"/>
-      <c r="E113" s="144"/>
-      <c r="F113" s="147"/>
+      <c r="E113" s="141"/>
+      <c r="F113" s="144"/>
     </row>
     <row r="114" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A114" s="141"/>
+      <c r="A114" s="138"/>
       <c r="B114" s="1" t="s">
         <v>23</v>
       </c>
@@ -5955,63 +5973,63 @@
         <v>142</v>
       </c>
       <c r="D114" s="8"/>
-      <c r="E114" s="144"/>
-      <c r="F114" s="147"/>
+      <c r="E114" s="141"/>
+      <c r="F114" s="144"/>
     </row>
     <row r="115" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A115" s="141"/>
+      <c r="A115" s="138"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D115" s="8"/>
-      <c r="E115" s="144"/>
-      <c r="F115" s="147"/>
+      <c r="E115" s="141"/>
+      <c r="F115" s="144"/>
       <c r="I115" s="36"/>
     </row>
     <row r="116" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A116" s="141"/>
+      <c r="A116" s="138"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D116" s="8"/>
-      <c r="E116" s="144"/>
-      <c r="F116" s="147"/>
+      <c r="E116" s="141"/>
+      <c r="F116" s="144"/>
       <c r="I116" s="36"/>
     </row>
     <row r="117" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A117" s="141"/>
+      <c r="A117" s="138"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D117" s="8"/>
-      <c r="E117" s="144"/>
-      <c r="F117" s="147"/>
+      <c r="E117" s="141"/>
+      <c r="F117" s="144"/>
       <c r="I117" s="36"/>
     </row>
     <row r="118" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A118" s="141"/>
+      <c r="A118" s="138"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D118" s="8"/>
-      <c r="E118" s="144"/>
-      <c r="F118" s="147"/>
+      <c r="E118" s="141"/>
+      <c r="F118" s="144"/>
       <c r="I118" s="36"/>
     </row>
     <row r="119" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A119" s="142"/>
+      <c r="A119" s="139"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="29"/>
-      <c r="E119" s="145"/>
-      <c r="F119" s="148"/>
+      <c r="E119" s="142"/>
+      <c r="F119" s="145"/>
     </row>
     <row r="120" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A120" s="155" t="s">
+      <c r="A120" s="152" t="s">
         <v>51</v>
       </c>
       <c r="B120" s="23" t="s">
@@ -6025,7 +6043,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A121" s="156"/>
+      <c r="A121" s="153"/>
       <c r="B121" s="16"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17"/>
@@ -6067,7 +6085,7 @@
       <c r="F124" s="73"/>
     </row>
     <row r="125" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A125" s="137" t="s">
+      <c r="A125" s="134" t="s">
         <v>81</v>
       </c>
       <c r="B125" s="15" t="s">
@@ -6081,7 +6099,7 @@
       </c>
     </row>
     <row r="126" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A126" s="138"/>
+      <c r="A126" s="135"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -6089,7 +6107,7 @@
       <c r="F126" s="59"/>
     </row>
     <row r="127" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A127" s="138"/>
+      <c r="A127" s="135"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -6097,7 +6115,7 @@
       <c r="F127" s="59"/>
     </row>
     <row r="128" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A128" s="139"/>
+      <c r="A128" s="136"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
@@ -6247,10 +6265,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6380,6 +6398,16 @@
         <v>59</v>
       </c>
     </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="163" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="163" t="s">
+        <v>222</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/description.xlsx
+++ b/description.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="232">
   <si>
     <t>SET_ORI(W,P,R)</t>
   </si>
@@ -482,12 +482,6 @@
   </si>
   <si>
     <t>настраивает параметры в соответствии с внутренней наплавкой на стационарной детали, ориентация изменяется</t>
-  </si>
-  <si>
-    <t>dZ -компенсация высоты</t>
-  </si>
-  <si>
-    <t>D - диаметр проецирущей окружности</t>
   </si>
   <si>
     <t>PR[9] - фрейм плоскости наплавки проецирущего цилиндра относительно UF[1] или UF[0] -  в зависимости от значения pos_en</t>
@@ -540,12 +534,6 @@
   </si>
   <si>
     <t>PR[9] - фрейм плоскости наплавки относительно WORLD</t>
-  </si>
-  <si>
-    <t>n1..n4 - номера PR с измерениями нижнего сечения</t>
-  </si>
-  <si>
-    <t>n5..n8 - номера PR с измерениямя верхнего сечения</t>
   </si>
   <si>
     <t>MATH_LIB.Fill_PRM (X, Y, Z, W, P, R): XYZWPR</t>
@@ -729,8 +717,44 @@
     <t>Pr[11] - фрейм оси заготовки</t>
   </si>
   <si>
+    <t>Z - координата витка, мм</t>
+  </si>
+  <si>
+    <t>D - диаметр витка, мм</t>
+  </si>
+  <si>
+    <t>a1 - старт витка, град</t>
+  </si>
+  <si>
+    <t>a2 - конец витка, гад</t>
+  </si>
+  <si>
+    <t>turn - флаг направление вращения</t>
+  </si>
+  <si>
+    <t>dZ - компенсация Z витка, мм</t>
+  </si>
+  <si>
+    <t>SRCH(Z,D,a,dZ,dR,da,N)</t>
+  </si>
+  <si>
+    <t>D - координата позиции измерения</t>
+  </si>
+  <si>
+    <t>R[12] - Выбор сенсора</t>
+  </si>
+  <si>
+    <t>n1..n4 - номера PR с измерениями цилиндрического сечения</t>
+  </si>
+  <si>
+    <t>Строит фрейм по измерениям. Плоскость XY нового фоейма совпадает с плоскостью торца измереной детали, центр системы координат определяется как центр масс центров 4 окружностей построенных на проекциях измерений на плоскость торца. Оси X и  Y параллельны и сонаправлены с плоскостями XZ и YZ pr[10] соответсвенно</t>
+  </si>
+  <si>
+    <t>n5..n8 - номера PR с измерениямя воторого сечения</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">центр каждого сечения определяется как центр масс из центров 4 окружностей, ось Z проходит через центры сечений и ложительное направление совпадает с положительным направлением оси Z PR[10],
+      <t xml:space="preserve">Строит фрейм по измерениям. центр каждого сечения определяется как центр масс из центров 4 окружностей, ось Z проходит через центры сечений и положительное направление совпадает с положительным направлением оси Z PR[10],
 </t>
     </r>
     <r>
@@ -741,11 +765,8 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">ось X  параллельна  плоскости XZ  PR[10] </t>
+      <t>ось X нового фрейма параллельна  плоскости XZ  PR[10]. начало нового фрейма находится на пересечении новой оси Z и плоскости XY Pr[10]</t>
     </r>
-  </si>
-  <si>
-    <t>Плоскость XY совпадает с плоскостью торца, центр системы координат определяется как центр масс центров 4 окружностей построенных на проекциях измерений на плоскость торца. Оси X и  Y параллельны и сонаправлены с плоскостями XZ и YZ pr[10] соответсвенно</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1316,6 +1337,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1325,22 +1422,124 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1352,15 +1551,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1370,15 +1560,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1394,63 +1575,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1460,101 +1587,38 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1565,17 +1629,23 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1628,46 +1698,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1967,17 +1997,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I199"/>
+  <dimension ref="A1:I197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F96" sqref="F96:F100"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62:A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.7109375" style="20" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" customWidth="1"/>
     <col min="3" max="3" width="43.7109375" customWidth="1"/>
     <col min="4" max="4" width="44.42578125" customWidth="1"/>
     <col min="5" max="5" width="39" customWidth="1"/>
@@ -1986,7 +2016,7 @@
     <col min="8" max="8" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" ht="44.25" customHeight="1" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -2007,54 +2037,54 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
     </row>
     <row r="3" spans="1:6" ht="21" customHeight="1">
-      <c r="A3" s="78" t="s">
-        <v>164</v>
+      <c r="A3" s="109" t="s">
+        <v>162</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="12"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="81" t="s">
-        <v>162</v>
+      <c r="F3" s="112" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1">
-      <c r="A4" s="79"/>
+      <c r="A4" s="110"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="8"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="82"/>
+      <c r="F4" s="113"/>
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1">
-      <c r="A5" s="79"/>
+      <c r="A5" s="110"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="8"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="82"/>
+      <c r="F5" s="113"/>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" thickBot="1">
-      <c r="A6" s="80"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="9"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="83"/>
+      <c r="F6" s="114"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1">
-      <c r="A7" s="46" t="s">
-        <v>217</v>
+      <c r="A7" s="72" t="s">
+        <v>213</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
@@ -2066,12 +2096,12 @@
       <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="60" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1">
-      <c r="A8" s="47"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="1" t="s">
         <v>95</v>
       </c>
@@ -2082,12 +2112,12 @@
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="53"/>
+      <c r="F8" s="60"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1">
-      <c r="A9" s="47"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="9" t="s">
@@ -2096,10 +2126,10 @@
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="53"/>
+      <c r="F9" s="60"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1">
-      <c r="A10" s="47"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="8" t="s">
@@ -2108,10 +2138,10 @@
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="53"/>
+      <c r="F10" s="60"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="47"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="8" t="s">
@@ -2120,10 +2150,10 @@
       <c r="E11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="53"/>
+      <c r="F11" s="60"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="47"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="8" t="s">
@@ -2132,10 +2162,10 @@
       <c r="E12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="53"/>
+      <c r="F12" s="60"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="48"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="13" t="s">
@@ -2144,11 +2174,11 @@
       <c r="E13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="54"/>
+      <c r="F13" s="61"/>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1">
-      <c r="A14" s="46" t="s">
-        <v>216</v>
+      <c r="A14" s="72" t="s">
+        <v>212</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
@@ -2160,12 +2190,12 @@
       <c r="E14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="59" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1">
-      <c r="A15" s="47"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="1" t="s">
         <v>95</v>
       </c>
@@ -2176,12 +2206,12 @@
       <c r="E15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="53"/>
+      <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1">
-      <c r="A16" s="47"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="9" t="s">
@@ -2190,10 +2220,10 @@
       <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="53"/>
+      <c r="F16" s="60"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1">
-      <c r="A17" s="47"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="8" t="s">
@@ -2202,10 +2232,10 @@
       <c r="E17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="53"/>
+      <c r="F17" s="60"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
-      <c r="A18" s="47"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="8" t="s">
@@ -2214,10 +2244,10 @@
       <c r="E18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="53"/>
+      <c r="F18" s="60"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1">
-      <c r="A19" s="47"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="8" t="s">
@@ -2226,10 +2256,10 @@
       <c r="E19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="53"/>
+      <c r="F19" s="60"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A20" s="48"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="13" t="s">
@@ -2238,371 +2268,371 @@
       <c r="E20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="54"/>
-    </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1">
-      <c r="A21" s="46" t="s">
-        <v>165</v>
+      <c r="F20" s="61"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1">
+      <c r="A21" s="88" t="s">
+        <v>177</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" s="64"/>
+      <c r="F21" s="59" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="93"/>
+      <c r="B22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22" s="65"/>
+      <c r="F22" s="60"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="93"/>
+      <c r="B23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" s="65"/>
+      <c r="F23" s="60"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A24" s="93"/>
+      <c r="B24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" s="65"/>
+      <c r="F24" s="60"/>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1">
+      <c r="A25" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="100" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1">
+      <c r="A26" s="73"/>
+      <c r="B26" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="65"/>
+      <c r="F26" s="101"/>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1">
+      <c r="A27" s="73"/>
+      <c r="B27" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" s="103" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="65"/>
+      <c r="F27" s="101"/>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1">
+      <c r="A28" s="73"/>
+      <c r="B28" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C28" s="104"/>
+      <c r="D28" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="65"/>
+      <c r="F28" s="101"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1">
+      <c r="A29" s="73"/>
+      <c r="B29" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C29" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="65"/>
+      <c r="F29" s="101"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1">
+      <c r="A30" s="73"/>
+      <c r="B30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="105"/>
+      <c r="D30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="65"/>
+      <c r="F30" s="101"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A31" s="74"/>
+      <c r="B31" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="106"/>
+      <c r="D31" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="66"/>
+      <c r="F31" s="102"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1">
+      <c r="A32" s="72" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D32" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="49" t="s">
+      <c r="E32" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="84" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1">
-      <c r="A22" s="47"/>
-      <c r="B22" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="F32" s="59" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" customHeight="1">
+      <c r="A33" s="73"/>
+      <c r="B33" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="85"/>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1">
-      <c r="A23" s="47"/>
-      <c r="B23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="87" t="s">
-        <v>158</v>
-      </c>
-      <c r="D23" s="9" t="s">
+      <c r="E33" s="65"/>
+      <c r="F33" s="60"/>
+    </row>
+    <row r="34" spans="1:6" ht="30" customHeight="1">
+      <c r="A34" s="73"/>
+      <c r="B34" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="50"/>
-      <c r="F23" s="85"/>
-    </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1">
-      <c r="A24" s="47"/>
-      <c r="B24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="88"/>
-      <c r="D24" s="8" t="s">
+      <c r="E34" s="65"/>
+      <c r="F34" s="60"/>
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1">
+      <c r="A35" s="73"/>
+      <c r="B35" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="50"/>
-      <c r="F24" s="85"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1">
-      <c r="A25" s="47"/>
-      <c r="B25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="87" t="s">
-        <v>157</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="50"/>
-      <c r="F25" s="85"/>
-    </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1">
-      <c r="A26" s="47"/>
-      <c r="B26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="89"/>
-      <c r="D26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="85"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="48"/>
-      <c r="B27" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C27" s="90"/>
-      <c r="D27" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="86"/>
-    </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1">
-      <c r="A28" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" s="52" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1">
-      <c r="A29" s="47"/>
-      <c r="B29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="50"/>
-      <c r="F29" s="53"/>
-    </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1">
-      <c r="A30" s="47"/>
-      <c r="B30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="53"/>
-    </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1">
-      <c r="A31" s="47"/>
-      <c r="B31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="50"/>
-      <c r="F31" s="53"/>
-    </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1">
-      <c r="A32" s="47"/>
-      <c r="B32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="50"/>
-      <c r="F32" s="53"/>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1">
-      <c r="A33" s="47"/>
-      <c r="B33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="50"/>
-      <c r="F33" s="53"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="48"/>
-      <c r="B34" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="51"/>
-      <c r="F34" s="54"/>
-    </row>
-    <row r="35" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A35" s="61" t="s">
-        <v>180</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="F35" s="52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A36" s="62"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="60"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1">
+      <c r="A36" s="73"/>
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>223</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="50"/>
-      <c r="F36" s="53"/>
-    </row>
-    <row r="37" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A37" s="62"/>
+        <v>7</v>
+      </c>
+      <c r="E36" s="65"/>
+      <c r="F36" s="60"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1">
+      <c r="A37" s="73"/>
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="50"/>
-      <c r="F37" s="53"/>
-    </row>
-    <row r="38" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A38" s="62"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="50"/>
-      <c r="F38" s="53"/>
+      <c r="D37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="65"/>
+      <c r="F37" s="60"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A38" s="74"/>
+      <c r="B38" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="66"/>
+      <c r="F38" s="61"/>
     </row>
     <row r="39" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A39" s="62"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="50"/>
-      <c r="F39" s="53"/>
+      <c r="A39" s="118" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="59" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A40" s="62"/>
-      <c r="B40" s="1"/>
+      <c r="A40" s="119"/>
+      <c r="B40" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C40" s="1"/>
       <c r="D40" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="65"/>
+      <c r="F40" s="60"/>
+    </row>
+    <row r="41" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A41" s="119"/>
+      <c r="B41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="65"/>
+      <c r="F41" s="60"/>
+    </row>
+    <row r="42" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A42" s="119"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="65"/>
+      <c r="F42" s="60"/>
+    </row>
+    <row r="43" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A43" s="119"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="65"/>
+      <c r="F43" s="60"/>
+    </row>
+    <row r="44" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A44" s="119"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="53"/>
-    </row>
-    <row r="41" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A41" s="63"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="29" t="s">
+      <c r="E44" s="65"/>
+      <c r="F44" s="60"/>
+    </row>
+    <row r="45" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A45" s="120"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="51"/>
-      <c r="F41" s="54"/>
-    </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1">
-      <c r="A42" s="64" t="s">
-        <v>181</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="E42" s="49"/>
-      <c r="F42" s="52" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="65"/>
-      <c r="B43" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="E43" s="50"/>
-      <c r="F43" s="53"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="65"/>
-      <c r="B44" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="E44" s="50"/>
-      <c r="F44" s="53"/>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A45" s="65"/>
-      <c r="B45" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="E45" s="50"/>
-      <c r="F45" s="53"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="61"/>
     </row>
     <row r="46" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A46" s="64" t="s">
-        <v>150</v>
+      <c r="A46" s="88" t="s">
+        <v>225</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="67" t="s">
+      <c r="C46" s="121" t="s">
         <v>45</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="69" t="s">
+      <c r="E46" s="123" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="72" t="s">
+      <c r="F46" s="53" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1">
-      <c r="A47" s="65"/>
+      <c r="A47" s="93"/>
       <c r="B47" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="68"/>
+        <v>226</v>
+      </c>
+      <c r="C47" s="122"/>
       <c r="D47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="70"/>
-      <c r="F47" s="73"/>
+      <c r="E47" s="124"/>
+      <c r="F47" s="54"/>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1">
-      <c r="A48" s="65"/>
+      <c r="A48" s="93"/>
       <c r="B48" s="5" t="s">
         <v>29</v>
       </c>
@@ -2612,11 +2642,11 @@
       <c r="D48" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="70"/>
-      <c r="F48" s="73"/>
+      <c r="E48" s="124"/>
+      <c r="F48" s="54"/>
     </row>
     <row r="49" spans="1:6" ht="30" customHeight="1">
-      <c r="A49" s="65"/>
+      <c r="A49" s="93"/>
       <c r="B49" s="24" t="s">
         <v>30</v>
       </c>
@@ -2626,11 +2656,11 @@
       <c r="D49" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="70"/>
-      <c r="F49" s="73"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="54"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1">
-      <c r="A50" s="65"/>
+      <c r="A50" s="93"/>
       <c r="B50" s="24" t="s">
         <v>31</v>
       </c>
@@ -2640,11 +2670,11 @@
       <c r="D50" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="70"/>
-      <c r="F50" s="73"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="54"/>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1">
-      <c r="A51" s="65"/>
+      <c r="A51" s="93"/>
       <c r="B51" s="24" t="s">
         <v>32</v>
       </c>
@@ -2652,11 +2682,11 @@
       <c r="D51" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="70"/>
-      <c r="F51" s="73"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="54"/>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1">
-      <c r="A52" s="65"/>
+      <c r="A52" s="93"/>
       <c r="B52" s="24" t="s">
         <v>33</v>
       </c>
@@ -2664,1787 +2694,1757 @@
       <c r="D52" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="70"/>
-      <c r="F52" s="73"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="54"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A53" s="66"/>
+      <c r="A53" s="89"/>
       <c r="B53" s="25"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
-      <c r="E53" s="71"/>
-      <c r="F53" s="74"/>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A54" s="75" t="s">
+      <c r="E53" s="125"/>
+      <c r="F53" s="55"/>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1">
+      <c r="A54" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="69"/>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1">
+      <c r="A55" s="93"/>
+      <c r="B55" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="70"/>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A56" s="93"/>
+      <c r="B56" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="70"/>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1">
+      <c r="A57" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" s="94" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="93"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="95"/>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A59" s="89"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="16"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="96"/>
+    </row>
+    <row r="60" spans="1:6" ht="15" customHeight="1">
+      <c r="A60" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F60" s="69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A61" s="89"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="71"/>
+    </row>
+    <row r="62" spans="1:6" ht="58.5" customHeight="1">
+      <c r="A62" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="75" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="58.5" customHeight="1">
+      <c r="A63" s="73"/>
+      <c r="B63" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="76"/>
+    </row>
+    <row r="64" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
+      <c r="A64" s="74"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="77"/>
+    </row>
+    <row r="65" spans="1:6" ht="45.75" customHeight="1">
+      <c r="A65" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="75" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A66" s="73"/>
+      <c r="B66" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="76"/>
+    </row>
+    <row r="67" spans="1:6" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A67" s="74"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="77"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A68" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="B54" s="75"/>
-      <c r="C54" s="75"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-    </row>
-    <row r="55" spans="1:6" ht="30" customHeight="1">
-      <c r="A55" s="55" t="s">
+      <c r="B68" s="126"/>
+      <c r="C68" s="126"/>
+      <c r="D68" s="126"/>
+      <c r="E68" s="126"/>
+      <c r="F68" s="126"/>
+    </row>
+    <row r="69" spans="1:6" ht="30" customHeight="1">
+      <c r="A69" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B69" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="15" t="s">
+      <c r="C69" s="3"/>
+      <c r="D69" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="58"/>
-    </row>
-    <row r="56" spans="1:6" ht="30" customHeight="1">
-      <c r="A56" s="56"/>
-      <c r="B56" s="8" t="s">
+      <c r="E69" s="3"/>
+      <c r="F69" s="69"/>
+    </row>
+    <row r="70" spans="1:6" ht="30" customHeight="1">
+      <c r="A70" s="116"/>
+      <c r="B70" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="9" t="s">
+      <c r="C70" s="1"/>
+      <c r="D70" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="59"/>
-    </row>
-    <row r="57" spans="1:6" ht="45" customHeight="1">
-      <c r="A57" s="56"/>
-      <c r="B57" s="9" t="s">
+      <c r="E70" s="1"/>
+      <c r="F70" s="70"/>
+    </row>
+    <row r="71" spans="1:6" ht="45" customHeight="1">
+      <c r="A71" s="116"/>
+      <c r="B71" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="59"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="56"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="59"/>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A59" s="57"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="60"/>
-    </row>
-    <row r="60" spans="1:6" ht="30" customHeight="1">
-      <c r="A60" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="58"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="92"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="59"/>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A62" s="93"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="60"/>
-    </row>
-    <row r="63" spans="1:6" ht="30" customHeight="1">
-      <c r="A63" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="58"/>
-    </row>
-    <row r="64" spans="1:6" ht="30" customHeight="1">
-      <c r="A64" s="56"/>
-      <c r="B64" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="59"/>
-    </row>
-    <row r="65" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A65" s="57"/>
-      <c r="B65" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="60"/>
-    </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1">
-      <c r="A66" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="58"/>
-    </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1">
-      <c r="A67" s="56"/>
-      <c r="B67" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="59"/>
-    </row>
-    <row r="68" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A68" s="57"/>
-      <c r="B68" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="60"/>
-    </row>
-    <row r="69" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A69" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F69" s="58" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A70" s="101"/>
-      <c r="B70" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F70" s="59"/>
-    </row>
-    <row r="71" spans="1:6" ht="30" customHeight="1">
-      <c r="A71" s="101"/>
-      <c r="B71" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>171</v>
-      </c>
+      <c r="C71" s="2"/>
       <c r="D71" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F71" s="59"/>
-    </row>
-    <row r="72" spans="1:6" ht="30" customHeight="1">
-      <c r="A72" s="101"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="8" t="s">
+      <c r="E71" s="2"/>
+      <c r="F71" s="70"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="116"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="70"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A73" s="117"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="71"/>
+    </row>
+    <row r="74" spans="1:6" ht="30" customHeight="1">
+      <c r="A74" s="127" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D74" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="59"/>
-    </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1">
-      <c r="A73" s="101"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="8" t="s">
+      <c r="E74" s="3"/>
+      <c r="F74" s="69"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="128"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="70"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A76" s="129"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="71"/>
+    </row>
+    <row r="77" spans="1:6" ht="30" customHeight="1">
+      <c r="A77" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F73" s="59"/>
-    </row>
-    <row r="74" spans="1:6" ht="15" customHeight="1">
-      <c r="A74" s="101"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="8" t="s">
+      <c r="C77" s="3"/>
+      <c r="D77" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="69"/>
+    </row>
+    <row r="78" spans="1:6" ht="30" customHeight="1">
+      <c r="A78" s="116"/>
+      <c r="B78" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F74" s="59"/>
-    </row>
-    <row r="75" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A75" s="102"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F75" s="60"/>
-    </row>
-    <row r="76" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A76" s="94" t="s">
-        <v>58</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F76" s="58" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A77" s="95"/>
-      <c r="B77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F77" s="59"/>
-    </row>
-    <row r="78" spans="1:6" ht="30" customHeight="1">
-      <c r="A78" s="95"/>
-      <c r="B78" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="70"/>
+    </row>
+    <row r="79" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A79" s="117"/>
+      <c r="B79" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="4"/>
+      <c r="D79" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="4"/>
+      <c r="F79" s="71"/>
+    </row>
+    <row r="80" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A80" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F80" s="69" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A81" s="98"/>
+      <c r="B81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F81" s="70"/>
+    </row>
+    <row r="82" spans="1:6" ht="30" customHeight="1">
+      <c r="A82" s="98"/>
+      <c r="B82" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D82" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E82" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F78" s="59"/>
-    </row>
-    <row r="79" spans="1:6" ht="30" customHeight="1">
-      <c r="A79" s="95"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="8" t="s">
+      <c r="F82" s="70"/>
+    </row>
+    <row r="83" spans="1:6" ht="30" customHeight="1">
+      <c r="A83" s="98"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F79" s="59"/>
-    </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1">
-      <c r="A80" s="95"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="8" t="s">
+      <c r="F83" s="70"/>
+    </row>
+    <row r="84" spans="1:6" ht="15" customHeight="1">
+      <c r="A84" s="98"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F80" s="59"/>
-    </row>
-    <row r="81" spans="1:6" ht="15" customHeight="1">
-      <c r="A81" s="95"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="8" t="s">
+      <c r="F84" s="70"/>
+    </row>
+    <row r="85" spans="1:6" ht="15" customHeight="1">
+      <c r="A85" s="98"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F81" s="59"/>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A82" s="96"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="29" t="s">
+      <c r="F85" s="70"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A86" s="99"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E86" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F82" s="60"/>
-    </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1">
-      <c r="A83" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="B83" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C83" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D83" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E83" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F83" s="97" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="56"/>
-      <c r="B84" s="30"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="98"/>
-    </row>
-    <row r="85" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A85" s="57"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D85" s="16"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="99"/>
-    </row>
-    <row r="86" spans="1:6" ht="15" customHeight="1">
-      <c r="A86" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="B86" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E86" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F86" s="58" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A87" s="57"/>
-      <c r="B87" s="28"/>
-      <c r="C87" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="60"/>
-    </row>
-    <row r="88" spans="1:6" ht="15" customHeight="1">
-      <c r="A88" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="B88" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D88" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E88" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F88" s="109"/>
-    </row>
-    <row r="89" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A89" s="57"/>
-      <c r="B89" s="28"/>
-      <c r="C89" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="110"/>
-    </row>
-    <row r="90" spans="1:6" ht="45.75" customHeight="1">
-      <c r="A90" s="91" t="s">
-        <v>168</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="58" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A91" s="92"/>
-      <c r="B91" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="59"/>
-    </row>
-    <row r="92" spans="1:6" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A92" s="93"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="60"/>
-    </row>
-    <row r="93" spans="1:6" ht="58.5" customHeight="1">
-      <c r="A93" s="91" t="s">
-        <v>178</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="58" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="58.5" customHeight="1">
-      <c r="A94" s="92"/>
-      <c r="B94" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="59"/>
-    </row>
-    <row r="95" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A95" s="93"/>
-      <c r="B95" s="25"/>
-      <c r="C95" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="60"/>
-    </row>
-    <row r="96" spans="1:6" ht="30" customHeight="1">
-      <c r="A96" s="94" t="s">
-        <v>167</v>
-      </c>
-      <c r="B96" s="3"/>
-      <c r="C96" s="12" t="s">
+      <c r="F86" s="71"/>
+    </row>
+    <row r="87" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A87" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="58" t="s">
+      <c r="D87" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F87" s="69" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A88" s="79"/>
+      <c r="B88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F88" s="70"/>
+    </row>
+    <row r="89" spans="1:6" ht="30" customHeight="1">
+      <c r="A89" s="79"/>
+      <c r="B89" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F89" s="70"/>
+    </row>
+    <row r="90" spans="1:6" ht="30" customHeight="1">
+      <c r="A90" s="79"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="70"/>
+    </row>
+    <row r="91" spans="1:6" ht="15" customHeight="1">
+      <c r="A91" s="79"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F91" s="70"/>
+    </row>
+    <row r="92" spans="1:6" ht="15" customHeight="1">
+      <c r="A92" s="79"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F92" s="70"/>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A93" s="80"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F93" s="71"/>
+    </row>
+    <row r="94" spans="1:6" ht="30" customHeight="1">
+      <c r="A94" s="78" t="s">
+        <v>165</v>
+      </c>
+      <c r="B94" s="3"/>
+      <c r="C94" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="69" t="s">
         <v>76</v>
       </c>
     </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="79"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="70"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="79"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="70"/>
+    </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="95"/>
+      <c r="A97" s="79"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="59"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="95"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="59"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="95"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="59"/>
-    </row>
-    <row r="100" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A100" s="96"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4" t="s">
+      <c r="F97" s="70"/>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A98" s="80"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="60"/>
-    </row>
-    <row r="101" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A101" s="113" t="s">
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="71"/>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A99" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="B101" s="113"/>
-      <c r="C101" s="113"/>
-      <c r="D101" s="113"/>
-      <c r="E101" s="113"/>
-      <c r="F101" s="113"/>
-    </row>
-    <row r="102" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A102" s="111" t="s">
+      <c r="B99" s="81"/>
+      <c r="C99" s="81"/>
+      <c r="D99" s="81"/>
+      <c r="E99" s="81"/>
+      <c r="F99" s="81"/>
+    </row>
+    <row r="100" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A100" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="B102" s="3"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12" t="s">
+      <c r="B100" s="3"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12" t="s">
         <v>34</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F100" s="83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A101" s="63"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F101" s="84"/>
+    </row>
+    <row r="102" spans="1:6" ht="30" customHeight="1">
+      <c r="A102" s="63"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F102" s="109" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A103" s="112"/>
+      <c r="F102" s="84"/>
+    </row>
+    <row r="103" spans="1:6" ht="30" customHeight="1">
+      <c r="A103" s="63"/>
       <c r="B103" s="1"/>
-      <c r="C103" s="8"/>
+      <c r="C103" s="1"/>
       <c r="D103" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F103" s="115"/>
-    </row>
-    <row r="104" spans="1:6" ht="30" customHeight="1">
-      <c r="A104" s="112"/>
+        <v>13</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" s="84"/>
+    </row>
+    <row r="104" spans="1:6" ht="15" customHeight="1">
+      <c r="A104" s="63"/>
       <c r="B104" s="1"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F104" s="115"/>
-    </row>
-    <row r="105" spans="1:6" ht="30" customHeight="1">
-      <c r="A105" s="112"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F104" s="84"/>
+    </row>
+    <row r="105" spans="1:6" ht="15" customHeight="1">
+      <c r="A105" s="63"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="115"/>
+        <v>0</v>
+      </c>
+      <c r="F105" s="84"/>
     </row>
     <row r="106" spans="1:6" ht="15" customHeight="1">
-      <c r="A106" s="112"/>
+      <c r="A106" s="63"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F106" s="115"/>
+      <c r="F106" s="84"/>
     </row>
     <row r="107" spans="1:6" ht="15" customHeight="1">
-      <c r="A107" s="112"/>
+      <c r="A107" s="63"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
-      <c r="D107" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F107" s="115"/>
+      <c r="D107" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F107" s="84"/>
     </row>
     <row r="108" spans="1:6" ht="15" customHeight="1">
-      <c r="A108" s="112"/>
+      <c r="A108" s="63"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
-      <c r="D108" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F108" s="115"/>
+      <c r="D108" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F108" s="84"/>
     </row>
     <row r="109" spans="1:6" ht="15" customHeight="1">
-      <c r="A109" s="112"/>
+      <c r="A109" s="63"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F109" s="115"/>
+      <c r="F109" s="84"/>
     </row>
     <row r="110" spans="1:6" ht="15" customHeight="1">
-      <c r="A110" s="112"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F110" s="115"/>
+      <c r="A110" s="63"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E110" s="19"/>
+      <c r="F110" s="84"/>
     </row>
     <row r="111" spans="1:6" ht="15" customHeight="1">
-      <c r="A111" s="112"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F111" s="115"/>
+      <c r="A111" s="63"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E111" s="19"/>
+      <c r="F111" s="84"/>
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1">
-      <c r="A112" s="112"/>
+      <c r="A112" s="63"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="18" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E112" s="19"/>
-      <c r="F112" s="115"/>
-    </row>
-    <row r="113" spans="1:6" ht="15" customHeight="1">
-      <c r="A113" s="112"/>
+      <c r="F112" s="84"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="63"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="18" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E113" s="19"/>
-      <c r="F113" s="115"/>
-    </row>
-    <row r="114" spans="1:6" ht="15" customHeight="1">
-      <c r="A114" s="112"/>
+      <c r="F113" s="84"/>
+    </row>
+    <row r="114" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A114" s="82"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
-      <c r="D114" s="18" t="s">
-        <v>185</v>
-      </c>
+      <c r="D114" s="18"/>
       <c r="E114" s="19"/>
-      <c r="F114" s="115"/>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="112"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="E115" s="19"/>
-      <c r="F115" s="115"/>
-    </row>
-    <row r="116" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A116" s="114"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="19"/>
-      <c r="F116" s="110"/>
+      <c r="F114" s="85"/>
+    </row>
+    <row r="115" spans="1:6" ht="30" customHeight="1">
+      <c r="A115" s="86" t="s">
+        <v>211</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E115" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="F115" s="59" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="30" customHeight="1">
+      <c r="A116" s="87"/>
+      <c r="B116" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E116" s="65"/>
+      <c r="F116" s="60"/>
     </row>
     <row r="117" spans="1:6" ht="30" customHeight="1">
-      <c r="A117" s="116" t="s">
-        <v>215</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D117" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E117" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="F117" s="52" t="s">
-        <v>160</v>
-      </c>
+      <c r="A117" s="87"/>
+      <c r="B117" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="65"/>
+      <c r="F117" s="60"/>
     </row>
     <row r="118" spans="1:6" ht="30" customHeight="1">
-      <c r="A118" s="117"/>
+      <c r="A118" s="87"/>
       <c r="B118" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C118" s="1"/>
       <c r="D118" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E118" s="50"/>
-      <c r="F118" s="53"/>
-    </row>
-    <row r="119" spans="1:6" ht="30" customHeight="1">
-      <c r="A119" s="117"/>
+        <v>13</v>
+      </c>
+      <c r="E118" s="65"/>
+      <c r="F118" s="60"/>
+    </row>
+    <row r="119" spans="1:6" ht="15" customHeight="1">
+      <c r="A119" s="87"/>
       <c r="B119" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E119" s="50"/>
-      <c r="F119" s="53"/>
-    </row>
-    <row r="120" spans="1:6" ht="30" customHeight="1">
-      <c r="A120" s="117"/>
+        <v>23</v>
+      </c>
+      <c r="C119" s="1"/>
+      <c r="D119" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" s="65"/>
+      <c r="F119" s="60"/>
+    </row>
+    <row r="120" spans="1:6" ht="15" customHeight="1">
+      <c r="A120" s="87"/>
       <c r="B120" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" s="65"/>
+      <c r="F120" s="60"/>
+    </row>
+    <row r="121" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A121" s="87"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" s="66"/>
+      <c r="F121" s="61"/>
+    </row>
+    <row r="122" spans="1:6" ht="30" customHeight="1">
+      <c r="A122" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E122" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="F122" s="59" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="30" customHeight="1">
+      <c r="A123" s="63"/>
+      <c r="B123" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" s="65"/>
+      <c r="F123" s="60"/>
+    </row>
+    <row r="124" spans="1:6" ht="30" customHeight="1">
+      <c r="A124" s="63"/>
+      <c r="B124" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" s="65"/>
+      <c r="F124" s="60"/>
+    </row>
+    <row r="125" spans="1:6" ht="30" customHeight="1">
+      <c r="A125" s="63"/>
+      <c r="B125" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="D125" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E120" s="50"/>
-      <c r="F120" s="53"/>
-    </row>
-    <row r="121" spans="1:6" ht="15" customHeight="1">
-      <c r="A121" s="117"/>
-      <c r="B121" s="1" t="s">
+      <c r="E125" s="65"/>
+      <c r="F125" s="60"/>
+    </row>
+    <row r="126" spans="1:6" ht="15" customHeight="1">
+      <c r="A126" s="63"/>
+      <c r="B126" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C121" s="1"/>
-      <c r="D121" s="8" t="s">
+      <c r="C126" s="1"/>
+      <c r="D126" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E121" s="50"/>
-      <c r="F121" s="53"/>
-    </row>
-    <row r="122" spans="1:6" ht="15" customHeight="1">
-      <c r="A122" s="117"/>
-      <c r="B122" s="1" t="s">
+      <c r="E126" s="65"/>
+      <c r="F126" s="60"/>
+    </row>
+    <row r="127" spans="1:6" ht="15" customHeight="1">
+      <c r="A127" s="63"/>
+      <c r="B127" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C122" s="1"/>
-      <c r="D122" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E122" s="50"/>
-      <c r="F122" s="53"/>
-    </row>
-    <row r="123" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A123" s="117"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E123" s="51"/>
-      <c r="F123" s="54"/>
-    </row>
-    <row r="124" spans="1:6" ht="30" customHeight="1">
-      <c r="A124" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D124" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E124" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="F124" s="52" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="30" customHeight="1">
-      <c r="A125" s="112"/>
-      <c r="B125" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E125" s="50"/>
-      <c r="F125" s="53"/>
-    </row>
-    <row r="126" spans="1:6" ht="30" customHeight="1">
-      <c r="A126" s="112"/>
-      <c r="B126" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D126" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E126" s="50"/>
-      <c r="F126" s="53"/>
-    </row>
-    <row r="127" spans="1:6" ht="30" customHeight="1">
-      <c r="A127" s="112"/>
-      <c r="B127" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="65"/>
+      <c r="F127" s="60"/>
+    </row>
+    <row r="128" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A128" s="63"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" s="66"/>
+      <c r="F128" s="61"/>
+    </row>
+    <row r="129" spans="1:9" ht="30" customHeight="1">
+      <c r="A129" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E129" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="F129" s="59" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="30" customHeight="1">
+      <c r="A130" s="63"/>
+      <c r="B130" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E130" s="65"/>
+      <c r="F130" s="60"/>
+    </row>
+    <row r="131" spans="1:9" ht="30" customHeight="1">
+      <c r="A131" s="63"/>
+      <c r="B131" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E131" s="65"/>
+      <c r="F131" s="60"/>
+    </row>
+    <row r="132" spans="1:9" ht="30" customHeight="1">
+      <c r="A132" s="63"/>
+      <c r="B132" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C132" s="1"/>
+      <c r="D132" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E127" s="50"/>
-      <c r="F127" s="53"/>
-    </row>
-    <row r="128" spans="1:6" ht="15" customHeight="1">
-      <c r="A128" s="112"/>
-      <c r="B128" s="1" t="s">
+      <c r="E132" s="65"/>
+      <c r="F132" s="60"/>
+    </row>
+    <row r="133" spans="1:9" ht="15" customHeight="1">
+      <c r="A133" s="63"/>
+      <c r="B133" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C128" s="1"/>
-      <c r="D128" s="8" t="s">
+      <c r="C133" s="1"/>
+      <c r="D133" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E128" s="50"/>
-      <c r="F128" s="53"/>
-    </row>
-    <row r="129" spans="1:9" ht="15" customHeight="1">
-      <c r="A129" s="112"/>
-      <c r="B129" s="1" t="s">
+      <c r="E133" s="65"/>
+      <c r="F133" s="60"/>
+    </row>
+    <row r="134" spans="1:9" ht="15" customHeight="1">
+      <c r="A134" s="63"/>
+      <c r="B134" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C129" s="1"/>
-      <c r="D129" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E129" s="50"/>
-      <c r="F129" s="53"/>
-    </row>
-    <row r="130" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A130" s="112"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E130" s="51"/>
-      <c r="F130" s="54"/>
-    </row>
-    <row r="131" spans="1:9" ht="30" customHeight="1">
-      <c r="A131" s="111" t="s">
-        <v>192</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D131" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E131" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="F131" s="52" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="30" customHeight="1">
-      <c r="A132" s="112"/>
-      <c r="B132" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E132" s="50"/>
-      <c r="F132" s="53"/>
-    </row>
-    <row r="133" spans="1:9" ht="30" customHeight="1">
-      <c r="A133" s="112"/>
-      <c r="B133" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D133" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E133" s="50"/>
-      <c r="F133" s="53"/>
-    </row>
-    <row r="134" spans="1:9" ht="30" customHeight="1">
-      <c r="A134" s="112"/>
-      <c r="B134" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E134" s="50"/>
-      <c r="F134" s="53"/>
-    </row>
-    <row r="135" spans="1:9" ht="15" customHeight="1">
-      <c r="A135" s="112"/>
-      <c r="B135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" s="65"/>
+      <c r="F134" s="60"/>
+    </row>
+    <row r="135" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A135" s="63"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" s="66"/>
+      <c r="F135" s="61"/>
+    </row>
+    <row r="136" spans="1:9" ht="15" customHeight="1">
+      <c r="A136" s="90" t="s">
+        <v>184</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D136" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E136" s="64"/>
+      <c r="F136" s="59" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="91"/>
+      <c r="B137" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C135" s="1"/>
-      <c r="D135" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E135" s="50"/>
-      <c r="F135" s="53"/>
-    </row>
-    <row r="136" spans="1:9" ht="15" customHeight="1">
-      <c r="A136" s="112"/>
-      <c r="B136" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C136" s="1"/>
-      <c r="D136" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E136" s="50"/>
-      <c r="F136" s="53"/>
-    </row>
-    <row r="137" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A137" s="112"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E137" s="51"/>
-      <c r="F137" s="54"/>
-    </row>
-    <row r="138" spans="1:9" ht="15" customHeight="1">
-      <c r="A138" s="106" t="s">
-        <v>188</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>26</v>
+      <c r="C137" t="s">
+        <v>148</v>
+      </c>
+      <c r="D137" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E137" s="65"/>
+      <c r="F137" s="60"/>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="91"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="E138" s="49"/>
-      <c r="F138" s="52" t="s">
-        <v>183</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="E138" s="65"/>
+      <c r="F138" s="60"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="107"/>
-      <c r="B139" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C139" t="s">
-        <v>148</v>
+      <c r="A139" s="91"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="E139" s="50"/>
-      <c r="F139" s="53"/>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="107"/>
+        <v>180</v>
+      </c>
+      <c r="E139" s="65"/>
+      <c r="F139" s="60"/>
+    </row>
+    <row r="140" spans="1:9" ht="33.75" customHeight="1">
+      <c r="A140" s="91"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D140" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="E140" s="50"/>
-      <c r="F140" s="53"/>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="107"/>
+        <v>141</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="65"/>
+      <c r="F140" s="60"/>
+    </row>
+    <row r="141" spans="1:9" ht="33.75" customHeight="1">
+      <c r="A141" s="91"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D141" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="E141" s="50"/>
-      <c r="F141" s="53"/>
+        <v>142</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="65"/>
+      <c r="F141" s="60"/>
     </row>
     <row r="142" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A142" s="107"/>
+      <c r="A142" s="91"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D142" s="8"/>
-      <c r="E142" s="50"/>
-      <c r="F142" s="53"/>
+      <c r="E142" s="65"/>
+      <c r="F142" s="60"/>
+      <c r="I142" s="36"/>
     </row>
     <row r="143" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A143" s="107"/>
+      <c r="A143" s="91"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D143" s="8"/>
-      <c r="E143" s="50"/>
-      <c r="F143" s="53"/>
+      <c r="E143" s="65"/>
+      <c r="F143" s="60"/>
+      <c r="I143" s="36"/>
     </row>
     <row r="144" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A144" s="107"/>
+      <c r="A144" s="91"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D144" s="8"/>
-      <c r="E144" s="50"/>
-      <c r="F144" s="53"/>
+      <c r="E144" s="65"/>
+      <c r="F144" s="60"/>
       <c r="I144" s="36"/>
     </row>
     <row r="145" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A145" s="107"/>
+      <c r="A145" s="91"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D145" s="8"/>
-      <c r="E145" s="50"/>
-      <c r="F145" s="53"/>
+      <c r="E145" s="65"/>
+      <c r="F145" s="60"/>
       <c r="I145" s="36"/>
     </row>
     <row r="146" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A146" s="107"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D146" s="8"/>
-      <c r="E146" s="50"/>
-      <c r="F146" s="53"/>
+      <c r="A146" s="91"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D146" s="13"/>
+      <c r="E146" s="65"/>
+      <c r="F146" s="60"/>
       <c r="I146" s="36"/>
     </row>
-    <row r="147" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A147" s="107"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D147" s="8"/>
-      <c r="E147" s="50"/>
-      <c r="F147" s="53"/>
-      <c r="I147" s="36"/>
+    <row r="147" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A147" s="92"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D147" s="29"/>
+      <c r="E147" s="66"/>
+      <c r="F147" s="61"/>
     </row>
     <row r="148" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A148" s="107"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D148" s="13"/>
-      <c r="E148" s="50"/>
-      <c r="F148" s="53"/>
-      <c r="I148" s="36"/>
+      <c r="A148" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="B148" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C148" s="22"/>
+      <c r="D148" s="22"/>
+      <c r="E148" s="22"/>
+      <c r="F148" s="53" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="149" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A149" s="108"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D149" s="29"/>
-      <c r="E149" s="51"/>
-      <c r="F149" s="54"/>
+      <c r="A149" s="68"/>
+      <c r="B149" s="16"/>
+      <c r="C149" s="17"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="17"/>
+      <c r="F149" s="55"/>
     </row>
     <row r="150" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A150" s="121" t="s">
-        <v>51</v>
-      </c>
-      <c r="B150" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C150" s="22"/>
-      <c r="D150" s="22"/>
-      <c r="E150" s="22"/>
-      <c r="F150" s="72" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A151" s="122"/>
-      <c r="B151" s="16"/>
-      <c r="C151" s="17"/>
-      <c r="D151" s="17"/>
-      <c r="E151" s="17"/>
-      <c r="F151" s="74"/>
-    </row>
-    <row r="152" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A152" s="103" t="s">
+      <c r="A150" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="B152" s="15" t="s">
+      <c r="B150" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C152" s="14"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="14"/>
-      <c r="F152" s="72" t="s">
+      <c r="C150" s="14"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="14"/>
+      <c r="F150" s="53" t="s">
         <v>56</v>
       </c>
     </row>
+    <row r="151" spans="1:9" ht="33.75" customHeight="1">
+      <c r="A151" s="48"/>
+      <c r="B151" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C151" s="31"/>
+      <c r="D151" s="31"/>
+      <c r="E151" s="31"/>
+      <c r="F151" s="54"/>
+    </row>
+    <row r="152" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A152" s="49"/>
+      <c r="B152" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C152" s="19"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="19"/>
+      <c r="F152" s="55"/>
+    </row>
     <row r="153" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A153" s="104"/>
-      <c r="B153" s="21" t="s">
+      <c r="A153" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="69" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="33.75" customHeight="1">
+      <c r="A154" s="48"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="70"/>
+    </row>
+    <row r="155" spans="1:9" ht="33.75" customHeight="1">
+      <c r="A155" s="48"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="70"/>
+    </row>
+    <row r="156" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A156" s="49"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="71"/>
+    </row>
+    <row r="157" spans="1:9" ht="15" customHeight="1">
+      <c r="A157" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B157" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C157" s="14"/>
+      <c r="D157" s="14"/>
+      <c r="E157" s="14"/>
+      <c r="F157" s="53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="15" customHeight="1">
+      <c r="A158" s="48"/>
+      <c r="B158" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C153" s="31"/>
-      <c r="D153" s="31"/>
-      <c r="E153" s="31"/>
-      <c r="F153" s="73"/>
-    </row>
-    <row r="154" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A154" s="105"/>
-      <c r="B154" s="18" t="s">
+      <c r="C158" s="31"/>
+      <c r="D158" s="31"/>
+      <c r="E158" s="31"/>
+      <c r="F158" s="54"/>
+    </row>
+    <row r="159" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A159" s="49"/>
+      <c r="B159" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C154" s="19"/>
-      <c r="D154" s="19"/>
-      <c r="E154" s="19"/>
-      <c r="F154" s="74"/>
-    </row>
-    <row r="155" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A155" s="103" t="s">
-        <v>152</v>
-      </c>
-      <c r="B155" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
-      <c r="E155" s="3"/>
-      <c r="F155" s="58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A156" s="104"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="59"/>
-    </row>
-    <row r="157" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A157" s="104"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="59"/>
-    </row>
-    <row r="158" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A158" s="105"/>
-      <c r="B158" s="4"/>
-      <c r="C158" s="4"/>
-      <c r="D158" s="4"/>
-      <c r="E158" s="4"/>
-      <c r="F158" s="60"/>
-    </row>
-    <row r="159" spans="1:9" ht="15" customHeight="1">
-      <c r="A159" s="103" t="s">
-        <v>86</v>
-      </c>
-      <c r="B159" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C159" s="14"/>
-      <c r="D159" s="14"/>
-      <c r="E159" s="14"/>
-      <c r="F159" s="72" t="s">
-        <v>85</v>
-      </c>
+      <c r="C159" s="17"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="17"/>
+      <c r="F159" s="55"/>
     </row>
     <row r="160" spans="1:9" ht="15" customHeight="1">
-      <c r="A160" s="104"/>
-      <c r="B160" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C160" s="31"/>
-      <c r="D160" s="31"/>
-      <c r="E160" s="31"/>
-      <c r="F160" s="73"/>
-    </row>
-    <row r="161" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A161" s="105"/>
-      <c r="B161" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C161" s="17"/>
-      <c r="D161" s="17"/>
-      <c r="E161" s="17"/>
-      <c r="F161" s="74"/>
-    </row>
-    <row r="162" spans="1:6" ht="15" customHeight="1">
-      <c r="A162" s="103" t="s">
-        <v>174</v>
-      </c>
-      <c r="B162" s="15"/>
-      <c r="C162" s="14"/>
-      <c r="D162" s="14"/>
-      <c r="E162" s="14"/>
-      <c r="F162" s="72" t="s">
-        <v>175</v>
-      </c>
+      <c r="A160" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="B160" s="15"/>
+      <c r="C160" s="14"/>
+      <c r="D160" s="14"/>
+      <c r="E160" s="14"/>
+      <c r="F160" s="53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="15" customHeight="1">
+      <c r="A161" s="48"/>
+      <c r="B161" s="21"/>
+      <c r="C161" s="31"/>
+      <c r="D161" s="31"/>
+      <c r="E161" s="31"/>
+      <c r="F161" s="54"/>
+    </row>
+    <row r="162" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A162" s="49"/>
+      <c r="B162" s="16"/>
+      <c r="C162" s="17"/>
+      <c r="D162" s="17"/>
+      <c r="E162" s="17"/>
+      <c r="F162" s="55"/>
     </row>
     <row r="163" spans="1:6" ht="15" customHeight="1">
-      <c r="A163" s="104"/>
-      <c r="B163" s="21"/>
-      <c r="C163" s="31"/>
-      <c r="D163" s="31"/>
-      <c r="E163" s="31"/>
-      <c r="F163" s="73"/>
-    </row>
-    <row r="164" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A164" s="105"/>
-      <c r="B164" s="16"/>
-      <c r="C164" s="17"/>
-      <c r="D164" s="17"/>
-      <c r="E164" s="17"/>
-      <c r="F164" s="74"/>
-    </row>
-    <row r="165" spans="1:6" ht="15" customHeight="1">
-      <c r="A165" s="103" t="s">
-        <v>177</v>
-      </c>
-      <c r="B165" s="15"/>
-      <c r="C165" s="14"/>
-      <c r="D165" s="14"/>
-      <c r="E165" s="14"/>
-      <c r="F165" s="72" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="15" customHeight="1">
-      <c r="A166" s="104"/>
-      <c r="B166" s="21"/>
-      <c r="C166" s="31"/>
-      <c r="D166" s="31"/>
-      <c r="E166" s="31"/>
-      <c r="F166" s="73"/>
-    </row>
-    <row r="167" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A167" s="105"/>
-      <c r="B167" s="16"/>
-      <c r="C167" s="17"/>
-      <c r="D167" s="17"/>
-      <c r="E167" s="17"/>
-      <c r="F167" s="74"/>
-    </row>
-    <row r="168" spans="1:6" ht="63.75" customHeight="1">
-      <c r="A168" s="103" t="s">
-        <v>218</v>
-      </c>
-      <c r="B168" s="15"/>
-      <c r="C168" s="14"/>
-      <c r="D168" s="14"/>
-      <c r="E168" s="14"/>
-      <c r="F168" s="72" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="63.75" customHeight="1">
-      <c r="A169" s="104"/>
-      <c r="B169" s="21"/>
-      <c r="C169" s="31"/>
-      <c r="D169" s="31"/>
-      <c r="E169" s="31"/>
-      <c r="F169" s="73"/>
-    </row>
-    <row r="170" spans="1:6" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A170" s="105"/>
-      <c r="B170" s="16"/>
-      <c r="C170" s="17"/>
-      <c r="D170" s="17"/>
-      <c r="E170" s="17"/>
-      <c r="F170" s="74"/>
-    </row>
-    <row r="171" spans="1:6" ht="94.5" customHeight="1">
-      <c r="A171" s="103" t="s">
+      <c r="A163" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="B163" s="15"/>
+      <c r="C163" s="14"/>
+      <c r="D163" s="14"/>
+      <c r="E163" s="14"/>
+      <c r="F163" s="53" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="15" customHeight="1">
+      <c r="A164" s="48"/>
+      <c r="B164" s="21"/>
+      <c r="C164" s="31"/>
+      <c r="D164" s="31"/>
+      <c r="E164" s="31"/>
+      <c r="F164" s="54"/>
+    </row>
+    <row r="165" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A165" s="49"/>
+      <c r="B165" s="16"/>
+      <c r="C165" s="17"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="17"/>
+      <c r="F165" s="55"/>
+    </row>
+    <row r="166" spans="1:6" ht="63.75" customHeight="1">
+      <c r="A166" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="B171" s="15"/>
-      <c r="C171" s="14"/>
-      <c r="D171" s="14"/>
-      <c r="E171" s="14"/>
-      <c r="F171" s="123" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="94.5" customHeight="1">
-      <c r="A172" s="104"/>
-      <c r="B172" s="21"/>
-      <c r="C172" s="31"/>
-      <c r="D172" s="31"/>
-      <c r="E172" s="31"/>
-      <c r="F172" s="124"/>
-    </row>
-    <row r="173" spans="1:6" ht="94.5" customHeight="1" thickBot="1">
-      <c r="A173" s="105"/>
-      <c r="B173" s="16"/>
-      <c r="C173" s="17"/>
-      <c r="D173" s="17"/>
-      <c r="E173" s="17"/>
-      <c r="F173" s="125"/>
-    </row>
-    <row r="174" spans="1:6" ht="15" customHeight="1">
-      <c r="A174" s="118" t="s">
-        <v>200</v>
-      </c>
-      <c r="B174" s="40"/>
-      <c r="C174" s="37"/>
-      <c r="D174" s="43"/>
-      <c r="E174" s="37"/>
-      <c r="F174" s="72" t="s">
-        <v>207</v>
-      </c>
+      <c r="B166" s="15"/>
+      <c r="C166" s="14"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="14"/>
+      <c r="F166" s="53" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="63.75" customHeight="1">
+      <c r="A167" s="48"/>
+      <c r="B167" s="21"/>
+      <c r="C167" s="31"/>
+      <c r="D167" s="31"/>
+      <c r="E167" s="31"/>
+      <c r="F167" s="54"/>
+    </row>
+    <row r="168" spans="1:6" ht="63.75" customHeight="1" thickBot="1">
+      <c r="A168" s="49"/>
+      <c r="B168" s="16"/>
+      <c r="C168" s="17"/>
+      <c r="D168" s="17"/>
+      <c r="E168" s="17"/>
+      <c r="F168" s="55"/>
+    </row>
+    <row r="169" spans="1:6" ht="94.5" customHeight="1">
+      <c r="A169" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="B169" s="15"/>
+      <c r="C169" s="14"/>
+      <c r="D169" s="14"/>
+      <c r="E169" s="14"/>
+      <c r="F169" s="50" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="94.5" customHeight="1">
+      <c r="A170" s="48"/>
+      <c r="B170" s="21"/>
+      <c r="C170" s="31"/>
+      <c r="D170" s="31"/>
+      <c r="E170" s="31"/>
+      <c r="F170" s="51"/>
+    </row>
+    <row r="171" spans="1:6" ht="94.5" customHeight="1" thickBot="1">
+      <c r="A171" s="49"/>
+      <c r="B171" s="16"/>
+      <c r="C171" s="17"/>
+      <c r="D171" s="17"/>
+      <c r="E171" s="17"/>
+      <c r="F171" s="52"/>
+    </row>
+    <row r="172" spans="1:6" ht="15" customHeight="1">
+      <c r="A172" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="B172" s="40"/>
+      <c r="C172" s="37"/>
+      <c r="D172" s="43"/>
+      <c r="E172" s="37"/>
+      <c r="F172" s="53" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="56"/>
+      <c r="B173" s="41"/>
+      <c r="C173" s="38"/>
+      <c r="D173" s="44"/>
+      <c r="E173" s="38"/>
+      <c r="F173" s="54"/>
+    </row>
+    <row r="174" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A174" s="57"/>
+      <c r="B174" s="42"/>
+      <c r="C174" s="39"/>
+      <c r="D174" s="45"/>
+      <c r="E174" s="39"/>
+      <c r="F174" s="55"/>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="119"/>
-      <c r="B175" s="41"/>
-      <c r="C175" s="38"/>
-      <c r="D175" s="44"/>
-      <c r="E175" s="38"/>
-      <c r="F175" s="73"/>
-    </row>
-    <row r="176" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A176" s="120"/>
-      <c r="B176" s="42"/>
-      <c r="C176" s="39"/>
-      <c r="D176" s="45"/>
-      <c r="E176" s="39"/>
-      <c r="F176" s="74"/>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177" s="118" t="s">
-        <v>201</v>
-      </c>
-      <c r="B177" s="40"/>
-      <c r="C177" s="37"/>
-      <c r="D177" s="43"/>
-      <c r="E177" s="37"/>
-      <c r="F177" s="72" t="s">
-        <v>208</v>
-      </c>
+      <c r="A175" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="B175" s="40"/>
+      <c r="C175" s="37"/>
+      <c r="D175" s="43"/>
+      <c r="E175" s="37"/>
+      <c r="F175" s="53" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="56"/>
+      <c r="B176" s="41"/>
+      <c r="C176" s="38"/>
+      <c r="D176" s="44"/>
+      <c r="E176" s="38"/>
+      <c r="F176" s="54"/>
+    </row>
+    <row r="177" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A177" s="57"/>
+      <c r="B177" s="42"/>
+      <c r="C177" s="39"/>
+      <c r="D177" s="45"/>
+      <c r="E177" s="39"/>
+      <c r="F177" s="55"/>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="119"/>
+      <c r="A178" s="56" t="s">
+        <v>198</v>
+      </c>
       <c r="B178" s="41"/>
       <c r="C178" s="38"/>
       <c r="D178" s="44"/>
       <c r="E178" s="38"/>
-      <c r="F178" s="73"/>
-    </row>
-    <row r="179" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A179" s="120"/>
-      <c r="B179" s="42"/>
-      <c r="C179" s="39"/>
-      <c r="D179" s="45"/>
-      <c r="E179" s="39"/>
-      <c r="F179" s="74"/>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180" s="119" t="s">
-        <v>202</v>
-      </c>
+      <c r="F178" s="53" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="56"/>
+      <c r="B179" s="41"/>
+      <c r="C179" s="38"/>
+      <c r="D179" s="44"/>
+      <c r="E179" s="38"/>
+      <c r="F179" s="54"/>
+    </row>
+    <row r="180" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A180" s="56"/>
       <c r="B180" s="41"/>
       <c r="C180" s="38"/>
       <c r="D180" s="44"/>
       <c r="E180" s="38"/>
-      <c r="F180" s="72" t="s">
-        <v>209</v>
-      </c>
+      <c r="F180" s="55"/>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="119"/>
-      <c r="B181" s="41"/>
-      <c r="C181" s="38"/>
-      <c r="D181" s="44"/>
-      <c r="E181" s="38"/>
-      <c r="F181" s="73"/>
-    </row>
-    <row r="182" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A182" s="119"/>
+      <c r="A181" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="B181" s="40"/>
+      <c r="C181" s="37"/>
+      <c r="D181" s="43"/>
+      <c r="E181" s="37"/>
+      <c r="F181" s="53" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="56"/>
       <c r="B182" s="41"/>
       <c r="C182" s="38"/>
       <c r="D182" s="44"/>
       <c r="E182" s="38"/>
-      <c r="F182" s="74"/>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183" s="118" t="s">
-        <v>203</v>
-      </c>
-      <c r="B183" s="40"/>
-      <c r="C183" s="37"/>
-      <c r="D183" s="43"/>
-      <c r="E183" s="37"/>
-      <c r="F183" s="72" t="s">
-        <v>210</v>
-      </c>
+      <c r="F182" s="54"/>
+    </row>
+    <row r="183" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A183" s="57"/>
+      <c r="B183" s="42"/>
+      <c r="C183" s="39"/>
+      <c r="D183" s="45"/>
+      <c r="E183" s="39"/>
+      <c r="F183" s="55"/>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="119"/>
+      <c r="A184" s="56" t="s">
+        <v>200</v>
+      </c>
       <c r="B184" s="41"/>
       <c r="C184" s="38"/>
       <c r="D184" s="44"/>
       <c r="E184" s="38"/>
-      <c r="F184" s="73"/>
-    </row>
-    <row r="185" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A185" s="120"/>
-      <c r="B185" s="42"/>
-      <c r="C185" s="39"/>
-      <c r="D185" s="45"/>
-      <c r="E185" s="39"/>
-      <c r="F185" s="74"/>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186" s="119" t="s">
-        <v>204</v>
-      </c>
+      <c r="F184" s="53" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="56"/>
+      <c r="B185" s="41"/>
+      <c r="C185" s="38"/>
+      <c r="D185" s="44"/>
+      <c r="E185" s="38"/>
+      <c r="F185" s="54"/>
+    </row>
+    <row r="186" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A186" s="56"/>
       <c r="B186" s="41"/>
       <c r="C186" s="38"/>
       <c r="D186" s="44"/>
       <c r="E186" s="38"/>
-      <c r="F186" s="72" t="s">
-        <v>211</v>
-      </c>
+      <c r="F186" s="55"/>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="119"/>
-      <c r="B187" s="41"/>
-      <c r="C187" s="38"/>
-      <c r="D187" s="44"/>
-      <c r="E187" s="38"/>
-      <c r="F187" s="73"/>
-    </row>
-    <row r="188" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A188" s="119"/>
+      <c r="A187" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="B187" s="40"/>
+      <c r="C187" s="37"/>
+      <c r="D187" s="43"/>
+      <c r="E187" s="37"/>
+      <c r="F187" s="53" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="56"/>
       <c r="B188" s="41"/>
       <c r="C188" s="38"/>
       <c r="D188" s="44"/>
       <c r="E188" s="38"/>
-      <c r="F188" s="74"/>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189" s="118" t="s">
-        <v>205</v>
-      </c>
-      <c r="B189" s="40"/>
-      <c r="C189" s="37"/>
-      <c r="D189" s="43"/>
-      <c r="E189" s="37"/>
-      <c r="F189" s="72" t="s">
-        <v>212</v>
-      </c>
+      <c r="F188" s="54"/>
+    </row>
+    <row r="189" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A189" s="57"/>
+      <c r="B189" s="42"/>
+      <c r="C189" s="39"/>
+      <c r="D189" s="45"/>
+      <c r="E189" s="39"/>
+      <c r="F189" s="55"/>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="119"/>
+      <c r="A190" s="56" t="s">
+        <v>202</v>
+      </c>
       <c r="B190" s="41"/>
       <c r="C190" s="38"/>
       <c r="D190" s="44"/>
       <c r="E190" s="38"/>
-      <c r="F190" s="73"/>
-    </row>
-    <row r="191" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A191" s="120"/>
-      <c r="B191" s="42"/>
-      <c r="C191" s="39"/>
-      <c r="D191" s="45"/>
-      <c r="E191" s="39"/>
-      <c r="F191" s="74"/>
+      <c r="F190" s="50" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="56"/>
+      <c r="B191" s="41"/>
+      <c r="C191" s="38"/>
+      <c r="D191" s="44"/>
+      <c r="E191" s="38"/>
+      <c r="F191" s="51"/>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="119" t="s">
-        <v>206</v>
-      </c>
+      <c r="A192" s="56"/>
       <c r="B192" s="41"/>
       <c r="C192" s="38"/>
       <c r="D192" s="44"/>
       <c r="E192" s="38"/>
-      <c r="F192" s="123" t="s">
-        <v>213</v>
-      </c>
+      <c r="F192" s="51"/>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="119"/>
+      <c r="A193" s="56"/>
       <c r="B193" s="41"/>
       <c r="C193" s="38"/>
       <c r="D193" s="44"/>
       <c r="E193" s="38"/>
-      <c r="F193" s="124"/>
+      <c r="F193" s="51"/>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="119"/>
+      <c r="A194" s="56"/>
       <c r="B194" s="41"/>
       <c r="C194" s="38"/>
       <c r="D194" s="44"/>
       <c r="E194" s="38"/>
-      <c r="F194" s="124"/>
+      <c r="F194" s="51"/>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="119"/>
+      <c r="A195" s="56"/>
       <c r="B195" s="41"/>
       <c r="C195" s="38"/>
       <c r="D195" s="44"/>
       <c r="E195" s="38"/>
-      <c r="F195" s="124"/>
+      <c r="F195" s="51"/>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="119"/>
+      <c r="A196" s="56"/>
       <c r="B196" s="41"/>
       <c r="C196" s="38"/>
       <c r="D196" s="44"/>
       <c r="E196" s="38"/>
-      <c r="F196" s="124"/>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="A197" s="119"/>
-      <c r="B197" s="41"/>
-      <c r="C197" s="38"/>
-      <c r="D197" s="44"/>
-      <c r="E197" s="38"/>
-      <c r="F197" s="124"/>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198" s="119"/>
-      <c r="B198" s="41"/>
-      <c r="C198" s="38"/>
-      <c r="D198" s="44"/>
-      <c r="E198" s="38"/>
-      <c r="F198" s="124"/>
-    </row>
-    <row r="199" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A199" s="120"/>
-      <c r="B199" s="42"/>
-      <c r="C199" s="39"/>
-      <c r="D199" s="45"/>
-      <c r="E199" s="39"/>
-      <c r="F199" s="125"/>
+      <c r="F196" s="51"/>
+    </row>
+    <row r="197" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A197" s="57"/>
+      <c r="B197" s="42"/>
+      <c r="C197" s="39"/>
+      <c r="D197" s="45"/>
+      <c r="E197" s="39"/>
+      <c r="F197" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="95">
-    <mergeCell ref="A171:A173"/>
-    <mergeCell ref="F171:F173"/>
-    <mergeCell ref="A168:A170"/>
-    <mergeCell ref="F168:F170"/>
-    <mergeCell ref="A192:A199"/>
-    <mergeCell ref="F174:F176"/>
-    <mergeCell ref="F177:F179"/>
-    <mergeCell ref="F180:F182"/>
-    <mergeCell ref="F183:F185"/>
-    <mergeCell ref="F186:F188"/>
-    <mergeCell ref="F189:F191"/>
-    <mergeCell ref="F192:F199"/>
-    <mergeCell ref="A177:A179"/>
-    <mergeCell ref="A180:A182"/>
-    <mergeCell ref="A183:A185"/>
-    <mergeCell ref="A186:A188"/>
-    <mergeCell ref="A189:A191"/>
-    <mergeCell ref="F131:F137"/>
-    <mergeCell ref="A124:A130"/>
-    <mergeCell ref="E124:E130"/>
-    <mergeCell ref="F124:F130"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="A165:A167"/>
-    <mergeCell ref="F165:F167"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="F159:F161"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="A152:A154"/>
-    <mergeCell ref="F152:F154"/>
-    <mergeCell ref="A155:A158"/>
-    <mergeCell ref="F155:F158"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="F93:F95"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="A131:A137"/>
-    <mergeCell ref="E131:E137"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="F96:F100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="A102:A116"/>
-    <mergeCell ref="F102:F116"/>
-    <mergeCell ref="A117:A123"/>
-    <mergeCell ref="E117:E123"/>
-    <mergeCell ref="F117:F123"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="F162:F164"/>
-    <mergeCell ref="A138:A149"/>
-    <mergeCell ref="E138:E149"/>
-    <mergeCell ref="F138:F149"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="F76:F82"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="F69:F75"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="F14:F20"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="F21:F27"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C27"/>
+  <mergeCells count="93">
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A7:A13"/>
     <mergeCell ref="F7:F13"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="F3:F6"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="E28:E34"/>
-    <mergeCell ref="F28:F34"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="E35:E41"/>
-    <mergeCell ref="F35:F41"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="F14:F20"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="E25:E31"/>
+    <mergeCell ref="F25:F31"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="E32:E38"/>
+    <mergeCell ref="F32:F38"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="E39:E45"/>
+    <mergeCell ref="F39:F45"/>
     <mergeCell ref="A46:A53"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="E46:E53"/>
     <mergeCell ref="F46:F53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="F55:F59"/>
-    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="F80:F86"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="F69:F73"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A160:A162"/>
+    <mergeCell ref="F160:F162"/>
+    <mergeCell ref="A136:A147"/>
+    <mergeCell ref="E136:E147"/>
+    <mergeCell ref="F136:F147"/>
+    <mergeCell ref="A87:A93"/>
+    <mergeCell ref="F87:F93"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="A129:A135"/>
+    <mergeCell ref="E129:E135"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="F94:F98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="A100:A114"/>
+    <mergeCell ref="F100:F114"/>
+    <mergeCell ref="A115:A121"/>
+    <mergeCell ref="E115:E121"/>
+    <mergeCell ref="F115:F121"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="F129:F135"/>
+    <mergeCell ref="A122:A128"/>
+    <mergeCell ref="E122:E128"/>
+    <mergeCell ref="F122:F128"/>
+    <mergeCell ref="A172:A174"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="F163:F165"/>
+    <mergeCell ref="A157:A159"/>
+    <mergeCell ref="F157:F159"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="F148:F149"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="F150:F152"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="F153:F156"/>
+    <mergeCell ref="A169:A171"/>
+    <mergeCell ref="F169:F171"/>
+    <mergeCell ref="A166:A168"/>
+    <mergeCell ref="F166:F168"/>
+    <mergeCell ref="A190:A197"/>
+    <mergeCell ref="F172:F174"/>
+    <mergeCell ref="F175:F177"/>
+    <mergeCell ref="F178:F180"/>
+    <mergeCell ref="F181:F183"/>
+    <mergeCell ref="F184:F186"/>
+    <mergeCell ref="F187:F189"/>
+    <mergeCell ref="F190:F197"/>
+    <mergeCell ref="A175:A177"/>
+    <mergeCell ref="A178:A180"/>
+    <mergeCell ref="A181:A183"/>
+    <mergeCell ref="A184:A186"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4494,17 +4494,17 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="130" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4519,12 +4519,12 @@
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="59" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A4" s="130"/>
+      <c r="A4" s="131"/>
       <c r="B4" s="1" t="s">
         <v>95</v>
       </c>
@@ -4535,10 +4535,10 @@
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="53"/>
+      <c r="F4" s="60"/>
     </row>
     <row r="5" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A5" s="131"/>
+      <c r="A5" s="135"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="9" t="s">
@@ -4547,10 +4547,10 @@
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="53"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="6" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A6" s="131"/>
+      <c r="A6" s="135"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="8" t="s">
@@ -4559,10 +4559,10 @@
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="53"/>
+      <c r="F6" s="60"/>
     </row>
     <row r="7" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A7" s="131"/>
+      <c r="A7" s="135"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="8" t="s">
@@ -4571,10 +4571,10 @@
       <c r="E7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="53"/>
+      <c r="F7" s="60"/>
     </row>
     <row r="8" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A8" s="131"/>
+      <c r="A8" s="135"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8" t="s">
@@ -4583,10 +4583,10 @@
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="53"/>
+      <c r="F8" s="60"/>
     </row>
     <row r="9" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A9" s="131"/>
+      <c r="A9" s="135"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="13" t="s">
@@ -4595,10 +4595,10 @@
       <c r="E9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="53"/>
+      <c r="F9" s="60"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A10" s="129" t="s">
+      <c r="A10" s="130" t="s">
         <v>96</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -4613,12 +4613,12 @@
       <c r="E10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="59" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A11" s="130"/>
+      <c r="A11" s="131"/>
       <c r="B11" s="1" t="s">
         <v>95</v>
       </c>
@@ -4629,10 +4629,10 @@
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="53"/>
+      <c r="F11" s="60"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A12" s="131"/>
+      <c r="A12" s="135"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="9" t="s">
@@ -4641,10 +4641,10 @@
       <c r="E12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="53"/>
+      <c r="F12" s="60"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A13" s="131"/>
+      <c r="A13" s="135"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="8" t="s">
@@ -4653,10 +4653,10 @@
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="53"/>
+      <c r="F13" s="60"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A14" s="131"/>
+      <c r="A14" s="135"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="8" t="s">
@@ -4665,10 +4665,10 @@
       <c r="E14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="53"/>
+      <c r="F14" s="60"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A15" s="131"/>
+      <c r="A15" s="135"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="8" t="s">
@@ -4677,10 +4677,10 @@
       <c r="E15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="53"/>
+      <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A16" s="131"/>
+      <c r="A16" s="135"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="13" t="s">
@@ -4689,10 +4689,10 @@
       <c r="E16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="53"/>
+      <c r="F16" s="60"/>
     </row>
     <row r="17" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="130" t="s">
         <v>99</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -4707,12 +4707,12 @@
       <c r="E17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="52" t="s">
+      <c r="F17" s="59" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A18" s="130"/>
+      <c r="A18" s="131"/>
       <c r="B18" s="1" t="s">
         <v>95</v>
       </c>
@@ -4723,10 +4723,10 @@
       <c r="E18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="53"/>
+      <c r="F18" s="60"/>
     </row>
     <row r="19" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A19" s="131"/>
+      <c r="A19" s="135"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="9" t="s">
@@ -4735,10 +4735,10 @@
       <c r="E19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="53"/>
+      <c r="F19" s="60"/>
     </row>
     <row r="20" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A20" s="131"/>
+      <c r="A20" s="135"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="8" t="s">
@@ -4747,10 +4747,10 @@
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="53"/>
+      <c r="F20" s="60"/>
     </row>
     <row r="21" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A21" s="131"/>
+      <c r="A21" s="135"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="8" t="s">
@@ -4759,10 +4759,10 @@
       <c r="E21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="53"/>
+      <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A22" s="131"/>
+      <c r="A22" s="135"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="8" t="s">
@@ -4771,10 +4771,10 @@
       <c r="E22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="53"/>
+      <c r="F22" s="60"/>
     </row>
     <row r="23" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A23" s="131"/>
+      <c r="A23" s="135"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="13" t="s">
@@ -4783,10 +4783,10 @@
       <c r="E23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F23" s="53"/>
+      <c r="F23" s="60"/>
     </row>
     <row r="24" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A24" s="129" t="s">
+      <c r="A24" s="130" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -4798,15 +4798,15 @@
       <c r="D24" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="52" t="s">
+      <c r="F24" s="59" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A25" s="130"/>
+      <c r="A25" s="131"/>
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
@@ -4816,11 +4816,11 @@
       <c r="D25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="50"/>
-      <c r="F25" s="53"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="60"/>
     </row>
     <row r="26" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A26" s="130"/>
+      <c r="A26" s="131"/>
       <c r="B26" s="1" t="s">
         <v>20</v>
       </c>
@@ -4830,11 +4830,11 @@
       <c r="D26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="53"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="60"/>
     </row>
     <row r="27" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A27" s="130"/>
+      <c r="A27" s="131"/>
       <c r="B27" s="1" t="s">
         <v>21</v>
       </c>
@@ -4842,11 +4842,11 @@
       <c r="D27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="53"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="60"/>
     </row>
     <row r="28" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A28" s="130"/>
+      <c r="A28" s="131"/>
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
@@ -4854,11 +4854,11 @@
       <c r="D28" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="50"/>
-      <c r="F28" s="53"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A29" s="130"/>
+      <c r="A29" s="131"/>
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
@@ -4866,8 +4866,8 @@
       <c r="D29" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="50"/>
-      <c r="F29" s="53"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="60"/>
     </row>
     <row r="30" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
       <c r="A30" s="132"/>
@@ -4876,11 +4876,11 @@
       <c r="D30" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="54"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="61"/>
     </row>
     <row r="31" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A31" s="129" t="s">
+      <c r="A31" s="130" t="s">
         <v>147</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -4892,10 +4892,10 @@
       <c r="D31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="49" t="s">
+      <c r="E31" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="52" t="s">
+      <c r="F31" s="59" t="s">
         <v>134</v>
       </c>
       <c r="G31" t="s">
@@ -4906,7 +4906,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A32" s="130"/>
+      <c r="A32" s="131"/>
       <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
@@ -4916,14 +4916,14 @@
       <c r="D32" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="50"/>
-      <c r="F32" s="53"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="60"/>
       <c r="G32" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A33" s="130"/>
+      <c r="A33" s="131"/>
       <c r="B33" s="1" t="s">
         <v>20</v>
       </c>
@@ -4933,8 +4933,8 @@
       <c r="D33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="50"/>
-      <c r="F33" s="53"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="60"/>
       <c r="G33" t="s">
         <v>117</v>
       </c>
@@ -4943,7 +4943,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A34" s="130"/>
+      <c r="A34" s="131"/>
       <c r="B34" s="1" t="s">
         <v>21</v>
       </c>
@@ -4951,8 +4951,8 @@
       <c r="D34" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="50"/>
-      <c r="F34" s="53"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="60"/>
       <c r="G34" t="s">
         <v>118</v>
       </c>
@@ -4961,7 +4961,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A35" s="130"/>
+      <c r="A35" s="131"/>
       <c r="B35" s="1" t="s">
         <v>23</v>
       </c>
@@ -4969,8 +4969,8 @@
       <c r="D35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="50"/>
-      <c r="F35" s="53"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="60"/>
       <c r="G35" t="s">
         <v>119</v>
       </c>
@@ -4979,7 +4979,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A36" s="130"/>
+      <c r="A36" s="131"/>
       <c r="B36" s="1" t="s">
         <v>24</v>
       </c>
@@ -4987,8 +4987,8 @@
       <c r="D36" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="50"/>
-      <c r="F36" s="53"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="60"/>
       <c r="G36" t="s">
         <v>120</v>
       </c>
@@ -4997,14 +4997,14 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A37" s="131"/>
+      <c r="A37" s="135"/>
       <c r="B37" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="53"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="60"/>
       <c r="G37" t="s">
         <v>121</v>
       </c>
@@ -5016,14 +5016,14 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A38" s="131"/>
+      <c r="A38" s="135"/>
       <c r="B38" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="53"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="60"/>
       <c r="G38" t="s">
         <v>122</v>
       </c>
@@ -5035,14 +5035,14 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A39" s="131"/>
+      <c r="A39" s="135"/>
       <c r="B39" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="53"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="60"/>
       <c r="G39" t="s">
         <v>123</v>
       </c>
@@ -5062,14 +5062,14 @@
       <c r="D40" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="51"/>
-      <c r="F40" s="54"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="61"/>
       <c r="G40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A41" s="160" t="s">
+      <c r="A41" s="136" t="s">
         <v>69</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -5081,15 +5081,15 @@
       <c r="D41" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E41" s="49" t="s">
+      <c r="E41" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="53" t="s">
+      <c r="F41" s="60" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A42" s="161"/>
+      <c r="A42" s="137"/>
       <c r="B42" s="1" t="s">
         <v>70</v>
       </c>
@@ -5097,11 +5097,11 @@
       <c r="D42" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="50"/>
-      <c r="F42" s="53"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="60"/>
     </row>
     <row r="43" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A43" s="161"/>
+      <c r="A43" s="137"/>
       <c r="B43" s="1" t="s">
         <v>49</v>
       </c>
@@ -5109,83 +5109,83 @@
       <c r="D43" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="50"/>
-      <c r="F43" s="53"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="60"/>
     </row>
     <row r="44" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A44" s="161"/>
+      <c r="A44" s="137"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="50"/>
-      <c r="F44" s="53"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="60"/>
     </row>
     <row r="45" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A45" s="161"/>
+      <c r="A45" s="137"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="50"/>
-      <c r="F45" s="53"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="60"/>
     </row>
     <row r="46" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A46" s="161"/>
+      <c r="A46" s="137"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="50"/>
-      <c r="F46" s="53"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="60"/>
     </row>
     <row r="47" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A47" s="162"/>
+      <c r="A47" s="138"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="51"/>
-      <c r="F47" s="54"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="61"/>
     </row>
     <row r="48" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A48" s="129" t="s">
+      <c r="A48" s="130" t="s">
         <v>150</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="158" t="s">
+      <c r="C48" s="133" t="s">
         <v>45</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="69" t="s">
+      <c r="E48" s="123" t="s">
         <v>97</v>
       </c>
-      <c r="F48" s="72" t="s">
+      <c r="F48" s="53" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A49" s="130"/>
+      <c r="A49" s="131"/>
       <c r="B49" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="159"/>
+      <c r="C49" s="134"/>
       <c r="D49" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="70"/>
-      <c r="F49" s="73"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="54"/>
     </row>
     <row r="50" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A50" s="130"/>
+      <c r="A50" s="131"/>
       <c r="B50" s="5" t="s">
         <v>29</v>
       </c>
@@ -5195,11 +5195,11 @@
       <c r="D50" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="70"/>
-      <c r="F50" s="73"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="54"/>
     </row>
     <row r="51" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A51" s="130"/>
+      <c r="A51" s="131"/>
       <c r="B51" s="24" t="s">
         <v>30</v>
       </c>
@@ -5209,11 +5209,11 @@
       <c r="D51" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="70"/>
-      <c r="F51" s="73"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="54"/>
     </row>
     <row r="52" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A52" s="130"/>
+      <c r="A52" s="131"/>
       <c r="B52" s="24" t="s">
         <v>31</v>
       </c>
@@ -5223,11 +5223,11 @@
       <c r="D52" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="70"/>
-      <c r="F52" s="73"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="54"/>
     </row>
     <row r="53" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A53" s="130"/>
+      <c r="A53" s="131"/>
       <c r="B53" s="24" t="s">
         <v>32</v>
       </c>
@@ -5235,11 +5235,11 @@
       <c r="D53" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="70"/>
-      <c r="F53" s="73"/>
+      <c r="E53" s="124"/>
+      <c r="F53" s="54"/>
     </row>
     <row r="54" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A54" s="130"/>
+      <c r="A54" s="131"/>
       <c r="B54" s="24" t="s">
         <v>33</v>
       </c>
@@ -5247,29 +5247,29 @@
       <c r="D54" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="70"/>
-      <c r="F54" s="73"/>
+      <c r="E54" s="124"/>
+      <c r="F54" s="54"/>
     </row>
     <row r="55" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
       <c r="A55" s="132"/>
       <c r="B55" s="25"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="74"/>
+      <c r="E55" s="125"/>
+      <c r="F55" s="55"/>
     </row>
     <row r="56" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A56" s="75" t="s">
+      <c r="A56" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="B56" s="75"/>
-      <c r="C56" s="75"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="75"/>
+      <c r="B56" s="126"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="126"/>
+      <c r="E56" s="126"/>
+      <c r="F56" s="126"/>
     </row>
     <row r="57" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A57" s="126" t="s">
+      <c r="A57" s="141" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="12" t="s">
@@ -5280,10 +5280,10 @@
         <v>34</v>
       </c>
       <c r="E57" s="3"/>
-      <c r="F57" s="58"/>
+      <c r="F57" s="69"/>
     </row>
     <row r="58" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A58" s="127"/>
+      <c r="A58" s="142"/>
       <c r="B58" s="8" t="s">
         <v>15</v>
       </c>
@@ -5292,10 +5292,10 @@
         <v>15</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="59"/>
+      <c r="F58" s="70"/>
     </row>
     <row r="59" spans="1:6" ht="45.75" customHeight="1">
-      <c r="A59" s="133"/>
+      <c r="A59" s="150"/>
       <c r="B59" s="9" t="s">
         <v>10</v>
       </c>
@@ -5304,26 +5304,26 @@
         <v>10</v>
       </c>
       <c r="E59" s="2"/>
-      <c r="F59" s="59"/>
+      <c r="F59" s="70"/>
     </row>
     <row r="60" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A60" s="133"/>
+      <c r="A60" s="150"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="59"/>
+      <c r="F60" s="70"/>
     </row>
     <row r="61" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A61" s="128"/>
+      <c r="A61" s="143"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="60"/>
+      <c r="F61" s="71"/>
     </row>
     <row r="62" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A62" s="126" t="s">
+      <c r="A62" s="141" t="s">
         <v>12</v>
       </c>
       <c r="B62" s="3"/>
@@ -5334,26 +5334,26 @@
         <v>13</v>
       </c>
       <c r="E62" s="3"/>
-      <c r="F62" s="58"/>
+      <c r="F62" s="69"/>
     </row>
     <row r="63" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A63" s="127"/>
+      <c r="A63" s="142"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="59"/>
+      <c r="F63" s="70"/>
     </row>
     <row r="64" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A64" s="128"/>
+      <c r="A64" s="143"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="60"/>
+      <c r="F64" s="71"/>
     </row>
     <row r="65" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A65" s="126" t="s">
+      <c r="A65" s="141" t="s">
         <v>0</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -5364,10 +5364,10 @@
         <v>7</v>
       </c>
       <c r="E65" s="3"/>
-      <c r="F65" s="58"/>
+      <c r="F65" s="69"/>
     </row>
     <row r="66" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A66" s="127"/>
+      <c r="A66" s="142"/>
       <c r="B66" s="8" t="s">
         <v>8</v>
       </c>
@@ -5376,10 +5376,10 @@
         <v>8</v>
       </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="59"/>
+      <c r="F66" s="70"/>
     </row>
     <row r="67" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A67" s="128"/>
+      <c r="A67" s="143"/>
       <c r="B67" s="13" t="s">
         <v>9</v>
       </c>
@@ -5388,10 +5388,10 @@
         <v>9</v>
       </c>
       <c r="E67" s="4"/>
-      <c r="F67" s="60"/>
+      <c r="F67" s="71"/>
     </row>
     <row r="68" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A68" s="126" t="s">
+      <c r="A68" s="141" t="s">
         <v>42</v>
       </c>
       <c r="B68" s="9" t="s">
@@ -5402,10 +5402,10 @@
         <v>39</v>
       </c>
       <c r="E68" s="3"/>
-      <c r="F68" s="58"/>
+      <c r="F68" s="69"/>
     </row>
     <row r="69" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A69" s="127"/>
+      <c r="A69" s="142"/>
       <c r="B69" s="9" t="s">
         <v>40</v>
       </c>
@@ -5414,10 +5414,10 @@
         <v>40</v>
       </c>
       <c r="E69" s="1"/>
-      <c r="F69" s="59"/>
+      <c r="F69" s="70"/>
     </row>
     <row r="70" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A70" s="128"/>
+      <c r="A70" s="143"/>
       <c r="B70" s="9" t="s">
         <v>41</v>
       </c>
@@ -5426,10 +5426,10 @@
         <v>41</v>
       </c>
       <c r="E70" s="4"/>
-      <c r="F70" s="60"/>
+      <c r="F70" s="71"/>
     </row>
     <row r="71" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A71" s="94" t="s">
+      <c r="A71" s="78" t="s">
         <v>58</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -5444,12 +5444,12 @@
       <c r="E71" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F71" s="58" t="s">
+      <c r="F71" s="69" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A72" s="95"/>
+      <c r="A72" s="79"/>
       <c r="B72" s="1" t="s">
         <v>17</v>
       </c>
@@ -5462,10 +5462,10 @@
       <c r="E72" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F72" s="59"/>
+      <c r="F72" s="70"/>
     </row>
     <row r="73" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A73" s="95"/>
+      <c r="A73" s="79"/>
       <c r="B73" s="1" t="s">
         <v>18</v>
       </c>
@@ -5476,10 +5476,10 @@
       <c r="E73" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F73" s="59"/>
+      <c r="F73" s="70"/>
     </row>
     <row r="74" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A74" s="95"/>
+      <c r="A74" s="79"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="8" t="s">
@@ -5488,10 +5488,10 @@
       <c r="E74" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F74" s="59"/>
+      <c r="F74" s="70"/>
     </row>
     <row r="75" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A75" s="95"/>
+      <c r="A75" s="79"/>
       <c r="B75" s="7"/>
       <c r="C75" s="1"/>
       <c r="D75" s="8" t="s">
@@ -5500,10 +5500,10 @@
       <c r="E75" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F75" s="59"/>
+      <c r="F75" s="70"/>
     </row>
     <row r="76" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A76" s="95"/>
+      <c r="A76" s="79"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="8" t="s">
@@ -5512,10 +5512,10 @@
       <c r="E76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F76" s="59"/>
+      <c r="F76" s="70"/>
     </row>
     <row r="77" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A77" s="96"/>
+      <c r="A77" s="80"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="29" t="s">
@@ -5524,10 +5524,10 @@
       <c r="E77" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F77" s="60"/>
+      <c r="F77" s="71"/>
     </row>
     <row r="78" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A78" s="149" t="s">
+      <c r="A78" s="166" t="s">
         <v>66</v>
       </c>
       <c r="B78" s="26" t="s">
@@ -5542,30 +5542,30 @@
       <c r="E78" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="97" t="s">
+      <c r="F78" s="94" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A79" s="56"/>
+      <c r="A79" s="116"/>
       <c r="B79" s="30"/>
       <c r="C79" s="22"/>
       <c r="D79" s="21"/>
       <c r="E79" s="31"/>
-      <c r="F79" s="98"/>
+      <c r="F79" s="95"/>
     </row>
     <row r="80" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A80" s="128"/>
+      <c r="A80" s="143"/>
       <c r="B80" s="25"/>
       <c r="C80" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="17"/>
-      <c r="F80" s="99"/>
+      <c r="F80" s="96"/>
     </row>
     <row r="81" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A81" s="126" t="s">
+      <c r="A81" s="141" t="s">
         <v>112</v>
       </c>
       <c r="B81" s="27" t="s">
@@ -5580,22 +5580,22 @@
       <c r="E81" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F81" s="58" t="s">
+      <c r="F81" s="69" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A82" s="133"/>
+      <c r="A82" s="150"/>
       <c r="B82" s="28"/>
       <c r="C82" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="19"/>
-      <c r="F82" s="60"/>
+      <c r="F82" s="71"/>
     </row>
     <row r="83" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A83" s="126" t="s">
+      <c r="A83" s="141" t="s">
         <v>65</v>
       </c>
       <c r="B83" s="27" t="s">
@@ -5610,20 +5610,20 @@
       <c r="E83" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F83" s="150"/>
+      <c r="F83" s="147"/>
     </row>
     <row r="84" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A84" s="133"/>
+      <c r="A84" s="150"/>
       <c r="B84" s="28"/>
       <c r="C84" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="19"/>
-      <c r="F84" s="151"/>
+      <c r="F84" s="149"/>
     </row>
     <row r="85" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A85" s="55" t="s">
+      <c r="A85" s="115" t="s">
         <v>92</v>
       </c>
       <c r="B85" s="15" t="s">
@@ -5639,7 +5639,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A86" s="56"/>
+      <c r="A86" s="116"/>
       <c r="B86" s="9" t="s">
         <v>80</v>
       </c>
@@ -5649,7 +5649,7 @@
       <c r="F86" s="34"/>
     </row>
     <row r="87" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A87" s="57"/>
+      <c r="A87" s="117"/>
       <c r="B87" s="25" t="s">
         <v>91</v>
       </c>
@@ -5661,7 +5661,7 @@
       <c r="F87" s="35"/>
     </row>
     <row r="88" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A88" s="55" t="s">
+      <c r="A88" s="115" t="s">
         <v>107</v>
       </c>
       <c r="B88" s="15" t="s">
@@ -5672,32 +5672,32 @@
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="58" t="s">
+      <c r="F88" s="69" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A89" s="56"/>
+      <c r="A89" s="116"/>
       <c r="B89" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="59"/>
+      <c r="F89" s="70"/>
     </row>
     <row r="90" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A90" s="57"/>
+      <c r="A90" s="117"/>
       <c r="B90" s="25"/>
       <c r="C90" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
-      <c r="F90" s="60"/>
+      <c r="F90" s="71"/>
     </row>
     <row r="91" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A91" s="146" t="s">
+      <c r="A91" s="163" t="s">
         <v>71</v>
       </c>
       <c r="B91" s="3"/>
@@ -5706,62 +5706,62 @@
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="58" t="s">
+      <c r="F91" s="69" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A92" s="147"/>
+      <c r="A92" s="164"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="59"/>
+      <c r="F92" s="70"/>
     </row>
     <row r="93" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A93" s="147"/>
+      <c r="A93" s="164"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="59"/>
+      <c r="F93" s="70"/>
     </row>
     <row r="94" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A94" s="147"/>
+      <c r="A94" s="164"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="59"/>
+      <c r="F94" s="70"/>
     </row>
     <row r="95" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A95" s="148"/>
+      <c r="A95" s="165"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="60"/>
+      <c r="F95" s="71"/>
     </row>
     <row r="96" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A96" s="113" t="s">
+      <c r="A96" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="B96" s="113"/>
-      <c r="C96" s="113"/>
-      <c r="D96" s="113"/>
-      <c r="E96" s="113"/>
-      <c r="F96" s="113"/>
+      <c r="B96" s="81"/>
+      <c r="C96" s="81"/>
+      <c r="D96" s="81"/>
+      <c r="E96" s="81"/>
+      <c r="F96" s="81"/>
     </row>
     <row r="97" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A97" s="154" t="s">
+      <c r="A97" s="144" t="s">
         <v>50</v>
       </c>
       <c r="B97" s="3"/>
@@ -5772,12 +5772,12 @@
       <c r="E97" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F97" s="150" t="s">
+      <c r="F97" s="147" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A98" s="155"/>
+      <c r="A98" s="145"/>
       <c r="B98" s="1"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8" t="s">
@@ -5786,10 +5786,10 @@
       <c r="E98" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F98" s="157"/>
+      <c r="F98" s="148"/>
     </row>
     <row r="99" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A99" s="155"/>
+      <c r="A99" s="145"/>
       <c r="B99" s="1"/>
       <c r="C99" s="8"/>
       <c r="D99" s="9" t="s">
@@ -5798,10 +5798,10 @@
       <c r="E99" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F99" s="157"/>
+      <c r="F99" s="148"/>
     </row>
     <row r="100" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A100" s="155"/>
+      <c r="A100" s="145"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="8" t="s">
@@ -5810,10 +5810,10 @@
       <c r="E100" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="157"/>
+      <c r="F100" s="148"/>
     </row>
     <row r="101" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A101" s="155"/>
+      <c r="A101" s="145"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="8" t="s">
@@ -5822,10 +5822,10 @@
       <c r="E101" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F101" s="157"/>
+      <c r="F101" s="148"/>
     </row>
     <row r="102" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A102" s="155"/>
+      <c r="A102" s="145"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="8" t="s">
@@ -5834,10 +5834,10 @@
       <c r="E102" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F102" s="157"/>
+      <c r="F102" s="148"/>
     </row>
     <row r="103" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A103" s="155"/>
+      <c r="A103" s="145"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="8" t="s">
@@ -5846,10 +5846,10 @@
       <c r="E103" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F103" s="157"/>
+      <c r="F103" s="148"/>
     </row>
     <row r="104" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A104" s="155"/>
+      <c r="A104" s="145"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="9" t="s">
@@ -5858,10 +5858,10 @@
       <c r="E104" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F104" s="157"/>
+      <c r="F104" s="148"/>
     </row>
     <row r="105" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A105" s="155"/>
+      <c r="A105" s="145"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="9" t="s">
@@ -5870,10 +5870,10 @@
       <c r="E105" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F105" s="157"/>
+      <c r="F105" s="148"/>
     </row>
     <row r="106" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A106" s="155"/>
+      <c r="A106" s="145"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="9" t="s">
@@ -5882,26 +5882,26 @@
       <c r="E106" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F106" s="157"/>
+      <c r="F106" s="148"/>
     </row>
     <row r="107" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A107" s="156"/>
+      <c r="A107" s="146"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="18"/>
       <c r="E107" s="19"/>
-      <c r="F107" s="151"/>
+      <c r="F107" s="149"/>
     </row>
     <row r="108" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A108" s="156"/>
+      <c r="A108" s="146"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="18"/>
       <c r="E108" s="19"/>
-      <c r="F108" s="151"/>
+      <c r="F108" s="149"/>
     </row>
     <row r="109" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A109" s="137" t="s">
+      <c r="A109" s="154" t="s">
         <v>138</v>
       </c>
       <c r="B109" s="3" t="s">
@@ -5911,13 +5911,13 @@
         <v>26</v>
       </c>
       <c r="D109" s="12"/>
-      <c r="E109" s="140"/>
-      <c r="F109" s="143" t="s">
+      <c r="E109" s="157"/>
+      <c r="F109" s="160" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A110" s="138"/>
+      <c r="A110" s="155"/>
       <c r="B110" s="1" t="s">
         <v>131</v>
       </c>
@@ -5925,11 +5925,11 @@
         <v>148</v>
       </c>
       <c r="D110" s="8"/>
-      <c r="E110" s="141"/>
-      <c r="F110" s="144"/>
+      <c r="E110" s="158"/>
+      <c r="F110" s="161"/>
     </row>
     <row r="111" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A111" s="138"/>
+      <c r="A111" s="155"/>
       <c r="B111" s="1" t="s">
         <v>130</v>
       </c>
@@ -5937,11 +5937,11 @@
         <v>139</v>
       </c>
       <c r="D111" s="9"/>
-      <c r="E111" s="141"/>
-      <c r="F111" s="144"/>
+      <c r="E111" s="158"/>
+      <c r="F111" s="161"/>
     </row>
     <row r="112" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A112" s="138"/>
+      <c r="A112" s="155"/>
       <c r="B112" s="1" t="s">
         <v>129</v>
       </c>
@@ -5949,11 +5949,11 @@
         <v>140</v>
       </c>
       <c r="D112" s="8"/>
-      <c r="E112" s="141"/>
-      <c r="F112" s="144"/>
+      <c r="E112" s="158"/>
+      <c r="F112" s="161"/>
     </row>
     <row r="113" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A113" s="138"/>
+      <c r="A113" s="155"/>
       <c r="B113" s="1" t="s">
         <v>22</v>
       </c>
@@ -5961,11 +5961,11 @@
         <v>141</v>
       </c>
       <c r="D113" s="8"/>
-      <c r="E113" s="141"/>
-      <c r="F113" s="144"/>
+      <c r="E113" s="158"/>
+      <c r="F113" s="161"/>
     </row>
     <row r="114" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A114" s="138"/>
+      <c r="A114" s="155"/>
       <c r="B114" s="1" t="s">
         <v>23</v>
       </c>
@@ -5973,63 +5973,63 @@
         <v>142</v>
       </c>
       <c r="D114" s="8"/>
-      <c r="E114" s="141"/>
-      <c r="F114" s="144"/>
+      <c r="E114" s="158"/>
+      <c r="F114" s="161"/>
     </row>
     <row r="115" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A115" s="138"/>
+      <c r="A115" s="155"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D115" s="8"/>
-      <c r="E115" s="141"/>
-      <c r="F115" s="144"/>
+      <c r="E115" s="158"/>
+      <c r="F115" s="161"/>
       <c r="I115" s="36"/>
     </row>
     <row r="116" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A116" s="138"/>
+      <c r="A116" s="155"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D116" s="8"/>
-      <c r="E116" s="141"/>
-      <c r="F116" s="144"/>
+      <c r="E116" s="158"/>
+      <c r="F116" s="161"/>
       <c r="I116" s="36"/>
     </row>
     <row r="117" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A117" s="138"/>
+      <c r="A117" s="155"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D117" s="8"/>
-      <c r="E117" s="141"/>
-      <c r="F117" s="144"/>
+      <c r="E117" s="158"/>
+      <c r="F117" s="161"/>
       <c r="I117" s="36"/>
     </row>
     <row r="118" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A118" s="138"/>
+      <c r="A118" s="155"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D118" s="8"/>
-      <c r="E118" s="141"/>
-      <c r="F118" s="144"/>
+      <c r="E118" s="158"/>
+      <c r="F118" s="161"/>
       <c r="I118" s="36"/>
     </row>
     <row r="119" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A119" s="139"/>
+      <c r="A119" s="156"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="29"/>
-      <c r="E119" s="142"/>
-      <c r="F119" s="145"/>
+      <c r="E119" s="159"/>
+      <c r="F119" s="162"/>
     </row>
     <row r="120" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A120" s="152" t="s">
+      <c r="A120" s="139" t="s">
         <v>51</v>
       </c>
       <c r="B120" s="23" t="s">
@@ -6038,20 +6038,20 @@
       <c r="C120" s="22"/>
       <c r="D120" s="22"/>
       <c r="E120" s="22"/>
-      <c r="F120" s="73" t="s">
+      <c r="F120" s="54" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A121" s="153"/>
+      <c r="A121" s="140"/>
       <c r="B121" s="16"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17"/>
       <c r="E121" s="17"/>
-      <c r="F121" s="74"/>
+      <c r="F121" s="55"/>
     </row>
     <row r="122" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A122" s="103" t="s">
+      <c r="A122" s="47" t="s">
         <v>52</v>
       </c>
       <c r="B122" s="15" t="s">
@@ -6060,32 +6060,32 @@
       <c r="C122" s="14"/>
       <c r="D122" s="14"/>
       <c r="E122" s="14"/>
-      <c r="F122" s="72" t="s">
+      <c r="F122" s="53" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A123" s="104"/>
+      <c r="A123" s="48"/>
       <c r="B123" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C123" s="31"/>
       <c r="D123" s="31"/>
       <c r="E123" s="31"/>
-      <c r="F123" s="73"/>
+      <c r="F123" s="54"/>
     </row>
     <row r="124" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A124" s="104"/>
+      <c r="A124" s="48"/>
       <c r="B124" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C124" s="19"/>
       <c r="D124" s="19"/>
       <c r="E124" s="19"/>
-      <c r="F124" s="73"/>
+      <c r="F124" s="54"/>
     </row>
     <row r="125" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A125" s="134" t="s">
+      <c r="A125" s="151" t="s">
         <v>81</v>
       </c>
       <c r="B125" s="15" t="s">
@@ -6094,36 +6094,36 @@
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
-      <c r="F125" s="58" t="s">
+      <c r="F125" s="69" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A126" s="135"/>
+      <c r="A126" s="152"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="59"/>
+      <c r="F126" s="70"/>
     </row>
     <row r="127" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A127" s="135"/>
+      <c r="A127" s="152"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="59"/>
+      <c r="F127" s="70"/>
     </row>
     <row r="128" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A128" s="136"/>
+      <c r="A128" s="153"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
-      <c r="F128" s="60"/>
+      <c r="F128" s="71"/>
     </row>
     <row r="129" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A129" s="103" t="s">
+      <c r="A129" s="47" t="s">
         <v>86</v>
       </c>
       <c r="B129" s="15" t="s">
@@ -6132,32 +6132,72 @@
       <c r="C129" s="14"/>
       <c r="D129" s="14"/>
       <c r="E129" s="14"/>
-      <c r="F129" s="72" t="s">
+      <c r="F129" s="53" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A130" s="104"/>
+      <c r="A130" s="48"/>
       <c r="B130" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C130" s="31"/>
       <c r="D130" s="31"/>
       <c r="E130" s="31"/>
-      <c r="F130" s="73"/>
+      <c r="F130" s="54"/>
     </row>
     <row r="131" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A131" s="105"/>
+      <c r="A131" s="49"/>
       <c r="B131" s="16" t="s">
         <v>84</v>
       </c>
       <c r="C131" s="17"/>
       <c r="D131" s="17"/>
       <c r="E131" s="17"/>
-      <c r="F131" s="74"/>
+      <c r="F131" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="F17:F23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="E24:E30"/>
+    <mergeCell ref="F24:F30"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="E31:E40"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="E48:E55"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="F129:F131"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A125:A128"/>
+    <mergeCell ref="F125:F128"/>
+    <mergeCell ref="A109:A119"/>
+    <mergeCell ref="E109:E119"/>
+    <mergeCell ref="F109:F119"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="F91:F95"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A124"/>
+    <mergeCell ref="F122:F124"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="A97:A108"/>
+    <mergeCell ref="F97:F108"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F71:F77"/>
+    <mergeCell ref="A71:A77"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A96:F96"/>
     <mergeCell ref="F57:F61"/>
@@ -6174,46 +6214,6 @@
     <mergeCell ref="A31:A40"/>
     <mergeCell ref="A41:A47"/>
     <mergeCell ref="F41:F47"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A122:A124"/>
-    <mergeCell ref="F122:F124"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="A97:A108"/>
-    <mergeCell ref="F97:F108"/>
-    <mergeCell ref="F88:F90"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="F71:F77"/>
-    <mergeCell ref="A71:A77"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="F129:F131"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A125:A128"/>
-    <mergeCell ref="F125:F128"/>
-    <mergeCell ref="A109:A119"/>
-    <mergeCell ref="E109:E119"/>
-    <mergeCell ref="F109:F119"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="F91:F95"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="F17:F23"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="E24:E30"/>
-    <mergeCell ref="F24:F30"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="E31:E40"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="E48:E55"/>
-    <mergeCell ref="A62:A64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6265,10 +6265,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6288,124 +6288,129 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B3" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="31" t="s">
-        <v>198</v>
+      <c r="A4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="31" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>148</v>
       </c>
-      <c r="B7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="B8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="5" t="s">
-        <v>194</v>
-      </c>
       <c r="B16" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="163" t="s">
-        <v>221</v>
-      </c>
-    </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="163" t="s">
-        <v>222</v>
+      <c r="A22" s="46" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="46" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/description.xlsx
+++ b/description.xlsx
@@ -505,13 +505,6 @@
     <t>Задает сварочные параметры</t>
   </si>
   <si>
-    <t>Производить сварку витка эллписа полуенного проецированием цилиндра диаметром D ось которого совпадает с осью Z Pr[10], на плоскость XY PR[9]
-turn =- 1 в минус 
-turn =1 в плюс
-wave=0 -без колебаний
-wave=1 -с колебаниями согласно последних заданных</t>
-  </si>
-  <si>
     <t>MSED( mem, start,end,dynamic).MR</t>
   </si>
   <si>
@@ -768,12 +761,19 @@
       <t>ось X нового фрейма параллельна  плоскости XZ  PR[10]. начало нового фрейма находится на пересечении новой оси Z и плоскости XY Pr[10]</t>
     </r>
   </si>
+  <si>
+    <t>Производить сварку витка эллписа полуенного проецированием цилиндра диаметром D ось которого совпадает с осью Z Pr[10], на плоскость XY PR[9]
+turn =0 в минус 
+turn =1 в плюс
+wave=0 -без колебаний
+wave=1 -с колебаниями согласно последних заданных</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -785,15 +785,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1260,7 +1251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1338,6 +1329,168 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1347,6 +1500,69 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1356,235 +1572,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1593,18 +1587,93 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1613,90 +1682,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2000,8 +1985,8 @@
   <dimension ref="A1:I197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62:A64"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2037,54 +2022,54 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="1:6" ht="21" customHeight="1">
-      <c r="A3" s="109" t="s">
-        <v>162</v>
+      <c r="A3" s="54" t="s">
+        <v>161</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="12"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="112" t="s">
+      <c r="F3" s="57" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1">
-      <c r="A4" s="110"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="8"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="113"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1">
-      <c r="A5" s="110"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="8"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="113"/>
+      <c r="F5" s="58"/>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" thickBot="1">
-      <c r="A6" s="111"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="9"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="114"/>
+      <c r="F6" s="59"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1">
-      <c r="A7" s="72" t="s">
-        <v>213</v>
+      <c r="A7" s="49" t="s">
+        <v>212</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
@@ -2096,12 +2081,12 @@
       <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="52" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1">
-      <c r="A8" s="73"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="1" t="s">
         <v>95</v>
       </c>
@@ -2112,12 +2097,12 @@
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="60"/>
+      <c r="F8" s="52"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1">
-      <c r="A9" s="73"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="9" t="s">
@@ -2126,10 +2111,10 @@
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="60"/>
+      <c r="F9" s="52"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1">
-      <c r="A10" s="73"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="8" t="s">
@@ -2138,10 +2123,10 @@
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="60"/>
+      <c r="F10" s="52"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="73"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="8" t="s">
@@ -2150,10 +2135,10 @@
       <c r="E11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="60"/>
+      <c r="F11" s="52"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="73"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="8" t="s">
@@ -2162,10 +2147,10 @@
       <c r="E12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="60"/>
+      <c r="F12" s="52"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="74"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="13" t="s">
@@ -2174,11 +2159,11 @@
       <c r="E13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="61"/>
+      <c r="F13" s="53"/>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1">
-      <c r="A14" s="72" t="s">
-        <v>212</v>
+      <c r="A14" s="49" t="s">
+        <v>211</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
@@ -2190,12 +2175,12 @@
       <c r="E14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="60" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1">
-      <c r="A15" s="73"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="1" t="s">
         <v>95</v>
       </c>
@@ -2206,12 +2191,12 @@
       <c r="E15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="60"/>
+      <c r="F15" s="52"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1">
-      <c r="A16" s="73"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="9" t="s">
@@ -2220,10 +2205,10 @@
       <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="60"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1">
-      <c r="A17" s="73"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="8" t="s">
@@ -2232,10 +2217,10 @@
       <c r="E17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="60"/>
+      <c r="F17" s="52"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
-      <c r="A18" s="73"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="8" t="s">
@@ -2244,10 +2229,10 @@
       <c r="E18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="60"/>
+      <c r="F18" s="52"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1">
-      <c r="A19" s="73"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="8" t="s">
@@ -2256,10 +2241,10 @@
       <c r="E19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="60"/>
+      <c r="F19" s="52"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A20" s="74"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="13" t="s">
@@ -2268,65 +2253,65 @@
       <c r="E20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="61"/>
+      <c r="F20" s="53"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1">
-      <c r="A21" s="88" t="s">
-        <v>177</v>
+      <c r="A21" s="71" t="s">
+        <v>176</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E21" s="64"/>
-      <c r="F21" s="59" t="s">
-        <v>178</v>
+        <v>182</v>
+      </c>
+      <c r="E21" s="61"/>
+      <c r="F21" s="60" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="93"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E22" s="65"/>
-      <c r="F22" s="60"/>
+        <v>181</v>
+      </c>
+      <c r="E22" s="62"/>
+      <c r="F22" s="52"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="93"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="E23" s="65"/>
-      <c r="F23" s="60"/>
+        <v>180</v>
+      </c>
+      <c r="E23" s="62"/>
+      <c r="F23" s="52"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A24" s="93"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="E24" s="65"/>
-      <c r="F24" s="60"/>
+        <v>179</v>
+      </c>
+      <c r="E24" s="62"/>
+      <c r="F24" s="52"/>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1">
-      <c r="A25" s="72" t="s">
-        <v>163</v>
+      <c r="A25" s="49" t="s">
+        <v>162</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>25</v>
@@ -2334,17 +2319,17 @@
       <c r="D25" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="64" t="s">
+      <c r="E25" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="100" t="s">
-        <v>161</v>
+      <c r="F25" s="64" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1">
-      <c r="A26" s="73"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>26</v>
@@ -2352,79 +2337,79 @@
       <c r="D26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="65"/>
-      <c r="F26" s="101"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="65"/>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1">
-      <c r="A27" s="73"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C27" s="103" t="s">
+        <v>220</v>
+      </c>
+      <c r="C27" s="67" t="s">
         <v>156</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="101"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="65"/>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1">
-      <c r="A28" s="73"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C28" s="104"/>
+        <v>221</v>
+      </c>
+      <c r="C28" s="68"/>
       <c r="D28" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="101"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="65"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1">
-      <c r="A29" s="73"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C29" s="103" t="s">
+        <v>222</v>
+      </c>
+      <c r="C29" s="67" t="s">
         <v>155</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="65"/>
-      <c r="F29" s="101"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="65"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1">
-      <c r="A30" s="73"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="105"/>
+      <c r="C30" s="69"/>
       <c r="D30" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="101"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="65"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A31" s="74"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C31" s="106"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="66"/>
-      <c r="F31" s="102"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="66"/>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="49" t="s">
         <v>159</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>25</v>
@@ -2432,17 +2417,17 @@
       <c r="D32" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="64" t="s">
+      <c r="E32" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="59" t="s">
+      <c r="F32" s="60" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1">
-      <c r="A33" s="73"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>26</v>
@@ -2450,13 +2435,13 @@
       <c r="D33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="65"/>
-      <c r="F33" s="60"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="52"/>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1">
-      <c r="A34" s="73"/>
+      <c r="A34" s="50"/>
       <c r="B34" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>45</v>
@@ -2464,35 +2449,35 @@
       <c r="D34" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="65"/>
-      <c r="F34" s="60"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="52"/>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1">
-      <c r="A35" s="73"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="65"/>
-      <c r="F35" s="60"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="52"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1">
-      <c r="A36" s="73"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="65"/>
-      <c r="F36" s="60"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="52"/>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1">
-      <c r="A37" s="73"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="1" t="s">
         <v>24</v>
       </c>
@@ -2500,11 +2485,11 @@
       <c r="D37" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="65"/>
-      <c r="F37" s="60"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="52"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A38" s="74"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="4" t="s">
         <v>157</v>
       </c>
@@ -2512,12 +2497,12 @@
       <c r="D38" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="66"/>
-      <c r="F38" s="61"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="53"/>
     </row>
     <row r="39" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A39" s="118" t="s">
-        <v>176</v>
+      <c r="A39" s="75" t="s">
+        <v>175</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>48</v>
@@ -2528,15 +2513,15 @@
       <c r="D39" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="64" t="s">
+      <c r="E39" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="59" t="s">
+      <c r="F39" s="60" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A40" s="119"/>
+      <c r="A40" s="76"/>
       <c r="B40" s="1" t="s">
         <v>70</v>
       </c>
@@ -2544,11 +2529,11 @@
       <c r="D40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="65"/>
-      <c r="F40" s="60"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="52"/>
     </row>
     <row r="41" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A41" s="119"/>
+      <c r="A41" s="76"/>
       <c r="B41" s="1" t="s">
         <v>49</v>
       </c>
@@ -2556,83 +2541,83 @@
       <c r="D41" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="65"/>
-      <c r="F41" s="60"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="52"/>
     </row>
     <row r="42" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A42" s="119"/>
+      <c r="A42" s="76"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="65"/>
-      <c r="F42" s="60"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="52"/>
     </row>
     <row r="43" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A43" s="119"/>
+      <c r="A43" s="76"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="65"/>
-      <c r="F43" s="60"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="52"/>
     </row>
     <row r="44" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A44" s="119"/>
+      <c r="A44" s="76"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="65"/>
-      <c r="F44" s="60"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="52"/>
     </row>
     <row r="45" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A45" s="120"/>
+      <c r="A45" s="77"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="66"/>
-      <c r="F45" s="61"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="53"/>
     </row>
     <row r="46" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A46" s="88" t="s">
-        <v>225</v>
+      <c r="A46" s="71" t="s">
+        <v>224</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="121" t="s">
+      <c r="C46" s="79" t="s">
         <v>45</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="123" t="s">
+      <c r="E46" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="53" t="s">
+      <c r="F46" s="84" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1">
-      <c r="A47" s="93"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C47" s="122"/>
+        <v>225</v>
+      </c>
+      <c r="C47" s="80"/>
       <c r="D47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="124"/>
-      <c r="F47" s="54"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="85"/>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1">
-      <c r="A48" s="93"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="5" t="s">
         <v>29</v>
       </c>
@@ -2642,11 +2627,11 @@
       <c r="D48" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="124"/>
-      <c r="F48" s="54"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="85"/>
     </row>
     <row r="49" spans="1:6" ht="30" customHeight="1">
-      <c r="A49" s="93"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="24" t="s">
         <v>30</v>
       </c>
@@ -2656,11 +2641,11 @@
       <c r="D49" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="124"/>
-      <c r="F49" s="54"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="85"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1">
-      <c r="A50" s="93"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="24" t="s">
         <v>31</v>
       </c>
@@ -2670,11 +2655,11 @@
       <c r="D50" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="124"/>
-      <c r="F50" s="54"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="85"/>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1">
-      <c r="A51" s="93"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="24" t="s">
         <v>32</v>
       </c>
@@ -2682,11 +2667,11 @@
       <c r="D51" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="124"/>
-      <c r="F51" s="54"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="85"/>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1">
-      <c r="A52" s="93"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="24" t="s">
         <v>33</v>
       </c>
@@ -2694,19 +2679,19 @@
       <c r="D52" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="124"/>
-      <c r="F52" s="54"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="85"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A53" s="89"/>
+      <c r="A53" s="78"/>
       <c r="B53" s="25"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
-      <c r="E53" s="125"/>
-      <c r="F53" s="55"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="86"/>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1">
-      <c r="A54" s="88" t="s">
+      <c r="A54" s="71" t="s">
         <v>42</v>
       </c>
       <c r="B54" s="9" t="s">
@@ -2717,10 +2702,10 @@
         <v>39</v>
       </c>
       <c r="E54" s="3"/>
-      <c r="F54" s="69"/>
+      <c r="F54" s="73"/>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1">
-      <c r="A55" s="93"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="9" t="s">
         <v>40</v>
       </c>
@@ -2729,10 +2714,10 @@
         <v>40</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="70"/>
+      <c r="F55" s="74"/>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A56" s="93"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="18" t="s">
         <v>41</v>
       </c>
@@ -2741,10 +2726,10 @@
         <v>41</v>
       </c>
       <c r="E56" s="2"/>
-      <c r="F56" s="70"/>
+      <c r="F56" s="74"/>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1">
-      <c r="A57" s="88" t="s">
+      <c r="A57" s="71" t="s">
         <v>66</v>
       </c>
       <c r="B57" s="27" t="s">
@@ -2759,30 +2744,30 @@
       <c r="E57" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F57" s="94" t="s">
+      <c r="F57" s="87" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="93"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="30"/>
       <c r="C58" s="22"/>
       <c r="D58" s="21"/>
       <c r="E58" s="31"/>
-      <c r="F58" s="95"/>
+      <c r="F58" s="88"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A59" s="89"/>
+      <c r="A59" s="78"/>
       <c r="B59" s="25"/>
       <c r="C59" s="17" t="s">
         <v>67</v>
       </c>
       <c r="D59" s="16"/>
       <c r="E59" s="17"/>
-      <c r="F59" s="96"/>
+      <c r="F59" s="89"/>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1">
-      <c r="A60" s="88" t="s">
+      <c r="A60" s="71" t="s">
         <v>112</v>
       </c>
       <c r="B60" s="27" t="s">
@@ -2797,59 +2782,59 @@
       <c r="E60" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F60" s="69" t="s">
+      <c r="F60" s="73" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A61" s="89"/>
+      <c r="A61" s="78"/>
       <c r="B61" s="28"/>
       <c r="C61" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="19"/>
-      <c r="F61" s="71"/>
+      <c r="F61" s="93"/>
     </row>
     <row r="62" spans="1:6" ht="58.5" customHeight="1">
-      <c r="A62" s="72" t="s">
-        <v>174</v>
+      <c r="A62" s="49" t="s">
+        <v>173</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="75" t="s">
-        <v>229</v>
+      <c r="F62" s="110" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="58.5" customHeight="1">
-      <c r="A63" s="73"/>
+      <c r="A63" s="50"/>
       <c r="B63" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="76"/>
+      <c r="F63" s="111"/>
     </row>
     <row r="64" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A64" s="74"/>
+      <c r="A64" s="51"/>
       <c r="B64" s="25"/>
       <c r="C64" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="77"/>
+      <c r="F64" s="112"/>
     </row>
     <row r="65" spans="1:6" ht="45.75" customHeight="1">
-      <c r="A65" s="72" t="s">
-        <v>166</v>
+      <c r="A65" s="49" t="s">
+        <v>165</v>
       </c>
       <c r="B65" s="15" t="s">
         <v>79</v>
@@ -2859,44 +2844,44 @@
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="75" t="s">
-        <v>231</v>
+      <c r="F65" s="110" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A66" s="73"/>
+      <c r="A66" s="50"/>
       <c r="B66" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="76"/>
+      <c r="F66" s="111"/>
     </row>
     <row r="67" spans="1:6" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A67" s="74"/>
+      <c r="A67" s="51"/>
       <c r="B67" s="25"/>
       <c r="C67" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="77"/>
+      <c r="F67" s="112"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A68" s="126" t="s">
+      <c r="A68" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="B68" s="126"/>
-      <c r="C68" s="126"/>
-      <c r="D68" s="126"/>
-      <c r="E68" s="126"/>
-      <c r="F68" s="126"/>
+      <c r="B68" s="97"/>
+      <c r="C68" s="97"/>
+      <c r="D68" s="97"/>
+      <c r="E68" s="97"/>
+      <c r="F68" s="97"/>
     </row>
     <row r="69" spans="1:6" ht="30" customHeight="1">
-      <c r="A69" s="115" t="s">
+      <c r="A69" s="94" t="s">
         <v>62</v>
       </c>
       <c r="B69" s="12" t="s">
@@ -2907,10 +2892,10 @@
         <v>34</v>
       </c>
       <c r="E69" s="3"/>
-      <c r="F69" s="69"/>
+      <c r="F69" s="73"/>
     </row>
     <row r="70" spans="1:6" ht="30" customHeight="1">
-      <c r="A70" s="116"/>
+      <c r="A70" s="95"/>
       <c r="B70" s="8" t="s">
         <v>15</v>
       </c>
@@ -2919,10 +2904,10 @@
         <v>15</v>
       </c>
       <c r="E70" s="1"/>
-      <c r="F70" s="70"/>
+      <c r="F70" s="74"/>
     </row>
     <row r="71" spans="1:6" ht="45" customHeight="1">
-      <c r="A71" s="116"/>
+      <c r="A71" s="95"/>
       <c r="B71" s="9" t="s">
         <v>10</v>
       </c>
@@ -2931,26 +2916,26 @@
         <v>10</v>
       </c>
       <c r="E71" s="2"/>
-      <c r="F71" s="70"/>
+      <c r="F71" s="74"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="116"/>
+      <c r="A72" s="95"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="70"/>
+      <c r="F72" s="74"/>
     </row>
     <row r="73" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A73" s="117"/>
+      <c r="A73" s="96"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
-      <c r="F73" s="71"/>
+      <c r="F73" s="93"/>
     </row>
     <row r="74" spans="1:6" ht="30" customHeight="1">
-      <c r="A74" s="127" t="s">
+      <c r="A74" s="98" t="s">
         <v>12</v>
       </c>
       <c r="B74" s="3"/>
@@ -2961,26 +2946,26 @@
         <v>13</v>
       </c>
       <c r="E74" s="3"/>
-      <c r="F74" s="69"/>
+      <c r="F74" s="73"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="128"/>
+      <c r="A75" s="99"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="70"/>
+      <c r="F75" s="74"/>
     </row>
     <row r="76" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A76" s="129"/>
+      <c r="A76" s="100"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
-      <c r="F76" s="71"/>
+      <c r="F76" s="93"/>
     </row>
     <row r="77" spans="1:6" ht="30" customHeight="1">
-      <c r="A77" s="115" t="s">
+      <c r="A77" s="94" t="s">
         <v>0</v>
       </c>
       <c r="B77" s="8" t="s">
@@ -2991,10 +2976,10 @@
         <v>7</v>
       </c>
       <c r="E77" s="3"/>
-      <c r="F77" s="69"/>
+      <c r="F77" s="73"/>
     </row>
     <row r="78" spans="1:6" ht="30" customHeight="1">
-      <c r="A78" s="116"/>
+      <c r="A78" s="95"/>
       <c r="B78" s="8" t="s">
         <v>8</v>
       </c>
@@ -3003,10 +2988,10 @@
         <v>8</v>
       </c>
       <c r="E78" s="1"/>
-      <c r="F78" s="70"/>
+      <c r="F78" s="74"/>
     </row>
     <row r="79" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A79" s="117"/>
+      <c r="A79" s="96"/>
       <c r="B79" s="13" t="s">
         <v>9</v>
       </c>
@@ -3015,17 +3000,17 @@
         <v>9</v>
       </c>
       <c r="E79" s="4"/>
-      <c r="F79" s="71"/>
+      <c r="F79" s="93"/>
     </row>
     <row r="80" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A80" s="97" t="s">
-        <v>167</v>
+      <c r="A80" s="90" t="s">
+        <v>166</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D80" s="12" t="s">
         <v>34</v>
@@ -3033,12 +3018,12 @@
       <c r="E80" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F80" s="69" t="s">
+      <c r="F80" s="73" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A81" s="98"/>
+      <c r="A81" s="91"/>
       <c r="B81" s="1" t="s">
         <v>17</v>
       </c>
@@ -3051,15 +3036,15 @@
       <c r="E81" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F81" s="70"/>
+      <c r="F81" s="74"/>
     </row>
     <row r="82" spans="1:6" ht="30" customHeight="1">
-      <c r="A82" s="98"/>
+      <c r="A82" s="91"/>
       <c r="B82" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>10</v>
@@ -3067,10 +3052,10 @@
       <c r="E82" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F82" s="70"/>
+      <c r="F82" s="74"/>
     </row>
     <row r="83" spans="1:6" ht="30" customHeight="1">
-      <c r="A83" s="98"/>
+      <c r="A83" s="91"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="8" t="s">
@@ -3079,10 +3064,10 @@
       <c r="E83" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F83" s="70"/>
+      <c r="F83" s="74"/>
     </row>
     <row r="84" spans="1:6" ht="15" customHeight="1">
-      <c r="A84" s="98"/>
+      <c r="A84" s="91"/>
       <c r="B84" s="7"/>
       <c r="C84" s="1"/>
       <c r="D84" s="8" t="s">
@@ -3091,10 +3076,10 @@
       <c r="E84" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F84" s="70"/>
+      <c r="F84" s="74"/>
     </row>
     <row r="85" spans="1:6" ht="15" customHeight="1">
-      <c r="A85" s="98"/>
+      <c r="A85" s="91"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="8" t="s">
@@ -3103,10 +3088,10 @@
       <c r="E85" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F85" s="70"/>
+      <c r="F85" s="74"/>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A86" s="99"/>
+      <c r="A86" s="92"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="29" t="s">
@@ -3115,10 +3100,10 @@
       <c r="E86" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F86" s="71"/>
+      <c r="F86" s="93"/>
     </row>
     <row r="87" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A87" s="78" t="s">
+      <c r="A87" s="107" t="s">
         <v>58</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -3133,12 +3118,12 @@
       <c r="E87" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F87" s="69" t="s">
+      <c r="F87" s="73" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A88" s="79"/>
+      <c r="A88" s="108"/>
       <c r="B88" s="1" t="s">
         <v>17</v>
       </c>
@@ -3151,10 +3136,10 @@
       <c r="E88" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F88" s="70"/>
+      <c r="F88" s="74"/>
     </row>
     <row r="89" spans="1:6" ht="30" customHeight="1">
-      <c r="A89" s="79"/>
+      <c r="A89" s="108"/>
       <c r="B89" s="1" t="s">
         <v>18</v>
       </c>
@@ -3165,10 +3150,10 @@
       <c r="E89" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F89" s="70"/>
+      <c r="F89" s="74"/>
     </row>
     <row r="90" spans="1:6" ht="30" customHeight="1">
-      <c r="A90" s="79"/>
+      <c r="A90" s="108"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="8" t="s">
@@ -3177,10 +3162,10 @@
       <c r="E90" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F90" s="70"/>
+      <c r="F90" s="74"/>
     </row>
     <row r="91" spans="1:6" ht="15" customHeight="1">
-      <c r="A91" s="79"/>
+      <c r="A91" s="108"/>
       <c r="B91" s="7"/>
       <c r="C91" s="1"/>
       <c r="D91" s="8" t="s">
@@ -3189,10 +3174,10 @@
       <c r="E91" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F91" s="70"/>
+      <c r="F91" s="74"/>
     </row>
     <row r="92" spans="1:6" ht="15" customHeight="1">
-      <c r="A92" s="79"/>
+      <c r="A92" s="108"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="8" t="s">
@@ -3201,10 +3186,10 @@
       <c r="E92" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F92" s="70"/>
+      <c r="F92" s="74"/>
     </row>
     <row r="93" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A93" s="80"/>
+      <c r="A93" s="109"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="29" t="s">
@@ -3213,11 +3198,11 @@
       <c r="E93" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F93" s="71"/>
+      <c r="F93" s="93"/>
     </row>
     <row r="94" spans="1:6" ht="30" customHeight="1">
-      <c r="A94" s="78" t="s">
-        <v>165</v>
+      <c r="A94" s="107" t="s">
+        <v>164</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="12" t="s">
@@ -3225,534 +3210,534 @@
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
-      <c r="F94" s="69" t="s">
+      <c r="F94" s="73" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="79"/>
+      <c r="A95" s="108"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="70"/>
+      <c r="F95" s="74"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="79"/>
+      <c r="A96" s="108"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="70"/>
+      <c r="F96" s="74"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="79"/>
+      <c r="A97" s="108"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="70"/>
+      <c r="F97" s="74"/>
     </row>
     <row r="98" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A98" s="80"/>
+      <c r="A98" s="109"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
-      <c r="F98" s="71"/>
-    </row>
-    <row r="99" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A99" s="81" t="s">
-        <v>89</v>
-      </c>
-      <c r="B99" s="81"/>
-      <c r="C99" s="81"/>
-      <c r="D99" s="81"/>
-      <c r="E99" s="81"/>
-      <c r="F99" s="81"/>
-    </row>
-    <row r="100" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A100" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="B100" s="3"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12" t="s">
+      <c r="F98" s="93"/>
+    </row>
+    <row r="99" spans="1:6" ht="30" customHeight="1">
+      <c r="A99" s="107" t="s">
+        <v>210</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F100" s="83" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A101" s="63"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8" t="s">
+      <c r="E99" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="F99" s="60" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="30" customHeight="1">
+      <c r="A100" s="108"/>
+      <c r="B100" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F101" s="84"/>
+      <c r="E100" s="62"/>
+      <c r="F100" s="52"/>
+    </row>
+    <row r="101" spans="1:6" ht="30" customHeight="1">
+      <c r="A101" s="108"/>
+      <c r="B101" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="62"/>
+      <c r="F101" s="52"/>
     </row>
     <row r="102" spans="1:6" ht="30" customHeight="1">
-      <c r="A102" s="63"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F102" s="84"/>
-    </row>
-    <row r="103" spans="1:6" ht="30" customHeight="1">
-      <c r="A103" s="63"/>
-      <c r="B103" s="1"/>
+      <c r="A102" s="108"/>
+      <c r="B102" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" s="62"/>
+      <c r="F102" s="52"/>
+    </row>
+    <row r="103" spans="1:6" ht="15" customHeight="1">
+      <c r="A103" s="108"/>
+      <c r="B103" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="C103" s="1"/>
       <c r="D103" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" s="84"/>
+        <v>7</v>
+      </c>
+      <c r="E103" s="62"/>
+      <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:6" ht="15" customHeight="1">
-      <c r="A104" s="63"/>
-      <c r="B104" s="1"/>
+      <c r="A104" s="108"/>
+      <c r="B104" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C104" s="1"/>
       <c r="D104" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="62"/>
+      <c r="F104" s="52"/>
+    </row>
+    <row r="105" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A105" s="108"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="63"/>
+      <c r="F105" s="53"/>
+    </row>
+    <row r="106" spans="1:6" ht="30" customHeight="1">
+      <c r="A106" s="107" t="s">
+        <v>186</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E106" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="F106" s="60" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="30" customHeight="1">
+      <c r="A107" s="108"/>
+      <c r="B107" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="62"/>
+      <c r="F107" s="52"/>
+    </row>
+    <row r="108" spans="1:6" ht="30" customHeight="1">
+      <c r="A108" s="108"/>
+      <c r="B108" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="62"/>
+      <c r="F108" s="52"/>
+    </row>
+    <row r="109" spans="1:6" ht="30" customHeight="1">
+      <c r="A109" s="108"/>
+      <c r="B109" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="D109" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" s="62"/>
+      <c r="F109" s="52"/>
+    </row>
+    <row r="110" spans="1:6" ht="15" customHeight="1">
+      <c r="A110" s="108"/>
+      <c r="B110" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F104" s="84"/>
-    </row>
-    <row r="105" spans="1:6" ht="15" customHeight="1">
-      <c r="A105" s="63"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="8" t="s">
+      <c r="E110" s="62"/>
+      <c r="F110" s="52"/>
+    </row>
+    <row r="111" spans="1:6" ht="15" customHeight="1">
+      <c r="A111" s="108"/>
+      <c r="B111" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="D111" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F105" s="84"/>
-    </row>
-    <row r="106" spans="1:6" ht="15" customHeight="1">
-      <c r="A106" s="63"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="8" t="s">
+      <c r="E111" s="62"/>
+      <c r="F111" s="52"/>
+    </row>
+    <row r="112" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A112" s="108"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F106" s="84"/>
-    </row>
-    <row r="107" spans="1:6" ht="15" customHeight="1">
-      <c r="A107" s="63"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F107" s="84"/>
-    </row>
-    <row r="108" spans="1:6" ht="15" customHeight="1">
-      <c r="A108" s="63"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F108" s="84"/>
-    </row>
-    <row r="109" spans="1:6" ht="15" customHeight="1">
-      <c r="A109" s="63"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F109" s="84"/>
-    </row>
-    <row r="110" spans="1:6" ht="15" customHeight="1">
-      <c r="A110" s="63"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E110" s="19"/>
-      <c r="F110" s="84"/>
-    </row>
-    <row r="111" spans="1:6" ht="15" customHeight="1">
-      <c r="A111" s="63"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E111" s="19"/>
-      <c r="F111" s="84"/>
-    </row>
-    <row r="112" spans="1:6" ht="15" customHeight="1">
-      <c r="A112" s="63"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="E112" s="19"/>
-      <c r="F112" s="84"/>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="63"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="E113" s="19"/>
-      <c r="F113" s="84"/>
-    </row>
-    <row r="114" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A114" s="82"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="85"/>
+      <c r="E112" s="63"/>
+      <c r="F112" s="53"/>
+    </row>
+    <row r="113" spans="1:6" ht="30" customHeight="1">
+      <c r="A113" s="107" t="s">
+        <v>187</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E113" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="F113" s="60" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="30" customHeight="1">
+      <c r="A114" s="108"/>
+      <c r="B114" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" s="62"/>
+      <c r="F114" s="52"/>
     </row>
     <row r="115" spans="1:6" ht="30" customHeight="1">
-      <c r="A115" s="86" t="s">
-        <v>211</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D115" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E115" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="F115" s="59" t="s">
-        <v>158</v>
-      </c>
+      <c r="A115" s="108"/>
+      <c r="B115" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" s="62"/>
+      <c r="F115" s="52"/>
     </row>
     <row r="116" spans="1:6" ht="30" customHeight="1">
-      <c r="A116" s="87"/>
+      <c r="A116" s="108"/>
       <c r="B116" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C116" s="1"/>
       <c r="D116" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E116" s="65"/>
-      <c r="F116" s="60"/>
-    </row>
-    <row r="117" spans="1:6" ht="30" customHeight="1">
-      <c r="A117" s="87"/>
+        <v>13</v>
+      </c>
+      <c r="E116" s="62"/>
+      <c r="F116" s="52"/>
+    </row>
+    <row r="117" spans="1:6" ht="15" customHeight="1">
+      <c r="A117" s="108"/>
       <c r="B117" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E117" s="65"/>
-      <c r="F117" s="60"/>
-    </row>
-    <row r="118" spans="1:6" ht="30" customHeight="1">
-      <c r="A118" s="87"/>
+        <v>23</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" s="62"/>
+      <c r="F117" s="52"/>
+    </row>
+    <row r="118" spans="1:6" ht="15" customHeight="1">
+      <c r="A118" s="108"/>
       <c r="B118" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="62"/>
+      <c r="F118" s="52"/>
+    </row>
+    <row r="119" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A119" s="108"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="63"/>
+      <c r="F119" s="53"/>
+    </row>
+    <row r="120" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A120" s="115" t="s">
+        <v>89</v>
+      </c>
+      <c r="B120" s="115"/>
+      <c r="C120" s="115"/>
+      <c r="D120" s="115"/>
+      <c r="E120" s="115"/>
+      <c r="F120" s="115"/>
+    </row>
+    <row r="121" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A121" s="113" t="s">
+        <v>50</v>
+      </c>
+      <c r="B121" s="3"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F121" s="117" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A122" s="114"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F122" s="118"/>
+    </row>
+    <row r="123" spans="1:6" ht="30" customHeight="1">
+      <c r="A123" s="114"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F123" s="118"/>
+    </row>
+    <row r="124" spans="1:6" ht="30" customHeight="1">
+      <c r="A124" s="114"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E118" s="65"/>
-      <c r="F118" s="60"/>
-    </row>
-    <row r="119" spans="1:6" ht="15" customHeight="1">
-      <c r="A119" s="87"/>
-      <c r="B119" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C119" s="1"/>
-      <c r="D119" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E119" s="65"/>
-      <c r="F119" s="60"/>
-    </row>
-    <row r="120" spans="1:6" ht="15" customHeight="1">
-      <c r="A120" s="87"/>
-      <c r="B120" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C120" s="1"/>
-      <c r="D120" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E120" s="65"/>
-      <c r="F120" s="60"/>
-    </row>
-    <row r="121" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A121" s="87"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E121" s="66"/>
-      <c r="F121" s="61"/>
-    </row>
-    <row r="122" spans="1:6" ht="30" customHeight="1">
-      <c r="A122" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D122" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E122" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="F122" s="59" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="30" customHeight="1">
-      <c r="A123" s="63"/>
-      <c r="B123" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E123" s="65"/>
-      <c r="F123" s="60"/>
-    </row>
-    <row r="124" spans="1:6" ht="30" customHeight="1">
-      <c r="A124" s="63"/>
-      <c r="B124" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E124" s="65"/>
-      <c r="F124" s="60"/>
-    </row>
-    <row r="125" spans="1:6" ht="30" customHeight="1">
-      <c r="A125" s="63"/>
-      <c r="B125" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="E124" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" s="118"/>
+    </row>
+    <row r="125" spans="1:6" ht="15" customHeight="1">
+      <c r="A125" s="114"/>
+      <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E125" s="65"/>
-      <c r="F125" s="60"/>
+        <v>7</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F125" s="118"/>
     </row>
     <row r="126" spans="1:6" ht="15" customHeight="1">
-      <c r="A126" s="63"/>
-      <c r="B126" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A126" s="114"/>
+      <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E126" s="65"/>
-      <c r="F126" s="60"/>
+        <v>8</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F126" s="118"/>
     </row>
     <row r="127" spans="1:6" ht="15" customHeight="1">
-      <c r="A127" s="63"/>
-      <c r="B127" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A127" s="114"/>
+      <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E127" s="65"/>
-      <c r="F127" s="60"/>
-    </row>
-    <row r="128" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A128" s="63"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E128" s="66"/>
-      <c r="F128" s="61"/>
-    </row>
-    <row r="129" spans="1:9" ht="30" customHeight="1">
-      <c r="A129" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D129" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E129" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="F129" s="59" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="30" customHeight="1">
-      <c r="A130" s="63"/>
-      <c r="B130" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E130" s="65"/>
-      <c r="F130" s="60"/>
-    </row>
-    <row r="131" spans="1:9" ht="30" customHeight="1">
-      <c r="A131" s="63"/>
-      <c r="B131" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E131" s="65"/>
-      <c r="F131" s="60"/>
-    </row>
-    <row r="132" spans="1:9" ht="30" customHeight="1">
-      <c r="A132" s="63"/>
-      <c r="B132" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C132" s="1"/>
-      <c r="D132" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E132" s="65"/>
-      <c r="F132" s="60"/>
+      <c r="E127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F127" s="118"/>
+    </row>
+    <row r="128" spans="1:6" ht="15" customHeight="1">
+      <c r="A128" s="114"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F128" s="118"/>
+    </row>
+    <row r="129" spans="1:9" ht="15" customHeight="1">
+      <c r="A129" s="114"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F129" s="118"/>
+    </row>
+    <row r="130" spans="1:9" ht="15" customHeight="1">
+      <c r="A130" s="114"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F130" s="118"/>
+    </row>
+    <row r="131" spans="1:9" ht="15" customHeight="1">
+      <c r="A131" s="114"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E131" s="19"/>
+      <c r="F131" s="118"/>
+    </row>
+    <row r="132" spans="1:9" ht="15" customHeight="1">
+      <c r="A132" s="114"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="E132" s="19"/>
+      <c r="F132" s="118"/>
     </row>
     <row r="133" spans="1:9" ht="15" customHeight="1">
-      <c r="A133" s="63"/>
-      <c r="B133" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C133" s="1"/>
-      <c r="D133" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E133" s="65"/>
-      <c r="F133" s="60"/>
-    </row>
-    <row r="134" spans="1:9" ht="15" customHeight="1">
-      <c r="A134" s="63"/>
-      <c r="B134" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C134" s="1"/>
-      <c r="D134" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E134" s="65"/>
-      <c r="F134" s="60"/>
-    </row>
-    <row r="135" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A135" s="63"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E135" s="66"/>
-      <c r="F135" s="61"/>
+      <c r="A133" s="114"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E133" s="19"/>
+      <c r="F133" s="118"/>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="114"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="E134" s="19"/>
+      <c r="F134" s="118"/>
+    </row>
+    <row r="135" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A135" s="116"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="119"/>
     </row>
     <row r="136" spans="1:9" ht="15" customHeight="1">
-      <c r="A136" s="90" t="s">
+      <c r="A136" s="104" t="s">
+        <v>183</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D136" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E136" s="64"/>
-      <c r="F136" s="59" t="s">
-        <v>179</v>
+        <v>182</v>
+      </c>
+      <c r="E136" s="61"/>
+      <c r="F136" s="60" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="91"/>
+      <c r="A137" s="105"/>
       <c r="B137" s="1" t="s">
         <v>23</v>
       </c>
@@ -3760,122 +3745,122 @@
         <v>148</v>
       </c>
       <c r="D137" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E137" s="65"/>
-      <c r="F137" s="60"/>
+        <v>181</v>
+      </c>
+      <c r="E137" s="62"/>
+      <c r="F137" s="52"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="91"/>
+      <c r="A138" s="105"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="E138" s="65"/>
-      <c r="F138" s="60"/>
+        <v>180</v>
+      </c>
+      <c r="E138" s="62"/>
+      <c r="F138" s="52"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="91"/>
+      <c r="A139" s="105"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="E139" s="65"/>
-      <c r="F139" s="60"/>
+        <v>179</v>
+      </c>
+      <c r="E139" s="62"/>
+      <c r="F139" s="52"/>
     </row>
     <row r="140" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A140" s="91"/>
+      <c r="A140" s="105"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D140" s="8"/>
-      <c r="E140" s="65"/>
-      <c r="F140" s="60"/>
+      <c r="E140" s="62"/>
+      <c r="F140" s="52"/>
     </row>
     <row r="141" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A141" s="91"/>
+      <c r="A141" s="105"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D141" s="8"/>
-      <c r="E141" s="65"/>
-      <c r="F141" s="60"/>
+      <c r="E141" s="62"/>
+      <c r="F141" s="52"/>
     </row>
     <row r="142" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A142" s="91"/>
+      <c r="A142" s="105"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D142" s="8"/>
-      <c r="E142" s="65"/>
-      <c r="F142" s="60"/>
+      <c r="E142" s="62"/>
+      <c r="F142" s="52"/>
       <c r="I142" s="36"/>
     </row>
     <row r="143" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A143" s="91"/>
+      <c r="A143" s="105"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D143" s="8"/>
-      <c r="E143" s="65"/>
-      <c r="F143" s="60"/>
+      <c r="E143" s="62"/>
+      <c r="F143" s="52"/>
       <c r="I143" s="36"/>
     </row>
     <row r="144" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A144" s="91"/>
+      <c r="A144" s="105"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D144" s="8"/>
-      <c r="E144" s="65"/>
-      <c r="F144" s="60"/>
+      <c r="E144" s="62"/>
+      <c r="F144" s="52"/>
       <c r="I144" s="36"/>
     </row>
     <row r="145" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A145" s="91"/>
+      <c r="A145" s="105"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D145" s="8"/>
-      <c r="E145" s="65"/>
-      <c r="F145" s="60"/>
+      <c r="E145" s="62"/>
+      <c r="F145" s="52"/>
       <c r="I145" s="36"/>
     </row>
     <row r="146" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A146" s="91"/>
+      <c r="A146" s="105"/>
       <c r="B146" s="2"/>
       <c r="C146" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D146" s="13"/>
-      <c r="E146" s="65"/>
-      <c r="F146" s="60"/>
+      <c r="E146" s="62"/>
+      <c r="F146" s="52"/>
       <c r="I146" s="36"/>
     </row>
     <row r="147" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A147" s="92"/>
+      <c r="A147" s="106"/>
       <c r="B147" s="4"/>
       <c r="C147" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D147" s="29"/>
-      <c r="E147" s="66"/>
-      <c r="F147" s="61"/>
+      <c r="E147" s="63"/>
+      <c r="F147" s="53"/>
     </row>
     <row r="148" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A148" s="67" t="s">
+      <c r="A148" s="123" t="s">
         <v>51</v>
       </c>
       <c r="B148" s="23" t="s">
@@ -3884,20 +3869,20 @@
       <c r="C148" s="22"/>
       <c r="D148" s="22"/>
       <c r="E148" s="22"/>
-      <c r="F148" s="53" t="s">
+      <c r="F148" s="84" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A149" s="68"/>
+      <c r="A149" s="124"/>
       <c r="B149" s="16"/>
       <c r="C149" s="17"/>
       <c r="D149" s="17"/>
       <c r="E149" s="17"/>
-      <c r="F149" s="55"/>
+      <c r="F149" s="86"/>
     </row>
     <row r="150" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A150" s="47" t="s">
+      <c r="A150" s="101" t="s">
         <v>52</v>
       </c>
       <c r="B150" s="15" t="s">
@@ -3906,32 +3891,32 @@
       <c r="C150" s="14"/>
       <c r="D150" s="14"/>
       <c r="E150" s="14"/>
-      <c r="F150" s="53" t="s">
+      <c r="F150" s="84" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A151" s="48"/>
+      <c r="A151" s="102"/>
       <c r="B151" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C151" s="31"/>
       <c r="D151" s="31"/>
       <c r="E151" s="31"/>
-      <c r="F151" s="54"/>
+      <c r="F151" s="85"/>
     </row>
     <row r="152" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A152" s="49"/>
+      <c r="A152" s="103"/>
       <c r="B152" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C152" s="19"/>
       <c r="D152" s="19"/>
       <c r="E152" s="19"/>
-      <c r="F152" s="55"/>
+      <c r="F152" s="86"/>
     </row>
     <row r="153" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A153" s="47" t="s">
+      <c r="A153" s="101" t="s">
         <v>152</v>
       </c>
       <c r="B153" s="15" t="s">
@@ -3940,36 +3925,36 @@
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
-      <c r="F153" s="69" t="s">
+      <c r="F153" s="73" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A154" s="48"/>
+      <c r="A154" s="102"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
-      <c r="F154" s="70"/>
+      <c r="F154" s="74"/>
     </row>
     <row r="155" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A155" s="48"/>
+      <c r="A155" s="102"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
-      <c r="F155" s="70"/>
+      <c r="F155" s="74"/>
     </row>
     <row r="156" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A156" s="49"/>
+      <c r="A156" s="103"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
-      <c r="F156" s="71"/>
+      <c r="F156" s="93"/>
     </row>
     <row r="157" spans="1:9" ht="15" customHeight="1">
-      <c r="A157" s="47" t="s">
+      <c r="A157" s="101" t="s">
         <v>86</v>
       </c>
       <c r="B157" s="15" t="s">
@@ -3978,457 +3963,380 @@
       <c r="C157" s="14"/>
       <c r="D157" s="14"/>
       <c r="E157" s="14"/>
-      <c r="F157" s="53" t="s">
+      <c r="F157" s="84" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="15" customHeight="1">
-      <c r="A158" s="48"/>
+      <c r="A158" s="102"/>
       <c r="B158" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C158" s="31"/>
       <c r="D158" s="31"/>
       <c r="E158" s="31"/>
-      <c r="F158" s="54"/>
+      <c r="F158" s="85"/>
     </row>
     <row r="159" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A159" s="49"/>
+      <c r="A159" s="103"/>
       <c r="B159" s="16" t="s">
         <v>84</v>
       </c>
       <c r="C159" s="17"/>
       <c r="D159" s="17"/>
       <c r="E159" s="17"/>
-      <c r="F159" s="55"/>
+      <c r="F159" s="86"/>
     </row>
     <row r="160" spans="1:9" ht="15" customHeight="1">
-      <c r="A160" s="47" t="s">
-        <v>170</v>
+      <c r="A160" s="101" t="s">
+        <v>169</v>
       </c>
       <c r="B160" s="15"/>
       <c r="C160" s="14"/>
       <c r="D160" s="14"/>
       <c r="E160" s="14"/>
-      <c r="F160" s="53" t="s">
-        <v>171</v>
+      <c r="F160" s="84" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="15" customHeight="1">
-      <c r="A161" s="48"/>
+      <c r="A161" s="102"/>
       <c r="B161" s="21"/>
       <c r="C161" s="31"/>
       <c r="D161" s="31"/>
       <c r="E161" s="31"/>
-      <c r="F161" s="54"/>
+      <c r="F161" s="85"/>
     </row>
     <row r="162" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A162" s="49"/>
+      <c r="A162" s="103"/>
       <c r="B162" s="16"/>
       <c r="C162" s="17"/>
       <c r="D162" s="17"/>
       <c r="E162" s="17"/>
-      <c r="F162" s="55"/>
+      <c r="F162" s="86"/>
     </row>
     <row r="163" spans="1:6" ht="15" customHeight="1">
-      <c r="A163" s="47" t="s">
-        <v>173</v>
+      <c r="A163" s="101" t="s">
+        <v>172</v>
       </c>
       <c r="B163" s="15"/>
       <c r="C163" s="14"/>
       <c r="D163" s="14"/>
       <c r="E163" s="14"/>
-      <c r="F163" s="53" t="s">
-        <v>172</v>
+      <c r="F163" s="84" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="15" customHeight="1">
-      <c r="A164" s="48"/>
+      <c r="A164" s="102"/>
       <c r="B164" s="21"/>
       <c r="C164" s="31"/>
       <c r="D164" s="31"/>
       <c r="E164" s="31"/>
-      <c r="F164" s="54"/>
+      <c r="F164" s="85"/>
     </row>
     <row r="165" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A165" s="49"/>
+      <c r="A165" s="103"/>
       <c r="B165" s="16"/>
       <c r="C165" s="17"/>
       <c r="D165" s="17"/>
       <c r="E165" s="17"/>
-      <c r="F165" s="55"/>
+      <c r="F165" s="86"/>
     </row>
     <row r="166" spans="1:6" ht="63.75" customHeight="1">
-      <c r="A166" s="47" t="s">
-        <v>214</v>
+      <c r="A166" s="101" t="s">
+        <v>213</v>
       </c>
       <c r="B166" s="15"/>
       <c r="C166" s="14"/>
       <c r="D166" s="14"/>
       <c r="E166" s="14"/>
-      <c r="F166" s="53" t="s">
-        <v>215</v>
+      <c r="F166" s="84" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="63.75" customHeight="1">
-      <c r="A167" s="48"/>
+      <c r="A167" s="102"/>
       <c r="B167" s="21"/>
       <c r="C167" s="31"/>
       <c r="D167" s="31"/>
       <c r="E167" s="31"/>
-      <c r="F167" s="54"/>
+      <c r="F167" s="85"/>
     </row>
     <row r="168" spans="1:6" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A168" s="49"/>
+      <c r="A168" s="103"/>
       <c r="B168" s="16"/>
       <c r="C168" s="17"/>
       <c r="D168" s="17"/>
       <c r="E168" s="17"/>
-      <c r="F168" s="55"/>
+      <c r="F168" s="86"/>
     </row>
     <row r="169" spans="1:6" ht="94.5" customHeight="1">
-      <c r="A169" s="47" t="s">
-        <v>210</v>
+      <c r="A169" s="101" t="s">
+        <v>209</v>
       </c>
       <c r="B169" s="15"/>
       <c r="C169" s="14"/>
       <c r="D169" s="14"/>
       <c r="E169" s="14"/>
-      <c r="F169" s="50" t="s">
-        <v>216</v>
+      <c r="F169" s="125" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="94.5" customHeight="1">
-      <c r="A170" s="48"/>
+      <c r="A170" s="102"/>
       <c r="B170" s="21"/>
       <c r="C170" s="31"/>
       <c r="D170" s="31"/>
       <c r="E170" s="31"/>
-      <c r="F170" s="51"/>
+      <c r="F170" s="126"/>
     </row>
     <row r="171" spans="1:6" ht="94.5" customHeight="1" thickBot="1">
-      <c r="A171" s="49"/>
+      <c r="A171" s="103"/>
       <c r="B171" s="16"/>
       <c r="C171" s="17"/>
       <c r="D171" s="17"/>
       <c r="E171" s="17"/>
-      <c r="F171" s="52"/>
+      <c r="F171" s="127"/>
     </row>
     <row r="172" spans="1:6" ht="15" customHeight="1">
-      <c r="A172" s="58" t="s">
-        <v>196</v>
+      <c r="A172" s="120" t="s">
+        <v>195</v>
       </c>
       <c r="B172" s="40"/>
       <c r="C172" s="37"/>
       <c r="D172" s="43"/>
       <c r="E172" s="37"/>
-      <c r="F172" s="53" t="s">
-        <v>203</v>
+      <c r="F172" s="84" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="56"/>
+      <c r="A173" s="121"/>
       <c r="B173" s="41"/>
       <c r="C173" s="38"/>
       <c r="D173" s="44"/>
       <c r="E173" s="38"/>
-      <c r="F173" s="54"/>
+      <c r="F173" s="85"/>
     </row>
     <row r="174" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A174" s="57"/>
+      <c r="A174" s="122"/>
       <c r="B174" s="42"/>
       <c r="C174" s="39"/>
       <c r="D174" s="45"/>
       <c r="E174" s="39"/>
-      <c r="F174" s="55"/>
+      <c r="F174" s="86"/>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="58" t="s">
-        <v>197</v>
+      <c r="A175" s="120" t="s">
+        <v>196</v>
       </c>
       <c r="B175" s="40"/>
       <c r="C175" s="37"/>
       <c r="D175" s="43"/>
       <c r="E175" s="37"/>
-      <c r="F175" s="53" t="s">
-        <v>204</v>
+      <c r="F175" s="84" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="56"/>
+      <c r="A176" s="121"/>
       <c r="B176" s="41"/>
       <c r="C176" s="38"/>
       <c r="D176" s="44"/>
       <c r="E176" s="38"/>
-      <c r="F176" s="54"/>
+      <c r="F176" s="85"/>
     </row>
     <row r="177" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A177" s="57"/>
+      <c r="A177" s="122"/>
       <c r="B177" s="42"/>
       <c r="C177" s="39"/>
       <c r="D177" s="45"/>
       <c r="E177" s="39"/>
-      <c r="F177" s="55"/>
+      <c r="F177" s="86"/>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="56" t="s">
-        <v>198</v>
+      <c r="A178" s="121" t="s">
+        <v>197</v>
       </c>
       <c r="B178" s="41"/>
       <c r="C178" s="38"/>
       <c r="D178" s="44"/>
       <c r="E178" s="38"/>
-      <c r="F178" s="53" t="s">
-        <v>205</v>
+      <c r="F178" s="84" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="56"/>
+      <c r="A179" s="121"/>
       <c r="B179" s="41"/>
       <c r="C179" s="38"/>
       <c r="D179" s="44"/>
       <c r="E179" s="38"/>
-      <c r="F179" s="54"/>
+      <c r="F179" s="85"/>
     </row>
     <row r="180" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A180" s="56"/>
+      <c r="A180" s="121"/>
       <c r="B180" s="41"/>
       <c r="C180" s="38"/>
       <c r="D180" s="44"/>
       <c r="E180" s="38"/>
-      <c r="F180" s="55"/>
+      <c r="F180" s="86"/>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="58" t="s">
-        <v>199</v>
+      <c r="A181" s="120" t="s">
+        <v>198</v>
       </c>
       <c r="B181" s="40"/>
       <c r="C181" s="37"/>
       <c r="D181" s="43"/>
       <c r="E181" s="37"/>
-      <c r="F181" s="53" t="s">
-        <v>206</v>
+      <c r="F181" s="84" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="56"/>
+      <c r="A182" s="121"/>
       <c r="B182" s="41"/>
       <c r="C182" s="38"/>
       <c r="D182" s="44"/>
       <c r="E182" s="38"/>
-      <c r="F182" s="54"/>
+      <c r="F182" s="85"/>
     </row>
     <row r="183" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A183" s="57"/>
+      <c r="A183" s="122"/>
       <c r="B183" s="42"/>
       <c r="C183" s="39"/>
       <c r="D183" s="45"/>
       <c r="E183" s="39"/>
-      <c r="F183" s="55"/>
+      <c r="F183" s="86"/>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="56" t="s">
-        <v>200</v>
+      <c r="A184" s="121" t="s">
+        <v>199</v>
       </c>
       <c r="B184" s="41"/>
       <c r="C184" s="38"/>
       <c r="D184" s="44"/>
       <c r="E184" s="38"/>
-      <c r="F184" s="53" t="s">
-        <v>207</v>
+      <c r="F184" s="84" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="56"/>
+      <c r="A185" s="121"/>
       <c r="B185" s="41"/>
       <c r="C185" s="38"/>
       <c r="D185" s="44"/>
       <c r="E185" s="38"/>
-      <c r="F185" s="54"/>
+      <c r="F185" s="85"/>
     </row>
     <row r="186" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A186" s="56"/>
+      <c r="A186" s="121"/>
       <c r="B186" s="41"/>
       <c r="C186" s="38"/>
       <c r="D186" s="44"/>
       <c r="E186" s="38"/>
-      <c r="F186" s="55"/>
+      <c r="F186" s="86"/>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="58" t="s">
-        <v>201</v>
+      <c r="A187" s="120" t="s">
+        <v>200</v>
       </c>
       <c r="B187" s="40"/>
       <c r="C187" s="37"/>
       <c r="D187" s="43"/>
       <c r="E187" s="37"/>
-      <c r="F187" s="53" t="s">
-        <v>208</v>
+      <c r="F187" s="84" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="56"/>
+      <c r="A188" s="121"/>
       <c r="B188" s="41"/>
       <c r="C188" s="38"/>
       <c r="D188" s="44"/>
       <c r="E188" s="38"/>
-      <c r="F188" s="54"/>
+      <c r="F188" s="85"/>
     </row>
     <row r="189" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A189" s="57"/>
+      <c r="A189" s="122"/>
       <c r="B189" s="42"/>
       <c r="C189" s="39"/>
       <c r="D189" s="45"/>
       <c r="E189" s="39"/>
-      <c r="F189" s="55"/>
+      <c r="F189" s="86"/>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="56" t="s">
-        <v>202</v>
+      <c r="A190" s="121" t="s">
+        <v>201</v>
       </c>
       <c r="B190" s="41"/>
       <c r="C190" s="38"/>
       <c r="D190" s="44"/>
       <c r="E190" s="38"/>
-      <c r="F190" s="50" t="s">
-        <v>209</v>
+      <c r="F190" s="125" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="56"/>
+      <c r="A191" s="121"/>
       <c r="B191" s="41"/>
       <c r="C191" s="38"/>
       <c r="D191" s="44"/>
       <c r="E191" s="38"/>
-      <c r="F191" s="51"/>
+      <c r="F191" s="126"/>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="56"/>
+      <c r="A192" s="121"/>
       <c r="B192" s="41"/>
       <c r="C192" s="38"/>
       <c r="D192" s="44"/>
       <c r="E192" s="38"/>
-      <c r="F192" s="51"/>
+      <c r="F192" s="126"/>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="56"/>
+      <c r="A193" s="121"/>
       <c r="B193" s="41"/>
       <c r="C193" s="38"/>
       <c r="D193" s="44"/>
       <c r="E193" s="38"/>
-      <c r="F193" s="51"/>
+      <c r="F193" s="126"/>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="56"/>
+      <c r="A194" s="121"/>
       <c r="B194" s="41"/>
       <c r="C194" s="38"/>
       <c r="D194" s="44"/>
       <c r="E194" s="38"/>
-      <c r="F194" s="51"/>
+      <c r="F194" s="126"/>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="56"/>
+      <c r="A195" s="121"/>
       <c r="B195" s="41"/>
       <c r="C195" s="38"/>
       <c r="D195" s="44"/>
       <c r="E195" s="38"/>
-      <c r="F195" s="51"/>
+      <c r="F195" s="126"/>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="56"/>
+      <c r="A196" s="121"/>
       <c r="B196" s="41"/>
       <c r="C196" s="38"/>
       <c r="D196" s="44"/>
       <c r="E196" s="38"/>
-      <c r="F196" s="51"/>
+      <c r="F196" s="126"/>
     </row>
     <row r="197" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A197" s="57"/>
+      <c r="A197" s="122"/>
       <c r="B197" s="42"/>
       <c r="C197" s="39"/>
       <c r="D197" s="45"/>
       <c r="E197" s="39"/>
-      <c r="F197" s="52"/>
+      <c r="F197" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="F7:F13"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="F14:F20"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="E25:E31"/>
-    <mergeCell ref="F25:F31"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="E32:E38"/>
-    <mergeCell ref="F32:F38"/>
-    <mergeCell ref="A39:A45"/>
-    <mergeCell ref="E39:E45"/>
-    <mergeCell ref="F39:F45"/>
-    <mergeCell ref="A46:A53"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="E46:E53"/>
-    <mergeCell ref="F46:F53"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="F80:F86"/>
-    <mergeCell ref="F74:F76"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="F77:F79"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="F69:F73"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A160:A162"/>
-    <mergeCell ref="F160:F162"/>
-    <mergeCell ref="A136:A147"/>
-    <mergeCell ref="E136:E147"/>
-    <mergeCell ref="F136:F147"/>
-    <mergeCell ref="A87:A93"/>
-    <mergeCell ref="F87:F93"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="A129:A135"/>
-    <mergeCell ref="E129:E135"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="F94:F98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="A100:A114"/>
-    <mergeCell ref="F100:F114"/>
-    <mergeCell ref="A115:A121"/>
-    <mergeCell ref="E115:E121"/>
-    <mergeCell ref="F115:F121"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="F129:F135"/>
-    <mergeCell ref="A122:A128"/>
-    <mergeCell ref="E122:E128"/>
-    <mergeCell ref="F122:F128"/>
-    <mergeCell ref="A172:A174"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="F163:F165"/>
-    <mergeCell ref="A157:A159"/>
-    <mergeCell ref="F157:F159"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="F148:F149"/>
-    <mergeCell ref="A150:A152"/>
-    <mergeCell ref="F150:F152"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="F153:F156"/>
     <mergeCell ref="A169:A171"/>
     <mergeCell ref="F169:F171"/>
     <mergeCell ref="A166:A168"/>
@@ -4445,6 +4353,83 @@
     <mergeCell ref="A178:A180"/>
     <mergeCell ref="A181:A183"/>
     <mergeCell ref="A184:A186"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="F113:F119"/>
+    <mergeCell ref="A106:A112"/>
+    <mergeCell ref="E106:E112"/>
+    <mergeCell ref="F106:F112"/>
+    <mergeCell ref="A172:A174"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="F163:F165"/>
+    <mergeCell ref="A157:A159"/>
+    <mergeCell ref="F157:F159"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="F148:F149"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="F150:F152"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="F153:F156"/>
+    <mergeCell ref="A113:A119"/>
+    <mergeCell ref="E113:E119"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="F94:F98"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="A121:A135"/>
+    <mergeCell ref="F121:F135"/>
+    <mergeCell ref="A99:A105"/>
+    <mergeCell ref="E99:E105"/>
+    <mergeCell ref="F99:F105"/>
+    <mergeCell ref="A87:A93"/>
+    <mergeCell ref="F87:F93"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="A160:A162"/>
+    <mergeCell ref="F160:F162"/>
+    <mergeCell ref="A136:A147"/>
+    <mergeCell ref="E136:E147"/>
+    <mergeCell ref="F136:F147"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="F80:F86"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="F69:F73"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="E32:E38"/>
+    <mergeCell ref="F32:F38"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="E39:E45"/>
+    <mergeCell ref="F39:F45"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="E46:E53"/>
+    <mergeCell ref="F46:F53"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="F14:F20"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="E25:E31"/>
+    <mergeCell ref="F25:F31"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="F7:F13"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="F3:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4494,17 +4479,17 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="131" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4519,12 +4504,12 @@
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="60" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A4" s="131"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="1" t="s">
         <v>95</v>
       </c>
@@ -4535,10 +4520,10 @@
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="60"/>
+      <c r="F4" s="52"/>
     </row>
     <row r="5" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A5" s="135"/>
+      <c r="A5" s="133"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="9" t="s">
@@ -4547,10 +4532,10 @@
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="60"/>
+      <c r="F5" s="52"/>
     </row>
     <row r="6" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A6" s="135"/>
+      <c r="A6" s="133"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="8" t="s">
@@ -4559,10 +4544,10 @@
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="60"/>
+      <c r="F6" s="52"/>
     </row>
     <row r="7" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A7" s="135"/>
+      <c r="A7" s="133"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="8" t="s">
@@ -4571,10 +4556,10 @@
       <c r="E7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="60"/>
+      <c r="F7" s="52"/>
     </row>
     <row r="8" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A8" s="135"/>
+      <c r="A8" s="133"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8" t="s">
@@ -4583,10 +4568,10 @@
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="60"/>
+      <c r="F8" s="52"/>
     </row>
     <row r="9" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A9" s="135"/>
+      <c r="A9" s="133"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="13" t="s">
@@ -4595,10 +4580,10 @@
       <c r="E9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="60"/>
+      <c r="F9" s="52"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="131" t="s">
         <v>96</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -4613,12 +4598,12 @@
       <c r="E10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="60" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A11" s="131"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="1" t="s">
         <v>95</v>
       </c>
@@ -4629,10 +4614,10 @@
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="60"/>
+      <c r="F11" s="52"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A12" s="135"/>
+      <c r="A12" s="133"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="9" t="s">
@@ -4641,10 +4626,10 @@
       <c r="E12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="60"/>
+      <c r="F12" s="52"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A13" s="135"/>
+      <c r="A13" s="133"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="8" t="s">
@@ -4653,10 +4638,10 @@
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="60"/>
+      <c r="F13" s="52"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A14" s="135"/>
+      <c r="A14" s="133"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="8" t="s">
@@ -4665,10 +4650,10 @@
       <c r="E14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="60"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A15" s="135"/>
+      <c r="A15" s="133"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="8" t="s">
@@ -4677,10 +4662,10 @@
       <c r="E15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="60"/>
+      <c r="F15" s="52"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A16" s="135"/>
+      <c r="A16" s="133"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="13" t="s">
@@ -4689,10 +4674,10 @@
       <c r="E16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="60"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="131" t="s">
         <v>99</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -4707,12 +4692,12 @@
       <c r="E17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="F17" s="60" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A18" s="131"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="1" t="s">
         <v>95</v>
       </c>
@@ -4723,10 +4708,10 @@
       <c r="E18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="60"/>
+      <c r="F18" s="52"/>
     </row>
     <row r="19" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A19" s="135"/>
+      <c r="A19" s="133"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="9" t="s">
@@ -4735,10 +4720,10 @@
       <c r="E19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="60"/>
+      <c r="F19" s="52"/>
     </row>
     <row r="20" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A20" s="135"/>
+      <c r="A20" s="133"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="8" t="s">
@@ -4747,10 +4732,10 @@
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="60"/>
+      <c r="F20" s="52"/>
     </row>
     <row r="21" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A21" s="135"/>
+      <c r="A21" s="133"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="8" t="s">
@@ -4759,10 +4744,10 @@
       <c r="E21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="60"/>
+      <c r="F21" s="52"/>
     </row>
     <row r="22" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A22" s="135"/>
+      <c r="A22" s="133"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="8" t="s">
@@ -4771,10 +4756,10 @@
       <c r="E22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="60"/>
+      <c r="F22" s="52"/>
     </row>
     <row r="23" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A23" s="135"/>
+      <c r="A23" s="133"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="13" t="s">
@@ -4783,10 +4768,10 @@
       <c r="E23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F23" s="60"/>
+      <c r="F23" s="52"/>
     </row>
     <row r="24" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A24" s="130" t="s">
+      <c r="A24" s="131" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -4798,15 +4783,15 @@
       <c r="D24" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="64" t="s">
+      <c r="E24" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="60" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A25" s="131"/>
+      <c r="A25" s="132"/>
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
@@ -4816,11 +4801,11 @@
       <c r="D25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="65"/>
-      <c r="F25" s="60"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="52"/>
     </row>
     <row r="26" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A26" s="131"/>
+      <c r="A26" s="132"/>
       <c r="B26" s="1" t="s">
         <v>20</v>
       </c>
@@ -4830,11 +4815,11 @@
       <c r="D26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="65"/>
-      <c r="F26" s="60"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="52"/>
     </row>
     <row r="27" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A27" s="131"/>
+      <c r="A27" s="132"/>
       <c r="B27" s="1" t="s">
         <v>21</v>
       </c>
@@ -4842,11 +4827,11 @@
       <c r="D27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="60"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="52"/>
     </row>
     <row r="28" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A28" s="131"/>
+      <c r="A28" s="132"/>
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
@@ -4854,11 +4839,11 @@
       <c r="D28" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="60"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="52"/>
     </row>
     <row r="29" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A29" s="131"/>
+      <c r="A29" s="132"/>
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
@@ -4866,21 +4851,21 @@
       <c r="D29" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="65"/>
-      <c r="F29" s="60"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="52"/>
     </row>
     <row r="30" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A30" s="132"/>
+      <c r="A30" s="134"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="66"/>
-      <c r="F30" s="61"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="53"/>
     </row>
     <row r="31" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A31" s="130" t="s">
+      <c r="A31" s="131" t="s">
         <v>147</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -4892,10 +4877,10 @@
       <c r="D31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="64" t="s">
+      <c r="E31" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="59" t="s">
+      <c r="F31" s="60" t="s">
         <v>134</v>
       </c>
       <c r="G31" t="s">
@@ -4906,7 +4891,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A32" s="131"/>
+      <c r="A32" s="132"/>
       <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
@@ -4916,14 +4901,14 @@
       <c r="D32" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="65"/>
-      <c r="F32" s="60"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="52"/>
       <c r="G32" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A33" s="131"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="1" t="s">
         <v>20</v>
       </c>
@@ -4933,8 +4918,8 @@
       <c r="D33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="65"/>
-      <c r="F33" s="60"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="52"/>
       <c r="G33" t="s">
         <v>117</v>
       </c>
@@ -4943,7 +4928,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A34" s="131"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="1" t="s">
         <v>21</v>
       </c>
@@ -4951,8 +4936,8 @@
       <c r="D34" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="65"/>
-      <c r="F34" s="60"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="52"/>
       <c r="G34" t="s">
         <v>118</v>
       </c>
@@ -4961,7 +4946,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A35" s="131"/>
+      <c r="A35" s="132"/>
       <c r="B35" s="1" t="s">
         <v>23</v>
       </c>
@@ -4969,8 +4954,8 @@
       <c r="D35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="65"/>
-      <c r="F35" s="60"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="52"/>
       <c r="G35" t="s">
         <v>119</v>
       </c>
@@ -4979,7 +4964,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A36" s="131"/>
+      <c r="A36" s="132"/>
       <c r="B36" s="1" t="s">
         <v>24</v>
       </c>
@@ -4987,8 +4972,8 @@
       <c r="D36" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="65"/>
-      <c r="F36" s="60"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="52"/>
       <c r="G36" t="s">
         <v>120</v>
       </c>
@@ -4997,14 +4982,14 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A37" s="135"/>
+      <c r="A37" s="133"/>
       <c r="B37" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="60"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="52"/>
       <c r="G37" t="s">
         <v>121</v>
       </c>
@@ -5016,14 +5001,14 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A38" s="135"/>
+      <c r="A38" s="133"/>
       <c r="B38" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="60"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="52"/>
       <c r="G38" t="s">
         <v>122</v>
       </c>
@@ -5035,14 +5020,14 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A39" s="135"/>
+      <c r="A39" s="133"/>
       <c r="B39" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="60"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="52"/>
       <c r="G39" t="s">
         <v>123</v>
       </c>
@@ -5054,7 +5039,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A40" s="132"/>
+      <c r="A40" s="134"/>
       <c r="B40" s="4" t="s">
         <v>129</v>
       </c>
@@ -5062,14 +5047,14 @@
       <c r="D40" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="66"/>
-      <c r="F40" s="61"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="53"/>
       <c r="G40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A41" s="136" t="s">
+      <c r="A41" s="162" t="s">
         <v>69</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -5081,15 +5066,15 @@
       <c r="D41" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E41" s="64" t="s">
+      <c r="E41" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="60" t="s">
+      <c r="F41" s="52" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A42" s="137"/>
+      <c r="A42" s="163"/>
       <c r="B42" s="1" t="s">
         <v>70</v>
       </c>
@@ -5097,11 +5082,11 @@
       <c r="D42" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="65"/>
-      <c r="F42" s="60"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="52"/>
     </row>
     <row r="43" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A43" s="137"/>
+      <c r="A43" s="163"/>
       <c r="B43" s="1" t="s">
         <v>49</v>
       </c>
@@ -5109,83 +5094,83 @@
       <c r="D43" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="65"/>
-      <c r="F43" s="60"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="52"/>
     </row>
     <row r="44" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A44" s="137"/>
+      <c r="A44" s="163"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="65"/>
-      <c r="F44" s="60"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="52"/>
     </row>
     <row r="45" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A45" s="137"/>
+      <c r="A45" s="163"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="65"/>
-      <c r="F45" s="60"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="52"/>
     </row>
     <row r="46" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A46" s="137"/>
+      <c r="A46" s="163"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="65"/>
-      <c r="F46" s="60"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="52"/>
     </row>
     <row r="47" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A47" s="138"/>
+      <c r="A47" s="164"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="66"/>
-      <c r="F47" s="61"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="53"/>
     </row>
     <row r="48" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A48" s="130" t="s">
+      <c r="A48" s="131" t="s">
         <v>150</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="133" t="s">
+      <c r="C48" s="160" t="s">
         <v>45</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="123" t="s">
+      <c r="E48" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="F48" s="53" t="s">
+      <c r="F48" s="84" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A49" s="131"/>
+      <c r="A49" s="132"/>
       <c r="B49" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="134"/>
+      <c r="C49" s="161"/>
       <c r="D49" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="124"/>
-      <c r="F49" s="54"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="85"/>
     </row>
     <row r="50" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A50" s="131"/>
+      <c r="A50" s="132"/>
       <c r="B50" s="5" t="s">
         <v>29</v>
       </c>
@@ -5195,11 +5180,11 @@
       <c r="D50" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="124"/>
-      <c r="F50" s="54"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="85"/>
     </row>
     <row r="51" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A51" s="131"/>
+      <c r="A51" s="132"/>
       <c r="B51" s="24" t="s">
         <v>30</v>
       </c>
@@ -5209,11 +5194,11 @@
       <c r="D51" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="124"/>
-      <c r="F51" s="54"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="85"/>
     </row>
     <row r="52" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A52" s="131"/>
+      <c r="A52" s="132"/>
       <c r="B52" s="24" t="s">
         <v>31</v>
       </c>
@@ -5223,11 +5208,11 @@
       <c r="D52" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="124"/>
-      <c r="F52" s="54"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="85"/>
     </row>
     <row r="53" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A53" s="131"/>
+      <c r="A53" s="132"/>
       <c r="B53" s="24" t="s">
         <v>32</v>
       </c>
@@ -5235,11 +5220,11 @@
       <c r="D53" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="124"/>
-      <c r="F53" s="54"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="85"/>
     </row>
     <row r="54" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A54" s="131"/>
+      <c r="A54" s="132"/>
       <c r="B54" s="24" t="s">
         <v>33</v>
       </c>
@@ -5247,29 +5232,29 @@
       <c r="D54" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="124"/>
-      <c r="F54" s="54"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="85"/>
     </row>
     <row r="55" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A55" s="132"/>
+      <c r="A55" s="134"/>
       <c r="B55" s="25"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
-      <c r="E55" s="125"/>
-      <c r="F55" s="55"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="86"/>
     </row>
     <row r="56" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A56" s="126" t="s">
+      <c r="A56" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="B56" s="126"/>
-      <c r="C56" s="126"/>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
+      <c r="B56" s="97"/>
+      <c r="C56" s="97"/>
+      <c r="D56" s="97"/>
+      <c r="E56" s="97"/>
+      <c r="F56" s="97"/>
     </row>
     <row r="57" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A57" s="141" t="s">
+      <c r="A57" s="128" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="12" t="s">
@@ -5280,10 +5265,10 @@
         <v>34</v>
       </c>
       <c r="E57" s="3"/>
-      <c r="F57" s="69"/>
+      <c r="F57" s="73"/>
     </row>
     <row r="58" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A58" s="142"/>
+      <c r="A58" s="129"/>
       <c r="B58" s="8" t="s">
         <v>15</v>
       </c>
@@ -5292,10 +5277,10 @@
         <v>15</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="70"/>
+      <c r="F58" s="74"/>
     </row>
     <row r="59" spans="1:6" ht="45.75" customHeight="1">
-      <c r="A59" s="150"/>
+      <c r="A59" s="135"/>
       <c r="B59" s="9" t="s">
         <v>10</v>
       </c>
@@ -5304,26 +5289,26 @@
         <v>10</v>
       </c>
       <c r="E59" s="2"/>
-      <c r="F59" s="70"/>
+      <c r="F59" s="74"/>
     </row>
     <row r="60" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A60" s="150"/>
+      <c r="A60" s="135"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="70"/>
+      <c r="F60" s="74"/>
     </row>
     <row r="61" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A61" s="143"/>
+      <c r="A61" s="130"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="71"/>
+      <c r="F61" s="93"/>
     </row>
     <row r="62" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A62" s="141" t="s">
+      <c r="A62" s="128" t="s">
         <v>12</v>
       </c>
       <c r="B62" s="3"/>
@@ -5334,26 +5319,26 @@
         <v>13</v>
       </c>
       <c r="E62" s="3"/>
-      <c r="F62" s="69"/>
+      <c r="F62" s="73"/>
     </row>
     <row r="63" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A63" s="142"/>
+      <c r="A63" s="129"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="70"/>
+      <c r="F63" s="74"/>
     </row>
     <row r="64" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A64" s="143"/>
+      <c r="A64" s="130"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="71"/>
+      <c r="F64" s="93"/>
     </row>
     <row r="65" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A65" s="141" t="s">
+      <c r="A65" s="128" t="s">
         <v>0</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -5364,10 +5349,10 @@
         <v>7</v>
       </c>
       <c r="E65" s="3"/>
-      <c r="F65" s="69"/>
+      <c r="F65" s="73"/>
     </row>
     <row r="66" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A66" s="142"/>
+      <c r="A66" s="129"/>
       <c r="B66" s="8" t="s">
         <v>8</v>
       </c>
@@ -5376,10 +5361,10 @@
         <v>8</v>
       </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="70"/>
+      <c r="F66" s="74"/>
     </row>
     <row r="67" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A67" s="143"/>
+      <c r="A67" s="130"/>
       <c r="B67" s="13" t="s">
         <v>9</v>
       </c>
@@ -5388,10 +5373,10 @@
         <v>9</v>
       </c>
       <c r="E67" s="4"/>
-      <c r="F67" s="71"/>
+      <c r="F67" s="93"/>
     </row>
     <row r="68" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A68" s="141" t="s">
+      <c r="A68" s="128" t="s">
         <v>42</v>
       </c>
       <c r="B68" s="9" t="s">
@@ -5402,10 +5387,10 @@
         <v>39</v>
       </c>
       <c r="E68" s="3"/>
-      <c r="F68" s="69"/>
+      <c r="F68" s="73"/>
     </row>
     <row r="69" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A69" s="142"/>
+      <c r="A69" s="129"/>
       <c r="B69" s="9" t="s">
         <v>40</v>
       </c>
@@ -5414,10 +5399,10 @@
         <v>40</v>
       </c>
       <c r="E69" s="1"/>
-      <c r="F69" s="70"/>
+      <c r="F69" s="74"/>
     </row>
     <row r="70" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A70" s="143"/>
+      <c r="A70" s="130"/>
       <c r="B70" s="9" t="s">
         <v>41</v>
       </c>
@@ -5426,10 +5411,10 @@
         <v>41</v>
       </c>
       <c r="E70" s="4"/>
-      <c r="F70" s="71"/>
+      <c r="F70" s="93"/>
     </row>
     <row r="71" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A71" s="78" t="s">
+      <c r="A71" s="107" t="s">
         <v>58</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -5444,12 +5429,12 @@
       <c r="E71" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F71" s="69" t="s">
+      <c r="F71" s="73" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A72" s="79"/>
+      <c r="A72" s="108"/>
       <c r="B72" s="1" t="s">
         <v>17</v>
       </c>
@@ -5462,10 +5447,10 @@
       <c r="E72" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F72" s="70"/>
+      <c r="F72" s="74"/>
     </row>
     <row r="73" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A73" s="79"/>
+      <c r="A73" s="108"/>
       <c r="B73" s="1" t="s">
         <v>18</v>
       </c>
@@ -5476,10 +5461,10 @@
       <c r="E73" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F73" s="70"/>
+      <c r="F73" s="74"/>
     </row>
     <row r="74" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A74" s="79"/>
+      <c r="A74" s="108"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="8" t="s">
@@ -5488,10 +5473,10 @@
       <c r="E74" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F74" s="70"/>
+      <c r="F74" s="74"/>
     </row>
     <row r="75" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A75" s="79"/>
+      <c r="A75" s="108"/>
       <c r="B75" s="7"/>
       <c r="C75" s="1"/>
       <c r="D75" s="8" t="s">
@@ -5500,10 +5485,10 @@
       <c r="E75" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F75" s="70"/>
+      <c r="F75" s="74"/>
     </row>
     <row r="76" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A76" s="79"/>
+      <c r="A76" s="108"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="8" t="s">
@@ -5512,10 +5497,10 @@
       <c r="E76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F76" s="70"/>
+      <c r="F76" s="74"/>
     </row>
     <row r="77" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A77" s="80"/>
+      <c r="A77" s="109"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="29" t="s">
@@ -5524,10 +5509,10 @@
       <c r="E77" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F77" s="71"/>
+      <c r="F77" s="93"/>
     </row>
     <row r="78" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A78" s="166" t="s">
+      <c r="A78" s="151" t="s">
         <v>66</v>
       </c>
       <c r="B78" s="26" t="s">
@@ -5542,30 +5527,30 @@
       <c r="E78" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="94" t="s">
+      <c r="F78" s="87" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A79" s="116"/>
+      <c r="A79" s="95"/>
       <c r="B79" s="30"/>
       <c r="C79" s="22"/>
       <c r="D79" s="21"/>
       <c r="E79" s="31"/>
-      <c r="F79" s="95"/>
+      <c r="F79" s="88"/>
     </row>
     <row r="80" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A80" s="143"/>
+      <c r="A80" s="130"/>
       <c r="B80" s="25"/>
       <c r="C80" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="17"/>
-      <c r="F80" s="96"/>
+      <c r="F80" s="89"/>
     </row>
     <row r="81" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A81" s="141" t="s">
+      <c r="A81" s="128" t="s">
         <v>112</v>
       </c>
       <c r="B81" s="27" t="s">
@@ -5580,22 +5565,22 @@
       <c r="E81" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F81" s="69" t="s">
+      <c r="F81" s="73" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A82" s="150"/>
+      <c r="A82" s="135"/>
       <c r="B82" s="28"/>
       <c r="C82" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="19"/>
-      <c r="F82" s="71"/>
+      <c r="F82" s="93"/>
     </row>
     <row r="83" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A83" s="141" t="s">
+      <c r="A83" s="128" t="s">
         <v>65</v>
       </c>
       <c r="B83" s="27" t="s">
@@ -5610,20 +5595,20 @@
       <c r="E83" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F83" s="147"/>
+      <c r="F83" s="152"/>
     </row>
     <row r="84" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A84" s="150"/>
+      <c r="A84" s="135"/>
       <c r="B84" s="28"/>
       <c r="C84" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="19"/>
-      <c r="F84" s="149"/>
+      <c r="F84" s="153"/>
     </row>
     <row r="85" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A85" s="115" t="s">
+      <c r="A85" s="94" t="s">
         <v>92</v>
       </c>
       <c r="B85" s="15" t="s">
@@ -5639,7 +5624,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A86" s="116"/>
+      <c r="A86" s="95"/>
       <c r="B86" s="9" t="s">
         <v>80</v>
       </c>
@@ -5649,7 +5634,7 @@
       <c r="F86" s="34"/>
     </row>
     <row r="87" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A87" s="117"/>
+      <c r="A87" s="96"/>
       <c r="B87" s="25" t="s">
         <v>91</v>
       </c>
@@ -5661,7 +5646,7 @@
       <c r="F87" s="35"/>
     </row>
     <row r="88" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A88" s="115" t="s">
+      <c r="A88" s="94" t="s">
         <v>107</v>
       </c>
       <c r="B88" s="15" t="s">
@@ -5672,32 +5657,32 @@
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="69" t="s">
+      <c r="F88" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A89" s="116"/>
+      <c r="A89" s="95"/>
       <c r="B89" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="70"/>
+      <c r="F89" s="74"/>
     </row>
     <row r="90" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A90" s="117"/>
+      <c r="A90" s="96"/>
       <c r="B90" s="25"/>
       <c r="C90" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
-      <c r="F90" s="71"/>
+      <c r="F90" s="93"/>
     </row>
     <row r="91" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A91" s="163" t="s">
+      <c r="A91" s="148" t="s">
         <v>71</v>
       </c>
       <c r="B91" s="3"/>
@@ -5706,62 +5691,62 @@
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="69" t="s">
+      <c r="F91" s="73" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A92" s="164"/>
+      <c r="A92" s="149"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="70"/>
+      <c r="F92" s="74"/>
     </row>
     <row r="93" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A93" s="164"/>
+      <c r="A93" s="149"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="70"/>
+      <c r="F93" s="74"/>
     </row>
     <row r="94" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A94" s="164"/>
+      <c r="A94" s="149"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="70"/>
+      <c r="F94" s="74"/>
     </row>
     <row r="95" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A95" s="165"/>
+      <c r="A95" s="150"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="71"/>
+      <c r="F95" s="93"/>
     </row>
     <row r="96" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A96" s="81" t="s">
+      <c r="A96" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="B96" s="81"/>
-      <c r="C96" s="81"/>
-      <c r="D96" s="81"/>
-      <c r="E96" s="81"/>
-      <c r="F96" s="81"/>
+      <c r="B96" s="115"/>
+      <c r="C96" s="115"/>
+      <c r="D96" s="115"/>
+      <c r="E96" s="115"/>
+      <c r="F96" s="115"/>
     </row>
     <row r="97" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A97" s="144" t="s">
+      <c r="A97" s="156" t="s">
         <v>50</v>
       </c>
       <c r="B97" s="3"/>
@@ -5772,12 +5757,12 @@
       <c r="E97" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F97" s="147" t="s">
+      <c r="F97" s="152" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A98" s="145"/>
+      <c r="A98" s="157"/>
       <c r="B98" s="1"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8" t="s">
@@ -5786,10 +5771,10 @@
       <c r="E98" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F98" s="148"/>
+      <c r="F98" s="159"/>
     </row>
     <row r="99" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A99" s="145"/>
+      <c r="A99" s="157"/>
       <c r="B99" s="1"/>
       <c r="C99" s="8"/>
       <c r="D99" s="9" t="s">
@@ -5798,10 +5783,10 @@
       <c r="E99" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F99" s="148"/>
+      <c r="F99" s="159"/>
     </row>
     <row r="100" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A100" s="145"/>
+      <c r="A100" s="157"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="8" t="s">
@@ -5810,10 +5795,10 @@
       <c r="E100" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="148"/>
+      <c r="F100" s="159"/>
     </row>
     <row r="101" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A101" s="145"/>
+      <c r="A101" s="157"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="8" t="s">
@@ -5822,10 +5807,10 @@
       <c r="E101" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F101" s="148"/>
+      <c r="F101" s="159"/>
     </row>
     <row r="102" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A102" s="145"/>
+      <c r="A102" s="157"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="8" t="s">
@@ -5834,10 +5819,10 @@
       <c r="E102" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F102" s="148"/>
+      <c r="F102" s="159"/>
     </row>
     <row r="103" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A103" s="145"/>
+      <c r="A103" s="157"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="8" t="s">
@@ -5846,10 +5831,10 @@
       <c r="E103" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F103" s="148"/>
+      <c r="F103" s="159"/>
     </row>
     <row r="104" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A104" s="145"/>
+      <c r="A104" s="157"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="9" t="s">
@@ -5858,10 +5843,10 @@
       <c r="E104" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F104" s="148"/>
+      <c r="F104" s="159"/>
     </row>
     <row r="105" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A105" s="145"/>
+      <c r="A105" s="157"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="9" t="s">
@@ -5870,10 +5855,10 @@
       <c r="E105" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F105" s="148"/>
+      <c r="F105" s="159"/>
     </row>
     <row r="106" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A106" s="145"/>
+      <c r="A106" s="157"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="9" t="s">
@@ -5882,26 +5867,26 @@
       <c r="E106" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F106" s="148"/>
+      <c r="F106" s="159"/>
     </row>
     <row r="107" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A107" s="146"/>
+      <c r="A107" s="158"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="18"/>
       <c r="E107" s="19"/>
-      <c r="F107" s="149"/>
+      <c r="F107" s="153"/>
     </row>
     <row r="108" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A108" s="146"/>
+      <c r="A108" s="158"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="18"/>
       <c r="E108" s="19"/>
-      <c r="F108" s="149"/>
+      <c r="F108" s="153"/>
     </row>
     <row r="109" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A109" s="154" t="s">
+      <c r="A109" s="139" t="s">
         <v>138</v>
       </c>
       <c r="B109" s="3" t="s">
@@ -5911,13 +5896,13 @@
         <v>26</v>
       </c>
       <c r="D109" s="12"/>
-      <c r="E109" s="157"/>
-      <c r="F109" s="160" t="s">
+      <c r="E109" s="142"/>
+      <c r="F109" s="145" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A110" s="155"/>
+      <c r="A110" s="140"/>
       <c r="B110" s="1" t="s">
         <v>131</v>
       </c>
@@ -5925,11 +5910,11 @@
         <v>148</v>
       </c>
       <c r="D110" s="8"/>
-      <c r="E110" s="158"/>
-      <c r="F110" s="161"/>
+      <c r="E110" s="143"/>
+      <c r="F110" s="146"/>
     </row>
     <row r="111" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A111" s="155"/>
+      <c r="A111" s="140"/>
       <c r="B111" s="1" t="s">
         <v>130</v>
       </c>
@@ -5937,11 +5922,11 @@
         <v>139</v>
       </c>
       <c r="D111" s="9"/>
-      <c r="E111" s="158"/>
-      <c r="F111" s="161"/>
+      <c r="E111" s="143"/>
+      <c r="F111" s="146"/>
     </row>
     <row r="112" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A112" s="155"/>
+      <c r="A112" s="140"/>
       <c r="B112" s="1" t="s">
         <v>129</v>
       </c>
@@ -5949,11 +5934,11 @@
         <v>140</v>
       </c>
       <c r="D112" s="8"/>
-      <c r="E112" s="158"/>
-      <c r="F112" s="161"/>
+      <c r="E112" s="143"/>
+      <c r="F112" s="146"/>
     </row>
     <row r="113" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A113" s="155"/>
+      <c r="A113" s="140"/>
       <c r="B113" s="1" t="s">
         <v>22</v>
       </c>
@@ -5961,11 +5946,11 @@
         <v>141</v>
       </c>
       <c r="D113" s="8"/>
-      <c r="E113" s="158"/>
-      <c r="F113" s="161"/>
+      <c r="E113" s="143"/>
+      <c r="F113" s="146"/>
     </row>
     <row r="114" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A114" s="155"/>
+      <c r="A114" s="140"/>
       <c r="B114" s="1" t="s">
         <v>23</v>
       </c>
@@ -5973,63 +5958,63 @@
         <v>142</v>
       </c>
       <c r="D114" s="8"/>
-      <c r="E114" s="158"/>
-      <c r="F114" s="161"/>
+      <c r="E114" s="143"/>
+      <c r="F114" s="146"/>
     </row>
     <row r="115" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A115" s="155"/>
+      <c r="A115" s="140"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D115" s="8"/>
-      <c r="E115" s="158"/>
-      <c r="F115" s="161"/>
+      <c r="E115" s="143"/>
+      <c r="F115" s="146"/>
       <c r="I115" s="36"/>
     </row>
     <row r="116" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A116" s="155"/>
+      <c r="A116" s="140"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D116" s="8"/>
-      <c r="E116" s="158"/>
-      <c r="F116" s="161"/>
+      <c r="E116" s="143"/>
+      <c r="F116" s="146"/>
       <c r="I116" s="36"/>
     </row>
     <row r="117" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A117" s="155"/>
+      <c r="A117" s="140"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D117" s="8"/>
-      <c r="E117" s="158"/>
-      <c r="F117" s="161"/>
+      <c r="E117" s="143"/>
+      <c r="F117" s="146"/>
       <c r="I117" s="36"/>
     </row>
     <row r="118" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A118" s="155"/>
+      <c r="A118" s="140"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D118" s="8"/>
-      <c r="E118" s="158"/>
-      <c r="F118" s="161"/>
+      <c r="E118" s="143"/>
+      <c r="F118" s="146"/>
       <c r="I118" s="36"/>
     </row>
     <row r="119" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A119" s="156"/>
+      <c r="A119" s="141"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="29"/>
-      <c r="E119" s="159"/>
-      <c r="F119" s="162"/>
+      <c r="E119" s="144"/>
+      <c r="F119" s="147"/>
     </row>
     <row r="120" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A120" s="139" t="s">
+      <c r="A120" s="154" t="s">
         <v>51</v>
       </c>
       <c r="B120" s="23" t="s">
@@ -6038,20 +6023,20 @@
       <c r="C120" s="22"/>
       <c r="D120" s="22"/>
       <c r="E120" s="22"/>
-      <c r="F120" s="54" t="s">
+      <c r="F120" s="85" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A121" s="140"/>
+      <c r="A121" s="155"/>
       <c r="B121" s="16"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17"/>
       <c r="E121" s="17"/>
-      <c r="F121" s="55"/>
+      <c r="F121" s="86"/>
     </row>
     <row r="122" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A122" s="47" t="s">
+      <c r="A122" s="101" t="s">
         <v>52</v>
       </c>
       <c r="B122" s="15" t="s">
@@ -6060,32 +6045,32 @@
       <c r="C122" s="14"/>
       <c r="D122" s="14"/>
       <c r="E122" s="14"/>
-      <c r="F122" s="53" t="s">
+      <c r="F122" s="84" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A123" s="48"/>
+      <c r="A123" s="102"/>
       <c r="B123" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C123" s="31"/>
       <c r="D123" s="31"/>
       <c r="E123" s="31"/>
-      <c r="F123" s="54"/>
+      <c r="F123" s="85"/>
     </row>
     <row r="124" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A124" s="48"/>
+      <c r="A124" s="102"/>
       <c r="B124" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C124" s="19"/>
       <c r="D124" s="19"/>
       <c r="E124" s="19"/>
-      <c r="F124" s="54"/>
+      <c r="F124" s="85"/>
     </row>
     <row r="125" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A125" s="151" t="s">
+      <c r="A125" s="136" t="s">
         <v>81</v>
       </c>
       <c r="B125" s="15" t="s">
@@ -6094,36 +6079,36 @@
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
-      <c r="F125" s="69" t="s">
+      <c r="F125" s="73" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A126" s="152"/>
+      <c r="A126" s="137"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="70"/>
+      <c r="F126" s="74"/>
     </row>
     <row r="127" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A127" s="152"/>
+      <c r="A127" s="137"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="70"/>
+      <c r="F127" s="74"/>
     </row>
     <row r="128" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A128" s="153"/>
+      <c r="A128" s="138"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
-      <c r="F128" s="71"/>
+      <c r="F128" s="93"/>
     </row>
     <row r="129" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A129" s="47" t="s">
+      <c r="A129" s="101" t="s">
         <v>86</v>
       </c>
       <c r="B129" s="15" t="s">
@@ -6132,43 +6117,61 @@
       <c r="C129" s="14"/>
       <c r="D129" s="14"/>
       <c r="E129" s="14"/>
-      <c r="F129" s="53" t="s">
+      <c r="F129" s="84" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A130" s="48"/>
+      <c r="A130" s="102"/>
       <c r="B130" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C130" s="31"/>
       <c r="D130" s="31"/>
       <c r="E130" s="31"/>
-      <c r="F130" s="54"/>
+      <c r="F130" s="85"/>
     </row>
     <row r="131" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A131" s="49"/>
+      <c r="A131" s="103"/>
       <c r="B131" s="16" t="s">
         <v>84</v>
       </c>
       <c r="C131" s="17"/>
       <c r="D131" s="17"/>
       <c r="E131" s="17"/>
-      <c r="F131" s="55"/>
+      <c r="F131" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="F17:F23"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="E24:E30"/>
-    <mergeCell ref="F24:F30"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="E31:E40"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="E48:E55"/>
-    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="F57:F61"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="F31:F40"/>
+    <mergeCell ref="A48:A55"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="F10:F16"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="F3:F9"/>
+    <mergeCell ref="F48:F55"/>
+    <mergeCell ref="A31:A40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="F41:F47"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A124"/>
+    <mergeCell ref="F122:F124"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="A97:A108"/>
+    <mergeCell ref="F97:F108"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F71:F77"/>
+    <mergeCell ref="A71:A77"/>
     <mergeCell ref="A129:A131"/>
     <mergeCell ref="F129:F131"/>
     <mergeCell ref="A56:F56"/>
@@ -6185,35 +6188,17 @@
     <mergeCell ref="A83:A84"/>
     <mergeCell ref="F83:F84"/>
     <mergeCell ref="A88:A90"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A122:A124"/>
-    <mergeCell ref="F122:F124"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="A97:A108"/>
-    <mergeCell ref="F97:F108"/>
-    <mergeCell ref="F88:F90"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="F71:F77"/>
-    <mergeCell ref="A71:A77"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="F31:F40"/>
-    <mergeCell ref="A48:A55"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="F10:F16"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="F3:F9"/>
-    <mergeCell ref="F48:F55"/>
-    <mergeCell ref="A31:A40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="F41:F47"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="F17:F23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="E24:E30"/>
+    <mergeCell ref="F24:F30"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="E31:E40"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="E48:E55"/>
+    <mergeCell ref="A62:A64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6288,25 +6273,25 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" t="s">
         <v>192</v>
-      </c>
-      <c r="B4" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6314,7 +6299,7 @@
         <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6322,7 +6307,7 @@
         <v>139</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6330,7 +6315,7 @@
         <v>140</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6338,7 +6323,7 @@
         <v>141</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6346,7 +6331,7 @@
         <v>142</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6354,7 +6339,7 @@
         <v>143</v>
       </c>
       <c r="B13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6362,7 +6347,7 @@
         <v>144</v>
       </c>
       <c r="B14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -6370,7 +6355,7 @@
         <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -6378,23 +6363,23 @@
         <v>149</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1"/>
@@ -6405,12 +6390,12 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/description.xlsx
+++ b/description.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="234">
   <si>
     <t>SET_ORI(W,P,R)</t>
   </si>
@@ -476,12 +476,6 @@
   </si>
   <si>
     <t>MATH_LIB.CNTR_GRAV(P1,P2,P3,P4: XYZWPR): XYZWPR</t>
-  </si>
-  <si>
-    <t>настраивает параметры в соответствии с плоской наплавкой на стационарной детале, с неподвижной ориентацией</t>
-  </si>
-  <si>
-    <t>настраивает параметры в соответствии с внутренней наплавкой на стационарной детали, ориентация изменяется</t>
   </si>
   <si>
     <t>PR[9] - фрейм плоскости наплавки проецирущего цилиндра относительно UF[1] или UF[0] -  в зависимости от значения pos_en</t>
@@ -551,9 +545,6 @@
   </si>
   <si>
     <t>wave_par(Amp, Freq, OUT_del, IN_del)</t>
-  </si>
-  <si>
-    <t>Сохраняте значения параметров колебаний в глобальные переменные</t>
   </si>
   <si>
     <t>Пересчитывает значения в зависиомсти от параметров колебаний из глобальных переменных, угловые размеры положительные или отрицательные в зависимости от значения TURN: 0 - отрицательные, 1 - положительные</t>
@@ -767,6 +758,25 @@
 turn =1 в плюс
 wave=0 -без колебаний
 wave=1 -с колебаниями согласно последних заданных</t>
+  </si>
+  <si>
+    <t>rot - поворот вокруг оси инструмента относительно PR[10]</t>
+  </si>
+  <si>
+    <t>till - наклон оси Z инструмента вокруг касательной к траетории, till = 0 соответсвует перпендикуляру к плоскости XY Pr[10]</t>
+  </si>
+  <si>
+    <t>rot - угол между X осью инструмент и плоскостью XZ Pr[10]</t>
+  </si>
+  <si>
+    <t>настраивает параметры в соответствии с плоской наплавкой на стационарной детале, с неподвижной ориентацией
+till - наклон оси Z инструмента вокруг касательной к траетории, till = 0 соответсвует перпендикуляру к плоскости XY Pr[10]
+rot - угол между X осью инструмент и плоскостью XZ Pr[10]</t>
+  </si>
+  <si>
+    <t>настраивает параметры в соответствии с внутренней наплавкой на стационарной детали, ориентация инструмента связана с траекторией
+till - наклон оси Z инструмента вокруг касательной к траетории, till = 0 соответсвует перпендикуляру к плоскости XY Pr[10]
+rot - поворот инструмента вокруг оси Z инструмента</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1329,27 +1339,237 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1368,209 +1588,38 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1581,17 +1630,23 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1643,45 +1698,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1985,8 +2001,8 @@
   <dimension ref="A1:I197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C109" sqref="C109"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2022,54 +2038,54 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="123"/>
     </row>
     <row r="3" spans="1:6" ht="21" customHeight="1">
-      <c r="A3" s="54" t="s">
-        <v>161</v>
+      <c r="A3" s="124" t="s">
+        <v>159</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="12"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="57" t="s">
-        <v>160</v>
+      <c r="F3" s="127" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1">
-      <c r="A4" s="55"/>
+      <c r="A4" s="125"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="8"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="58"/>
+      <c r="F4" s="128"/>
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1">
-      <c r="A5" s="55"/>
+      <c r="A5" s="125"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="8"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="58"/>
+      <c r="F5" s="128"/>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" thickBot="1">
-      <c r="A6" s="56"/>
+      <c r="A6" s="126"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="9"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="59"/>
+      <c r="F6" s="129"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1">
-      <c r="A7" s="49" t="s">
-        <v>212</v>
+      <c r="A7" s="82" t="s">
+        <v>209</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
@@ -2081,12 +2097,12 @@
       <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="52" t="s">
-        <v>154</v>
+      <c r="F7" s="62" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1">
-      <c r="A8" s="50"/>
+      <c r="A8" s="83"/>
       <c r="B8" s="1" t="s">
         <v>95</v>
       </c>
@@ -2097,12 +2113,12 @@
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="52"/>
+      <c r="F8" s="62"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1">
-      <c r="A9" s="50"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="2" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="9" t="s">
@@ -2111,10 +2127,10 @@
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="62"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1">
-      <c r="A10" s="50"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="8" t="s">
@@ -2123,10 +2139,10 @@
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="52"/>
+      <c r="F10" s="62"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="50"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="8" t="s">
@@ -2135,10 +2151,10 @@
       <c r="E11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="52"/>
+      <c r="F11" s="62"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="50"/>
+      <c r="A12" s="83"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="8" t="s">
@@ -2147,10 +2163,10 @@
       <c r="E12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="52"/>
+      <c r="F12" s="62"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="51"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="13" t="s">
@@ -2159,11 +2175,11 @@
       <c r="E13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="53"/>
+      <c r="F13" s="63"/>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1">
-      <c r="A14" s="49" t="s">
-        <v>211</v>
+      <c r="A14" s="82" t="s">
+        <v>208</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
@@ -2175,12 +2191,12 @@
       <c r="E14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="60" t="s">
-        <v>153</v>
+      <c r="F14" s="61" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1">
-      <c r="A15" s="50"/>
+      <c r="A15" s="83"/>
       <c r="B15" s="1" t="s">
         <v>95</v>
       </c>
@@ -2191,12 +2207,12 @@
       <c r="E15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="52"/>
+      <c r="F15" s="62"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1">
-      <c r="A16" s="50"/>
+      <c r="A16" s="83"/>
       <c r="B16" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="9" t="s">
@@ -2205,10 +2221,10 @@
       <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="52"/>
+      <c r="F16" s="62"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1">
-      <c r="A17" s="50"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="8" t="s">
@@ -2217,10 +2233,10 @@
       <c r="E17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="52"/>
+      <c r="F17" s="62"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
-      <c r="A18" s="50"/>
+      <c r="A18" s="83"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="8" t="s">
@@ -2229,10 +2245,10 @@
       <c r="E18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="52"/>
+      <c r="F18" s="62"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1">
-      <c r="A19" s="50"/>
+      <c r="A19" s="83"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="8" t="s">
@@ -2241,10 +2257,10 @@
       <c r="E19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="52"/>
+      <c r="F19" s="62"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A20" s="51"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="13" t="s">
@@ -2253,65 +2269,67 @@
       <c r="E20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="53"/>
+      <c r="F20" s="63"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1">
-      <c r="A21" s="71" t="s">
-        <v>176</v>
+      <c r="A21" s="91" t="s">
+        <v>174</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E21" s="61"/>
-      <c r="F21" s="60" t="s">
-        <v>177</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="E21" s="66"/>
+      <c r="F21" s="48"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="72"/>
+      <c r="A22" s="92"/>
       <c r="B22" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="52"/>
+        <v>178</v>
+      </c>
+      <c r="E22" s="67"/>
+      <c r="F22" s="47" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="72"/>
+      <c r="A23" s="92"/>
       <c r="B23" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="52"/>
+        <v>177</v>
+      </c>
+      <c r="E23" s="67"/>
+      <c r="F23" s="47"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A24" s="72"/>
+      <c r="A24" s="92"/>
       <c r="B24" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="E24" s="62"/>
-      <c r="F24" s="52"/>
+        <v>176</v>
+      </c>
+      <c r="E24" s="67"/>
+      <c r="F24" s="47" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1">
-      <c r="A25" s="49" t="s">
-        <v>162</v>
+      <c r="A25" s="82" t="s">
+        <v>160</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>25</v>
@@ -2319,17 +2337,17 @@
       <c r="D25" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="61" t="s">
+      <c r="E25" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="64" t="s">
-        <v>231</v>
+      <c r="F25" s="115" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1">
-      <c r="A26" s="50"/>
+      <c r="A26" s="83"/>
       <c r="B26" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>26</v>
@@ -2337,79 +2355,79 @@
       <c r="D26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="62"/>
-      <c r="F26" s="65"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="116"/>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1">
-      <c r="A27" s="50"/>
+      <c r="A27" s="83"/>
       <c r="B27" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C27" s="67" t="s">
-        <v>156</v>
+        <v>217</v>
+      </c>
+      <c r="C27" s="118" t="s">
+        <v>154</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="65"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="116"/>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1">
-      <c r="A28" s="50"/>
+      <c r="A28" s="83"/>
       <c r="B28" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C28" s="68"/>
+        <v>218</v>
+      </c>
+      <c r="C28" s="119"/>
       <c r="D28" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="62"/>
-      <c r="F28" s="65"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="116"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1">
-      <c r="A29" s="50"/>
+      <c r="A29" s="83"/>
       <c r="B29" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C29" s="67" t="s">
-        <v>155</v>
+        <v>219</v>
+      </c>
+      <c r="C29" s="118" t="s">
+        <v>153</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="62"/>
-      <c r="F29" s="65"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="116"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1">
-      <c r="A30" s="50"/>
+      <c r="A30" s="83"/>
       <c r="B30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="69"/>
+      <c r="C30" s="120"/>
       <c r="D30" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="62"/>
-      <c r="F30" s="65"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="116"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A31" s="51"/>
+      <c r="A31" s="84"/>
       <c r="B31" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C31" s="70"/>
+        <v>155</v>
+      </c>
+      <c r="C31" s="121"/>
       <c r="D31" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="63"/>
-      <c r="F31" s="66"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="117"/>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1">
-      <c r="A32" s="49" t="s">
-        <v>159</v>
+      <c r="A32" s="82" t="s">
+        <v>157</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>25</v>
@@ -2417,17 +2435,17 @@
       <c r="D32" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="61" t="s">
+      <c r="E32" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="60" t="s">
-        <v>158</v>
+      <c r="F32" s="61" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1">
-      <c r="A33" s="50"/>
+      <c r="A33" s="83"/>
       <c r="B33" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>26</v>
@@ -2435,13 +2453,13 @@
       <c r="D33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="62"/>
-      <c r="F33" s="52"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="62"/>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1">
-      <c r="A34" s="50"/>
+      <c r="A34" s="83"/>
       <c r="B34" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>45</v>
@@ -2449,35 +2467,35 @@
       <c r="D34" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="62"/>
-      <c r="F34" s="52"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="62"/>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1">
-      <c r="A35" s="50"/>
+      <c r="A35" s="83"/>
       <c r="B35" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="62"/>
-      <c r="F35" s="52"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="62"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1">
-      <c r="A36" s="50"/>
+      <c r="A36" s="83"/>
       <c r="B36" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="62"/>
-      <c r="F36" s="52"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="62"/>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1">
-      <c r="A37" s="50"/>
+      <c r="A37" s="83"/>
       <c r="B37" s="1" t="s">
         <v>24</v>
       </c>
@@ -2485,24 +2503,24 @@
       <c r="D37" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="62"/>
-      <c r="F37" s="52"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="62"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A38" s="51"/>
+      <c r="A38" s="84"/>
       <c r="B38" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="63"/>
-      <c r="F38" s="53"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="63"/>
     </row>
     <row r="39" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A39" s="75" t="s">
-        <v>175</v>
+      <c r="A39" s="107" t="s">
+        <v>173</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>48</v>
@@ -2513,15 +2531,15 @@
       <c r="D39" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="61" t="s">
+      <c r="E39" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="60" t="s">
+      <c r="F39" s="61" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A40" s="76"/>
+      <c r="A40" s="108"/>
       <c r="B40" s="1" t="s">
         <v>70</v>
       </c>
@@ -2529,11 +2547,11 @@
       <c r="D40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="62"/>
-      <c r="F40" s="52"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="62"/>
     </row>
     <row r="41" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A41" s="76"/>
+      <c r="A41" s="108"/>
       <c r="B41" s="1" t="s">
         <v>49</v>
       </c>
@@ -2541,83 +2559,83 @@
       <c r="D41" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="62"/>
-      <c r="F41" s="52"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="62"/>
     </row>
     <row r="42" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A42" s="76"/>
+      <c r="A42" s="108"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="62"/>
-      <c r="F42" s="52"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="62"/>
     </row>
     <row r="43" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A43" s="76"/>
+      <c r="A43" s="108"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="62"/>
-      <c r="F43" s="52"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="62"/>
     </row>
     <row r="44" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A44" s="76"/>
+      <c r="A44" s="108"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="62"/>
-      <c r="F44" s="52"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="62"/>
     </row>
     <row r="45" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A45" s="77"/>
+      <c r="A45" s="109"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="63"/>
-      <c r="F45" s="53"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="63"/>
     </row>
     <row r="46" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A46" s="71" t="s">
-        <v>224</v>
+      <c r="A46" s="91" t="s">
+        <v>221</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="79" t="s">
+      <c r="C46" s="110" t="s">
         <v>45</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="81" t="s">
+      <c r="E46" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="84" t="s">
+      <c r="F46" s="55" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1">
-      <c r="A47" s="72"/>
+      <c r="A47" s="92"/>
       <c r="B47" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C47" s="80"/>
+        <v>222</v>
+      </c>
+      <c r="C47" s="111"/>
       <c r="D47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="82"/>
-      <c r="F47" s="85"/>
+      <c r="E47" s="113"/>
+      <c r="F47" s="56"/>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1">
-      <c r="A48" s="72"/>
+      <c r="A48" s="92"/>
       <c r="B48" s="5" t="s">
         <v>29</v>
       </c>
@@ -2627,11 +2645,11 @@
       <c r="D48" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="82"/>
-      <c r="F48" s="85"/>
+      <c r="E48" s="113"/>
+      <c r="F48" s="56"/>
     </row>
     <row r="49" spans="1:6" ht="30" customHeight="1">
-      <c r="A49" s="72"/>
+      <c r="A49" s="92"/>
       <c r="B49" s="24" t="s">
         <v>30</v>
       </c>
@@ -2641,11 +2659,11 @@
       <c r="D49" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="82"/>
-      <c r="F49" s="85"/>
+      <c r="E49" s="113"/>
+      <c r="F49" s="56"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1">
-      <c r="A50" s="72"/>
+      <c r="A50" s="92"/>
       <c r="B50" s="24" t="s">
         <v>31</v>
       </c>
@@ -2655,11 +2673,11 @@
       <c r="D50" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="82"/>
-      <c r="F50" s="85"/>
+      <c r="E50" s="113"/>
+      <c r="F50" s="56"/>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1">
-      <c r="A51" s="72"/>
+      <c r="A51" s="92"/>
       <c r="B51" s="24" t="s">
         <v>32</v>
       </c>
@@ -2667,11 +2685,11 @@
       <c r="D51" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="82"/>
-      <c r="F51" s="85"/>
+      <c r="E51" s="113"/>
+      <c r="F51" s="56"/>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1">
-      <c r="A52" s="72"/>
+      <c r="A52" s="92"/>
       <c r="B52" s="24" t="s">
         <v>33</v>
       </c>
@@ -2679,19 +2697,19 @@
       <c r="D52" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="82"/>
-      <c r="F52" s="85"/>
+      <c r="E52" s="113"/>
+      <c r="F52" s="56"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A53" s="78"/>
+      <c r="A53" s="93"/>
       <c r="B53" s="25"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="86"/>
+      <c r="E53" s="114"/>
+      <c r="F53" s="57"/>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1">
-      <c r="A54" s="71" t="s">
+      <c r="A54" s="91" t="s">
         <v>42</v>
       </c>
       <c r="B54" s="9" t="s">
@@ -2702,10 +2720,10 @@
         <v>39</v>
       </c>
       <c r="E54" s="3"/>
-      <c r="F54" s="73"/>
+      <c r="F54" s="71"/>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1">
-      <c r="A55" s="72"/>
+      <c r="A55" s="92"/>
       <c r="B55" s="9" t="s">
         <v>40</v>
       </c>
@@ -2714,10 +2732,10 @@
         <v>40</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="74"/>
+      <c r="F55" s="72"/>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A56" s="72"/>
+      <c r="A56" s="92"/>
       <c r="B56" s="18" t="s">
         <v>41</v>
       </c>
@@ -2726,10 +2744,10 @@
         <v>41</v>
       </c>
       <c r="E56" s="2"/>
-      <c r="F56" s="74"/>
+      <c r="F56" s="72"/>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1">
-      <c r="A57" s="71" t="s">
+      <c r="A57" s="91" t="s">
         <v>66</v>
       </c>
       <c r="B57" s="27" t="s">
@@ -2744,30 +2762,30 @@
       <c r="E57" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F57" s="87" t="s">
+      <c r="F57" s="94" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="72"/>
+      <c r="A58" s="92"/>
       <c r="B58" s="30"/>
       <c r="C58" s="22"/>
       <c r="D58" s="21"/>
       <c r="E58" s="31"/>
-      <c r="F58" s="88"/>
+      <c r="F58" s="95"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A59" s="78"/>
+      <c r="A59" s="93"/>
       <c r="B59" s="25"/>
       <c r="C59" s="17" t="s">
         <v>67</v>
       </c>
       <c r="D59" s="16"/>
       <c r="E59" s="17"/>
-      <c r="F59" s="89"/>
+      <c r="F59" s="96"/>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1">
-      <c r="A60" s="71" t="s">
+      <c r="A60" s="91" t="s">
         <v>112</v>
       </c>
       <c r="B60" s="27" t="s">
@@ -2782,59 +2800,59 @@
       <c r="E60" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F60" s="73" t="s">
+      <c r="F60" s="71" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A61" s="78"/>
+      <c r="A61" s="93"/>
       <c r="B61" s="28"/>
       <c r="C61" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="19"/>
-      <c r="F61" s="93"/>
+      <c r="F61" s="73"/>
     </row>
     <row r="62" spans="1:6" ht="58.5" customHeight="1">
-      <c r="A62" s="49" t="s">
-        <v>173</v>
+      <c r="A62" s="82" t="s">
+        <v>171</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="110" t="s">
-        <v>228</v>
+      <c r="F62" s="85" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="58.5" customHeight="1">
-      <c r="A63" s="50"/>
+      <c r="A63" s="83"/>
       <c r="B63" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="111"/>
+      <c r="F63" s="86"/>
     </row>
     <row r="64" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A64" s="51"/>
+      <c r="A64" s="84"/>
       <c r="B64" s="25"/>
       <c r="C64" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="112"/>
+      <c r="F64" s="87"/>
     </row>
     <row r="65" spans="1:6" ht="45.75" customHeight="1">
-      <c r="A65" s="49" t="s">
-        <v>165</v>
+      <c r="A65" s="82" t="s">
+        <v>163</v>
       </c>
       <c r="B65" s="15" t="s">
         <v>79</v>
@@ -2844,44 +2862,44 @@
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="110" t="s">
-        <v>230</v>
+      <c r="F65" s="85" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A66" s="50"/>
+      <c r="A66" s="83"/>
       <c r="B66" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="111"/>
+      <c r="F66" s="86"/>
     </row>
     <row r="67" spans="1:6" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A67" s="51"/>
+      <c r="A67" s="84"/>
       <c r="B67" s="25"/>
       <c r="C67" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="112"/>
+      <c r="F67" s="87"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A68" s="97" t="s">
+      <c r="A68" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="B68" s="97"/>
-      <c r="C68" s="97"/>
-      <c r="D68" s="97"/>
-      <c r="E68" s="97"/>
-      <c r="F68" s="97"/>
+      <c r="B68" s="103"/>
+      <c r="C68" s="103"/>
+      <c r="D68" s="103"/>
+      <c r="E68" s="103"/>
+      <c r="F68" s="103"/>
     </row>
     <row r="69" spans="1:6" ht="30" customHeight="1">
-      <c r="A69" s="94" t="s">
+      <c r="A69" s="100" t="s">
         <v>62</v>
       </c>
       <c r="B69" s="12" t="s">
@@ -2892,10 +2910,10 @@
         <v>34</v>
       </c>
       <c r="E69" s="3"/>
-      <c r="F69" s="73"/>
+      <c r="F69" s="71"/>
     </row>
     <row r="70" spans="1:6" ht="30" customHeight="1">
-      <c r="A70" s="95"/>
+      <c r="A70" s="101"/>
       <c r="B70" s="8" t="s">
         <v>15</v>
       </c>
@@ -2904,10 +2922,10 @@
         <v>15</v>
       </c>
       <c r="E70" s="1"/>
-      <c r="F70" s="74"/>
+      <c r="F70" s="72"/>
     </row>
     <row r="71" spans="1:6" ht="45" customHeight="1">
-      <c r="A71" s="95"/>
+      <c r="A71" s="101"/>
       <c r="B71" s="9" t="s">
         <v>10</v>
       </c>
@@ -2916,26 +2934,26 @@
         <v>10</v>
       </c>
       <c r="E71" s="2"/>
-      <c r="F71" s="74"/>
+      <c r="F71" s="72"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="95"/>
+      <c r="A72" s="101"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="74"/>
+      <c r="F72" s="72"/>
     </row>
     <row r="73" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A73" s="96"/>
+      <c r="A73" s="102"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
-      <c r="F73" s="93"/>
+      <c r="F73" s="73"/>
     </row>
     <row r="74" spans="1:6" ht="30" customHeight="1">
-      <c r="A74" s="98" t="s">
+      <c r="A74" s="104" t="s">
         <v>12</v>
       </c>
       <c r="B74" s="3"/>
@@ -2946,26 +2964,26 @@
         <v>13</v>
       </c>
       <c r="E74" s="3"/>
-      <c r="F74" s="73"/>
+      <c r="F74" s="71"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="99"/>
+      <c r="A75" s="105"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="74"/>
+      <c r="F75" s="72"/>
     </row>
     <row r="76" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A76" s="100"/>
+      <c r="A76" s="106"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
-      <c r="F76" s="93"/>
+      <c r="F76" s="73"/>
     </row>
     <row r="77" spans="1:6" ht="30" customHeight="1">
-      <c r="A77" s="94" t="s">
+      <c r="A77" s="100" t="s">
         <v>0</v>
       </c>
       <c r="B77" s="8" t="s">
@@ -2976,10 +2994,10 @@
         <v>7</v>
       </c>
       <c r="E77" s="3"/>
-      <c r="F77" s="73"/>
+      <c r="F77" s="71"/>
     </row>
     <row r="78" spans="1:6" ht="30" customHeight="1">
-      <c r="A78" s="95"/>
+      <c r="A78" s="101"/>
       <c r="B78" s="8" t="s">
         <v>8</v>
       </c>
@@ -2988,10 +3006,10 @@
         <v>8</v>
       </c>
       <c r="E78" s="1"/>
-      <c r="F78" s="74"/>
+      <c r="F78" s="72"/>
     </row>
     <row r="79" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A79" s="96"/>
+      <c r="A79" s="102"/>
       <c r="B79" s="13" t="s">
         <v>9</v>
       </c>
@@ -3000,17 +3018,17 @@
         <v>9</v>
       </c>
       <c r="E79" s="4"/>
-      <c r="F79" s="93"/>
+      <c r="F79" s="73"/>
     </row>
     <row r="80" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A80" s="90" t="s">
-        <v>166</v>
+      <c r="A80" s="97" t="s">
+        <v>164</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D80" s="12" t="s">
         <v>34</v>
@@ -3018,12 +3036,12 @@
       <c r="E80" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F80" s="73" t="s">
+      <c r="F80" s="71" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A81" s="91"/>
+      <c r="A81" s="98"/>
       <c r="B81" s="1" t="s">
         <v>17</v>
       </c>
@@ -3036,15 +3054,15 @@
       <c r="E81" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F81" s="74"/>
+      <c r="F81" s="72"/>
     </row>
     <row r="82" spans="1:6" ht="30" customHeight="1">
-      <c r="A82" s="91"/>
+      <c r="A82" s="98"/>
       <c r="B82" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>10</v>
@@ -3052,10 +3070,10 @@
       <c r="E82" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F82" s="74"/>
+      <c r="F82" s="72"/>
     </row>
     <row r="83" spans="1:6" ht="30" customHeight="1">
-      <c r="A83" s="91"/>
+      <c r="A83" s="98"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="8" t="s">
@@ -3064,10 +3082,10 @@
       <c r="E83" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F83" s="74"/>
+      <c r="F83" s="72"/>
     </row>
     <row r="84" spans="1:6" ht="15" customHeight="1">
-      <c r="A84" s="91"/>
+      <c r="A84" s="98"/>
       <c r="B84" s="7"/>
       <c r="C84" s="1"/>
       <c r="D84" s="8" t="s">
@@ -3076,10 +3094,10 @@
       <c r="E84" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F84" s="74"/>
+      <c r="F84" s="72"/>
     </row>
     <row r="85" spans="1:6" ht="15" customHeight="1">
-      <c r="A85" s="91"/>
+      <c r="A85" s="98"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="8" t="s">
@@ -3088,10 +3106,10 @@
       <c r="E85" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F85" s="74"/>
+      <c r="F85" s="72"/>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A86" s="92"/>
+      <c r="A86" s="99"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="29" t="s">
@@ -3100,10 +3118,10 @@
       <c r="E86" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F86" s="93"/>
+      <c r="F86" s="73"/>
     </row>
     <row r="87" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A87" s="107" t="s">
+      <c r="A87" s="64" t="s">
         <v>58</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -3118,12 +3136,12 @@
       <c r="E87" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F87" s="73" t="s">
+      <c r="F87" s="71" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A88" s="108"/>
+      <c r="A88" s="65"/>
       <c r="B88" s="1" t="s">
         <v>17</v>
       </c>
@@ -3136,10 +3154,10 @@
       <c r="E88" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F88" s="74"/>
+      <c r="F88" s="72"/>
     </row>
     <row r="89" spans="1:6" ht="30" customHeight="1">
-      <c r="A89" s="108"/>
+      <c r="A89" s="65"/>
       <c r="B89" s="1" t="s">
         <v>18</v>
       </c>
@@ -3150,10 +3168,10 @@
       <c r="E89" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F89" s="74"/>
+      <c r="F89" s="72"/>
     </row>
     <row r="90" spans="1:6" ht="30" customHeight="1">
-      <c r="A90" s="108"/>
+      <c r="A90" s="65"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="8" t="s">
@@ -3162,10 +3180,10 @@
       <c r="E90" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F90" s="74"/>
+      <c r="F90" s="72"/>
     </row>
     <row r="91" spans="1:6" ht="15" customHeight="1">
-      <c r="A91" s="108"/>
+      <c r="A91" s="65"/>
       <c r="B91" s="7"/>
       <c r="C91" s="1"/>
       <c r="D91" s="8" t="s">
@@ -3174,10 +3192,10 @@
       <c r="E91" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F91" s="74"/>
+      <c r="F91" s="72"/>
     </row>
     <row r="92" spans="1:6" ht="15" customHeight="1">
-      <c r="A92" s="108"/>
+      <c r="A92" s="65"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="8" t="s">
@@ -3186,10 +3204,10 @@
       <c r="E92" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F92" s="74"/>
+      <c r="F92" s="72"/>
     </row>
     <row r="93" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A93" s="109"/>
+      <c r="A93" s="74"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="29" t="s">
@@ -3198,11 +3216,11 @@
       <c r="E93" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F93" s="93"/>
+      <c r="F93" s="73"/>
     </row>
     <row r="94" spans="1:6" ht="30" customHeight="1">
-      <c r="A94" s="107" t="s">
-        <v>164</v>
+      <c r="A94" s="64" t="s">
+        <v>162</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="12" t="s">
@@ -3210,53 +3228,53 @@
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
-      <c r="F94" s="73" t="s">
+      <c r="F94" s="71" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="108"/>
+      <c r="A95" s="65"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="74"/>
+      <c r="F95" s="72"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="108"/>
+      <c r="A96" s="65"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="74"/>
+      <c r="F96" s="72"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="108"/>
+      <c r="A97" s="65"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="74"/>
+      <c r="F97" s="72"/>
     </row>
     <row r="98" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A98" s="109"/>
+      <c r="A98" s="74"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
-      <c r="F98" s="93"/>
+      <c r="F98" s="73"/>
     </row>
     <row r="99" spans="1:6" ht="30" customHeight="1">
-      <c r="A99" s="107" t="s">
-        <v>210</v>
+      <c r="A99" s="64" t="s">
+        <v>207</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>19</v>
@@ -3267,15 +3285,15 @@
       <c r="D99" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E99" s="61" t="s">
+      <c r="E99" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="F99" s="60" t="s">
-        <v>158</v>
+      <c r="F99" s="61" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="30" customHeight="1">
-      <c r="A100" s="108"/>
+      <c r="A100" s="65"/>
       <c r="B100" s="1" t="s">
         <v>22</v>
       </c>
@@ -3285,11 +3303,11 @@
       <c r="D100" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E100" s="62"/>
-      <c r="F100" s="52"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="62"/>
     </row>
     <row r="101" spans="1:6" ht="30" customHeight="1">
-      <c r="A101" s="108"/>
+      <c r="A101" s="65"/>
       <c r="B101" s="1" t="s">
         <v>20</v>
       </c>
@@ -3299,11 +3317,11 @@
       <c r="D101" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E101" s="62"/>
-      <c r="F101" s="52"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="62"/>
     </row>
     <row r="102" spans="1:6" ht="30" customHeight="1">
-      <c r="A102" s="108"/>
+      <c r="A102" s="65"/>
       <c r="B102" s="1" t="s">
         <v>21</v>
       </c>
@@ -3311,11 +3329,11 @@
       <c r="D102" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E102" s="62"/>
-      <c r="F102" s="52"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="62"/>
     </row>
     <row r="103" spans="1:6" ht="15" customHeight="1">
-      <c r="A103" s="108"/>
+      <c r="A103" s="65"/>
       <c r="B103" s="1" t="s">
         <v>23</v>
       </c>
@@ -3323,11 +3341,11 @@
       <c r="D103" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E103" s="62"/>
-      <c r="F103" s="52"/>
+      <c r="E103" s="67"/>
+      <c r="F103" s="62"/>
     </row>
     <row r="104" spans="1:6" ht="15" customHeight="1">
-      <c r="A104" s="108"/>
+      <c r="A104" s="65"/>
       <c r="B104" s="1" t="s">
         <v>24</v>
       </c>
@@ -3335,22 +3353,22 @@
       <c r="D104" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E104" s="62"/>
-      <c r="F104" s="52"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="62"/>
     </row>
     <row r="105" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A105" s="108"/>
+      <c r="A105" s="65"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E105" s="63"/>
-      <c r="F105" s="53"/>
+      <c r="E105" s="68"/>
+      <c r="F105" s="63"/>
     </row>
     <row r="106" spans="1:6" ht="30" customHeight="1">
-      <c r="A106" s="107" t="s">
-        <v>186</v>
+      <c r="A106" s="64" t="s">
+        <v>183</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>19</v>
@@ -3361,15 +3379,15 @@
       <c r="D106" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E106" s="61" t="s">
+      <c r="E106" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="F106" s="60" t="s">
-        <v>158</v>
+      <c r="F106" s="61" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="30" customHeight="1">
-      <c r="A107" s="108"/>
+      <c r="A107" s="65"/>
       <c r="B107" s="1" t="s">
         <v>22</v>
       </c>
@@ -3379,11 +3397,11 @@
       <c r="D107" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E107" s="62"/>
-      <c r="F107" s="52"/>
+      <c r="E107" s="67"/>
+      <c r="F107" s="62"/>
     </row>
     <row r="108" spans="1:6" ht="30" customHeight="1">
-      <c r="A108" s="108"/>
+      <c r="A108" s="65"/>
       <c r="B108" s="1" t="s">
         <v>20</v>
       </c>
@@ -3393,11 +3411,11 @@
       <c r="D108" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E108" s="62"/>
-      <c r="F108" s="52"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="62"/>
     </row>
     <row r="109" spans="1:6" ht="30" customHeight="1">
-      <c r="A109" s="108"/>
+      <c r="A109" s="65"/>
       <c r="B109" s="1" t="s">
         <v>21</v>
       </c>
@@ -3405,11 +3423,11 @@
       <c r="D109" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E109" s="62"/>
-      <c r="F109" s="52"/>
+      <c r="E109" s="67"/>
+      <c r="F109" s="62"/>
     </row>
     <row r="110" spans="1:6" ht="15" customHeight="1">
-      <c r="A110" s="108"/>
+      <c r="A110" s="65"/>
       <c r="B110" s="1" t="s">
         <v>23</v>
       </c>
@@ -3417,11 +3435,11 @@
       <c r="D110" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E110" s="62"/>
-      <c r="F110" s="52"/>
+      <c r="E110" s="67"/>
+      <c r="F110" s="62"/>
     </row>
     <row r="111" spans="1:6" ht="15" customHeight="1">
-      <c r="A111" s="108"/>
+      <c r="A111" s="65"/>
       <c r="B111" s="1" t="s">
         <v>24</v>
       </c>
@@ -3429,22 +3447,22 @@
       <c r="D111" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E111" s="62"/>
-      <c r="F111" s="52"/>
+      <c r="E111" s="67"/>
+      <c r="F111" s="62"/>
     </row>
     <row r="112" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A112" s="108"/>
+      <c r="A112" s="65"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E112" s="63"/>
-      <c r="F112" s="53"/>
+      <c r="E112" s="68"/>
+      <c r="F112" s="63"/>
     </row>
     <row r="113" spans="1:6" ht="30" customHeight="1">
-      <c r="A113" s="107" t="s">
-        <v>187</v>
+      <c r="A113" s="64" t="s">
+        <v>184</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>19</v>
@@ -3455,15 +3473,15 @@
       <c r="D113" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E113" s="61" t="s">
+      <c r="E113" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="F113" s="60" t="s">
-        <v>158</v>
+      <c r="F113" s="61" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="30" customHeight="1">
-      <c r="A114" s="108"/>
+      <c r="A114" s="65"/>
       <c r="B114" s="1" t="s">
         <v>22</v>
       </c>
@@ -3473,11 +3491,11 @@
       <c r="D114" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E114" s="62"/>
-      <c r="F114" s="52"/>
+      <c r="E114" s="67"/>
+      <c r="F114" s="62"/>
     </row>
     <row r="115" spans="1:6" ht="30" customHeight="1">
-      <c r="A115" s="108"/>
+      <c r="A115" s="65"/>
       <c r="B115" s="1" t="s">
         <v>20</v>
       </c>
@@ -3487,11 +3505,11 @@
       <c r="D115" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E115" s="62"/>
-      <c r="F115" s="52"/>
+      <c r="E115" s="67"/>
+      <c r="F115" s="62"/>
     </row>
     <row r="116" spans="1:6" ht="30" customHeight="1">
-      <c r="A116" s="108"/>
+      <c r="A116" s="65"/>
       <c r="B116" s="1" t="s">
         <v>21</v>
       </c>
@@ -3499,11 +3517,11 @@
       <c r="D116" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E116" s="62"/>
-      <c r="F116" s="52"/>
+      <c r="E116" s="67"/>
+      <c r="F116" s="62"/>
     </row>
     <row r="117" spans="1:6" ht="15" customHeight="1">
-      <c r="A117" s="108"/>
+      <c r="A117" s="65"/>
       <c r="B117" s="1" t="s">
         <v>23</v>
       </c>
@@ -3511,11 +3529,11 @@
       <c r="D117" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E117" s="62"/>
-      <c r="F117" s="52"/>
+      <c r="E117" s="67"/>
+      <c r="F117" s="62"/>
     </row>
     <row r="118" spans="1:6" ht="15" customHeight="1">
-      <c r="A118" s="108"/>
+      <c r="A118" s="65"/>
       <c r="B118" s="1" t="s">
         <v>24</v>
       </c>
@@ -3523,31 +3541,31 @@
       <c r="D118" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E118" s="62"/>
-      <c r="F118" s="52"/>
+      <c r="E118" s="67"/>
+      <c r="F118" s="62"/>
     </row>
     <row r="119" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A119" s="108"/>
+      <c r="A119" s="65"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E119" s="63"/>
-      <c r="F119" s="53"/>
+      <c r="E119" s="68"/>
+      <c r="F119" s="63"/>
     </row>
     <row r="120" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A120" s="115" t="s">
+      <c r="A120" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="B120" s="115"/>
-      <c r="C120" s="115"/>
-      <c r="D120" s="115"/>
-      <c r="E120" s="115"/>
-      <c r="F120" s="115"/>
+      <c r="B120" s="75"/>
+      <c r="C120" s="75"/>
+      <c r="D120" s="75"/>
+      <c r="E120" s="75"/>
+      <c r="F120" s="75"/>
     </row>
     <row r="121" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A121" s="113" t="s">
+      <c r="A121" s="76" t="s">
         <v>50</v>
       </c>
       <c r="B121" s="3"/>
@@ -3558,12 +3576,12 @@
       <c r="E121" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F121" s="117" t="s">
+      <c r="F121" s="79" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A122" s="114"/>
+      <c r="A122" s="77"/>
       <c r="B122" s="1"/>
       <c r="C122" s="8"/>
       <c r="D122" s="8" t="s">
@@ -3572,10 +3590,10 @@
       <c r="E122" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F122" s="118"/>
+      <c r="F122" s="80"/>
     </row>
     <row r="123" spans="1:6" ht="30" customHeight="1">
-      <c r="A123" s="114"/>
+      <c r="A123" s="77"/>
       <c r="B123" s="1"/>
       <c r="C123" s="8"/>
       <c r="D123" s="9" t="s">
@@ -3584,10 +3602,10 @@
       <c r="E123" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F123" s="118"/>
+      <c r="F123" s="80"/>
     </row>
     <row r="124" spans="1:6" ht="30" customHeight="1">
-      <c r="A124" s="114"/>
+      <c r="A124" s="77"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="8" t="s">
@@ -3596,10 +3614,10 @@
       <c r="E124" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F124" s="118"/>
+      <c r="F124" s="80"/>
     </row>
     <row r="125" spans="1:6" ht="15" customHeight="1">
-      <c r="A125" s="114"/>
+      <c r="A125" s="77"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="8" t="s">
@@ -3608,10 +3626,10 @@
       <c r="E125" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F125" s="118"/>
+      <c r="F125" s="80"/>
     </row>
     <row r="126" spans="1:6" ht="15" customHeight="1">
-      <c r="A126" s="114"/>
+      <c r="A126" s="77"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="8" t="s">
@@ -3620,10 +3638,10 @@
       <c r="E126" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F126" s="118"/>
+      <c r="F126" s="80"/>
     </row>
     <row r="127" spans="1:6" ht="15" customHeight="1">
-      <c r="A127" s="114"/>
+      <c r="A127" s="77"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="8" t="s">
@@ -3632,10 +3650,10 @@
       <c r="E127" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F127" s="118"/>
+      <c r="F127" s="80"/>
     </row>
     <row r="128" spans="1:6" ht="15" customHeight="1">
-      <c r="A128" s="114"/>
+      <c r="A128" s="77"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="9" t="s">
@@ -3644,10 +3662,10 @@
       <c r="E128" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F128" s="118"/>
+      <c r="F128" s="80"/>
     </row>
     <row r="129" spans="1:9" ht="15" customHeight="1">
-      <c r="A129" s="114"/>
+      <c r="A129" s="77"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="9" t="s">
@@ -3656,10 +3674,10 @@
       <c r="E129" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F129" s="118"/>
+      <c r="F129" s="80"/>
     </row>
     <row r="130" spans="1:9" ht="15" customHeight="1">
-      <c r="A130" s="114"/>
+      <c r="A130" s="77"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="9" t="s">
@@ -3668,76 +3686,76 @@
       <c r="E130" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F130" s="118"/>
+      <c r="F130" s="80"/>
     </row>
     <row r="131" spans="1:9" ht="15" customHeight="1">
-      <c r="A131" s="114"/>
+      <c r="A131" s="77"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E131" s="19"/>
-      <c r="F131" s="118"/>
+      <c r="F131" s="80"/>
     </row>
     <row r="132" spans="1:9" ht="15" customHeight="1">
-      <c r="A132" s="114"/>
+      <c r="A132" s="77"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E132" s="19"/>
-      <c r="F132" s="118"/>
+      <c r="F132" s="80"/>
     </row>
     <row r="133" spans="1:9" ht="15" customHeight="1">
-      <c r="A133" s="114"/>
+      <c r="A133" s="77"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E133" s="19"/>
-      <c r="F133" s="118"/>
+      <c r="F133" s="80"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="114"/>
+      <c r="A134" s="77"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="18" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E134" s="19"/>
-      <c r="F134" s="118"/>
+      <c r="F134" s="80"/>
     </row>
     <row r="135" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A135" s="116"/>
+      <c r="A135" s="78"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="18"/>
       <c r="E135" s="19"/>
-      <c r="F135" s="119"/>
+      <c r="F135" s="81"/>
     </row>
     <row r="136" spans="1:9" ht="15" customHeight="1">
-      <c r="A136" s="104" t="s">
-        <v>183</v>
+      <c r="A136" s="88" t="s">
+        <v>180</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D136" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E136" s="61"/>
-      <c r="F136" s="60" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="E136" s="66"/>
+      <c r="F136" s="61" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="105"/>
+      <c r="A137" s="89"/>
       <c r="B137" s="1" t="s">
         <v>23</v>
       </c>
@@ -3745,122 +3763,122 @@
         <v>148</v>
       </c>
       <c r="D137" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="E137" s="62"/>
-      <c r="F137" s="52"/>
+        <v>178</v>
+      </c>
+      <c r="E137" s="67"/>
+      <c r="F137" s="62"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="105"/>
+      <c r="A138" s="89"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="E138" s="62"/>
-      <c r="F138" s="52"/>
+        <v>177</v>
+      </c>
+      <c r="E138" s="67"/>
+      <c r="F138" s="62"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="105"/>
+      <c r="A139" s="89"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="E139" s="62"/>
-      <c r="F139" s="52"/>
+        <v>176</v>
+      </c>
+      <c r="E139" s="67"/>
+      <c r="F139" s="62"/>
     </row>
     <row r="140" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A140" s="105"/>
+      <c r="A140" s="89"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D140" s="8"/>
-      <c r="E140" s="62"/>
-      <c r="F140" s="52"/>
+      <c r="E140" s="67"/>
+      <c r="F140" s="62"/>
     </row>
     <row r="141" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A141" s="105"/>
+      <c r="A141" s="89"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D141" s="8"/>
-      <c r="E141" s="62"/>
-      <c r="F141" s="52"/>
+      <c r="E141" s="67"/>
+      <c r="F141" s="62"/>
     </row>
     <row r="142" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A142" s="105"/>
+      <c r="A142" s="89"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D142" s="8"/>
-      <c r="E142" s="62"/>
-      <c r="F142" s="52"/>
+      <c r="E142" s="67"/>
+      <c r="F142" s="62"/>
       <c r="I142" s="36"/>
     </row>
     <row r="143" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A143" s="105"/>
+      <c r="A143" s="89"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D143" s="8"/>
-      <c r="E143" s="62"/>
-      <c r="F143" s="52"/>
+      <c r="E143" s="67"/>
+      <c r="F143" s="62"/>
       <c r="I143" s="36"/>
     </row>
     <row r="144" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A144" s="105"/>
+      <c r="A144" s="89"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D144" s="8"/>
-      <c r="E144" s="62"/>
-      <c r="F144" s="52"/>
+      <c r="E144" s="67"/>
+      <c r="F144" s="62"/>
       <c r="I144" s="36"/>
     </row>
     <row r="145" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A145" s="105"/>
+      <c r="A145" s="89"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D145" s="8"/>
-      <c r="E145" s="62"/>
-      <c r="F145" s="52"/>
+      <c r="E145" s="67"/>
+      <c r="F145" s="62"/>
       <c r="I145" s="36"/>
     </row>
     <row r="146" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A146" s="105"/>
+      <c r="A146" s="89"/>
       <c r="B146" s="2"/>
       <c r="C146" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D146" s="13"/>
-      <c r="E146" s="62"/>
-      <c r="F146" s="52"/>
+      <c r="E146" s="67"/>
+      <c r="F146" s="62"/>
       <c r="I146" s="36"/>
     </row>
     <row r="147" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A147" s="106"/>
+      <c r="A147" s="90"/>
       <c r="B147" s="4"/>
       <c r="C147" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D147" s="29"/>
-      <c r="E147" s="63"/>
-      <c r="F147" s="53"/>
+      <c r="E147" s="68"/>
+      <c r="F147" s="63"/>
     </row>
     <row r="148" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A148" s="123" t="s">
+      <c r="A148" s="69" t="s">
         <v>51</v>
       </c>
       <c r="B148" s="23" t="s">
@@ -3869,20 +3887,20 @@
       <c r="C148" s="22"/>
       <c r="D148" s="22"/>
       <c r="E148" s="22"/>
-      <c r="F148" s="84" t="s">
+      <c r="F148" s="55" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A149" s="124"/>
+      <c r="A149" s="70"/>
       <c r="B149" s="16"/>
       <c r="C149" s="17"/>
       <c r="D149" s="17"/>
       <c r="E149" s="17"/>
-      <c r="F149" s="86"/>
+      <c r="F149" s="57"/>
     </row>
     <row r="150" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A150" s="101" t="s">
+      <c r="A150" s="49" t="s">
         <v>52</v>
       </c>
       <c r="B150" s="15" t="s">
@@ -3891,32 +3909,32 @@
       <c r="C150" s="14"/>
       <c r="D150" s="14"/>
       <c r="E150" s="14"/>
-      <c r="F150" s="84" t="s">
+      <c r="F150" s="55" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A151" s="102"/>
+      <c r="A151" s="50"/>
       <c r="B151" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C151" s="31"/>
       <c r="D151" s="31"/>
       <c r="E151" s="31"/>
-      <c r="F151" s="85"/>
+      <c r="F151" s="56"/>
     </row>
     <row r="152" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A152" s="103"/>
+      <c r="A152" s="51"/>
       <c r="B152" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C152" s="19"/>
       <c r="D152" s="19"/>
       <c r="E152" s="19"/>
-      <c r="F152" s="86"/>
+      <c r="F152" s="57"/>
     </row>
     <row r="153" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A153" s="101" t="s">
+      <c r="A153" s="49" t="s">
         <v>152</v>
       </c>
       <c r="B153" s="15" t="s">
@@ -3925,36 +3943,36 @@
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
-      <c r="F153" s="73" t="s">
+      <c r="F153" s="71" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A154" s="102"/>
+      <c r="A154" s="50"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
-      <c r="F154" s="74"/>
+      <c r="F154" s="72"/>
     </row>
     <row r="155" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A155" s="102"/>
+      <c r="A155" s="50"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
-      <c r="F155" s="74"/>
+      <c r="F155" s="72"/>
     </row>
     <row r="156" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A156" s="103"/>
+      <c r="A156" s="51"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
-      <c r="F156" s="93"/>
+      <c r="F156" s="73"/>
     </row>
     <row r="157" spans="1:9" ht="15" customHeight="1">
-      <c r="A157" s="101" t="s">
+      <c r="A157" s="49" t="s">
         <v>86</v>
       </c>
       <c r="B157" s="15" t="s">
@@ -3963,380 +3981,456 @@
       <c r="C157" s="14"/>
       <c r="D157" s="14"/>
       <c r="E157" s="14"/>
-      <c r="F157" s="84" t="s">
+      <c r="F157" s="55" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="15" customHeight="1">
-      <c r="A158" s="102"/>
+      <c r="A158" s="50"/>
       <c r="B158" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C158" s="31"/>
       <c r="D158" s="31"/>
       <c r="E158" s="31"/>
-      <c r="F158" s="85"/>
+      <c r="F158" s="56"/>
     </row>
     <row r="159" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A159" s="103"/>
+      <c r="A159" s="51"/>
       <c r="B159" s="16" t="s">
         <v>84</v>
       </c>
       <c r="C159" s="17"/>
       <c r="D159" s="17"/>
       <c r="E159" s="17"/>
-      <c r="F159" s="86"/>
+      <c r="F159" s="57"/>
     </row>
     <row r="160" spans="1:9" ht="15" customHeight="1">
-      <c r="A160" s="101" t="s">
-        <v>169</v>
+      <c r="A160" s="49" t="s">
+        <v>167</v>
       </c>
       <c r="B160" s="15"/>
       <c r="C160" s="14"/>
       <c r="D160" s="14"/>
       <c r="E160" s="14"/>
-      <c r="F160" s="84" t="s">
-        <v>170</v>
+      <c r="F160" s="55" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="15" customHeight="1">
-      <c r="A161" s="102"/>
+      <c r="A161" s="50"/>
       <c r="B161" s="21"/>
       <c r="C161" s="31"/>
       <c r="D161" s="31"/>
       <c r="E161" s="31"/>
-      <c r="F161" s="85"/>
+      <c r="F161" s="56"/>
     </row>
     <row r="162" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A162" s="103"/>
+      <c r="A162" s="51"/>
       <c r="B162" s="16"/>
       <c r="C162" s="17"/>
       <c r="D162" s="17"/>
       <c r="E162" s="17"/>
-      <c r="F162" s="86"/>
+      <c r="F162" s="57"/>
     </row>
     <row r="163" spans="1:6" ht="15" customHeight="1">
-      <c r="A163" s="101" t="s">
-        <v>172</v>
+      <c r="A163" s="49" t="s">
+        <v>170</v>
       </c>
       <c r="B163" s="15"/>
       <c r="C163" s="14"/>
       <c r="D163" s="14"/>
       <c r="E163" s="14"/>
-      <c r="F163" s="84" t="s">
-        <v>171</v>
+      <c r="F163" s="55" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="15" customHeight="1">
-      <c r="A164" s="102"/>
+      <c r="A164" s="50"/>
       <c r="B164" s="21"/>
       <c r="C164" s="31"/>
       <c r="D164" s="31"/>
       <c r="E164" s="31"/>
-      <c r="F164" s="85"/>
+      <c r="F164" s="56"/>
     </row>
     <row r="165" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A165" s="103"/>
+      <c r="A165" s="51"/>
       <c r="B165" s="16"/>
       <c r="C165" s="17"/>
       <c r="D165" s="17"/>
       <c r="E165" s="17"/>
-      <c r="F165" s="86"/>
+      <c r="F165" s="57"/>
     </row>
     <row r="166" spans="1:6" ht="63.75" customHeight="1">
-      <c r="A166" s="101" t="s">
-        <v>213</v>
+      <c r="A166" s="49" t="s">
+        <v>210</v>
       </c>
       <c r="B166" s="15"/>
       <c r="C166" s="14"/>
       <c r="D166" s="14"/>
       <c r="E166" s="14"/>
-      <c r="F166" s="84" t="s">
-        <v>214</v>
+      <c r="F166" s="55" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="63.75" customHeight="1">
-      <c r="A167" s="102"/>
+      <c r="A167" s="50"/>
       <c r="B167" s="21"/>
       <c r="C167" s="31"/>
       <c r="D167" s="31"/>
       <c r="E167" s="31"/>
-      <c r="F167" s="85"/>
+      <c r="F167" s="56"/>
     </row>
     <row r="168" spans="1:6" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A168" s="103"/>
+      <c r="A168" s="51"/>
       <c r="B168" s="16"/>
       <c r="C168" s="17"/>
       <c r="D168" s="17"/>
       <c r="E168" s="17"/>
-      <c r="F168" s="86"/>
+      <c r="F168" s="57"/>
     </row>
     <row r="169" spans="1:6" ht="94.5" customHeight="1">
-      <c r="A169" s="101" t="s">
-        <v>209</v>
+      <c r="A169" s="49" t="s">
+        <v>206</v>
       </c>
       <c r="B169" s="15"/>
       <c r="C169" s="14"/>
       <c r="D169" s="14"/>
       <c r="E169" s="14"/>
-      <c r="F169" s="125" t="s">
-        <v>215</v>
+      <c r="F169" s="52" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="94.5" customHeight="1">
-      <c r="A170" s="102"/>
+      <c r="A170" s="50"/>
       <c r="B170" s="21"/>
       <c r="C170" s="31"/>
       <c r="D170" s="31"/>
       <c r="E170" s="31"/>
-      <c r="F170" s="126"/>
+      <c r="F170" s="53"/>
     </row>
     <row r="171" spans="1:6" ht="94.5" customHeight="1" thickBot="1">
-      <c r="A171" s="103"/>
+      <c r="A171" s="51"/>
       <c r="B171" s="16"/>
       <c r="C171" s="17"/>
       <c r="D171" s="17"/>
       <c r="E171" s="17"/>
-      <c r="F171" s="127"/>
+      <c r="F171" s="54"/>
     </row>
     <row r="172" spans="1:6" ht="15" customHeight="1">
-      <c r="A172" s="120" t="s">
-        <v>195</v>
+      <c r="A172" s="60" t="s">
+        <v>192</v>
       </c>
       <c r="B172" s="40"/>
       <c r="C172" s="37"/>
       <c r="D172" s="43"/>
       <c r="E172" s="37"/>
-      <c r="F172" s="84" t="s">
-        <v>202</v>
+      <c r="F172" s="55" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="121"/>
+      <c r="A173" s="58"/>
       <c r="B173" s="41"/>
       <c r="C173" s="38"/>
       <c r="D173" s="44"/>
       <c r="E173" s="38"/>
-      <c r="F173" s="85"/>
+      <c r="F173" s="56"/>
     </row>
     <row r="174" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A174" s="122"/>
+      <c r="A174" s="59"/>
       <c r="B174" s="42"/>
       <c r="C174" s="39"/>
       <c r="D174" s="45"/>
       <c r="E174" s="39"/>
-      <c r="F174" s="86"/>
+      <c r="F174" s="57"/>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="120" t="s">
-        <v>196</v>
+      <c r="A175" s="60" t="s">
+        <v>193</v>
       </c>
       <c r="B175" s="40"/>
       <c r="C175" s="37"/>
       <c r="D175" s="43"/>
       <c r="E175" s="37"/>
-      <c r="F175" s="84" t="s">
-        <v>203</v>
+      <c r="F175" s="55" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="121"/>
+      <c r="A176" s="58"/>
       <c r="B176" s="41"/>
       <c r="C176" s="38"/>
       <c r="D176" s="44"/>
       <c r="E176" s="38"/>
-      <c r="F176" s="85"/>
+      <c r="F176" s="56"/>
     </row>
     <row r="177" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A177" s="122"/>
+      <c r="A177" s="59"/>
       <c r="B177" s="42"/>
       <c r="C177" s="39"/>
       <c r="D177" s="45"/>
       <c r="E177" s="39"/>
-      <c r="F177" s="86"/>
+      <c r="F177" s="57"/>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="121" t="s">
-        <v>197</v>
+      <c r="A178" s="58" t="s">
+        <v>194</v>
       </c>
       <c r="B178" s="41"/>
       <c r="C178" s="38"/>
       <c r="D178" s="44"/>
       <c r="E178" s="38"/>
-      <c r="F178" s="84" t="s">
-        <v>204</v>
+      <c r="F178" s="55" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="121"/>
+      <c r="A179" s="58"/>
       <c r="B179" s="41"/>
       <c r="C179" s="38"/>
       <c r="D179" s="44"/>
       <c r="E179" s="38"/>
-      <c r="F179" s="85"/>
+      <c r="F179" s="56"/>
     </row>
     <row r="180" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A180" s="121"/>
+      <c r="A180" s="58"/>
       <c r="B180" s="41"/>
       <c r="C180" s="38"/>
       <c r="D180" s="44"/>
       <c r="E180" s="38"/>
-      <c r="F180" s="86"/>
+      <c r="F180" s="57"/>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="120" t="s">
-        <v>198</v>
+      <c r="A181" s="60" t="s">
+        <v>195</v>
       </c>
       <c r="B181" s="40"/>
       <c r="C181" s="37"/>
       <c r="D181" s="43"/>
       <c r="E181" s="37"/>
-      <c r="F181" s="84" t="s">
-        <v>205</v>
+      <c r="F181" s="55" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="121"/>
+      <c r="A182" s="58"/>
       <c r="B182" s="41"/>
       <c r="C182" s="38"/>
       <c r="D182" s="44"/>
       <c r="E182" s="38"/>
-      <c r="F182" s="85"/>
+      <c r="F182" s="56"/>
     </row>
     <row r="183" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A183" s="122"/>
+      <c r="A183" s="59"/>
       <c r="B183" s="42"/>
       <c r="C183" s="39"/>
       <c r="D183" s="45"/>
       <c r="E183" s="39"/>
-      <c r="F183" s="86"/>
+      <c r="F183" s="57"/>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="121" t="s">
-        <v>199</v>
+      <c r="A184" s="58" t="s">
+        <v>196</v>
       </c>
       <c r="B184" s="41"/>
       <c r="C184" s="38"/>
       <c r="D184" s="44"/>
       <c r="E184" s="38"/>
-      <c r="F184" s="84" t="s">
-        <v>206</v>
+      <c r="F184" s="55" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="121"/>
+      <c r="A185" s="58"/>
       <c r="B185" s="41"/>
       <c r="C185" s="38"/>
       <c r="D185" s="44"/>
       <c r="E185" s="38"/>
-      <c r="F185" s="85"/>
+      <c r="F185" s="56"/>
     </row>
     <row r="186" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A186" s="121"/>
+      <c r="A186" s="58"/>
       <c r="B186" s="41"/>
       <c r="C186" s="38"/>
       <c r="D186" s="44"/>
       <c r="E186" s="38"/>
-      <c r="F186" s="86"/>
+      <c r="F186" s="57"/>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="120" t="s">
-        <v>200</v>
+      <c r="A187" s="60" t="s">
+        <v>197</v>
       </c>
       <c r="B187" s="40"/>
       <c r="C187" s="37"/>
       <c r="D187" s="43"/>
       <c r="E187" s="37"/>
-      <c r="F187" s="84" t="s">
-        <v>207</v>
+      <c r="F187" s="55" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="121"/>
+      <c r="A188" s="58"/>
       <c r="B188" s="41"/>
       <c r="C188" s="38"/>
       <c r="D188" s="44"/>
       <c r="E188" s="38"/>
-      <c r="F188" s="85"/>
+      <c r="F188" s="56"/>
     </row>
     <row r="189" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A189" s="122"/>
+      <c r="A189" s="59"/>
       <c r="B189" s="42"/>
       <c r="C189" s="39"/>
       <c r="D189" s="45"/>
       <c r="E189" s="39"/>
-      <c r="F189" s="86"/>
+      <c r="F189" s="57"/>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="121" t="s">
-        <v>201</v>
+      <c r="A190" s="58" t="s">
+        <v>198</v>
       </c>
       <c r="B190" s="41"/>
       <c r="C190" s="38"/>
       <c r="D190" s="44"/>
       <c r="E190" s="38"/>
-      <c r="F190" s="125" t="s">
-        <v>208</v>
+      <c r="F190" s="52" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="121"/>
+      <c r="A191" s="58"/>
       <c r="B191" s="41"/>
       <c r="C191" s="38"/>
       <c r="D191" s="44"/>
       <c r="E191" s="38"/>
-      <c r="F191" s="126"/>
+      <c r="F191" s="53"/>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="121"/>
+      <c r="A192" s="58"/>
       <c r="B192" s="41"/>
       <c r="C192" s="38"/>
       <c r="D192" s="44"/>
       <c r="E192" s="38"/>
-      <c r="F192" s="126"/>
+      <c r="F192" s="53"/>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="121"/>
+      <c r="A193" s="58"/>
       <c r="B193" s="41"/>
       <c r="C193" s="38"/>
       <c r="D193" s="44"/>
       <c r="E193" s="38"/>
-      <c r="F193" s="126"/>
+      <c r="F193" s="53"/>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="121"/>
+      <c r="A194" s="58"/>
       <c r="B194" s="41"/>
       <c r="C194" s="38"/>
       <c r="D194" s="44"/>
       <c r="E194" s="38"/>
-      <c r="F194" s="126"/>
+      <c r="F194" s="53"/>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="121"/>
+      <c r="A195" s="58"/>
       <c r="B195" s="41"/>
       <c r="C195" s="38"/>
       <c r="D195" s="44"/>
       <c r="E195" s="38"/>
-      <c r="F195" s="126"/>
+      <c r="F195" s="53"/>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="121"/>
+      <c r="A196" s="58"/>
       <c r="B196" s="41"/>
       <c r="C196" s="38"/>
       <c r="D196" s="44"/>
       <c r="E196" s="38"/>
-      <c r="F196" s="126"/>
+      <c r="F196" s="53"/>
     </row>
     <row r="197" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A197" s="122"/>
+      <c r="A197" s="59"/>
       <c r="B197" s="42"/>
       <c r="C197" s="39"/>
       <c r="D197" s="45"/>
       <c r="E197" s="39"/>
-      <c r="F197" s="127"/>
+      <c r="F197" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="93">
+  <mergeCells count="92">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="F7:F13"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="F14:F20"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="E25:E31"/>
+    <mergeCell ref="F25:F31"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="E32:E38"/>
+    <mergeCell ref="F32:F38"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="E39:E45"/>
+    <mergeCell ref="F39:F45"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="E46:E53"/>
+    <mergeCell ref="F46:F53"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="F80:F86"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="F69:F73"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A160:A162"/>
+    <mergeCell ref="F160:F162"/>
+    <mergeCell ref="A136:A147"/>
+    <mergeCell ref="E136:E147"/>
+    <mergeCell ref="F136:F147"/>
+    <mergeCell ref="A87:A93"/>
+    <mergeCell ref="F87:F93"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="A121:A135"/>
+    <mergeCell ref="F121:F135"/>
+    <mergeCell ref="A99:A105"/>
+    <mergeCell ref="E99:E105"/>
+    <mergeCell ref="F99:F105"/>
+    <mergeCell ref="A113:A119"/>
+    <mergeCell ref="E113:E119"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="F94:F98"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="F113:F119"/>
+    <mergeCell ref="A106:A112"/>
+    <mergeCell ref="E106:E112"/>
+    <mergeCell ref="F106:F112"/>
+    <mergeCell ref="A172:A174"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="F163:F165"/>
+    <mergeCell ref="A157:A159"/>
+    <mergeCell ref="F157:F159"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="F148:F149"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="F150:F152"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="F153:F156"/>
     <mergeCell ref="A169:A171"/>
     <mergeCell ref="F169:F171"/>
     <mergeCell ref="A166:A168"/>
@@ -4353,83 +4447,6 @@
     <mergeCell ref="A178:A180"/>
     <mergeCell ref="A181:A183"/>
     <mergeCell ref="A184:A186"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="F113:F119"/>
-    <mergeCell ref="A106:A112"/>
-    <mergeCell ref="E106:E112"/>
-    <mergeCell ref="F106:F112"/>
-    <mergeCell ref="A172:A174"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="F163:F165"/>
-    <mergeCell ref="A157:A159"/>
-    <mergeCell ref="F157:F159"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="F148:F149"/>
-    <mergeCell ref="A150:A152"/>
-    <mergeCell ref="F150:F152"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="F153:F156"/>
-    <mergeCell ref="A113:A119"/>
-    <mergeCell ref="E113:E119"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="F94:F98"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="A121:A135"/>
-    <mergeCell ref="F121:F135"/>
-    <mergeCell ref="A99:A105"/>
-    <mergeCell ref="E99:E105"/>
-    <mergeCell ref="F99:F105"/>
-    <mergeCell ref="A87:A93"/>
-    <mergeCell ref="F87:F93"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="A160:A162"/>
-    <mergeCell ref="F160:F162"/>
-    <mergeCell ref="A136:A147"/>
-    <mergeCell ref="E136:E147"/>
-    <mergeCell ref="F136:F147"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="F80:F86"/>
-    <mergeCell ref="F74:F76"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="F77:F79"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="F69:F73"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="E32:E38"/>
-    <mergeCell ref="F32:F38"/>
-    <mergeCell ref="A39:A45"/>
-    <mergeCell ref="E39:E45"/>
-    <mergeCell ref="F39:F45"/>
-    <mergeCell ref="A46:A53"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="E46:E53"/>
-    <mergeCell ref="F46:F53"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="F14:F20"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="E25:E31"/>
-    <mergeCell ref="F25:F31"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="F7:F13"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="F3:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4479,17 +4496,17 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="130" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4504,12 +4521,12 @@
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="61" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A4" s="132"/>
+      <c r="A4" s="131"/>
       <c r="B4" s="1" t="s">
         <v>95</v>
       </c>
@@ -4520,10 +4537,10 @@
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="52"/>
+      <c r="F4" s="62"/>
     </row>
     <row r="5" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A5" s="133"/>
+      <c r="A5" s="135"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="9" t="s">
@@ -4532,10 +4549,10 @@
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="52"/>
+      <c r="F5" s="62"/>
     </row>
     <row r="6" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A6" s="133"/>
+      <c r="A6" s="135"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="8" t="s">
@@ -4544,10 +4561,10 @@
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="52"/>
+      <c r="F6" s="62"/>
     </row>
     <row r="7" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A7" s="133"/>
+      <c r="A7" s="135"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="8" t="s">
@@ -4556,10 +4573,10 @@
       <c r="E7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="52"/>
+      <c r="F7" s="62"/>
     </row>
     <row r="8" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A8" s="133"/>
+      <c r="A8" s="135"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8" t="s">
@@ -4568,10 +4585,10 @@
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="52"/>
+      <c r="F8" s="62"/>
     </row>
     <row r="9" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A9" s="133"/>
+      <c r="A9" s="135"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="13" t="s">
@@ -4580,10 +4597,10 @@
       <c r="E9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="62"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A10" s="131" t="s">
+      <c r="A10" s="130" t="s">
         <v>96</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -4598,12 +4615,12 @@
       <c r="E10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="61" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A11" s="132"/>
+      <c r="A11" s="131"/>
       <c r="B11" s="1" t="s">
         <v>95</v>
       </c>
@@ -4614,10 +4631,10 @@
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="52"/>
+      <c r="F11" s="62"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A12" s="133"/>
+      <c r="A12" s="135"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="9" t="s">
@@ -4626,10 +4643,10 @@
       <c r="E12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="52"/>
+      <c r="F12" s="62"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A13" s="133"/>
+      <c r="A13" s="135"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="8" t="s">
@@ -4638,10 +4655,10 @@
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="52"/>
+      <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A14" s="133"/>
+      <c r="A14" s="135"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="8" t="s">
@@ -4650,10 +4667,10 @@
       <c r="E14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="52"/>
+      <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A15" s="133"/>
+      <c r="A15" s="135"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="8" t="s">
@@ -4662,10 +4679,10 @@
       <c r="E15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="52"/>
+      <c r="F15" s="62"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A16" s="133"/>
+      <c r="A16" s="135"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="13" t="s">
@@ -4674,10 +4691,10 @@
       <c r="E16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="52"/>
+      <c r="F16" s="62"/>
     </row>
     <row r="17" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A17" s="131" t="s">
+      <c r="A17" s="130" t="s">
         <v>99</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -4692,12 +4709,12 @@
       <c r="E17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="61" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A18" s="132"/>
+      <c r="A18" s="131"/>
       <c r="B18" s="1" t="s">
         <v>95</v>
       </c>
@@ -4708,10 +4725,10 @@
       <c r="E18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="52"/>
+      <c r="F18" s="62"/>
     </row>
     <row r="19" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A19" s="133"/>
+      <c r="A19" s="135"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="9" t="s">
@@ -4720,10 +4737,10 @@
       <c r="E19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="52"/>
+      <c r="F19" s="62"/>
     </row>
     <row r="20" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A20" s="133"/>
+      <c r="A20" s="135"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="8" t="s">
@@ -4732,10 +4749,10 @@
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="52"/>
+      <c r="F20" s="62"/>
     </row>
     <row r="21" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A21" s="133"/>
+      <c r="A21" s="135"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="8" t="s">
@@ -4744,10 +4761,10 @@
       <c r="E21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="52"/>
+      <c r="F21" s="62"/>
     </row>
     <row r="22" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A22" s="133"/>
+      <c r="A22" s="135"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="8" t="s">
@@ -4756,10 +4773,10 @@
       <c r="E22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="52"/>
+      <c r="F22" s="62"/>
     </row>
     <row r="23" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A23" s="133"/>
+      <c r="A23" s="135"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="13" t="s">
@@ -4768,10 +4785,10 @@
       <c r="E23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F23" s="52"/>
+      <c r="F23" s="62"/>
     </row>
     <row r="24" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A24" s="131" t="s">
+      <c r="A24" s="130" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -4783,15 +4800,15 @@
       <c r="D24" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="61" t="s">
+      <c r="E24" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="60" t="s">
+      <c r="F24" s="61" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A25" s="132"/>
+      <c r="A25" s="131"/>
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
@@ -4801,11 +4818,11 @@
       <c r="D25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="62"/>
-      <c r="F25" s="52"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="62"/>
     </row>
     <row r="26" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A26" s="132"/>
+      <c r="A26" s="131"/>
       <c r="B26" s="1" t="s">
         <v>20</v>
       </c>
@@ -4815,11 +4832,11 @@
       <c r="D26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="62"/>
-      <c r="F26" s="52"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="62"/>
     </row>
     <row r="27" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A27" s="132"/>
+      <c r="A27" s="131"/>
       <c r="B27" s="1" t="s">
         <v>21</v>
       </c>
@@ -4827,11 +4844,11 @@
       <c r="D27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="52"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="62"/>
     </row>
     <row r="28" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A28" s="132"/>
+      <c r="A28" s="131"/>
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
@@ -4839,11 +4856,11 @@
       <c r="D28" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="62"/>
-      <c r="F28" s="52"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="62"/>
     </row>
     <row r="29" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A29" s="132"/>
+      <c r="A29" s="131"/>
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
@@ -4851,21 +4868,21 @@
       <c r="D29" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="62"/>
-      <c r="F29" s="52"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="62"/>
     </row>
     <row r="30" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A30" s="134"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="63"/>
-      <c r="F30" s="53"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A31" s="131" t="s">
+      <c r="A31" s="130" t="s">
         <v>147</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -4877,10 +4894,10 @@
       <c r="D31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="61" t="s">
+      <c r="E31" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="60" t="s">
+      <c r="F31" s="61" t="s">
         <v>134</v>
       </c>
       <c r="G31" t="s">
@@ -4891,7 +4908,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A32" s="132"/>
+      <c r="A32" s="131"/>
       <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
@@ -4901,14 +4918,14 @@
       <c r="D32" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="62"/>
-      <c r="F32" s="52"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="62"/>
       <c r="G32" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A33" s="132"/>
+      <c r="A33" s="131"/>
       <c r="B33" s="1" t="s">
         <v>20</v>
       </c>
@@ -4918,8 +4935,8 @@
       <c r="D33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="62"/>
-      <c r="F33" s="52"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="62"/>
       <c r="G33" t="s">
         <v>117</v>
       </c>
@@ -4928,7 +4945,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A34" s="132"/>
+      <c r="A34" s="131"/>
       <c r="B34" s="1" t="s">
         <v>21</v>
       </c>
@@ -4936,8 +4953,8 @@
       <c r="D34" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="62"/>
-      <c r="F34" s="52"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="62"/>
       <c r="G34" t="s">
         <v>118</v>
       </c>
@@ -4946,7 +4963,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A35" s="132"/>
+      <c r="A35" s="131"/>
       <c r="B35" s="1" t="s">
         <v>23</v>
       </c>
@@ -4954,8 +4971,8 @@
       <c r="D35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="62"/>
-      <c r="F35" s="52"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="62"/>
       <c r="G35" t="s">
         <v>119</v>
       </c>
@@ -4964,7 +4981,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A36" s="132"/>
+      <c r="A36" s="131"/>
       <c r="B36" s="1" t="s">
         <v>24</v>
       </c>
@@ -4972,8 +4989,8 @@
       <c r="D36" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="62"/>
-      <c r="F36" s="52"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="62"/>
       <c r="G36" t="s">
         <v>120</v>
       </c>
@@ -4982,14 +4999,14 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A37" s="133"/>
+      <c r="A37" s="135"/>
       <c r="B37" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="52"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="62"/>
       <c r="G37" t="s">
         <v>121</v>
       </c>
@@ -5001,14 +5018,14 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A38" s="133"/>
+      <c r="A38" s="135"/>
       <c r="B38" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="52"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="62"/>
       <c r="G38" t="s">
         <v>122</v>
       </c>
@@ -5020,14 +5037,14 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A39" s="133"/>
+      <c r="A39" s="135"/>
       <c r="B39" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="52"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="62"/>
       <c r="G39" t="s">
         <v>123</v>
       </c>
@@ -5039,7 +5056,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A40" s="134"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="4" t="s">
         <v>129</v>
       </c>
@@ -5047,14 +5064,14 @@
       <c r="D40" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="63"/>
-      <c r="F40" s="53"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="63"/>
       <c r="G40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A41" s="162" t="s">
+      <c r="A41" s="136" t="s">
         <v>69</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -5066,15 +5083,15 @@
       <c r="D41" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E41" s="61" t="s">
+      <c r="E41" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="52" t="s">
+      <c r="F41" s="62" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A42" s="163"/>
+      <c r="A42" s="137"/>
       <c r="B42" s="1" t="s">
         <v>70</v>
       </c>
@@ -5082,11 +5099,11 @@
       <c r="D42" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="62"/>
-      <c r="F42" s="52"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="62"/>
     </row>
     <row r="43" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A43" s="163"/>
+      <c r="A43" s="137"/>
       <c r="B43" s="1" t="s">
         <v>49</v>
       </c>
@@ -5094,83 +5111,83 @@
       <c r="D43" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="62"/>
-      <c r="F43" s="52"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="62"/>
     </row>
     <row r="44" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A44" s="163"/>
+      <c r="A44" s="137"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="62"/>
-      <c r="F44" s="52"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="62"/>
     </row>
     <row r="45" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A45" s="163"/>
+      <c r="A45" s="137"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="62"/>
-      <c r="F45" s="52"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="62"/>
     </row>
     <row r="46" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A46" s="163"/>
+      <c r="A46" s="137"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="62"/>
-      <c r="F46" s="52"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="62"/>
     </row>
     <row r="47" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A47" s="164"/>
+      <c r="A47" s="138"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="63"/>
-      <c r="F47" s="53"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="63"/>
     </row>
     <row r="48" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A48" s="131" t="s">
+      <c r="A48" s="130" t="s">
         <v>150</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="160" t="s">
+      <c r="C48" s="133" t="s">
         <v>45</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="81" t="s">
+      <c r="E48" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="F48" s="84" t="s">
+      <c r="F48" s="55" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A49" s="132"/>
+      <c r="A49" s="131"/>
       <c r="B49" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="161"/>
+      <c r="C49" s="134"/>
       <c r="D49" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="82"/>
-      <c r="F49" s="85"/>
+      <c r="E49" s="113"/>
+      <c r="F49" s="56"/>
     </row>
     <row r="50" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A50" s="132"/>
+      <c r="A50" s="131"/>
       <c r="B50" s="5" t="s">
         <v>29</v>
       </c>
@@ -5180,11 +5197,11 @@
       <c r="D50" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="82"/>
-      <c r="F50" s="85"/>
+      <c r="E50" s="113"/>
+      <c r="F50" s="56"/>
     </row>
     <row r="51" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A51" s="132"/>
+      <c r="A51" s="131"/>
       <c r="B51" s="24" t="s">
         <v>30</v>
       </c>
@@ -5194,11 +5211,11 @@
       <c r="D51" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="82"/>
-      <c r="F51" s="85"/>
+      <c r="E51" s="113"/>
+      <c r="F51" s="56"/>
     </row>
     <row r="52" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A52" s="132"/>
+      <c r="A52" s="131"/>
       <c r="B52" s="24" t="s">
         <v>31</v>
       </c>
@@ -5208,11 +5225,11 @@
       <c r="D52" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="82"/>
-      <c r="F52" s="85"/>
+      <c r="E52" s="113"/>
+      <c r="F52" s="56"/>
     </row>
     <row r="53" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A53" s="132"/>
+      <c r="A53" s="131"/>
       <c r="B53" s="24" t="s">
         <v>32</v>
       </c>
@@ -5220,11 +5237,11 @@
       <c r="D53" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="82"/>
-      <c r="F53" s="85"/>
+      <c r="E53" s="113"/>
+      <c r="F53" s="56"/>
     </row>
     <row r="54" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A54" s="132"/>
+      <c r="A54" s="131"/>
       <c r="B54" s="24" t="s">
         <v>33</v>
       </c>
@@ -5232,29 +5249,29 @@
       <c r="D54" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="82"/>
-      <c r="F54" s="85"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="56"/>
     </row>
     <row r="55" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A55" s="134"/>
+      <c r="A55" s="132"/>
       <c r="B55" s="25"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="86"/>
+      <c r="E55" s="114"/>
+      <c r="F55" s="57"/>
     </row>
     <row r="56" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A56" s="97" t="s">
+      <c r="A56" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="B56" s="97"/>
-      <c r="C56" s="97"/>
-      <c r="D56" s="97"/>
-      <c r="E56" s="97"/>
-      <c r="F56" s="97"/>
+      <c r="B56" s="103"/>
+      <c r="C56" s="103"/>
+      <c r="D56" s="103"/>
+      <c r="E56" s="103"/>
+      <c r="F56" s="103"/>
     </row>
     <row r="57" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A57" s="128" t="s">
+      <c r="A57" s="141" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="12" t="s">
@@ -5265,10 +5282,10 @@
         <v>34</v>
       </c>
       <c r="E57" s="3"/>
-      <c r="F57" s="73"/>
+      <c r="F57" s="71"/>
     </row>
     <row r="58" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A58" s="129"/>
+      <c r="A58" s="142"/>
       <c r="B58" s="8" t="s">
         <v>15</v>
       </c>
@@ -5277,10 +5294,10 @@
         <v>15</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="74"/>
+      <c r="F58" s="72"/>
     </row>
     <row r="59" spans="1:6" ht="45.75" customHeight="1">
-      <c r="A59" s="135"/>
+      <c r="A59" s="150"/>
       <c r="B59" s="9" t="s">
         <v>10</v>
       </c>
@@ -5289,26 +5306,26 @@
         <v>10</v>
       </c>
       <c r="E59" s="2"/>
-      <c r="F59" s="74"/>
+      <c r="F59" s="72"/>
     </row>
     <row r="60" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A60" s="135"/>
+      <c r="A60" s="150"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="74"/>
+      <c r="F60" s="72"/>
     </row>
     <row r="61" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A61" s="130"/>
+      <c r="A61" s="143"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="93"/>
+      <c r="F61" s="73"/>
     </row>
     <row r="62" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A62" s="128" t="s">
+      <c r="A62" s="141" t="s">
         <v>12</v>
       </c>
       <c r="B62" s="3"/>
@@ -5319,26 +5336,26 @@
         <v>13</v>
       </c>
       <c r="E62" s="3"/>
-      <c r="F62" s="73"/>
+      <c r="F62" s="71"/>
     </row>
     <row r="63" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A63" s="129"/>
+      <c r="A63" s="142"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="74"/>
+      <c r="F63" s="72"/>
     </row>
     <row r="64" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A64" s="130"/>
+      <c r="A64" s="143"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="93"/>
+      <c r="F64" s="73"/>
     </row>
     <row r="65" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A65" s="128" t="s">
+      <c r="A65" s="141" t="s">
         <v>0</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -5349,10 +5366,10 @@
         <v>7</v>
       </c>
       <c r="E65" s="3"/>
-      <c r="F65" s="73"/>
+      <c r="F65" s="71"/>
     </row>
     <row r="66" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A66" s="129"/>
+      <c r="A66" s="142"/>
       <c r="B66" s="8" t="s">
         <v>8</v>
       </c>
@@ -5361,10 +5378,10 @@
         <v>8</v>
       </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="74"/>
+      <c r="F66" s="72"/>
     </row>
     <row r="67" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A67" s="130"/>
+      <c r="A67" s="143"/>
       <c r="B67" s="13" t="s">
         <v>9</v>
       </c>
@@ -5373,10 +5390,10 @@
         <v>9</v>
       </c>
       <c r="E67" s="4"/>
-      <c r="F67" s="93"/>
+      <c r="F67" s="73"/>
     </row>
     <row r="68" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A68" s="128" t="s">
+      <c r="A68" s="141" t="s">
         <v>42</v>
       </c>
       <c r="B68" s="9" t="s">
@@ -5387,10 +5404,10 @@
         <v>39</v>
       </c>
       <c r="E68" s="3"/>
-      <c r="F68" s="73"/>
+      <c r="F68" s="71"/>
     </row>
     <row r="69" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A69" s="129"/>
+      <c r="A69" s="142"/>
       <c r="B69" s="9" t="s">
         <v>40</v>
       </c>
@@ -5399,10 +5416,10 @@
         <v>40</v>
       </c>
       <c r="E69" s="1"/>
-      <c r="F69" s="74"/>
+      <c r="F69" s="72"/>
     </row>
     <row r="70" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A70" s="130"/>
+      <c r="A70" s="143"/>
       <c r="B70" s="9" t="s">
         <v>41</v>
       </c>
@@ -5411,10 +5428,10 @@
         <v>41</v>
       </c>
       <c r="E70" s="4"/>
-      <c r="F70" s="93"/>
+      <c r="F70" s="73"/>
     </row>
     <row r="71" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A71" s="107" t="s">
+      <c r="A71" s="64" t="s">
         <v>58</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -5429,12 +5446,12 @@
       <c r="E71" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F71" s="73" t="s">
+      <c r="F71" s="71" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A72" s="108"/>
+      <c r="A72" s="65"/>
       <c r="B72" s="1" t="s">
         <v>17</v>
       </c>
@@ -5447,10 +5464,10 @@
       <c r="E72" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F72" s="74"/>
+      <c r="F72" s="72"/>
     </row>
     <row r="73" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A73" s="108"/>
+      <c r="A73" s="65"/>
       <c r="B73" s="1" t="s">
         <v>18</v>
       </c>
@@ -5461,10 +5478,10 @@
       <c r="E73" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F73" s="74"/>
+      <c r="F73" s="72"/>
     </row>
     <row r="74" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A74" s="108"/>
+      <c r="A74" s="65"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="8" t="s">
@@ -5473,10 +5490,10 @@
       <c r="E74" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F74" s="74"/>
+      <c r="F74" s="72"/>
     </row>
     <row r="75" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A75" s="108"/>
+      <c r="A75" s="65"/>
       <c r="B75" s="7"/>
       <c r="C75" s="1"/>
       <c r="D75" s="8" t="s">
@@ -5485,10 +5502,10 @@
       <c r="E75" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F75" s="74"/>
+      <c r="F75" s="72"/>
     </row>
     <row r="76" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A76" s="108"/>
+      <c r="A76" s="65"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="8" t="s">
@@ -5497,10 +5514,10 @@
       <c r="E76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F76" s="74"/>
+      <c r="F76" s="72"/>
     </row>
     <row r="77" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A77" s="109"/>
+      <c r="A77" s="74"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="29" t="s">
@@ -5509,10 +5526,10 @@
       <c r="E77" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F77" s="93"/>
+      <c r="F77" s="73"/>
     </row>
     <row r="78" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A78" s="151" t="s">
+      <c r="A78" s="166" t="s">
         <v>66</v>
       </c>
       <c r="B78" s="26" t="s">
@@ -5527,30 +5544,30 @@
       <c r="E78" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="87" t="s">
+      <c r="F78" s="94" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A79" s="95"/>
+      <c r="A79" s="101"/>
       <c r="B79" s="30"/>
       <c r="C79" s="22"/>
       <c r="D79" s="21"/>
       <c r="E79" s="31"/>
-      <c r="F79" s="88"/>
+      <c r="F79" s="95"/>
     </row>
     <row r="80" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A80" s="130"/>
+      <c r="A80" s="143"/>
       <c r="B80" s="25"/>
       <c r="C80" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="17"/>
-      <c r="F80" s="89"/>
+      <c r="F80" s="96"/>
     </row>
     <row r="81" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A81" s="128" t="s">
+      <c r="A81" s="141" t="s">
         <v>112</v>
       </c>
       <c r="B81" s="27" t="s">
@@ -5565,22 +5582,22 @@
       <c r="E81" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F81" s="73" t="s">
+      <c r="F81" s="71" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A82" s="135"/>
+      <c r="A82" s="150"/>
       <c r="B82" s="28"/>
       <c r="C82" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="19"/>
-      <c r="F82" s="93"/>
+      <c r="F82" s="73"/>
     </row>
     <row r="83" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A83" s="128" t="s">
+      <c r="A83" s="141" t="s">
         <v>65</v>
       </c>
       <c r="B83" s="27" t="s">
@@ -5595,20 +5612,20 @@
       <c r="E83" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F83" s="152"/>
+      <c r="F83" s="147"/>
     </row>
     <row r="84" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A84" s="135"/>
+      <c r="A84" s="150"/>
       <c r="B84" s="28"/>
       <c r="C84" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="19"/>
-      <c r="F84" s="153"/>
+      <c r="F84" s="149"/>
     </row>
     <row r="85" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A85" s="94" t="s">
+      <c r="A85" s="100" t="s">
         <v>92</v>
       </c>
       <c r="B85" s="15" t="s">
@@ -5624,7 +5641,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A86" s="95"/>
+      <c r="A86" s="101"/>
       <c r="B86" s="9" t="s">
         <v>80</v>
       </c>
@@ -5634,7 +5651,7 @@
       <c r="F86" s="34"/>
     </row>
     <row r="87" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A87" s="96"/>
+      <c r="A87" s="102"/>
       <c r="B87" s="25" t="s">
         <v>91</v>
       </c>
@@ -5646,7 +5663,7 @@
       <c r="F87" s="35"/>
     </row>
     <row r="88" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A88" s="94" t="s">
+      <c r="A88" s="100" t="s">
         <v>107</v>
       </c>
       <c r="B88" s="15" t="s">
@@ -5657,32 +5674,32 @@
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="73" t="s">
+      <c r="F88" s="71" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A89" s="95"/>
+      <c r="A89" s="101"/>
       <c r="B89" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="74"/>
+      <c r="F89" s="72"/>
     </row>
     <row r="90" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A90" s="96"/>
+      <c r="A90" s="102"/>
       <c r="B90" s="25"/>
       <c r="C90" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
-      <c r="F90" s="93"/>
+      <c r="F90" s="73"/>
     </row>
     <row r="91" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A91" s="148" t="s">
+      <c r="A91" s="163" t="s">
         <v>71</v>
       </c>
       <c r="B91" s="3"/>
@@ -5691,62 +5708,62 @@
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="73" t="s">
+      <c r="F91" s="71" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A92" s="149"/>
+      <c r="A92" s="164"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="74"/>
+      <c r="F92" s="72"/>
     </row>
     <row r="93" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A93" s="149"/>
+      <c r="A93" s="164"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="74"/>
+      <c r="F93" s="72"/>
     </row>
     <row r="94" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A94" s="149"/>
+      <c r="A94" s="164"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="74"/>
+      <c r="F94" s="72"/>
     </row>
     <row r="95" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A95" s="150"/>
+      <c r="A95" s="165"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="93"/>
+      <c r="F95" s="73"/>
     </row>
     <row r="96" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A96" s="115" t="s">
+      <c r="A96" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="B96" s="115"/>
-      <c r="C96" s="115"/>
-      <c r="D96" s="115"/>
-      <c r="E96" s="115"/>
-      <c r="F96" s="115"/>
+      <c r="B96" s="75"/>
+      <c r="C96" s="75"/>
+      <c r="D96" s="75"/>
+      <c r="E96" s="75"/>
+      <c r="F96" s="75"/>
     </row>
     <row r="97" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A97" s="156" t="s">
+      <c r="A97" s="144" t="s">
         <v>50</v>
       </c>
       <c r="B97" s="3"/>
@@ -5757,12 +5774,12 @@
       <c r="E97" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F97" s="152" t="s">
+      <c r="F97" s="147" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A98" s="157"/>
+      <c r="A98" s="145"/>
       <c r="B98" s="1"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8" t="s">
@@ -5771,10 +5788,10 @@
       <c r="E98" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F98" s="159"/>
+      <c r="F98" s="148"/>
     </row>
     <row r="99" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A99" s="157"/>
+      <c r="A99" s="145"/>
       <c r="B99" s="1"/>
       <c r="C99" s="8"/>
       <c r="D99" s="9" t="s">
@@ -5783,10 +5800,10 @@
       <c r="E99" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F99" s="159"/>
+      <c r="F99" s="148"/>
     </row>
     <row r="100" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A100" s="157"/>
+      <c r="A100" s="145"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="8" t="s">
@@ -5795,10 +5812,10 @@
       <c r="E100" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="159"/>
+      <c r="F100" s="148"/>
     </row>
     <row r="101" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A101" s="157"/>
+      <c r="A101" s="145"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="8" t="s">
@@ -5807,10 +5824,10 @@
       <c r="E101" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F101" s="159"/>
+      <c r="F101" s="148"/>
     </row>
     <row r="102" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A102" s="157"/>
+      <c r="A102" s="145"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="8" t="s">
@@ -5819,10 +5836,10 @@
       <c r="E102" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F102" s="159"/>
+      <c r="F102" s="148"/>
     </row>
     <row r="103" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A103" s="157"/>
+      <c r="A103" s="145"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="8" t="s">
@@ -5831,10 +5848,10 @@
       <c r="E103" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F103" s="159"/>
+      <c r="F103" s="148"/>
     </row>
     <row r="104" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A104" s="157"/>
+      <c r="A104" s="145"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="9" t="s">
@@ -5843,10 +5860,10 @@
       <c r="E104" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F104" s="159"/>
+      <c r="F104" s="148"/>
     </row>
     <row r="105" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A105" s="157"/>
+      <c r="A105" s="145"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="9" t="s">
@@ -5855,10 +5872,10 @@
       <c r="E105" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F105" s="159"/>
+      <c r="F105" s="148"/>
     </row>
     <row r="106" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A106" s="157"/>
+      <c r="A106" s="145"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="9" t="s">
@@ -5867,26 +5884,26 @@
       <c r="E106" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F106" s="159"/>
+      <c r="F106" s="148"/>
     </row>
     <row r="107" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A107" s="158"/>
+      <c r="A107" s="146"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="18"/>
       <c r="E107" s="19"/>
-      <c r="F107" s="153"/>
+      <c r="F107" s="149"/>
     </row>
     <row r="108" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A108" s="158"/>
+      <c r="A108" s="146"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="18"/>
       <c r="E108" s="19"/>
-      <c r="F108" s="153"/>
+      <c r="F108" s="149"/>
     </row>
     <row r="109" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A109" s="139" t="s">
+      <c r="A109" s="154" t="s">
         <v>138</v>
       </c>
       <c r="B109" s="3" t="s">
@@ -5896,13 +5913,13 @@
         <v>26</v>
       </c>
       <c r="D109" s="12"/>
-      <c r="E109" s="142"/>
-      <c r="F109" s="145" t="s">
+      <c r="E109" s="157"/>
+      <c r="F109" s="160" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A110" s="140"/>
+      <c r="A110" s="155"/>
       <c r="B110" s="1" t="s">
         <v>131</v>
       </c>
@@ -5910,11 +5927,11 @@
         <v>148</v>
       </c>
       <c r="D110" s="8"/>
-      <c r="E110" s="143"/>
-      <c r="F110" s="146"/>
+      <c r="E110" s="158"/>
+      <c r="F110" s="161"/>
     </row>
     <row r="111" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A111" s="140"/>
+      <c r="A111" s="155"/>
       <c r="B111" s="1" t="s">
         <v>130</v>
       </c>
@@ -5922,11 +5939,11 @@
         <v>139</v>
       </c>
       <c r="D111" s="9"/>
-      <c r="E111" s="143"/>
-      <c r="F111" s="146"/>
+      <c r="E111" s="158"/>
+      <c r="F111" s="161"/>
     </row>
     <row r="112" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A112" s="140"/>
+      <c r="A112" s="155"/>
       <c r="B112" s="1" t="s">
         <v>129</v>
       </c>
@@ -5934,11 +5951,11 @@
         <v>140</v>
       </c>
       <c r="D112" s="8"/>
-      <c r="E112" s="143"/>
-      <c r="F112" s="146"/>
+      <c r="E112" s="158"/>
+      <c r="F112" s="161"/>
     </row>
     <row r="113" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A113" s="140"/>
+      <c r="A113" s="155"/>
       <c r="B113" s="1" t="s">
         <v>22</v>
       </c>
@@ -5946,11 +5963,11 @@
         <v>141</v>
       </c>
       <c r="D113" s="8"/>
-      <c r="E113" s="143"/>
-      <c r="F113" s="146"/>
+      <c r="E113" s="158"/>
+      <c r="F113" s="161"/>
     </row>
     <row r="114" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A114" s="140"/>
+      <c r="A114" s="155"/>
       <c r="B114" s="1" t="s">
         <v>23</v>
       </c>
@@ -5958,63 +5975,63 @@
         <v>142</v>
       </c>
       <c r="D114" s="8"/>
-      <c r="E114" s="143"/>
-      <c r="F114" s="146"/>
+      <c r="E114" s="158"/>
+      <c r="F114" s="161"/>
     </row>
     <row r="115" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A115" s="140"/>
+      <c r="A115" s="155"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D115" s="8"/>
-      <c r="E115" s="143"/>
-      <c r="F115" s="146"/>
+      <c r="E115" s="158"/>
+      <c r="F115" s="161"/>
       <c r="I115" s="36"/>
     </row>
     <row r="116" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A116" s="140"/>
+      <c r="A116" s="155"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D116" s="8"/>
-      <c r="E116" s="143"/>
-      <c r="F116" s="146"/>
+      <c r="E116" s="158"/>
+      <c r="F116" s="161"/>
       <c r="I116" s="36"/>
     </row>
     <row r="117" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A117" s="140"/>
+      <c r="A117" s="155"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D117" s="8"/>
-      <c r="E117" s="143"/>
-      <c r="F117" s="146"/>
+      <c r="E117" s="158"/>
+      <c r="F117" s="161"/>
       <c r="I117" s="36"/>
     </row>
     <row r="118" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A118" s="140"/>
+      <c r="A118" s="155"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D118" s="8"/>
-      <c r="E118" s="143"/>
-      <c r="F118" s="146"/>
+      <c r="E118" s="158"/>
+      <c r="F118" s="161"/>
       <c r="I118" s="36"/>
     </row>
     <row r="119" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A119" s="141"/>
+      <c r="A119" s="156"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="29"/>
-      <c r="E119" s="144"/>
-      <c r="F119" s="147"/>
+      <c r="E119" s="159"/>
+      <c r="F119" s="162"/>
     </row>
     <row r="120" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A120" s="154" t="s">
+      <c r="A120" s="139" t="s">
         <v>51</v>
       </c>
       <c r="B120" s="23" t="s">
@@ -6023,20 +6040,20 @@
       <c r="C120" s="22"/>
       <c r="D120" s="22"/>
       <c r="E120" s="22"/>
-      <c r="F120" s="85" t="s">
+      <c r="F120" s="56" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A121" s="155"/>
+      <c r="A121" s="140"/>
       <c r="B121" s="16"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17"/>
       <c r="E121" s="17"/>
-      <c r="F121" s="86"/>
+      <c r="F121" s="57"/>
     </row>
     <row r="122" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A122" s="101" t="s">
+      <c r="A122" s="49" t="s">
         <v>52</v>
       </c>
       <c r="B122" s="15" t="s">
@@ -6045,32 +6062,32 @@
       <c r="C122" s="14"/>
       <c r="D122" s="14"/>
       <c r="E122" s="14"/>
-      <c r="F122" s="84" t="s">
+      <c r="F122" s="55" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A123" s="102"/>
+      <c r="A123" s="50"/>
       <c r="B123" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C123" s="31"/>
       <c r="D123" s="31"/>
       <c r="E123" s="31"/>
-      <c r="F123" s="85"/>
+      <c r="F123" s="56"/>
     </row>
     <row r="124" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A124" s="102"/>
+      <c r="A124" s="50"/>
       <c r="B124" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C124" s="19"/>
       <c r="D124" s="19"/>
       <c r="E124" s="19"/>
-      <c r="F124" s="85"/>
+      <c r="F124" s="56"/>
     </row>
     <row r="125" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A125" s="136" t="s">
+      <c r="A125" s="151" t="s">
         <v>81</v>
       </c>
       <c r="B125" s="15" t="s">
@@ -6079,36 +6096,36 @@
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
-      <c r="F125" s="73" t="s">
+      <c r="F125" s="71" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A126" s="137"/>
+      <c r="A126" s="152"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="74"/>
+      <c r="F126" s="72"/>
     </row>
     <row r="127" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A127" s="137"/>
+      <c r="A127" s="152"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="74"/>
+      <c r="F127" s="72"/>
     </row>
     <row r="128" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A128" s="138"/>
+      <c r="A128" s="153"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
-      <c r="F128" s="93"/>
+      <c r="F128" s="73"/>
     </row>
     <row r="129" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A129" s="101" t="s">
+      <c r="A129" s="49" t="s">
         <v>86</v>
       </c>
       <c r="B129" s="15" t="s">
@@ -6117,32 +6134,72 @@
       <c r="C129" s="14"/>
       <c r="D129" s="14"/>
       <c r="E129" s="14"/>
-      <c r="F129" s="84" t="s">
+      <c r="F129" s="55" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A130" s="102"/>
+      <c r="A130" s="50"/>
       <c r="B130" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C130" s="31"/>
       <c r="D130" s="31"/>
       <c r="E130" s="31"/>
-      <c r="F130" s="85"/>
+      <c r="F130" s="56"/>
     </row>
     <row r="131" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A131" s="103"/>
+      <c r="A131" s="51"/>
       <c r="B131" s="16" t="s">
         <v>84</v>
       </c>
       <c r="C131" s="17"/>
       <c r="D131" s="17"/>
       <c r="E131" s="17"/>
-      <c r="F131" s="86"/>
+      <c r="F131" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="F17:F23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="E24:E30"/>
+    <mergeCell ref="F24:F30"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="E31:E40"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="E48:E55"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="F129:F131"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A125:A128"/>
+    <mergeCell ref="F125:F128"/>
+    <mergeCell ref="A109:A119"/>
+    <mergeCell ref="E109:E119"/>
+    <mergeCell ref="F109:F119"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="F91:F95"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A124"/>
+    <mergeCell ref="F122:F124"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="A97:A108"/>
+    <mergeCell ref="F97:F108"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F71:F77"/>
+    <mergeCell ref="A71:A77"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A96:F96"/>
     <mergeCell ref="F57:F61"/>
@@ -6159,46 +6216,6 @@
     <mergeCell ref="A31:A40"/>
     <mergeCell ref="A41:A47"/>
     <mergeCell ref="F41:F47"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A122:A124"/>
-    <mergeCell ref="F122:F124"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="A97:A108"/>
-    <mergeCell ref="F97:F108"/>
-    <mergeCell ref="F88:F90"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="F71:F77"/>
-    <mergeCell ref="A71:A77"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="F129:F131"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A125:A128"/>
-    <mergeCell ref="F125:F128"/>
-    <mergeCell ref="A109:A119"/>
-    <mergeCell ref="E109:E119"/>
-    <mergeCell ref="F109:F119"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="F91:F95"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="F17:F23"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="E24:E30"/>
-    <mergeCell ref="F24:F30"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="E31:E40"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="E48:E55"/>
-    <mergeCell ref="A62:A64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6273,25 +6290,25 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="31" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="31" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6299,7 +6316,7 @@
         <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6307,7 +6324,7 @@
         <v>139</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6315,7 +6332,7 @@
         <v>140</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6323,7 +6340,7 @@
         <v>141</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6331,7 +6348,7 @@
         <v>142</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6339,7 +6356,7 @@
         <v>143</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6347,7 +6364,7 @@
         <v>144</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -6355,7 +6372,7 @@
         <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -6363,23 +6380,23 @@
         <v>149</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1"/>
@@ -6390,12 +6407,12 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="46" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="46" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/description.xlsx
+++ b/description.xlsx
@@ -2000,9 +2000,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/description.xlsx
+++ b/description.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE7D2BA-6645-4B4E-9F9F-C9CA528E85E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="новые" sheetId="4" r:id="rId1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="235">
   <si>
     <t>SET_ORI(W,P,R)</t>
   </si>
@@ -778,12 +779,15 @@
 till - наклон оси Z инструмента вокруг касательной к траетории, till = 0 соответсвует перпендикуляру к плоскости XY Pr[10]
 rot - поворот инструмента вокруг оси Z инструмента</t>
   </si>
+  <si>
+    <t>вычисляет центр окружности и радиус на плоскости XY, т.е. Z координаты точек не учитываются и обнуляются</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1345,6 +1349,168 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1354,6 +1520,69 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1363,229 +1592,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1594,18 +1607,93 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1614,90 +1702,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1708,6 +1712,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1756,7 +1763,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1788,9 +1795,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1822,6 +1847,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1997,15 +2040,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E168" sqref="E168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.7109375" style="20" customWidth="1"/>
     <col min="2" max="2" width="44.85546875" customWidth="1"/>
@@ -2017,7 +2060,7 @@
     <col min="8" max="8" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="44.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:6" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -2037,54 +2080,54 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="122" t="s">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="123"/>
-    </row>
-    <row r="3" spans="1:6" ht="21" customHeight="1">
-      <c r="A3" s="124" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
+    </row>
+    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
         <v>159</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="12"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="127" t="s">
+      <c r="F3" s="59" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21" customHeight="1">
-      <c r="A4" s="125"/>
+    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="57"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="8"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="128"/>
-    </row>
-    <row r="5" spans="1:6" ht="21" customHeight="1">
-      <c r="A5" s="125"/>
+      <c r="F4" s="60"/>
+    </row>
+    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="57"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="8"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="128"/>
-    </row>
-    <row r="6" spans="1:6" ht="21" customHeight="1" thickBot="1">
-      <c r="A6" s="126"/>
+      <c r="F5" s="60"/>
+    </row>
+    <row r="6" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="58"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="9"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="129"/>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1">
-      <c r="A7" s="82" t="s">
+      <c r="F6" s="61"/>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
         <v>209</v>
       </c>
       <c r="B7" s="3"/>
@@ -2097,12 +2140,12 @@
       <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="54" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1">
-      <c r="A8" s="83"/>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="52"/>
       <c r="B8" s="1" t="s">
         <v>95</v>
       </c>
@@ -2113,10 +2156,10 @@
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="62"/>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1">
-      <c r="A9" s="83"/>
+      <c r="F8" s="54"/>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="52"/>
       <c r="B9" s="2" t="s">
         <v>229</v>
       </c>
@@ -2127,10 +2170,10 @@
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="62"/>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1">
-      <c r="A10" s="83"/>
+      <c r="F9" s="54"/>
+    </row>
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="52"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="8" t="s">
@@ -2139,10 +2182,10 @@
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="62"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="83"/>
+      <c r="F10" s="54"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="52"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="8" t="s">
@@ -2151,10 +2194,10 @@
       <c r="E11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="62"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="83"/>
+      <c r="F11" s="54"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="52"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="8" t="s">
@@ -2163,10 +2206,10 @@
       <c r="E12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="62"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="84"/>
+      <c r="F12" s="54"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="53"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="13" t="s">
@@ -2175,10 +2218,10 @@
       <c r="E13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="63"/>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1">
-      <c r="A14" s="82" t="s">
+      <c r="F13" s="55"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="51" t="s">
         <v>208</v>
       </c>
       <c r="B14" s="3"/>
@@ -2191,12 +2234,12 @@
       <c r="E14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="61" t="s">
+      <c r="F14" s="62" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1">
-      <c r="A15" s="83"/>
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="52"/>
       <c r="B15" s="1" t="s">
         <v>95</v>
       </c>
@@ -2207,10 +2250,10 @@
       <c r="E15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="62"/>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1">
-      <c r="A16" s="83"/>
+      <c r="F15" s="54"/>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="52"/>
       <c r="B16" s="2" t="s">
         <v>185</v>
       </c>
@@ -2221,10 +2264,10 @@
       <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="62"/>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1">
-      <c r="A17" s="83"/>
+      <c r="F16" s="54"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="52"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="8" t="s">
@@ -2233,10 +2276,10 @@
       <c r="E17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="62"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1">
-      <c r="A18" s="83"/>
+      <c r="F17" s="54"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="52"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="8" t="s">
@@ -2245,10 +2288,10 @@
       <c r="E18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="62"/>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1">
-      <c r="A19" s="83"/>
+      <c r="F18" s="54"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="52"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="8" t="s">
@@ -2257,10 +2300,10 @@
       <c r="E19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="62"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A20" s="84"/>
+      <c r="F19" s="54"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="53"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="13" t="s">
@@ -2269,10 +2312,10 @@
       <c r="E20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="63"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1">
-      <c r="A21" s="91" t="s">
+      <c r="F20" s="55"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="73" t="s">
         <v>174</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2282,24 +2325,24 @@
       <c r="D21" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="E21" s="66"/>
+      <c r="E21" s="63"/>
       <c r="F21" s="48"/>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="92"/>
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="74"/>
       <c r="B22" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="E22" s="67"/>
+      <c r="E22" s="64"/>
       <c r="F22" s="47" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="92"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="74"/>
       <c r="B23" s="1" t="s">
         <v>130</v>
       </c>
@@ -2307,11 +2350,11 @@
       <c r="D23" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="E23" s="67"/>
+      <c r="E23" s="64"/>
       <c r="F23" s="47"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A24" s="92"/>
+    <row r="24" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="74"/>
       <c r="B24" s="1" t="s">
         <v>129</v>
       </c>
@@ -2319,13 +2362,13 @@
       <c r="D24" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="E24" s="67"/>
+      <c r="E24" s="64"/>
       <c r="F24" s="47" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1">
-      <c r="A25" s="82" t="s">
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="51" t="s">
         <v>160</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2337,15 +2380,15 @@
       <c r="D25" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="115" t="s">
+      <c r="F25" s="66" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1">
-      <c r="A26" s="83"/>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="52"/>
       <c r="B26" s="1" t="s">
         <v>216</v>
       </c>
@@ -2355,75 +2398,75 @@
       <c r="D26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="67"/>
-      <c r="F26" s="116"/>
-    </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1">
-      <c r="A27" s="83"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="67"/>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="52"/>
       <c r="B27" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C27" s="118" t="s">
+      <c r="C27" s="69" t="s">
         <v>154</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="67"/>
-      <c r="F27" s="116"/>
-    </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1">
-      <c r="A28" s="83"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="67"/>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="52"/>
       <c r="B28" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C28" s="119"/>
+      <c r="C28" s="70"/>
       <c r="D28" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="67"/>
-      <c r="F28" s="116"/>
-    </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1">
-      <c r="A29" s="83"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="67"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="52"/>
       <c r="B29" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C29" s="118" t="s">
+      <c r="C29" s="69" t="s">
         <v>153</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="67"/>
-      <c r="F29" s="116"/>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1">
-      <c r="A30" s="83"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="67"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="52"/>
       <c r="B30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="120"/>
+      <c r="C30" s="71"/>
       <c r="D30" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="67"/>
-      <c r="F30" s="116"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A31" s="84"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="67"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="53"/>
       <c r="B31" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C31" s="121"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="68"/>
-      <c r="F31" s="117"/>
-    </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1">
-      <c r="A32" s="82" t="s">
+      <c r="E31" s="65"/>
+      <c r="F31" s="68"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="51" t="s">
         <v>157</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -2435,15 +2478,15 @@
       <c r="D32" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="66" t="s">
+      <c r="E32" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="61" t="s">
+      <c r="F32" s="62" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1">
-      <c r="A33" s="83"/>
+    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="52"/>
       <c r="B33" s="1" t="s">
         <v>216</v>
       </c>
@@ -2453,11 +2496,11 @@
       <c r="D33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="67"/>
-      <c r="F33" s="62"/>
-    </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1">
-      <c r="A34" s="83"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="54"/>
+    </row>
+    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="52"/>
       <c r="B34" s="1" t="s">
         <v>217</v>
       </c>
@@ -2467,11 +2510,11 @@
       <c r="D34" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="67"/>
-      <c r="F34" s="62"/>
-    </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1">
-      <c r="A35" s="83"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="54"/>
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="52"/>
       <c r="B35" s="1" t="s">
         <v>218</v>
       </c>
@@ -2479,11 +2522,11 @@
       <c r="D35" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="67"/>
-      <c r="F35" s="62"/>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1">
-      <c r="A36" s="83"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="54"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="52"/>
       <c r="B36" s="1" t="s">
         <v>219</v>
       </c>
@@ -2491,11 +2534,11 @@
       <c r="D36" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="67"/>
-      <c r="F36" s="62"/>
-    </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1">
-      <c r="A37" s="83"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="54"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="52"/>
       <c r="B37" s="1" t="s">
         <v>24</v>
       </c>
@@ -2503,11 +2546,11 @@
       <c r="D37" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="67"/>
-      <c r="F37" s="62"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A38" s="84"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="54"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="53"/>
       <c r="B38" s="4" t="s">
         <v>155</v>
       </c>
@@ -2515,11 +2558,11 @@
       <c r="D38" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="68"/>
-      <c r="F38" s="63"/>
-    </row>
-    <row r="39" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A39" s="107" t="s">
+      <c r="E38" s="65"/>
+      <c r="F38" s="55"/>
+    </row>
+    <row r="39" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="77" t="s">
         <v>173</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -2531,15 +2574,15 @@
       <c r="D39" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="66" t="s">
+      <c r="E39" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="61" t="s">
+      <c r="F39" s="62" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A40" s="108"/>
+    <row r="40" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="78"/>
       <c r="B40" s="1" t="s">
         <v>70</v>
       </c>
@@ -2547,11 +2590,11 @@
       <c r="D40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="67"/>
-      <c r="F40" s="62"/>
-    </row>
-    <row r="41" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A41" s="108"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="54"/>
+    </row>
+    <row r="41" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="78"/>
       <c r="B41" s="1" t="s">
         <v>49</v>
       </c>
@@ -2559,83 +2602,83 @@
       <c r="D41" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="67"/>
-      <c r="F41" s="62"/>
-    </row>
-    <row r="42" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A42" s="108"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="54"/>
+    </row>
+    <row r="42" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="78"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="67"/>
-      <c r="F42" s="62"/>
-    </row>
-    <row r="43" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A43" s="108"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="54"/>
+    </row>
+    <row r="43" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="78"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="67"/>
-      <c r="F43" s="62"/>
-    </row>
-    <row r="44" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A44" s="108"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="54"/>
+    </row>
+    <row r="44" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="78"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="67"/>
-      <c r="F44" s="62"/>
-    </row>
-    <row r="45" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A45" s="109"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="54"/>
+    </row>
+    <row r="45" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="79"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="68"/>
-      <c r="F45" s="63"/>
-    </row>
-    <row r="46" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A46" s="91" t="s">
+      <c r="E45" s="65"/>
+      <c r="F45" s="55"/>
+    </row>
+    <row r="46" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="73" t="s">
         <v>221</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="110" t="s">
+      <c r="C46" s="81" t="s">
         <v>45</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="112" t="s">
+      <c r="E46" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="55" t="s">
+      <c r="F46" s="86" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="30" customHeight="1">
-      <c r="A47" s="92"/>
+    <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="74"/>
       <c r="B47" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C47" s="111"/>
+      <c r="C47" s="82"/>
       <c r="D47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="113"/>
-      <c r="F47" s="56"/>
-    </row>
-    <row r="48" spans="1:6" ht="30" customHeight="1">
-      <c r="A48" s="92"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="87"/>
+    </row>
+    <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="74"/>
       <c r="B48" s="5" t="s">
         <v>29</v>
       </c>
@@ -2645,11 +2688,11 @@
       <c r="D48" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="113"/>
-      <c r="F48" s="56"/>
-    </row>
-    <row r="49" spans="1:6" ht="30" customHeight="1">
-      <c r="A49" s="92"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="87"/>
+    </row>
+    <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="74"/>
       <c r="B49" s="24" t="s">
         <v>30</v>
       </c>
@@ -2659,11 +2702,11 @@
       <c r="D49" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="113"/>
-      <c r="F49" s="56"/>
-    </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1">
-      <c r="A50" s="92"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="87"/>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="74"/>
       <c r="B50" s="24" t="s">
         <v>31</v>
       </c>
@@ -2673,11 +2716,11 @@
       <c r="D50" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="113"/>
-      <c r="F50" s="56"/>
-    </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1">
-      <c r="A51" s="92"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="87"/>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="74"/>
       <c r="B51" s="24" t="s">
         <v>32</v>
       </c>
@@ -2685,11 +2728,11 @@
       <c r="D51" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="113"/>
-      <c r="F51" s="56"/>
-    </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1">
-      <c r="A52" s="92"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="87"/>
+    </row>
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="74"/>
       <c r="B52" s="24" t="s">
         <v>33</v>
       </c>
@@ -2697,19 +2740,19 @@
       <c r="D52" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="113"/>
-      <c r="F52" s="56"/>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A53" s="93"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="87"/>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="80"/>
       <c r="B53" s="25"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
-      <c r="E53" s="114"/>
-      <c r="F53" s="57"/>
-    </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1">
-      <c r="A54" s="91" t="s">
+      <c r="E53" s="85"/>
+      <c r="F53" s="88"/>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="73" t="s">
         <v>42</v>
       </c>
       <c r="B54" s="9" t="s">
@@ -2720,10 +2763,10 @@
         <v>39</v>
       </c>
       <c r="E54" s="3"/>
-      <c r="F54" s="71"/>
-    </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1">
-      <c r="A55" s="92"/>
+      <c r="F54" s="75"/>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="74"/>
       <c r="B55" s="9" t="s">
         <v>40</v>
       </c>
@@ -2732,10 +2775,10 @@
         <v>40</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="72"/>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A56" s="92"/>
+      <c r="F55" s="76"/>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="74"/>
       <c r="B56" s="18" t="s">
         <v>41</v>
       </c>
@@ -2744,10 +2787,10 @@
         <v>41</v>
       </c>
       <c r="E56" s="2"/>
-      <c r="F56" s="72"/>
-    </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1">
-      <c r="A57" s="91" t="s">
+      <c r="F56" s="76"/>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="73" t="s">
         <v>66</v>
       </c>
       <c r="B57" s="27" t="s">
@@ -2762,30 +2805,30 @@
       <c r="E57" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F57" s="94" t="s">
+      <c r="F57" s="89" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="92"/>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="74"/>
       <c r="B58" s="30"/>
       <c r="C58" s="22"/>
       <c r="D58" s="21"/>
       <c r="E58" s="31"/>
-      <c r="F58" s="95"/>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A59" s="93"/>
+      <c r="F58" s="90"/>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="80"/>
       <c r="B59" s="25"/>
       <c r="C59" s="17" t="s">
         <v>67</v>
       </c>
       <c r="D59" s="16"/>
       <c r="E59" s="17"/>
-      <c r="F59" s="96"/>
-    </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1">
-      <c r="A60" s="91" t="s">
+      <c r="F59" s="91"/>
+    </row>
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="73" t="s">
         <v>112</v>
       </c>
       <c r="B60" s="27" t="s">
@@ -2800,22 +2843,22 @@
       <c r="E60" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F60" s="71" t="s">
+      <c r="F60" s="75" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A61" s="93"/>
+    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="80"/>
       <c r="B61" s="28"/>
       <c r="C61" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="19"/>
-      <c r="F61" s="73"/>
-    </row>
-    <row r="62" spans="1:6" ht="58.5" customHeight="1">
-      <c r="A62" s="82" t="s">
+      <c r="F61" s="95"/>
+    </row>
+    <row r="62" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="51" t="s">
         <v>171</v>
       </c>
       <c r="B62" s="15" t="s">
@@ -2826,32 +2869,32 @@
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="85" t="s">
+      <c r="F62" s="112" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="58.5" customHeight="1">
-      <c r="A63" s="83"/>
+    <row r="63" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="52"/>
       <c r="B63" s="9" t="s">
         <v>172</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="86"/>
-    </row>
-    <row r="64" spans="1:6" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A64" s="84"/>
+      <c r="F63" s="113"/>
+    </row>
+    <row r="64" spans="1:6" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="53"/>
       <c r="B64" s="25"/>
       <c r="C64" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="87"/>
-    </row>
-    <row r="65" spans="1:6" ht="45.75" customHeight="1">
-      <c r="A65" s="82" t="s">
+      <c r="F64" s="114"/>
+    </row>
+    <row r="65" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="51" t="s">
         <v>163</v>
       </c>
       <c r="B65" s="15" t="s">
@@ -2862,12 +2905,12 @@
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="85" t="s">
+      <c r="F65" s="112" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A66" s="83"/>
+    <row r="66" spans="1:6" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="52"/>
       <c r="B66" s="9" t="s">
         <v>226</v>
       </c>
@@ -2876,30 +2919,30 @@
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="86"/>
-    </row>
-    <row r="67" spans="1:6" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A67" s="84"/>
+      <c r="F66" s="113"/>
+    </row>
+    <row r="67" spans="1:6" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="53"/>
       <c r="B67" s="25"/>
       <c r="C67" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="87"/>
-    </row>
-    <row r="68" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A68" s="103" t="s">
+      <c r="F67" s="114"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="B68" s="103"/>
-      <c r="C68" s="103"/>
-      <c r="D68" s="103"/>
-      <c r="E68" s="103"/>
-      <c r="F68" s="103"/>
-    </row>
-    <row r="69" spans="1:6" ht="30" customHeight="1">
-      <c r="A69" s="100" t="s">
+      <c r="B68" s="99"/>
+      <c r="C68" s="99"/>
+      <c r="D68" s="99"/>
+      <c r="E68" s="99"/>
+      <c r="F68" s="99"/>
+    </row>
+    <row r="69" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="96" t="s">
         <v>62</v>
       </c>
       <c r="B69" s="12" t="s">
@@ -2910,10 +2953,10 @@
         <v>34</v>
       </c>
       <c r="E69" s="3"/>
-      <c r="F69" s="71"/>
-    </row>
-    <row r="70" spans="1:6" ht="30" customHeight="1">
-      <c r="A70" s="101"/>
+      <c r="F69" s="75"/>
+    </row>
+    <row r="70" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="97"/>
       <c r="B70" s="8" t="s">
         <v>15</v>
       </c>
@@ -2922,10 +2965,10 @@
         <v>15</v>
       </c>
       <c r="E70" s="1"/>
-      <c r="F70" s="72"/>
-    </row>
-    <row r="71" spans="1:6" ht="45" customHeight="1">
-      <c r="A71" s="101"/>
+      <c r="F70" s="76"/>
+    </row>
+    <row r="71" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="97"/>
       <c r="B71" s="9" t="s">
         <v>10</v>
       </c>
@@ -2934,26 +2977,26 @@
         <v>10</v>
       </c>
       <c r="E71" s="2"/>
-      <c r="F71" s="72"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="101"/>
+      <c r="F71" s="76"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="97"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="72"/>
-    </row>
-    <row r="73" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A73" s="102"/>
+      <c r="F72" s="76"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="98"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
-      <c r="F73" s="73"/>
-    </row>
-    <row r="74" spans="1:6" ht="30" customHeight="1">
-      <c r="A74" s="104" t="s">
+      <c r="F73" s="95"/>
+    </row>
+    <row r="74" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="100" t="s">
         <v>12</v>
       </c>
       <c r="B74" s="3"/>
@@ -2964,26 +3007,26 @@
         <v>13</v>
       </c>
       <c r="E74" s="3"/>
-      <c r="F74" s="71"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="105"/>
+      <c r="F74" s="75"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="101"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="72"/>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A76" s="106"/>
+      <c r="F75" s="76"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="102"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
-      <c r="F76" s="73"/>
-    </row>
-    <row r="77" spans="1:6" ht="30" customHeight="1">
-      <c r="A77" s="100" t="s">
+      <c r="F76" s="95"/>
+    </row>
+    <row r="77" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="96" t="s">
         <v>0</v>
       </c>
       <c r="B77" s="8" t="s">
@@ -2994,10 +3037,10 @@
         <v>7</v>
       </c>
       <c r="E77" s="3"/>
-      <c r="F77" s="71"/>
-    </row>
-    <row r="78" spans="1:6" ht="30" customHeight="1">
-      <c r="A78" s="101"/>
+      <c r="F77" s="75"/>
+    </row>
+    <row r="78" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="97"/>
       <c r="B78" s="8" t="s">
         <v>8</v>
       </c>
@@ -3006,10 +3049,10 @@
         <v>8</v>
       </c>
       <c r="E78" s="1"/>
-      <c r="F78" s="72"/>
-    </row>
-    <row r="79" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A79" s="102"/>
+      <c r="F78" s="76"/>
+    </row>
+    <row r="79" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="98"/>
       <c r="B79" s="13" t="s">
         <v>9</v>
       </c>
@@ -3018,10 +3061,10 @@
         <v>9</v>
       </c>
       <c r="E79" s="4"/>
-      <c r="F79" s="73"/>
-    </row>
-    <row r="80" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A80" s="97" t="s">
+      <c r="F79" s="95"/>
+    </row>
+    <row r="80" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="92" t="s">
         <v>164</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -3036,12 +3079,12 @@
       <c r="E80" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F80" s="71" t="s">
+      <c r="F80" s="75" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A81" s="98"/>
+    <row r="81" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="93"/>
       <c r="B81" s="1" t="s">
         <v>17</v>
       </c>
@@ -3054,10 +3097,10 @@
       <c r="E81" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F81" s="72"/>
-    </row>
-    <row r="82" spans="1:6" ht="30" customHeight="1">
-      <c r="A82" s="98"/>
+      <c r="F81" s="76"/>
+    </row>
+    <row r="82" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="93"/>
       <c r="B82" s="1" t="s">
         <v>18</v>
       </c>
@@ -3070,10 +3113,10 @@
       <c r="E82" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F82" s="72"/>
-    </row>
-    <row r="83" spans="1:6" ht="30" customHeight="1">
-      <c r="A83" s="98"/>
+      <c r="F82" s="76"/>
+    </row>
+    <row r="83" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="93"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="8" t="s">
@@ -3082,10 +3125,10 @@
       <c r="E83" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F83" s="72"/>
-    </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1">
-      <c r="A84" s="98"/>
+      <c r="F83" s="76"/>
+    </row>
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="93"/>
       <c r="B84" s="7"/>
       <c r="C84" s="1"/>
       <c r="D84" s="8" t="s">
@@ -3094,10 +3137,10 @@
       <c r="E84" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F84" s="72"/>
-    </row>
-    <row r="85" spans="1:6" ht="15" customHeight="1">
-      <c r="A85" s="98"/>
+      <c r="F84" s="76"/>
+    </row>
+    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="93"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="8" t="s">
@@ -3106,10 +3149,10 @@
       <c r="E85" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F85" s="72"/>
-    </row>
-    <row r="86" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A86" s="99"/>
+      <c r="F85" s="76"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="94"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="29" t="s">
@@ -3118,10 +3161,10 @@
       <c r="E86" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F86" s="73"/>
-    </row>
-    <row r="87" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A87" s="64" t="s">
+      <c r="F86" s="95"/>
+    </row>
+    <row r="87" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="109" t="s">
         <v>58</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -3136,12 +3179,12 @@
       <c r="E87" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F87" s="71" t="s">
+      <c r="F87" s="75" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A88" s="65"/>
+    <row r="88" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="110"/>
       <c r="B88" s="1" t="s">
         <v>17</v>
       </c>
@@ -3154,10 +3197,10 @@
       <c r="E88" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F88" s="72"/>
-    </row>
-    <row r="89" spans="1:6" ht="30" customHeight="1">
-      <c r="A89" s="65"/>
+      <c r="F88" s="76"/>
+    </row>
+    <row r="89" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="110"/>
       <c r="B89" s="1" t="s">
         <v>18</v>
       </c>
@@ -3168,10 +3211,10 @@
       <c r="E89" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F89" s="72"/>
-    </row>
-    <row r="90" spans="1:6" ht="30" customHeight="1">
-      <c r="A90" s="65"/>
+      <c r="F89" s="76"/>
+    </row>
+    <row r="90" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="110"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="8" t="s">
@@ -3180,10 +3223,10 @@
       <c r="E90" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F90" s="72"/>
-    </row>
-    <row r="91" spans="1:6" ht="15" customHeight="1">
-      <c r="A91" s="65"/>
+      <c r="F90" s="76"/>
+    </row>
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="110"/>
       <c r="B91" s="7"/>
       <c r="C91" s="1"/>
       <c r="D91" s="8" t="s">
@@ -3192,10 +3235,10 @@
       <c r="E91" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F91" s="72"/>
-    </row>
-    <row r="92" spans="1:6" ht="15" customHeight="1">
-      <c r="A92" s="65"/>
+      <c r="F91" s="76"/>
+    </row>
+    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="110"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="8" t="s">
@@ -3204,10 +3247,10 @@
       <c r="E92" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F92" s="72"/>
-    </row>
-    <row r="93" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A93" s="74"/>
+      <c r="F92" s="76"/>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="111"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="29" t="s">
@@ -3216,10 +3259,10 @@
       <c r="E93" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F93" s="73"/>
-    </row>
-    <row r="94" spans="1:6" ht="30" customHeight="1">
-      <c r="A94" s="64" t="s">
+      <c r="F93" s="95"/>
+    </row>
+    <row r="94" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="109" t="s">
         <v>162</v>
       </c>
       <c r="B94" s="3"/>
@@ -3228,52 +3271,52 @@
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
-      <c r="F94" s="71" t="s">
+      <c r="F94" s="75" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="65"/>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="110"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="72"/>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="65"/>
+      <c r="F95" s="76"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="110"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="72"/>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="65"/>
+      <c r="F96" s="76"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="110"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="72"/>
-    </row>
-    <row r="98" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A98" s="74"/>
+      <c r="F97" s="76"/>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="111"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
-      <c r="F98" s="73"/>
-    </row>
-    <row r="99" spans="1:6" ht="30" customHeight="1">
-      <c r="A99" s="64" t="s">
+      <c r="F98" s="95"/>
+    </row>
+    <row r="99" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="109" t="s">
         <v>207</v>
       </c>
       <c r="B99" s="3" t="s">
@@ -3285,15 +3328,15 @@
       <c r="D99" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E99" s="66" t="s">
+      <c r="E99" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="F99" s="61" t="s">
+      <c r="F99" s="62" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="30" customHeight="1">
-      <c r="A100" s="65"/>
+    <row r="100" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="110"/>
       <c r="B100" s="1" t="s">
         <v>22</v>
       </c>
@@ -3303,11 +3346,11 @@
       <c r="D100" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E100" s="67"/>
-      <c r="F100" s="62"/>
-    </row>
-    <row r="101" spans="1:6" ht="30" customHeight="1">
-      <c r="A101" s="65"/>
+      <c r="E100" s="64"/>
+      <c r="F100" s="54"/>
+    </row>
+    <row r="101" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="110"/>
       <c r="B101" s="1" t="s">
         <v>20</v>
       </c>
@@ -3317,11 +3360,11 @@
       <c r="D101" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E101" s="67"/>
-      <c r="F101" s="62"/>
-    </row>
-    <row r="102" spans="1:6" ht="30" customHeight="1">
-      <c r="A102" s="65"/>
+      <c r="E101" s="64"/>
+      <c r="F101" s="54"/>
+    </row>
+    <row r="102" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="110"/>
       <c r="B102" s="1" t="s">
         <v>21</v>
       </c>
@@ -3329,11 +3372,11 @@
       <c r="D102" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E102" s="67"/>
-      <c r="F102" s="62"/>
-    </row>
-    <row r="103" spans="1:6" ht="15" customHeight="1">
-      <c r="A103" s="65"/>
+      <c r="E102" s="64"/>
+      <c r="F102" s="54"/>
+    </row>
+    <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="110"/>
       <c r="B103" s="1" t="s">
         <v>23</v>
       </c>
@@ -3341,11 +3384,11 @@
       <c r="D103" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E103" s="67"/>
-      <c r="F103" s="62"/>
-    </row>
-    <row r="104" spans="1:6" ht="15" customHeight="1">
-      <c r="A104" s="65"/>
+      <c r="E103" s="64"/>
+      <c r="F103" s="54"/>
+    </row>
+    <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="110"/>
       <c r="B104" s="1" t="s">
         <v>24</v>
       </c>
@@ -3353,21 +3396,21 @@
       <c r="D104" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E104" s="67"/>
-      <c r="F104" s="62"/>
-    </row>
-    <row r="105" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A105" s="65"/>
+      <c r="E104" s="64"/>
+      <c r="F104" s="54"/>
+    </row>
+    <row r="105" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="110"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E105" s="68"/>
-      <c r="F105" s="63"/>
-    </row>
-    <row r="106" spans="1:6" ht="30" customHeight="1">
-      <c r="A106" s="64" t="s">
+      <c r="E105" s="65"/>
+      <c r="F105" s="55"/>
+    </row>
+    <row r="106" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="109" t="s">
         <v>183</v>
       </c>
       <c r="B106" s="3" t="s">
@@ -3379,15 +3422,15 @@
       <c r="D106" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E106" s="66" t="s">
+      <c r="E106" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="F106" s="61" t="s">
+      <c r="F106" s="62" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="30" customHeight="1">
-      <c r="A107" s="65"/>
+    <row r="107" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="110"/>
       <c r="B107" s="1" t="s">
         <v>22</v>
       </c>
@@ -3397,11 +3440,11 @@
       <c r="D107" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E107" s="67"/>
-      <c r="F107" s="62"/>
-    </row>
-    <row r="108" spans="1:6" ht="30" customHeight="1">
-      <c r="A108" s="65"/>
+      <c r="E107" s="64"/>
+      <c r="F107" s="54"/>
+    </row>
+    <row r="108" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="110"/>
       <c r="B108" s="1" t="s">
         <v>20</v>
       </c>
@@ -3411,11 +3454,11 @@
       <c r="D108" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E108" s="67"/>
-      <c r="F108" s="62"/>
-    </row>
-    <row r="109" spans="1:6" ht="30" customHeight="1">
-      <c r="A109" s="65"/>
+      <c r="E108" s="64"/>
+      <c r="F108" s="54"/>
+    </row>
+    <row r="109" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="110"/>
       <c r="B109" s="1" t="s">
         <v>21</v>
       </c>
@@ -3423,11 +3466,11 @@
       <c r="D109" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E109" s="67"/>
-      <c r="F109" s="62"/>
-    </row>
-    <row r="110" spans="1:6" ht="15" customHeight="1">
-      <c r="A110" s="65"/>
+      <c r="E109" s="64"/>
+      <c r="F109" s="54"/>
+    </row>
+    <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="110"/>
       <c r="B110" s="1" t="s">
         <v>23</v>
       </c>
@@ -3435,11 +3478,11 @@
       <c r="D110" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E110" s="67"/>
-      <c r="F110" s="62"/>
-    </row>
-    <row r="111" spans="1:6" ht="15" customHeight="1">
-      <c r="A111" s="65"/>
+      <c r="E110" s="64"/>
+      <c r="F110" s="54"/>
+    </row>
+    <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="110"/>
       <c r="B111" s="1" t="s">
         <v>24</v>
       </c>
@@ -3447,21 +3490,21 @@
       <c r="D111" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E111" s="67"/>
-      <c r="F111" s="62"/>
-    </row>
-    <row r="112" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A112" s="65"/>
+      <c r="E111" s="64"/>
+      <c r="F111" s="54"/>
+    </row>
+    <row r="112" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="110"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E112" s="68"/>
-      <c r="F112" s="63"/>
-    </row>
-    <row r="113" spans="1:6" ht="30" customHeight="1">
-      <c r="A113" s="64" t="s">
+      <c r="E112" s="65"/>
+      <c r="F112" s="55"/>
+    </row>
+    <row r="113" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="109" t="s">
         <v>184</v>
       </c>
       <c r="B113" s="3" t="s">
@@ -3473,15 +3516,15 @@
       <c r="D113" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E113" s="66" t="s">
+      <c r="E113" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="F113" s="61" t="s">
+      <c r="F113" s="62" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="30" customHeight="1">
-      <c r="A114" s="65"/>
+    <row r="114" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="110"/>
       <c r="B114" s="1" t="s">
         <v>22</v>
       </c>
@@ -3491,11 +3534,11 @@
       <c r="D114" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E114" s="67"/>
-      <c r="F114" s="62"/>
-    </row>
-    <row r="115" spans="1:6" ht="30" customHeight="1">
-      <c r="A115" s="65"/>
+      <c r="E114" s="64"/>
+      <c r="F114" s="54"/>
+    </row>
+    <row r="115" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="110"/>
       <c r="B115" s="1" t="s">
         <v>20</v>
       </c>
@@ -3505,11 +3548,11 @@
       <c r="D115" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E115" s="67"/>
-      <c r="F115" s="62"/>
-    </row>
-    <row r="116" spans="1:6" ht="30" customHeight="1">
-      <c r="A116" s="65"/>
+      <c r="E115" s="64"/>
+      <c r="F115" s="54"/>
+    </row>
+    <row r="116" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="110"/>
       <c r="B116" s="1" t="s">
         <v>21</v>
       </c>
@@ -3517,11 +3560,11 @@
       <c r="D116" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E116" s="67"/>
-      <c r="F116" s="62"/>
-    </row>
-    <row r="117" spans="1:6" ht="15" customHeight="1">
-      <c r="A117" s="65"/>
+      <c r="E116" s="64"/>
+      <c r="F116" s="54"/>
+    </row>
+    <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="110"/>
       <c r="B117" s="1" t="s">
         <v>23</v>
       </c>
@@ -3529,11 +3572,11 @@
       <c r="D117" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E117" s="67"/>
-      <c r="F117" s="62"/>
-    </row>
-    <row r="118" spans="1:6" ht="15" customHeight="1">
-      <c r="A118" s="65"/>
+      <c r="E117" s="64"/>
+      <c r="F117" s="54"/>
+    </row>
+    <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="110"/>
       <c r="B118" s="1" t="s">
         <v>24</v>
       </c>
@@ -3541,31 +3584,31 @@
       <c r="D118" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E118" s="67"/>
-      <c r="F118" s="62"/>
-    </row>
-    <row r="119" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A119" s="65"/>
+      <c r="E118" s="64"/>
+      <c r="F118" s="54"/>
+    </row>
+    <row r="119" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="110"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E119" s="68"/>
-      <c r="F119" s="63"/>
-    </row>
-    <row r="120" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A120" s="75" t="s">
+      <c r="E119" s="65"/>
+      <c r="F119" s="55"/>
+    </row>
+    <row r="120" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="B120" s="75"/>
-      <c r="C120" s="75"/>
-      <c r="D120" s="75"/>
-      <c r="E120" s="75"/>
-      <c r="F120" s="75"/>
-    </row>
-    <row r="121" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A121" s="76" t="s">
+      <c r="B120" s="121"/>
+      <c r="C120" s="121"/>
+      <c r="D120" s="121"/>
+      <c r="E120" s="121"/>
+      <c r="F120" s="121"/>
+    </row>
+    <row r="121" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="115" t="s">
         <v>50</v>
       </c>
       <c r="B121" s="3"/>
@@ -3576,12 +3619,12 @@
       <c r="E121" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F121" s="79" t="s">
+      <c r="F121" s="118" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A122" s="77"/>
+    <row r="122" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="116"/>
       <c r="B122" s="1"/>
       <c r="C122" s="8"/>
       <c r="D122" s="8" t="s">
@@ -3590,10 +3633,10 @@
       <c r="E122" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F122" s="80"/>
-    </row>
-    <row r="123" spans="1:6" ht="30" customHeight="1">
-      <c r="A123" s="77"/>
+      <c r="F122" s="119"/>
+    </row>
+    <row r="123" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="116"/>
       <c r="B123" s="1"/>
       <c r="C123" s="8"/>
       <c r="D123" s="9" t="s">
@@ -3602,10 +3645,10 @@
       <c r="E123" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F123" s="80"/>
-    </row>
-    <row r="124" spans="1:6" ht="30" customHeight="1">
-      <c r="A124" s="77"/>
+      <c r="F123" s="119"/>
+    </row>
+    <row r="124" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="116"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="8" t="s">
@@ -3614,10 +3657,10 @@
       <c r="E124" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F124" s="80"/>
-    </row>
-    <row r="125" spans="1:6" ht="15" customHeight="1">
-      <c r="A125" s="77"/>
+      <c r="F124" s="119"/>
+    </row>
+    <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="116"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="8" t="s">
@@ -3626,10 +3669,10 @@
       <c r="E125" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F125" s="80"/>
-    </row>
-    <row r="126" spans="1:6" ht="15" customHeight="1">
-      <c r="A126" s="77"/>
+      <c r="F125" s="119"/>
+    </row>
+    <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="116"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="8" t="s">
@@ -3638,10 +3681,10 @@
       <c r="E126" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F126" s="80"/>
-    </row>
-    <row r="127" spans="1:6" ht="15" customHeight="1">
-      <c r="A127" s="77"/>
+      <c r="F126" s="119"/>
+    </row>
+    <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="116"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="8" t="s">
@@ -3650,10 +3693,10 @@
       <c r="E127" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F127" s="80"/>
-    </row>
-    <row r="128" spans="1:6" ht="15" customHeight="1">
-      <c r="A128" s="77"/>
+      <c r="F127" s="119"/>
+    </row>
+    <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="116"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="9" t="s">
@@ -3662,10 +3705,10 @@
       <c r="E128" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F128" s="80"/>
-    </row>
-    <row r="129" spans="1:9" ht="15" customHeight="1">
-      <c r="A129" s="77"/>
+      <c r="F128" s="119"/>
+    </row>
+    <row r="129" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="116"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="9" t="s">
@@ -3674,10 +3717,10 @@
       <c r="E129" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F129" s="80"/>
-    </row>
-    <row r="130" spans="1:9" ht="15" customHeight="1">
-      <c r="A130" s="77"/>
+      <c r="F129" s="119"/>
+    </row>
+    <row r="130" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="116"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="9" t="s">
@@ -3686,58 +3729,58 @@
       <c r="E130" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F130" s="80"/>
-    </row>
-    <row r="131" spans="1:9" ht="15" customHeight="1">
-      <c r="A131" s="77"/>
+      <c r="F130" s="119"/>
+    </row>
+    <row r="131" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="116"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="18" t="s">
         <v>179</v>
       </c>
       <c r="E131" s="19"/>
-      <c r="F131" s="80"/>
-    </row>
-    <row r="132" spans="1:9" ht="15" customHeight="1">
-      <c r="A132" s="77"/>
+      <c r="F131" s="119"/>
+    </row>
+    <row r="132" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="116"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="18" t="s">
         <v>178</v>
       </c>
       <c r="E132" s="19"/>
-      <c r="F132" s="80"/>
-    </row>
-    <row r="133" spans="1:9" ht="15" customHeight="1">
-      <c r="A133" s="77"/>
+      <c r="F132" s="119"/>
+    </row>
+    <row r="133" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="116"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="18" t="s">
         <v>177</v>
       </c>
       <c r="E133" s="19"/>
-      <c r="F133" s="80"/>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="77"/>
+      <c r="F133" s="119"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="116"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="18" t="s">
         <v>176</v>
       </c>
       <c r="E134" s="19"/>
-      <c r="F134" s="80"/>
-    </row>
-    <row r="135" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A135" s="78"/>
+      <c r="F134" s="119"/>
+    </row>
+    <row r="135" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="117"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="18"/>
       <c r="E135" s="19"/>
-      <c r="F135" s="81"/>
-    </row>
-    <row r="136" spans="1:9" ht="15" customHeight="1">
-      <c r="A136" s="88" t="s">
+      <c r="F135" s="120"/>
+    </row>
+    <row r="136" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="106" t="s">
         <v>180</v>
       </c>
       <c r="B136" s="3" t="s">
@@ -3749,13 +3792,13 @@
       <c r="D136" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="E136" s="66"/>
-      <c r="F136" s="61" t="s">
+      <c r="E136" s="63"/>
+      <c r="F136" s="62" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="89"/>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="107"/>
       <c r="B137" s="1" t="s">
         <v>23</v>
       </c>
@@ -3765,11 +3808,11 @@
       <c r="D137" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="E137" s="67"/>
-      <c r="F137" s="62"/>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="89"/>
+      <c r="E137" s="64"/>
+      <c r="F137" s="54"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="107"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1" t="s">
         <v>139</v>
@@ -3777,11 +3820,11 @@
       <c r="D138" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="E138" s="67"/>
-      <c r="F138" s="62"/>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="A139" s="89"/>
+      <c r="E138" s="64"/>
+      <c r="F138" s="54"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="107"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1" t="s">
         <v>140</v>
@@ -3789,96 +3832,96 @@
       <c r="D139" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="E139" s="67"/>
-      <c r="F139" s="62"/>
-    </row>
-    <row r="140" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A140" s="89"/>
+      <c r="E139" s="64"/>
+      <c r="F139" s="54"/>
+    </row>
+    <row r="140" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="107"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D140" s="8"/>
-      <c r="E140" s="67"/>
-      <c r="F140" s="62"/>
-    </row>
-    <row r="141" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A141" s="89"/>
+      <c r="E140" s="64"/>
+      <c r="F140" s="54"/>
+    </row>
+    <row r="141" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="107"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D141" s="8"/>
-      <c r="E141" s="67"/>
-      <c r="F141" s="62"/>
-    </row>
-    <row r="142" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A142" s="89"/>
+      <c r="E141" s="64"/>
+      <c r="F141" s="54"/>
+    </row>
+    <row r="142" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="107"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D142" s="8"/>
-      <c r="E142" s="67"/>
-      <c r="F142" s="62"/>
+      <c r="E142" s="64"/>
+      <c r="F142" s="54"/>
       <c r="I142" s="36"/>
     </row>
-    <row r="143" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A143" s="89"/>
+    <row r="143" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="107"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D143" s="8"/>
-      <c r="E143" s="67"/>
-      <c r="F143" s="62"/>
+      <c r="E143" s="64"/>
+      <c r="F143" s="54"/>
       <c r="I143" s="36"/>
     </row>
-    <row r="144" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A144" s="89"/>
+    <row r="144" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="107"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D144" s="8"/>
-      <c r="E144" s="67"/>
-      <c r="F144" s="62"/>
+      <c r="E144" s="64"/>
+      <c r="F144" s="54"/>
       <c r="I144" s="36"/>
     </row>
-    <row r="145" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A145" s="89"/>
+    <row r="145" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="107"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D145" s="8"/>
-      <c r="E145" s="67"/>
-      <c r="F145" s="62"/>
+      <c r="E145" s="64"/>
+      <c r="F145" s="54"/>
       <c r="I145" s="36"/>
     </row>
-    <row r="146" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A146" s="89"/>
+    <row r="146" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="107"/>
       <c r="B146" s="2"/>
       <c r="C146" s="5" t="s">
         <v>186</v>
       </c>
       <c r="D146" s="13"/>
-      <c r="E146" s="67"/>
-      <c r="F146" s="62"/>
+      <c r="E146" s="64"/>
+      <c r="F146" s="54"/>
       <c r="I146" s="36"/>
     </row>
-    <row r="147" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A147" s="90"/>
+    <row r="147" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="108"/>
       <c r="B147" s="4"/>
       <c r="C147" s="5" t="s">
         <v>187</v>
       </c>
       <c r="D147" s="29"/>
-      <c r="E147" s="68"/>
-      <c r="F147" s="63"/>
-    </row>
-    <row r="148" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A148" s="69" t="s">
+      <c r="E147" s="65"/>
+      <c r="F147" s="55"/>
+    </row>
+    <row r="148" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="125" t="s">
         <v>51</v>
       </c>
       <c r="B148" s="23" t="s">
@@ -3887,20 +3930,20 @@
       <c r="C148" s="22"/>
       <c r="D148" s="22"/>
       <c r="E148" s="22"/>
-      <c r="F148" s="55" t="s">
+      <c r="F148" s="86" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A149" s="70"/>
+    <row r="149" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="126"/>
       <c r="B149" s="16"/>
       <c r="C149" s="17"/>
       <c r="D149" s="17"/>
       <c r="E149" s="17"/>
-      <c r="F149" s="57"/>
-    </row>
-    <row r="150" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A150" s="49" t="s">
+      <c r="F149" s="88"/>
+    </row>
+    <row r="150" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="103" t="s">
         <v>52</v>
       </c>
       <c r="B150" s="15" t="s">
@@ -3909,32 +3952,32 @@
       <c r="C150" s="14"/>
       <c r="D150" s="14"/>
       <c r="E150" s="14"/>
-      <c r="F150" s="55" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A151" s="50"/>
+      <c r="F150" s="86" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="104"/>
       <c r="B151" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C151" s="31"/>
       <c r="D151" s="31"/>
       <c r="E151" s="31"/>
-      <c r="F151" s="56"/>
-    </row>
-    <row r="152" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A152" s="51"/>
+      <c r="F151" s="87"/>
+    </row>
+    <row r="152" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="105"/>
       <c r="B152" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C152" s="19"/>
       <c r="D152" s="19"/>
       <c r="E152" s="19"/>
-      <c r="F152" s="57"/>
-    </row>
-    <row r="153" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A153" s="49" t="s">
+      <c r="F152" s="88"/>
+    </row>
+    <row r="153" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="103" t="s">
         <v>152</v>
       </c>
       <c r="B153" s="15" t="s">
@@ -3943,36 +3986,36 @@
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
-      <c r="F153" s="71" t="s">
+      <c r="F153" s="75" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A154" s="50"/>
+    <row r="154" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="104"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
-      <c r="F154" s="72"/>
-    </row>
-    <row r="155" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A155" s="50"/>
+      <c r="F154" s="76"/>
+    </row>
+    <row r="155" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="104"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
-      <c r="F155" s="72"/>
-    </row>
-    <row r="156" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A156" s="51"/>
+      <c r="F155" s="76"/>
+    </row>
+    <row r="156" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="105"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
-      <c r="F156" s="73"/>
-    </row>
-    <row r="157" spans="1:9" ht="15" customHeight="1">
-      <c r="A157" s="49" t="s">
+      <c r="F156" s="95"/>
+    </row>
+    <row r="157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="103" t="s">
         <v>86</v>
       </c>
       <c r="B157" s="15" t="s">
@@ -3981,437 +4024,396 @@
       <c r="C157" s="14"/>
       <c r="D157" s="14"/>
       <c r="E157" s="14"/>
-      <c r="F157" s="55" t="s">
+      <c r="F157" s="86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15" customHeight="1">
-      <c r="A158" s="50"/>
+    <row r="158" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="104"/>
       <c r="B158" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C158" s="31"/>
       <c r="D158" s="31"/>
       <c r="E158" s="31"/>
-      <c r="F158" s="56"/>
-    </row>
-    <row r="159" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A159" s="51"/>
+      <c r="F158" s="87"/>
+    </row>
+    <row r="159" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="105"/>
       <c r="B159" s="16" t="s">
         <v>84</v>
       </c>
       <c r="C159" s="17"/>
       <c r="D159" s="17"/>
       <c r="E159" s="17"/>
-      <c r="F159" s="57"/>
-    </row>
-    <row r="160" spans="1:9" ht="15" customHeight="1">
-      <c r="A160" s="49" t="s">
+      <c r="F159" s="88"/>
+    </row>
+    <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="103" t="s">
         <v>167</v>
       </c>
       <c r="B160" s="15"/>
       <c r="C160" s="14"/>
       <c r="D160" s="14"/>
       <c r="E160" s="14"/>
-      <c r="F160" s="55" t="s">
+      <c r="F160" s="86" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="15" customHeight="1">
-      <c r="A161" s="50"/>
+    <row r="161" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="104"/>
       <c r="B161" s="21"/>
       <c r="C161" s="31"/>
       <c r="D161" s="31"/>
       <c r="E161" s="31"/>
-      <c r="F161" s="56"/>
-    </row>
-    <row r="162" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A162" s="51"/>
+      <c r="F161" s="87"/>
+    </row>
+    <row r="162" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="105"/>
       <c r="B162" s="16"/>
       <c r="C162" s="17"/>
       <c r="D162" s="17"/>
       <c r="E162" s="17"/>
-      <c r="F162" s="57"/>
-    </row>
-    <row r="163" spans="1:6" ht="15" customHeight="1">
-      <c r="A163" s="49" t="s">
+      <c r="F162" s="88"/>
+    </row>
+    <row r="163" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="103" t="s">
         <v>170</v>
       </c>
       <c r="B163" s="15"/>
       <c r="C163" s="14"/>
       <c r="D163" s="14"/>
       <c r="E163" s="14"/>
-      <c r="F163" s="55" t="s">
+      <c r="F163" s="86" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15" customHeight="1">
-      <c r="A164" s="50"/>
+    <row r="164" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="104"/>
       <c r="B164" s="21"/>
       <c r="C164" s="31"/>
       <c r="D164" s="31"/>
       <c r="E164" s="31"/>
-      <c r="F164" s="56"/>
-    </row>
-    <row r="165" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A165" s="51"/>
+      <c r="F164" s="87"/>
+    </row>
+    <row r="165" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="105"/>
       <c r="B165" s="16"/>
       <c r="C165" s="17"/>
       <c r="D165" s="17"/>
       <c r="E165" s="17"/>
-      <c r="F165" s="57"/>
-    </row>
-    <row r="166" spans="1:6" ht="63.75" customHeight="1">
-      <c r="A166" s="49" t="s">
+      <c r="F165" s="88"/>
+    </row>
+    <row r="166" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="103" t="s">
         <v>210</v>
       </c>
       <c r="B166" s="15"/>
       <c r="C166" s="14"/>
       <c r="D166" s="14"/>
       <c r="E166" s="14"/>
-      <c r="F166" s="55" t="s">
+      <c r="F166" s="86" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="63.75" customHeight="1">
-      <c r="A167" s="50"/>
+    <row r="167" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="104"/>
       <c r="B167" s="21"/>
       <c r="C167" s="31"/>
       <c r="D167" s="31"/>
       <c r="E167" s="31"/>
-      <c r="F167" s="56"/>
-    </row>
-    <row r="168" spans="1:6" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A168" s="51"/>
+      <c r="F167" s="87"/>
+    </row>
+    <row r="168" spans="1:6" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="105"/>
       <c r="B168" s="16"/>
       <c r="C168" s="17"/>
       <c r="D168" s="17"/>
       <c r="E168" s="17"/>
-      <c r="F168" s="57"/>
-    </row>
-    <row r="169" spans="1:6" ht="94.5" customHeight="1">
-      <c r="A169" s="49" t="s">
+      <c r="F168" s="88"/>
+    </row>
+    <row r="169" spans="1:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="103" t="s">
         <v>206</v>
       </c>
       <c r="B169" s="15"/>
       <c r="C169" s="14"/>
       <c r="D169" s="14"/>
       <c r="E169" s="14"/>
-      <c r="F169" s="52" t="s">
+      <c r="F169" s="127" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="94.5" customHeight="1">
-      <c r="A170" s="50"/>
+    <row r="170" spans="1:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="104"/>
       <c r="B170" s="21"/>
       <c r="C170" s="31"/>
       <c r="D170" s="31"/>
       <c r="E170" s="31"/>
-      <c r="F170" s="53"/>
-    </row>
-    <row r="171" spans="1:6" ht="94.5" customHeight="1" thickBot="1">
-      <c r="A171" s="51"/>
+      <c r="F170" s="128"/>
+    </row>
+    <row r="171" spans="1:6" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="105"/>
       <c r="B171" s="16"/>
       <c r="C171" s="17"/>
       <c r="D171" s="17"/>
       <c r="E171" s="17"/>
-      <c r="F171" s="54"/>
-    </row>
-    <row r="172" spans="1:6" ht="15" customHeight="1">
-      <c r="A172" s="60" t="s">
+      <c r="F171" s="129"/>
+    </row>
+    <row r="172" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="122" t="s">
         <v>192</v>
       </c>
       <c r="B172" s="40"/>
       <c r="C172" s="37"/>
       <c r="D172" s="43"/>
       <c r="E172" s="37"/>
-      <c r="F172" s="55" t="s">
+      <c r="F172" s="86" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
-      <c r="A173" s="58"/>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="123"/>
       <c r="B173" s="41"/>
       <c r="C173" s="38"/>
       <c r="D173" s="44"/>
       <c r="E173" s="38"/>
-      <c r="F173" s="56"/>
-    </row>
-    <row r="174" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A174" s="59"/>
+      <c r="F173" s="87"/>
+    </row>
+    <row r="174" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="124"/>
       <c r="B174" s="42"/>
       <c r="C174" s="39"/>
       <c r="D174" s="45"/>
       <c r="E174" s="39"/>
-      <c r="F174" s="57"/>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175" s="60" t="s">
+      <c r="F174" s="88"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="122" t="s">
         <v>193</v>
       </c>
       <c r="B175" s="40"/>
       <c r="C175" s="37"/>
       <c r="D175" s="43"/>
       <c r="E175" s="37"/>
-      <c r="F175" s="55" t="s">
+      <c r="F175" s="86" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
-      <c r="A176" s="58"/>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="123"/>
       <c r="B176" s="41"/>
       <c r="C176" s="38"/>
       <c r="D176" s="44"/>
       <c r="E176" s="38"/>
-      <c r="F176" s="56"/>
-    </row>
-    <row r="177" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A177" s="59"/>
+      <c r="F176" s="87"/>
+    </row>
+    <row r="177" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="124"/>
       <c r="B177" s="42"/>
       <c r="C177" s="39"/>
       <c r="D177" s="45"/>
       <c r="E177" s="39"/>
-      <c r="F177" s="57"/>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178" s="58" t="s">
+      <c r="F177" s="88"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="123" t="s">
         <v>194</v>
       </c>
       <c r="B178" s="41"/>
       <c r="C178" s="38"/>
       <c r="D178" s="44"/>
       <c r="E178" s="38"/>
-      <c r="F178" s="55" t="s">
+      <c r="F178" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
-      <c r="A179" s="58"/>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="123"/>
       <c r="B179" s="41"/>
       <c r="C179" s="38"/>
       <c r="D179" s="44"/>
       <c r="E179" s="38"/>
-      <c r="F179" s="56"/>
-    </row>
-    <row r="180" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A180" s="58"/>
+      <c r="F179" s="87"/>
+    </row>
+    <row r="180" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="123"/>
       <c r="B180" s="41"/>
       <c r="C180" s="38"/>
       <c r="D180" s="44"/>
       <c r="E180" s="38"/>
-      <c r="F180" s="57"/>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181" s="60" t="s">
+      <c r="F180" s="88"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="122" t="s">
         <v>195</v>
       </c>
       <c r="B181" s="40"/>
       <c r="C181" s="37"/>
       <c r="D181" s="43"/>
       <c r="E181" s="37"/>
-      <c r="F181" s="55" t="s">
+      <c r="F181" s="86" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
-      <c r="A182" s="58"/>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="123"/>
       <c r="B182" s="41"/>
       <c r="C182" s="38"/>
       <c r="D182" s="44"/>
       <c r="E182" s="38"/>
-      <c r="F182" s="56"/>
-    </row>
-    <row r="183" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A183" s="59"/>
+      <c r="F182" s="87"/>
+    </row>
+    <row r="183" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="124"/>
       <c r="B183" s="42"/>
       <c r="C183" s="39"/>
       <c r="D183" s="45"/>
       <c r="E183" s="39"/>
-      <c r="F183" s="57"/>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184" s="58" t="s">
+      <c r="F183" s="88"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="123" t="s">
         <v>196</v>
       </c>
       <c r="B184" s="41"/>
       <c r="C184" s="38"/>
       <c r="D184" s="44"/>
       <c r="E184" s="38"/>
-      <c r="F184" s="55" t="s">
+      <c r="F184" s="86" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
-      <c r="A185" s="58"/>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="123"/>
       <c r="B185" s="41"/>
       <c r="C185" s="38"/>
       <c r="D185" s="44"/>
       <c r="E185" s="38"/>
-      <c r="F185" s="56"/>
-    </row>
-    <row r="186" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A186" s="58"/>
+      <c r="F185" s="87"/>
+    </row>
+    <row r="186" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="123"/>
       <c r="B186" s="41"/>
       <c r="C186" s="38"/>
       <c r="D186" s="44"/>
       <c r="E186" s="38"/>
-      <c r="F186" s="57"/>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187" s="60" t="s">
+      <c r="F186" s="88"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="122" t="s">
         <v>197</v>
       </c>
       <c r="B187" s="40"/>
       <c r="C187" s="37"/>
       <c r="D187" s="43"/>
       <c r="E187" s="37"/>
-      <c r="F187" s="55" t="s">
+      <c r="F187" s="86" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
-      <c r="A188" s="58"/>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="123"/>
       <c r="B188" s="41"/>
       <c r="C188" s="38"/>
       <c r="D188" s="44"/>
       <c r="E188" s="38"/>
-      <c r="F188" s="56"/>
-    </row>
-    <row r="189" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A189" s="59"/>
+      <c r="F188" s="87"/>
+    </row>
+    <row r="189" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="124"/>
       <c r="B189" s="42"/>
       <c r="C189" s="39"/>
       <c r="D189" s="45"/>
       <c r="E189" s="39"/>
-      <c r="F189" s="57"/>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190" s="58" t="s">
+      <c r="F189" s="88"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="123" t="s">
         <v>198</v>
       </c>
       <c r="B190" s="41"/>
       <c r="C190" s="38"/>
       <c r="D190" s="44"/>
       <c r="E190" s="38"/>
-      <c r="F190" s="52" t="s">
+      <c r="F190" s="127" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
-      <c r="A191" s="58"/>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="123"/>
       <c r="B191" s="41"/>
       <c r="C191" s="38"/>
       <c r="D191" s="44"/>
       <c r="E191" s="38"/>
-      <c r="F191" s="53"/>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192" s="58"/>
+      <c r="F191" s="128"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="123"/>
       <c r="B192" s="41"/>
       <c r="C192" s="38"/>
       <c r="D192" s="44"/>
       <c r="E192" s="38"/>
-      <c r="F192" s="53"/>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193" s="58"/>
+      <c r="F192" s="128"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="123"/>
       <c r="B193" s="41"/>
       <c r="C193" s="38"/>
       <c r="D193" s="44"/>
       <c r="E193" s="38"/>
-      <c r="F193" s="53"/>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194" s="58"/>
+      <c r="F193" s="128"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="123"/>
       <c r="B194" s="41"/>
       <c r="C194" s="38"/>
       <c r="D194" s="44"/>
       <c r="E194" s="38"/>
-      <c r="F194" s="53"/>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195" s="58"/>
+      <c r="F194" s="128"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="123"/>
       <c r="B195" s="41"/>
       <c r="C195" s="38"/>
       <c r="D195" s="44"/>
       <c r="E195" s="38"/>
-      <c r="F195" s="53"/>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196" s="58"/>
+      <c r="F195" s="128"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="123"/>
       <c r="B196" s="41"/>
       <c r="C196" s="38"/>
       <c r="D196" s="44"/>
       <c r="E196" s="38"/>
-      <c r="F196" s="53"/>
-    </row>
-    <row r="197" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A197" s="59"/>
+      <c r="F196" s="128"/>
+    </row>
+    <row r="197" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="124"/>
       <c r="B197" s="42"/>
       <c r="C197" s="39"/>
       <c r="D197" s="45"/>
       <c r="E197" s="39"/>
-      <c r="F197" s="54"/>
+      <c r="F197" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="F7:F13"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="F14:F20"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="E25:E31"/>
-    <mergeCell ref="F25:F31"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="E32:E38"/>
-    <mergeCell ref="F32:F38"/>
-    <mergeCell ref="A39:A45"/>
-    <mergeCell ref="E39:E45"/>
-    <mergeCell ref="F39:F45"/>
-    <mergeCell ref="A46:A53"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="E46:E53"/>
-    <mergeCell ref="F46:F53"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="F80:F86"/>
-    <mergeCell ref="F74:F76"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="F77:F79"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="F69:F73"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A160:A162"/>
-    <mergeCell ref="F160:F162"/>
-    <mergeCell ref="A136:A147"/>
-    <mergeCell ref="E136:E147"/>
-    <mergeCell ref="F136:F147"/>
-    <mergeCell ref="A87:A93"/>
-    <mergeCell ref="F87:F93"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="A121:A135"/>
-    <mergeCell ref="F121:F135"/>
-    <mergeCell ref="A99:A105"/>
-    <mergeCell ref="E99:E105"/>
-    <mergeCell ref="F99:F105"/>
-    <mergeCell ref="A113:A119"/>
-    <mergeCell ref="E113:E119"/>
+    <mergeCell ref="A169:A171"/>
+    <mergeCell ref="F169:F171"/>
+    <mergeCell ref="A166:A168"/>
+    <mergeCell ref="F166:F168"/>
+    <mergeCell ref="A190:A197"/>
+    <mergeCell ref="F172:F174"/>
+    <mergeCell ref="F175:F177"/>
+    <mergeCell ref="F178:F180"/>
+    <mergeCell ref="F181:F183"/>
+    <mergeCell ref="F184:F186"/>
+    <mergeCell ref="F187:F189"/>
+    <mergeCell ref="F190:F197"/>
+    <mergeCell ref="A175:A177"/>
+    <mergeCell ref="A178:A180"/>
+    <mergeCell ref="A181:A183"/>
+    <mergeCell ref="A184:A186"/>
     <mergeCell ref="A94:A98"/>
     <mergeCell ref="F94:F98"/>
     <mergeCell ref="A120:F120"/>
@@ -4428,25 +4430,66 @@
     <mergeCell ref="A148:A149"/>
     <mergeCell ref="F148:F149"/>
     <mergeCell ref="A150:A152"/>
+    <mergeCell ref="A121:A135"/>
+    <mergeCell ref="F121:F135"/>
+    <mergeCell ref="A99:A105"/>
+    <mergeCell ref="E99:E105"/>
+    <mergeCell ref="F99:F105"/>
+    <mergeCell ref="A113:A119"/>
+    <mergeCell ref="E113:E119"/>
+    <mergeCell ref="A87:A93"/>
+    <mergeCell ref="F87:F93"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="A160:A162"/>
+    <mergeCell ref="F160:F162"/>
+    <mergeCell ref="A136:A147"/>
+    <mergeCell ref="E136:E147"/>
+    <mergeCell ref="F136:F147"/>
     <mergeCell ref="F150:F152"/>
     <mergeCell ref="A153:A156"/>
     <mergeCell ref="F153:F156"/>
-    <mergeCell ref="A169:A171"/>
-    <mergeCell ref="F169:F171"/>
-    <mergeCell ref="A166:A168"/>
-    <mergeCell ref="F166:F168"/>
-    <mergeCell ref="A190:A197"/>
-    <mergeCell ref="F172:F174"/>
-    <mergeCell ref="F175:F177"/>
-    <mergeCell ref="F178:F180"/>
-    <mergeCell ref="F181:F183"/>
-    <mergeCell ref="F184:F186"/>
-    <mergeCell ref="F187:F189"/>
-    <mergeCell ref="F190:F197"/>
-    <mergeCell ref="A175:A177"/>
-    <mergeCell ref="A178:A180"/>
-    <mergeCell ref="A181:A183"/>
-    <mergeCell ref="A184:A186"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="F80:F86"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="F69:F73"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="E32:E38"/>
+    <mergeCell ref="F32:F38"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="E39:E45"/>
+    <mergeCell ref="F39:F45"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="E46:E53"/>
+    <mergeCell ref="F46:F53"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="F14:F20"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="E25:E31"/>
+    <mergeCell ref="F25:F31"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="F7:F13"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="F3:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4454,7 +4497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -4463,7 +4506,7 @@
       <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.7109375" style="20" customWidth="1"/>
     <col min="2" max="2" width="41.28515625" customWidth="1"/>
@@ -4475,7 +4518,7 @@
     <col min="8" max="8" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="69" customHeight="1" thickBot="1">
+    <row r="1" spans="1:6" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -4495,18 +4538,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A2" s="122" t="s">
+    <row r="2" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-    </row>
-    <row r="3" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A3" s="130" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+    </row>
+    <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="133" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4521,12 +4564,12 @@
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="62" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A4" s="131"/>
+    <row r="4" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="134"/>
       <c r="B4" s="1" t="s">
         <v>95</v>
       </c>
@@ -4537,9 +4580,9 @@
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="62"/>
-    </row>
-    <row r="5" spans="1:6" ht="33.75" customHeight="1">
+      <c r="F4" s="54"/>
+    </row>
+    <row r="5" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="135"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4549,9 +4592,9 @@
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="62"/>
-    </row>
-    <row r="6" spans="1:6" ht="33.75" customHeight="1">
+      <c r="F5" s="54"/>
+    </row>
+    <row r="6" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="135"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4561,9 +4604,9 @@
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="62"/>
-    </row>
-    <row r="7" spans="1:6" ht="33.75" customHeight="1">
+      <c r="F6" s="54"/>
+    </row>
+    <row r="7" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="135"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -4573,9 +4616,9 @@
       <c r="E7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="62"/>
-    </row>
-    <row r="8" spans="1:6" ht="33.75" customHeight="1">
+      <c r="F7" s="54"/>
+    </row>
+    <row r="8" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="135"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -4585,9 +4628,9 @@
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="62"/>
-    </row>
-    <row r="9" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
+      <c r="F8" s="54"/>
+    </row>
+    <row r="9" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="135"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -4597,10 +4640,10 @@
       <c r="E9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="62"/>
-    </row>
-    <row r="10" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A10" s="130" t="s">
+      <c r="F9" s="54"/>
+    </row>
+    <row r="10" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="133" t="s">
         <v>96</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -4615,12 +4658,12 @@
       <c r="E10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="62" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A11" s="131"/>
+    <row r="11" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="134"/>
       <c r="B11" s="1" t="s">
         <v>95</v>
       </c>
@@ -4631,9 +4674,9 @@
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="62"/>
-    </row>
-    <row r="12" spans="1:6" ht="33.75" customHeight="1">
+      <c r="F11" s="54"/>
+    </row>
+    <row r="12" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="135"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4643,9 +4686,9 @@
       <c r="E12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="62"/>
-    </row>
-    <row r="13" spans="1:6" ht="33.75" customHeight="1">
+      <c r="F12" s="54"/>
+    </row>
+    <row r="13" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="135"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -4655,9 +4698,9 @@
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="62"/>
-    </row>
-    <row r="14" spans="1:6" ht="33.75" customHeight="1">
+      <c r="F13" s="54"/>
+    </row>
+    <row r="14" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="135"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -4667,9 +4710,9 @@
       <c r="E14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="62"/>
-    </row>
-    <row r="15" spans="1:6" ht="33.75" customHeight="1">
+      <c r="F14" s="54"/>
+    </row>
+    <row r="15" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="135"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -4679,9 +4722,9 @@
       <c r="E15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="62"/>
-    </row>
-    <row r="16" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
+      <c r="F15" s="54"/>
+    </row>
+    <row r="16" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="135"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4691,10 +4734,10 @@
       <c r="E16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="62"/>
-    </row>
-    <row r="17" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A17" s="130" t="s">
+      <c r="F16" s="54"/>
+    </row>
+    <row r="17" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="133" t="s">
         <v>99</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -4709,12 +4752,12 @@
       <c r="E17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="61" t="s">
+      <c r="F17" s="62" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A18" s="131"/>
+    <row r="18" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="134"/>
       <c r="B18" s="1" t="s">
         <v>95</v>
       </c>
@@ -4725,9 +4768,9 @@
       <c r="E18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="62"/>
-    </row>
-    <row r="19" spans="1:8" ht="33.75" customHeight="1">
+      <c r="F18" s="54"/>
+    </row>
+    <row r="19" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="135"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -4737,9 +4780,9 @@
       <c r="E19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="62"/>
-    </row>
-    <row r="20" spans="1:8" ht="33.75" customHeight="1">
+      <c r="F19" s="54"/>
+    </row>
+    <row r="20" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="135"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -4749,9 +4792,9 @@
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="62"/>
-    </row>
-    <row r="21" spans="1:8" ht="33.75" customHeight="1">
+      <c r="F20" s="54"/>
+    </row>
+    <row r="21" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="135"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4761,9 +4804,9 @@
       <c r="E21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="62"/>
-    </row>
-    <row r="22" spans="1:8" ht="33.75" customHeight="1">
+      <c r="F21" s="54"/>
+    </row>
+    <row r="22" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="135"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -4773,9 +4816,9 @@
       <c r="E22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="62"/>
-    </row>
-    <row r="23" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
+      <c r="F22" s="54"/>
+    </row>
+    <row r="23" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="135"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -4785,10 +4828,10 @@
       <c r="E23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F23" s="62"/>
-    </row>
-    <row r="24" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A24" s="130" t="s">
+      <c r="F23" s="54"/>
+    </row>
+    <row r="24" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="133" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -4800,15 +4843,15 @@
       <c r="D24" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="61" t="s">
+      <c r="F24" s="62" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A25" s="131"/>
+    <row r="25" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="134"/>
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
@@ -4818,11 +4861,11 @@
       <c r="D25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="67"/>
-      <c r="F25" s="62"/>
-    </row>
-    <row r="26" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A26" s="131"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="54"/>
+    </row>
+    <row r="26" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="134"/>
       <c r="B26" s="1" t="s">
         <v>20</v>
       </c>
@@ -4832,11 +4875,11 @@
       <c r="D26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="67"/>
-      <c r="F26" s="62"/>
-    </row>
-    <row r="27" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A27" s="131"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="54"/>
+    </row>
+    <row r="27" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="134"/>
       <c r="B27" s="1" t="s">
         <v>21</v>
       </c>
@@ -4844,11 +4887,11 @@
       <c r="D27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="67"/>
-      <c r="F27" s="62"/>
-    </row>
-    <row r="28" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A28" s="131"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="54"/>
+    </row>
+    <row r="28" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="134"/>
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
@@ -4856,11 +4899,11 @@
       <c r="D28" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="67"/>
-      <c r="F28" s="62"/>
-    </row>
-    <row r="29" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A29" s="131"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="54"/>
+    </row>
+    <row r="29" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="134"/>
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
@@ -4868,21 +4911,21 @@
       <c r="D29" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="67"/>
-      <c r="F29" s="62"/>
-    </row>
-    <row r="30" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A30" s="132"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="54"/>
+    </row>
+    <row r="30" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="136"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="63"/>
-    </row>
-    <row r="31" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A31" s="130" t="s">
+      <c r="E30" s="65"/>
+      <c r="F30" s="55"/>
+    </row>
+    <row r="31" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="133" t="s">
         <v>147</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -4894,10 +4937,10 @@
       <c r="D31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="61" t="s">
+      <c r="F31" s="62" t="s">
         <v>134</v>
       </c>
       <c r="G31" t="s">
@@ -4907,8 +4950,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A32" s="131"/>
+    <row r="32" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="134"/>
       <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
@@ -4918,14 +4961,14 @@
       <c r="D32" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="67"/>
-      <c r="F32" s="62"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="54"/>
       <c r="G32" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A33" s="131"/>
+    <row r="33" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="134"/>
       <c r="B33" s="1" t="s">
         <v>20</v>
       </c>
@@ -4935,8 +4978,8 @@
       <c r="D33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="67"/>
-      <c r="F33" s="62"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="54"/>
       <c r="G33" t="s">
         <v>117</v>
       </c>
@@ -4944,8 +4987,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A34" s="131"/>
+    <row r="34" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="134"/>
       <c r="B34" s="1" t="s">
         <v>21</v>
       </c>
@@ -4953,8 +4996,8 @@
       <c r="D34" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="67"/>
-      <c r="F34" s="62"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="54"/>
       <c r="G34" t="s">
         <v>118</v>
       </c>
@@ -4962,8 +5005,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A35" s="131"/>
+    <row r="35" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="134"/>
       <c r="B35" s="1" t="s">
         <v>23</v>
       </c>
@@ -4971,8 +5014,8 @@
       <c r="D35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="67"/>
-      <c r="F35" s="62"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="54"/>
       <c r="G35" t="s">
         <v>119</v>
       </c>
@@ -4980,8 +5023,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A36" s="131"/>
+    <row r="36" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="134"/>
       <c r="B36" s="1" t="s">
         <v>24</v>
       </c>
@@ -4989,8 +5032,8 @@
       <c r="D36" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="67"/>
-      <c r="F36" s="62"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="54"/>
       <c r="G36" t="s">
         <v>120</v>
       </c>
@@ -4998,15 +5041,15 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="33.75" customHeight="1">
+    <row r="37" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="135"/>
       <c r="B37" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="62"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="54"/>
       <c r="G37" t="s">
         <v>121</v>
       </c>
@@ -5017,15 +5060,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="33.75" customHeight="1">
+    <row r="38" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="135"/>
       <c r="B38" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="62"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="54"/>
       <c r="G38" t="s">
         <v>122</v>
       </c>
@@ -5036,15 +5079,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="33.75" customHeight="1">
+    <row r="39" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="135"/>
       <c r="B39" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="62"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="54"/>
       <c r="G39" t="s">
         <v>123</v>
       </c>
@@ -5055,8 +5098,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A40" s="132"/>
+    <row r="40" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="136"/>
       <c r="B40" s="4" t="s">
         <v>129</v>
       </c>
@@ -5064,14 +5107,14 @@
       <c r="D40" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="68"/>
-      <c r="F40" s="63"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="55"/>
       <c r="G40" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A41" s="136" t="s">
+    <row r="41" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="164" t="s">
         <v>69</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -5083,15 +5126,15 @@
       <c r="D41" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E41" s="66" t="s">
+      <c r="E41" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="62" t="s">
+      <c r="F41" s="54" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A42" s="137"/>
+    <row r="42" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="165"/>
       <c r="B42" s="1" t="s">
         <v>70</v>
       </c>
@@ -5099,11 +5142,11 @@
       <c r="D42" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="67"/>
-      <c r="F42" s="62"/>
-    </row>
-    <row r="43" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A43" s="137"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="54"/>
+    </row>
+    <row r="43" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="165"/>
       <c r="B43" s="1" t="s">
         <v>49</v>
       </c>
@@ -5111,83 +5154,83 @@
       <c r="D43" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="67"/>
-      <c r="F43" s="62"/>
-    </row>
-    <row r="44" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A44" s="137"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="54"/>
+    </row>
+    <row r="44" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="165"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="67"/>
-      <c r="F44" s="62"/>
-    </row>
-    <row r="45" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A45" s="137"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="54"/>
+    </row>
+    <row r="45" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="165"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="67"/>
-      <c r="F45" s="62"/>
-    </row>
-    <row r="46" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A46" s="137"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="54"/>
+    </row>
+    <row r="46" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="165"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="67"/>
-      <c r="F46" s="62"/>
-    </row>
-    <row r="47" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A47" s="138"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="54"/>
+    </row>
+    <row r="47" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="166"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="68"/>
-      <c r="F47" s="63"/>
-    </row>
-    <row r="48" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A48" s="130" t="s">
+      <c r="E47" s="65"/>
+      <c r="F47" s="55"/>
+    </row>
+    <row r="48" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="133" t="s">
         <v>150</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="133" t="s">
+      <c r="C48" s="162" t="s">
         <v>45</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="112" t="s">
+      <c r="E48" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="F48" s="55" t="s">
+      <c r="F48" s="86" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A49" s="131"/>
+    <row r="49" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="134"/>
       <c r="B49" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="134"/>
+      <c r="C49" s="163"/>
       <c r="D49" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="113"/>
-      <c r="F49" s="56"/>
-    </row>
-    <row r="50" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A50" s="131"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="87"/>
+    </row>
+    <row r="50" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="134"/>
       <c r="B50" s="5" t="s">
         <v>29</v>
       </c>
@@ -5197,11 +5240,11 @@
       <c r="D50" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="113"/>
-      <c r="F50" s="56"/>
-    </row>
-    <row r="51" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A51" s="131"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="87"/>
+    </row>
+    <row r="51" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="134"/>
       <c r="B51" s="24" t="s">
         <v>30</v>
       </c>
@@ -5211,11 +5254,11 @@
       <c r="D51" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="113"/>
-      <c r="F51" s="56"/>
-    </row>
-    <row r="52" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A52" s="131"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="87"/>
+    </row>
+    <row r="52" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="134"/>
       <c r="B52" s="24" t="s">
         <v>31</v>
       </c>
@@ -5225,11 +5268,11 @@
       <c r="D52" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="113"/>
-      <c r="F52" s="56"/>
-    </row>
-    <row r="53" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A53" s="131"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="87"/>
+    </row>
+    <row r="53" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="134"/>
       <c r="B53" s="24" t="s">
         <v>32</v>
       </c>
@@ -5237,11 +5280,11 @@
       <c r="D53" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="113"/>
-      <c r="F53" s="56"/>
-    </row>
-    <row r="54" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A54" s="131"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="87"/>
+    </row>
+    <row r="54" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="134"/>
       <c r="B54" s="24" t="s">
         <v>33</v>
       </c>
@@ -5249,29 +5292,29 @@
       <c r="D54" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="113"/>
-      <c r="F54" s="56"/>
-    </row>
-    <row r="55" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A55" s="132"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="87"/>
+    </row>
+    <row r="55" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="136"/>
       <c r="B55" s="25"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
-      <c r="E55" s="114"/>
-      <c r="F55" s="57"/>
-    </row>
-    <row r="56" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A56" s="103" t="s">
+      <c r="E55" s="85"/>
+      <c r="F55" s="88"/>
+    </row>
+    <row r="56" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="B56" s="103"/>
-      <c r="C56" s="103"/>
-      <c r="D56" s="103"/>
-      <c r="E56" s="103"/>
-      <c r="F56" s="103"/>
-    </row>
-    <row r="57" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A57" s="141" t="s">
+      <c r="B56" s="99"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="99"/>
+      <c r="F56" s="99"/>
+    </row>
+    <row r="57" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="130" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="12" t="s">
@@ -5282,10 +5325,10 @@
         <v>34</v>
       </c>
       <c r="E57" s="3"/>
-      <c r="F57" s="71"/>
-    </row>
-    <row r="58" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A58" s="142"/>
+      <c r="F57" s="75"/>
+    </row>
+    <row r="58" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="131"/>
       <c r="B58" s="8" t="s">
         <v>15</v>
       </c>
@@ -5294,10 +5337,10 @@
         <v>15</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="72"/>
-    </row>
-    <row r="59" spans="1:6" ht="45.75" customHeight="1">
-      <c r="A59" s="150"/>
+      <c r="F58" s="76"/>
+    </row>
+    <row r="59" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="137"/>
       <c r="B59" s="9" t="s">
         <v>10</v>
       </c>
@@ -5306,26 +5349,26 @@
         <v>10</v>
       </c>
       <c r="E59" s="2"/>
-      <c r="F59" s="72"/>
-    </row>
-    <row r="60" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A60" s="150"/>
+      <c r="F59" s="76"/>
+    </row>
+    <row r="60" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="137"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="72"/>
-    </row>
-    <row r="61" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A61" s="143"/>
+      <c r="F60" s="76"/>
+    </row>
+    <row r="61" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="132"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="73"/>
-    </row>
-    <row r="62" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A62" s="141" t="s">
+      <c r="F61" s="95"/>
+    </row>
+    <row r="62" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="130" t="s">
         <v>12</v>
       </c>
       <c r="B62" s="3"/>
@@ -5336,26 +5379,26 @@
         <v>13</v>
       </c>
       <c r="E62" s="3"/>
-      <c r="F62" s="71"/>
-    </row>
-    <row r="63" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A63" s="142"/>
+      <c r="F62" s="75"/>
+    </row>
+    <row r="63" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="131"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="72"/>
-    </row>
-    <row r="64" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A64" s="143"/>
+      <c r="F63" s="76"/>
+    </row>
+    <row r="64" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="132"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="73"/>
-    </row>
-    <row r="65" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A65" s="141" t="s">
+      <c r="F64" s="95"/>
+    </row>
+    <row r="65" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="130" t="s">
         <v>0</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -5366,10 +5409,10 @@
         <v>7</v>
       </c>
       <c r="E65" s="3"/>
-      <c r="F65" s="71"/>
-    </row>
-    <row r="66" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A66" s="142"/>
+      <c r="F65" s="75"/>
+    </row>
+    <row r="66" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="131"/>
       <c r="B66" s="8" t="s">
         <v>8</v>
       </c>
@@ -5378,10 +5421,10 @@
         <v>8</v>
       </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="72"/>
-    </row>
-    <row r="67" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A67" s="143"/>
+      <c r="F66" s="76"/>
+    </row>
+    <row r="67" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="132"/>
       <c r="B67" s="13" t="s">
         <v>9</v>
       </c>
@@ -5390,10 +5433,10 @@
         <v>9</v>
       </c>
       <c r="E67" s="4"/>
-      <c r="F67" s="73"/>
-    </row>
-    <row r="68" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A68" s="141" t="s">
+      <c r="F67" s="95"/>
+    </row>
+    <row r="68" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="130" t="s">
         <v>42</v>
       </c>
       <c r="B68" s="9" t="s">
@@ -5404,10 +5447,10 @@
         <v>39</v>
       </c>
       <c r="E68" s="3"/>
-      <c r="F68" s="71"/>
-    </row>
-    <row r="69" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A69" s="142"/>
+      <c r="F68" s="75"/>
+    </row>
+    <row r="69" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="131"/>
       <c r="B69" s="9" t="s">
         <v>40</v>
       </c>
@@ -5416,10 +5459,10 @@
         <v>40</v>
       </c>
       <c r="E69" s="1"/>
-      <c r="F69" s="72"/>
-    </row>
-    <row r="70" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A70" s="143"/>
+      <c r="F69" s="76"/>
+    </row>
+    <row r="70" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="132"/>
       <c r="B70" s="9" t="s">
         <v>41</v>
       </c>
@@ -5428,10 +5471,10 @@
         <v>41</v>
       </c>
       <c r="E70" s="4"/>
-      <c r="F70" s="73"/>
-    </row>
-    <row r="71" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A71" s="64" t="s">
+      <c r="F70" s="95"/>
+    </row>
+    <row r="71" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="109" t="s">
         <v>58</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -5446,12 +5489,12 @@
       <c r="E71" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F71" s="71" t="s">
+      <c r="F71" s="75" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A72" s="65"/>
+    <row r="72" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="110"/>
       <c r="B72" s="1" t="s">
         <v>17</v>
       </c>
@@ -5464,10 +5507,10 @@
       <c r="E72" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F72" s="72"/>
-    </row>
-    <row r="73" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A73" s="65"/>
+      <c r="F72" s="76"/>
+    </row>
+    <row r="73" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="110"/>
       <c r="B73" s="1" t="s">
         <v>18</v>
       </c>
@@ -5478,10 +5521,10 @@
       <c r="E73" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F73" s="72"/>
-    </row>
-    <row r="74" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A74" s="65"/>
+      <c r="F73" s="76"/>
+    </row>
+    <row r="74" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="110"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="8" t="s">
@@ -5490,10 +5533,10 @@
       <c r="E74" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F74" s="72"/>
-    </row>
-    <row r="75" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A75" s="65"/>
+      <c r="F74" s="76"/>
+    </row>
+    <row r="75" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="110"/>
       <c r="B75" s="7"/>
       <c r="C75" s="1"/>
       <c r="D75" s="8" t="s">
@@ -5502,10 +5545,10 @@
       <c r="E75" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F75" s="72"/>
-    </row>
-    <row r="76" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A76" s="65"/>
+      <c r="F75" s="76"/>
+    </row>
+    <row r="76" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="110"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="8" t="s">
@@ -5514,10 +5557,10 @@
       <c r="E76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F76" s="72"/>
-    </row>
-    <row r="77" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A77" s="74"/>
+      <c r="F76" s="76"/>
+    </row>
+    <row r="77" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="111"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="29" t="s">
@@ -5526,10 +5569,10 @@
       <c r="E77" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F77" s="73"/>
-    </row>
-    <row r="78" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A78" s="166" t="s">
+      <c r="F77" s="95"/>
+    </row>
+    <row r="78" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="153" t="s">
         <v>66</v>
       </c>
       <c r="B78" s="26" t="s">
@@ -5544,30 +5587,30 @@
       <c r="E78" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="94" t="s">
+      <c r="F78" s="89" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A79" s="101"/>
+    <row r="79" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="97"/>
       <c r="B79" s="30"/>
       <c r="C79" s="22"/>
       <c r="D79" s="21"/>
       <c r="E79" s="31"/>
-      <c r="F79" s="95"/>
-    </row>
-    <row r="80" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A80" s="143"/>
+      <c r="F79" s="90"/>
+    </row>
+    <row r="80" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="132"/>
       <c r="B80" s="25"/>
       <c r="C80" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="17"/>
-      <c r="F80" s="96"/>
-    </row>
-    <row r="81" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A81" s="141" t="s">
+      <c r="F80" s="91"/>
+    </row>
+    <row r="81" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="130" t="s">
         <v>112</v>
       </c>
       <c r="B81" s="27" t="s">
@@ -5582,22 +5625,22 @@
       <c r="E81" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F81" s="71" t="s">
+      <c r="F81" s="75" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A82" s="150"/>
+    <row r="82" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="137"/>
       <c r="B82" s="28"/>
       <c r="C82" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="19"/>
-      <c r="F82" s="73"/>
-    </row>
-    <row r="83" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A83" s="141" t="s">
+      <c r="F82" s="95"/>
+    </row>
+    <row r="83" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="130" t="s">
         <v>65</v>
       </c>
       <c r="B83" s="27" t="s">
@@ -5612,20 +5655,20 @@
       <c r="E83" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F83" s="147"/>
-    </row>
-    <row r="84" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A84" s="150"/>
+      <c r="F83" s="154"/>
+    </row>
+    <row r="84" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="137"/>
       <c r="B84" s="28"/>
       <c r="C84" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="19"/>
-      <c r="F84" s="149"/>
-    </row>
-    <row r="85" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A85" s="100" t="s">
+      <c r="F84" s="155"/>
+    </row>
+    <row r="85" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="96" t="s">
         <v>92</v>
       </c>
       <c r="B85" s="15" t="s">
@@ -5640,8 +5683,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A86" s="101"/>
+    <row r="86" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="97"/>
       <c r="B86" s="9" t="s">
         <v>80</v>
       </c>
@@ -5650,8 +5693,8 @@
       <c r="E86" s="1"/>
       <c r="F86" s="34"/>
     </row>
-    <row r="87" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A87" s="102"/>
+    <row r="87" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="98"/>
       <c r="B87" s="25" t="s">
         <v>91</v>
       </c>
@@ -5662,8 +5705,8 @@
       <c r="E87" s="4"/>
       <c r="F87" s="35"/>
     </row>
-    <row r="88" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A88" s="100" t="s">
+    <row r="88" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="96" t="s">
         <v>107</v>
       </c>
       <c r="B88" s="15" t="s">
@@ -5674,32 +5717,32 @@
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="71" t="s">
+      <c r="F88" s="75" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A89" s="101"/>
+    <row r="89" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="97"/>
       <c r="B89" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="72"/>
-    </row>
-    <row r="90" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A90" s="102"/>
+      <c r="F89" s="76"/>
+    </row>
+    <row r="90" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="98"/>
       <c r="B90" s="25"/>
       <c r="C90" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
-      <c r="F90" s="73"/>
-    </row>
-    <row r="91" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A91" s="163" t="s">
+      <c r="F90" s="95"/>
+    </row>
+    <row r="91" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="150" t="s">
         <v>71</v>
       </c>
       <c r="B91" s="3"/>
@@ -5708,62 +5751,62 @@
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="71" t="s">
+      <c r="F91" s="75" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A92" s="164"/>
+    <row r="92" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="151"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="72"/>
-    </row>
-    <row r="93" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A93" s="164"/>
+      <c r="F92" s="76"/>
+    </row>
+    <row r="93" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="151"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="72"/>
-    </row>
-    <row r="94" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A94" s="164"/>
+      <c r="F93" s="76"/>
+    </row>
+    <row r="94" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="151"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="72"/>
-    </row>
-    <row r="95" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A95" s="165"/>
+      <c r="F94" s="76"/>
+    </row>
+    <row r="95" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="152"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="73"/>
-    </row>
-    <row r="96" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A96" s="75" t="s">
+      <c r="F95" s="95"/>
+    </row>
+    <row r="96" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="B96" s="75"/>
-      <c r="C96" s="75"/>
-      <c r="D96" s="75"/>
-      <c r="E96" s="75"/>
-      <c r="F96" s="75"/>
-    </row>
-    <row r="97" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A97" s="144" t="s">
+      <c r="B96" s="121"/>
+      <c r="C96" s="121"/>
+      <c r="D96" s="121"/>
+      <c r="E96" s="121"/>
+      <c r="F96" s="121"/>
+    </row>
+    <row r="97" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="158" t="s">
         <v>50</v>
       </c>
       <c r="B97" s="3"/>
@@ -5774,12 +5817,12 @@
       <c r="E97" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F97" s="147" t="s">
+      <c r="F97" s="154" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A98" s="145"/>
+    <row r="98" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="159"/>
       <c r="B98" s="1"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8" t="s">
@@ -5788,10 +5831,10 @@
       <c r="E98" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F98" s="148"/>
-    </row>
-    <row r="99" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A99" s="145"/>
+      <c r="F98" s="161"/>
+    </row>
+    <row r="99" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="159"/>
       <c r="B99" s="1"/>
       <c r="C99" s="8"/>
       <c r="D99" s="9" t="s">
@@ -5800,10 +5843,10 @@
       <c r="E99" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F99" s="148"/>
-    </row>
-    <row r="100" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A100" s="145"/>
+      <c r="F99" s="161"/>
+    </row>
+    <row r="100" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="159"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="8" t="s">
@@ -5812,10 +5855,10 @@
       <c r="E100" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="148"/>
-    </row>
-    <row r="101" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A101" s="145"/>
+      <c r="F100" s="161"/>
+    </row>
+    <row r="101" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="159"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="8" t="s">
@@ -5824,10 +5867,10 @@
       <c r="E101" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F101" s="148"/>
-    </row>
-    <row r="102" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A102" s="145"/>
+      <c r="F101" s="161"/>
+    </row>
+    <row r="102" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="159"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="8" t="s">
@@ -5836,10 +5879,10 @@
       <c r="E102" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F102" s="148"/>
-    </row>
-    <row r="103" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A103" s="145"/>
+      <c r="F102" s="161"/>
+    </row>
+    <row r="103" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="159"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="8" t="s">
@@ -5848,10 +5891,10 @@
       <c r="E103" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F103" s="148"/>
-    </row>
-    <row r="104" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A104" s="145"/>
+      <c r="F103" s="161"/>
+    </row>
+    <row r="104" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="159"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="9" t="s">
@@ -5860,10 +5903,10 @@
       <c r="E104" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F104" s="148"/>
-    </row>
-    <row r="105" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A105" s="145"/>
+      <c r="F104" s="161"/>
+    </row>
+    <row r="105" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="159"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="9" t="s">
@@ -5872,10 +5915,10 @@
       <c r="E105" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F105" s="148"/>
-    </row>
-    <row r="106" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A106" s="145"/>
+      <c r="F105" s="161"/>
+    </row>
+    <row r="106" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="159"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="9" t="s">
@@ -5884,26 +5927,26 @@
       <c r="E106" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F106" s="148"/>
-    </row>
-    <row r="107" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A107" s="146"/>
+      <c r="F106" s="161"/>
+    </row>
+    <row r="107" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="160"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="18"/>
       <c r="E107" s="19"/>
-      <c r="F107" s="149"/>
-    </row>
-    <row r="108" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A108" s="146"/>
+      <c r="F107" s="155"/>
+    </row>
+    <row r="108" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="160"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="18"/>
       <c r="E108" s="19"/>
-      <c r="F108" s="149"/>
-    </row>
-    <row r="109" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A109" s="154" t="s">
+      <c r="F108" s="155"/>
+    </row>
+    <row r="109" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="141" t="s">
         <v>138</v>
       </c>
       <c r="B109" s="3" t="s">
@@ -5913,13 +5956,13 @@
         <v>26</v>
       </c>
       <c r="D109" s="12"/>
-      <c r="E109" s="157"/>
-      <c r="F109" s="160" t="s">
+      <c r="E109" s="144"/>
+      <c r="F109" s="147" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A110" s="155"/>
+    <row r="110" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="142"/>
       <c r="B110" s="1" t="s">
         <v>131</v>
       </c>
@@ -5927,11 +5970,11 @@
         <v>148</v>
       </c>
       <c r="D110" s="8"/>
-      <c r="E110" s="158"/>
-      <c r="F110" s="161"/>
-    </row>
-    <row r="111" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A111" s="155"/>
+      <c r="E110" s="145"/>
+      <c r="F110" s="148"/>
+    </row>
+    <row r="111" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="142"/>
       <c r="B111" s="1" t="s">
         <v>130</v>
       </c>
@@ -5939,11 +5982,11 @@
         <v>139</v>
       </c>
       <c r="D111" s="9"/>
-      <c r="E111" s="158"/>
-      <c r="F111" s="161"/>
-    </row>
-    <row r="112" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A112" s="155"/>
+      <c r="E111" s="145"/>
+      <c r="F111" s="148"/>
+    </row>
+    <row r="112" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="142"/>
       <c r="B112" s="1" t="s">
         <v>129</v>
       </c>
@@ -5951,11 +5994,11 @@
         <v>140</v>
       </c>
       <c r="D112" s="8"/>
-      <c r="E112" s="158"/>
-      <c r="F112" s="161"/>
-    </row>
-    <row r="113" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A113" s="155"/>
+      <c r="E112" s="145"/>
+      <c r="F112" s="148"/>
+    </row>
+    <row r="113" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="142"/>
       <c r="B113" s="1" t="s">
         <v>22</v>
       </c>
@@ -5963,11 +6006,11 @@
         <v>141</v>
       </c>
       <c r="D113" s="8"/>
-      <c r="E113" s="158"/>
-      <c r="F113" s="161"/>
-    </row>
-    <row r="114" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A114" s="155"/>
+      <c r="E113" s="145"/>
+      <c r="F113" s="148"/>
+    </row>
+    <row r="114" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="142"/>
       <c r="B114" s="1" t="s">
         <v>23</v>
       </c>
@@ -5975,63 +6018,63 @@
         <v>142</v>
       </c>
       <c r="D114" s="8"/>
-      <c r="E114" s="158"/>
-      <c r="F114" s="161"/>
-    </row>
-    <row r="115" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A115" s="155"/>
+      <c r="E114" s="145"/>
+      <c r="F114" s="148"/>
+    </row>
+    <row r="115" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="142"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D115" s="8"/>
-      <c r="E115" s="158"/>
-      <c r="F115" s="161"/>
+      <c r="E115" s="145"/>
+      <c r="F115" s="148"/>
       <c r="I115" s="36"/>
     </row>
-    <row r="116" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A116" s="155"/>
+    <row r="116" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="142"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D116" s="8"/>
-      <c r="E116" s="158"/>
-      <c r="F116" s="161"/>
+      <c r="E116" s="145"/>
+      <c r="F116" s="148"/>
       <c r="I116" s="36"/>
     </row>
-    <row r="117" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A117" s="155"/>
+    <row r="117" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="142"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D117" s="8"/>
-      <c r="E117" s="158"/>
-      <c r="F117" s="161"/>
+      <c r="E117" s="145"/>
+      <c r="F117" s="148"/>
       <c r="I117" s="36"/>
     </row>
-    <row r="118" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A118" s="155"/>
+    <row r="118" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="142"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D118" s="8"/>
-      <c r="E118" s="158"/>
-      <c r="F118" s="161"/>
+      <c r="E118" s="145"/>
+      <c r="F118" s="148"/>
       <c r="I118" s="36"/>
     </row>
-    <row r="119" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A119" s="156"/>
+    <row r="119" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="143"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="29"/>
-      <c r="E119" s="159"/>
-      <c r="F119" s="162"/>
-    </row>
-    <row r="120" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A120" s="139" t="s">
+      <c r="E119" s="146"/>
+      <c r="F119" s="149"/>
+    </row>
+    <row r="120" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="156" t="s">
         <v>51</v>
       </c>
       <c r="B120" s="23" t="s">
@@ -6040,20 +6083,20 @@
       <c r="C120" s="22"/>
       <c r="D120" s="22"/>
       <c r="E120" s="22"/>
-      <c r="F120" s="56" t="s">
+      <c r="F120" s="87" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A121" s="140"/>
+    <row r="121" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="157"/>
       <c r="B121" s="16"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17"/>
       <c r="E121" s="17"/>
-      <c r="F121" s="57"/>
-    </row>
-    <row r="122" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A122" s="49" t="s">
+      <c r="F121" s="88"/>
+    </row>
+    <row r="122" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="103" t="s">
         <v>52</v>
       </c>
       <c r="B122" s="15" t="s">
@@ -6062,32 +6105,32 @@
       <c r="C122" s="14"/>
       <c r="D122" s="14"/>
       <c r="E122" s="14"/>
-      <c r="F122" s="55" t="s">
+      <c r="F122" s="86" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A123" s="50"/>
+    <row r="123" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="104"/>
       <c r="B123" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C123" s="31"/>
       <c r="D123" s="31"/>
       <c r="E123" s="31"/>
-      <c r="F123" s="56"/>
-    </row>
-    <row r="124" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A124" s="50"/>
+      <c r="F123" s="87"/>
+    </row>
+    <row r="124" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="104"/>
       <c r="B124" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C124" s="19"/>
       <c r="D124" s="19"/>
       <c r="E124" s="19"/>
-      <c r="F124" s="56"/>
-    </row>
-    <row r="125" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A125" s="151" t="s">
+      <c r="F124" s="87"/>
+    </row>
+    <row r="125" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="138" t="s">
         <v>81</v>
       </c>
       <c r="B125" s="15" t="s">
@@ -6096,36 +6139,36 @@
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
-      <c r="F125" s="71" t="s">
+      <c r="F125" s="75" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A126" s="152"/>
+    <row r="126" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="139"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="72"/>
-    </row>
-    <row r="127" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A127" s="152"/>
+      <c r="F126" s="76"/>
+    </row>
+    <row r="127" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="139"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="72"/>
-    </row>
-    <row r="128" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A128" s="153"/>
+      <c r="F127" s="76"/>
+    </row>
+    <row r="128" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="140"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
-      <c r="F128" s="73"/>
-    </row>
-    <row r="129" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A129" s="49" t="s">
+      <c r="F128" s="95"/>
+    </row>
+    <row r="129" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="103" t="s">
         <v>86</v>
       </c>
       <c r="B129" s="15" t="s">
@@ -6134,43 +6177,61 @@
       <c r="C129" s="14"/>
       <c r="D129" s="14"/>
       <c r="E129" s="14"/>
-      <c r="F129" s="55" t="s">
+      <c r="F129" s="86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A130" s="50"/>
+    <row r="130" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="104"/>
       <c r="B130" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C130" s="31"/>
       <c r="D130" s="31"/>
       <c r="E130" s="31"/>
-      <c r="F130" s="56"/>
-    </row>
-    <row r="131" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A131" s="51"/>
+      <c r="F130" s="87"/>
+    </row>
+    <row r="131" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="105"/>
       <c r="B131" s="16" t="s">
         <v>84</v>
       </c>
       <c r="C131" s="17"/>
       <c r="D131" s="17"/>
       <c r="E131" s="17"/>
-      <c r="F131" s="57"/>
+      <c r="F131" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="F17:F23"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="E24:E30"/>
-    <mergeCell ref="F24:F30"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="E31:E40"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="E48:E55"/>
-    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="F57:F61"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="F31:F40"/>
+    <mergeCell ref="A48:A55"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="F10:F16"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="F3:F9"/>
+    <mergeCell ref="F48:F55"/>
+    <mergeCell ref="A31:A40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="F41:F47"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A124"/>
+    <mergeCell ref="F122:F124"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="A97:A108"/>
+    <mergeCell ref="F97:F108"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F71:F77"/>
+    <mergeCell ref="A71:A77"/>
     <mergeCell ref="A129:A131"/>
     <mergeCell ref="F129:F131"/>
     <mergeCell ref="A56:F56"/>
@@ -6187,35 +6248,17 @@
     <mergeCell ref="A83:A84"/>
     <mergeCell ref="F83:F84"/>
     <mergeCell ref="A88:A90"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A122:A124"/>
-    <mergeCell ref="F122:F124"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="A97:A108"/>
-    <mergeCell ref="F97:F108"/>
-    <mergeCell ref="F88:F90"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="F71:F77"/>
-    <mergeCell ref="A71:A77"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="F31:F40"/>
-    <mergeCell ref="A48:A55"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="F10:F16"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="F3:F9"/>
-    <mergeCell ref="F48:F55"/>
-    <mergeCell ref="A31:A40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="F41:F47"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="F17:F23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="E24:E30"/>
+    <mergeCell ref="F24:F30"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="E31:E40"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="E48:E55"/>
+    <mergeCell ref="A62:A64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6223,39 +6266,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="80.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="30.75" customHeight="1">
+    <row r="1" spans="1:1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="30.75" customHeight="1">
+    <row r="2" spans="1:1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>151</v>
       </c>
@@ -6266,34 +6309,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>188</v>
       </c>
@@ -6301,17 +6344,17 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>148</v>
       </c>
@@ -6319,7 +6362,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>139</v>
       </c>
@@ -6327,7 +6370,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>140</v>
       </c>
@@ -6335,7 +6378,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>141</v>
       </c>
@@ -6343,7 +6386,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>142</v>
       </c>
@@ -6351,7 +6394,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>143</v>
       </c>
@@ -6359,7 +6402,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>144</v>
       </c>
@@ -6367,7 +6410,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>145</v>
       </c>
@@ -6375,7 +6418,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>149</v>
       </c>
@@ -6383,7 +6426,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>186</v>
       </c>
@@ -6391,7 +6434,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>187</v>
       </c>
@@ -6399,18 +6442,18 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="21" spans="1:2">
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="46" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="46" t="s">
         <v>214</v>
       </c>
